--- a/Parte A/data_train_cleaned.xlsx
+++ b/Parte A/data_train_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1517"/>
+  <dimension ref="A1:C1516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20311,76 +20311,80 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>fault</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>kill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill nơẅkill í</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
+          <t>try best loved heart soul enough can not live another heartbreak choose nothing leave hollow happiness joy life soulmate heart shatter million piece can not without</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>fault</t>
+          <t>officially hit low ever</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>try best loved heart soul enough can not live another heartbreak choose nothing leave hollow happiness joy life soulmate heart shatter million piece can not without</t>
+          <t>pain head keep pound</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>officially hit low ever</t>
+          <t>golden state bridge still option suicide</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>pain head keep pound</t>
+          <t>read make change bridge anyone know still available jump</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>golden state bridge still option suicide</t>
+          <t>want kill life way bad</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>read make change bridge anyone know still available jump</t>
+          <t>want keep go want thing look forward really want end seem like option right everyone cut people notice able anything help live right painful nothing leave sorry care can not handle anymore plan go end night know</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>want kill life way bad</t>
+          <t>escape reality</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>want keep go want thing look forward really want end seem like option right everyone cut people notice able anything help live right painful nothing leave sorry care can not handle anymore plan go end night know</t>
+          <t>recently feel girl know like still major feeling know go anywhere want escape feeling loneliness sadness</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -20392,12 +20396,12 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>escape reality</t>
+          <t>lose youth school</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>recently feel girl know like still major feeling know go anywhere want escape feeling loneliness sadness</t>
+          <t>know lot people say lose young year anxiety depression doubt definitely lose lot year thing feel like large portion life waste school course lot useful thing school teach apply every day life school become bad part day especially trouble since take large part school drain make sad alive probably school system regardless country american school shitty environment people mental issue even suppose properly deal issue constantly bombard schoolwork suppose experience life enjoy trap environment worsens mental health anxiety last year high school still can not help feel like would happier drop realistically long term would look bad school environment toxic lot time pressure conform strong know people feel almost make hate different make want normal vent little know would really make sense people honest kind fuck mentally right school bitch thanks read</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -20409,29 +20413,29 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>lose youth school</t>
+          <t>coronavirus</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>know lot people say lose young year anxiety depression doubt definitely lose lot year thing feel like large portion life waste school course lot useful thing school teach apply every day life school become bad part day especially trouble since take large part school drain make sad alive probably school system regardless country american school shitty environment people mental issue even suppose properly deal issue constantly bombard schoolwork suppose experience life enjoy trap environment worsens mental health anxiety last year high school still can not help feel like would happier drop realistically long term would look bad school environment toxic lot time pressure conform strong know people feel almost make hate different make want normal vent little know would really make sense people honest kind fuck mentally right school bitch thanks read</t>
+          <t>perhaps coronavirus answer although sure end life 31years old odds</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>coronavirus</t>
+          <t>sister want die bad grade</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>perhaps coronavirus answer although sure end life 31years old odds</t>
+          <t>sister cry say want kill since mom take away ps4 phone f asl punch hole wall cut arm anything say help really worried want die please help</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -20443,46 +20447,46 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>sister want die bad grade</t>
+          <t>35f suffer clinical depression feel trap 9 year relationship</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>sister cry say want kill since mom take away ps4 phone f asl punch hole wall cut arm anything say help really worried want die please help</t>
+          <t>hi sure post since relates relationship deal depression since early teen continue major problem life mid 20 meet current partner emotionally mature supportive trusting felt espisodes frequent severe however begin hit 30 start notice large issue overlook young important like finanical health view moneysaving hold job little responsibility lowstress pay ie near minimum wage work overtime time afford house need pay half mortgage order afford say love life interested get marry also almost nearly decade old feel trap much love want leave major reason want leave different view towards finance marriage move want move away parent live want leave long time also scar decision cause anxiety depression spring full force comptemplating suicide would rather die live live since early 20 every time live alone would result suicidal nearly every day struggle graduate late college manage business degree nothing earn unstable job history act cover people okay realize emotionally dependent scare family friends talk emotional support also hate state live many bad memory past abuse parent also live relationship remains strain want move city start know depression talk trust decision judgement low esteem choice back reason leave partner thoughi feel like say want relationship since instance can not even hold steady job make hard leave also currently school try job suitable personalitymassage stick live another 6 month find courage live past find care live anyone mean anyone leave scare stay stay work thing sure know can not sleep well eat much cry every day sometimes would rather die make life decision people mental illness subject whatever relationship get lucky even partner put u</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>35f suffer clinical depression feel trap 9 year relationship</t>
+          <t>fun fun fun</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>hi sure post since relates relationship deal depression since early teen continue major problem life mid 20 meet current partner emotionally mature supportive trusting felt espisodes frequent severe however begin hit 30 start notice large issue overlook young important like finanical health view moneysaving hold job little responsibility lowstress pay ie near minimum wage work overtime time afford house need pay half mortgage order afford say love life interested get marry also almost nearly decade old feel trap much love want leave major reason want leave different view towards finance marriage move want move away parent live want leave long time also scar decision cause anxiety depression spring full force comptemplating suicide would rather die live live since early 20 every time live alone would result suicidal nearly every day struggle graduate late college manage business degree nothing earn unstable job history act cover people okay realize emotionally dependent scare family friends talk emotional support also hate state live many bad memory past abuse parent also live relationship remains strain want move city start know depression talk trust decision judgement low esteem choice back reason leave partner thoughi feel like say want relationship since instance can not even hold steady job make hard leave also currently school try job suitable personalitymassage stick live another 6 month find courage live past find care live anyone mean anyone leave scare stay stay work thing sure know can not sleep well eat much cry every day sometimes would rather die make life decision people mental illness subject whatever relationship get lucky even partner put u</t>
+          <t>make throwaway start suspect people know see previous post feel empty sort empty feel intruder body mind good 3 year stop live merely exist know point likely live child destroyed system enough mixture starvation purge probably child point think likely die hand thing actively stop maybe fact want paramedic family find body sound sick conceeded sometimes think fat find haha ironic make deal would reach certain weight slowly kill via starvation exhaustion know painful could deserve poor excuse human try speak family friend want anyones sympathy even though vent</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>fun fun fun</t>
+          <t>really really want end</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>make throwaway start suspect people know see previous post feel empty sort empty feel intruder body mind good 3 year stop live merely exist know point likely live child destroyed system enough mixture starvation purge probably child point think likely die hand thing actively stop maybe fact want paramedic family find body sound sick conceeded sometimes think fat find haha ironic make deal would reach certain weight slowly kill via starvation exhaustion know painful could deserve poor excuse human try speak family friend want anyones sympathy even though vent</t>
+          <t>point living monotony life fuck hate shit can not talk anyone know fuck sick life really want end fucking bad</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
@@ -20494,12 +20498,12 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>really really want end</t>
+          <t>anyone elses feel useless</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>point living monotony life fuck hate shit can not talk anyone know fuck sick life really want end fucking bad</t>
+          <t>feel useless stupid even know wrong high school yet can not seem anything correctly feel useless like girl school feel like might even annoy understand like everyday struggle get school day keep get bad bad think even anymore want end want die marking leave hand cut ever feel feel stupid useless even waste space everyday school make sure people realise go pretend happy try smile time much become different peer even know anymore understand want end think anyone even read even care please help know</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -20511,46 +20515,46 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>anyone elses feel useless</t>
+          <t>hate life</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>feel useless stupid even know wrong high school yet can not seem anything correctly feel useless like girl school feel like might even annoy understand like everyday struggle get school day keep get bad bad think even anymore want end want die marking leave hand cut ever feel feel stupid useless even waste space everyday school make sure people realise go pretend happy try smile time much become different peer even know anymore understand want end think anyone even read even care please help know</t>
+          <t>hate life much would better dead feel everyday nothing life get good friend see like anymore lot talk school friend seem like like anymore find lot talk shit thought friend already get bully half year want live anymore can not even see doctor even though legal right one none available walk clinic useless canada shit healthcare grade bad disappointment parent point want drown problem drug gf keep fight problem move new school tell everyone nice especially boys like trouble ugly nothing offer personality feel like guy well need want help one help do none make sense ramble want die contemplating</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>hate life</t>
+          <t>sit mean end homeless real friend reason keep go</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>hate life much would better dead feel everyday nothing life get good friend see like anymore lot talk school friend seem like like anymore find lot talk shit thought friend already get bully half year want live anymore can not even see doctor even though legal right one none available walk clinic useless canada shit healthcare grade bad disappointment parent point want drown problem drug gf keep fight problem move new school tell everyone nice especially boys like trouble ugly nothing offer personality feel like guy well need want help one help do none make sense ramble want die contemplating</t>
+          <t>please stop give good reason end homeless live shelter right friend people talk talk talk tire also terrify someone anyone help</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>sit mean end homeless real friend reason keep go</t>
+          <t>want shove box rusty nail throat childhood self</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>please stop give good reason end homeless live shelter right friend people talk talk talk tire also terrify someone anyone help</t>
+          <t>childhood self fuck effeminate little boy make easy target could interest fuck way yet fuck vanilla as piece shit corner people show shoot shit thought would make strong interest person make quiet boring easy ignore fuck remember physical emotional abuse dad family fuck let mom run little experiment body like sort lab rat fuck speak suffer go adult really improved life make abuser hate get slap wrist huh fuck remember childhood especially bad part 25 experience idea sort hell get vague memory fault want dead like want dead want suffer way ever survive experience anymore hold fraction malice horrible wish anyone person world deserve suffer ash kill kill</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -20562,46 +20566,46 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>want shove box rusty nail throat childhood self</t>
+          <t>parent fuck</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>childhood self fuck effeminate little boy make easy target could interest fuck way yet fuck vanilla as piece shit corner people show shoot shit thought would make strong interest person make quiet boring easy ignore fuck remember physical emotional abuse dad family fuck let mom run little experiment body like sort lab rat fuck speak suffer go adult really improved life make abuser hate get slap wrist huh fuck remember childhood especially bad part 25 experience idea sort hell get vague memory fault want dead like want dead want suffer way ever survive experience anymore hold fraction malice horrible wish anyone person world deserve suffer ash kill kill</t>
+          <t>eldest child young sister always favour knew age around 5 around grade 5 major test parent start hit tell useless trash never fight every time blame relationship problem despite still act normal around start tell interest laugh mock wanting thing philosophy would live life want live everything want get depressed young age start cut way relieve stress anger awkward relationship parent flinch every time yell even talk sometimes still act normal around get scar even slight thing wrong yet still joke around sister go test could even care less mark complain ipad take away slight word make upset kind glad raise like become spoil brat like still mixed feeling find judge people could literally say absurd thiing would care unless harm feel like connect parent abuse anyway kind need rant since dad say thing kind trigger memory ok bye</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>parent fuck</t>
+          <t>end</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>eldest child young sister always favour knew age around 5 around grade 5 major test parent start hit tell useless trash never fight every time blame relationship problem despite still act normal around start tell interest laugh mock wanting thing philosophy would live life want live everything want get depressed young age start cut way relieve stress anger awkward relationship parent flinch every time yell even talk sometimes still act normal around get scar even slight thing wrong yet still joke around sister go test could even care less mark complain ipad take away slight word make upset kind glad raise like become spoil brat like still mixed feeling find judge people could literally say absurd thiing would care unless harm feel like connect parent abuse anyway kind need rant since dad say thing kind trigger memory ok bye</t>
+          <t>23 worthless as history degree physical attraction whatsoever real job social life hope get u fuck country sure niece nephews might miss good kid get dead reason kill yet much pussy shoot empty fuckin head</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>start hurt</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>23 worthless as history degree physical attraction whatsoever real job social life hope get u fuck country sure niece nephews might miss good kid get dead reason kill yet much pussy shoot empty fuckin head</t>
+          <t>can not anymore miss girlfriend hate job want move home let others volunteer work time help get bad awhile start get drunk frequently slowly start mix tylenol alcohol frequently feel pain abdomen good reason sad part seem like pain almost comfort last much long thing keep go way matter time go far pain serious damage sorry emilyi break promise fail</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
@@ -20613,29 +20617,29 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>start hurt</t>
+          <t>something wish trigger warn self harm</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>can not anymore miss girlfriend hate job want move home let others volunteer work time help get bad awhile start get drunk frequently slowly start mix tylenol alcohol frequently feel pain abdomen good reason sad part seem like pain almost comfort last much long thing keep go way matter time go far pain serious damage sorry emilyi break promise fail</t>
+          <t>buy bottle wine way home work lastnight drink alone never good felt like really need drink anyway 2 glass try find somebody hang texting friend nearby everyone busy felt lonely painfully lonely start hat learn really love past year lastnight dark side emerge wanted hurt take knife leg start cut something do since high school finish look knew mistake go hide till heals sex beachpool trip short weather always warm live even though winter thing still option limited moment weakness try forgive get chest one person could talk lot feel like need say something well</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>something wish trigger warn self harm</t>
+          <t>think need leave partner 10 year</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>buy bottle wine way home work lastnight drink alone never good felt like really need drink anyway 2 glass try find somebody hang texting friend nearby everyone busy felt lonely painfully lonely start hat learn really love past year lastnight dark side emerge wanted hurt take knife leg start cut something do since high school finish look knew mistake go hide till heals sex beachpool trip short weather always warm live even though winter thing still option limited moment weakness try forgive get chest one person could talk lot feel like need say something well</t>
+          <t>girlfriend together ten year know anymore suffers depression anxiety severe ocd last couple year anxiety worsen last month much see anybody anymore panic attack end cancel plan niece third birthday party tomorrow suppose go stay parent weekend want go fair enough see family less less needing weekend family friends mine really feel like nobody else exhaust ask family friends back home talk want tell anyone believe way make everyone life shit try tell true deep root mind think would better dead threaten suicide feel like leave even weekend would kill really threat mindset think good dead know anymore really even know kme asshole lose confused tire still love care life anymore stop take medication year ago think make worse respected wish honest sometimes seemed fine lately absolutely fine refuse go back form medication know please help leave worry also worried feel sick</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -20647,12 +20651,12 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>think need leave partner 10 year</t>
+          <t>can not fuck look self anymore</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>girlfriend together ten year know anymore suffers depression anxiety severe ocd last couple year anxiety worsen last month much see anybody anymore panic attack end cancel plan niece third birthday party tomorrow suppose go stay parent weekend want go fair enough see family less less needing weekend family friends mine really feel like nobody else exhaust ask family friends back home talk want tell anyone believe way make everyone life shit try tell true deep root mind think would better dead threaten suicide feel like leave even weekend would kill really threat mindset think good dead know anymore really even know kme asshole lose confused tire still love care life anymore stop take medication year ago think make worse respected wish honest sometimes seemed fine lately absolutely fine refuse go back form medication know please help leave worry also worried feel sick</t>
+          <t>hate self fuck much everything anyone tell can not stand self school people throw shit know nothing like pice shit thang ever make feel well get high fucking problem never talk anybody thought weak hey good say yeah everyday point live living living know rant go use harm get scar horrify everybody notice bring badly worth anyone even want sleep never wake</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -20664,63 +20668,63 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>can not fuck look self anymore</t>
+          <t>hard happy</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>hate self fuck much everything anyone tell can not stand self school people throw shit know nothing like pice shit thang ever make feel well get high fucking problem never talk anybody thought weak hey good say yeah everyday point live living living know rant go use harm get scar horrify everybody notice bring badly worth anyone even want sleep never wake</t>
+          <t>40 fought high low depression think reality never go away life live lie lie much move forward great family nice new home nice car new business great career nothing seem make happy long think want end life yes know suicide easy way temporary problem life today longer temporary feel longer feel alive anymore 1st rodeo try end life 10 year ago wish never survive today think feeling feel much one person take every day every second mostly every breath take day want end life find way end po follow throw go bed say prayer go sleep lord soul keep need wake morning please take life let rest peace sleep praise lord savoir take life take soul take away pain live pain live much take everyday wear fake smile every day drive vehicle office think pole bridge wall truck drive building jump never feel pain feel know funnest man alive robin williams end life want hard live world alive dead easy anymore rather die live lie fake smile show ok</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>hard happy</t>
+          <t>hate way look</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>40 fought high low depression think reality never go away life live lie lie much move forward great family nice new home nice car new business great career nothing seem make happy long think want end life yes know suicide easy way temporary problem life today longer temporary feel longer feel alive anymore 1st rodeo try end life 10 year ago wish never survive today think feeling feel much one person take every day every second mostly every breath take day want end life find way end po follow throw go bed say prayer go sleep lord soul keep need wake morning please take life let rest peace sleep praise lord savoir take life take soul take away pain live pain live much take everyday wear fake smile every day drive vehicle office think pole bridge wall truck drive building jump never feel pain feel know funnest man alive robin williams end life want hard live world alive dead easy anymore rather die live lie fake smile show ok</t>
+          <t>nowadays people start embrace body positivity learn love can not every time look mirror see flaws stomach bulge much face fat acne ugly need shave teeth yellow butts small etc can not see good big insecurity stomach can not help think fat even though average bmi 55 140 playing sportworking every day think insecurity sort stem everyone around stick thin one girl grade keep say fat half foot taller weigh less know bother also gymnast see everyone around thin look good leotard make feel awful eating lot can not help mad later put much weight sometimes can not help like food gotten point lunch granola bar hungry throughout day anyone tip help raise self esteem greatly appreciate honestly one probably go see read thanks random reddit user listen rant breathtaking ann ominous</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>hate way look</t>
+          <t>know suicide answer</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>nowadays people start embrace body positivity learn love can not every time look mirror see flaws stomach bulge much face fat acne ugly need shave teeth yellow butts small etc can not see good big insecurity stomach can not help think fat even though average bmi 55 140 playing sportworking every day think insecurity sort stem everyone around stick thin one girl grade keep say fat half foot taller weigh less know bother also gymnast see everyone around thin look good leotard make feel awful eating lot can not help mad later put much weight sometimes can not help like food gotten point lunch granola bar hungry throughout day anyone tip help raise self esteem greatly appreciate honestly one probably go see read thanks random reddit user listen rant breathtaking ann ominous</t>
+          <t>still want keep living zero hope future goal dream thing keep scar pain like meme mom would sad keep joke friend really really want stop carry life</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>know suicide answer</t>
+          <t>someone help please</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>still want keep living zero hope future goal dream thing keep scar pain like meme mom would sad keep joke friend really really want stop carry life</t>
+          <t>can not anymore cry 3 hour can not get stop everyone life hate family want grade drain hate look really think worth anymore</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -20732,12 +20736,12 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>someone help please</t>
+          <t>one really care sent psych ward tell therapist much</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>can not anymore cry 3 hour can not get stop everyone life hate family want grade drain hate look really think worth anymore</t>
+          <t>really want die want stop fuck best way kill route take route available way happen medication mental healthcare gladly choose problem really care live die course action difficult take easy way kill say easy easy main thing prevent people take say go avoid say something therapist think send psych ward best chance get well med therapy honest go completely fine really anything go life would mind sacrifice week hell well prepared sacrifice life order stop pain psych ward kind nice since way kind die temporary death away everything else life good death though since still fuck head long fuck suffer well suffering still shit anywho psychiatry route work always kill seem stupid take advantage psychiatry full mean tell therapist enough could hospitalize</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -20749,46 +20753,46 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>one really care sent psych ward tell therapist much</t>
+          <t>thank reddit</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>really want die want stop fuck best way kill route take route available way happen medication mental healthcare gladly choose problem really care live die course action difficult take easy way kill say easy easy main thing prevent people take say go avoid say something therapist think send psych ward best chance get well med therapy honest go completely fine really anything go life would mind sacrifice week hell well prepared sacrifice life order stop pain psych ward kind nice since way kind die temporary death away everything else life good death though since still fuck head long fuck suffer well suffering still shit anywho psychiatry route work always kill seem stupid take advantage psychiatry full mean tell therapist enough could hospitalize</t>
+          <t>fuck hate life keep fuck act like everythings fuck fone happy can not bring fuck tell anyone depressed post tell guy escape reality thing make feel less lonely</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>thank reddit</t>
+          <t>scar alone</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>fuck hate life keep fuck act like everythings fuck fone happy can not bring fuck tell anyone depressed post tell guy escape reality thing make feel less lonely</t>
+          <t>fuck accept job offer leave old comfortable job want die can not keep go like depress afraid everything</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>scar alone</t>
+          <t>come term maybe want end do</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>fuck accept job offer leave old comfortable job want die can not keep go like depress afraid everything</t>
+          <t>suicidal thought long time see gp put med counsel name try apart feel like enough option end life sound dramatic selfish honest feel like nobody anymore disappointing people around like parent example know deep failure eye prolong upset make life difficult certain aspect depression constantly make worry also feel though end would worry would go speak friend turn around say man stop soft cause believe anyone close talk feel like can not rely anyone anymore would better dead ex split 6 month ago short term relationship one thing felt really happy end sad perhaps perhaps capable relationship clearly something wrong see move another shatter deeply can not seem want get back believe type person anyone like time many thing could add list like mid 20 part time job feel motivate want look career feel good enough anymore feel though really do life time really know anymore sad exist world want apart anymore type really know else talk anymore want crawl ball cry every day wake go sleep thinking want dead wish could happy feel option anymore</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -20800,12 +20804,12 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>come term maybe want end do</t>
+          <t>can not go</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>suicidal thought long time see gp put med counsel name try apart feel like enough option end life sound dramatic selfish honest feel like nobody anymore disappointing people around like parent example know deep failure eye prolong upset make life difficult certain aspect depression constantly make worry also feel though end would worry would go speak friend turn around say man stop soft cause believe anyone close talk feel like can not rely anyone anymore would better dead ex split 6 month ago short term relationship one thing felt really happy end sad perhaps perhaps capable relationship clearly something wrong see move another shatter deeply can not seem want get back believe type person anyone like time many thing could add list like mid 20 part time job feel motivate want look career feel good enough anymore feel though really do life time really know anymore sad exist world want apart anymore type really know else talk anymore want crawl ball cry every day wake go sleep thinking want dead wish could happy feel option anymore</t>
+          <t>due medical treatment throw feel like night feel shit go</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -20817,29 +20821,29 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>can not go</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>due medical treatment throw feel like night feel shit go</t>
+          <t>call get say social security number involve suspicious activity b real fmlagain want go jury duty man fuck fuck sorry</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>tire neurotic</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>call get say social security number involve suspicious activity b real fmlagain want go jury duty man fuck fuck sorry</t>
+          <t>feel like every moment spend worry depress sometimes without direct reason start feel terrible reason sometimes ask feel way actually kind danger vast majority time answer already med yet still bad</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -20851,114 +20855,114 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>tire neurotic</t>
+          <t>feel depress even though diagnose want die</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>feel like every moment spend worry depress sometimes without direct reason start feel terrible reason sometimes ask feel way actually kind danger vast majority time answer already med yet still bad</t>
+          <t>feel anything feeling place like meant world supportive friend call attention seeker past reach family constantly argue call silly tell want die really want end</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>feel depress even though diagnose want die</t>
+          <t>incredibly lethargicachy today spend majority lay couch also 2 cat dog sleep alongside</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>feel anything feeling place like meant world supportive friend call attention seeker past reach family constantly argue call silly tell want die really want end</t>
+          <t>scatter around body couch three lay peacefully asleep much bearable feel sick need get try start dinner family stay recuperate go another hour want come home nothing need cut four vegetableswish luck</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>incredibly lethargicachy today spend majority lay couch also 2 cat dog sleep alongside</t>
+          <t>put actual suicide watch therapist</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>scatter around body couch three lay peacefully asleep much bearable feel sick need get try start dinner family stay recuperate go another hour want come home nothing need cut four vegetableswish luck</t>
+          <t>today appointment therapist let know suicidal thought want committed able convince need hospitalize let leave office condition check every twelve hour text hear agree upon time would send emts house glad able honest feel willing compromise type intervention use</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>put actual suicide watch therapist</t>
+          <t>think brain functioning like</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>today appointment therapist let know suicidal thought want committed able convince need hospitalize let leave office condition check every twelve hour text hear agree upon time would send emts house glad able honest feel willing compromise type intervention use</t>
+          <t>diagnose depression anxiety two year agoi bad relationship year half ago meet new guy move room live central london afford room use antidepressant year work part time self study want get uni think really want study dentistry even stand chance get uni friend boyfriend work part time go college 22 feel like fail everything can not interact people without instantly think judge mocked something always overthink create scenario head never happen think always scar people hate mad randomly remember bad memory past keep thinking happy honestly know life stick honestly feel like get stab die would relieve</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>think brain functioning like</t>
+          <t>need advice</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>diagnose depression anxiety two year agoi bad relationship year half ago meet new guy move room live central london afford room use antidepressant year work part time self study want get uni think really want study dentistry even stand chance get uni friend boyfriend work part time go college 22 feel like fail everything can not interact people without instantly think judge mocked something always overthink create scenario head never happen think always scar people hate mad randomly remember bad memory past keep thinking happy honestly know life stick honestly feel like get stab die would relieve</t>
+          <t>want talk therapist suicidal thoughtstendencies plan terrify go inpatient voluntarily involuntarily know danger okay want somebody else know bottle feeling good want anything know never speak therapist depth thought know exist want actually talk without consequence happen anyone experience situation terrify</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>need advice</t>
+          <t>advice start antidepressant</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>want talk therapist suicidal thoughtstendencies plan terrify go inpatient voluntarily involuntarily know danger okay want somebody else know bottle feeling good want anything know never speak therapist depth thought know exist want actually talk without consequence happen anyone experience situation terrify</t>
+          <t>hey think start take medication depression know severe enough antidepressant deep depression start actually work thanks advance</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>advice start antidepressant</t>
+          <t>anyone want chat</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>hey think start take medication depression know severe enough antidepressant deep depression start actually work thanks advance</t>
+          <t>good place moment wondering could maybe find comfort</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
@@ -20970,63 +20974,63 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>anyone want chat</t>
+          <t>break 2 year sobrietysuicidal thought</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>good place moment wondering could maybe find comfort</t>
+          <t>today drink first time almost 2 year point want feel anymore job depression cripple 6 month since leave last job 3 year get point could take anymore try keep busy home renovation can not even get bed past 1pm even go bed early know need see someone can not even make appointment today know snap want anymore tire tire force stay alive would kill long time ago would destroy small family know much long</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>break 2 year sobrietysuicidal thought</t>
+          <t>suddenly start cry</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>today drink first time almost 2 year point want feel anymore job depression cripple 6 month since leave last job 3 year get point could take anymore try keep busy home renovation can not even get bed past 1pm even go bed early know need see someone can not even make appointment today know snap want anymore tire tire force stay alive would kill long time ago would destroy small family know much long</t>
+          <t>post wait someone tell something good nobody get sick suddenly middle day start cry know maybe yes can not deal fact always shit every time stop start cry think life get afraid future ever love friend call hang without everyone think shit thing like want write something nice please</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>suddenly start cry</t>
+          <t>lose hope ever functional</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>post wait someone tell something good nobody get sick suddenly middle day start cry know maybe yes can not deal fact always shit every time stop start cry think life get afraid future ever love friend call hang without everyone think shit thing like want write something nice please</t>
+          <t>barely graduate high school due many absence two semester college take medical leave absence would fall behind coursework past point able catch try get job thing can not promise go show work base pattern behavior psychiatrist keep put pill work think therapist help either know step take can not think meant alive today world can not survive without burden everyone else ineptness really want kill wish never bear could normal thing functional</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>lose hope ever functional</t>
+          <t>worth shit</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>barely graduate high school due many absence two semester college take medical leave absence would fall behind coursework past point able catch try get job thing can not promise go show work base pattern behavior psychiatrist keep put pill work think therapist help either know step take can not think meant alive today world can not survive without burden everyone else ineptness really want kill wish never bear could normal thing functional</t>
+          <t>need buy razor go home lock bathroom get work get point med work give shit anything go college class overeat stress contact girlfriend much feel like kill really good drop get kick family force get job work panic attack least every day instead go class drinking smoking help deal emptiness genuinely think worth shit go able provide girlfriend make family happy kill would solve problem</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -21038,29 +21042,29 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>worth shit</t>
+          <t>try offer help restrictedso realised time end life</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>need buy razor go home lock bathroom get work get point med work give shit anything go college class overeat stress contact girlfriend much feel like kill really good drop get kick family force get job work panic attack least every day instead go class drinking smoking help deal emptiness genuinely think worth shit go able provide girlfriend make family happy kill would solve problem</t>
+          <t>always humanity control want see purpose help people break mebetter people decide kill really want best way kill either quickly least amount pain cure remedy amaze beach scene help mei need end thisplease thankyou</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>try offer help restrictedso realised time end life</t>
+          <t>identity suicidal</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>always humanity control want see purpose help people break mebetter people decide kill really want best way kill either quickly least amount pain cure remedy amaze beach scene help mei need end thisplease thankyou</t>
+          <t>problem start 4 year ago generally calm person introvert ambivalent like liked help quite specific empathetic although stayed normal cool people could dick time noticed stand others go somewhere spent time etc problem start high school come party crazy outing everyone snap tell exit unknown anyone one friend find something wrong begin change want reprogram upload extroverted software time completely distorted picture reality example always balance make quick illconsidered decision see others suppress add new software see others respond immediately hut also begin small seemingly low risk example change plenty everything know sick begin think people live like wanted experience beautiful moment hear told last long time current personality change copy every behavior think pattern well one take example half year get depressed felt terrible memory loss pit realize do want unprogram begin think analyze personality lot change behave feel tried remember previous identity many copy habit know behave feel think feel like unreal dream without contact feeling emotion situation continue day know feel anything feel thing keep alive awareness use good head often thoughts suicide sick thought classify people accord quality useful divide people better bad feel anything 4 year feel alive sadness shot joy intense feeling constantly compare others know look others wonder feel think chance would face psychologist therapy nothing keep touch psychologist tell stop think follow feeling try still want write feel lose thing keep alive reason nothing else tell think remember like happy know thank reading advice</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -21072,12 +21076,12 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>identity suicidal</t>
+          <t>depression hit sudden</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>problem start 4 year ago generally calm person introvert ambivalent like liked help quite specific empathetic although stayed normal cool people could dick time noticed stand others go somewhere spent time etc problem start high school come party crazy outing everyone snap tell exit unknown anyone one friend find something wrong begin change want reprogram upload extroverted software time completely distorted picture reality example always balance make quick illconsidered decision see others suppress add new software see others respond immediately hut also begin small seemingly low risk example change plenty everything know sick begin think people live like wanted experience beautiful moment hear told last long time current personality change copy every behavior think pattern well one take example half year get depressed felt terrible memory loss pit realize do want unprogram begin think analyze personality lot change behave feel tried remember previous identity many copy habit know behave feel think feel like unreal dream without contact feeling emotion situation continue day know feel anything feel thing keep alive awareness use good head often thoughts suicide sick thought classify people accord quality useful divide people better bad feel anything 4 year feel alive sadness shot joy intense feeling constantly compare others know look others wonder feel think chance would face psychologist therapy nothing keep touch psychologist tell stop think follow feeling try still want write feel lose thing keep alive reason nothing else tell think remember like happy know thank reading advice</t>
+          <t>go good feeling happy sudden feel depress know hat right happen deal</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
@@ -21089,29 +21093,29 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>depression hit sudden</t>
+          <t>nothing common anyone</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>go good feeling happy sudden feel depress know hat right happen deal</t>
+          <t>notice lifelong friend elementary middle school like everyone else never boyfriend hometown state humor mindset hobby interest fuck people conform either even sound like live bay area make even bad new cancer generation tech asshole everyone samefake one kind genuine anymore never felt comfortable fuck 0 want kill never get</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>nothing common anyone</t>
+          <t>know stop feeling empty hopeless</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>notice lifelong friend elementary middle school like everyone else never boyfriend hometown state humor mindset hobby interest fuck people conform either even sound like live bay area make even bad new cancer generation tech asshole everyone samefake one kind genuine anymore never felt comfortable fuck 0 want kill never get</t>
+          <t>today work mental breakdown can not stop feeling sad suddenly suicide thought keep pop head keep fall apart never smoke reason want bad cry cut continuously sad thing one care coworker never ask start smoke parent laugh stupidthat think might care hah mess right can not stop think dead honest feel like sometimes even internet care parent can not love anymore accident reason make everyone suffer never want die though life suck make reason get way</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -21123,80 +21127,80 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>know stop feeling empty hopeless</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>today work mental breakdown can not stop feeling sad suddenly suicide thought keep pop head keep fall apart never smoke reason want bad cry cut continuously sad thing one care coworker never ask start smoke parent laugh stupidthat think might care hah mess right can not stop think dead honest feel like sometimes even internet care parent can not love anymore accident reason make everyone suffer never want die though life suck make reason get way</t>
+          <t>life repeat wake thing every single day friends one feel empty alone guess another night sit stare nothing think crap life see everyone happy great time meanwhile home 18 year old graduate even know want go college always think end come time</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>people want suffer person stay alive care person alive</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>life repeat wake thing every single day friends one feel empty alone guess another night sit stare nothing think crap life see everyone happy great time meanwhile home 18 year old graduate even know want go college always think end come time</t>
+          <t>nut people come woodwork person die disappear threat example homeless person could bridge miserable people pay attention moment later could edge bridge suddenly everyone care lol</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>people want suffer person stay alive care person alive</t>
+          <t>experience suicide hotline like</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>nut people come woodwork person die disappear threat example homeless person could bridge miserable people pay attention moment later could edge bridge suddenly everyone care lol</t>
+          <t>consider call hotline want hear people experience</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>experience suicide hotline like</t>
+          <t>start write note</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>consider call hotline want hear people experience</t>
+          <t>one two every day go list important people know go would rather small form closure close</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>start write note</t>
+          <t>30 year old get good</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>one two every day go list important people know go would rather small form closure close</t>
+          <t>every time start build life get ripped apart day relapse alcohol everything go shit could go jail life always get bad want die 30 get bad bad bad sure small space joy worth want slit wrist vertically want end suffering love good time want go life longer also physical disability little scared death go die either way scar pain want life end</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
@@ -21208,46 +21212,42 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>30 year old get good</t>
+          <t>depression need advice try post many sub reddits keep delete</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>every time start build life get ripped apart day relapse alcohol everything go shit could go jail life always get bad want die 30 get bad bad bad sure small space joy worth want slit wrist vertically want end suffering love good time want go life longer also physical disability little scared death go die either way scar pain want life end</t>
+          <t>hey 14 year old female 9th grade right low point life one im14andthisisdeep girl haha moment really want discus everything yet one situation also please mind bad expressing may sound repetitive try list everything friend group consist around 9 people think keep add explain later girl friend group can not really say friend really close keep avoid start avoid around start school year start show dislike around friend talk jokingly can not recall properly sorry go receive flower valentine day hence say people friend group would group watch movie together curious ask something related sorry can not remember exactly think say something like oh movie like would event take place rudely reply girl friend group star rude way way can not read expression kind hurt behaviour kept continue around day later go spot friend sit sat next girl apparently dislike immediately stood rush kid run away opposite side sit blankly star hurt frick group stay silent girl look say oh know shit mood shittiest mood compare whole day walk hsie class 2 friend ask one privacy call sally let u call fiona keep avoid sally reply say say something fiona month ago piss sally tell worry fiona petty person honestly think okay wtf actually actually tear bit due sadness extent cry though timeskip day fiona go opposite side friend circle always1 try near even slight near go even away ask someone friendsclose fiona go commerce class next period explain situation whilst cling edge wall like yandere girl yandere simulator awkward af seriously also respond something similar say fiano use act like need get use tear extend cry le fuck sigh add oh like say something similar sally say petty ugh tired hearing word everyone timeskip keep avoid sit next recently go bathroom another girl whilst walk back class fiona respond hey name ignore wow nice talk glare negative reaction today hsie class lunch complain annoy way bore fuck piano responds maybe friend pause literally flash emotion hit hurtfulness pain frustration anger name enough play say something around maybe respond differently direct nicely hate whatever tell say sorry blah blah blah sorry start notice kind year lead hurt people take advantage go top yeah girl would hate dislike talk thread would wayyy long fiona reply nothingno nothing wrong hate spread bad mood bad morning math test sleep stay study also extremely stress group go silent stop talk enough want apart group explain later want near fuckinghadenough abruptly leave group sorry mention earlier often something shitty walk around star happy mean really know people friend fake smilingugh reason approach closely stare ugh fuck amazing life also talk friend fix group especially around 8th grade know new student teacher would force put group well welcome mine anyways group basically new people come 1 8th grade never meet old friend come backleft would another girl would hang group another one one year 9th grade already 6th week 2 girl introduce even remember name certain thing create friend group example like book stay bookworm bookworm group though nothing like make feel close friend friend group closely connect one another like lunch fuck bore last time fun recess lunchnote_ 4 5 day school meeting lunch src thing people eat due boredom half go phones little interaction create quiet quiet group talk laugh seriously never felt close friend would go party park movie home photo post instagram one time party tag include one thanks way close though printed photo card picture share memory phone case one picture korean hand heart saranghaeyo thingy make together circle wow like nott hurt close feel lonely around one talk one trust go make friend reach bout loneliness online different platform talk nice talk someone online though know keep secret sorry longer think want talk never think something think small would end long may post future something want elaborate please feel free ask respond personal hehe need someone talk</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>depression need advice try post many sub reddits keep delete</t>
+          <t>hurt deserve</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>hey 14 year old female 9th grade right low point life one im14andthisisdeep girl haha moment really want discus everything yet one situation also please mind bad expressing may sound repetitive try list everything friend group consist around 9 people think keep add explain later girl friend group can not really say friend really close keep avoid start avoid around start school year start show dislike around friend talk jokingly can not recall properly sorry go receive flower valentine day hence say people friend group would group watch movie together curious ask something related sorry can not remember exactly think say something like oh movie like would event take place rudely reply girl friend group star rude way way can not read expression kind hurt behaviour kept continue around day later go spot friend sit sat next girl apparently dislike immediately stood rush kid run away opposite side sit blankly star hurt frick group stay silent girl look say oh know shit mood shittiest mood compare whole day walk hsie class 2 friend ask one privacy call sally let u call fiona keep avoid sally reply say say something fiona month ago piss sally tell worry fiona petty person honestly think okay wtf actually actually tear bit due sadness extent cry though timeskip day fiona go opposite side friend circle always1 try near even slight near go even away ask someone friendsclose fiona go commerce class next period explain situation whilst cling edge wall like yandere girl yandere simulator awkward af seriously also respond something similar say fiano use act like need get use tear extend cry le fuck sigh add oh like say something similar sally say petty ugh tired hearing word everyone timeskip keep avoid sit next recently go bathroom another girl whilst walk back class fiona respond hey name ignore wow nice talk glare negative reaction today hsie class lunch complain annoy way bore fuck piano responds maybe friend pause literally flash emotion hit hurtfulness pain frustration anger name enough play say something around maybe respond differently direct nicely hate whatever tell say sorry blah blah blah sorry start notice kind year lead hurt people take advantage go top yeah girl would hate dislike talk thread would wayyy long fiona reply nothingno nothing wrong hate spread bad mood bad morning math test sleep stay study also extremely stress group go silent stop talk enough want apart group explain later want near fuckinghadenough abruptly leave group sorry mention earlier often something shitty walk around star happy mean really know people friend fake smilingugh reason approach closely stare ugh fuck amazing life also talk friend fix group especially around 8th grade know new student teacher would force put group well welcome mine anyways group basically new people come 1 8th grade never meet old friend come backleft would another girl would hang group another one one year 9th grade already 6th week 2 girl introduce even remember name certain thing create friend group example like book stay bookworm bookworm group though nothing like make feel close friend friend group closely connect one another like lunch fuck bore last time fun recess lunchnote_ 4 5 day school meeting lunch src thing people eat due boredom half go phones little interaction create quiet quiet group talk laugh seriously never felt close friend would go party park movie home photo post instagram one time party tag include one thanks way close though printed photo card picture share memory phone case one picture korean hand heart saranghaeyo thingy make together circle wow like nott hurt close feel lonely around one talk one trust go make friend reach bout loneliness online different platform talk nice talk someone online though know keep secret sorry longer think want talk never think something think small would end long may post future something want elaborate please feel free ask respond personal hehe need someone talk</t>
+          <t>people say bad decision always make someone bad person really feel like true case imagine feel eternally shitty waste life hurt cause make feel like true identity wish bpd wish could better wish wish never fix thing body mind feel useless distract friend feel distant world fill guilt bad part know forgiven can not help think may want much long would crumble disappear without fill much pain pain deserve feel wish could disappear think die horrify world go without fade distant memory know know need external help amount therapy rid thought fear never grow seem dark temporary</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>hurt deserve</t>
-        </is>
-      </c>
+      <c r="A1227" t="inlineStr"/>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>people say bad decision always make someone bad person really feel like true case imagine feel eternally shitty waste life hurt cause make feel like true identity wish bpd wish could better wish wish never fix thing body mind feel useless distract friend feel distant world fill guilt bad part know forgiven can not help think may want much long would crumble disappear without fill much pain pain deserve feel wish could disappear think die horrify world go without fade distant memory know know need external help amount therapy rid thought fear never grow seem dark temporary</t>
+          <t>try good 10 11 time past year fail yet still want try try co mostly everything useless number fail attempt mean anything weird luck</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
@@ -21257,44 +21257,48 @@
       </c>
     </row>
     <row r="1228">
-      <c r="A1228" t="inlineStr"/>
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>cut first time yesterday</t>
+        </is>
+      </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>try good 10 11 time past year fail yet still want try try co mostly everything useless number fail attempt mean anything weird luck</t>
+          <t>title say cut first time yesterday 2 swipe feel like huge step back know therapist can not talk parent think serious know go</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>cut first time yesterday</t>
+          <t>despresso</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>title say cut first time yesterday 2 swipe feel like huge step back know therapist can not talk parent think serious know go</t>
+          <t>hi v intense realization depress long time though would think met every day slap smile ask kind beauty go see today allow life flow people say nice happy fun charm get good even convince pass 10yrs happy truth though think would know happiness hit face think depress since young childhood come wildly dysfunctional military home constantly bully turned sex drug alcohol young age order cope 25 big city feeling isolate ever work two job go university decide drop trade decide poly felt lonely monogamous relationship poly nothing heartache live close friend clean constantly girl friend even though work night apartment know set boundary one ever respect therapy currently guess almost back assaulted abused cat never cuddle know make deep connection people keep friendship think state world feel helpless hopeless point fantasize die every single day think end life every single day incredibly miserable incredibly tire want go sleep never wake ever</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>despresso</t>
+          <t>help</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>hi v intense realization depress long time though would think met every day slap smile ask kind beauty go see today allow life flow people say nice happy fun charm get good even convince pass 10yrs happy truth though think would know happiness hit face think depress since young childhood come wildly dysfunctional military home constantly bully turned sex drug alcohol young age order cope 25 big city feeling isolate ever work two job go university decide drop trade decide poly felt lonely monogamous relationship poly nothing heartache live close friend clean constantly girl friend even though work night apartment know set boundary one ever respect therapy currently guess almost back assaulted abused cat never cuddle know make deep connection people keep friendship think state world feel helpless hopeless point fantasize die every single day think end life every single day incredibly miserable incredibly tire want go sleep never wake ever</t>
+          <t>lethal dose mefenamic acid 5g know much enough kill</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
@@ -21306,114 +21310,114 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>progression depression</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>lethal dose mefenamic acid 5g know much enough kill</t>
+          <t>suicidal thought go serious something fantasize actually make feel good think want bad big pussy actually anyones 2 cent valuable happy moment today</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>progression depression</t>
+          <t>want kill afraid die</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>suicidal thought go serious something fantasize actually make feel good think want bad big pussy actually anyones 2 cent valuable happy moment today</t>
+          <t>guy want story earlier post make story though hugely dramatic much bear hate friend anymore hate life think take loaded shotgun end thing like afraid die</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>want kill afraid die</t>
+          <t>depression people treat</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>guy want story earlier post make story though hugely dramatic much bear hate friend anymore hate life think take loaded shotgun end thing like afraid die</t>
+          <t>get chest go go someone read back post spravato short time insurance pull rug two week right two week insurance come back preapproving treatment say since show 50 improvement deny treatment thanks warn fucker course depression anxiety drop severely happen partly piss irate outright shock could even second body mind care suddenly stop treatment downward spiral two week well clinic treatment really get back kind drop like bad habit get money insurance lady call tell say would talk dr charge program ask want almost two week ago speak since try call several time call back like seriously fuck someone tell severely depressed suicidal enough get approve disability easy go fuck ignore call concern let go wayside happen check dr ask next step like well spravato do deal feed fuck quite honestly wait week since talk monday go call tomorrow ask speak supervisor someone charge fuck place let add also first contact set initial appointment take almost two month get right two month begin december first call someone suppose call back wait wait finally call go ask say suicidal someone take seriously call back soon finally get little ridiculous think make suicidal person wait almost two month start treatment evaluate insurance screw truly utterly fed make sick pissed system fail people like wonder mental illness issue stigma around well fuck wonder others treat anything like feel many see people lose shit either end kill self others let clarify way condone behavior say okay simply say wonder issue mental illness county say one go tried therapist countless medicine obviously spravato come pretty much treat life mean nothing completely utterly ignore hate sound narcissistic god damn life important anyone elses conclusion pretty much come last 24 hour stop depend anyone help deal fuck sickness depend somehow get good one nobody else give fuck nobody nothing invest mean nothing get money insurance bother even return phone call right know society come seriously want part anymore disgust point hate people general know sound bad go back reread post really want try understand start hate people always way yes dealt mental illness life capacity another last 5 year hit absolute bottom bottom look back time think depressed think would give anything go back time redo thing really anything else say ramble enough get way make read whole post thank show concern people claim deal depression insurance money stop come</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>depression people treat</t>
+          <t>need someone talk man</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>get chest go go someone read back post spravato short time insurance pull rug two week right two week insurance come back preapproving treatment say since show 50 improvement deny treatment thanks warn fucker course depression anxiety drop severely happen partly piss irate outright shock could even second body mind care suddenly stop treatment downward spiral two week well clinic treatment really get back kind drop like bad habit get money insurance lady call tell say would talk dr charge program ask want almost two week ago speak since try call several time call back like seriously fuck someone tell severely depressed suicidal enough get approve disability easy go fuck ignore call concern let go wayside happen check dr ask next step like well spravato do deal feed fuck quite honestly wait week since talk monday go call tomorrow ask speak supervisor someone charge fuck place let add also first contact set initial appointment take almost two month get right two month begin december first call someone suppose call back wait wait finally call go ask say suicidal someone take seriously call back soon finally get little ridiculous think make suicidal person wait almost two month start treatment evaluate insurance screw truly utterly fed make sick pissed system fail people like wonder mental illness issue stigma around well fuck wonder others treat anything like feel many see people lose shit either end kill self others let clarify way condone behavior say okay simply say wonder issue mental illness county say one go tried therapist countless medicine obviously spravato come pretty much treat life mean nothing completely utterly ignore hate sound narcissistic god damn life important anyone elses conclusion pretty much come last 24 hour stop depend anyone help deal fuck sickness depend somehow get good one nobody else give fuck nobody nothing invest mean nothing get money insurance bother even return phone call right know society come seriously want part anymore disgust point hate people general know sound bad go back reread post really want try understand start hate people always way yes dealt mental illness life capacity another last 5 year hit absolute bottom bottom look back time think depressed think would give anything go back time redo thing really anything else say ramble enough get way make read whole post thank show concern people claim deal depression insurance money stop come</t>
+          <t>2020 kick as bad get laid november pregnancy would allow work get call go back work start saturday use unemployment pay enough make rent bill social assistance help recieving unemployment give 14 day pay rent start eviction process notice landlord wait late payment unemployment come husband take everything value u ps4 switch even guitar pawn shop solid 60 short rent income sight remain day pay put name emergency commission figure people might go honesty one another bomb drop today flu 3 year old daughter day actually scarlet fever get scarlet fever 1800s happen newborn son catch year year lose child face big deep fear know man wish year would stop kick assi need tell world</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>need someone talk man</t>
+          <t>find motivation keep try</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>2020 kick as bad get laid november pregnancy would allow work get call go back work start saturday use unemployment pay enough make rent bill social assistance help recieving unemployment give 14 day pay rent start eviction process notice landlord wait late payment unemployment come husband take everything value u ps4 switch even guitar pawn shop solid 60 short rent income sight remain day pay put name emergency commission figure people might go honesty one another bomb drop today flu 3 year old daughter day actually scarlet fever get scarlet fever 1800s happen newborn son catch year year lose child face big deep fear know man wish year would stop kick assi need tell world</t>
+          <t>know life eventually get well think recently much want die go park week ago giant bridge lead across river could think jump would never actually know would destroy family hard hard pretend happy tire fuck feel worthless know obviously need therapist can not afford one</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>find motivation keep try</t>
+          <t>want die can not leave sister familyfriendsmy crush behind</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>know life eventually get well think recently much want die go park week ago giant bridge lead across river could think jump would never actually know would destroy family hard hard pretend happy tire fuck feel worthless know obviously need therapist can not afford one</t>
+          <t>want dead peacefully hang shoot</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>want die can not leave sister familyfriendsmy crush behind</t>
+          <t>kill</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>want dead peacefully hang shoot</t>
+          <t>trouble wife think best way kill</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
@@ -21425,29 +21429,29 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>kill</t>
+          <t>mental health tank suddenly get back</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>trouble wife think best way kill</t>
+          <t>week cry lot think food make feel nauseated work get get try live life</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>mental health tank suddenly get back</t>
+          <t>lose live get big fucking problem</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>week cry lot think food make feel nauseated work get get try live life</t>
+          <t>long passion interest even passion life honest lonely af feel worthless hopeless want kill though mind tell id much rather happy thrive prosper strange sure would like say hard worker intuitive problem solver thing aspire know phyiscally mentally capable one part mind part always lurk tell worthless piece shit can not anything even successful still nobody would care point recently lose battle part mind try rationalise life situation even bad thought conclusion come self termination sometimes get overwhelmed imagine gun point chin pull trigger imagine go away almost instantly make feel good moment might legit pull trigger heat moment make real glad gun live uk can not really get one easily anyway edit feel calmer demon bed tomorrow hope want add thing mind perceives major fuck problem like friend girfriend overcome terminal illness even mind want see way say people lot believe healthy mind much human can not overcome look tyson fury pork pie jelly around coke addict get help mental health he heavy weight champion world people like caroline flack sorry misspell get pretty bad sitaution mental health issue make seem 1000x bad healthy mind could go court take punishment dealt repercussion would hard heck take toll sure could do want die kill rational think nothing rational poor mental health think help lot understand science lil bit fact chemical imbalance fuck u many way think definitely help bring perspective</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -21459,12 +21463,12 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>lose live get big fucking problem</t>
+          <t>hide void behind lie</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>long passion interest even passion life honest lonely af feel worthless hopeless want kill though mind tell id much rather happy thrive prosper strange sure would like say hard worker intuitive problem solver thing aspire know phyiscally mentally capable one part mind part always lurk tell worthless piece shit can not anything even successful still nobody would care point recently lose battle part mind try rationalise life situation even bad thought conclusion come self termination sometimes get overwhelmed imagine gun point chin pull trigger imagine go away almost instantly make feel good moment might legit pull trigger heat moment make real glad gun live uk can not really get one easily anyway edit feel calmer demon bed tomorrow hope want add thing mind perceives major fuck problem like friend girfriend overcome terminal illness even mind want see way say people lot believe healthy mind much human can not overcome look tyson fury pork pie jelly around coke addict get help mental health he heavy weight champion world people like caroline flack sorry misspell get pretty bad sitaution mental health issue make seem 1000x bad healthy mind could go court take punishment dealt repercussion would hard heck take toll sure could do want die kill rational think nothing rational poor mental health think help lot understand science lil bit fact chemical imbalance fuck u many way think definitely help bring perspective</t>
+          <t>never write reddit sure expect guess feeling release suppress feeling put show everyone else despite year bring hard time life strong resilient truth interact people bubbly smiley persona expect soon alone face blank emotion numb feeling push resurface expression completely change alone different person person one know facade start fall apart want anymore one care girl behind mask</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -21476,29 +21480,25 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>hide void behind lie</t>
+          <t>fuck record 6 month without cut whole arm stomach cover blood</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>never write reddit sure expect guess feeling release suppress feeling put show everyone else despite year bring hard time life strong resilient truth interact people bubbly smiley persona expect soon alone face blank emotion numb feeling push resurface expression completely change alone different person person one know facade start fall apart want anymore one care girl behind mask</t>
+          <t>point even try anymore always pain</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>fuck record 6 month without cut whole arm stomach cover blood</t>
-        </is>
-      </c>
+      <c r="A1242" t="inlineStr"/>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>point even try anymore always pain</t>
+          <t>sometimes feel left one bad situation stick another</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -21508,27 +21508,31 @@
       </c>
     </row>
     <row r="1243">
-      <c r="A1243" t="inlineStr"/>
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>care live anymore</t>
+        </is>
+      </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>sometimes feel left one bad situation stick another</t>
+          <t>past month depression social anxiety spiral control end junior year high school really bad breakup lose friend cause start self harm isolate everyone thankfully acquaintance take time day make music lunch really meant lot friend really time hung friends couple time throughout high school start play video game eventually summer get really close become part friend group really bring dark hole depression never love group friend entire life still go extreme social anxiety help become confident alleviated bunch begin senior year hung afterschool basically everyday happy would ever want get detail something change bunch group dynamic change make felt inferior think thought funny anymore weird awkward revert back state previous girlfriend start worry incessantly would abandon mindset group also change felt like constantly meet standard entertain else would abandon make socialize grueling chore fun experience isolate lot even feel bit anger towards event happen make feel like think weird awkward unfunny annoy constantly try change try less talkative apply tight filter say hate can not live feel like everyone interact think thing can not stand hate everything voice way pronounce thing mannerisms sense humor conversation people everything can not take anymore right 50 mg zoloft tonight go trip 300 mg robotussin gel possibility could experience extreme even fatal side effect due serotonin syndrome care anymore want take reality even suicidal try kill end happen care want</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>care live anymore</t>
+          <t>much today want disappear</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>past month depression social anxiety spiral control end junior year high school really bad breakup lose friend cause start self harm isolate everyone thankfully acquaintance take time day make music lunch really meant lot friend really time hung friends couple time throughout high school start play video game eventually summer get really close become part friend group really bring dark hole depression never love group friend entire life still go extreme social anxiety help become confident alleviated bunch begin senior year hung afterschool basically everyday happy would ever want get detail something change bunch group dynamic change make felt inferior think thought funny anymore weird awkward revert back state previous girlfriend start worry incessantly would abandon mindset group also change felt like constantly meet standard entertain else would abandon make socialize grueling chore fun experience isolate lot even feel bit anger towards event happen make feel like think weird awkward unfunny annoy constantly try change try less talkative apply tight filter say hate can not live feel like everyone interact think thing can not stand hate everything voice way pronounce thing mannerisms sense humor conversation people everything can not take anymore right 50 mg zoloft tonight go trip 300 mg robotussin gel possibility could experience extreme even fatal side effect due serotonin syndrome care anymore want take reality even suicidal try kill end happen care want</t>
+          <t>struggled major depressive disorder year officially diagnose 2016 know 5 year least suicide attempt right officially diagnose since ups down down happen every year tonight sit work want run away cry hide fairly good lately received life change news night ago ready change tell exactly feel want well maybe say want relieve help feel good minute back stress want cry worry secretly hat want change break even though engage issue hope always tell want honest keep thing try openhonest know enjoy hear honest opinion feeling time bring child world though parent would debt one jobless even marry yet struggle mental healthanxiety regard everything kid even crap born one parent register sex offender still probation can not hopeful first couple day start consider situation ready tols many people tell today can not abort want seriously give adoption can not call irresponsible careful try mentality everything happen reason feel fall apart mentally work help distract degree lot downtime tonight keep ruminate feel also pretty sure far along get abortion like afford anyway fml tldr feeling depress find expect prefreakout mode</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
@@ -21540,12 +21544,12 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>much today want disappear</t>
+          <t>one can not love</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>struggled major depressive disorder year officially diagnose 2016 know 5 year least suicide attempt right officially diagnose since ups down down happen every year tonight sit work want run away cry hide fairly good lately received life change news night ago ready change tell exactly feel want well maybe say want relieve help feel good minute back stress want cry worry secretly hat want change break even though engage issue hope always tell want honest keep thing try openhonest know enjoy hear honest opinion feeling time bring child world though parent would debt one jobless even marry yet struggle mental healthanxiety regard everything kid even crap born one parent register sex offender still probation can not hopeful first couple day start consider situation ready tols many people tell today can not abort want seriously give adoption can not call irresponsible careful try mentality everything happen reason feel fall apart mentally work help distract degree lot downtime tonight keep ruminate feel also pretty sure far along get abortion like afford anyway fml tldr feeling depress find expect prefreakout mode</t>
+          <t>everyone someoneand alone wrong try best want alone anymore live like really worth</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
@@ -21557,12 +21561,12 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>one can not love</t>
+          <t>would really call progress</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>everyone someoneand alone wrong try best want alone anymore live like really worth</t>
+          <t>clean depression cave today room disgusting start early morning yesterday work day day today still finish till tomorrow take picture shame thishttpsimgurcomaj34jy2d bad bag full trash room get love bad week like month though</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
@@ -21574,46 +21578,46 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>would really call progress</t>
+          <t>drinking</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>clean depression cave today room disgusting start early morning yesterday work day day today still finish till tomorrow take picture shame thishttpsimgurcomaj34jy2d bad bag full trash room get love bad week like month though</t>
+          <t>think religion like believe god well since god create man woman well god super hero start believe god since dinosaur even try pray god take back 1994 even life go mental illness call schizophrenia brain cognitive dysfunctional hallucination hear voice make think solipsism hell god believe god since create cloud tree even dinosaurs admit mental illness path success even want give pray new one get old could live forever would cause die go get good get good human god think god would remember everything</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>drinking</t>
+          <t>swear youtube videos bad</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>think religion like believe god well since god create man woman well god super hero start believe god since dinosaur even try pray god take back 1994 even life go mental illness call schizophrenia brain cognitive dysfunctional hallucination hear voice make think solipsism hell god believe god since create cloud tree even dinosaurs admit mental illness path success even want give pray new one get old could live forever would cause die go get good get good human god think god would remember everything</t>
+          <t>mom stop criticize movie youtube watch swear 20 year old really help depression especially yms movie channel michael reef swear private lot never front parent think funny problem feel like fuck garbage assault groped come home cry bully mercilessly cry nobody love literally say manipulative attention slash thigh tell graduate college would loser relys welfare homeless drug addict thrown shit trouble get bed morning swearing problem</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>swear youtube videos bad</t>
+          <t>make poem symbolize current life right depress write poem hope back edge right</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>mom stop criticize movie youtube watch swear 20 year old really help depression especially yms movie channel michael reef swear private lot never front parent think funny problem feel like fuck garbage assault groped come home cry bully mercilessly cry nobody love literally say manipulative attention slash thigh tell graduate college would loser relys welfare homeless drug addict thrown shit trouble get bed morning swearing problem</t>
+          <t>look toward eternal chasm peace along solitude darkness peace nonetheless summon mind stop close yet far wait wait push push bring rest never come</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
@@ -21625,80 +21629,80 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>make poem symbolize current life right depress write poem hope back edge right</t>
+          <t>advice hold two week</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>look toward eternal chasm peace along solitude darkness peace nonetheless summon mind stop close yet far wait wait push push bring rest never come</t>
+          <t>mind grammar dutch read easily trigger want feel badworse okay already start type reason stay alive kind miss kind people everyone leave cuz depress everytime deep point depression wave somebody dy like life also try convince kill hear august could go mental hospital march point sound far away give neglect cuz everyday hell suppose wait 6 month course thankfull psychiatrist get list mental hospital specialise autism scar really tell would survive severe depressed october really come room except diner go toilet selfharmed whole day long slept tire certain time sleep rythm ruin gain weight could concentrate anything like mind already fade away become sure life give sign die everything could go wrong go wrong deep point grandma die still accept death feel real day funeral felt like life punch head amount emotion much try reality anymore think alternate life write story imagine constantly think last thing give depersonalisation disorder something know work know can not diagnose moment lot emotion little stress feel like watch body experience thing like coördinator head watch eye can not really talk think cuz feel like body talk think situation watch happens take decision late october stand edge bridge decide talk old friend instead jump moment one personalities agressive one make dissociate want km say bad influence one still stand one kind humor help thing happen last year happen anyway become little happier start enjoy go outside make friend therian community cuz figure back august therian whatever opinion therians pls post cuz post know know go depressed moment irritate everyday selfharming land depressed wave say drown enjoy anything every food taste bore can not sleep cuz cry every damn night constantly think kms even try sort search boundary take pill enough still stay alive standing edge bridge jump trigger write post heard cat mine cancer may survive another week cat shove fur face get little distracted traumatise situation happen 23 year ago can not talk cuz ptsd flashback kill amount emotion cat walk legs jump neck demand attention cry floor middle night like esa official one lose can not go can not lose last string rope hold edge ravine feel like km moment want die want pain mental hospital march 18 day apointment talk practical stuff wait another week guess finally save plz give strenght advice know need hold last week can not every minute everyday torture think survive</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>advice hold two week</t>
+          <t>weak choice</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>mind grammar dutch read easily trigger want feel badworse okay already start type reason stay alive kind miss kind people everyone leave cuz depress everytime deep point depression wave somebody dy like life also try convince kill hear august could go mental hospital march point sound far away give neglect cuz everyday hell suppose wait 6 month course thankfull psychiatrist get list mental hospital specialise autism scar really tell would survive severe depressed october really come room except diner go toilet selfharmed whole day long slept tire certain time sleep rythm ruin gain weight could concentrate anything like mind already fade away become sure life give sign die everything could go wrong go wrong deep point grandma die still accept death feel real day funeral felt like life punch head amount emotion much try reality anymore think alternate life write story imagine constantly think last thing give depersonalisation disorder something know work know can not diagnose moment lot emotion little stress feel like watch body experience thing like coördinator head watch eye can not really talk think cuz feel like body talk think situation watch happens take decision late october stand edge bridge decide talk old friend instead jump moment one personalities agressive one make dissociate want km say bad influence one still stand one kind humor help thing happen last year happen anyway become little happier start enjoy go outside make friend therian community cuz figure back august therian whatever opinion therians pls post cuz post know know go depressed moment irritate everyday selfharming land depressed wave say drown enjoy anything every food taste bore can not sleep cuz cry every damn night constantly think kms even try sort search boundary take pill enough still stay alive standing edge bridge jump trigger write post heard cat mine cancer may survive another week cat shove fur face get little distracted traumatise situation happen 23 year ago can not talk cuz ptsd flashback kill amount emotion cat walk legs jump neck demand attention cry floor middle night like esa official one lose can not go can not lose last string rope hold edge ravine feel like km moment want die want pain mental hospital march 18 day apointment talk practical stuff wait another week guess finally save plz give strenght advice know need hold last week can not every minute everyday torture think survive</t>
+          <t>can not need remember tell final therapist would sit paralyzed mind scream thing say one thing tell sting day paralysis internal weakness control hell work can not figure would go see someone would know would tell come help give help fault even choice like</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>weak choice</t>
+          <t>17f wish starve death year ago</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>can not need remember tell final therapist would sit paralyzed mind scream thing say one thing tell sting day paralysis internal weakness control hell work can not figure would go see someone would know would tell come help give help fault even choice like</t>
+          <t>year ago really bad anorexia lose 50lbs 2 month wish never stop hate much want perfect bad feel like ill live life want cat suffer reason anything lose interest everything hate nothing want go away please let go away</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>17f wish starve death year ago</t>
+          <t>ready end point</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>year ago really bad anorexia lose 50lbs 2 month wish never stop hate much want perfect bad feel like ill live life want cat suffer reason anything lose interest everything hate nothing want go away please let go away</t>
+          <t>yea ready kid idgaf want go mind body scream way fuck horrible mindset myn dumbfucking stoner stepdad literally make fear go downstairs sit room day hope fuck die mom dosent fuck care jack shit step dad get pissed nothing leave 8 month swear say 8 month happy month ever stepfather almost choke father 16 say wish make scared say anything mother know like like near dosent care bully nearly whole elementary school year suicidal thought start grade 3 4 okay eye anybody currently take 10 pill hop black one friend make force move back old house bond stupid racist shit like brother wish put bullshit love like brother feel would get soon enough feel bad people deal want pain suffer day day fuck end want end want everything fuck end</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>ready end point</t>
+          <t>can not take anymore tired try</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>yea ready kid idgaf want go mind body scream way fuck horrible mindset myn dumbfucking stoner stepdad literally make fear go downstairs sit room day hope fuck die mom dosent fuck care jack shit step dad get pissed nothing leave 8 month swear say 8 month happy month ever stepfather almost choke father 16 say wish make scared say anything mother know like like near dosent care bully nearly whole elementary school year suicidal thought start grade 3 4 okay eye anybody currently take 10 pill hop black one friend make force move back old house bond stupid racist shit like brother wish put bullshit love like brother feel would get soon enough feel bad people deal want pain suffer day day fuck end want end want everything fuck end</t>
+          <t>feel like faling apart like worse back also feel like lose tha make feel weird empty want end al get bad feelingn start cut make promise friend would never feel depressed al wait til get good pretend al right even tough hard somtimes ik wil get trough music also help alot realy thankful people try help otherside need help feel realy weird bad lie everyone feel somtimes well tel truth later want tell truth get worser scared tel parent also scare understand good tel wnat give worry already feel wothless nothing right fail al math test say study study 16 hour parent also lil disappointed cuz good grade would know wrong mind would react different sure scar tel want let feel like already life tought dumb think life easy</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -21710,29 +21714,29 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>can not take anymore tired try</t>
+          <t>really sure deal</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>feel like faling apart like worse back also feel like lose tha make feel weird empty want end al get bad feelingn start cut make promise friend would never feel depressed al wait til get good pretend al right even tough hard somtimes ik wil get trough music also help alot realy thankful people try help otherside need help feel realy weird bad lie everyone feel somtimes well tel truth later want tell truth get worser scared tel parent also scare understand good tel wnat give worry already feel wothless nothing right fail al math test say study study 16 hour parent also lil disappointed cuz good grade would know wrong mind would react different sure scar tel want let feel like already life tought dumb think life easy</t>
+          <t>think depress really sure work kind do make sense past semester school weird time get assignment feel overwhelm even though different previous semester fail first math test start senior project behind everything else want get caught desire anything live home community college life sure many others would kill still cringe sound point 357 skull dry fire hate idea family friends deal fallout really can not see future go anything think post</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>really sure deal</t>
+          <t>everything life go shit reason still cat</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>think depress really sure work kind do make sense past semester school weird time get assignment feel overwhelm even though different previous semester fail first math test start senior project behind everything else want get caught desire anything live home community college life sure many others would kill still cringe sound point 357 skull dry fire hate idea family friends deal fallout really can not see future go anything think post</t>
+          <t>22 grow emotionally verbally occasionally physically abusive home dad become alcoholic result abuse mom become unwilling referee parental therapist preteen eventual side punch bag teen mom try kill time 18 also kidnap child dad fight spend adolescence wait chance get cps come twice nothing ever help get dream school everything senior get ripped away mom refuse sign loan could get without cosigner go escape divorce become physical punching bag mom cut hair prevent grab dad get bad try kill time fail reason another get 5150d mom proceed use threat could send behave stay dad cut still depress fuck though person could talk grandma one night talk aunt racist hate happen also take phone scream tell never call grandma tell stop making shit family stop talk suicide elder grandma could handle use feel way could talk fast forward little bit dad finally patch relationship thing look well suddenly die drinking problem go back mom relative option mom immediately take become terrified even wake tried smother death try choke aux cord try shove stair try push move vehicle etc yet every time blame bad year life think least grandma depress lose son abuse daughter racist aunt try help always get covered somehow exactly one year later grandma suddenly die left half estate protect want move live near person leave want help aunt one get hissy fact mom closer ever lawyered refuse give key refuse give item grandma specifically want proof inform sale well happen state also keep go mom idiotic parent divorce adult ask dodged write letter never contact month get attorney can not afford honest back forth since threaten file tax name without permission without ssn irs come fuck recipe card desk always think want end end pain end inevitable suffering always come can not can not leave cat refuse rehome word hurt even type see could thing family one anytime cry sit purr lick face one legit meow talk keep meow till do snuggle literally closest one keep go wish could something like find new place live can not mom recently make credit card name maxed tell would understand position anyone ask say help build credit sure somewhat true intend sign name cosigner property want buy ever mean end want want die want place cat safe sound feel like never get afraid wish everytime get something bad</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -21744,12 +21748,12 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>everything life go shit reason still cat</t>
+          <t>lot damage</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>22 grow emotionally verbally occasionally physically abusive home dad become alcoholic result abuse mom become unwilling referee parental therapist preteen eventual side punch bag teen mom try kill time 18 also kidnap child dad fight spend adolescence wait chance get cps come twice nothing ever help get dream school everything senior get ripped away mom refuse sign loan could get without cosigner go escape divorce become physical punching bag mom cut hair prevent grab dad get bad try kill time fail reason another get 5150d mom proceed use threat could send behave stay dad cut still depress fuck though person could talk grandma one night talk aunt racist hate happen also take phone scream tell never call grandma tell stop making shit family stop talk suicide elder grandma could handle use feel way could talk fast forward little bit dad finally patch relationship thing look well suddenly die drinking problem go back mom relative option mom immediately take become terrified even wake tried smother death try choke aux cord try shove stair try push move vehicle etc yet every time blame bad year life think least grandma depress lose son abuse daughter racist aunt try help always get covered somehow exactly one year later grandma suddenly die left half estate protect want move live near person leave want help aunt one get hissy fact mom closer ever lawyered refuse give key refuse give item grandma specifically want proof inform sale well happen state also keep go mom idiotic parent divorce adult ask dodged write letter never contact month get attorney can not afford honest back forth since threaten file tax name without permission without ssn irs come fuck recipe card desk always think want end end pain end inevitable suffering always come can not can not leave cat refuse rehome word hurt even type see could thing family one anytime cry sit purr lick face one legit meow talk keep meow till do snuggle literally closest one keep go wish could something like find new place live can not mom recently make credit card name maxed tell would understand position anyone ask say help build credit sure somewhat true intend sign name cosigner property want buy ever mean end want want die want place cat safe sound feel like never get afraid wish everytime get something bad</t>
+          <t>httpsiimgurcomriwmyj2jpg</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -21759,14 +21763,10 @@
       </c>
     </row>
     <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>lot damage</t>
-        </is>
-      </c>
+      <c r="A1258" t="inlineStr"/>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>httpsiimgurcomriwmyj2jpg</t>
+          <t>want happy happy last four year last time felt sensation brain freshman year college talk girl could feel dopamine head last time felt happy chasing feeling ever since friend help make feel whole alone know repressed feeling long time start watch bojack horseman feeling come back whole person take mess feel love ask every day drink able let feeling want dependent alcohol feel way want talk feeling want less man jessica make decently happy still feel way want dependant either beat finish think personal emotion can not even cry anymore mean good decency alcohol stop still feel way know lonely mess mother tell miscarriage reevaluate life age thirteen really age question existence want pity want feel normal look question life accept death also notice finite life live die scary want cry even write can not people worse way think waste life college full life live one wish dumb could fade crowd can not think deathbed anything die go high school thought stepmom say young understand find thought maybe nonexistence fine want lay bed drift away mind die afraid loss think go go nothingness scar want feel one time happiness happen relationship family accomplishment future scar want sit shitty earth feeling fifty people become happy lost feeling know get back die go die feel nothing relationship enough broken almost want pas away think mean bacteria evolve enough think want answer nobody tell</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
@@ -21776,10 +21776,14 @@
       </c>
     </row>
     <row r="1259">
-      <c r="A1259" t="inlineStr"/>
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>leave house year want kill feel like can not go</t>
+        </is>
+      </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>want happy happy last four year last time felt sensation brain freshman year college talk girl could feel dopamine head last time felt happy chasing feeling ever since friend help make feel whole alone know repressed feeling long time start watch bojack horseman feeling come back whole person take mess feel love ask every day drink able let feeling want dependent alcohol feel way want talk feeling want less man jessica make decently happy still feel way want dependant either beat finish think personal emotion can not even cry anymore mean good decency alcohol stop still feel way know lonely mess mother tell miscarriage reevaluate life age thirteen really age question existence want pity want feel normal look question life accept death also notice finite life live die scary want cry even write can not people worse way think waste life college full life live one wish dumb could fade crowd can not think deathbed anything die go high school thought stepmom say young understand find thought maybe nonexistence fine want lay bed drift away mind die afraid loss think go go nothingness scar want feel one time happiness happen relationship family accomplishment future scar want sit shitty earth feeling fifty people become happy lost feeling know get back die go die feel nothing relationship enough broken almost want pas away think mean bacteria evolve enough think want answer nobody tell</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
@@ -21791,97 +21795,97 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>leave house year want kill feel like can not go</t>
+          <t>slept 2 pm today</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>guess could say point affect attendance work far day run anyone ever treat fatigue help depression maybe fatigue cause depression</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>slept 2 pm today</t>
+          <t>realize</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>guess could say point affect attendance work far day run anyone ever treat fatigue help depression maybe fatigue cause depression</t>
+          <t>time think want commit suicide watch movie play game something similar boring fine problem work 8hr suicide thinking session</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>realize</t>
+          <t>angry mad frustrate infuriate disgusted</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>time think want commit suicide watch movie play game something similar boring fine problem work 8hr suicide thinking session</t>
+          <t>piss depression come go every time come back bad hate talk therapist every two week diagnose depression cry every night feel alone isolated others order heal go gym 4 day week eat healthy try chores self care know need med apparently show sign willingness need piss consume chronic sadness every day night 247 also pissed supportive people besides parent cousin perhaps ungrateful would rather end honest nothing life excite 21 life fun excite wild laidback etc young woman excite come excite wonderful life absolutely hate self life nothing help even talk others person help nothing work</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>angry mad frustrate infuriate disgusted</t>
+          <t>hurt much</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>piss depression come go every time come back bad hate talk therapist every two week diagnose depression cry every night feel alone isolated others order heal go gym 4 day week eat healthy try chores self care know need med apparently show sign willingness need piss consume chronic sadness every day night 247 also pissed supportive people besides parent cousin perhaps ungrateful would rather end honest nothing life excite 21 life fun excite wild laidback etc young woman excite come excite wonderful life absolutely hate self life nothing help even talk others person help nothing work</t>
+          <t>wish easy strong feel pain last time feel afterall</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>hurt much</t>
+          <t>help</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>wish easy strong feel pain last time feel afterall</t>
+          <t>get depression start ex leave tip</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>right back start</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>get depression start ex leave tip</t>
+          <t>well month everything come back full circle bad move suppose great u money well opportunity get away bad stuff old town new opportunity everything would hop would money even tight know go make car payment pay internet rent even make trip back see parent weekend nothing seem enough even matter beyond stress barely sleep anymore can not shut mind thought race back forth mind thing instead sleep like clean find good job second job lay awake stress help feel like everything enough wait everything come crashing yet hand angry angry get help household chore amidst claim every day work come home clean paycheck extra cash get hold immediately spent bill check enough sale last month spend game pass subscription game one drove back go errands sit beach mexico friend feel terrible right back suck numbness darkness want wake morning everything thought suicide self harm back full force reason harm simply razor blade house sorry post mess anywhere else get chest thank stuck sorry</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -21893,12 +21897,12 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>right back start</t>
+          <t>go hospital really bad panic attack theycontinued end collapse nurse try help say attention seek</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>well month everything come back full circle bad move suppose great u money well opportunity get away bad stuff old town new opportunity everything would hop would money even tight know go make car payment pay internet rent even make trip back see parent weekend nothing seem enough even matter beyond stress barely sleep anymore can not shut mind thought race back forth mind thing instead sleep like clean find good job second job lay awake stress help feel like everything enough wait everything come crashing yet hand angry angry get help household chore amidst claim every day work come home clean paycheck extra cash get hold immediately spent bill check enough sale last month spend game pass subscription game one drove back go errands sit beach mexico friend feel terrible right back suck numbness darkness want wake morning everything thought suicide self harm back full force reason harm simply razor blade house sorry post mess anywhere else get chest thank stuck sorry</t>
+          <t>literally break cry ask go home another nurse watch cry say wanted keep longer keep say want go home say wasting time make watch ask cry leave never anything like especially hospital weak chest throat hurt much panic attack want vent thank reading</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -21910,12 +21914,12 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>go hospital really bad panic attack theycontinued end collapse nurse try help say attention seek</t>
+          <t>think depression sure tryna hang</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>literally break cry ask go home another nurse watch cry say wanted keep longer keep say want go home say wasting time make watch ask cry leave never anything like especially hospital weak chest throat hurt much panic attack want vent thank reading</t>
+          <t>year ago survive suicide attempt watch movie fight club motivate hell even give boost confidence huge confidence never fix problem fckin lazy live world movie like temporary medical right come back happy moment daily life bedtime really wish one fckin day never wake fall asleep knowledge goddamn thing anymore like anything come great family way mom dad love even spoil little good person still blame shit feelin everyday srlys lookin way die like sickness want stupid parent wrong son kill yada yada yada blah blah blah maybe ricin really know prepare though idea</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -21927,12 +21931,12 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>think depression sure tryna hang</t>
+          <t>well go psych ward</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>year ago survive suicide attempt watch movie fight club motivate hell even give boost confidence huge confidence never fix problem fckin lazy live world movie like temporary medical right come back happy moment daily life bedtime really wish one fckin day never wake fall asleep knowledge goddamn thing anymore like anything come great family way mom dad love even spoil little good person still blame shit feelin everyday srlys lookin way die like sickness want stupid parent wrong son kill yada yada yada blah blah blah maybe ricin really know prepare though idea</t>
+          <t>told therapist iv alot suicidal toughts lately fuck fuck</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -21944,29 +21948,29 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>well go psych ward</t>
+          <t>fuck hard fight everyday</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>told therapist iv alot suicidal toughts lately fuck fuck</t>
+          <t>since event life change become mentally ill compare cycle bad mental state time debilitate anxiety deep depression suicidal ideation every fucking day hard even basic stuff go live honestly horrible way live fighting really try get well want die know much long keep go tired scar want die life suppose</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>fuck hard fight everyday</t>
+          <t>scar kill fuck big time</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>since event life change become mentally ill compare cycle bad mental state time debilitate anxiety deep depression suicidal ideation every fucking day hard even basic stuff go live honestly horrible way live fighting really try get well want die know much long keep go tired scar want die life suppose</t>
+          <t>life worth live destructive person one love everyday look go school work procrastinate stress cry sleep repeat every day get unbearable talked therapist 4 month help go inpatient 5th time help nothing help school make impossible enjoy literally fuck anything never whole life felt depressed even though survive suicide attempt year ago compare depression feeling right scary year therapy even bad want lie bed fall asleep never wake also scared people think try enough lazy put mask pretend smile make people laugh pretend till come home completely destroy mother thought depression fuck exhaust high expectation life dream hope want disappear badly also scar</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -21978,12 +21982,12 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>scar kill fuck big time</t>
+          <t>one turn</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>life worth live destructive person one love everyday look go school work procrastinate stress cry sleep repeat every day get unbearable talked therapist 4 month help go inpatient 5th time help nothing help school make impossible enjoy literally fuck anything never whole life felt depressed even though survive suicide attempt year ago compare depression feeling right scary year therapy even bad want lie bed fall asleep never wake also scared people think try enough lazy put mask pretend smile make people laugh pretend till come home completely destroy mother thought depression fuck exhaust high expectation life dream hope want disappear badly also scar</t>
+          <t>father pass away last year feel incredibly alone goto person whenever problem leave job take time pass leave two job since can not handle gf stay want leave find can not blame really father gf time pass previous 15 year already move started date guy think dad would approve either know turn little bit money save immediate danger think work gf stay find job hold ton hope whenever think get another job likely field hate anyway recruit think point like really ton live juncture want way can not seem figure way would give good quality life feel pointless tried look free low cost therapist area couple number try read state fund mental health care could make head tail webpage way complex</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -21995,12 +21999,12 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>one turn</t>
+          <t>really want kill dad already</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>father pass away last year feel incredibly alone goto person whenever problem leave job take time pass leave two job since can not handle gf stay want leave find can not blame really father gf time pass previous 15 year already move started date guy think dad would approve either know turn little bit money save immediate danger think work gf stay find job hold ton hope whenever think get another job likely field hate anyway recruit think point like really ton live juncture want way can not seem figure way would give good quality life feel pointless tried look free low cost therapist area couple number try read state fund mental health care could make head tail webpage way complex</t>
+          <t>can not take life anymore dad already kill 4 year ago know devastate family know deal pain anymore want family girlfriend go tragic death</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
@@ -22012,12 +22016,12 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>really want kill dad already</t>
+          <t>much mg take person overdose age 18</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>can not take life anymore dad already kill 4 year ago know devastate family know deal pain anymore want family girlfriend go tragic death</t>
+          <t>bottle antidepressant think time anyway make less painful</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
@@ -22029,12 +22033,12 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>much mg take person overdose age 18</t>
+          <t>eternal rest</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>bottle antidepressant think time anyway make less painful</t>
+          <t>13 year old boy want one self diagnose people look attention lately think kill say fuck everything life hate say gun right think would kill fast easy pain unlike wait bleed slit wrists one ever like parent always talk useless piece shit brags friend like accomplishment know even etc fuck asshole anything right wish never kid want girl would say usually weekly shit hurt reject everyone always straight smart mostly progressive person class tire put facade anything worth anything heaven hell nothing end one listen problem man boys cry woman run world men pig need die constantly tell know anymore stop care listen music cry school useless learn absolutely fuck nothing waste life away degree can not use sure everyone go say young can not depression course go phase seek attention alright always introvert quiet know think kill soon life purpose mean eternal land misery fake happiness thing make remotely happy video game talk people play game rare occurrence never allow play though excel every way school fuck drop everything give shit grade give shit anything do guy love fuck hope die</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -22046,12 +22050,12 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>eternal rest</t>
+          <t>live take much work</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>13 year old boy want one self diagnose people look attention lately think kill say fuck everything life hate say gun right think would kill fast easy pain unlike wait bleed slit wrists one ever like parent always talk useless piece shit brags friend like accomplishment know even etc fuck asshole anything right wish never kid want girl would say usually weekly shit hurt reject everyone always straight smart mostly progressive person class tire put facade anything worth anything heaven hell nothing end one listen problem man boys cry woman run world men pig need die constantly tell know anymore stop care listen music cry school useless learn absolutely fuck nothing waste life away degree can not use sure everyone go say young can not depression course go phase seek attention alright always introvert quiet know think kill soon life purpose mean eternal land misery fake happiness thing make remotely happy video game talk people play game rare occurrence never allow play though excel every way school fuck drop everything give shit grade give shit anything do guy love fuck hope die</t>
+          <t>basic lifestyle take much fucking work leave house go school much many possibility many disease many thing person judge many thing wrong can not normal</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -22063,12 +22067,12 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>live take much work</t>
+          <t>finally give</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>basic lifestyle take much fucking work leave house go school much many possibility many disease many thing person judge many thing wrong can not normal</t>
+          <t>guess finally grown ball fulfil plan hopefully go well deal thanks put long love</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
@@ -22080,12 +22084,12 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>finally give</t>
+          <t>easy access gun</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>guess finally grown ball fulfil plan hopefully go well deal thanks put long love</t>
+          <t>go kill soon easy think go bathtub lot blood stain feel bad person people go carry fat fuck body stair can not stop think feel bad think parent find</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -22097,12 +22101,12 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>easy access gun</t>
+          <t>want kill</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>go kill soon easy think go bathtub lot blood stain feel bad person people go carry fat fuck body stair can not stop think feel bad think parent find</t>
+          <t>want die way think inevitably one save everyday take much effort function mediocrely want live think change wait game depress enough want act thought scar care much people around want die take everyone suffering want everyone happy deserve wish way could sacrifice make everyone good enough suffering can not bear see feel empathy hard severe depressive episode go year ago can not bear imagine anyone experience break heart convince die never truly felt peace life exhaust attempt constantly distract depressive thought can not get rid learnt cope never cure one day feel time right distance enough friend parent die would probably time end life</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -22114,46 +22118,46 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>want kill</t>
+          <t>know depression</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>want die way think inevitably one save everyday take much effort function mediocrely want live think change wait game depress enough want act thought scar care much people around want die take everyone suffering want everyone happy deserve wish way could sacrifice make everyone good enough suffering can not bear see feel empathy hard severe depressive episode go year ago can not bear imagine anyone experience break heart convince die never truly felt peace life exhaust attempt constantly distract depressive thought can not get rid learnt cope never cure one day feel time right distance enough friend parent die would probably time end life</t>
+          <t>probably stupid question want know feel like get close</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>know depression</t>
+          <t>might last day</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>probably stupid question want know feel like get close</t>
+          <t>finally decide several attempt life last one overpass busy interstate house height speed car enough take god damn alone feel guilty people care keep go dog think stop time total fuck ruin every positive thing life 17 future live way everyday three year times come afraid say goodbye anymore</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>might last day</t>
+          <t>bullshit</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>finally decide several attempt life last one overpass busy interstate house height speed car enough take god damn alone feel guilty people care keep go dog think stop time total fuck ruin every positive thing life 17 future live way everyday three year times come afraid say goodbye anymore</t>
+          <t>go stupid therapist last week self harm suicide thing school really want help least hop help mental health happen instead go get test autism aspergers think autism bad really want wanted sort mental health take thing could mean autistic hate get refer therapist specialize autism need sorry offensive sorry</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -22165,12 +22169,12 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>bullshit</t>
+          <t>go nightwalk plan come back</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>go stupid therapist last week self harm suicide thing school really want help least hop help mental health happen instead go get test autism aspergers think autism bad really want wanted sort mental health take thing could mean autistic hate get refer therapist specialize autism need sorry offensive sorry</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -22182,12 +22186,12 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>go nightwalk plan come back</t>
+          <t>start could follow</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>right taxi go home drank 10 pill antidepressant want drink entire bottle pas road peacefully could get finish bottle legs go numb start lose sight eye doubt able go work tomorrow never drink much definitely try could follow somebody might think miserable well maybe right alone amaze relationship two year unemployed break work amazing position hr vice president abusive family extremely supportive would give life even still miserable feel happy vent eye completely black anyone try overdose tonight idiot like obligatory edit 21</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
@@ -22199,12 +22203,12 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>start could follow</t>
+          <t>afraid</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>right taxi go home drank 10 pill antidepressant want drink entire bottle pas road peacefully could get finish bottle legs go numb start lose sight eye doubt able go work tomorrow never drink much definitely try could follow somebody might think miserable well maybe right alone amaze relationship two year unemployed break work amazing position hr vice president abusive family extremely supportive would give life even still miserable feel happy vent eye completely black anyone try overdose tonight idiot like obligatory edit 21</t>
+          <t>think care anymore treat like shit thing terrible mind anymore feel like deserve feel like okay hurt afraid die care less afraid nowadays matter matter alright end</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -22216,12 +22220,12 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>afraid</t>
+          <t>stress loneliness drag</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>think care anymore treat like shit thing terrible mind anymore feel like deserve feel like okay hurt afraid die care less afraid nowadays matter matter alright end</t>
+          <t>29 year shut sometimes social anxiety bad could step house go near window mental health bad could work finish school decide go back school dependent longtime make feel awful element abuse past think fully trust anyone die get high pay job without degree hurt backi terrible back neurological problem leave something like strip suicide point class get intense already behind online class post deadline prioritize class work around 30 hoursweek keep quality highi aim class supposedly grade harshlyso far 1 b something work 10 hour anyway behind online class try make time catch seem impossible person class take much time 4 hour studio homework take maybe 15 hour usually trouble manage time hardly see see stay late play game intimacy month otherwise like 12xmonth thing help chores unless ask bunch time even though make chore chart u look aton fridge give thing keep promise choresshowerbrush teeth basic thing actually say would chores go back schoollike would do worry worried left thing bit realized correct concern house start look trash talk change topic recite meme kiss maybe twice day otherwise glue phone watch youtube videos quit video game time consume switch video instead addict phone get bus last year passenger usually phone drive nothing drive anxiety work car stress right feel totally alone literally time see therapist even time see doctor checkups work schoolhomeworkand home painfully shy awkward friend join club make friend seem impossible people try befriend seem know interact amazing conversation another top performer class difficult work anticipate become friend try know reciprocate tell make thing uncomfortable react never start form friendship make sense class one kid try befriend autism come across pretty brash try remind condition take thing personally sometimes can not help feel terrible time close feel awkward think seem genuinely friendly time mind guess much stress point everything get whole class also pretty distract usually bearable stress wear 0 thing relieve yesterday get grade back quiz friendly note try speak critiquei design student art class make mental note make sure speak critique last night panic first panic want do paint beforehand plan properly always slow one everything keep mess finish time seem one 2 others finish make feel little good critique come aforementioned kid stand next always uncomfortably close front could see paintings panic increase want rude say anything planned painting critique call order panic disorder cause dissociation stress social anxiety panic mind go blank happen day ago dog unfortunately aggressive 1 dog neighborhood strong dog fortunately point bf experience lunged dog strong enough pull back panickedmind go blank stand mind thing could think like idea feeling alarm could speak move neighbor seem mind give dog treat felt terrible know fix critique mind blank know say absorbed thing others say mind flush tried speak speak thinking time difficult guess stupid usually think long time speak think write know thinkspeak quickly felt like cry could wait pack start draw assignmentuntil realize would forget important supply grow abusive parent dad pretty absent work lot home complete as would constantly provoke old brother harshly pick mom damage somehow grow think good cop taught think could wrong perfect always right upset even seemingly unreasonable mental gymnastics justify example intervene argument dad finance 6 year old understand bad person love mom mom bathroom 8th time week razor blade would psychiatrist beg come outreason eventually realize say anything eventually still realize could probably leave would come soon anyway around 6 7 guess talk respond come literally run corner yelled love eat disorder evil dirty slut even though allow house must look something do person mom say guess young child mostly raise grandparent nextdoor would sleep house often would cry sleep every night think mom mad every day would blame something even get blame dad lose 100 even know mom yell back door yard neighborhood kid outside tell would better bring 100 back right friend assume thiefbecause 9 yo can not drive never go anywhere reason money definitely get caught random money point point around 9 start self harm understand apparently do upset always apparent major mother pain person love world matter think parent destroy education ongoing argument funsies guess plan graduate 15 16 gtfo physically bully school point arm near broken every day beg homeschooled plan able focus school without bully graduate early get away family 2nd grade first year homeschooling skip grade 5 work everything math get maybe grade 3 equivalent current grade public school work parent would argue public homeschooling switch back forth least school semester would public school august month homeschooled obviously ruin extra work would do become discouraged 7th grade begin lot trouble math mom refuse help say learn disability could learn itand help lovely psychotic step sister instead would public school would often go humiliated explain could finish homework one point allow outsidemy grandparent move due stress embrace reclusive tell wanted way whenever people would think odd mom would huff back could speak say everyone friend look back remember dad tell mom coddle much kept people want time think ridiculous see right need soothe blame everything misery get old decide wanted try social would say yes every single opportunity every one terrible idea end abused predatory opportunist turn caused major anxiety ever become reclusive ever hold stable job friend since time 10 year ago abusive thing great year move year ago year thing pretty good far go obviously time feel effort person feel shitty couple year ago find terrible situation decide option prostitution strip drug suicide mass apply job would receive response never qualify anything retail bad experience pay enough stop eat become alcoholic little fund attempt suicide somewhere near 3 time week average month straight almost succeed bf unexpectedly come home early send hospital thing get well get threw away antidepressant since feeling felt inappropriate relation thought situation resume weekly attempt otherwise would lie bed try get fear killing 2017 2018 suck last year get little well end year decide go back school decide rather abruptly time seek diagnosis learn disability think obviously diagnosis anxiety disorder recurrent major depressive disorder assume would receive accommodation do instead tried plow feeling intentionally make uncomfortable joining club go campus person adjust quickly would hop real world talk social skill one care real world old already expose many job field attempt aware feel like failure overload want back know deal everything get help nothing outside school work home need good balance literally way make happen club meet week paper 1x month new club one show become club leader force social situation hope head tell try talk garbage come old everyone else awkward suppose immature stupid social standard feel like go make straight feel like deserve art never look good even spending hour work need make work know know change 29 year instant desperately want want different want anymore meantime try squeeze time get little sleep time room even interact talk anything feel really void affection social interaction right well anything fun use walk every day something lessen frequency nerve pain even time weather shit anyway find gaming fun like sit exhaust even know get anymore frustrated life everything dulli stressedlonely honestly hate everything awful really hate become really sick first week school bronchitis 34 week get well feel like happen really fuck lot since energy know manage everything socialize feel like kill know even properly way totally awful look get away pain last minute life could least peaceful would well ideal really wish assist suicide chronically suicidal people thing sometimes</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -22233,46 +22237,46 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>stress loneliness drag</t>
+          <t>depression really robs enjoyment thing love</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>29 year shut sometimes social anxiety bad could step house go near window mental health bad could work finish school decide go back school dependent longtime make feel awful element abuse past think fully trust anyone die get high pay job without degree hurt backi terrible back neurological problem leave something like strip suicide point class get intense already behind online class post deadline prioritize class work around 30 hoursweek keep quality highi aim class supposedly grade harshlyso far 1 b something work 10 hour anyway behind online class try make time catch seem impossible person class take much time 4 hour studio homework take maybe 15 hour usually trouble manage time hardly see see stay late play game intimacy month otherwise like 12xmonth thing help chores unless ask bunch time even though make chore chart u look aton fridge give thing keep promise choresshowerbrush teeth basic thing actually say would chores go back schoollike would do worry worried left thing bit realized correct concern house start look trash talk change topic recite meme kiss maybe twice day otherwise glue phone watch youtube videos quit video game time consume switch video instead addict phone get bus last year passenger usually phone drive nothing drive anxiety work car stress right feel totally alone literally time see therapist even time see doctor checkups work schoolhomeworkand home painfully shy awkward friend join club make friend seem impossible people try befriend seem know interact amazing conversation another top performer class difficult work anticipate become friend try know reciprocate tell make thing uncomfortable react never start form friendship make sense class one kid try befriend autism come across pretty brash try remind condition take thing personally sometimes can not help feel terrible time close feel awkward think seem genuinely friendly time mind guess much stress point everything get whole class also pretty distract usually bearable stress wear 0 thing relieve yesterday get grade back quiz friendly note try speak critiquei design student art class make mental note make sure speak critique last night panic first panic want do paint beforehand plan properly always slow one everything keep mess finish time seem one 2 others finish make feel little good critique come aforementioned kid stand next always uncomfortably close front could see paintings panic increase want rude say anything planned painting critique call order panic disorder cause dissociation stress social anxiety panic mind go blank happen day ago dog unfortunately aggressive 1 dog neighborhood strong dog fortunately point bf experience lunged dog strong enough pull back panickedmind go blank stand mind thing could think like idea feeling alarm could speak move neighbor seem mind give dog treat felt terrible know fix critique mind blank know say absorbed thing others say mind flush tried speak speak thinking time difficult guess stupid usually think long time speak think write know thinkspeak quickly felt like cry could wait pack start draw assignmentuntil realize would forget important supply grow abusive parent dad pretty absent work lot home complete as would constantly provoke old brother harshly pick mom damage somehow grow think good cop taught think could wrong perfect always right upset even seemingly unreasonable mental gymnastics justify example intervene argument dad finance 6 year old understand bad person love mom mom bathroom 8th time week razor blade would psychiatrist beg come outreason eventually realize say anything eventually still realize could probably leave would come soon anyway around 6 7 guess talk respond come literally run corner yelled love eat disorder evil dirty slut even though allow house must look something do person mom say guess young child mostly raise grandparent nextdoor would sleep house often would cry sleep every night think mom mad every day would blame something even get blame dad lose 100 even know mom yell back door yard neighborhood kid outside tell would better bring 100 back right friend assume thiefbecause 9 yo can not drive never go anywhere reason money definitely get caught random money point point around 9 start self harm understand apparently do upset always apparent major mother pain person love world matter think parent destroy education ongoing argument funsies guess plan graduate 15 16 gtfo physically bully school point arm near broken every day beg homeschooled plan able focus school without bully graduate early get away family 2nd grade first year homeschooling skip grade 5 work everything math get maybe grade 3 equivalent current grade public school work parent would argue public homeschooling switch back forth least school semester would public school august month homeschooled obviously ruin extra work would do become discouraged 7th grade begin lot trouble math mom refuse help say learn disability could learn itand help lovely psychotic step sister instead would public school would often go humiliated explain could finish homework one point allow outsidemy grandparent move due stress embrace reclusive tell wanted way whenever people would think odd mom would huff back could speak say everyone friend look back remember dad tell mom coddle much kept people want time think ridiculous see right need soothe blame everything misery get old decide wanted try social would say yes every single opportunity every one terrible idea end abused predatory opportunist turn caused major anxiety ever become reclusive ever hold stable job friend since time 10 year ago abusive thing great year move year ago year thing pretty good far go obviously time feel effort person feel shitty couple year ago find terrible situation decide option prostitution strip drug suicide mass apply job would receive response never qualify anything retail bad experience pay enough stop eat become alcoholic little fund attempt suicide somewhere near 3 time week average month straight almost succeed bf unexpectedly come home early send hospital thing get well get threw away antidepressant since feeling felt inappropriate relation thought situation resume weekly attempt otherwise would lie bed try get fear killing 2017 2018 suck last year get little well end year decide go back school decide rather abruptly time seek diagnosis learn disability think obviously diagnosis anxiety disorder recurrent major depressive disorder assume would receive accommodation do instead tried plow feeling intentionally make uncomfortable joining club go campus person adjust quickly would hop real world talk social skill one care real world old already expose many job field attempt aware feel like failure overload want back know deal everything get help nothing outside school work home need good balance literally way make happen club meet week paper 1x month new club one show become club leader force social situation hope head tell try talk garbage come old everyone else awkward suppose immature stupid social standard feel like go make straight feel like deserve art never look good even spending hour work need make work know know change 29 year instant desperately want want different want anymore meantime try squeeze time get little sleep time room even interact talk anything feel really void affection social interaction right well anything fun use walk every day something lessen frequency nerve pain even time weather shit anyway find gaming fun like sit exhaust even know get anymore frustrated life everything dulli stressedlonely honestly hate everything awful really hate become really sick first week school bronchitis 34 week get well feel like happen really fuck lot since energy know manage everything socialize feel like kill know even properly way totally awful look get away pain last minute life could least peaceful would well ideal really wish assist suicide chronically suicidal people thing sometimes</t>
+          <t>sadness drag week today lazy thing normally even thing want able go school today really hard get bed even mood play game every minor thing bum affect drastically try go hospital regard mental health sure head really depression</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>depression really robs enjoyment thing love</t>
+          <t>nothing</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>sadness drag week today lazy thing normally even thing want able go school today really hard get bed even mood play game every minor thing bum affect drastically try go hospital regard mental health sure head really depression</t>
+          <t>lose fight nothing point ball emotion barely fuck human lose motivation go even push back destruction brain wreck special unique important smart helpful human sense selfish lie bastard piece shit insignificant background man fake fake build conceal blackness horrible person really can not happy ever everything put mask hide nothingness nobody need life take point numb can not feel anymore tired wait fight disguise try lose nothing win end doubt find solace anything</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>nothing</t>
+          <t>need narrative</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>lose fight nothing point ball emotion barely fuck human lose motivation go even push back destruction brain wreck special unique important smart helpful human sense selfish lie bastard piece shit insignificant background man fake fake build conceal blackness horrible person really can not happy ever everything put mask hide nothingness nobody need life take point numb can not feel anymore tired wait fight disguise try lose nothing win end doubt find solace anything</t>
+          <t>past two year letdown little get do even bad thought turn wrong need purpouse need story life one actually read like story meaning absolutely clue live without emotional connection pride come</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -22284,12 +22288,12 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>need narrative</t>
+          <t>asshole nobody sad die</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>past two year letdown little get do even bad thought turn wrong need purpouse need story life one actually read like story meaning absolutely clue live without emotional connection pride come</t>
+          <t>hate go kill probably say lot people know always serious never scar amd want good go well hurt people like amd love every day exist stop hit best friend kind accident hat friend anymore family shit laugh fail life fail life school go change anything people know die goodbye hopefully</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
@@ -22301,29 +22305,29 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>asshole nobody sad die</t>
+          <t>unfair live burden everyday go live without care</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>hate go kill probably say lot people know always serious never scar amd want good go well hurt people like amd love every day exist stop hit best friend kind accident hat friend anymore family shit laugh fail life fail life school go change anything people know die goodbye hopefully</t>
+          <t>end last july boy think like party house get drunker ever life kind get take advantage really think lot could person think friend let happen everyone mad cry happen everyone tell make scene tell make big deal really carry ever since happen can not make go away can not stop think family move house find pile boy shit leave house night throw away make feel well make wonder still drag lot bad stuff can not get mind share maybe right place story sorry sorry lot thing even know mad think know let happen</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>unfair live burden everyday go live without care</t>
+          <t>stutter make feel hopeless</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>end last july boy think like party house get drunker ever life kind get take advantage really think lot could person think friend let happen everyone mad cry happen everyone tell make scene tell make big deal really carry ever since happen can not make go away can not stop think family move house find pile boy shit leave house night throw away make feel well make wonder still drag lot bad stuff can not get mind share maybe right place story sorry sorry lot thing even know mad think know let happen</t>
+          <t>stutter learn grow feel would never achieve dream due go lack ability fluently speak make feel worthless know never get girlfriend make feel like shit</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -22335,29 +22339,29 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>stutter make feel hopeless</t>
+          <t>want live anymore</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>stutter learn grow feel would never achieve dream due go lack ability fluently speak make feel worthless know never get girlfriend make feel like shit</t>
+          <t>want live life anymore stop family really nothing live life total complete shit show</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>want live anymore</t>
+          <t>subreddit kind therapeutic</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>want live life anymore stop family really nothing live life total complete shit show</t>
+          <t>personal experience see people go struggle go kind calm people obviously go thing much bad also people much sympathetic kind wonderful</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -22367,44 +22371,44 @@
       </c>
     </row>
     <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>subreddit kind therapeutic</t>
-        </is>
-      </c>
+      <c r="A1294" t="inlineStr"/>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>personal experience see people go struggle go kind calm people obviously go thing much bad also people much sympathetic kind wonderful</t>
+          <t>start week phaseon september 2019 slowly become permanent eye feel tired feel physically exhaust can not focus can not find enjoyment guitar video game thing use put hour day sleep sleep free period school sleep get home 230pm wake around 8pm eat go back bed dream start well life dream feel happy feel weigh feel like alone feel numb go school counselor help last week tell tell mom feeling go see doctor hard thing possibly think fault similar take sister anxiety problem can not burden know edit grammar</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1295">
-      <c r="A1295" t="inlineStr"/>
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>turn 19 may boyfriendgirlfriend jobless income future</t>
+        </is>
+      </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>start week phaseon september 2019 slowly become permanent eye feel tired feel physically exhaust can not focus can not find enjoyment guitar video game thing use put hour day sleep sleep free period school sleep get home 230pm wake around 8pm eat go back bed dream start well life dream feel happy feel weigh feel like alone feel numb go school counselor help last week tell tell mom feeling go see doctor hard thing possibly think fault similar take sister anxiety problem can not burden know edit grammar</t>
+          <t>bully tell play victim card entire life nobody want live still never find boyfriend girlfriend broken useless set card keep even slightly successful american dream specifically make benefit wealthy powerful poor make country suicide rate already rise past 20 year try play game nothing entertain anymore especially everything alone visible future literally live able support either die natural cause suicide feel like nobody want support deal useless set card begin</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>turn 19 may boyfriendgirlfriend jobless income future</t>
+          <t>live vicariously</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>bully tell play victim card entire life nobody want live still never find boyfriend girlfriend broken useless set card keep even slightly successful american dream specifically make benefit wealthy powerful poor make country suicide rate already rise past 20 year try play game nothing entertain anymore especially everything alone visible future literally live able support either die natural cause suicide feel like nobody want support deal useless set card begin</t>
+          <t>think suicide time sooooo break depressed live car even though work full time job side gig grandmother sponsor therefore financially responsible reason alive go one would pay assist live even watch love resent think suicide ever since remember even remember last time actually even semi happy stick love case actually money would go far far away somewhere like tuvalu people actually seem care life move slow everything involves much technology material thing think would one thing could help suicidal thought completely change life can not mean try move different city move different continent planning kill move somewhere else change everything nothing lose maybe maybe actually happy alive would love live vicariously</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
@@ -22416,12 +22420,12 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>live vicariously</t>
+          <t>always freak</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>think suicide time sooooo break depressed live car even though work full time job side gig grandmother sponsor therefore financially responsible reason alive go one would pay assist live even watch love resent think suicide ever since remember even remember last time actually even semi happy stick love case actually money would go far far away somewhere like tuvalu people actually seem care life move slow everything involves much technology material thing think would one thing could help suicidal thought completely change life can not mean try move different city move different continent planning kill move somewhere else change everything nothing lose maybe maybe actually happy alive would love live vicariously</t>
+          <t>many voice yell head want come stutter try let feel insane</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -22433,29 +22437,29 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>always freak</t>
+          <t>feel empty moment</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>many voice yell head want come stutter try let feel insane</t>
+          <t>perfectly fine 9pm last night randomly start cry nowhere watch perfectly normal youtube video although forgotten anything upsetting trigger go sleep 10ish assume good wake wrong woke still depress cry want get bed anything let alone go uni workstudy get get ready although felt like take eternity go uni find really overwhelming remember else happen decide go back home student flat try take mind work even though can not deadlines come pretty fast think full energy idea 2 day ago beyond since barely energy get bed morning also energy cry anymore empty want die also post really make much sense super depress empty feel like can not function anymore</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>feel empty moment</t>
+          <t>ssris ndris kill libido</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>perfectly fine 9pm last night randomly start cry nowhere watch perfectly normal youtube video although forgotten anything upsetting trigger go sleep 10ish assume good wake wrong woke still depress cry want get bed anything let alone go uni workstudy get get ready although felt like take eternity go uni find really overwhelming remember else happen decide go back home student flat try take mind work even though can not deadlines come pretty fast think full energy idea 2 day ago beyond since barely energy get bed morning also energy cry anymore empty want die also post really make much sense super depress empty feel like can not function anymore</t>
+          <t>mid20s woman rapidcycling bipolar ii post ask antidepressant control depressive episode mood control lithium zoloft zoloft 50 mg much absolutely zapped sex drive would force please partner coerce aside felt best would ever felt complaint otherwise last june go zoloft stuck lithium felt fine felt depression symptom come back couple month anxiety reactivity increase still way well med whatsoever december psychiatrist recommend ndri help prevent change libido start wellbutrin 100 mg much definitely help feel depression symptom come back spend last week think stupid pathetic useless apparent reason psychiatrist think well ssri lack libido awful something ever want experience know particular symptom varies person person want know others experience class antidepressant symptom varied drug drug even within class</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -22467,29 +22471,29 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>ssris ndris kill libido</t>
+          <t>can not stop cry</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>mid20s woman rapidcycling bipolar ii post ask antidepressant control depressive episode mood control lithium zoloft zoloft 50 mg much absolutely zapped sex drive would force please partner coerce aside felt best would ever felt complaint otherwise last june go zoloft stuck lithium felt fine felt depression symptom come back couple month anxiety reactivity increase still way well med whatsoever december psychiatrist recommend ndri help prevent change libido start wellbutrin 100 mg much definitely help feel depression symptom come back spend last week think stupid pathetic useless apparent reason psychiatrist think well ssri lack libido awful something ever want experience know particular symptom varies person person want know others experience class antidepressant symptom varied drug drug even within class</t>
+          <t>please help</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>can not stop cry</t>
+          <t>tire</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>please help</t>
+          <t>matter nightmare stop way get thing focus get another hour even live anymore tired want stop</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
@@ -22501,12 +22505,12 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>tire</t>
+          <t>best way could try work</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>matter nightmare stop way get thing focus get another hour even live anymore tired want stop</t>
+          <t>last night hard harder rest lie feeling death enhance saw e first love time life someone else drunk sure want die tell friend sad reassure go anything go home apartment take handful ibuprofen pill go sleep probably take awake type know stupid think could overdose ibuprofen anything else disappointed wake morning saw text ex essentially say almost year happy telling get reason want die however know whatever feeling felt love unrequited make wish alive see wish last message wish work somehow tired live life real way end trap every attempt get close goal afraid life tire can not keep pretend everyone plan alive next fall</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -22518,12 +22522,12 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>best way could try work</t>
+          <t>want live anymore</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>last night hard harder rest lie feeling death enhance saw e first love time life someone else drunk sure want die tell friend sad reassure go anything go home apartment take handful ibuprofen pill go sleep probably take awake type know stupid think could overdose ibuprofen anything else disappointed wake morning saw text ex essentially say almost year happy telling get reason want die however know whatever feeling felt love unrequited make wish alive see wish last message wish work somehow tired live life real way end trap every attempt get close goal afraid life tire can not keep pretend everyone plan alive next fall</t>
+          <t>make post read rule delete want die can not anymore think suicide 247 friend gf lonely constantly reject every place feel existence important kill</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -22535,12 +22539,12 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>want live anymore</t>
+          <t>one could see year like sure still go live need hug</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>make post read rule delete want die can not anymore think suicide 247 friend gf lonely constantly reject every place feel existence important kill</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -22552,12 +22556,12 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>one could see year like sure still go live need hug</t>
+          <t>extremely suicidal lately friends leave care package front doorstep today</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>every single night hard exist breathe desperately want end life tonight let dog saw package doorstep couple friend spoken couple month worry bunch doctor stuff star trek sock literally everything would love cry opened become convinced worthless horrible around stop talk people actually care call instantly even mad talk long wish could tell much mean afraid let people know suicidal want worried actually smile right probably happy week sometimes think thing happen reason</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -22569,12 +22573,12 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>extremely suicidal lately friends leave care package front doorstep today</t>
+          <t>want die see way forward</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>every single night hard exist breathe desperately want end life tonight let dog saw package doorstep couple friend spoken couple month worry bunch doctor stuff star trek sock literally everything would love cry opened become convinced worthless horrible around stop talk people actually care call instantly even mad talk long wish could tell much mean afraid let people know suicidal want worried actually smile right probably happy week sometimes think thing happen reason</t>
+          <t>funk long time get well really struggle literally everything right family help lose one job place close burn saving cover everything last month struggle come rent money prescription month get rent cover enough money power bill car payment car insurance ad leave panic stress go get money go happen start new job three week help right depress honestly feel like kill sometimes wake dreading day hold horrible parent believe tell depress help money think learn struggle everything add state mind sorry rant get dark horrible feel like feel lose alone</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -22586,12 +22590,12 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>want die see way forward</t>
+          <t>bad title</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>funk long time get well really struggle literally everything right family help lose one job place close burn saving cover everything last month struggle come rent money prescription month get rent cover enough money power bill car payment car insurance ad leave panic stress go get money go happen start new job three week help right depress honestly feel like kill sometimes wake dreading day hold horrible parent believe tell depress help money think learn struggle everything add state mind sorry rant get dark horrible feel like feel lose alone</t>
+          <t>know people able help saw broken glass bed like 3 hour ago try sleep urge shove neck genuinely worry might carry every time whatever distraction try stop back</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
@@ -22603,12 +22607,12 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>bad title</t>
+          <t>quote fuck</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>know people able help saw broken glass bed like 3 hour ago try sleep urge shove neck genuinely worry might carry every time whatever distraction try stop back</t>
+          <t>optimist commit suicideoptimists longer succeed optimist others reason live would die emil cioran</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
@@ -22620,12 +22624,12 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>quote fuck</t>
+          <t>call ambulance</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>optimist commit suicideoptimists longer succeed optimist others reason live would die emil cioran</t>
+          <t>want send hospital go maybe last push need end</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -22637,12 +22641,12 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>call ambulance</t>
+          <t>get nothing</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>want send hospital go maybe last push need end</t>
+          <t>nothing nothing tonight kill hopefully soon good useless passively fuck life extension leech know care maybe die sleep tonight would love sound pretty edgy use feel edgy feel miss</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -22654,12 +22658,12 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>get nothing</t>
+          <t>reason keep go</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>nothing nothing tonight kill hopefully soon good useless passively fuck life extension leech know care maybe die sleep tonight would love sound pretty edgy use feel edgy feel miss</t>
+          <t>lose everything fuck entire life terrible people like stay alive lose relationship wondeful person treat terribly home family friend job car everything everything own car get tow living car try get back foot can not afford get car back streets one even family want help anymore blame nothing complete disappointment everyone ever love show kindness hurt betray everyone life even analysis life last night realize never succeed anything fail absolutely everything life could even finish high school complete total failure thing keep end 22 feel like maybe thing could get well remember likely go fuck jail could take class court appoint take life fuck close hang jumping front fuck train</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
@@ -22671,12 +22675,12 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>reason keep go</t>
+          <t>long fight sadness every single day point pain stop get get good loose someone love never hear</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>lose everything fuck entire life terrible people like stay alive lose relationship wondeful person treat terribly home family friend job car everything everything own car get tow living car try get back foot can not afford get car back streets one even family want help anymore blame nothing complete disappointment everyone ever love show kindness hurt betray everyone life even analysis life last night realize never succeed anything fail absolutely everything life could even finish high school complete total failure thing keep end 22 feel like maybe thing could get well remember likely go fuck jail could take class court appoint take life fuck close hang jumping front fuck train</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -22688,12 +22692,12 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>long fight sadness every single day point pain stop get get good loose someone love never hear</t>
+          <t>advice finally maybe start get help</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>hi everyone first time ever go speak someone tomorrow suicidal ideation plague 10 year currently uni book appointment student support officer school counsellor deal academic issue big sad refer student onto mental health service absolutely shit scared never really spoken anyone feel couple time drunkenly friends never bring feel like time thing get bad recently graduate summer terrify really sure start meeting say never meet email book meet let know wrong sub basically want know start conversation much detail go feels way intense sit like hi nice meet think kill every day pile suicide note desk also want section lol</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -22705,12 +22709,12 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>advice finally maybe start get help</t>
+          <t>want expose people problem anymore</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>hi everyone first time ever go speak someone tomorrow suicidal ideation plague 10 year currently uni book appointment student support officer school counsellor deal academic issue big sad refer student onto mental health service absolutely shit scared never really spoken anyone feel couple time drunkenly friends never bring feel like time thing get bad recently graduate summer terrify really sure start meeting say never meet email book meet let know wrong sub basically want know start conversation much detail go feels way intense sit like hi nice meet think kill every day pile suicide note desk also want section lol</t>
+          <t>know use word burden lot family member affect problem go away hurt one last time instead multiple episode nutshell people want around desirable way excite offer people like kindness love compassion outdated concept want thing can not give return belong anywhere would better go nowhere</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
@@ -22722,29 +22726,29 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>want expose people problem anymore</t>
+          <t>ever felt like life go short andtragic</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>know use word burden lot family member affect problem go away hurt one last time instead multiple episode nutshell people want around desirable way excite offer people like kindness love compassion outdated concept want thing can not give return belong anywhere would better go nowhere</t>
+          <t>know anxeity disorder lately think reason life go short end tragic traumatic death kind scar lately also dreams car crash point scar drive farther 5 minute house may seem stupid curious anyone else experience</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>ever felt like life go short andtragic</t>
+          <t>know</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>know anxeity disorder lately think reason life go short end tragic traumatic death kind scar lately also dreams car crash point scar drive farther 5 minute house may seem stupid curious anyone else experience</t>
+          <t>hi guy first time write sub also one first post honestly feel sink maybe write help way italian forgive advance english 20m suffer depression 5 year think adolescent sadness never give much weight two path psychoanalysis two different psychotherapist diagnose thing struggle every day suicidal thought situation go bad situation home terrible live grandma also suffer depression take xanax prozac every day mother strong career woman use personal therapist since remember little brother light house father work another city see much last six month father say mother love anymore another woman judge always mum emotionally destroy reach help know help time go can not talk dad normally tried escape situation october move away another city think need live alone away house depression strike hard return original home afford return therapy currently situation become uncontrollable even friend notice always good hiding problem one last evening make sort intervention drinking problem honestly reveal suicidal thought drink hate self much know city drunken adventure like thought stop drinking kill know see light bottom tunnel</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -22756,29 +22760,29 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>reason trigger warn rape self harm sexual assault</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>hi guy first time write sub also one first post honestly feel sink maybe write help way italian forgive advance english 20m suffer depression 5 year think adolescent sadness never give much weight two path psychoanalysis two different psychotherapist diagnose thing struggle every day suicidal thought situation go bad situation home terrible live grandma also suffer depression take xanax prozac every day mother strong career woman use personal therapist since remember little brother light house father work another city see much last six month father say mother love anymore another woman judge always mum emotionally destroy reach help know help time go can not talk dad normally tried escape situation october move away another city think need live alone away house depression strike hard return original home afford return therapy currently situation become uncontrollable even friend notice always good hiding problem one last evening make sort intervention drinking problem honestly reveal suicidal thought drink hate self much know city drunken adventure like thought stop drinking kill know see light bottom tunnel</t>
+          <t>chronic pain tmj can not even eat eat mushy liquid food can not talk sing much anymore lay bed sleep escape pain chronic sinus infection can not breathe always feel like sneeze eye swell shut half day try kind person best never yell stranger friend boyfriend never cheat clingy support everyone everything give people hundred chance change make food people someone problem even random person nice talk try give solution try put good karma world know much long might well make positive impact try step either though chronic inflammation skin condition acne eczema every pore leg purple inflame eyelid always inflame crusty often swell completely shut family think exaggerate symptom naturally look swollen red whatever zero friend exaggerate one friend never close friend depression ever since 10 text people occasionally one close share feeling hang rap one acknowledge realize tell picky sexual partner could picky pass school even though 42 gpa 1550 sit homeschooled 1012th grade high school go liberal art college another state manicpsychotic episode go back home start community college parent pull depressive episode trust men never normal relationship besides rap men bombard videos porn star detail hot inspect flaw take advantage past trauma part kink lie marry tell reason like psycho dumb etc date bad time klonopin withdrawal period panic attack guy drive away ocd thought nonstop scar even think certain thought convince certain thought certainty thought jinx future scar sexual deviant even though libido straight vanilla female 2 sexual partner ever 3 include rape convince become hermaphrodite actually transgender weird thought eat disorder scar fat also scar skinny want look ill want look like girl men fetishize look small thin pedophile want rape look curvy objectify can not stop binge purge underweight guy check want become fat mom harass nude photo imitate take photo drive attempt suicide show dad sister everyone think slut sister tell cousin sleep many men first date blatant preferential treatment sister get laptop fix get haircut get seizure klonopin withdrawal mom shop custom coat sister hour tell mom happen say something like oh nice hundred people know diagnosis think crazy sister fundraiser mental illness help get good college make inspirational share health information many people treat weird everyone outside family like extend family family friend also super patronize treat person want cordial also get close super patronize need someone talk badly felt way long one care feel invisible swear tell aloud want kill self one would care wish someone could ask ok ask people many time ok can not remember last time ask selfish hate</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>reason trigger warn rape self harm sexual assault</t>
+          <t>can not</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>chronic pain tmj can not even eat eat mushy liquid food can not talk sing much anymore lay bed sleep escape pain chronic sinus infection can not breathe always feel like sneeze eye swell shut half day try kind person best never yell stranger friend boyfriend never cheat clingy support everyone everything give people hundred chance change make food people someone problem even random person nice talk try give solution try put good karma world know much long might well make positive impact try step either though chronic inflammation skin condition acne eczema every pore leg purple inflame eyelid always inflame crusty often swell completely shut family think exaggerate symptom naturally look swollen red whatever zero friend exaggerate one friend never close friend depression ever since 10 text people occasionally one close share feeling hang rap one acknowledge realize tell picky sexual partner could picky pass school even though 42 gpa 1550 sit homeschooled 1012th grade high school go liberal art college another state manicpsychotic episode go back home start community college parent pull depressive episode trust men never normal relationship besides rap men bombard videos porn star detail hot inspect flaw take advantage past trauma part kink lie marry tell reason like psycho dumb etc date bad time klonopin withdrawal period panic attack guy drive away ocd thought nonstop scar even think certain thought convince certain thought certainty thought jinx future scar sexual deviant even though libido straight vanilla female 2 sexual partner ever 3 include rape convince become hermaphrodite actually transgender weird thought eat disorder scar fat also scar skinny want look ill want look like girl men fetishize look small thin pedophile want rape look curvy objectify can not stop binge purge underweight guy check want become fat mom harass nude photo imitate take photo drive attempt suicide show dad sister everyone think slut sister tell cousin sleep many men first date blatant preferential treatment sister get laptop fix get haircut get seizure klonopin withdrawal mom shop custom coat sister hour tell mom happen say something like oh nice hundred people know diagnosis think crazy sister fundraiser mental illness help get good college make inspirational share health information many people treat weird everyone outside family like extend family family friend also super patronize treat person want cordial also get close super patronize need someone talk badly felt way long one care feel invisible swear tell aloud want kill self one would care wish someone could ask ok ask people many time ok can not remember last time ask selfish hate</t>
+          <t>feel like wit end look job almost three month unsuccessful struggle pay car insurance regular bill school live bad environment try hard apply go interview interview nothing work want anymore want life anymore want live feel like breathe feel like point feel like drown want stop waking</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr">
@@ -22790,29 +22794,29 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>can not</t>
+          <t>career</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>feel like wit end look job almost three month unsuccessful struggle pay car insurance regular bill school live bad environment try hard apply go interview interview nothing work want anymore want life anymore want live feel like breathe feel like point feel like drown want stop waking</t>
+          <t>hate job need keep income support start become hard get bed continuously late work quit anyone else similar experience</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>long time listener first time caller</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>hate job need keep income support start become hard get bed continuously late work quit anyone else similar experience</t>
+          <t>lose know anymore can not control emotion anymore piss one second cry next laughing want end 5 second later try trick help nothing depressed lately everything happen life work personal legal always feel alone seriously want end lately want go anymore damn hard sick tire living life full torture</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -22824,12 +22828,12 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>long time listener first time caller</t>
+          <t>hard time</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>lose know anymore can not control emotion anymore piss one second cry next laughing want end 5 second later try trick help nothing depressed lately everything happen life work personal legal always feel alone seriously want end lately want go anymore damn hard sick tire living life full torture</t>
+          <t>dark place marry one kid dog cat house clean sick right cold uc bad u last yeah hospital 5 time year one stupid uc hate hate look feel support love anyone life except little daughter reason commit suicide strength anymore plan 3 surgery near future one gastric sleeve can not get rid weight medicine use feel ugly fat miss lovely feel get first kiss love excitement happiness life dark right think suicide alot tell husband mom belive clinical depression real thing therapist hard time stubborn little satan know know get sleeping pill afraid daughter loose mother soon norway afraid tell doctor suicide thought really happy take away child family every little shit know do whole life shit pain whole body pain relief med norway give paracetamol fuckery</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr">
@@ -22841,29 +22845,29 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>hard time</t>
+          <t>make decision</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>dark place marry one kid dog cat house clean sick right cold uc bad u last yeah hospital 5 time year one stupid uc hate hate look feel support love anyone life except little daughter reason commit suicide strength anymore plan 3 surgery near future one gastric sleeve can not get rid weight medicine use feel ugly fat miss lovely feel get first kiss love excitement happiness life dark right think suicide alot tell husband mom belive clinical depression real thing therapist hard time stubborn little satan know know get sleeping pill afraid daughter loose mother soon norway afraid tell doctor suicide thought really happy take away child family every little shit know do whole life shit pain whole body pain relief med norway give paracetamol fuckery</t>
+          <t>end march thing still well go take whole bottle acetaminophen kitchen school kill parent know suicidal dead winwin either way would stay home school feel like would arouse suspicion start feeling effect around lunch want go back school figure drive walmart park lot something sure miss graduation prom super important high school thing point care see point continue live already lose 5 student year kind feel bad go subject school grief like 10 people know well hurt much</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>make decision</t>
+          <t>high key tempt yeet roof</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>end march thing still well go take whole bottle acetaminophen kitchen school kill parent know suicidal dead winwin either way would stay home school feel like would arouse suspicion start feeling effect around lunch want go back school figure drive walmart park lot something sure miss graduation prom super important high school thing point care see point continue live already lose 5 student year kind feel bad go subject school grief like 10 people know well hurt much</t>
+          <t>do literally energy give everything go shit feel like can not breathe really energy fight want sleep never wake</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
@@ -22875,12 +22879,12 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>high key tempt yeet roof</t>
+          <t>suicidal can not kill laziness</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>do literally energy give everything go shit feel like can not breathe really energy fight want sleep never wake</t>
+          <t>really know appropriate subreddit find really funny become suicidal intent kill strong reach point create heavy feeling brain render progress mental health null quite aware progress make past month even consider depressionfree episode feeling stable three week realize depression onetime thing cure constant mean pharmacology state want kill lazy get knife downstairs would know damn well feel emptiness suicidal subside episode tip overcome recursive state mine however might break laziness phase actually</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -22892,80 +22896,80 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>suicidal can not kill laziness</t>
+          <t>today tough</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>really know appropriate subreddit find really funny become suicidal intent kill strong reach point create heavy feeling brain render progress mental health null quite aware progress make past month even consider depressionfree episode feeling stable three week realize depression onetime thing cure constant mean pharmacology state want kill lazy get knife downstairs would know damn well feel emptiness suicidal subside episode tip overcome recursive state mine however might break laziness phase actually</t>
+          <t>today hard bit backstory girlfriend recently break something control blame hate mean upending life move 300 mile away back parent 7 year relationship independent leave life cat behind basically hold together time lose job september really hard time find work imagine feel pretty low right main issue mother never really get along unpleasant around long period time fine small dos though basically shit everything try always something negative brings equation take wind sail go job interview last week go okay great terrible confident border get get rejection email afternoon felt like got kick stomach shire horse awful feeling knock back applied 43 job interview get feel pretty bad mum come room decide good time ask would dad feed keep pleasant topic conversation say well would homeless sleep rough would imagine mum seem satisfied response decide go tirade seek unemployment benefit would last ounce pride let also mention ask penny charity since get back anything dad pay list phone fully intend pay back work money come loan money mum since uni need help could handle argue anymore sister however currently owe mum dad thousand chase whenever need help drop help know bitter mum make statement treat time know continue twist knife could take anymore walked room say seem mind around delivery come want go see friend make lunch dinner housework feel like help around house time good enough least tried leave feel uselessness never good enough maybe sensitive much go ex break last month long ago know know sure much take</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>today tough</t>
+          <t>noticed frequent think suicide dream memory get past remind nostalgia good time</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>today hard bit backstory girlfriend recently break something control blame hate mean upending life move 300 mile away back parent 7 year relationship independent leave life cat behind basically hold together time lose job september really hard time find work imagine feel pretty low right main issue mother never really get along unpleasant around long period time fine small dos though basically shit everything try always something negative brings equation take wind sail go job interview last week go okay great terrible confident border get get rejection email afternoon felt like got kick stomach shire horse awful feeling knock back applied 43 job interview get feel pretty bad mum come room decide good time ask would dad feed keep pleasant topic conversation say well would homeless sleep rough would imagine mum seem satisfied response decide go tirade seek unemployment benefit would last ounce pride let also mention ask penny charity since get back anything dad pay list phone fully intend pay back work money come loan money mum since uni need help could handle argue anymore sister however currently owe mum dad thousand chase whenever need help drop help know bitter mum make statement treat time know continue twist knife could take anymore walked room say seem mind around delivery come want go see friend make lunch dinner housework feel like help around house time good enough least tried leave feel uselessness never good enough maybe sensitive much go ex break last month long ago know know sure much take</t>
+          <t>happen recently dream vivid feel like back time child year pretty decent feel like different realmworld mental illness primarily depression dissociation</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>noticed frequent think suicide dream memory get past remind nostalgia good time</t>
+          <t>drogs 15</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>happen recently dream vivid feel like back time child year pretty decent feel like different realmworld mental illness primarily depression dissociation</t>
+          <t>15 take lot different drogs smoke want know relate sorry english germany</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>drogs 15</t>
+          <t>thought get back mind</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>15 take lot different drogs smoke want know relate sorry english germany</t>
+          <t>tell everyone would run away never come back take life f everything life get well short take long lose everything seem worth back get divorce thrown flat whole lot lawyer bullshit lot negative thought basically truly happy since thing turn shit feeling suicidal thought slowly find way back meds seek professional help still feel lost time feel like fail every little thing turn away people adore fair often feel like torn apart form inside surely get sick depress long think sure hold together much long feel like rant perhaps help thank attention time</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>thought get back mind</t>
+          <t>want thoughtsopinions</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>tell everyone would run away never come back take life f everything life get well short take long lose everything seem worth back get divorce thrown flat whole lot lawyer bullshit lot negative thought basically truly happy since thing turn shit feeling suicidal thought slowly find way back meds seek professional help still feel lost time feel like fail every little thing turn away people adore fair often feel like torn apart form inside surely get sick depress long think sure hold together much long feel like rant perhaps help thank attention time</t>
+          <t>really consider suicide overdose march 30 feel pathetic like nobody care thoughts opinion etc</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
@@ -22977,46 +22981,46 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>want thoughtsopinions</t>
+          <t>door</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>really consider suicide overdose march 30 feel pathetic like nobody care thoughts opinion etc</t>
+          <t>current state take hard course foresaw would make long run door open turn toxic key member family shut left survive thing foreseen happen slowly eat mental health away like everybody progress except</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>trust around medication</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>current state take hard course foresaw would make long run door open turn toxic key member family shut left survive thing foreseen happen slowly eat mental health away like everybody progress except</t>
+          <t>throwaway account obvious reason two week ago mom take med away know case recently feel well ask back can not help feel weird like trust enough next sound weird anyone else know mean guys trust</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>trust around medication</t>
+          <t>kill</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>throwaway account obvious reason two week ago mom take med away know case recently feel well ask back can not help feel weird like trust enough next sound weird anyone else know mean guys trust</t>
+          <t>look easy way coward know can not take hearthache though need quick way kill would 750800 mg doxylamine succinate trick concoction otc pill take please help desperate</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
@@ -23028,29 +23032,29 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>kill</t>
+          <t>go breakfast</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>look easy way coward know can not take hearthache though need quick way kill would 750800 mg doxylamine succinate trick concoction otc pill take please help desperate</t>
+          <t>month since see sun ate food around others buy food walk around saw bird nice think could feel light heart always feel like dark heavy loom presence tense time yknw depress kid sun good least hour two hope feel lightness</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>go breakfast</t>
+          <t>can not get bed</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>month since see sun ate food around others buy food walk around saw bird nice think could feel light heart always feel like dark heavy loom presence tense time yknw depress kid sun good least hour two hope feel lightness</t>
+          <t>sick can not get bed stick barely read wish dead know manage get far always tire</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
@@ -23062,76 +23066,76 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>can not get bed</t>
+          <t>can not seem get ahead life</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>sick can not get bed stick barely read wish dead know manage get far always tire</t>
+          <t>always negative person life 32 decide want changei get job shelter love people hate see people live life low basically get job shelter decide would act want career anyways job awesome think homeless people would hard deal coworkers act like high school kid talk shit coworkers stay neutral people say thing people worker real mean people like ask kind work hat people fee lady get shelter late coworker get mad since late call pushover tell pushover compassion make mad say sorry first want lastword go gooff lie say threaten get sent home try positive put people shoe less bad guy probably job still one guess time end can not get ahead matter 32 thing look good family take care wife work part time amfucked drunk sorry grammar dumb person anyways kid half age well grammar</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>can not seem get ahead life</t>
+          <t>think well midterm learn barely pass can not get feel like life cave</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>always negative person life 32 decide want changei get job shelter love people hate see people live life low basically get job shelter decide would act want career anyways job awesome think homeless people would hard deal coworkers act like high school kid talk shit coworkers stay neutral people say thing people worker real mean people like ask kind work hat people fee lady get shelter late coworker get mad since late call pushover tell pushover compassion make mad say sorry first want lastword go gooff lie say threaten get sent home try positive put people shoe less bad guy probably job still one guess time end can not get ahead matter 32 thing look good family take care wife work part time amfucked drunk sorry grammar dumb person anyways kid half age well grammar</t>
+          <t>serious depressive episode couple month always able say least good school need good go good university graduate shitty community college study as think actually well midterm barely scrap can not get awful feel know overreact know end world improve grade feel like fuck idiot can not anything right know professor probably laugh terrible test want cut lay bed spring break deserve anything else can not think rationally shit instead blow proportion probably autism come tell would get good plan march 20th suicide can not fuck wait</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>think well midterm learn barely pass can not get feel like life cave</t>
+          <t>hate face body point think suicide everyday</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>serious depressive episode couple month always able say least good school need good go good university graduate shitty community college study as think actually well midterm barely scrap can not get awful feel know overreact know end world improve grade feel like fuck idiot can not anything right know professor probably laugh terrible test want cut lay bed spring break deserve anything else can not think rationally shit instead blow proportion probably autism come tell would get good plan march 20th suicide can not fuck wait</t>
+          <t>always ugly kid hated way look envied childhood friend prettier get well treatment develop eat disorder 1213 yo restrictbinge cycle year lately gain usually binge long period time make really depressed somehow cop realize ugly really look far used think look thought fine look weird angle way bad hate everything face body hate way skin look hate everything feel sorry body work hard someone hate can not afford plastic surgery makeup trick anymore know awful look want kill</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>hate face body point think suicide everyday</t>
-        </is>
-      </c>
+      <c r="A1338" t="inlineStr"/>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>always ugly kid hated way look envied childhood friend prettier get well treatment develop eat disorder 1213 yo restrictbinge cycle year lately gain usually binge long period time make really depressed somehow cop realize ugly really look far used think look thought fine look weird angle way bad hate everything face body hate way skin look hate everything feel sorry body work hard someone hate can not afford plastic surgery makeup trick anymore know awful look want kill</t>
+          <t>sure guy ever think maybe fake overreact worried everyone nothing</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1339">
-      <c r="A1339" t="inlineStr"/>
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>genuinely feel good depress one year straight</t>
+        </is>
+      </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>sure guy ever think maybe fake overreact worried everyone nothing</t>
+          <t>hey past year really depress tried kill felt like get good somehow manage deal everyday life really live knew kind behavior appropriate try act accordingly feel destination thought always suicide think lot plan multiple suicide attempt write farewell letter stuff like slowly return true self like able see world colour always happy day feel bad even day depress way well use touch feeling almost forget sensitive feel alive fucking amaze reason post want remind maybe even get good get strong believe matter bad feel moment remember time feel well worth live stay safe guy strongass motherfucker</t>
         </is>
       </c>
       <c r="C1339" t="inlineStr">
@@ -23143,29 +23147,29 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>genuinely feel good depress one year straight</t>
+          <t>anyone know edwardkinley</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>hey past year really depress tried kill felt like get good somehow manage deal everyday life really live knew kind behavior appropriate try act accordingly feel destination thought always suicide think lot plan multiple suicide attempt write farewell letter stuff like slowly return true self like able see world colour always happy day feel bad even day depress way well use touch feeling almost forget sensitive feel alive fucking amaze reason post want remind maybe even get good get strong believe matter bad feel moment remember time feel well worth live stay safe guy strongass motherfucker</t>
+          <t>get touch young guy can not figure anymorei hope fine</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>anyone know edwardkinley</t>
+          <t>maintain relationship people</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>get touch young guy can not figure anymorei hope fine</t>
+          <t>hello first really appreciate take time read post whether able provide advice thank feel like order give good understand situation need talk go sorry end long post kid pretty much normal group friend use shy faced lot verbal abuse time keep quite think normal ok thing affect though much however middle school experience trauma change forever left deep scar emotionally take year overcome one tried help see go speak try help year trust issue paranoid time first experience feel alone one understand slowly start drift away shut want alone start lose friend care time think right thing avoid much social interaction possible guess way try protect year try regain social life back make friend tried everything try act happy funny person one want see real depress sad self want make friend person actually work thought right thing end make depressed take lot effort person really felt like make deep connection anyone like screw mean try anything forcefully like others think since many thing probably find someone one thing friends work either kind become extra friend group existence make difference friend come friend around person hang enjoy company want sit alone mess senior year high school felt like shit spent time break toilet rather feel like shit others clear awful people say anything bad friend long whether time try funny happy person either way never felt belong anyone care felt someone know sure call friend college though struggle peak friendship make high school slowly disappear everyone move life guess mean leave unwanted relationship behind regardless think right part reach always end onesided relationship everyone apparently one reach stop one person close school year try friend rely time need depend want always never make time somehow others try put friendship test respond coldly message see ask wrong want notice problem see go care friendship end unfollowing social medium block life simply even though perfectly know well know kind behavior problem talk stranger open conversation interact anyone easily try get know people college difficult except think anyone want friend remain classmate end make one friend college lot common really believe could work take lot ignore frustrate attitude sometimes make wonder bother hold ever show frustration point go deep depression make suicidal thought future try hold hope much want act tough act like handle could really need someone talk far see one except college friend know go thought let u give try open do conversation last 2 minute crushed sure maybe perfect person open time option really need someone life talk really think go day really lose hope feel like back start point probably sound awfully pathetic person stupid every time able maintain relationship life ask wrong do wrong life realize try fix thing hard life end break damage always think right thing part reach help somehow make thing good always seem one making effort notice throughout stage life mention one try friend want always seem one want someone friend right much confuse exactly suppose understand struggle much find somewhere belong feel much reject matter make effort end alone either way everyone life seem give one bother hold know suppose give accept fact maybe thing suppose life try bore guy detail complicate stuff hope situation make clear confuse really need advice think go find good one mind one thank taking time read post</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -23177,12 +23181,12 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>maintain relationship people</t>
+          <t>shall depress go die</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>hello first really appreciate take time read post whether able provide advice thank feel like order give good understand situation need talk go sorry end long post kid pretty much normal group friend use shy faced lot verbal abuse time keep quite think normal ok thing affect though much however middle school experience trauma change forever left deep scar emotionally take year overcome one tried help see go speak try help year trust issue paranoid time first experience feel alone one understand slowly start drift away shut want alone start lose friend care time think right thing avoid much social interaction possible guess way try protect year try regain social life back make friend tried everything try act happy funny person one want see real depress sad self want make friend person actually work thought right thing end make depressed take lot effort person really felt like make deep connection anyone like screw mean try anything forcefully like others think since many thing probably find someone one thing friends work either kind become extra friend group existence make difference friend come friend around person hang enjoy company want sit alone mess senior year high school felt like shit spent time break toilet rather feel like shit others clear awful people say anything bad friend long whether time try funny happy person either way never felt belong anyone care felt someone know sure call friend college though struggle peak friendship make high school slowly disappear everyone move life guess mean leave unwanted relationship behind regardless think right part reach always end onesided relationship everyone apparently one reach stop one person close school year try friend rely time need depend want always never make time somehow others try put friendship test respond coldly message see ask wrong want notice problem see go care friendship end unfollowing social medium block life simply even though perfectly know well know kind behavior problem talk stranger open conversation interact anyone easily try get know people college difficult except think anyone want friend remain classmate end make one friend college lot common really believe could work take lot ignore frustrate attitude sometimes make wonder bother hold ever show frustration point go deep depression make suicidal thought future try hold hope much want act tough act like handle could really need someone talk far see one except college friend know go thought let u give try open do conversation last 2 minute crushed sure maybe perfect person open time option really need someone life talk really think go day really lose hope feel like back start point probably sound awfully pathetic person stupid every time able maintain relationship life ask wrong do wrong life realize try fix thing hard life end break damage always think right thing part reach help somehow make thing good always seem one making effort notice throughout stage life mention one try friend want always seem one want someone friend right much confuse exactly suppose understand struggle much find somewhere belong feel much reject matter make effort end alone either way everyone life seem give one bother hold know suppose give accept fact maybe thing suppose life try bore guy detail complicate stuff hope situation make clear confuse really need advice think go find good one mind one thank taking time read post</t>
+          <t>sometimes wonder people stay alive hurt others go heavy place vestibule uncommited punish unloyalty either good evil</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
@@ -23194,41 +23198,41 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>shall depress go die</t>
+          <t>want work hard</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>sometimes wonder people stay alive hurt others go heavy place vestibule uncommited punish unloyalty either good evil</t>
+          <t>feel empty whenever think quit play videogames smoke weed feel burden learn thing develop skill can not go back school successful school would start practice lot new skill hate practice skill hate practice write hate read sake read self improvement care technically get good stuff make feel well actually suffer learn new thing go way practice skill unenticing legitimately believe life hope would rather dead reward reward give back time lose work diligently something everything fuck bore know suck literally choose like thing like hard work make want go kill spree feel like grave injustice late play videogames smoke weed year longer reap pleasure hard work building connection sit read study shit make agitate bore also hopeless hope hope want work talk fuck job talk fuck everything want solve challenge life matter hard work anyways nothing come fuck easier absolutely nothing physically write physically walk physically talk none ever become second nature fuck want smoke die</t>
         </is>
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>want work hard</t>
+          <t>hate one comfort people tell go ok</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>feel empty whenever think quit play videogames smoke weed feel burden learn thing develop skill can not go back school successful school would start practice lot new skill hate practice skill hate practice write hate read sake read self improvement care technically get good stuff make feel well actually suffer learn new thing go way practice skill unenticing legitimately believe life hope would rather dead reward reward give back time lose work diligently something everything fuck bore know suck literally choose like thing like hard work make want go kill spree feel like grave injustice late play videogames smoke weed year longer reap pleasure hard work building connection sit read study shit make agitate bore also hopeless hope hope want work talk fuck job talk fuck everything want solve challenge life matter hard work anyways nothing come fuck easier absolutely nothing physically write physically walk physically talk none ever become second nature fuck want smoke die</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>hate one comfort people tell go ok</t>
+          <t>go homeless scar</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
@@ -23245,29 +23249,29 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>go homeless scar</t>
+          <t>feel bad talk issue</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>talk people issue anxiety depression implosion ect feel like everyone else much bad problem mine trivial stupid feel worthy help receive either lot people can not get therapist make feel awful worthy help</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>feel bad talk issue</t>
+          <t>lol</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>talk people issue anxiety depression implosion ect feel like everyone else much bad problem mine trivial stupid feel worthy help receive either lot people can not get therapist make feel awful worthy help</t>
+          <t>friend family confuse increasingly poor life decision lately never good excuse suppose tell upset feel impossible prioritize even important task feel lose give fuck future consequence much pain bother tell anyone keep even want use word depression describe honestly feel like little entitled bitch try use mental health excuse lazy truthfully content anything life past 3 year feel like escape mind fantasize suicide several time day everyday last month even though plan give disturb comfort make feel justified make mess life truly consider depressed consider depress think longer root problem feel utterly break</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
@@ -23279,12 +23283,12 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>lol</t>
+          <t>endless toil</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>friend family confuse increasingly poor life decision lately never good excuse suppose tell upset feel impossible prioritize even important task feel lose give fuck future consequence much pain bother tell anyone keep even want use word depression describe honestly feel like little entitled bitch try use mental health excuse lazy truthfully content anything life past 3 year feel like escape mind fantasize suicide several time day everyday last month even though plan give disturb comfort make feel justified make mess life truly consider depressed consider depress think longer root problem feel utterly break</t>
+          <t>left shattered memory long lose pain leave turmoil physical strain nothing leave guilt obtain feel undead tonight leave take purposeless flight know go everything happen come nothing leave show</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
@@ -23296,12 +23300,12 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>endless toil</t>
+          <t>can not anything wrong</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>left shattered memory long lose pain leave turmoil physical strain nothing leave guilt obtain feel undead tonight leave take purposeless flight know go everything happen come nothing leave show</t>
+          <t>can not fuck anything right dumbass keep find new way ruin everything despite anything keep mess everything can not even basic stuff easy everyone pathetic</t>
         </is>
       </c>
       <c r="C1349" t="inlineStr">
@@ -23313,12 +23317,12 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>can not anything wrong</t>
+          <t>know write</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>can not fuck anything right dumbass keep find new way ruin everything despite anything keep mess everything can not even basic stuff easy everyone pathetic</t>
+          <t>22 dealt depression since highschool think got well fori great go college get jobbut recently anxiety gotten really bad againi date girl little year felt slip back depression long distance relationship cali back home across country anywayi start get bore guess relationship like relationship facetimewe would try meet every thenbut maybe saw 3 4 time year distance get way decide mutually sorta break would still facetime everyday would pick movie watch together like date still could tell love anymore depression start come backwell fast forward month christmas home spends whole first day family wound sleep together night next day leave job different statewe talk happen say mean anything think go get back together never happen recentlyshe start tell guy date try supportive move can not think together make happier like good enough happy another guy want unhappy keep one thought sleep together get mind think every time tell hang thought stop drink drink cut want cut anymore stop drink start scratch finger point bleeds scab get panic attack get panic attack every time think think think see together well dumb know broke still call get work answer call tell guy could talk anythingbut see hang want cut cut two week hard get everyone one let get away mine regret enough know else could do though get much vacation day sorta break timeand want something can not feel alone worthless time keep obsess two together trigger panic attack hate would actually commit suicide thought start surface againand know want die want feel way know happen time past week stop eat stop sleep trouble focus thing smoke waaay normally need help can not get obsess sorry long really anyone talk figure would vent everything front stranger</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
@@ -23330,12 +23334,12 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>know write</t>
+          <t>anything</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>22 dealt depression since highschool think got well fori great go college get jobbut recently anxiety gotten really bad againi date girl little year felt slip back depression long distance relationship cali back home across country anywayi start get bore guess relationship like relationship facetimewe would try meet every thenbut maybe saw 3 4 time year distance get way decide mutually sorta break would still facetime everyday would pick movie watch together like date still could tell love anymore depression start come backwell fast forward month christmas home spends whole first day family wound sleep together night next day leave job different statewe talk happen say mean anything think go get back together never happen recentlyshe start tell guy date try supportive move can not think together make happier like good enough happy another guy want unhappy keep one thought sleep together get mind think every time tell hang thought stop drink drink cut want cut anymore stop drink start scratch finger point bleeds scab get panic attack get panic attack every time think think think see together well dumb know broke still call get work answer call tell guy could talk anythingbut see hang want cut cut two week hard get everyone one let get away mine regret enough know else could do though get much vacation day sorta break timeand want something can not feel alone worthless time keep obsess two together trigger panic attack hate would actually commit suicide thought start surface againand know want die want feel way know happen time past week stop eat stop sleep trouble focus thing smoke waaay normally need help can not get obsess sorry long really anyone talk figure would vent everything front stranger</t>
+          <t>get lot work can not anything voice head say even try would get anywhere would succeed always delay thing even though time bad part aware situation still anything time go fast know anxiety get bad time like get bad can not even sleep let alone anything tired feeling way like say know anyone talk really need advice english first language hope understand</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
@@ -23347,29 +23351,29 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>anything</t>
+          <t>suicide electricity</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>get lot work can not anything voice head say even try would get anywhere would succeed always delay thing even though time bad part aware situation still anything time go fast know anxiety get bad time like get bad can not even sleep let alone anything tired feeling way like say know anyone talk really need advice english first language hope understand</t>
+          <t>consider suicide method wonder electrocution good option 220 volt enough kill adult</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>suicide electricity</t>
+          <t>life suck without money</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>consider suicide method wonder electrocution good option 220 volt enough kill adult</t>
+          <t>constant fucking stress literally would rather die deal one day can not even afford bill go subreddit beg money luckily someone help sustainable know anymore move across country start put way behind life 5000 save move go job line get complete shit get eight hour week eight fucking hour twenty first start apply every fuck job town call back think something wrong heard people work talk problem college town every job competition like 20000 student know fuck anymore miss able go thing even handle problem come snake go vet call ask grandparent loan money depress pay rent 20 last next shift like five day time buy cat litter pay electric bill fuck sick life</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr">
@@ -23381,12 +23385,12 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>life suck without money</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>constant fucking stress literally would rather die deal one day can not even afford bill go subreddit beg money luckily someone help sustainable know anymore move across country start put way behind life 5000 save move go job line get complete shit get eight hour week eight fucking hour twenty first start apply every fuck job town call back think something wrong heard people work talk problem college town every job competition like 20000 student know fuck anymore miss able go thing even handle problem come snake go vet call ask grandparent loan money depress pay rent 20 last next shift like five day time buy cat litter pay electric bill fuck sick life</t>
+          <t>loneliness kill inside can not take anymore know deserve everything go wrong go die alone might well</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr">
@@ -23398,80 +23402,80 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>alone</t>
+          <t>want quit</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>loneliness kill inside can not take anymore know deserve everything go wrong go die alone might well</t>
+          <t>mind shut fuck can not handle want fuck die fuck anxious function anymore</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>want quit</t>
+          <t>burden family</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>mind shut fuck can not handle want fuck die fuck anxious function anymore</t>
+          <t>16 f diagnose depression think kill tonight try yesterday fail one reason behind burden family mental capacity think clearly ask drop year board able study near begin next session recover bit parent happen sort supernatural evil thing diagnosis take therapy ever rather take get rid evil thing go able study waste money also give dowry marriage pay education waste life money financial problem think justified commit suicide ruin mental health mom bpd schizophrenia sister 10 think ruin life close emotionally might also well without reality mess think never recover waste life live like 60 year scary mom go doctor think evil thing scar eat think enemy go kill matter much insist take doctor refuse stuck scar suffering world see street dog die road accident one even take care dead body hide road please say commit suicide moral obligation please answer family would better without take time read can not thank enough</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>burden family</t>
+          <t>think time</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>16 f diagnose depression think kill tonight try yesterday fail one reason behind burden family mental capacity think clearly ask drop year board able study near begin next session recover bit parent happen sort supernatural evil thing diagnosis take therapy ever rather take get rid evil thing go able study waste money also give dowry marriage pay education waste life money financial problem think justified commit suicide ruin mental health mom bpd schizophrenia sister 10 think ruin life close emotionally might also well without reality mess think never recover waste life live like 60 year scary mom go doctor think evil thing scar eat think enemy go kill matter much insist take doctor refuse stuck scar suffering world see street dog die road accident one even take care dead body hide road please say commit suicide moral obligation please answer family would better without take time read can not thank enough</t>
+          <t>17 senior high school wake go school come home homework chore around house take care pet take care eat shower keep room clean go gym actively produce art listen music play guitar spend time mom friend unhappy life feel dull gray sad angry upset anything previous year life overcome anxiety major depression self harm even suicide attempt sad angry confuse disgust suffer ptsd since age 12 affect lot still affect especially form physical ptsd doctor describe know else call overdose 2 year try kill trauma aside feel anything negative course bad mood like anyone else really would say good mood bad mood laugh smile joke lot comedian circle tell odd live life autopilot everything positive use almost every hour day fill thought suicide fantasize slice wrist open watch blood pool tub beneath imagine drive old hanging tree side town middle night leave body dangle someone find morning walking sidewalk laugh think jump front car roll self harm cry funny game</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>think time</t>
+          <t>thought another birthday</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>17 senior high school wake go school come home homework chore around house take care pet take care eat shower keep room clean go gym actively produce art listen music play guitar spend time mom friend unhappy life feel dull gray sad angry upset anything previous year life overcome anxiety major depression self harm even suicide attempt sad angry confuse disgust suffer ptsd since age 12 affect lot still affect especially form physical ptsd doctor describe know else call overdose 2 year try kill trauma aside feel anything negative course bad mood like anyone else really would say good mood bad mood laugh smile joke lot comedian circle tell odd live life autopilot everything positive use almost every hour day fill thought suicide fantasize slice wrist open watch blood pool tub beneath imagine drive old hanging tree side town middle night leave body dangle someone find morning walking sidewalk laugh think jump front car roll self harm cry funny game</t>
+          <t>another shitty summer another christmasi can not lose job friend go parent speak recent humiliation guy past noone love want go</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>thought another birthday</t>
+          <t>unsure everything</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>another shitty summer another christmasi can not lose job friend go parent speak recent humiliation guy past noone love want go</t>
+          <t>know overreact feeling contemplate suicide several time want live scar actually try kill feel like piece shit feel like mock people actually attempt suicide say want live much pussy try end know actually depress go edgy teen phase scar get diagnose afraid result might say told dad around 23 month ago felt think really care basically small chat think think overreact whole thing even know feel serious think</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -23483,29 +23487,29 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>unsure everything</t>
+          <t>wish die</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>know overreact feeling contemplate suicide several time want live scar actually try kill feel like piece shit feel like mock people actually attempt suicide say want live much pussy try end know actually depress go edgy teen phase scar get diagnose afraid result might say told dad around 23 month ago felt think really care basically small chat think think overreact whole thing even know feel serious think</t>
+          <t>wish could die natural way die kill would want put family pain know killer sometimes wish could get kill freak accident</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>wish die</t>
+          <t>feel like larping ok ssri help</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>wish could die natural way die kill would want put family pain know killer sometimes wish could get kill freak accident</t>
+          <t>basically always little listless sad even elementary school get ok grade really excel sport start get really great grade college join magazine volunteer local democrat barista job etc still even see ok miserable lot friend kind funny nice time speak people three year post grad really suffer poor performer every job do post grad internship agency tech job right put 30 day performance review probably get fire know want know make mistake fuck entire life feel like broken ever make money really rent bill pay could get another job can not deal suck get fire next one prozac hop help feel like fired wake call ashamed let happen everyone else say get back foot really ok idea anyones life change ssris something wrong fear hope</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
@@ -23517,12 +23521,12 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>feel like larping ok ssri help</t>
+          <t>medication work</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>basically always little listless sad even elementary school get ok grade really excel sport start get really great grade college join magazine volunteer local democrat barista job etc still even see ok miserable lot friend kind funny nice time speak people three year post grad really suffer poor performer every job do post grad internship agency tech job right put 30 day performance review probably get fire know want know make mistake fuck entire life feel like broken ever make money really rent bill pay could get another job can not deal suck get fire next one prozac hop help feel like fired wake call ashamed let happen everyone else say get back foot really ok idea anyones life change ssris something wrong fear hope</t>
+          <t>diagnose anxiety depression right take prescription med last couple week really help little background get 6 year relationship due see future ex december 2019 one person think really close friend mine decide want friend anymore cut contact get emotionally attach wayyy easily lead anxiety panic attack depression eventually lead insomnia ibs migraine constant body ache start therapy feb 2020 since go therapist every week therapist suggest look option medication try since last 2 week lexapro ssri psychiatrist tell go take week see change last 34 day observe energy level increase able sleep well much good ibs decrease get migraine really really glad medication help anyone look option one fence try medication go sure work help</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
@@ -23534,12 +23538,12 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>medication work</t>
+          <t>vent guess</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>diagnose anxiety depression right take prescription med last couple week really help little background get 6 year relationship due see future ex december 2019 one person think really close friend mine decide want friend anymore cut contact get emotionally attach wayyy easily lead anxiety panic attack depression eventually lead insomnia ibs migraine constant body ache start therapy feb 2020 since go therapist every week therapist suggest look option medication try since last 2 week lexapro ssri psychiatrist tell go take week see change last 34 day observe energy level increase able sleep well much good ibs decrease get migraine really really glad medication help anyone look option one fence try medication go sure work help</t>
+          <t>post make sense read need vent go fee alone useless good anything suppose graduate uni next year 21 next month never job friend one make high school incapable make friend can not conversation anyone two min interest nothing say life boring friend none ever genuinely want talk none ever texts first person talk want feel alone tire</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr">
@@ -23551,46 +23555,46 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>vent guess</t>
+          <t>get life back ish</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>post make sense read need vent go fee alone useless good anything suppose graduate uni next year 21 next month never job friend one make high school incapable make friend can not conversation anyone two min interest nothing say life boring friend none ever genuinely want talk none ever texts first person talk want feel alone tire</t>
+          <t>breakdown around 6 month ago yet recover although due go back uni end month little little sort life unfortunately do sweet fuck improve mood still suicidal think go back uni course require bare arm practicalsplacements people see recent self harm scar go final straw push edge think make feel physically sick honestly miracle alive easter</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>get life back ish</t>
+          <t>get good</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>breakdown around 6 month ago yet recover although due go back uni end month little little sort life unfortunately do sweet fuck improve mood still suicidal think go back uni course require bare arm practicalsplacements people see recent self harm scar go final straw push edge think make feel physically sick honestly miracle alive easter</t>
+          <t>depression anxiety take life sign work lay bed leave house 2 week l shut friend family hard talk feel lose best friend go thing best person talk med make feel less less like every day void inside get big big ever day speak doctor ask suicidal told ask make concrete plan respond basically say coke back week see feel like one even care concrete plan kill would go doctor would depression consume feel like enough leave fight back people say get good honesty guarantee sure want spend next 60 year life fight battle can not win sure want post want get end take life atleast family insight feeling</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>get good</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>depression anxiety take life sign work lay bed leave house 2 week l shut friend family hard talk feel lose best friend go thing best person talk med make feel less less like every day void inside get big big ever day speak doctor ask suicidal told ask make concrete plan respond basically say coke back week see feel like one even care concrete plan kill would go doctor would depression consume feel like enough leave fight back people say get good honesty guarantee sure want spend next 60 year life fight battle can not win sure want post want get end take life atleast family insight feeling</t>
+          <t>speech second language due tomorrow can not get bed feel like lump throat weight chest can not shake know need get work do think make anxious worsens depressive state fall</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
@@ -23602,31 +23606,27 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>tire</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>speech second language due tomorrow can not get bed feel like lump throat weight chest can not shake know need get work do think make anxious worsens depressive state fall</t>
+          <t>sure wats wrong think feel ok lately content bad thought overwhelm feel alone one actually give shit feel end think mean commit suicide feel stupid try positive get actual 60 assignment school fuck cried bathroom stall cut like pathetic idiot tire</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>tire</t>
-        </is>
-      </c>
-      <c r="B1368" t="inlineStr">
-        <is>
-          <t>sure wats wrong think feel ok lately content bad thought overwhelm feel alone one actually give shit feel end think mean commit suicide feel stupid try positive get actual 60 assignment school fuck cried bathroom stall cut like pathetic idiot tire</t>
-        </is>
-      </c>
+          <t>hate body</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr"/>
       <c r="C1368" t="inlineStr">
         <is>
           <t>yes</t>
@@ -23636,10 +23636,14 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>hate body</t>
-        </is>
-      </c>
-      <c r="B1369" t="inlineStr"/>
+          <t>instead kill want get one way ticket unknown country start new life</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>instead kill want get one way ticket unknown country start new life understand illegal borderline impossible get job sure happen caught thing think kill country idea ideally one people speak english</t>
+        </is>
+      </c>
       <c r="C1369" t="inlineStr">
         <is>
           <t>yes</t>
@@ -23649,29 +23653,29 @@
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>instead kill want get one way ticket unknown country start new life</t>
+          <t>can not depression fatigue thing</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>instead kill want get one way ticket unknown country start new life understand illegal borderline impossible get job sure happen caught thing think kill country idea ideally one people speak english</t>
+          <t>marry 17 year wife varying level depression right throughout think get depression fatigue make term sure probably real medical term can not deal anymore consume every piece happiness smile laughter fun get 4 kid affect can not deal complain anymore can not deal mood anymore can not deal abuse anymore can not deal use verbal emotional punching bag can not keep everything around house can not keep dread every time phone ring wonder lose shit end phone can not keep come home wonder sort mood can not dread wake morning know shit mood 13 14 day can not walk house say hibye give kiss tell fuck hate piece shit cunt wish get hit train car accident similar can not tell anything around house thing can not tell shit father thing even though every night weekend work take school make lunch dinner can not tell crap family dad die 3 year ago lazy piece shit can not fight every time mum town want see u kid especially move town week see u can not tell time yet directly control spends every minute day can not complain house anymore display home far dirty can not hear complain kid much fight think learnt behaviour can not hear finance spend much takeaway food fresh food get thrown go uneaten can not hear complain weight get op do lose heap weight gym tone can not hear complain go gym pay membership last 8 month control day spend can not hear say different towards todaytonight forget tell today piece shit wish never meet go go find someone give attention can not tell much repulse sex think someone else orgasm can not tell look kid support financially can not hear money money grateful get job nightsweekends look kid yet buy present money first 10 year hear time deserve likely edit add look response get</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>can not depression fatigue thing</t>
+          <t>think suicide</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>marry 17 year wife varying level depression right throughout think get depression fatigue make term sure probably real medical term can not deal anymore consume every piece happiness smile laughter fun get 4 kid affect can not deal complain anymore can not deal mood anymore can not deal abuse anymore can not deal use verbal emotional punching bag can not keep everything around house can not keep dread every time phone ring wonder lose shit end phone can not keep come home wonder sort mood can not dread wake morning know shit mood 13 14 day can not walk house say hibye give kiss tell fuck hate piece shit cunt wish get hit train car accident similar can not tell anything around house thing can not tell shit father thing even though every night weekend work take school make lunch dinner can not tell crap family dad die 3 year ago lazy piece shit can not fight every time mum town want see u kid especially move town week see u can not tell time yet directly control spends every minute day can not complain house anymore display home far dirty can not hear complain kid much fight think learnt behaviour can not hear finance spend much takeaway food fresh food get thrown go uneaten can not hear complain weight get op do lose heap weight gym tone can not hear complain go gym pay membership last 8 month control day spend can not hear say different towards todaytonight forget tell today piece shit wish never meet go go find someone give attention can not tell much repulse sex think someone else orgasm can not tell look kid support financially can not hear money money grateful get job nightsweekends look kid yet buy present money first 10 year hear time deserve likely edit add look response get</t>
+          <t>dark place right 32 unemployed since last october get laid due performance whole team 15 company get let go firm idea life start interview past week mostly type work pretty niche ton job available know want rest life meantime get dicked around recruiter feel like get left pasture even though feel like good background interview well simultaneously finish parttime mba program feel like colossal waste time money energy honestly feel like good luck get response job application start program slog final semester struggle find motivation work finish 2 month time may may employ know extremely stressful need begin pay college loan within 6 month graduate know ever go save payment immensely regret go business school add fact whatever reason seem get ignore every therapist reach counsel maybe need start leave message think end feel like lose mind thing keep feel sane girlfriend without sure would unfortunately know compulsive masturbationporn addiction seem consume life moment ing mess know hard think actually kill find think often give sort dark solace knowing could end donate everything much charity remember live nobody feel like today</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -23683,12 +23687,12 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>think suicide</t>
+          <t>loneliness everything fail</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>dark place right 32 unemployed since last october get laid due performance whole team 15 company get let go firm idea life start interview past week mostly type work pretty niche ton job available know want rest life meantime get dicked around recruiter feel like get left pasture even though feel like good background interview well simultaneously finish parttime mba program feel like colossal waste time money energy honestly feel like good luck get response job application start program slog final semester struggle find motivation work finish 2 month time may may employ know extremely stressful need begin pay college loan within 6 month graduate know ever go save payment immensely regret go business school add fact whatever reason seem get ignore every therapist reach counsel maybe need start leave message think end feel like lose mind thing keep feel sane girlfriend without sure would unfortunately know compulsive masturbationporn addiction seem consume life moment ing mess know hard think actually kill find think often give sort dark solace knowing could end donate everything much charity remember live nobody feel like today</t>
+          <t>need vent friends talk family care busy care people message center notice feel really sad matter many funny meme see can not bring cheered</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
@@ -23700,114 +23704,114 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>loneliness everything fail</t>
+          <t>tired people say get well constantly get bad</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>need vent friends talk family care busy care people message center notice feel really sad matter many funny meme see can not bring cheered</t>
+          <t>fuck liar</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>tired people say get well constantly get bad</t>
+          <t>one play</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>fuck liar</t>
+          <t>lonely tear play realise alone play lot apex legend lately ps4 want strong rank sometimes can not everything alone one play always leave behind everyone video game hobby since can not go school anymore anxious body hurt go school hate want die life stay bedroom play day nearly break hand lose hour play due launch game lose point kill least five people stay alive long enough sometimes really bad random team mat help want vent sorryif sound childish dumb thanks maybe someone read</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>one play</t>
+          <t>close</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>lonely tear play realise alone play lot apex legend lately ps4 want strong rank sometimes can not everything alone one play always leave behind everyone video game hobby since can not go school anymore anxious body hurt go school hate want die life stay bedroom play day nearly break hand lose hour play due launch game lose point kill least five people stay alive long enough sometimes really bad random team mat help want vent sorryif sound childish dumb thanks maybe someone read</t>
+          <t>maintain cheery personality reality barely get along one care want attempt suicide third time first two attempt suck hate everyday even try first time lose nearly memory past retrograde amnesia could recognize people know second time hospital place suicide watch needless say parent wereare scared asf use drug cope weed adderall lean alcohol xanax ambien lsd write relief know people count existence live swear sometimes feel like time go can not control mind</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>feel like shit honestly nobody understands anymore</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>maintain cheery personality reality barely get along one care want attempt suicide third time first two attempt suck hate everyday even try first time lose nearly memory past retrograde amnesia could recognize people know second time hospital place suicide watch needless say parent wereare scared asf use drug cope weed adderall lean alcohol xanax ambien lsd write relief know people count existence live swear sometimes feel like time go can not control mind</t>
+          <t>hey anwen dissociative personality disorder aka guess important info hella depress enjoy anything anymore want talk people friend start leave disorder get bad nobody know understands disorder hate situation overall genuinely want die</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>feel like shit honestly nobody understands anymore</t>
+          <t>can not forget girl love since high school</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>hey anwen dissociative personality disorder aka guess important info hella depress enjoy anything anymore want talk people friend start leave disorder get bad nobody know understands disorder hate situation overall genuinely want die</t>
+          <t>can not forget love want much hate block year 25 never relationship feel humiliate never get proper chance can not kill</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>can not forget girl love since high school</t>
+          <t>feel lonely isolate</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>can not forget love want much hate block year 25 never relationship feel humiliate never get proper chance can not kill</t>
+          <t>ok suffer seasonal depression winter significantly bad last last winter around friend family home year new city move last summer university try get away whatwho meet amazing people nobody seem time care quick rundown 2020 far get shoulder injury time gym unable compete weak girlfriend 25 year split develop drug addiction cope pain hat body ever lose appetite stop eat sex drive plummet start hook girl could maintain erection realise use hugs kiss numb feel loneliness want go doctor brain keep tell feeling sorry attention even feel like write post hate genuinely want die can not see option want someone love</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>feel lonely isolate</t>
+          <t>justdo feel right</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>ok suffer seasonal depression winter significantly bad last last winter around friend family home year new city move last summer university try get away whatwho meet amazing people nobody seem time care quick rundown 2020 far get shoulder injury time gym unable compete weak girlfriend 25 year split develop drug addiction cope pain hat body ever lose appetite stop eat sex drive plummet start hook girl could maintain erection realise use hugs kiss numb feel loneliness want go doctor brain keep tell feeling sorry attention even feel like write post hate genuinely want die can not see option want someone love</t>
+          <t>today come home excite play video game justdid feel right felt like play long time even though play yesterday felt like kid really sad summer nothing day felt really weird anyone else experience</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
@@ -23819,12 +23823,12 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>justdo feel right</t>
+          <t>record reading feel good david burn last night would anyone find helpful uploaded</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>today come home excite play video game justdid feel right felt like play long time even though play yesterday felt like kid really sad summer nothing day felt really weird anyone else experience</t>
+          <t>sure would upload voice memo send friend enjoyed voice sound anyone trouble like get massive tome would mind share</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
@@ -23836,46 +23840,46 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>record reading feel good david burn last night would anyone find helpful uploaded</t>
+          <t>lonely</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>sure would upload voice memo send friend enjoyed voice sound anyone trouble like get massive tome would mind share</t>
+          <t>want talk somebody friends anymore parent hate new show school half time friends sit lunch even cry anymore reason go much pussy kill self esteem low scar even post hope others relate</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>lonely</t>
+          <t>depression concentration</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>want talk somebody friends anymore parent hate new show school half time friends sit lunch even cry anymore reason go much pussy kill self esteem low scar even post hope others relate</t>
+          <t>paralyzed depression often can not basic task want stay bed day stay pajamas even dress hard partner help sometimes lately therapy learn depression impact brain learning impact concentration memory well experience completely yesterday yesterday take shower first shower day dread seem hard know sound stupid freak anyway go motion felt completely forgot wash hair wtf shower past 25 year forget ergg</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>depression concentration</t>
+          <t>feel moment anyone need motivation seek help year avoid signal get help lead break point person strong mentally like</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>paralyzed depression often can not basic task want stay bed day stay pajamas even dress hard partner help sometimes lately therapy learn depression impact brain learning impact concentration memory well experience completely yesterday yesterday take shower first shower day dread seem hard know sound stupid freak anyway go motion felt completely forgot wash hair wtf shower past 25 year forget ergg</t>
+          <t>last couple month tire want die really badly want cause people somehow still love pain need tire fuck tire tired sad mean world feel like succeed see point still happy hand get point try make family happy spend little time one love someone may say least lucky people love much true would long time ago however perhaps feeling brings within pain sorrow love reciprocate get wrong love people love spending time anyone even love spending time know want make day good thought go cycle try find little piece happy day love one rest life make want live find bad every activity see negative flaw every person time try keep face much possible think summarize feel feel guilty pain love one time fuck selfish can not take anymore feel like loose shit even know depressed crazy bipolar dont know hurt want stop want good overall know write even want help input want sadness go way can not go around another day head eye fill tear feel like bear act like want strong physically mentally order provide love one tear negativity everyone problem big mine selfish bitch much pussy deal fucking emotion people world get much shittier hand yet fuck want die make sense also really hard hide fuck sad 66 live love girlfriend try social year still hope mean still people think want friend life try reach receive excuse insult ramble try avoid matter much effort put happiness can not seem get close without cheat sure thing make happy soon mind almost try find negative situation end shit want make wish wish kid strong bull size ball help every person need false sense protection last thing need can not say stay behind wonder every left stay strong everyone ok weak already year nail coffin</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -23887,29 +23891,29 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>feel moment anyone need motivation seek help year avoid signal get help lead break point person strong mentally like</t>
+          <t>tire</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>last couple month tire want die really badly want cause people somehow still love pain need tire fuck tire tired sad mean world feel like succeed see point still happy hand get point try make family happy spend little time one love someone may say least lucky people love much true would long time ago however perhaps feeling brings within pain sorrow love reciprocate get wrong love people love spending time anyone even love spending time know want make day good thought go cycle try find little piece happy day love one rest life make want live find bad every activity see negative flaw every person time try keep face much possible think summarize feel feel guilty pain love one time fuck selfish can not take anymore feel like loose shit even know depressed crazy bipolar dont know hurt want stop want good overall know write even want help input want sadness go way can not go around another day head eye fill tear feel like bear act like want strong physically mentally order provide love one tear negativity everyone problem big mine selfish bitch much pussy deal fucking emotion people world get much shittier hand yet fuck want die make sense also really hard hide fuck sad 66 live love girlfriend try social year still hope mean still people think want friend life try reach receive excuse insult ramble try avoid matter much effort put happiness can not seem get close without cheat sure thing make happy soon mind almost try find negative situation end shit want make wish wish kid strong bull size ball help every person need false sense protection last thing need can not say stay behind wonder every left stay strong everyone ok weak already year nail coffin</t>
+          <t>4 stuck alone room thought know even post one turn little background information help paint picture 21 gay depress alone fill anxiety extremely suicidal really day go think kill negative thought burst tear alone room public pain feeling completely unbearable tire even live move forward life think worth whole life face pain pain pain keep try tire tired life tire pain tired come realization matter matter hard try hard try become someone else never good enough always life even know anymore look mirror recognize anymore let alone know anymore sounds weird know never happy person always fuck try people always fuck never win fuck dishearten gruesome always put back hellish place never enough uglyness try hard get fucked whole stupid as existence see future anymore want see tomorrow anymore constantly wish death hop get run car get accident od anything something take pain away feeling way year year never seem get break even single moment always bring back never know deserve love happiness even glimpse joy always others try best supportive show love care come get ready go say every day yet still know though time feel like one step closer push trigger end sorry foolishness probably delete hey ever end thought infinitely luthien</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>tire</t>
+          <t>even think ask please help</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>4 stuck alone room thought know even post one turn little background information help paint picture 21 gay depress alone fill anxiety extremely suicidal really day go think kill negative thought burst tear alone room public pain feeling completely unbearable tire even live move forward life think worth whole life face pain pain pain keep try tire tired life tire pain tired come realization matter matter hard try hard try become someone else never good enough always life even know anymore look mirror recognize anymore let alone know anymore sounds weird know never happy person always fuck try people always fuck never win fuck dishearten gruesome always put back hellish place never enough uglyness try hard get fucked whole stupid as existence see future anymore want see tomorrow anymore constantly wish death hop get run car get accident od anything something take pain away feeling way year year never seem get break even single moment always bring back never know deserve love happiness even glimpse joy always others try best supportive show love care come get ready go say every day yet still know though time feel like one step closer push trigger end sorry foolishness probably delete hey ever end thought infinitely luthien</t>
+          <t>try kill schooli realize care girlfriend would equal 100 friendsso except try get thing would likei search girlfriendi prefer online since one would interest social skill red neck</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
@@ -23921,12 +23925,12 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>even think ask please help</t>
+          <t>energy leave</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>try kill schooli realize care girlfriend would equal 100 friendsso except try get thing would likei search girlfriendi prefer online since one would interest social skill red neck</t>
+          <t>know much longer keep lie everythings go fine go 10 year tell thing nothing ever change depression eat alive good day mostly shit want cut badly maybe deep enough make feel like actually accomplish something worthwhile pretty sure thing stop boyfriend even others throats bit recently know almost feel like end life take another turn worse 100 want die peace life maybe take one shitty person world 1 good deed think</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
@@ -23938,12 +23942,12 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>energy leave</t>
+          <t>feel conflict</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>know much longer keep lie everythings go fine go 10 year tell thing nothing ever change depression eat alive good day mostly shit want cut badly maybe deep enough make feel like actually accomplish something worthwhile pretty sure thing stop boyfriend even others throats bit recently know almost feel like end life take another turn worse 100 want die peace life maybe take one shitty person world 1 good deed think</t>
+          <t>feel horrible scared open anyone worry go tell office boom run another lap system do virtually nothing first two time deal parent can not open suicide without consequence sick one feel guilty know would worry everyone course want die care want somebody kill regardless feel bad fee like regardless anyone try help even get good since last time go system suicide still feel optimal even though really want die</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -23955,46 +23959,46 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>feel conflict</t>
+          <t>overreact vs social isolation</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>feel horrible scared open anyone worry go tell office boom run another lap system do virtually nothing first two time deal parent can not open suicide without consequence sick one feel guilty know would worry everyone course want die care want somebody kill regardless feel bad fee like regardless anyone try help even get good since last time go system suicide still feel optimal even though really want die</t>
+          <t>really understand isolate come across certain way people judge base innate defense mechanism next day like hit reset try get know someone can not permanent smear mistake human others guess guess depression make unapproachable grasp constantly presence people treat like dirt obviously put offensive lot people around also get defended friend face trial ie hard time try understand get told change deal make sense anyone else face isolation people misunderstand emotional turmoil cause great hardship stress mental breakdown would nice feel normal thank reading</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>overreact vs social isolation</t>
+          <t>want die can not meaningfully care anyone</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>really understand isolate come across certain way people judge base innate defense mechanism next day like hit reset try get know someone can not permanent smear mistake human others guess guess depression make unapproachable grasp constantly presence people treat like dirt obviously put offensive lot people around also get defended friend face trial ie hard time try understand get told change deal make sense anyone else face isolation people misunderstand emotional turmoil cause great hardship stress mental breakdown would nice feel normal thank reading</t>
+          <t>heart never ever get feel likecare someone care family friends acquaintance people one joy live can not feel</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>want die can not meaningfully care anyone</t>
+          <t>feel low physically hurt</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>heart never ever get feel likecare someone care family friends acquaintance people one joy live can not feel</t>
+          <t>heart hurt pain wish could disappear parent go much much make happy even sibling jealous feel guilty deal see child try kill everyday cry depression want know love much can not even describe much love sorry feel go future would love change can not wish something feel happy</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
@@ -24006,29 +24010,29 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>feel low physically hurt</t>
+          <t>tire alive</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>heart hurt pain wish could disappear parent go much much make happy even sibling jealous feel guilty deal see child try kill everyday cry depression want know love much can not even describe much love sorry feel go future would love change can not wish something feel happy</t>
+          <t>wish gut kill</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>tire alive</t>
+          <t>choose see time</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>wish gut kill</t>
+          <t>hurtsbut remember feeling last time go saw hurti cry sleep go bed hurt woke hurting leave look dumb go way see cross many busy road climb many tall mountain try please still believe truly care hard let go one person make happy ever life look back look different literally glow within give glow make shine brightyou also take away without hesitation never since sure keep around 2 year break know deep never able make shine like use toi never glow never able feel love againand simple notbecause love meyou care meit funny life work people would anything world nothing one make happy bring darkness life one day someone fight mefight keep see glowfight keep happyhopefully soonbut wait decide cross busy road climb mountainsfor stay even though hurt safer</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
@@ -24040,12 +24044,12 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>choose see time</t>
+          <t>best part day sleep</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>hurtsbut remember feeling last time go saw hurti cry sleep go bed hurt woke hurting leave look dumb go way see cross many busy road climb many tall mountain try please still believe truly care hard let go one person make happy ever life look back look different literally glow within give glow make shine brightyou also take away without hesitation never since sure keep around 2 year break know deep never able make shine like use toi never glow never able feel love againand simple notbecause love meyou care meit funny life work people would anything world nothing one make happy bring darkness life one day someone fight mefight keep see glowfight keep happyhopefully soonbut wait decide cross busy road climb mountainsfor stay even though hurt safer</t>
+          <t>night come lay bed think stressful problem suddenly everything go dark conciseness go rest longer aware life death brain numb seize exist even moment start dream feel happy like time wer wake 7 ready repeat boring routine bothering quite choice keep go</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -24057,29 +24061,29 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>best part day sleep</t>
+          <t>can not withstand treat special need person</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>night come lay bed think stressful problem suddenly everything go dark conciseness go rest longer aware life death brain numb seize exist even moment start dream feel happy like time wer wake 7 ready repeat boring routine bothering quite choice keep go</t>
+          <t>make feel like able find new friend future people see different treat childish condescend way could make mom psychologist understand want think burden something like</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>can not withstand treat special need person</t>
+          <t>suffocate 247 wake constantly throughout night empty nose syndrome</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>make feel like able find new friend future people see different treat childish condescend way could make mom psychologist understand want think burden something like</t>
+          <t>open cosmetic rhinoplasty 4 month ago since experience symptom fairly debilitate week postop notice air flow different nostril slight pain leave chalked swell 4 month later pain feel like blockage leave nostril can not sense airflow either nostril keep night sleep pill barely help get hour throughout night really scar expect go scary journey want refinement would know empty nose syndrome wait longer see issue resolve naturally please help anyone go something similar know someone gotten well become go perfect breathe feel like walk around bag head day devastate real kicker even happy cosmetic result point want breathe</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -24091,29 +24095,29 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>suffocate 247 wake constantly throughout night empty nose syndrome</t>
+          <t>lot trouble accept self sexually happy</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>open cosmetic rhinoplasty 4 month ago since experience symptom fairly debilitate week postop notice air flow different nostril slight pain leave chalked swell 4 month later pain feel like blockage leave nostril can not sense airflow either nostril keep night sleep pill barely help get hour throughout night really scar expect go scary journey want refinement would know empty nose syndrome wait longer see issue resolve naturally please help anyone go something similar know someone gotten well become go perfect breathe feel like walk around bag head day devastate real kicker even happy cosmetic result point want breathe</t>
+          <t>feel incredibly self conscious depress terrible self self sexual constantly compare sexually partner talk try hurt extremely self conscious can not even masturbate enough ruin day sometimes even bleed part life relationship feel terribly low feel love even though try hardest love want propose can not right feel want feel love bad can not seem find direction life either know idea future look like point give know even help tried medicine therapy 2 year help reason anything guy could share help</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>lot trouble accept self sexually happy</t>
+          <t>pure loneliness</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>feel incredibly self conscious depress terrible self self sexual constantly compare sexually partner talk try hurt extremely self conscious can not even masturbate enough ruin day sometimes even bleed part life relationship feel terribly low feel love even though try hardest love want propose can not right feel want feel love bad can not seem find direction life either know idea future look like point give know even help tried medicine therapy 2 year help reason anything guy could share help</t>
+          <t>depress least 6 year truly feel like alone always unique trait opinion people would give crap always try find balance situation matter side pick make enemy hurt mentally surprised go far life honest know much long take</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
@@ -24125,12 +24129,12 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>pure loneliness</t>
+          <t>debate crashing car driving today</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>depress least 6 year truly feel like alone always unique trait opinion people would give crap always try find balance situation matter side pick make enemy hurt mentally surprised go far life honest know much long take</t>
+          <t>literally drive girlfriend store traffic insane keep get cut people almost hit eventually thought thanks god want drive fucking road slight inconvenience start set kind worry</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
@@ -24142,12 +24146,12 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>debate crashing car driving today</t>
+          <t>change think pattern via therapy different wish away depression</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>literally drive girlfriend store traffic insane keep get cut people almost hit eventually thought thanks god want drive fucking road slight inconvenience start set kind worry</t>
+          <t>never understood distinction therapy like cbt try train think positively reduce eliminate depression sort underlie belief psychology think versus sentiment one can not think depression could someone explain two side reconcile</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
@@ -24159,12 +24163,12 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>change think pattern via therapy different wish away depression</t>
+          <t>keep reminiscing past need help move</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>never understood distinction therapy like cbt try train think positively reduce eliminate depression sort underlie belief psychology think versus sentiment one can not think depression could someone explain two side reconcile</t>
+          <t>aware hate life right scar future past warm safe blanket full photo video message remind used people used hate get old want reach old friends 10 year ago even worth move want delete memory feel like point suggestion</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
@@ -24176,12 +24180,12 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>keep reminiscing past need help move</t>
+          <t>repent year wrong</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>aware hate life right scar future past warm safe blanket full photo video message remind used people used hate get old want reach old friends 10 year ago even worth move want delete memory feel like point suggestion</t>
+          <t>grown disgusted hat nothing say seem right wrong do pay lose relationship one love see future thing mend idea want go anymore</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -24193,46 +24197,46 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>repent year wrong</t>
+          <t>wish could find courage jump</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>grown disgusted hat nothing say seem right wrong do pay lose relationship one love see future thing mend idea want go anymore</t>
+          <t>workplace 46th floor theory suicide easy</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>wish could find courage jump</t>
+          <t>still struggle admit need help</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>workplace 46th floor theory suicide easy</t>
+          <t>kind vent need look mirror minute try restart downward cycle want conversation otherwise nothing see haha low past couple week felt like felt fair amount apathy read sub often scary know thing need order overcome depression tool reach exercise nutrition therapy group therapy open friend family volunteer strong social connection medical health laundry list long tough grapple couple week pure hell make realize really work one thing strongly do really move forward last year feel like really reach huge step since start therapy 2015 go four year lifechanging healthy step take last summer dental health become overwhelming something must take care go back first appointment year gradually take care pain rot mouth alleviate lose tooth process huge weight lift well need similar weight lift want able reach crave discipline dental work come result time run reactive proactive want strong enough work thru shit healthy pace leave thing go awry month end consequence happens suppose order get first admit weak need help can not like tell must would really like get exercise bike see positives cardio healthbody positivitymotivation hike moreoverall get shape someone healthy buying bike put research go store ask people advice would doable simple task like fuck hard healthy get ask sister take shop one day post good start question fail past talk doable step remind positive outcome work thru maybe need meditate breathe thru pressure chest think go bike store talk people craigslist wish could work thru thing easily like normal person guess win today admit broken depression fault maybe admit often see ok ask help beat less never really lose love know good man therapist tell purpose look two half right happy selfphilosophy depress person good time accept healthy enough good yet least degree hope future hold hard reconcile much depression hold back hope look mirror deeply next little reach help need pick ground maybe start exercise bike</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>still struggle admit need help</t>
+          <t>try hard still fail depression always</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>kind vent need look mirror minute try restart downward cycle want conversation otherwise nothing see haha low past couple week felt like felt fair amount apathy read sub often scary know thing need order overcome depression tool reach exercise nutrition therapy group therapy open friend family volunteer strong social connection medical health laundry list long tough grapple couple week pure hell make realize really work one thing strongly do really move forward last year feel like really reach huge step since start therapy 2015 go four year lifechanging healthy step take last summer dental health become overwhelming something must take care go back first appointment year gradually take care pain rot mouth alleviate lose tooth process huge weight lift well need similar weight lift want able reach crave discipline dental work come result time run reactive proactive want strong enough work thru shit healthy pace leave thing go awry month end consequence happens suppose order get first admit weak need help can not like tell must would really like get exercise bike see positives cardio healthbody positivitymotivation hike moreoverall get shape someone healthy buying bike put research go store ask people advice would doable simple task like fuck hard healthy get ask sister take shop one day post good start question fail past talk doable step remind positive outcome work thru maybe need meditate breathe thru pressure chest think go bike store talk people craigslist wish could work thru thing easily like normal person guess win today admit broken depression fault maybe admit often see ok ask help beat less never really lose love know good man therapist tell purpose look two half right happy selfphilosophy depress person good time accept healthy enough good yet least degree hope future hold hard reconcile much depression hold back hope look mirror deeply next little reach help need pick ground maybe start exercise bike</t>
+          <t>hard life single parent mother addict drug foster care 7 year homeless 6 year finally get need get puppy love dearly emotional support animal everything life finally get place 4 year great job happy go afford pay bill habit need today get notice vacat spending month fight landlord obligation lose old job month ago emotional distress literally tell manager care someone remote work sit sincerity trouble shoot go home everyday heat dog shake uncontrollable keep smile face unable pay electric bill try evict premise break lease break faith try hard everytime get head something try break today fall back depression can not help say well give pup away someone stable kill can not keep go deal uncertainty homeless try hard everyday get push back void take lose end see darkness comfort get yet seem life want go back numb ready</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
@@ -24244,93 +24248,93 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>try hard still fail depression always</t>
+          <t>klonopon side effect ruin life lose control</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>hard life single parent mother addict drug foster care 7 year homeless 6 year finally get need get puppy love dearly emotional support animal everything life finally get place 4 year great job happy go afford pay bill habit need today get notice vacat spending month fight landlord obligation lose old job month ago emotional distress literally tell manager care someone remote work sit sincerity trouble shoot go home everyday heat dog shake uncontrollable keep smile face unable pay electric bill try evict premise break lease break faith try hard everytime get head something try break today fall back depression can not help say well give pup away someone stable kill can not keep go deal uncertainty homeless try hard everyday get push back void take lose end see darkness comfort get yet seem life want go back numb ready</t>
+          <t>chronic sufferer gad life thanks klonopin worry symptons anxiety go side effect overdose understand take 2 day maybe inept doctor up dose 05mg 1 make emotion go haywire constantly euphoric spontaneous feel deep rage impulse punch scream top tick little thing become explosive price pay feel worried time explosive behaviour id rather take recurred smoking calm right step away lose control really lose go blind beastly rage since can not see inept doctor doctor afford till last day march decide cut pill one dose day cosidering splittling dose see improvement</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>klonopon side effect ruin life lose control</t>
+          <t>forgot music</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>chronic sufferer gad life thanks klonopin worry symptons anxiety go side effect overdose understand take 2 day maybe inept doctor up dose 05mg 1 make emotion go haywire constantly euphoric spontaneous feel deep rage impulse punch scream top tick little thing become explosive price pay feel worried time explosive behaviour id rather take recurred smoking calm right step away lose control really lose go blind beastly rage since can not see inept doctor doctor afford till last day march decide cut pill one dose day cosidering splittling dose see improvement</t>
+          <t>hi everyone first time post thread bare suffer depression year currently cycle feel kind downlow energy enough call depress anyway somehow completely forgot music listen month commute bus usually sit browse reddit bf drive radio usually get sensory overload try talk radio usually keep anyway yesterday go car bluetooth function guess bf listen music way home work automatically connect phone start play music song jonas brother embarrass like 2008 make happy start vibing hard start work seriously forget music told every time drive work play music give quick happy boost work anyone else forget something would give joy</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>forgot music</t>
+          <t>gf go kill need help</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>hi everyone first time post thread bare suffer depression year currently cycle feel kind downlow energy enough call depress anyway somehow completely forgot music listen month commute bus usually sit browse reddit bf drive radio usually get sensory overload try talk radio usually keep anyway yesterday go car bluetooth function guess bf listen music way home work automatically connect phone start play music song jonas brother embarrass like 2008 make happy start vibing hard start work seriously forget music told every time drive work play music give quick happy boost work anyone else forget something would give joy</t>
+          <t>gf upset gpa weight job prospect finance depress tell go find dead one day try talk help know think plan sure would tell can not live without please need advice</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>gf go kill need help</t>
+          <t>fuck tire bullied disability</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>gf upset gpa weight job prospect finance depress tell go find dead one day try talk help know think plan sure would tell can not live without please need advice</t>
+          <t>deal since day start medical school 5 month ago do best handle fuck do one around talk diagnose bell palsy 2015 recover extent go away past 5 year every stranger meet one way another make fun bad university beyond fucked single day nobody laugh fucked face use pretty attractive person can not hold tear write still remember time use pretty confident way look dream every stranger meet one way another make fun forced stay alone everyday school anxiety let move muscle whenever ever strange approach smile moment get confuse literally first thing ask fuck wrong face body want friends think fuck retard somehow make med school date whole another set nightmares get reject hardcore face completely disturbs mental health feel helpless right sometimes get bullied point feel like way avoid either commit suicide person try bully go pay life fcking idea someone please help fuck sake</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>fuck tire bullied disability</t>
-        </is>
-      </c>
+      <c r="A1409" t="inlineStr"/>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>deal since day start medical school 5 month ago do best handle fuck do one around talk diagnose bell palsy 2015 recover extent go away past 5 year every stranger meet one way another make fun bad university beyond fucked single day nobody laugh fucked face use pretty attractive person can not hold tear write still remember time use pretty confident way look dream every stranger meet one way another make fun forced stay alone everyday school anxiety let move muscle whenever ever strange approach smile moment get confuse literally first thing ask fuck wrong face body want friends think fuck retard somehow make med school date whole another set nightmares get reject hardcore face completely disturbs mental health feel helpless right sometimes get bullied point feel like way avoid either commit suicide person try bully go pay life fcking idea someone please help fuck sake</t>
+          <t>suppose kill like many people fuck talk maybe shit get do others oh shit even internet still get message even folk claim help fuck talk fuck dip hahahaha already cut wrist fuck like honestly would find till morning anyways</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1410">
-      <c r="A1410" t="inlineStr"/>
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>surprise surprise therapy mean mental health go drain</t>
+        </is>
+      </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>suppose kill like many people fuck talk maybe shit get do others oh shit even internet still get message even folk claim help fuck talk fuck dip hahahaha already cut wrist fuck like honestly would find till morning anyways</t>
+          <t>therapist bail day later already fully developed plan would easy cheap could easily kill tomorrow keep tell stick around friend know drag leech support go one less task worry pain come end know seem like winwin sure would sad bit busy guy well way know haha everything feel distant detach reason</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
@@ -24342,12 +24346,12 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>surprise surprise therapy mean mental health go drain</t>
+          <t>end life soon know</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>therapist bail day later already fully developed plan would easy cheap could easily kill tomorrow keep tell stick around friend know drag leech support go one less task worry pain come end know seem like winwin sure would sad bit busy guy well way know haha everything feel distant detach reason</t>
+          <t>13m severe depression anxiety parent extremly strict lose friend self esteem zero can not handle pain anymore tried talk parent say way feel convince almost end last year friend help keep go time different one stop</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr">
@@ -24359,12 +24363,12 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>end life soon know</t>
+          <t>3rd time charm guess mabye ill gut end tonight</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>13m severe depression anxiety parent extremly strict lose friend self esteem zero can not handle pain anymore tried talk parent say way feel convince almost end last year friend help keep go time different one stop</t>
+          <t>well 3rd time day apart form every post normally id make alt post point care people see truly low long rode last 5 year life think well really sombody fight long tierd fight keep alive tierd heart heavy regret pain cause see way time count never truly nature saw cruel thing feel associate something even close pain ever choise would never feel pain never choise pain woman feel inside burden come longer know know defective see least ill sad see go wish strength stay longer complete truth never cut live take much effort even live parent least one child wasent complete fuck least old brother fail goodbye everyone thank everyone tried convince stay previous post sorry let day know appreciate effort even waste goodbye</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr">
@@ -24376,12 +24380,12 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>3rd time charm guess mabye ill gut end tonight</t>
+          <t>feel stuck living manipulative parent</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>well 3rd time day apart form every post normally id make alt post point care people see truly low long rode last 5 year life think well really sombody fight long tierd fight keep alive tierd heart heavy regret pain cause see way time count never truly nature saw cruel thing feel associate something even close pain ever choise would never feel pain never choise pain woman feel inside burden come longer know know defective see least ill sad see go wish strength stay longer complete truth never cut live take much effort even live parent least one child wasent complete fuck least old brother fail goodbye everyone thank everyone tried convince stay previous post sorry let day know appreciate effort even waste goodbye</t>
+          <t>doubt want keep go turn 25 girl u disabled depression bpd anxiety add bad tremor result issue parent treat like little girl work proper job much life little immature age basically feel mentally physically unwell work tremor go collapse exhaustion least twice month parent mum especially pressuring work give job know would able handle apply make happy though never hear back social worker say unwell work go worked people down syndrome severely disabled job work schizophrenic woman worse hold 9 5 job fourth think disability mum see give say accept show sign try ie small work history majority money make year music come far job mum make job house person ever clean cat litter box tremor go bad can not hold bag straight get litter cat droppings everywhere insistent stick work matter two girlfriends parent know date one one live canada want run away mum say even try visit would get canadian police come get since mentally unwell canadian girlfriend also struggle parent like say basket case date kind passport anyway girlfriend live midwest u mum say move would never contact family ever even though tell would would become ungrateful towards girlfriend get attitude parent say short temper quite mellow year verbal abuse father credit finally something gotten damage anyways like tried stab stomach stop knife take feel stick really want keep go get really difficult want break girlfriend heart know anymore know unstable parent really mistreat</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr">
@@ -24393,63 +24397,63 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>feel stuck living manipulative parent</t>
+          <t>lonely time</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>doubt want keep go turn 25 girl u disabled depression bpd anxiety add bad tremor result issue parent treat like little girl work proper job much life little immature age basically feel mentally physically unwell work tremor go collapse exhaustion least twice month parent mum especially pressuring work give job know would able handle apply make happy though never hear back social worker say unwell work go worked people down syndrome severely disabled job work schizophrenic woman worse hold 9 5 job fourth think disability mum see give say accept show sign try ie small work history majority money make year music come far job mum make job house person ever clean cat litter box tremor go bad can not hold bag straight get litter cat droppings everywhere insistent stick work matter two girlfriends parent know date one one live canada want run away mum say even try visit would get canadian police come get since mentally unwell canadian girlfriend also struggle parent like say basket case date kind passport anyway girlfriend live midwest u mum say move would never contact family ever even though tell would would become ungrateful towards girlfriend get attitude parent say short temper quite mellow year verbal abuse father credit finally something gotten damage anyways like tried stab stomach stop knife take feel stick really want keep go get really difficult want break girlfriend heart know anymore know unstable parent really mistreat</t>
+          <t>sit strong desire cry try hold friend want like rest life</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>lonely time</t>
+          <t>stupid achieve anything life think take life tomorrow night</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>sit strong desire cry try hold friend want like rest life</t>
+          <t>low iq twice test time get iq around 8485 somehow entirely awful school able b student without much study actually start study start get grade 90 even 100 even though skim exemplary grade barely retain learn nobody around believe stupid grade go poor vocabulary overall especially spoken word can not basic mental math still count finger nineteen year old low income uneducated family innately disadvantage birth also mom smoke weed cigarette throughout pregnancy 8th month pregnancy detach placenta preform emergency csection likely brain damage oxygen deprivation feel incredibly empty every moment awake favorite time day go sleep night night always go quickly lately spend everyday sleep much joy dream want least average intelligence least unbearable aware every moment dumb ever dumb always aspire leave financial hole everyday pass remind probably never happen point feel like stuck rock hard place terrify leave behind family pet know continue live life get bad bad please anyone could give even smidgen hope greatly appreciative</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>stupid achieve anything life think take life tomorrow night</t>
+          <t>wish would wake</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>low iq twice test time get iq around 8485 somehow entirely awful school able b student without much study actually start study start get grade 90 even 100 even though skim exemplary grade barely retain learn nobody around believe stupid grade go poor vocabulary overall especially spoken word can not basic mental math still count finger nineteen year old low income uneducated family innately disadvantage birth also mom smoke weed cigarette throughout pregnancy 8th month pregnancy detach placenta preform emergency csection likely brain damage oxygen deprivation feel incredibly empty every moment awake favorite time day go sleep night night always go quickly lately spend everyday sleep much joy dream want least average intelligence least unbearable aware every moment dumb ever dumb always aspire leave financial hole everyday pass remind probably never happen point feel like stuck rock hard place terrify leave behind family pet know continue live life get bad bad please anyone could give even smidgen hope greatly appreciative</t>
+          <t>night struggle sleep sometimes wish even wake tired feeling like even good day one thing always drag think ever come good night guess</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>wish would wake</t>
+          <t>best friend year</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>night struggle sleep sometimes wish even wake tired feeling like even good day one thing always drag think ever come good night guess</t>
+          <t>year ago solid group friend would hang pretty much every weekend felt like could tell anything like soul connect little little begin drift away social medium fill photos people know caption bestie sister wifey use ask everyone hang even try reconnecting old friend every time either get ghosted simple omg miss busy right totally hang follow alone every weekend sit home cat watch netflix feel stress build shoulder relief sight want experience around someone want around would kill friend</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
@@ -24461,46 +24465,46 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>best friend year</t>
+          <t>boyfriend suicide plan</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>year ago solid group friend would hang pretty much every weekend felt like could tell anything like soul connect little little begin drift away social medium fill photos people know caption bestie sister wifey use ask everyone hang even try reconnecting old friend every time either get ghosted simple omg miss busy right totally hang follow alone every weekend sit home cat watch netflix feel stress build shoulder relief sight want experience around someone want around would kill friend</t>
+          <t>never post feel loss can not seem find anything online similar figure would post bit backstory boyfriend 5 year call work monday say check mental health hospital know roughly would still shock day later open say make plan chose weapon decide therapy session want anymore weird spot necessarily attempt suicide damn close closer ever could imagine start new job bakery month ago happen hard time cop everything tell bos probably would back follow monday fast forward friday get call one friends help get job say work team try understanding think friend think immature irresponsible go work friend even go far enough say maybe strong enough boyfriend since could find go work guess ask advice friend say work talk cut hour since show reliable even though happen never much show late call would feel loss yes realize work know face work especially know annoy</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>boyfriend suicide plan</t>
+          <t>need mother</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>never post feel loss can not seem find anything online similar figure would post bit backstory boyfriend 5 year call work monday say check mental health hospital know roughly would still shock day later open say make plan chose weapon decide therapy session want anymore weird spot necessarily attempt suicide damn close closer ever could imagine start new job bakery month ago happen hard time cop everything tell bos probably would back follow monday fast forward friday get call one friends help get job say work team try understanding think friend think immature irresponsible go work friend even go far enough say maybe strong enough boyfriend since could find go work guess ask advice friend say work talk cut hour since show reliable even though happen never much show late call would feel loss yes realize work know face work especially know annoy</t>
+          <t>always hear woman fear love child adopt case true case seem true thank nice christmas gift give never give sense care never always get blame thing always feel like shrug never felt comfortable come advice never ask connection u nonexistent taught period give book explain puberty never teach sex never ask boyfriend never ask anything really know try talk seem annoy come guidance major judge able make mind always petty give attitude ask depress since 12 year old never notice never help school hat want license try get citizenship could care less one health insurance care want brace never help finally become old enough anyone tell secret anyone guide feel bad always alone seem like care want near get offend everytime hang dad never want anything know think good parent familiar want mother maybe care maybe seem like love wish show love</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>need mother</t>
+          <t>fake feeling</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>always hear woman fear love child adopt case true case seem true thank nice christmas gift give never give sense care never always get blame thing always feel like shrug never felt comfortable come advice never ask connection u nonexistent taught period give book explain puberty never teach sex never ask boyfriend never ask anything really know try talk seem annoy come guidance major judge able make mind always petty give attitude ask depress since 12 year old never notice never help school hat want license try get citizenship could care less one health insurance care want brace never help finally become old enough anyone tell secret anyone guide feel bad always alone seem like care want near get offend everytime hang dad never want anything know think good parent familiar want mother maybe care maybe seem like love wish show love</t>
+          <t>see people question never identify enough pay attention post frame unnecessary explanation case anyone reading want skip although would like warn post somewhat long regardless like explain thing consider unworthy real friend feeling well complain since long time nice life feel bad many people say depress obviously never want sad experience bad thing want worthy certain thing felt needed time begin feel bad bad point compare use almost everything upset example let u say character relate happy alike use source motivation see character think much good say persona compare never like look something value rather happy feel worried might happen enter new season mourn previous alongside time waste mostly worried stress sad thing clear reason feel sometimes question feel way also hard time figure feeling year occasion think feel anything could help cry reason write post watching show character explain negative habit ultimately related something consider really bad however scene could somehow focus episode interest fade point almost reacting say even care much character care impersonating emotion fake feel worthy can not understand really sad kid barely read feeling beliefs thought point like still know can not feel always mostly like colourless pitcureless page information feel think really even pretend</t>
         </is>
       </c>
       <c r="C1420" t="inlineStr">
@@ -24512,46 +24516,46 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>fake feeling</t>
+          <t>tw tw tw even cut make feel good anymore give weird feel chest cop mechanism anymore healthy 9 day till commit suicide</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>see people question never identify enough pay attention post frame unnecessary explanation case anyone reading want skip although would like warn post somewhat long regardless like explain thing consider unworthy real friend feeling well complain since long time nice life feel bad many people say depress obviously never want sad experience bad thing want worthy certain thing felt needed time begin feel bad bad point compare use almost everything upset example let u say character relate happy alike use source motivation see character think much good say persona compare never like look something value rather happy feel worried might happen enter new season mourn previous alongside time waste mostly worried stress sad thing clear reason feel sometimes question feel way also hard time figure feeling year occasion think feel anything could help cry reason write post watching show character explain negative habit ultimately related something consider really bad however scene could somehow focus episode interest fade point almost reacting say even care much character care impersonating emotion fake feel worthy can not understand really sad kid barely read feeling beliefs thought point like still know can not feel always mostly like colourless pitcureless page information feel think really even pretend</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>tw tw tw even cut make feel good anymore give weird feel chest cop mechanism anymore healthy 9 day till commit suicide</t>
+          <t>today one day wish hit truck never wake</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>want talk someone understand feel tired hearing go okay even tire say want someone hug ad cry shitty life can not alone least physically reason subreddit thousand member least completely alone</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>today one day wish hit truck never wake</t>
+          <t>want chat till get tired</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>want talk someone understand feel tired hearing go okay even tire say want someone hug ad cry shitty life can not alone least physically reason subreddit thousand member least completely alone</t>
+          <t>sad hate hi</t>
         </is>
       </c>
       <c r="C1423" t="inlineStr">
@@ -24563,12 +24567,12 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>want chat till get tired</t>
+          <t>rock bottom</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>sad hate hi</t>
+          <t>suffer heavy depression long time ex absolutely love max get along well gorgeous care love nice first girl actually love long long time good think knew suffer depression crazy part every day improve support use slowly walk step get well happy girl like climb depress hole long well get argument breakup think pretty distant blew tell can not handle anymore left heartbroken could handle depression anymore hurt loved whole heart look like stranger street never truly explain everything happen talk thought make u strong open help never tell much hurting depression saw improve much decide leave outta make sense well today progress lose feel worse ever life really fucking hurt know one person love could handle bad leave rot even know deadass hook girl party drink friend blackout know trust another girl emotion even trust love someone want give world ruin u piece shit know want see improve come back</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
@@ -24580,29 +24584,29 @@
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>rock bottom</t>
+          <t>voyage voyage</t>
         </is>
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>suffer heavy depression long time ex absolutely love max get along well gorgeous care love nice first girl actually love long long time good think knew suffer depression crazy part every day improve support use slowly walk step get well happy girl like climb depress hole long well get argument breakup think pretty distant blew tell can not handle anymore left heartbroken could handle depression anymore hurt loved whole heart look like stranger street never truly explain everything happen talk thought make u strong open help never tell much hurting depression saw improve much decide leave outta make sense well today progress lose feel worse ever life really fucking hurt know one person love could handle bad leave rot even know deadass hook girl party drink friend blackout know trust another girl emotion even trust love someone want give world ruin u piece shit know want see improve come back</t>
+          <t>yesterday brawl enough another reason honest main reason bad thing happen well abandon rather family like even call 1 parent hate blame everything family must admit felt good say say feel good know soon fear death pain peace come afterwards wait life honest smile moment like wait spark light shit helps explode desireless voyage voyage love song time prepare expect long time come remember every single time something miss cat cat traitorous nature unlike dog never pl ck pjp 13121987</t>
         </is>
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="inlineStr">
         <is>
-          <t>voyage voyage</t>
+          <t>tire</t>
         </is>
       </c>
       <c r="B1426" t="inlineStr">
         <is>
-          <t>yesterday brawl enough another reason honest main reason bad thing happen well abandon rather family like even call 1 parent hate blame everything family must admit felt good say say feel good know soon fear death pain peace come afterwards wait life honest smile moment like wait spark light shit helps explode desireless voyage voyage love song time prepare expect long time come remember every single time something miss cat cat traitorous nature unlike dog never pl ck pjp 13121987</t>
+          <t>feel exact way year get momentary feeling happiness disappear little energy anymore excited talk anyone think friend care can not depend family support wait list mental health service go take know long keep feeling like get first job day although met nice people still feel like shit parent think instantly cure fact work truth think end nothing go change help sorry</t>
         </is>
       </c>
       <c r="C1426" t="inlineStr">
@@ -24614,12 +24618,12 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>tire</t>
+          <t>much benadryl take</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t>feel exact way year get momentary feeling happiness disappear little energy anymore excited talk anyone think friend care can not depend family support wait list mental health service go take know long keep feeling like get first job day although met nice people still feel like shit parent think instantly cure fact work truth think end nothing go change help sorry</t>
+          <t>diphenhydramine 25mg pill</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
@@ -24631,46 +24635,46 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>much benadryl take</t>
+          <t>passion anything 5 hour free time</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>diphenhydramine 25mg pill</t>
+          <t>besides drinking cry pas</t>
         </is>
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>passion anything 5 hour free time</t>
+          <t>fear end near</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>besides drinking cry pas</t>
+          <t>struggle much work anxiety complicate find flip flop whether ok job think day get ok maybe bad suicidal ideation lot frequently lately think solace life atm cannabis girl unexpectedly tonight found likely end soon also work dad management go awkward anywayz know selfish feel like compare people pain think perfect place jump</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>fear end near</t>
+          <t>parent manipulate can not stand anymore</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>struggle much work anxiety complicate find flip flop whether ok job think day get ok maybe bad suicidal ideation lot frequently lately think solace life atm cannabis girl unexpectedly tonight found likely end soon also work dad management go awkward anywayz know selfish feel like compare people pain think perfect place jump</t>
+          <t>keep demand shit enough might piss hell even piss relieve piece shit dead already thanks mom dad thank much fucking asshole</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
@@ -24682,12 +24686,12 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>parent manipulate can not stand anymore</t>
+          <t>emotional distress may need talk someone jump balcony head first really tempt really think best choice</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>keep demand shit enough might piss hell even piss relieve piece shit dead already thanks mom dad thank much fucking asshole</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
@@ -24699,12 +24703,12 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>emotional distress may need talk someone jump balcony head first really tempt really think best choice</t>
+          <t>wish extra bit courage actually</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>wish know one would think twice want hurt family</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
@@ -24716,12 +24720,12 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>wish extra bit courage actually</t>
+          <t>first post</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>wish know one would think twice want hurt family</t>
+          <t>diagnosed major depression anxiety year ago hi 41 year old male good job make good money hurt depression anxiety suicide run family commit 72 hour hold twice suicidal plan suicide self harm think suicide weekly sometimes daily want medication self medicate alcohol work obsession high risk sport embarrass can not fit life broken fix suffer silence want bother family friend girlfriend plan suicide many time even tonight yes write many suicide note well tell someone lock without shoelace need cause hide even broken fix already go cycle numb angry sad want feel numb medication purpose trust anyone talk respond way make hide truly feel want pain stop pain feeling year break besides wake know else answer understand family member commit suicide get selfish stop pain many can not understand know end hide silence keep everyone happy say something even miserable turn become numb really care know alcohol help help sleep drink wide awake try make brain quiet high risk sport secretly hop die spend last night emergency room alone contact family friend erased message girlfriend sure heart attack want die alone want bother anyone girlfriend saw erased message tell girlfriend chest pain want make sure anything never tell family friend never know need stop cycle numb angry everyone push everyone way wake tomorrow think whoever write idiot stupid numb ignorant pain feel cycle repeat help</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
@@ -24733,12 +24737,12 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>first post</t>
+          <t>hate lie bf</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>diagnosed major depression anxiety year ago hi 41 year old male good job make good money hurt depression anxiety suicide run family commit 72 hour hold twice suicidal plan suicide self harm think suicide weekly sometimes daily want medication self medicate alcohol work obsession high risk sport embarrass can not fit life broken fix suffer silence want bother family friend girlfriend plan suicide many time even tonight yes write many suicide note well tell someone lock without shoelace need cause hide even broken fix already go cycle numb angry sad want feel numb medication purpose trust anyone talk respond way make hide truly feel want pain stop pain feeling year break besides wake know else answer understand family member commit suicide get selfish stop pain many can not understand know end hide silence keep everyone happy say something even miserable turn become numb really care know alcohol help help sleep drink wide awake try make brain quiet high risk sport secretly hop die spend last night emergency room alone contact family friend erased message girlfriend sure heart attack want die alone want bother anyone girlfriend saw erased message tell girlfriend chest pain want make sure anything never tell family friend never know need stop cycle numb angry everyone push everyone way wake tomorrow think whoever write idiot stupid numb ignorant pain feel cycle repeat help</t>
+          <t>delete</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
@@ -24750,29 +24754,29 @@
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>hate lie bf</t>
+          <t>everytime think finally well even second something else happen fuck</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>delete</t>
+          <t>feel like something put tell kill keep throw shit till give think finally take breather something else stress time late rent could get money together even go say thing get money get work swing bank withdraw money lay rent car would start completely alone state call someone come jump would jump spend money get tow damn mechanic shop jerk around end fighting alot use mechanic know get jerk around incompetent take 6 hour basically figure battery need replace lied told test battery first pull bay put new starter without tell fact tell engine seize due 0 oil know believe get oil change week half ago know leak either lie technician luge shop put oil back car anyway long story short force pay 600 basically battery change go back work 2 hour later sleep since last shift great 600 go rent money sure go think finally reach breaking point</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>everytime think finally well even second something else happen fuck</t>
+          <t>rant also maybe advice</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>feel like something put tell kill keep throw shit till give think finally take breather something else stress time late rent could get money together even go say thing get money get work swing bank withdraw money lay rent car would start completely alone state call someone come jump would jump spend money get tow damn mechanic shop jerk around end fighting alot use mechanic know get jerk around incompetent take 6 hour basically figure battery need replace lied told test battery first pull bay put new starter without tell fact tell engine seize due 0 oil know believe get oil change week half ago know leak either lie technician luge shop put oil back car anyway long story short force pay 600 basically battery change go back work 2 hour later sleep since last shift great 600 go rent money sure go think finally reach breaking point</t>
+          <t>meet girl month ago feel love quick portugal slovenia think long distance feel like go work talk 2 day ago tell can not friends make suffer seem problem can not get watch somebody drift away wait hurt much thing say amazing bad want stay can not fall depression tell go stay know capable hurt 3 year think get crawls back fast ahhhhh feel like egoistical needy piece shit can not get fact fuck shit fuck life thanks listen</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
@@ -24784,12 +24788,12 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>rant also maybe advice</t>
+          <t>everything feel automate chemically unbalanced brain escape</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>meet girl month ago feel love quick portugal slovenia think long distance feel like go work talk 2 day ago tell can not friends make suffer seem problem can not get watch somebody drift away wait hurt much thing say amazing bad want stay can not fall depression tell go stay know capable hurt 3 year think get crawls back fast ahhhhh feel like egoistical needy piece shit can not get fact fuck shit fuck life thanks listen</t>
+          <t>utter absence meaning day day life would love nothing feel anything artificial emotion automate action ala must take pill else crumble oh pill maybe 3 fine line authentic peace self destruction feel like life time unfortunately year life time look forward</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
@@ -24801,12 +24805,12 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>everything feel automate chemically unbalanced brain escape</t>
+          <t>know anymore</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>utter absence meaning day day life would love nothing feel anything artificial emotion automate action ala must take pill else crumble oh pill maybe 3 fine line authentic peace self destruction feel like life time unfortunately year life time look forward</t>
+          <t>28 still live parent trap shitty dead end job could finish college can not go back either every girl try date leave almost zero friend one push priority list never check upset parent understand anything feel tell get instead actually talk today girl see block goddamn reason every single siteapp contact know deal anymore plus worried health feel like 50 year old body time become much never felt alone life right nowhere turn anymorei guess post get feeling open somewhere hopefully others relate guess least feel judged disclose info seriousness know cuz list reason live slowly shrink</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
@@ -24818,29 +24822,29 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>know anymore</t>
+          <t>personal count suicide plan</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>28 still live parent trap shitty dead end job could finish college can not go back either every girl try date leave almost zero friend one push priority list never check upset parent understand anything feel tell get instead actually talk today girl see block goddamn reason every single siteapp contact know deal anymore plus worried health feel like 50 year old body time become much never felt alone life right nowhere turn anymorei guess post get feeling open somewhere hopefully others relate guess least feel judged disclose info seriousness know cuz list reason live slowly shrink</t>
+          <t>caucasian male age 30 get complete vivid detail numerous condition childhood exc start happen around 27 ex spend well 10 year together break due unfaithfulness exc something happen although spoken many people therapist feel like real dead walk multiple personality basket case always someone freinds motivation excitement nothing empty get back together inform pregnant fling plan please note try kid 6 year prior find infertile unless fertility med long story short abort child get pregnant give situation prior hard enough trauma pure gut wrench pain question pregnancy well family question take tole work deterriorated personal happyness destroy know feel logical thing give situation always someone multiple people make rash decision ruin life always want police officer thrown due tatoo policys people always avoid either creepy weird family abandonned legit work sit basement suicide commence july 15th 2020 plan make suddle possible maybe accident consider suicide someone individual kill thing consider multiple account deletion</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>personal count suicide plan</t>
+          <t>currently er</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>caucasian male age 30 get complete vivid detail numerous condition childhood exc start happen around 27 ex spend well 10 year together break due unfaithfulness exc something happen although spoken many people therapist feel like real dead walk multiple personality basket case always someone freinds motivation excitement nothing empty get back together inform pregnant fling plan please note try kid 6 year prior find infertile unless fertility med long story short abort child get pregnant give situation prior hard enough trauma pure gut wrench pain question pregnancy well family question take tole work deterriorated personal happyness destroy know feel logical thing give situation always someone multiple people make rash decision ruin life always want police officer thrown due tatoo policys people always avoid either creepy weird family abandonned legit work sit basement suicide commence july 15th 2020 plan make suddle possible maybe accident consider suicide someone individual kill thing consider multiple account deletion</t>
+          <t>scrub wait psychiatrist able eat sleep 2 day trauma 28 year ago trigger sure psychiatrist still appetite hop get something get sleep pray</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
@@ -24852,12 +24856,12 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>currently er</t>
+          <t>really fuck</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>scrub wait psychiatrist able eat sleep 2 day trauma 28 year ago trigger sure psychiatrist still appetite hop get something get sleep pray</t>
+          <t>mess screw trust build boyfriend paranoia entire life afraid confronting people get parent would either get yelled ask help would help scar could confront normally anyone else would boyfriend problem carry toxic relationship felt like bring want help instead confront first confront friend tell promise make broken want help first felt necessary best friend argue argue broke lot detail add personal felt like bottom food chain destroy everything break trust build ruin friendship one one boyfriend feel like deserve exist always felt like mistake make wanted help instead bring misery sorry post dabble felt like need choke something heart hurt repeat thought head worst would better suicide attempt two year ago work guilt eat know want help know can not get therapy september feel like even nothing would change hurt everyone around</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
@@ -24869,12 +24873,12 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>really fuck</t>
+          <t>close ever kill</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>mess screw trust build boyfriend paranoia entire life afraid confronting people get parent would either get yelled ask help would help scar could confront normally anyone else would boyfriend problem carry toxic relationship felt like bring want help instead confront first confront friend tell promise make broken want help first felt necessary best friend argue argue broke lot detail add personal felt like bottom food chain destroy everything break trust build ruin friendship one one boyfriend feel like deserve exist always felt like mistake make wanted help instead bring misery sorry post dabble felt like need choke something heart hurt repeat thought head worst would better suicide attempt two year ago work guilt eat know want help know can not get therapy september feel like even nothing would change hurt everyone around</t>
+          <t>can not fuck can not forgive kill sorry</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
@@ -24886,63 +24890,63 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>close ever kill</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>can not fuck can not forgive kill sorry</t>
+          <t>really depress lately math subject school fail keep think graduate energy go school anymore fake everything go nearby computer cafe even though enough money commute school know lifes hard something brain break crazy though uncaring notice suddenly grow interest one kitchen knives like hurt people odd interest imagine knife kill painlessly thing phobia sharp thing grow cautious sharp object include knife really bad stab motion point consider normal also keep daydream walk oddly enough daydream get car crash something similar high chance happen consider daydream another point fake laughter know keep know probably mentally ill know since psychiatrist therapists cost much country anyway ramble problem feel end soon feel</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>never closer kill</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>really depress lately math subject school fail keep think graduate energy go school anymore fake everything go nearby computer cafe even though enough money commute school know lifes hard something brain break crazy though uncaring notice suddenly grow interest one kitchen knives like hurt people odd interest imagine knife kill painlessly thing phobia sharp thing grow cautious sharp object include knife really bad stab motion point consider normal also keep daydream walk oddly enough daydream get car crash something similar high chance happen consider daydream another point fake laughter know keep know probably mentally ill know since psychiatrist therapists cost much country anyway ramble problem feel end soon feel</t>
+          <t>get reject twice today low score class lose last friend could talk parent say get good enough grade kick try tinder search maybe someone go 11 like find hard way people could unlike one match never respond thing keep knife fact much pu55y</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>never closer kill</t>
+          <t>rollercoaster</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>get reject twice today low score class lose last friend could talk parent say get good enough grade kick try tinder search maybe someone go 11 like find hard way people could unlike one match never respond thing keep knife fact much pu55y</t>
+          <t>yesterday great clear head day genuinely happy good time go today wake skipped class glue bed 5 hour finally manage get make sandwich need go gym anything can not back bed particular reason anxious hell hopeless load school work need can not bring begin overwhelm lose spunk</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>rollercoaster</t>
+          <t>even thing start go well feel like always fault thing go wrong</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>yesterday great clear head day genuinely happy good time go today wake skipped class glue bed 5 hour finally manage get make sandwich need go gym anything can not back bed particular reason anxious hell hopeless load school work need can not bring begin overwhelm lose spunk</t>
+          <t>feel like lot less bad thing would happen people around around feel like burden feel like always end cause bad thing happen everyone around try hard prevent even thing control still feel like would happen around cause string event happen always blame</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
@@ -24954,46 +24958,46 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>even thing start go well feel like always fault thing go wrong</t>
+          <t>life mediocre life can not everything</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>feel like lot less bad thing would happen people around around feel like burden feel like always end cause bad thing happen everyone around try hard prevent even thing control still feel like would happen around cause string event happen always blame</t>
+          <t>fuck impossible live shitty life ever get fuck nightmare</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>life mediocre life can not everything</t>
+          <t>kill would easier</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>fuck impossible live shitty life ever get fuck nightmare</t>
+          <t>get ready interview new job thinking kill would easier never diagnose depression even anxiety never tell doctor feel think etc want kind self diagnose depressed people may severe mine period constantly feel bad want end want know feel way sometimes everytime live ever go change also sorry french english perfect</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>kill would easier</t>
+          <t>self harm advice</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>get ready interview new job thinking kill would easier never diagnose depression even anxiety never tell doctor feel think etc want kind self diagnose depressed people may severe mine period constantly feel bad want end want know feel way sometimes everytime live ever go change also sorry french english perfect</t>
+          <t>cut many different thing year first nail scissors razor blade keep go downhill think would get bad three week streak cutting right go deep every time happy see blood addict scar go friend place next weekend suppose bring bathing suit know hold even want go still one heal know visible bad cut leg specifically ankles shin wear sock every day sleep friend know want go trouble explain make thing weird stop cut tell know emotional damage even heal two week know put razor anyone know</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
@@ -25005,12 +25009,12 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>self harm advice</t>
+          <t>advice</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>cut many different thing year first nail scissors razor blade keep go downhill think would get bad three week streak cutting right go deep every time happy see blood addict scar go friend place next weekend suppose bring bathing suit know hold even want go still one heal know visible bad cut leg specifically ankles shin wear sock every day sleep friend know want go trouble explain make thing weird stop cut tell know emotional damage even heal two week know put razor anyone know</t>
+          <t>watch life netflix story man play ricky gervais lose beloved wife want kill solve problem make think least make think short series funny also deep maybe let know watch ever go watch</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
@@ -25022,12 +25026,12 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>advice</t>
+          <t>unexpected depressice episode</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>watch life netflix story man play ricky gervais lose beloved wife want kill solve problem make think least make think short series funny also deep maybe let know watch ever go watch</t>
+          <t>need know someone time post deep depressive episode end sight miss single day sertraline feel like hit rock bottom first time forgotten pill worry missed one dose worry actually ran rock bottom know can not still nothing sound well dark part brain self harm go breakdown claw arm bad enough leave scar god need smoke please time post take current dose try relax bed tear keep come mind stop</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
@@ -25039,12 +25043,12 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>unexpected depressice episode</t>
+          <t>throw ring give</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>need know someone time post deep depressive episode end sight miss single day sertraline feel like hit rock bottom first time forgotten pill worry missed one dose worry actually ran rock bottom know can not still nothing sound well dark part brain self harm go breakdown claw arm bad enough leave scar god need smoke please time post take current dose try relax bed tear keep come mind stop</t>
+          <t>guy know two year spend time together every day week last week usually spend night house sex lot texted ask want hangout tonight tell can not go parent house tonight feel sad hurt know feel like throw friendship ring give birthday trash flush 25 29</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
@@ -25056,12 +25060,12 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>throw ring give</t>
+          <t>seem life keep pull prank</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>guy know two year spend time together every day week last week usually spend night house sex lot texted ask want hangout tonight tell can not go parent house tonight feel sad hurt know feel like throw friendship ring give birthday trash flush 25 29</t>
+          <t>freshman year already bully cut every team try grade slowly fall homecoming date literally ditch another guy make fun date year younger must people terrible</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -25073,46 +25077,46 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>seem life keep pull prank</t>
+          <t>much</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>freshman year already bully cut every team try grade slowly fall homecoming date literally ditch another guy make fun date year younger must people terrible</t>
+          <t>longer want alive worth fight pain</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>deal depression</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>longer want alive worth fight pain</t>
+          <t>deal depression 1 give upvote maybe 2 httpsopenspotifycomplaylist2yu2ynndftds8ki6yjlmdu</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>deal depression</t>
+          <t>get bed cook pasta feel like accomplishment</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>deal depression 1 give upvote maybe 2 httpsopenspotifycomplaylist2yu2ynndftds8ki6yjlmdu</t>
+          <t>know much student live first time diagnose anxiety depression go week actually get bed something feel like accomplishment would normally starve bed wonder even exist first place</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
@@ -25124,12 +25128,12 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>get bed cook pasta feel like accomplishment</t>
+          <t>30 thing like take time energy maybe feel 5 good</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>know much student live first time diagnose anxiety depression go week actually get bed something feel like accomplishment would normally starve bed wonder even exist first place</t>
+          <t>eat healthy exercise socialize clean meditate get sunlight talk therapist etc none make noticeable difference feel tire try add struggle</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
@@ -25141,12 +25145,12 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>30 thing like take time energy maybe feel 5 good</t>
+          <t>fiance pass away 27th week gotten well</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>eat healthy exercise socialize clean meditate get sunlight talk therapist etc none make noticeable difference feel tire try add struggle</t>
+          <t>know say anymore meaning life felt like leave funeral today edit 1 thank encouragement expect really ever get honest feel like best mask good time</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
@@ -25158,29 +25162,29 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>fiance pass away 27th week gotten well</t>
+          <t>overdose painful</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>know say anymore meaning life felt like leave funeral today edit 1 thank encouragement expect really ever get honest feel like best mask good time</t>
+          <t>title</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>overdose painful</t>
+          <t>want sleep forever never want wakeup</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
@@ -25192,12 +25196,12 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>want sleep forever never want wakeup</t>
+          <t>idea</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>feel like probably go kill friday even know anymore</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
@@ -25209,46 +25213,46 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>idea</t>
+          <t>want continue</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>feel like probably go kill friday even know anymore</t>
+          <t>wake thing every day lie bed hour watch series game feel like shit every time eat think thing could much good thing go differently every single day feel like shit wake go sleep interact friend painful exist can not keep go like life pointless motivation change want stop want pain stop burden friend family feel lonely house 4 lonely general miss friend scar go outside hate much</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>want continue</t>
+          <t>today last day</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>wake thing every day lie bed hour watch series game feel like shit every time eat think thing could much good thing go differently every single day feel like shit wake go sleep interact friend painful exist can not keep go like life pointless motivation change want stop want pain stop burden friend family feel lonely house 4 lonely general miss friend scar go outside hate much</t>
+          <t>16 year old go private high school mean happy thing wrong life emotionally verbally abusive father however can not feel anything sadness pain medically diagnose psychopath severe depression nothing live eye self esteem redeem quality nothing good can not feel happy unless cut abuse drug never love never able love anyone worthy love never love cry help comfort know post honest want like minded people know sympathize live final day earth</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>today last day</t>
+          <t>even make pas year know last long</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>16 year old go private high school mean happy thing wrong life emotionally verbally abusive father however can not feel anything sadness pain medically diagnose psychopath severe depression nothing live eye self esteem redeem quality nothing good can not feel happy unless cut abuse drug never love never able love anyone worthy love never love cry help comfort know post honest want like minded people know sympathize live final day earth</t>
+          <t>can not bare get bed morning can not look mirror without feel like throw long term plan even though couple thing want miss know last enough wait worth</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
@@ -25260,114 +25264,114 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>even make pas year know last long</t>
+          <t>vicious circle lonelinessdepression</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>can not bare get bed morning can not look mirror without feel like throw long term plan even though couple thing want miss know last enough wait worth</t>
+          <t>alone lack self confidence able give receive love affection feeling unwantedundesired loss self confidence intensifies isolation opportunity meet new people depression feel worthless achieve anything ashamed</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>vicious circle lonelinessdepression</t>
+          <t>sick lonely</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>alone lack self confidence able give receive love affection feeling unwantedundesired loss self confidence intensifies isolation opportunity meet new people depression feel worthless achieve anything ashamed</t>
+          <t>know normal anymore little thing set always hurt people feeling joke make always say sensitive know sure fault get offended hard take responsibility also feel alone mean sense friendship talk romantic relationship 4 5 concussion say know definitely diagnose use box really hard say want say fumble word lot notice recent concussion month ago example one thing say regret call girl dyke say something rude say uncalled especially since know bisexual feel like trash say thing like homophobic time persay example offensive unregulated stuff come mouth daily constantly high marijuana time keep mood want like weed make thing bad high get even irritable smoke go bad anxiety psychosis episode also feel like failure senior year high school feel hopeless grade fs know anymore plan go trade school year probably follow never follow anything want anxiety prevents lot stuff think suicide thought scare endless cycle send dark hole thought feel hopeless like nothing help anymore also want sound pathetic tell girl like like say reciprocate feeling hurt say liked 2 year prior especially hurt like back well anxiety prevents happy want happy least 4 year feel like sorry ramble end</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>sick lonely</t>
+          <t>fine become instant response</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>know normal anymore little thing set always hurt people feeling joke make always say sensitive know sure fault get offended hard take responsibility also feel alone mean sense friendship talk romantic relationship 4 5 concussion say know definitely diagnose use box really hard say want say fumble word lot notice recent concussion month ago example one thing say regret call girl dyke say something rude say uncalled especially since know bisexual feel like trash say thing like homophobic time persay example offensive unregulated stuff come mouth daily constantly high marijuana time keep mood want like weed make thing bad high get even irritable smoke go bad anxiety psychosis episode also feel like failure senior year high school feel hopeless grade fs know anymore plan go trade school year probably follow never follow anything want anxiety prevents lot stuff think suicide thought scare endless cycle send dark hole thought feel hopeless like nothing help anymore also want sound pathetic tell girl like like say reciprocate feeling hurt say liked 2 year prior especially hurt like back well anxiety prevents happy want happy least 4 year feel like sorry ramble end</t>
+          <t>hello everyone sorry take time need help bite back story life come notsowelloff family mom leave 9at time sister 14 timein father care left country earn could least bread table sister take frustration bullied school gor functional family father distance u life generally suck also get time undiagnosed migraine si dad keep insist lie attention even punish stop talk long 2 year mother apply divorce mainly due father threat mental abuse saw father threaten mother throw si street send money divorce messy lot shit throw eachother end si insist need stick toghether since old insist stay home country dad also spite mother hat next year rough lot scream bully hit starve list long side note end climb tree window grab aome nasty fruit class mat trade homework sandwich care millimeter away die nah highschool worse bulying mom still away someone meet guy divorce can not blame alone country people still hat tried get mom get cuatody reason still can not wrap head around fail well husband lose crap keep repeat make feel like pure shit process fail fail yes say previously still remember say say happen year later decide go well place australia 4 year struggle 3 lost case finally get get 20 yo as mother get boyfriend husband turn dickhead year long story short get kick house 1 year live end extremely severe anxiety year turn 24 still live boyfriend take problem want end much stuff go say much diagnose discover accident clinical depression age 16 never address always felt like something wrong every time try look help tell suck counselor psycologists admittedly work courage go 3 time life past 3 year felt lose depress can not seem get find joy life thing use love reason energy motivation move drive work work put fake smile drive back sleep agrue sleep repeat feel angry time end hat ever know feel partner stuck game engage think put much pressure can not see mother talk sister talk go full contact father whenever anyone ask repeat fine smile hate hate sorry put enough want smile enjoy thing can not need help know write watch reddit read cry like idiot accurate true thing say say reading topic wish people know depression sorry take time read thank thank much listening also dear moderator accordince rule please delete thank</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>fine become instant response</t>
+          <t>told mom feeling say make life easy</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>hello everyone sorry take time need help bite back story life come notsowelloff family mom leave 9at time sister 14 timein father care left country earn could least bread table sister take frustration bullied school gor functional family father distance u life generally suck also get time undiagnosed migraine si dad keep insist lie attention even punish stop talk long 2 year mother apply divorce mainly due father threat mental abuse saw father threaten mother throw si street send money divorce messy lot shit throw eachother end si insist need stick toghether since old insist stay home country dad also spite mother hat next year rough lot scream bully hit starve list long side note end climb tree window grab aome nasty fruit class mat trade homework sandwich care millimeter away die nah highschool worse bulying mom still away someone meet guy divorce can not blame alone country people still hat tried get mom get cuatody reason still can not wrap head around fail well husband lose crap keep repeat make feel like pure shit process fail fail yes say previously still remember say say happen year later decide go well place australia 4 year struggle 3 lost case finally get get 20 yo as mother get boyfriend husband turn dickhead year long story short get kick house 1 year live end extremely severe anxiety year turn 24 still live boyfriend take problem want end much stuff go say much diagnose discover accident clinical depression age 16 never address always felt like something wrong every time try look help tell suck counselor psycologists admittedly work courage go 3 time life past 3 year felt lose depress can not seem get find joy life thing use love reason energy motivation move drive work work put fake smile drive back sleep agrue sleep repeat feel angry time end hat ever know feel partner stuck game engage think put much pressure can not see mother talk sister talk go full contact father whenever anyone ask repeat fine smile hate hate sorry put enough want smile enjoy thing can not need help know write watch reddit read cry like idiot accurate true thing say say reading topic wish people know depression sorry take time read thank thank much listening also dear moderator accordince rule please delete thank</t>
+          <t>do comment throw spiral well mentally support system outside dad know anymore think quit school since college work 3 year nowhere close degree yet still cc</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>told mom feeling say make life easy</t>
+          <t>depression gang rise</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>do comment throw spiral well mentally support system outside dad know anymore think quit school since college work 3 year nowhere close degree yet still cc</t>
+          <t>see start thing want say think depressed many friend opinion thing make worry suicidal self harm one thing really scar desensitization 1415 felt heavy feeling good 15 year feel void fairly scar come feel take seriously truely clue</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>depression gang rise</t>
+          <t>wish could talk someone sucide 100</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>see start thing want say think depressed many friend opinion thing make worry suicidal self harm one thing really scar desensitization 1415 felt heavy feeling good 15 year feel void fairly scar come feel take seriously truely clue</t>
+          <t>can not talk therapist want know safe seem like actually care want look bad business guess</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>wish could talk someone sucide 100</t>
+          <t>go bad mom anyway may well die</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>can not talk therapist want know safe seem like actually care want look bad business guess</t>
+          <t>baby recently regret ever get pregnant much ptsd back give birth full force life unlivable body ruin maybe stupid know would destroy body would abort know horrible sound super vain vain care look clothes people think look need feel comfortable body like belongs result can not wear bra even home much anxiety even baby home always uncomfortable someone ring buzzer jump scream can not let partner see body thought send panic attack can not shower together sleep fully clothe go different room change close door sex ever know go hate one day leave anyway messed drive away can not live life like can not mom like wait talk therapist monday explain see help ptsd ppd even big deal ptsd depression life cope moderate depression body issue never able get wait see body settle go take 6 month 2 year can not live go kill can not live rest life like agony every day 2 month know much long wait know make 6 month</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
@@ -25379,46 +25383,46 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>go bad mom anyway may well die</t>
+          <t>inconsistent can not feel like liar</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>baby recently regret ever get pregnant much ptsd back give birth full force life unlivable body ruin maybe stupid know would destroy body would abort know horrible sound super vain vain care look clothes people think look need feel comfortable body like belongs result can not wear bra even home much anxiety even baby home always uncomfortable someone ring buzzer jump scream can not let partner see body thought send panic attack can not shower together sleep fully clothe go different room change close door sex ever know go hate one day leave anyway messed drive away can not live life like can not mom like wait talk therapist monday explain see help ptsd ppd even big deal ptsd depression life cope moderate depression body issue never able get wait see body settle go take 6 month 2 year can not live go kill can not live rest life like agony every day 2 month know much long wait know make 6 month</t>
+          <t>errand generally go work make go therapy exhaust whole time hard concentrate admit call work 7 8 time year though usually call twice year whoop generally need can not cook maintain personal hygiene though microwave leftover someone else make eat fast food shower 4 week brush teeth day even halfassed brush hair day lay around run errandsworkinggoing therapy make body sore hell get 4 hour sleep average night hung anybody month half text friend can not talk anything thanugh feel pathetic really depressed function mean really big thing need small thing</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>inconsistent can not feel like liar</t>
+          <t>lose</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>errand generally go work make go therapy exhaust whole time hard concentrate admit call work 7 8 time year though usually call twice year whoop generally need can not cook maintain personal hygiene though microwave leftover someone else make eat fast food shower 4 week brush teeth day even halfassed brush hair day lay around run errandsworkinggoing therapy make body sore hell get 4 hour sleep average night hung anybody month half text friend can not talk anything thanugh feel pathetic really depressed function mean really big thing need small thing</t>
+          <t>want leave world tire tell help tire feeling guilt shame want mother brother feel overwhelming feeling sadness though know anymore one turn nothing leave miserable life</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>lose</t>
+          <t>go slit wrist</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>want leave world tire tell help tire feeling guilt shame want mother brother feel overwhelming feeling sadness though know anymore one turn nothing leave miserable life</t>
+          <t>fuck asshole</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
@@ -25430,97 +25434,97 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>go slit wrist</t>
+          <t>lose</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>fuck asshole</t>
+          <t>can not keep go try try good person every time turn around world take something can not afford live anymore state world make sick family splinter lose dad mother beyond do deal mess self make chest hurt never want want make familys life well fail 38 year old man can not even support let alone help love know turn doctor push many drug feel like even think therapy want blame father want love loved hate become want normal life want support help love one rock pile shit can not hate hate remember time chest hurt tire want love someone want good go die like can not stand think legally die want stop burden people forget quickly provide nothing world never kiss woman damn loser can not even imagine child would never want pas thought make sick want love type want hold someone hate much can not stop</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>lose</t>
+          <t>crossroad</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>can not keep go try try good person every time turn around world take something can not afford live anymore state world make sick family splinter lose dad mother beyond do deal mess self make chest hurt never want want make familys life well fail 38 year old man can not even support let alone help love know turn doctor push many drug feel like even think therapy want blame father want love loved hate become want normal life want support help love one rock pile shit can not hate hate remember time chest hurt tire want love someone want good go die like can not stand think legally die want stop burden people forget quickly provide nothing world never kiss woman damn loser can not even imagine child would never want pas thought make sick want love type want hold someone hate much can not stop</t>
+          <t>struggle great deal lately suffer injury surgery suffer complication continue pain everyday since injury happen work force resign position order get worker comp settlement use money pay rent bill medical expense go look work since november mean really look every single day several interview literally tell multiple time second choice completely money almost food utility far behind every day expect turn received 3 day notice rent homeless family sick log friend leave tried every agency help repeatedly turn away fund help say even next month right point</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>crossroad</t>
+          <t>struggle</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>struggle great deal lately suffer injury surgery suffer complication continue pain everyday since injury happen work force resign position order get worker comp settlement use money pay rent bill medical expense go look work since november mean really look every single day several interview literally tell multiple time second choice completely money almost food utility far behind every day expect turn received 3 day notice rent homeless family sick log friend leave tried every agency help repeatedly turn away fund help say even next month right point</t>
+          <t>everyone work try happy medium week turn shit tired ready peace peace know</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>struggle</t>
+          <t>can not find fuck job lose hopeless</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>everyone work try happy medium week turn shit tired ready peace peace know</t>
+          <t>take time college chill need money feel lose can not fuck find job interview get reject</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>can not find fuck job lose hopeless</t>
+          <t>today even</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>take time college chill need money feel lose can not fuck find job interview get reject</t>
+          <t>rant post people seem even want connect people today goodness reach help one responding yet cat coddle like tomorrow sense something wrong u human being really afraid connection</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>today even</t>
+          <t>still hurtin</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>rant post people seem even want connect people today goodness reach help one responding yet cat coddle like tomorrow sense something wrong u human being really afraid connection</t>
+          <t>can not shake thought sometimes go outside night look moon hop lookin anything convince still connection need respond get thought head help bite</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
@@ -25532,12 +25536,12 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>still hurtin</t>
+          <t>think might bore</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>can not shake thought sometimes go outside night look moon hop lookin anything convince still connection need respond get thought head help bite</t>
+          <t>think original part patch work people make seem interesting bunch tacky patch wear denim jacket</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
@@ -25549,12 +25553,12 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>think might bore</t>
+          <t>0 interest</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>think original part patch work people make seem interesting bunch tacky patch wear denim jacket</t>
+          <t>day feel anything feel completely empty still remember use enjoy music time terrace enjoy wind climate think depression</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
@@ -25566,97 +25570,97 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>0 interest</t>
+          <t>want leave</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>day feel anything feel completely empty still remember use enjoy music time terrace enjoy wind climate think depression</t>
+          <t>want live like type sob hit ever get good promise would hold could leave family well financially grandma pass away could save pain suffer much one fucking like say anything god hurt hurt alone hurt reject tried keep go perhaps tomorrow wake go work like nothing happen tonight want pretend die fall asleep last time see fucking planet wake remember anything free</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>want leave</t>
+          <t>reoccurring day dream</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>want live like type sob hit ever get good promise would hold could leave family well financially grandma pass away could save pain suffer much one fucking like say anything god hurt hurt alone hurt reject tried keep go perhaps tomorrow wake go work like nothing happen tonight want pretend die fall asleep last time see fucking planet wake remember anything free</t>
+          <t>reoccurring day dream grab belonging food live room house rest life find hard snap normally bathroom small room brain hate even type get boost happy brain tell fuck liar idiot delete would feel even stupider wasting time go post anyway</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>reoccurring day dream</t>
+          <t>want go</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>reoccurring day dream grab belonging food live room house rest life find hard snap normally bathroom small room brain hate even type get boost happy brain tell fuck liar idiot delete would feel even stupider wasting time go post anyway</t>
+          <t>38 always felt like screw one people thing start look good always fund way mess end back square one constantly always think end life like every day hold back think leave 2 young kid also depress know much loser dad try 3 overdoses zopiclone nothing practice hang sit come close pass 3 day ago belt door fought save know mrs kid due home can not shake thought debt gamble addiction pure unhappy</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>want go</t>
+          <t>tire pain</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>38 always felt like screw one people thing start look good always fund way mess end back square one constantly always think end life like every day hold back think leave 2 young kid also depress know much loser dad try 3 overdoses zopiclone nothing practice hang sit come close pass 3 day ago belt door fought save know mrs kid due home can not shake thought debt gamble addiction pure unhappy</t>
+          <t>keep anymore keep reach help doctor push pill five therapist try push blame dead father can not afford home can not afford bill can not afford food even subreddits claim offer help delete post lurk account hundred karma know cry constantly hate life can not sleep can not eat try open people look like monster monster lose home nothing leave sell try hang sell dad belonging make end meet leave could good fun life piece garbage can not even work part time job buy grocery state turn away income 944mo disability do can not fight alone chest hurt eye hurt head spin even know make sense can not keep fight since child 38 year old man ha offer world leech skill never good school mental illness one would diagnose hate world never</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>tire pain</t>
+          <t>gun would blow fuck brain right</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>keep anymore keep reach help doctor push pill five therapist try push blame dead father can not afford home can not afford bill can not afford food even subreddits claim offer help delete post lurk account hundred karma know cry constantly hate life can not sleep can not eat try open people look like monster monster lose home nothing leave sell try hang sell dad belonging make end meet leave could good fun life piece garbage can not even work part time job buy grocery state turn away income 944mo disability do can not fight alone chest hurt eye hurt head spin even know make sense can not keep fight since child 38 year old man ha offer world leech skill never good school mental illness one would diagnose hate world never</t>
+          <t>remove</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>gun would blow fuck brain right</t>
+          <t>thing keep alive</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>feel really worthless thing keep alive video game come 15 day doom eternal even last long tell tell cahms anything bother anxiety tell consider jump skyscraper city finish game nothing else make happy glad something world make happy short though</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
@@ -25666,27 +25670,27 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>thing keep alive</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>feel really worthless thing keep alive video game come 15 day doom eternal even last long tell tell cahms anything bother anxiety tell consider jump skyscraper city finish game nothing else make happy glad something world make happy short though</t>
+          <t>freak feel empty worthless depress insurance call er see much would cost tell call office 85 weekday find know want hear call helpline call several one give shit really help look get drunk enough point kill scary really fuck lose fucking do</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr"/>
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>might make sense lot people really give perspective make feel little good</t>
+        </is>
+      </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>freak feel empty worthless depress insurance call er see much would cost tell call office 85 weekday find know want hear call helpline call several one give shit really help look get drunk enough point kill scary really fuck lose fucking do</t>
+          <t>think today mull shitty mood lately basically think late depressive episode lasting longer usual tire wanted take long as nap chill day want deal responsibility plate right thought great would could someone take shift life week pop head maybe happen get throw back depressive episode maybe someone feel shitty long time universe decide give break one chosen take shift bear heavy emotion etc lucky enough free time afternoon snooze watch movie someone else take shift know feel like connect big picture contribute way somehow</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
@@ -25698,29 +25702,29 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>might make sense lot people really give perspective make feel little good</t>
+          <t>sure else turn</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>think today mull shitty mood lately basically think late depressive episode lasting longer usual tire wanted take long as nap chill day want deal responsibility plate right thought great would could someone take shift life week pop head maybe happen get throw back depressive episode maybe someone feel shitty long time universe decide give break one chosen take shift bear heavy emotion etc lucky enough free time afternoon snooze watch movie someone else take shift know feel like connect big picture contribute way somehow</t>
+          <t>nothing negative thought time remember start gotten bad tend cry sleep even sleep know talk really anyone talk want dump everything maybe get guidance something make pain go away never see parent due mom step dad busy work run business dad probably somewhere rot arizona sister deploy navy run away year ago hear old brother drug addict cut tie u long time ago want message suicide hotline fear send ambulance force hospital force bill afford one close talk situation grow parent live different bad area little money never smart talented anything besides active imagination always learn issue pay attention remember information regardless hard tried lot friend end drop high school 3 year ago go back get adult diploma hope would enough get foot almost 26 month ago saw someone mental health find add thing answer help much small amount friends become aware increase depressed emotion try help part seem pay mind work dead end job adult life recently take boot camp course information technology field intern 5 week get position work small company help desk technician 3 month perm contract tell interview never anything related contract constantly extend 3 month 9th month time work bad company never work somewhere treat specifically u employee poorly promise increase pay hire full time salary cut pay think would notice secretly start look new position start last july november last year tire way treated year without thinking leave even though monthly bill top learning problem also extreme anger problem impatient far work go applied countless position since last july professional help update resume cover letter learn try much knowledge use pretty much none last job forget almost get nothing 2 company interview reject 2nd 3rd interview countless company apply either flat reject say anything next nothing leave money find something soon lose everything imagine bad credit law suit follow job thing never real relationship never see family even though literally live mom step dad almost never see friend extreme hate people assume due everything go year every day spend hour try teach new thing apply position available could possible help situation since last interview rejection constant reply email rejection can not anymore tried hard make thing well seek medical help close support family friends power always one step forward launch back tire starting tired know rejection ignore job everything become angry hate fill can not see happiness anything use love movie video game can not find joy piece escape day day music almost think listen feel like also listen feel constant pain emotional wreck everyone say get good long keep get bad put effort like deity purposefully try prevent happy make successful past week can not stop think kill make awful pain go away feel anything anymore thing hold back think come possible non existence can not even comprehend know thing hold back even fear start go away take early exit seem like best option apologize extremely long post maybe way leave small mark existence make feel little good seem feel well even hard work eventually get anywhere family job actually pay enough live constantly worry enough food water cut make payment hard feel happy accomplish know failure loss feel like say enough anyone even read read go times keep feeling bad add thank whoever take time read</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>sure else turn</t>
+          <t>ex attempt suicide</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>nothing negative thought time remember start gotten bad tend cry sleep even sleep know talk really anyone talk want dump everything maybe get guidance something make pain go away never see parent due mom step dad busy work run business dad probably somewhere rot arizona sister deploy navy run away year ago hear old brother drug addict cut tie u long time ago want message suicide hotline fear send ambulance force hospital force bill afford one close talk situation grow parent live different bad area little money never smart talented anything besides active imagination always learn issue pay attention remember information regardless hard tried lot friend end drop high school 3 year ago go back get adult diploma hope would enough get foot almost 26 month ago saw someone mental health find add thing answer help much small amount friends become aware increase depressed emotion try help part seem pay mind work dead end job adult life recently take boot camp course information technology field intern 5 week get position work small company help desk technician 3 month perm contract tell interview never anything related contract constantly extend 3 month 9th month time work bad company never work somewhere treat specifically u employee poorly promise increase pay hire full time salary cut pay think would notice secretly start look new position start last july november last year tire way treated year without thinking leave even though monthly bill top learning problem also extreme anger problem impatient far work go applied countless position since last july professional help update resume cover letter learn try much knowledge use pretty much none last job forget almost get nothing 2 company interview reject 2nd 3rd interview countless company apply either flat reject say anything next nothing leave money find something soon lose everything imagine bad credit law suit follow job thing never real relationship never see family even though literally live mom step dad almost never see friend extreme hate people assume due everything go year every day spend hour try teach new thing apply position available could possible help situation since last interview rejection constant reply email rejection can not anymore tried hard make thing well seek medical help close support family friends power always one step forward launch back tire starting tired know rejection ignore job everything become angry hate fill can not see happiness anything use love movie video game can not find joy piece escape day day music almost think listen feel like also listen feel constant pain emotional wreck everyone say get good long keep get bad put effort like deity purposefully try prevent happy make successful past week can not stop think kill make awful pain go away feel anything anymore thing hold back think come possible non existence can not even comprehend know thing hold back even fear start go away take early exit seem like best option apologize extremely long post maybe way leave small mark existence make feel little good seem feel well even hard work eventually get anywhere family job actually pay enough live constantly worry enough food water cut make payment hard feel happy accomplish know failure loss feel like say enough anyone even read read go times keep feeling bad add thank whoever take time read</t>
+          <t>get way attach ghost wanted hate could hat one point thing hold back think living fail fast forward year attempt suicide make realize much still care feel like deserve break though cared much probably even think moment another stupid dude everything fuel self hatred</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
@@ -25732,29 +25736,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>ex attempt suicide</t>
+          <t>get good time</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>get way attach ghost wanted hate could hat one point thing hold back think living fail fast forward year attempt suicide make realize much still care feel like deserve break though cared much probably even think moment another stupid dude everything fuel self hatred</t>
+          <t>little insight life 3 year ago lose last vehicle would ever 3 year ago lose place live lose least 23 job 3 year span 2 year ago lose girl love 1 year ago lose career fail 6 month ago eat good shower daily get job start fix life make plan fo get another car pay debt today jobless homeless hungry shower often eat much isolate self miss life miss go able socialize miss like date stuff wear clean clothes pay bill time behind miss driver license fear everytime get behind wheel miss apartment girl come ever want miss eat good miss shop thing barely live past 3 year everytime get job try fix credit never seem keep live life zero payment buy everything cash clearly keep thing really get good time</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>get good time</t>
+          <t>really think one phrase could even describe destroyed</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>little insight life 3 year ago lose last vehicle would ever 3 year ago lose place live lose least 23 job 3 year span 2 year ago lose girl love 1 year ago lose career fail 6 month ago eat good shower daily get job start fix life make plan fo get another car pay debt today jobless homeless hungry shower often eat much isolate self miss life miss go able socialize miss like date stuff wear clean clothes pay bill time behind miss driver license fear everytime get behind wheel miss apartment girl come ever want miss eat good miss shop thing barely live past 3 year everytime get job try fix credit never seem keep live life zero payment buy everything cash clearly keep thing really get good time</t>
+          <t>even know start always think one thing always torture brain everyone child child perfect excuse hide condition know talk people know prolong conversation know anything sociable hand really smart really qualify something special people stupid think selfcentered instead think personality maybe one thing even comprehend society well continue able whatever want something amazing felt feel get powerful superpower able think something interesting make real make like professional something can not even talk even express brain amazing idea take trash something miserable much kid teen worried thing people say worry 100 sure shine correct people ask 22 22 year find anyone like anyone talk interesting thing superficial stupid thing anyone take life like poetry right value anyone understand anyone hat school partner always think thing ruin day understand small tiny disrespectful live city can not even pronounce name reason misfortune people damn vulgar damn low can not even teach kid kind respectful anyone learn pride keep away bully even know bullied bully tend attack people body stupid condition attack know smell like dog possess maybe find reasonable reason understand bully middle thought can not friends attack can not vulgar like reason hate ethnicity stupid language call spanish talk freaking stupid people learn every single piece word say country infest thirdworldpeople way worry lgbt inclusiveness include society guy alvaro c still name disgust profane putrid revolt person ever meet compulsive masturbator obsess pornography remember check teacher computer look sexual content masturbates class could care less life except one thing let breathe one miserable day school look daily fun let u make piece st even st actual thought cry try understand get make despreciable know thing insert mind problem porn addiction 14 decide play guitar feel able put music radio effort money energy leave something actually energy nothing lay bed watch repulsive video hate can not leave behind reason thing consume brain ability smartness heart soul want leave think reason life pointless stupid think stupid talk stupid living stupid try special world world take make descend level descend hell make top maybe like default get idea still beautiful idea alone wait someone help never come suicide bore option know die one notice hate take option want give pleasure freak hypocrite criminal society cry fall relative cry emotion good people know cry instead cry may believe god make sure devil one u wait destroy everyone else every piece disguise everything know think everything normal far away comprehend life world fing hate advice understand 22 year</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
@@ -25766,29 +25770,29 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>really think one phrase could even describe destroyed</t>
+          <t>pick gun tomorrow</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>even know start always think one thing always torture brain everyone child child perfect excuse hide condition know talk people know prolong conversation know anything sociable hand really smart really qualify something special people stupid think selfcentered instead think personality maybe one thing even comprehend society well continue able whatever want something amazing felt feel get powerful superpower able think something interesting make real make like professional something can not even talk even express brain amazing idea take trash something miserable much kid teen worried thing people say worry 100 sure shine correct people ask 22 22 year find anyone like anyone talk interesting thing superficial stupid thing anyone take life like poetry right value anyone understand anyone hat school partner always think thing ruin day understand small tiny disrespectful live city can not even pronounce name reason misfortune people damn vulgar damn low can not even teach kid kind respectful anyone learn pride keep away bully even know bullied bully tend attack people body stupid condition attack know smell like dog possess maybe find reasonable reason understand bully middle thought can not friends attack can not vulgar like reason hate ethnicity stupid language call spanish talk freaking stupid people learn every single piece word say country infest thirdworldpeople way worry lgbt inclusiveness include society guy alvaro c still name disgust profane putrid revolt person ever meet compulsive masturbator obsess pornography remember check teacher computer look sexual content masturbates class could care less life except one thing let breathe one miserable day school look daily fun let u make piece st even st actual thought cry try understand get make despreciable know thing insert mind problem porn addiction 14 decide play guitar feel able put music radio effort money energy leave something actually energy nothing lay bed watch repulsive video hate can not leave behind reason thing consume brain ability smartness heart soul want leave think reason life pointless stupid think stupid talk stupid living stupid try special world world take make descend level descend hell make top maybe like default get idea still beautiful idea alone wait someone help never come suicide bore option know die one notice hate take option want give pleasure freak hypocrite criminal society cry fall relative cry emotion good people know cry instead cry may believe god make sure devil one u wait destroy everyone else every piece disguise everything know think everything normal far away comprehend life world fing hate advice understand 22 year</t>
+          <t>relieve</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>pick gun tomorrow</t>
+          <t>hey back</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>relieve</t>
+          <t>post little ago honestly feel like applies trust scar can not talk parent want call hotline want go back hospital sorry scar</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
@@ -25800,80 +25804,80 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>hey back</t>
+          <t>something others help victim depression</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>post little ago honestly feel like applies trust scar can not talk parent want call hotline want go back hospital sorry scar</t>
+          <t>individual friend family member suffer depression always wonder something help depression therapist lack personal experience always hear therapist treat depression helpful sometimes many time hear patient continue suffer depression something others help victim depression personal experience believe could extremely helpful treat help depression genuinely curious eager feedback due desire assist others</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>something others help victim depression</t>
+          <t>go bad episode hold thread one little thing could push edge</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>individual friend family member suffer depression always wonder something help depression therapist lack personal experience always hear therapist treat depression helpful sometimes many time hear patient continue suffer depression something others help victim depression personal experience believe could extremely helpful treat help depression genuinely curious eager feedback due desire assist others</t>
+          <t>bedroom bathroom look like hurricane struck can not even eat normally barely move exaggeration simple task feel like agony selfharmed almost year yet feel like relapse want give alcohol poison jump bridge interstate feel like burden fiancé know love concerned problem add recognize anymore know fuck dread future watch boomer parent suffer addiction depression loneliness struggle afford retirement give high hope despise fuck world want part cruel selfish violent disgust place energy partake rat race survive read far thanks take time sometimes someone need vent hold back real thought feeling</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>go bad episode hold thread one little thing could push edge</t>
+          <t>physically mentally broken</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>bedroom bathroom look like hurricane struck can not even eat normally barely move exaggeration simple task feel like agony selfharmed almost year yet feel like relapse want give alcohol poison jump bridge interstate feel like burden fiancé know love concerned problem add recognize anymore know fuck dread future watch boomer parent suffer addiction depression loneliness struggle afford retirement give high hope despise fuck world want part cruel selfish violent disgust place energy partake rat race survive read far thanks take time sometimes someone need vent hold back real thought feeling</t>
+          <t>welp get do another batch doctor visit result cripple rest life bother plenty time come term condition affect quality life life expectancy bother soul crush loneliness girlfriend year physically touch seem like forever spend day shitty little side room write hardly see hide hair another person besides dad time pretty do honest really see reason continue live like</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>physically mentally broken</t>
+          <t>go wait turn 21 legally purchase handgun shoot</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>welp get do another batch doctor visit result cripple rest life bother plenty time come term condition affect quality life life expectancy bother soul crush loneliness girlfriend year physically touch seem like forever spend day shitty little side room write hardly see hide hair another person besides dad time pretty do honest really see reason continue live like</t>
+          <t>guess hook member gang get quicker want anyone stop offer advice tire give back fake thank appreciate concern message</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>go wait turn 21 legally purchase handgun shoot</t>
+          <t>suicidewatchlike website teenager reddit</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>guess hook member gang get quicker want anyone stop offer advice tire give back fake thank appreciate concern message</t>
+          <t>someone give link would nice might fit talk people know</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
@@ -25885,97 +25889,97 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>suicidewatchlike website teenager reddit</t>
+          <t>wake already pain</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>someone give link would nice might fit talk people know</t>
+          <t>fuck everything work hard prayed much still go bad know anymore can not even wake without cry hate</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>wake already pain</t>
+          <t>need know</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>fuck everything work hard prayed much still go bad know anymore can not even wake without cry hate</t>
+          <t>year 45 month period malaise insecurity feel selfish writing parent refuse get test depression can not say ugly one want talk cool enough see automatically labeled uncool hate everyone fuck selfish fake hurt reject potential friend potential girlfriend friend see sad motivate try force open finally force try become therapist become burden feel need check use problem make mad fuck selfish everyone lie recently one friends girl fell love backstabbed many month confess love 7 month ago friend realize felt bad leak affectionate love note personal problem friend laugh call simp stop talk affectionate people past relationship always fail strong independent man needy baby come relationship girl want needy baby let alone ugly fuck like see girls school look exactly like girl backstabbed fuck eats away inside know chance want want press escape quit scar jump building would feel comfortable gun know real angst want stop go school everyday see everyone friend girlfriends good look make experience know can not achieve like life show can not want stop eat away</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>need know</t>
+          <t>one talk consent decision make serious context depression</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>year 45 month period malaise insecurity feel selfish writing parent refuse get test depression can not say ugly one want talk cool enough see automatically labeled uncool hate everyone fuck selfish fake hurt reject potential friend potential girlfriend friend see sad motivate try force open finally force try become therapist become burden feel need check use problem make mad fuck selfish everyone lie recently one friends girl fell love backstabbed many month confess love 7 month ago friend realize felt bad leak affectionate love note personal problem friend laugh call simp stop talk affectionate people past relationship always fail strong independent man needy baby come relationship girl want needy baby let alone ugly fuck like see girls school look exactly like girl backstabbed fuck eats away inside know chance want want press escape quit scar jump building would feel comfortable gun know real angst want stop go school everyday see everyone friend girlfriends good look make experience know can not achieve like life show can not want stop eat away</t>
+          <t>recently go severe depressive episode thing would otherwise do affect mental health affect someone love would like hear severe depression talk whether feel ability consent make decision sensitive matter severe depressive episode feel like society tell everyone fault make bad decision responsible choice understand mental illness properly black white want know whether think truly capacity fault decision make something would do outside acute depressive episode four ability usually assess decision make look around study find research purpose sadden whole topic four ability understand appreciate reason ability express choice can not say know exact way interpet 4 thing right without research feel possess ability severe depressive episode possess others vary answer would severe depressive episode possess reliably every moment consistent enough able say possess time thank reading</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>one talk consent decision make serious context depression</t>
+          <t>help friend recently lose someone suicide</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>recently go severe depressive episode thing would otherwise do affect mental health affect someone love would like hear severe depression talk whether feel ability consent make decision sensitive matter severe depressive episode feel like society tell everyone fault make bad decision responsible choice understand mental illness properly black white want know whether think truly capacity fault decision make something would do outside acute depressive episode four ability usually assess decision make look around study find research purpose sadden whole topic four ability understand appreciate reason ability express choice can not say know exact way interpet 4 thing right without research feel possess ability severe depressive episode possess others vary answer would severe depressive episode possess reliably every moment consistent enough able say possess time thank reading</t>
+          <t>one best friend recently lose friend suicide really affect mental health never meet friend seem like great guy think ever lose anyone suicide friend really struggle cop atm worry make easy</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>help friend recently lose someone suicide</t>
+          <t>online counsel experience questionnaire approve moderator 8 participant leave need</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>one best friend recently lose friend suicide really affect mental health never meet friend seem like great guy think ever lose anyone suicide friend really struggle cop atm worry make easy</t>
+          <t>ever use online counsel form asynchronous response email others look insight interested contribute opinion please click follow link access questionnaire online counsel experience questionnairehttpsformsglekk12mr77lrhffpqe9 anonymous response help development application online counsel time 510 min depend detail like provide thank</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>online counsel experience questionnaire approve moderator 8 participant leave need</t>
+          <t>f20 can not find job</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>ever use online counsel form asynchronous response email others look insight interested contribute opinion please click follow link access questionnaire online counsel experience questionnairehttpsformsglekk12mr77lrhffpqe9 anonymous response help development application online counsel time 510 min depend detail like provide thank</t>
+          <t>turn 20 begin college year since money count mom support way last year lot thing happen make spiral terrible depression lose job since thing progressively gotten bad can not find new job live much place work since small town yet can not seem find one place make super sad see everyone fine nothing life make feel like failure know could much well great thing know start wish mom support like kid case thing feel like everything giant speck dust good situation feel well positive</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
@@ -25987,29 +25991,29 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>f20 can not find job</t>
+          <t>20200216 000000</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>turn 20 begin college year since money count mom support way last year lot thing happen make spiral terrible depression lose job since thing progressively gotten bad can not find new job live much place work since small town yet can not seem find one place make super sad see everyone fine nothing life make feel like failure know could much well great thing know start wish mom support like kid case thing feel like everything giant speck dust good situation feel well positive</t>
+          <t>morning february 16 2020 take cat emergency vet check extremely skinny move eaten use bathroom 2 day barely want around anyone muscules weak could even use back legs stand would drag want go lay exhausted thought go die night miraculously survive still extremely weak exhaust look put pet cage drive emergency vet vet examine immediately become accusatory critical kitty get position ask every question sun give eat past medical history maybe 40 question even call cat train wreck horrible condition keep telling thing well would take regular vet checkup sooner could prevent give medicine hyperthyroidism manageable cat condition make feel damn guilty want take away right tell could feel liver 25 kidney work extremely dehydrate mention give medicine iv drip change diet state say would much point kidney would eventually fail suggests euthanasia heart drop like rock want want give medicine hell bent ill pay care price ill pay keep push sister sign credit plan pay simply want bank even say could give medicine change diet etc possibility still work debilitate eventually family make decision put sleep day visit previous cat pass away due kidney failure want go thing snuggle kiss pet breathe final breath table heart wrench want bring home live 80 year old grandmother prior put sleep grandmother would see drag leg see weak exhaust look would start cry say want see cat suffer like anymore want bring home want anything happen grandma everything do one day happen fast still torn feel like go back time pull away table bring present day miss much misty little baby felt like yank world soon drive crazy regular vet tookher long ago first find tell u hyperthyroidism 3 u charge make sure get medicine finish dwindle responsibility stress mindset shit job set hour take care grandmother dementiawe make sure dosent wander outside anything completely forgotten count family member give medicine home forgotten even take medicine well eat play last year go ear check reminded go downhill give medicine finish find year would put sleep never intend hurt misty never want get sick every morning cry eye wish bed lick hand even meow cute little hello meow use every day think ifs onlys can not even smell look certain thing anymore can not smile happy anymore without baby buy box cutter last week seriously contemplate end life horrible guilt feel like murder cat feel like purposefully let get sick die felt like need euthanized responsibility make sure get medicine fuck bad want live anymore feel like sorry sweet baby kitty help grandmother fail help feel like one world deal situation know want fuck die hate exist everyday wake remind cat go best friend baby dead cause want throw hate living want die feel anything sorry misty sorry</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>20200216 000000</t>
+          <t>anyone want talk</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>morning february 16 2020 take cat emergency vet check extremely skinny move eaten use bathroom 2 day barely want around anyone muscules weak could even use back legs stand would drag want go lay exhausted thought go die night miraculously survive still extremely weak exhaust look put pet cage drive emergency vet vet examine immediately become accusatory critical kitty get position ask every question sun give eat past medical history maybe 40 question even call cat train wreck horrible condition keep telling thing well would take regular vet checkup sooner could prevent give medicine hyperthyroidism manageable cat condition make feel damn guilty want take away right tell could feel liver 25 kidney work extremely dehydrate mention give medicine iv drip change diet state say would much point kidney would eventually fail suggests euthanasia heart drop like rock want want give medicine hell bent ill pay care price ill pay keep push sister sign credit plan pay simply want bank even say could give medicine change diet etc possibility still work debilitate eventually family make decision put sleep day visit previous cat pass away due kidney failure want go thing snuggle kiss pet breathe final breath table heart wrench want bring home live 80 year old grandmother prior put sleep grandmother would see drag leg see weak exhaust look would start cry say want see cat suffer like anymore want bring home want anything happen grandma everything do one day happen fast still torn feel like go back time pull away table bring present day miss much misty little baby felt like yank world soon drive crazy regular vet tookher long ago first find tell u hyperthyroidism 3 u charge make sure get medicine finish dwindle responsibility stress mindset shit job set hour take care grandmother dementiawe make sure dosent wander outside anything completely forgotten count family member give medicine home forgotten even take medicine well eat play last year go ear check reminded go downhill give medicine finish find year would put sleep never intend hurt misty never want get sick every morning cry eye wish bed lick hand even meow cute little hello meow use every day think ifs onlys can not even smell look certain thing anymore can not smile happy anymore without baby buy box cutter last week seriously contemplate end life horrible guilt feel like murder cat feel like purposefully let get sick die felt like need euthanized responsibility make sure get medicine fuck bad want live anymore feel like sorry sweet baby kitty help grandmother fail help feel like one world deal situation know want fuck die hate exist everyday wake remind cat go best friend baby dead cause want throw hate living want die feel anything sorry misty sorry</t>
+          <t>sorry error english first language anxious right long story kind confuse go depressed since ever know start started thing know depress since kid thing get bad bad big crisis last two year life expect thing complicate try tried still fuck thing cousin live another country ask could stay 3 month thing get well organize live move one month ago try build thing live maybe another country another life maybe thing get well know try asked stay home really kind supportive august2019 get last month nice wake purpose say bad thing like watch tv sleep couch couch bed insinuate find place since day arrive try help thing clean house wash clothes go supermarket buy food cook food try outside give space still act bad towards know since ask 3 month one month thing bad like thing feel lonely right try talk yesterday mean say thing like people lonely grow life hard cut depress shit others thing really mean get get really really really drunk friend get home another person fun make joke make laugh watch movie together fuck shit sleep night wake start argument dish dirty use last night drunk try talk say something like hate really confuse know asshole asshole kill want kill want end full shitty life asshole kill away family without say goodbye without people know really happen</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
@@ -26021,12 +26025,12 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>anyone want talk</t>
+          <t>need stop breathing</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>sorry error english first language anxious right long story kind confuse go depressed since ever know start started thing know depress since kid thing get bad bad big crisis last two year life expect thing complicate try tried still fuck thing cousin live another country ask could stay 3 month thing get well organize live move one month ago try build thing live maybe another country another life maybe thing get well know try asked stay home really kind supportive august2019 get last month nice wake purpose say bad thing like watch tv sleep couch couch bed insinuate find place since day arrive try help thing clean house wash clothes go supermarket buy food cook food try outside give space still act bad towards know since ask 3 month one month thing bad like thing feel lonely right try talk yesterday mean say thing like people lonely grow life hard cut depress shit others thing really mean get get really really really drunk friend get home another person fun make joke make laugh watch movie together fuck shit sleep night wake start argument dish dirty use last night drunk try talk say something like hate really confuse know asshole asshole kill want kill want end full shitty life asshole kill away family without say goodbye without people know really happen</t>
+          <t>get well ruin everything everyone hat nobody turn therapy appointment saturdayit far awayhow suppose show face school tomorrow even best friend hate fail chemistry teacher pervert want die soon do</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
@@ -26038,12 +26042,12 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>need stop breathing</t>
+          <t>want go home</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>get well ruin everything everyone hat nobody turn therapy appointment saturdayit far awayhow suppose show face school tomorrow even best friend hate fail chemistry teacher pervert want die soon do</t>
+          <t>think spiritual person also think ever belong world understand even bear place life would meet great obstacle people even family want go back wherever soul come tire exhausted life want live anymore</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
@@ -26055,12 +26059,12 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>want go home</t>
+          <t>mother confess attempt commit suicide</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>think spiritual person also think ever belong world understand even bear place life would meet great obstacle people even family want go back wherever soul come tire exhausted life want live anymore</t>
+          <t>would like say shook knew habit consume lot sleep pill deal daily problem aside try get professional help really know feel guilty</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
@@ -26072,29 +26076,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>mother confess attempt commit suicide</t>
+          <t>21 year old make minimum wage friend take one class right usually low energy</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>would like say shook knew habit consume lot sleep pill deal daily problem aside try get professional help really know feel guilty</t>
+          <t>can not take anymore want buy pocket pistol similar weapon past day research live se michigan drive money can not afford live study get certification maybe get job geek squad also look get job pharmacy tech yes dad autistic may consume medium assure far burden life choose adopt run steam idea refuse let become burnout nothing good intention</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>21 year old make minimum wage friend take one class right usually low energy</t>
+          <t>successful hate</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>can not take anymore want buy pocket pistol similar weapon past day research live se michigan drive money can not afford live study get certification maybe get job geek squad also look get job pharmacy tech yes dad autistic may consume medium assure far burden life choose adopt run steam idea refuse let become burnout nothing good intention</t>
+          <t>almost everyday wake hat would hate though graduated high school love healthy family hobby online friend yet find paranoid hateful deserve life have_x000d_ sometimes want scream feeling like trap another person skin feel like accomplishment fake useless slab meat eventually die real life friend post secondary job car license closest family 6 hour away barely talk want happy good thing life find hat easy hate feel selfish like selfabsorbed care want happy like people online family always see glass half full always half empty</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
@@ -26106,12 +26110,12 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>successful hate</t>
+          <t>care anymore</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>almost everyday wake hat would hate though graduated high school love healthy family hobby online friend yet find paranoid hateful deserve life have_x000d_ sometimes want scream feeling like trap another person skin feel like accomplishment fake useless slab meat eventually die real life friend post secondary job car license closest family 6 hour away barely talk want happy good thing life find hat easy hate feel selfish like selfabsorbed care want happy like people online family always see glass half full always half empty</t>
+          <t>really want anything anymore whatever feel like failure always feel like failure disappointment anybody unlucky enough know lay bed go school lay bed home keep waste money stupid shit try something miniature wargaming dd etc always give go back sulk fuck hate life place vent</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
@@ -26123,32 +26127,15 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>care anymore</t>
+          <t>someone tell go ok please</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>really want anything anymore whatever feel like failure always feel like failure disappointment anybody unlucky enough know lay bed go school lay bed home keep waste money stupid shit try something miniature wargaming dd etc always give go back sulk fuck hate life place vent</t>
+          <t>within inch lose job m25 spend last year job spiral apathy catch write reprimand lose job go lose house possibly wife wtf depression fuck life</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>someone tell go ok please</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>within inch lose job m25 spend last year job spiral apathy catch write reprimand lose job go lose house possibly wife wtf depression fuck life</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
         <is>
           <t>no</t>
         </is>

--- a/Parte A/data_train_cleaned.xlsx
+++ b/Parte A/data_train_cleaned.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hi really know phrase situation try life really good point right never really depressed stuff 99 percent time mind clear graduate high school really excite however people family friend group ton issue wether sleep day hate ambition keep living world get problem want sound like gloat usually person lot people end go usually able talk people issue help long run yeah sometimes issue make really sad stuff feel sad people tell feel worthless today one best friend show cut really effect talk mostly painfully bore even know pretty logical guy go class sit hour time nothing challenge way school work clinically diagnose depression psychiatric ward see therapist regularly couple hour since show arm even see get two main problem right first really know help say literally thing really hang school weekend sit bed day try make effort much need say long go highschool consider law go feel way graduate need know something help tell parent therapist help already go one talk tomorrow know second stuff like really effect feel world unfair everyone care want everyone love feel well lately feel depress whenever friend need talk issue really weigh want leave people care dirt yeah anyone advice whatsoever please help normally able deal feeling help friend right struggle thank</t>
+          <t>hi really know phrase situation try life really good point right never really depressed stuff percent time mind clear graduate high school really excite however people family friend group ton issue wether sleep day hate ambition keep living world get problem want sound like gloat usually person lot people end go usually able talk people issue help long run yeah sometimes issue make really sad stuff feel sad people tell feel worthless today best friend show cut really effect talk mostly painfully bore even know pretty logical guy go class sit hour time nothing challenge way school work clinically diagnose depression psychiatric ward see therapist regularly couple hour since show arm even see get main problem right first really know help say literally thing really hang school weekend sit bed day try make effort much need say long go highschool consider law go feel way graduate need know something help tell parent therapist help already go talk tomorrow know second stuff like really effect feel world unfair everyone care want everyone love feel well lately feel depress whenever friend need talk issue really weigh want leave people care dirt yeah anyone advice whatsoever please help normally able deal feeling help friend right struggle thank red_heart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>depress past couple week ever since get back vacation normal life reality hit terrible 19 move yet really sufficient job one enough money support least car take online class feel stuck stupid fuck town empty alone man want someone love dude ugly fat worthless one ever go see worth chance one thing another worry end really fuck become miserable see point go really right know darkness know get hole hate hate body hate life think ever get good</t>
+          <t>depress past couple week ever since get back vacation normal life reality hit terrible move yet really sufficient job enough money support least car take online class feel stuck stupid fuck town empty alone man want someone love dude ugly fat worthless ever go see worth chance thing another worry end really fuck become miserable see point go really right know darkness know get hole hate hate body hate life think ever get good</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hii know else go devastated right feel like spiral control feel fuck numb cry lung even best friend longer supportive family parent home shit real friend care can not bother anything right want sleep without wake see another morning feel fuck pathetic shit cut regularly much fuck self pity pretend normal want lose best friend person help come far previous suicidal attempt suppress make much fucking bad feel like nobody fuck care matter many time shout help one close care know lean towards paracetamol poison die die try different method feel like absolute shit jobless regret everything life every fuck thing know trust anymore even fuck shoulder lean cry lung ldr past 6 month prior study overseas can not even fuck hold arm feel like shit best supportive best friend can not hurt harm fuck struggle feel enrage angry everythingi can not fuck find job due covid19 sometimes feel like money get kick go near find job least stay sane right seem fuck impossible feel like fuck mess wish fucking die right feel much burden inhale want die get else go plan consume med tonight can not anymore</t>
+          <t>hii know else go devastated right feel like spiral control feel fuck numb cry lung even best friend longer supportive family parent home shit real friend care can not bother anything right want sleep without wake see another morning feel fuck pathetic shit cut regularly much fuck self pity pretend normal want lose best friend person help come far previous suicidal attempt suppress make much fucking bad feel like nobody fuck care matter many time shout help close care know lean towards paracetamol poison die die try different method feel like absolute shit jobless regret everything life every fuck thing know trust anymore even fuck shoulder lean cry lung ldr past month prior study overseas can not even fuck hold arm feel like shit best supportive best friend can not hurt harm fuck struggle feel enrage angry everythingi can not fuck find job due covid sometimes feel like money get kick go near find job least stay sane right seem fuck impossible feel like fuck mess wish fucking die right feel much burden inhale want die get else go plan consume med tonight can not anymore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>shit like get good everyone purpose need find get good wait one day glad kill self course suicide permanent solution blah blah blah fuck shit even well people religion say pray suicidal people tire hear generic shit open</t>
+          <t>shit like get good everyone purpose need find get good wait day glad kill self course suicide permanent solution blah blah blah fuck shit even well people religion say pray suicidal people tire hear generic shit open</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>weird question someplace call talk someone go want talk want one last good conversation</t>
+          <t>weird question someplace call talk someone go want talk want last good conversation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>vent void feel bad constantly annoy friend epiphany 20 minute ago likeyeah absolutely go die single unloved friend family literally one want romantically attract toxic folk suck energy cut thing guy really realize use care like maybe stick least pretend care least want fuck probably best get never go healthy romantic relationship go learn accept tonighti cry ugly interesting enough funny enough thin enough as fat enough waist small enough smart enough hey year kid pour love never lil human end like break unlovable spiraling</t>
+          <t>vent void feel bad constantly annoy friend epiphany minute ago likeyeah absolutely go die single unloved friend family literally want romantically attract toxic folk suck energy cut thing guy really realize use care like maybe stick least pretend care least want fuck probably best get never go healthy romantic relationship go learn accept tonighti cry ugly interesting enough funny enough thin enough as fat enough waist small enough smart enough hey year kid pour love never lil human end like break unlovable spiraling</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>hey guy last week go rough day ocd ever throw push finally tell mom go severe anxiety ocd know anymore can not walk street without worry whether knock someone without realize bump someone road without realize worry rabid animal bite without realize die rabies worry step needle infect hiv worry homeless person infect hivsomething bad without realize can not drive without worry whether hit pedestrian without realize right turn leave turn green light really green run red light run pedestrian crossing without realize can not get near move water without worry brain eat amoeba get splash face ill freak internally rest day can not eat food without worry poison worry tapeworm can not basic conversation without worry whether something say come back haunt know thing stupid probably never happen brain keep throw able move even get physically affected anxiety eye burn get hard breathe anyway mom set appointment psychiatrist 18 still smart enoughhave enough money set one feel worthless already pls remind go today guy seem like good guy everything make sign paperwork talk everything everything cool way mom ask guy much bill would say would around 300 dollar first visit around 150 every visit upset ever since feel bad tell mom feel good go psychiatrist would expensive super super supportive insists get help go anxiety less extent brain get idea paper guy make sign really contract would come back haunt later exwhat sign away part future incomeetc sound stupid brain see everything threat stick perpetual fight flight mode anyway know feel iike past eight month drain parent everyone around burden can not even make happy feel like go anymore appointment psychiatrist throw away 300 buck moms money reason go another appointment cost 150 pop feel like take advantage people feel like stupid get act together want able happy peace mind watch literally go nut know anymore add head can not even tell reality obsession anymore whole battle fight last eight month head anything productive fight ocd waste time feel like ocd excuse worthless feel hopeless guilty</t>
+          <t>hey guy last week go rough day ocd ever throw push finally tell mom go severe anxiety ocd know anymore can not walk street without worry whether knock someone without realize bump someone road without realize worry rabid animal bite without realize die rabies worry step needle infect hiv worry homeless person infect hivsomething bad without realize can not drive without worry whether hit pedestrian without realize right turn leave turn green light really green run red light run pedestrian crossing without realize can not get near move water without worry brain eat amoeba get splash face ill freak internally rest day can not eat food without worry poison worry tapeworm can not basic conversation without worry whether something say come back haunt know thing stupid probably never happen brain keep throw able move even get physically affected anxiety eye burn get hard breathe anyway mom set appointment psychiatrist still smart enoughhave enough money set feel worthless already pls remind go today guy seem like good guy everything make sign paperwork talk everything everything cool way mom ask guy much bill would say would around dollar first visit around every visit upset ever since feel bad tell mom feel good go psychiatrist would expensive super super supportive insists get help go anxiety less extent brain get idea paper guy make sign really contract would come back haunt later exwhat sign away part future incomeetc sound stupid brain see everything threat stick perpetual fight flight mode anyway know feel iike past month drain parent everyone around burden can not even make happy feel like go anymore appointment psychiatrist thrown away buck moms money reason go another appointment cost pop feel like take advantage people feel like stupid get act together want able happy peace mind watch literally go nut know anymore add head can not even tell reality obsession anymore whole battle fight last month head anything productive fight ocd waste time feel like ocd excuse worthless feel hopeless guilty</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>know pas know many people know care want say parent sibling relative sorry greatly sorry miss can not continue journey bless look brain talent really anything passion fizzle every ounce optimism cop tool misery can not continue road pas know worth time know bless look brain talent deep maybe series self inflicted devilish mistake manipulation childhood traumas sexual psychological abuse blame wholeheartedly action blame action make wretch terrible thing die hop meet loving god perhaps lonely god one create world loneliness one dreamt suffer pain lose desire god may forsake dream make one terrible dream really want die need time must go mom everytime see anything reminds know sorry truly sorry love another</t>
+          <t>know pas know many people know care want say parent sibling relative sorry greatly sorry miss can not continue journey bless look brain talent really anything passion fizzle every ounce optimism cop tool misery can not continue road pas know worth time know bless look brain talent deep maybe series self inflicted devilish mistake manipulation childhood traumas sexual psychological abuse blame wholeheartedly action blame action make wretch terrible thing die hop meet loving god perhaps lonely god create world loneliness dreamt suffer pain lose desire god may forsake dream make terrible dream really want die need time must go mom everytime see anything reminds know sorry truly sorry love another</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fight depression couple year uphill battle talk doctor yesterday get diagnosed bipolar top ptsd military scar feel like one talk afraid reach friend fear leave brother scar go react since mother bipolar well end commit suicide 15 18 want normal able talk someone anyone know go would like reach appreciate</t>
+          <t>fight depression couple year uphill battle talk doctor yesterday get diagnosed bipolar top ptsd military scar feel like talk afraid reach friend fear leave brother scar go react since mother bipolar well end commit suicide want normal able talk someone anyone know go would like reach appreciate</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>talk friend leave read month make feel like absolute dog shit fail multiple class semester 6 credit hour still well way fail can not get bed much less actually class work probably go end drop college know would really wish something would kill surround many care people push away soon end alone deserve try fuck hard get well anything nothing make happy anymore perfect life anyone else shoe would successful happy rot away bed literally god damn reason want fall asleep never wake</t>
+          <t>talk friend leave read month make feel like absolute dog shit fail multiple class semester credit hour still well way fail can not get bed much less actually class work probably go end drop college know would really wish something would kill surround many care people push away soon end alone deserve try fuck hard get well anything nothing make happy anymore perfect life anyone else shoe would successful happy rot away bed literally god damn reason want fall asleep never wake</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>one talk 30 year old girlfrend together 8 year talk get merried move together last week say leave break know move realise friend live parent job hate live wake morning first teach kill thinkig abot kill serious suicide go buy rope hang would miss nobody would better everyone death see lot people perfect live like know</t>
+          <t>talk year old girlfrend together year talk get merried move together last week say leave break know move realise friend live parent job hate live wake morning first teach kill thinkig abot kill serious suicide go buy rope hang would miss nobody would better everyone death see lot people perfect live like know</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>use perfectly normal physic hit constantly flunk test even relax watch tv either feel ok literally want vanish hang self get lot mood swing go neutral happy sad neutral super sad everyday always hold happy face literally act ok happy can not take one really care anyway feel unbearable quite happy 2 year seriously might end subconsciously feel like tell someone make seem like wimp able dishonour real depressed people thing keep go set goal like want programmer play video game brother</t>
+          <t>use perfectly normal physic hit constantly flunk test even relax watch tv either feel ok literally want vanish hang self get lot mood swing go neutral happy sad neutral super sad everyday always hold happy face literally act ok happy can not take really care anyway feel unbearable quite happy year seriously might end subconsciously feel like tell someone make seem like wimp able dishonour real depressed people thing keep go set goal like want programmer play video game brother</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>can not anymore try 5 year get kick punch life fail daily task can not control hurt surround hate suffering much yet can not bring pull trigger cut knife go therapy nothing change help either think take overdose med know work can not live afterwards consequence face can not bear live another single day either do anyone know see thanks nothing thanks think try yet secretly watch slowly die hope humanity get eradicate within next decade</t>
+          <t>can not anymore tried year get kick punch life fail daily task can not control hurt surround hate suffering much yet can not bring pull trigger cut knife go therapy nothing change help either think take overdose med know work can not live afterwards consequence face can not bear live another single day either do anyone know see thanks nothing thanks think try yet secretly watch slowly die hope humanity get eradicate within next decade</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>asleep can not feel like drown like constantly feel feel empty lose daily basis hide behind fake smile drive anymore feel alone world anyone talk anything ask friend want go six flag season pas get people super cheap free dust suck</t>
+          <t>asleep can not feel like drown like constantly feel feel empty lose daily basis hide behind fake smile drive anymore feel alone world anyone talk anything ask friend want go flag season pas get people super cheap free dust suck</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>go drink laundry detergent 5th last month go deed enrage look back might sign keep live really doubt want die can not even</t>
+          <t>go drink laundry detergent th last month go deed enrage look back might sign keep live really doubt want die can not even</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>okay go really care throwaway account whatever begin teenage year 13 care anything look anything sort look mirror fine life good hit 14 send really horrible selfie group online friend bully really bad incredibly alert know mean stay friend group people know could talk parent hat gay brother take footstep completely break get insecure wore jacket year scar anyone seeing end 14 stop decide stop feeling sorry problem situation since gotten bad spend time get room blanket call anyone want anyone hear bad sound let anyone see bad look etc attempt suicide one time dad walk try hang give lot think since honestly every day feel like good option know post something tell post hope everyone read fantastic day though</t>
+          <t>okay go really care throwaway account whatever begin teenage year care anything look anything sort look mirror fine life good hit send really horrible selfie group online friend bully really bad incredibly alert know mean stay friend group people know could talk parent hat gay brother take footstep completely break get insecure wore jacket year scar anyone seeing end stop decided stop feeling sorry problem situation since gotten bad spend time get room blanket call anyone want anyone hear bad sound let anyone see bad look etc attempt suicide time dad walk try hang give lot think since honestly every day feel like good option know post something tell post hope everyone read fantastic day though</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>brother marry expect baby parent write altogether dad visit recently stay brother go visit everyday know dad would miss even leave say brother sister law great see remembered quickly say three always know least favourite dispensible one see dad actually might prefer sister law understand love suppose fail life way push</t>
+          <t>brother marry expect baby parent write altogether dad visit recently stay brother go visit everyday know dad would miss even leave say brother sister law great see remembered quickly say always know least favourite dispensible see dad actually might prefer sister law understand love suppose fail life way push</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>time remember would always think stupid ugly everybody else good time 1415 would imagine end life like never do anything wrong anyone reincarnation real thing selfish person want world stuck</t>
+          <t>time remember would always think stupid ugly everybody else good time would imagine end life like never do anything wrong anyone reincarnation real thing selfish person want world stuck</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>really evidence feeling gf cheat still tell try different thing strengthen trust nothing really work ruin relationship go great start think friend friendly plus shared lot common idea grow head one point convince true know true confronted course deny help friend always lie thing small thing time tell situation hat begin act like dick show side never know understand people say thing mean mad say mean thing lol end talk thing almost fought slimy shit time thought real think avoid fight</t>
+          <t>really evidence feeling gf cheat still tell try different thing strengthen trust nothing really work ruin relationship go great start think friend friendly plus shared lot common idea grow head point convince true know true confronted course deny help friend always lie thing small thing time tell situation hat begin act like dick show side never know understand people say thing mean mad say mean thing lol end talk thing almost fought slimy shit time thought real think avoid fight</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>happy feel alone completely surrounded people love read everything boyfriend text wrong way feel constantly angry uust avoid tell feel feel like failure job failure money failure general therapy get cancel miss two session one appendix burst breakdown could leave house feel stagnant unloved stupid think way reason think like loss need someone talk can not outright ask attention anyone needy keep plodding can not plod try hurt wish around anymore really sorry reddit need somewhere vent want bother advice term get eyour emotion level would fab make far sorry take time day moan</t>
+          <t>happy feel alone completely surrounded people love read everything boyfriend text wrong way feel constantly angry uust avoid tell feel feel like failure job failure money failure general therapy get cancel missed session appendix burst breakdown could leave house feel stagnant unloved stupid think way reason think like loss need someone talk can not outright ask attention anyone needy keep plodding can not plod try hurt wish around anymore really sorry reddit need somewhere vent want bother advice term get eyour emotion level would fab make far sorry take time day moan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>today birthday single hour awake already one shittiest day past month fuck sick want anymore god damnit want shit girlfriend genuinely seem care obligation feel stick think would without benefit</t>
+          <t>today birthday single hour awake already shittiest day past month fuck sick want anymore god damnit want shit girlfriend genuinely seem care obligation feel stick think would without benefit</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>make list people love would one make list favorite song would none make list everything want become want accomplish would answer feel anxiety fear pain eat make feel sick can not get couple hour sleep ready go care affect anyone</t>
+          <t>make list people love would make list favorite song would none make list everything want become want accomplish would answer feel anxiety fear pain eat make feel sick can not get couple hour sleep ready go care affect anyone</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dysthymia dealt suicidal ideation privately year past 6 month especially last 48 hour get really really bad feel like two people right one version ready go solid plan version horrify sick prevent act remind much need work tomorrow think dependent pet cat imagine much hurt friend two side battle think act suicidal thought tonight may within next day know broke can not handle er bill definitely can not go family afraid go friend therapist see sunday know know something please suggest something</t>
+          <t>dysthymia dealt suicidal ideation privately year past month especially last hour get really really bad feel like people right version ready go solid plan version horrify sick prevent act remind much need work tomorrow think dependent pet cat imagine much hurt friends side battle think act suicidal thought tonight may within next day know broke can not handle er bill definitely can not go family afraid go friend therapist see sunday know know something please suggest something</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>already lot go personal life closer suicide would ever huge argument among friend get detail think make right middle need fuck pick side want pick side lose friend neutral whole situation anyway pick side start spending time one group hate change thing hate go isolate sit morning lunch work class come etc want talk find friend completely alone course happen end kill end march break close suicide argument push past limit probably go next opportunity get ie know home alone 2 hour can not take anymore become much really want die nothing ever get well point give</t>
+          <t>already lot go personal life closer suicide would ever huge argument among friend get detail think make right middle need fuck pick side want pick side lose friend neutral whole situation anyway pick side start spending time group hate change thing hate go isolate sit morning lunch work class come etc want talk find friend completely alone course happen end kill end march break close suicide argument push past limit probably go next opportunity get ie know home alone hour can not take anymore become much really want die nothing ever get well point give</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>hey create account honestly know anymore last year worst life long time gf 4 year break life different state fly speak atleast end good term day start new job start well manager happy next week another manager join person hire sack towards end first month end surgery back issue start surgery breakup really affect physically mentally keep make error easily avoidable eventually get much release take 3 year find job field graduate honestly think look unfortunately get left job partner job field exactly make sense really go nowhere manager good happy performance organisation allow growth person replace young already far ahead career top live small town hard hide termination honestly know point anymore matter feel never enough go anywhere</t>
+          <t>hey create account honestly know anymore last year worst life long time gf year break life different state fly speak atleast end good term day start new job start well manager happy next week another manager join person hire sack towards end first month end surgery back issue start surgery breakup really affect physically mentally keep make error easily avoidable eventually get much release take year find job field graduate honestly think look unfortunately get left job partner job field exactly make sense really go nowhere manager good happy performance organisation allow growth person replace young already far ahead career top live small town hard hide termination honestly know point anymore matter feel never enough go anywhere</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>feel like matter hard try make one step forward always two step back defeat embarrass</t>
+          <t>feel like matter hard try make step forward always step back defeat embarrass</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>back yay get ready rant god awful useless problem instead revise mock 2 alevels go fail want extra year college fuck horrible cry help despite accept one even give help instead get help internet oh wow original last time fell great depression hate life family horrible struggle world fuck people disgust everyday wish quick fuck death fail school passion anymore even well know want future god know life want move england go live quiet life canada somewhere people problem die peace know write good guess wish could cry friend talk feel open miss ex fuck internet relationship fell deeply love retard fall love eboy devilishly gay hate life much god think shove shotgun barrel mouth make happy please tell get good life get good get worse really know say one frankly care post yeah comment one know happen funny go one subreddits make friend fucking downvoted way boost confidence internet make friend fuck hate even know say anymore want sleep forever want wake tommorow mock know fail fucking failure ask help worthless ask accept high standard whatever know become thing sworn destroy depress sad fucking failure know another one million ask help take unmotivated anything god want cry much stop go look stupid pointless meme suffer regret decision go look exs profile 10th time week hate life yeah thanks read frankly honest would waste time would even fuck reply</t>
+          <t>back yay get ready rant god awful useless problem instead revise mock alevels go fail want extra year college fuck horrible cry help despite accept even give help instead get help internet oh wow original last time fell great depression hate life family horrible struggle world fuck people disgust everyday wish quick fuck death fail school passion anymore even well know want future god know life want move england go live quiet life canada somewhere people problem die peace know write good guess wish could cry friend talk feel open miss ex fuck internet relationship fell deeply love retard fall love eboy devilishly gay hate life much god think shove shotgun barrel mouth make happy please tell get good life get good get worse really know say frankly care post yeah comment know happen funny go subreddits make friend fucking downvoted way boost confidence internet make friend fuck hate even know say anymore want sleep forever want wake tommorow mock know fail fucking failure ask help worthless ask accept high standard whatever know become thing sworn destroy depress sad fucking failure know another million ask help take unmotivated anything god want cry much stop go look stupid pointless meme suffer regret decision go look exs profile th time week hate life yeah thanks read frankly honest would waste time would even fuck reply</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>21 year old birthday two week stpatricks day entire life rough moment born heart issue grow growth deficiency rib grow word crush lung along asthma small portion sum lose dad 15 finally age thing like developed love get hangout never able retire hockey sport lung small due chest issue everyone leave nobody lose dad spent year silent talk anyone racial expression everyday drag hole life continue people keep come go destroy way friend betray relationship cheat never good enough anyone mother speak anymore go sibling contact also move across usa finally hit point want keep pray good day 6 year hospital mental issue thing never get good lose best friend dad cancer whose family take brink end help get good work previous relationship mean happy like felt normal cry every morning every night excite day 9 month since cut world speak anyone week nobody ever try contact always reach stop try confidence leave chill anymore guy headphone always tire can not seem anything right want peace want can not siblings even though get along well want enter depressed state like go year run energy know much long say fuck do end end pain nobody seem care pain know care anyone elses anymore always person help anyone even barely know nobody</t>
+          <t>year old birthday week stpatricks day entire life rough moment born heart issue grow growth deficiency rib grow word crush lung along asthma small portion sum lose dad finally age thing like developed love get hangout never able retire hockey sport lung small due chest issue everyone leave nobody lose dad spent year silent talk anyone racial expression everyday drag hole life continue people keep come go destroy way friend betray relationship cheat never good enough anyone mother speak anymore go sibling contact also move across usa finally hit point want keep pray good day year hospital mental issue thing never get good lose best friend dad cancer whose family take brink end help get good work previous relationship mean happy like felt normal cry every morning every night excite day month since cut world speak anyone week nobody ever try contact always reach stop try confidence leave chill anymore guy headphone always tire can not seem anything right want peace want can not siblings even though get along well want enter depressed state like go year run energy know much long say fuck do end end pain nobody seem care pain know care anyone elses anymore always person help anyone even barely know nobody</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>friend live town go contact mom usually person speak day day 8 yr old 29 know make friend occasionally someone moe extroverted make friend always end take advantage kindness drop life tire alone tire disabled tired mental illness tire want die need hold bad judge tell mom kid right ask therapy antidepressant enough want</t>
+          <t>friend live town go contact mom usually person speak day day yr old know make friend occasionally someone moe extroverted make friend always end take advantage kindness drop life tire alone tire disabled tired mental illness tire want die need hold bad judge tell mom kid right ask therapy antidepressant enough want</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>26 feel swallow regret shame keep nag reconnect old friend associate speak decade genuinely care well reason feel fake can not enjoy present family friend get bore lose interest feel sad nowhere anybody know move forward</t>
+          <t>feel swallow regret shame keep nag reconnect old friend associate speak decade genuinely care well reason feel fake can not enjoy present family friend get bore lose interest feel sad nowhere anybody know move forward</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1269,12 +1269,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>19m feel like reach break point</t>
+          <t>feel like reach break point</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>feel depress af last month sort feel like relapse 6 month reasonably healthy mental state basically feel physically drained energy day zero motivation study try way whatsoever college notoriously tough course barely pass christmas exam come home exhaust go bed become really agitated irritated heart start pound struggle breathe can not get comfortable even go bed exhaust 89pm would get sleep 23am however morning struggle much get bed feel like almost zero point get anyway would even miss anything end miss many lecture simply becuase can not bring get bed still live home go college live without parent could see stay bedmy room day time every day pass sort blur feel like almost depersonalization disorder operate autopilot feel like almost like empty inside feel emotion everything feel monotonous numb honestly really give fuck anything anymore use passion like play musicsportreadingfilms etc nothing excites anymore feel like really emotional outlet like exist daytoday without actually live since find close zero pleasure general life selfmedicate weed guess cop mechanism order feel something numb also think memory loss last couple month really blur honestly know time go time also really really bad eat habit generally eat breakfast could go day without eat however come home often would binge struggle breathe also feel socially exhaust every day go college pretend someone mentally drain feel like put fake persona mask numbness want go bedget high probably part reason avoid go lecture eventually cause go student couseling service college sometime last week however feel like honest regard situation definitely make less severe actually set counselling session start 3 week however feel like ability function severely impair last day tonight felt urge selfharm first time honestly clean razor would already do think wait 3 week counsel appointment feel like go gppsychiatrist see think feel like want someone tell exactly 99 sure depression perhaps symptomatic insomniaa binge eat disorder guess part still deny depression despite know almost certainly feel like need medical professional tell order able work get good guess also want see think medication could help ultimately want treatment soon possible something concrete show tell take step improve atm feel lose life feel like breakingpoint might come soon unless change thing really know go guess post reflection maybe want get thought somewhere anyone advice obviously would really appreciate like people want feel normal anyone would willing talk thing bit detail would appreciate pm</t>
+          <t>feel depress af last month sort feel like relapse month reasonably healthy mental state basically feel physically drained energy day motivation study try way whatsoever college notoriously tough course barely pass christmas exam come home exhaust go bed become really agitated irritated heart start pound struggle breathe can not get comfortable even go bed exhaust pm would get sleep however morning struggle much get bed feel like almost point get anyway would even miss anything end miss many lecture simply becuase can not bring get bed still live home go college live without parent could see stay bedmy room day time every day pass sort blur feel like almost depersonalization disorder operate autopilot feel like almost like empty inside feel emotion everything feel monotonous numb honestly really give fuck anything anymore use passion like play musicsportreadingfilms etc nothing excites anymore feel like really emotional outlet like exist daytoday without actually live since find close pleasure general life selfmedicate weed guess cop mechanism order feel something numb also think memory loss last couple month really blur honestly know time go time also really really bad eat habit generally eat breakfast could go day without eat however come home often would binge struggle breathe also feel socially exhaust every day go college pretend someone mentally drain feel like put fake persona mask numbness want go bedget high probably part reason avoid go lecture eventually cause go student couseling service college sometime last week however feel like honest regard situation definitely make less severe actually set counselling session start week however feel like ability function severely impair last day tonight felt urge selfharm first time honestly clean razor would already do think wait week counsel appointment feel like go gppsychiatrist see think feel like want someone tell exactly sure depression perhaps symptomatic insomniaa binge eat disorder guess part still deny depression despite know almost certainly feel like need medical professional tell order able work get good guess also want see think medication could help ultimately want treatment soon possible something concrete show tell take step improve atm feel lose life feel like breakingpoint might come soon unless change thing really know go guess post reflection maybe want get thought somewhere anyone advice obviously would really appreciate like people want feel normal anyone would willing talk thing bit detail would appreciate pm</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>get straight fuck hand young male study feel like whatevers feel anxiety depression stress fuck clue catch supposedly love family friend shit already know want talk even gf would trust almost anything grade fuck reverse skyrocket can not get sit study shit probably go fail music even although taught music music school 7 year understand subject probably bad part trip ireland summer break automatically choose fail 2 subject probably fail french music spanish math likely physic chemistry use struggle math way recently start cut serious wound straight vein cut leave hand arm stay quite likely continue grade keep come likely get source music take away pc mp3 phone help situation also recently start go girl like since 23 year ago like time first relationship u none u ever kiss make anyone etc really shy friend since start relationship together 3 month try pressure u make coward obviously could make happen despite fuck tell want also quite high number suicidal thought lately mostly think could think hang od death find gun somewhere common country blow head cut tie rope around neck stretch hard die seal swim pool turn water slowly rise drown put toaster bath quite creative really also find hard find reason stay alive feel like burden gf family see weight must lift carry never ever feel like something useful someone would thankful</t>
+          <t>get straight fuck hand young male study feel like whatevers feel anxiety depression stress fuck clue catch supposedly love family friend shit already know want talk even gf would trust almost anything grade fuck reverse skyrocket can not get sit study shit probably go fail music even although taught music music school year understand subject probably bad part trip ireland summer break automatically choose fail subject probably fail french music spanish math likely physic chemistry use struggle math way recently start cut serious wound straight vein cut leave hand arm stay quite likely continue grade keep come likely get source music take away pc mp phone help situation also recently start go girl like since year ago like time first relationship u none u ever kiss make anyone etc really shy friend since start relationship together month try pressure u make coward obviously could make happen despite fuck tell want also quite high number suicidal thought lately mostly think could think hang od death find gun somewhere common country blow head cut tie rope around neck stretch hard die seal swim pool turn water slowly rise drown put toaster bath quite creative really also find hard find reason stay alive feel like burden gf family see weight must lift carry never ever feel like something useful someone would thankful</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>know really dumb keep spamming spamming already make two post unless actually three memory goldfish feel alone hell need vent piss eat today plan eat anything month fuck hopefully start tomorrow able control fatass self eat april start cut today great actually fuck pathetic can not even cut deep hurt much cut neck dumb hell since neck difficult cover sad part small part want people see super fuck would want appointment psychiatrist tomorrow hopefully give med actually work last hope otherwise suicide option gut go know keep rant thanks read</t>
+          <t>know really dumb keep spamming spamming already make post unless actually memory goldfish feel alone hell need vent piss eat today plan eat anything month fuck hopefully start tomorrow able control fatass self eat april start cut today great actually fuck pathetic can not even cut deep hurt much cut neck dumb hell since neck difficult cover sad part small part want people see super fuck would want appointment psychiatrist tomorrow hopefully give med actually work last hope otherwise suicide option gut go know keep rant thanks read</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>first reddit post bear suicidal want anyone think dire need assistance want scare anyone depression 23 year write journal entry today kind illustrate constantly feel 247 journaling maybe 6 year tonight 7 month write felt urgent need put feeling pen paper read back kind scary knowing dark make sense really know post maybe someone say bitch feel fuckin wayyyyy know anyways go march 4th 2020 mean feel sadlosthopeless none friends family seem notice constantly around people feel alone feel like sucked black hole one around help really know feel wish brave enough tell feel reach help time feel hurt nobody seem care want someone look eye see sadness tell go okay one close hear lie laugh feel alone abandon like never happy scar feel sad lonely forever sometimes really wonder single person care feeling health state mind try hard shoulder cry love one support system spend whole life put people need try hard focus put need first alone even people share feeling nowhere see point share nobody care nobody care right think pretty obvious point support system one corner encourage fight fight one tell go okay give hug cry always cry know want smile real</t>
+          <t>first reddit post bear suicidal want anyone think dire need assistance want scare anyone depression year write journal entry today kind illustrate constantly feel journaling maybe year tonight month write felt urgent need put feeling pen paper read back kind scary knowing dark make sense really know post maybe someone say bitch feel fuckin wayyyyy know anyways go march th mean feel sadlosthopeless none friends family seem notice constantly around people feel alone feel like sucked black hole around help really know feel wish brave enough tell feel reach help time feel hurt nobody seem care want someone look eye see sadness tell go okay one close hear lie laugh feel alone abandon like never happy scar feel sad lonely forever sometimes really wonder single person care feeling health state mind try hard shoulder cry love one support system spend whole life put people need try hard focus put need first alone even people share feeling nowhere see point share nobody care nobody care right think pretty obvious point support system corner encourage fight fight tell go okay give hug cry always cry know want smile real</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>feel incredibly lonely recently psychiatrist can not see next friday cover insurance tldr tell kindness witness receive unemployed since december hold get tax refund could see psychiatrist new med fix car anything get another job government take student loan use energy grit get still strand low ever talk friend anymore think strong key fine feel fine use everything jobless break even care take care anymore point know would like hear kindness witness give think anything good happen three year kick teeth every three week want hear world still good place</t>
+          <t>feel incredibly lonely recently psychiatrist can not see next friday cover insurance tldr tell kindness witness receive unemployed since december hold get tax refund could see psychiatrist new med fix car anything get another job government take student loan use energy grit get still strand low ever talk friend anymore think strong key fine feel fine use everything jobless break even care take care anymore point know would like hear kindness witness give think anything good happen year kick teeth every week want hear world still good place</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>last year freshman highshighschool near end ready go one people tell mom get help tell 3 people john alex gabriel kohn say would help lie alex nothing gabriel help night ago john texted conversation john know hate despise passion must ask kind need clearence pick fight come understanding look like spent 10 min type guess expect bomb drop som verge suicide say would something promise hop deep someone would go kill fuck self 13 july year stab heart fuckin knife promise someone dispite judgement think good closest friend nothing would let die gabriel one thought would give shit shit go get fuck help hate fuck much much fuck heart every muscle bone tendon bit flesh burn hatred even think bad part can not unthink can not forget entire year fuckin would forget exist forget entirety 8th grade go around say oh jay fake want attention go fuckin die go sit watch thumb as like sorta fuckin beast field come back ask wrong hate like question even go say sorry shitty friend shitty person make mission stop people make mistake trust fuck goddamn idiot even matter know everyone stand ask pick side back say lie know hate 3 thing hitler satan even hit brother shot bb gun hit head bat time try friend someone myside think would guess sarcasm could keep go rush john well holy shit okay look man honestly speechless need understand perception think usual antic think beg attention decide give attention go believe honestly truly sorry felt continue feel way mean never want lead believe go mad leave suicide stupid way consider past tell go well act literally destroy love one need understand never want hurt way felt thought bucket bullshit know realize need help look want clear air know never consider friend hate gut want make peace want understand never hat man believe redemption nothing clearly break individual pray heal hope god watch hope seek help talk someone horse shit john ik think need continue want talk person john look man say god bless soul may angels watch may free curse darkness want talk person totally tomorrow freshman bathrooms common around lunch john class need attend schedule kind tight could tomorrow morning main common som believe share friend jake maybe could present hash thing thing fuck class john course listen want reach around morning c lunch period fuck john kind get fucked tardies right mean open discuss fuck ok john need time work u go say john get call like can not john aight ig tell shorten version begin 9th grade completely alone guy suppose fuckin friend run knew one talk one friend jd he ass lower self esteem go month finally catch hold invite birthday everyone fuck leave alone top 3 alex gabriel try leave homecoming past finally catch meet someone go date ok get house find cunt leave group take place tell everything hurt people without remorse would dangerous shit knew go try confront lie hate liar lie make bad someone else could shit go look bing notification everyone except caption friend need something ride home go back question get personal dad come lie mom know alone think idea slip second talked end semester kick 4 group relationship start tear second half dad beat mom beat well anywhere go get call school shooter mick get away everything constantly bottom always mom think gay humiliates point break tell find later believe start lose friend time get kick sam billing table alone idea slip think bit longer talk dad move arizona leave mom stress jd convinces good person give peice mind talk bit get fight lose get make fun idea set stuck head go need mom humiliate apologizes know fake say probably tell fucker blindside gabriel snitch later night difficult conversation mom concern mental health go therapy summer year come school know jake summer hop least lunch nobody alone see sams table broken schedule say assemble every person tell gay kill something know need keep love even alone get word tell people say go kill attention switch flip hate always never forgive gabriel alex never bullshat way jakes friend austins life stay expand group think even try realize care self center asshole fair share toxicity take cake fault invite table see freshman show mannerism know need stop good friend stop understand get matter one care anything make sure ok come top like matter first real friend trustworthy group friends gf life uphill problem stuck can not shake good person know lash divorce think good others anyways every part body want burn hell much read listen creep humility magic city john finish alot read say think narcisstic prick much self pity man say really healthy typical say john may able forgive need understand human live would wish feel bad enemy look good everything can not find say john know may think prideful narcisstic son bitch care people especially broken look mirror think long hard urself john mean view million way different people see think bad man accept thought mean picture paint sorry asshole 80 people see ok ask one john advice find light free never let pain darkness determine tell answer honestly therapize john happy meet jake truly great friend supportive glad someone like life fuck therapeutic bullshit john therapist hang hate anger life major bummer mean stubborn man thing want forgive forget can not john choice may sorry john let go fix ubdid john head never forgive john paint fucked picture alex gabriel good see saint enemies devil john enemy shittyiest shitty people john john problem let die promise lie john first suicide option never advise told gabriel alex 3 john suppose want call hotline som suppose friend friend can not john want friend sorry decide even say anything take claim attention stunt say sorry explain kid urself john dark dark place feel sorry break fucked wish best jay anymore dark place thing fuck yes go help later gammbette jay gammbette kensuki word tell every morning gammbette best try japanese kensuki art use gold repair broken thing ik broken fixing something would recommend john happy fuckin john think want almost smell bullshit alarm john well issue nothing can not shit change view go let know right mean every word say john ig good term can not change hate can not forgive sorry can not forgive john take care jay hope find inner peace hope achieve nirvana goodbye fuck bullshit get eventually hope see</t>
+          <t>last year freshman highshighschool near end ready go people tell mom get help tell people john alex gabriel kohn say would help lie alex nothing gabriel help night ago john texted conversation john know hate despise passion must ask kind need clearence pick fight come understanding look like spent min type guess expect bomb drop som verge suicide say would something promise hop deep someone would go kill fuck self july year stab heart fuckin knife promise someone dispite judgement think good closest friend nothing would let die gabriel thought would give shit shit go get fuck help hate fuck much much fuck heart every muscle bone tendon bit flesh burn hatred even think bad part can not unthink can not forget entire year fuckin would forget exist forget entirety th grade go around say oh jay fake want attention go fuckin die go sit watch thumb as like sorta fuckin beast field come back ask wrong hate like question even go say sorry shitty friend shitty person make mission stop people make mistake trust fuck goddamn idiot even matter know everyone stand ask pick side back say lie know hate thing hitler satan even hit brother shot bb gun hit head bat time try friend someone myside think would guess sarcasm could keep go rush john well holy shit okay look man honestly speechless need understand perception think usual antic think beg attention decide give attention go believe honestly truly sorry felt continue feel way mean never want lead believe go mad leave suicide stupid way consider past tell go well act literally destroy love one need understand never want hurt way felt thought bucket bullshit know realize need help look want clear air know never consider friend hate gut want make peace want understand never hat man believe redemption nothing clearly break individual pray heal hope god watch hope seek help talk someone horse shit john ik think need continue want talk person john look man say god bless soul may angels watch may free curse darkness want talk person totally tomorrow freshman bathrooms common around lunch john class need attend schedule kind tight could tomorrow morning main common som believe share friend jake maybe could present hash thing thing fuck class john course listen want reach around morning c lunch period fuck john kind get fucked tardies right mean open discuss fuck ok john need time work u go say john get call like can not john aight ig tell shorten version begin th grade completely alone guy suppose fuckin friend run knew talk friend jd he ass lower self esteem go month finally catch hold invite birthday everyone fuck leave alone top alex gabriel try leave homecoming past finally catch meet someone go date ok get house find cunt leave group take place tell everything hurt people without remorse would dangerous shit knew go try confront lie hate liar lie make bad someone else could shit go look bing notification everyone except caption friend need something ride home go back question get personal dad come lie mom know alone think idea slip second talked end semester kick group relationship start tear second half dad beat mom beat well anywhere go get call school shooter mick get away everything constantly bottom always mom think gay humiliates point break tell find later believe start lose friend time get kick sam billing table alone idea slip think bit longer talk dad move arizona leave mom stress jd convinces good person give peice mind talk bit get fight lose get make fun idea set stuck head go need mom humiliate apologizes know fake say probably tell fucker blindside gabriel snitch later night difficult conversation mom concern mental health go therapy summer year come school know jake summer hop least lunch nobody alone see sams table broken schedule say assemble every person tell gay kill something know need keep love even alone get word tell people say go kill attention switch flip hate always never forgive gabriel alex never bullshat way jakes friend austins life stay expand group think even try realize care self center asshole fair share toxicity take cake fault invite table see freshman show mannerism know need stop good friend stop understand get matter care anything make sure ok come top like matter first real friend trustworthy group friends gf life uphill problem stuck can not shake good person know lash divorce think good others anyways every part body want burn hell much read listen creep humility magic city john finish alot read say think narcisstic prick much self pity man say really healthy typical say john may able forgive need understand human live would wish feel bad enemy look good everything can not find say john know may think prideful narcisstic son bitch care people especially broken look mirror think long hard urself john mean view million way different people see think bad man accept thought mean picture paint sorry asshole people see ok ask john advice find light free never let pain darkness determine tell answer honestly therapize john happy meet jake truly great friend supportive glad someone like life fuck therapeutic bullshit john therapist hang hate anger life major bummer mean stubborn man thing want forgive forget can not john choice may sorry john let go fix ubdid john head never forgive john paint fucked picture alex gabriel good see saint enemies devil john enemy shittyiest shitty people john john problem let die promise lie john first suicide option never advise told gabriel alex john suppose want call hotline som suppose friend friend can not john want friend sorry decide even say anything take claim attention stunt say sorry explain kid urself john dark dark place feel sorry break fucked wish best jay anymore dark place thing fuck yes go help later gammbette jay gammbette kensuki word tell every morning gammbette best try japanese kensuki art use gold repair broken thing ik broken fixing something would recommend john happy fuckin john think want almost smell bullshit alarm john well issue nothing can not shit change view go let know right mean every word say john ig good term can not change hate can not forgive sorry can not forgive john take care jay hope find inner peace hope achieve nirvana goodbye fuck bullshit get eventually hope see</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>recently realize important variety freshness everyday life know many tip list possible particularly dark place thought would mention anyway perhaps something help thing help keep overwhelming bout anxiety ideation bay push wake little early stretch slowly deep breath take walk around neighborhood sky turn rosyyellow try appreciate new day think something anything look forward return home warm shower freshlylaundered clothes sleep little bit earlier wash sheet buy soft blanket make bed cozy sanctuary allot time read journalling clear mind allot time cook simple lovely meal steam fresh vegetable cook rice cut fruit salad apple banana citrus eat mindfully drink plenty water buy wellbound journal good quality pen write achievable todo list make calendar note grocery thought haikus anything put thought ink appreciate daily observation reorganize space least little section listen nice podcast put sheet pillowcase laundry clear shelf drawer sort everything replace neatly light lovely candle add fresh flower open window two buy borrow book topic spark even slightest interest crochet botany medieval history delve new topic sake worthwhile embrace noncompetitive hobby incredibly important productivityobsessed society devalues craftsmanship pure interest activity like follow enrich daily life force set aside time away mandatory task needlefelting garden write poem book article blog paint photography woodwhittling typography graphic design etc ensure whatever choose hobby involve hold fruit labor hand good career choice watch grow fun success hope well glad read wish warmth support</t>
+          <t>recently realize important variety freshness everyday life know many tip list possible particularly dark place thought would mention anyway perhaps something help thing help keep overwhelming bout anxiety ideation bay push wake little early stretch slowly deep breath take walk around neighborhood sky turn rosyyellow try appreciate new day think something anything look forward return home warm shower freshlylaundered clothes sleep little bit earlier wash sheet buy soft blanket make bed cozy sanctuary allot time read journalling clear mind allot time cook simple lovely meal steam fresh vegetable cook rice cut fruit salad apple banana citrus eat mindfully drink plenty water buy wellbound journal good quality pen write achievable todo list make calendar note grocery thought haikus anything put thought ink appreciate daily observation reorganize space least little section listen nice podcast put sheet pillowcase laundry clear shelf drawer sort everything replace neatly light lovely candle add fresh flower open window buy borrow book topic spark even slightest interest crochet botany medieval history delve new topic sake worthwhile embrace noncompetitive hobby incredibly important productivityobsessed society devalues craftsmanship pure interest activity like follow enrich daily life force set aside time away mandatory task needlefelting garden write poem book article blog paint photography woodwhittling typography graphic design etc ensure whatever choose hobby involve hold fruit labor hand good career choice watch grow fun success hope well glad read wish warmth support</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>oki idrk ig maybe wallow self pity really see alive anymore gf broke longer talk best friend good friend feel lonely time like drown feel like everyone leave one one maybe would help die least would someone care</t>
+          <t>oki idrk ig maybe wallow self pity really see alive anymore gf broke longer talk best friend good friend feel lonely time like drown feel like everyone leave maybe would help die least would someone care</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22 five foot behind pull back slide load ready help exterminate useless pathetic as exist useful act ill ever perform pussy pile shit can not even give comfort long sick try everyday knowing ill never even mediocre want end</t>
+          <t>foot behind pull back slide load ready help exterminate useless pathetic as exist useful act ill ever perform pussy pile shit can not even give comfort long sick try everyday knowing ill never even mediocre want end</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1456,12 +1456,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>urgent take 10400mg ibuprofen</t>
+          <t>urgent take mg ibuprofen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>borderline personality disorder episode count take 52 pill 200mg ibuprofen worry</t>
+          <t>borderline personality disorder episode count take pill mg ibuprofen worry</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sleep much lately wake heavy drowsiness despite able fall asleep want continue like want live life daily thought riddle shame regret disappointment anger worry much wish do differently talk anyone one would quite understand much easy say do compare oneself others forgive move past live day life age 25 circumstance poor decision make feel helpless powerless world hostile overly competitive parasitic delude turn illusion grandeur via religion loving god would allow atrocity world feel place belong wish make friend sooner anyone feel burden wish gotten job instead let pressure post secondary education money direction feel failure wish stand bad relationship self respect feel weak loser wish mature sooner far behind life feel can not catch wish confidence convince late make anything worthwhile foundation life rotten building rotten foundation recipe disaster wish good family well community well world live wish good person matter anyone say believe much change like others wish can not use social medium floor see others thing want see result good choice make wish life easy people kinder mistake could undo wish feel time long since learn matter think want power influence real drive leave change</t>
+          <t>sleep much lately wake heavy drowsiness despite able fall asleep want continue like want live life daily thought riddle shame regret disappointment anger worry much wish do differently talk anyone would quite understand much easy say do compare oneself others forgive move past live day life age circumstance poor decision make feel helpless powerless world hostile overly competitive parasitic delude turn illusion grandeur via religion loving god would allow atrocity world feel place belong wish make friend sooner anyone feel burden wish gotten job instead let pressure post secondary education money direction feel failure wish stand bad relationship self respect feel weak loser wish mature sooner far behind life feel can not catch wish confidence convince late make anything worthwhile foundation life rotten building rotten foundation recipe disaster wish good family well community well world live wish good person matter anyone say believe much change like others wish can not use social medium floor see others thing want see result good choice make wish life easy people kinder mistake could undo wish feel time long since learn matter think want power influence real drive leave change</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>hi everyone really even mood want alone breakdown consider suicide think overreact something want judge right ask little judgement towards please right want peace today bos year tell relocating say body odor talk january tell best told today well today bad since absolutely devastate depression schizophrenia still brush hair brush teeth use deodorant body spray shower often bad memory younger severe eczema skin would burn peel water touch terrified shower know responsibility take care hard try one seem care try also know bos stress lately feel like forgot tell january snapping also send email january conversation hygiene one reluctant conversation believe would rectify situation past week hygiene become issue sure able assist figure go resolve problem sure great member team want continue work office even sure want anymore feel really good today change clothes use deodorant body spray brush hair first time day also get first car tomorrow thought could week actually felt hopeful know overreact feel horrible call dad cry tell fault try hurt tell even call anyone hung really tire consider overdose clock work today plenty zoloft plenty buspar one dose hydrocodone regret dog campus ask dad come pick act like ask move mountain even though pay gas food bill tell wait tomorrow would go work tomorrow really want die feel awful feel like worthy love feel like worthy respect exhaust feel would better dead bos would deal</t>
+          <t>hi everyone really even mood want alone breakdown consider suicide think overreact something want judge right ask little judgement towards please right want peace today bos year tell relocating say body odor talk january tell best told today well today bad since absolutely devastate depression schizophrenia still brush hair brush teeth use deodorant body spray shower often bad memory younger severe eczema skin would burn peel water touch terrified shower know responsibility take care hard try seem care try also know bos stress lately feel like forgot tell january snapping also send email january conversation hygiene reluctant conversation believe would rectify situation past week hygiene become issue sure able assist figure go resolve problem sure great member team want continue work office even sure want anymore feel really good today change clothes use deodorant body spray brush hair first time day also get first car tomorrow thought could week actually felt hopeful know overreact feel horrible call dad cry tell fault try hurt tell even call anyone hung really tire consider overdose clock work today plenty zoloft plenty buspar dose hydrocodone regret dog campus ask dad come pick act like ask move mountain even though pay gas food bill tell wait tomorrow would go work tomorrow really want die feel awful feel like worthy love feel like worthy respect exhaust feel would better dead bos would deal</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>yesterday mom take disney event free ticket 21 say could invite two friend invite two girl 21 18 really pretty boyfriend even photos post 3 u together guy say hot conveniently leave anorexia mom take pic u hang today say look picture look like 12 year old two babysitter beautiful look care deal sad thought shit suck embarrassment antisocial friend seem fun antisocial would want friend really wits end wish could sleep pain away never stop never stop</t>
+          <t>yesterday mom take disney event free ticket say could invite friend invited girl really pretty boyfriend even photo post u together guy say hot conveniently leave anorexia mom take pic u hang today say look picture look like year old babysitter beautiful look care deal sad thought shit suck embarrassment antisocial friend seem fun antisocial would want friend really wits end wish could sleep pain away never stop never stop</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>feel like absolute shit depress suicidal lately boyfriend break get mental health mine hurt much still love eachother scar lose always know would kill broke know dumbass everything else go downhill can not anymore much coward cry nonstop since broke can not eat anything hate body nauseous since break everything reminds hurt much though everything suck can not get job disappointment everyone life really can not anymore even meda anymore even though doubt would help really think overdose know would work time tried work either hate life much well eventually tell forever whenever get bit good get lot worse immediately can not anymore edit throwaway account people know know edit 2 realised life literally mean anymore goal unhappy nothing enjoy want die literally stay alive people</t>
+          <t>feel like absolute shit depress suicidal lately boyfriend break get mental health mine hurt much still love eachother scar lose always know would kill broke know dumbass everything else go downhill can not anymore much coward cry nonstop since broke can not eat anything hate body nauseous since break everything reminds hurt much though everything suck can not get job disappointment everyone life really can not anymore even meda anymore even though doubt would help really think overdose know would work time tried work either hate life much well eventually tell forever whenever get bit good get lot worse immediately can not anymore edit throwaway account people know know edit realise life literally mean anymore goal unhappy nothing enjoy want die literally stay alive people</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>good bird sing morning aroma flower entice smell long time manage clean room get rid giant stack clothes water bottle collection open curtain let sun radiate small lumpy mattress lose 5 pound 2 week eat right hit gym go way interact people like use love plan make cheesecake niece make strawberry flower realize pointless never go happy guess go like swing bro indecisive whether buy poison release shackle existence countless time return prison cell face like man either way way</t>
+          <t>good bird sing morning aroma flower entice smell long time manage clean room get rid giant stack clothes water bottle collection open curtain let sun radiate small lumpy mattress lose pound week eat right hit gym go way interact people like use love plan make cheesecake niece make strawberry flower realize pointless never go happy guess go like swing bro indecisive whether buy poison release shackle existence countless time return prison cell face like man either way way</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1575,12 +1575,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>swallow like 15 random pill</t>
+          <t>swallow like random pill</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>hi everyone know start 23 6th year college major engineering physic even want go since kid obsess computer art parent think future prospect whatsoever 6 year deep college fail parent disappointed angry today skip exam can not drag campus least show felt horrible can not stand take med start swallow time cut manage shallow cut bleed minute today want try new method know 15 pill enough hope woke parent read love guy sorry disappointment thanks everything</t>
+          <t>hi everyone know start th year college major engineering physic even want go since kid obsess computer art parent think future prospect whatsoever year deep college fail parent disappointed angry today skip exam can not drag campus least show felt horrible can not stand take med start swallow time cut manage shallow cut bleed minute today want try new method know pill enough hope woke parent read love guy sorry disappointment thanks everything</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>time can not really hide last time happen able hide friend beach two clase year four never really see slip depression fact notice first time really really bad come conclusion start cut exactly wrong even ounce every two week reason think bully people less kind really know much mental state think something anything without freak suicidal tendency</t>
+          <t>time can not really hide last time happen able hide friend beach clase year never really see slip depression fact notice first time really really bad come conclusion start cut exactly wrong even ounce every week reason think bully people less kind really know much mental state think something anything without freak suicidal tendency</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>knew would last long ok story time last heard say leave sub cripple addiction self harm want die needless say something wrong explain enjoy youtube saw beautiful illymations trigger song snip skin year long clean streak confuse go four month cut time gain handy dandy addiction use anything could get hand one day dog bite really hard go floor cry think everyone hate even dog really want die every day schedule every day wake snooze till make lunch never eat breakfast switch tshirts bike school say hi cross guard go class feeling like garbage cut pe english biking home feeling like failure eat apathetic homework till pass like two page wake homework go bed 2 waking become really shady go target razor blades 8 pm wear hoodies everywhere feel bad writing</t>
+          <t>knew would last long ok story time last heard say leave sub cripple addiction self harm want die needless say something wrong explain enjoy youtube saw beautiful illymations trigger song snip skin year long clean streak confuse go month cut time gain handy dandy addiction use anything could get hand day dog bite really hard go floor cry think everyone hate even dog really want die every day schedule every day wake snooze till make lunch never eat breakfast switch tshirts bike school say hi cross guard go class feeling like garbage cut pe english biking home feeling like failure eat apathetic homework till pass like page wake homework go bed wake become really shady go target razor blade pm wear hoodies everywhere feel bad writing</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>first mad wondering could think life worthless enough choose kill mean depress know mean actually kill dead friend steam see last logged day always get far first two day week two week four week never go log dead wonder right thing life fuck hard get job go back school get license want sense doom feel everywhere go everything thing seem worthless sorry place almost 5am can not fall asleep</t>
+          <t>first mad wondering could think life worthless enough choose kill mean depress know mean actually kill dead friend steam see last logged day always get far first day week week week never go log dead wonder right thing life fuck hard get job go back school get license want sense doom feel everywhere go everything thing seem worthless sorry place almost can not fall asleep</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>give disclaimer start 50mg 3 week ago go fix every issue life feel tire unhappy unmotivated anything term self help</t>
+          <t>give disclaimer start mg week ago go fix every issue life feel tire unhappy unmotivated anything term self help</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>hi eighth grader magnet school add attention deficit disorder symptom depression suicidal past 3 year slowly less less motivated anything even enjoy want go sleep forever forget stress school difficult social life get stressed school stake go mom constantly remind failure get many b help friend begin ignore start middle school new good people hang treat like tagalong former best friend talk listen bore nobody else talk start thought suicide near end seventh grade really gotten bad year expect friend cast away decide finally talk someone year since previous hint need help go unnoticed mom day felt low mentally tell mom suicidal break cry hug however say ever even think kill know would little upset reaction seem concerned kept tell tell think depression dismiss stress say would stop start positive take aback love mother lot never good give advice help mental health get mad begin yell never understand help feeling little extreme anger irrational yell back something try help grief counselor 1 help much 2 help u deal grief family death help suicidalness make feel worthless yell want tell want talk go grade tell learn deal emotion well etc run cry continue homework minute later come phone dad call tell mad focus homework need hurry finish stop cry keep cry upset help minute later dad arrives upset work project waste time keep cry start yell stop cry stop tear well eye love dad can not control anger well follow parent way discipline grow lecture start claw arm calm like always notice leave scar arm get angrier tell stop say want really upset say nothing avoid argument get finish project say care loved left discussion mental state mom call start cry later mad time tell go sleep feel well feel well slept need get consider suicide lot know help everywhere like hotlines help need people care talk lose grandma december 2018 cancer listen care one know friends listen feel like think talk sad stuff much need know honestly know anymore people care can not help feel worthless never know talk get talk friends look different friend look lose bored like want hurry get go back talk people need advice read whole vent amaze person hope wonderful day</t>
+          <t>hi eighth grader magnet school add attention deficit disorder symptom depression suicidal past year slowly less less motivated anything even enjoy want go sleep forever forget stress school difficult social life get stressed school stake go mom constantly remind failure get many b help friend begin ignore start middle school new good people hang treat like tagalong former best friend talk listen bore nobody else talk start thought suicide near end seventh grade really gotten bad year expect friend cast away decide finally talk someone year since previous hint need help go unnoticed mom day felt low mentally tell mom suicidal break cry hug however say ever even think kill know would little upset reaction seem concerned kept tell tell think depression dismiss stress say would stop start positive take aback love mother lot never good give advice help mental health get mad begin yell never understand help feeling little extreme anger irrational yell back something try help grief counselor help much help u deal grief family death help suicidalness make feel worthless yell want tell want talk go grade tell learn deal emotion well etc run cry continue homework minute later come phone dad call tell mad focus homework need hurry finish stop cry keep cry upset help minute later dad arrives upset work project waste time keep cry start yell stop cry stop tear well eye love dad can not control anger well follow parent way discipline grow lecture start claw arm calm like always notice leave scar arm get angrier tell stop say want really upset say nothing avoid argument get finish project say care loved left discussion mental state mom call start cry later mad time tell go sleep feel well feel well slept need get consider suicide lot know help everywhere like hotlines help need people care talk lose grandma december cancer listen care know friend listen feel like think talk sad stuff much need know honestly know anymore people care can not help feel worthless never know talk get talk friends look different friend look lose bored like want hurry get go back talk people need advice read whole vent amaze person hope wonderful day</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>girlfriend write letter agree share letter depress lover see know man love sought joy man felt deserve happiness blindfold hold hostage cold chain windowless basement tyrant thrive suffer time feel like hope time feel like escape weaken exhaustion take body mind soul question whether ever strong enough fight mighty tyrant escape grip darkness ever able feel sun stroke skin ever see light ever feel love get never ask one would tyrant illegitimate ruler control oppression tyranny fair understand cruel tyrant want weaken choice succumb brainwash come term reign long threat tyrant want think strong ever beat mighty outthink present escape let tell something tyrant anger hate always stem fear pain behind every tyrant hurt child behind every tyrant voice unheard heart broken eye blind tyrant want see light light take want know love love take want hurt hurt tyranny defeat tyranny defeat force often pave way another form tyranny want kill tyrant leave blood hand trauma soul kill hide point fight way darkness make way another form darkness tyrant defeat force defeat love know love strong enough turn around man love find joy little thing touch grass foot sight bird tree sound stick fall icy water man love surprise unapologetically original passionate dot natural humour man love care emotional intelligence make anyone around feel see heard love man love wise offer advice never know need ray sunshine anyones day man love lighten entire room soothe even deep worry care attention man love love strongly unconditionally powerfully make anyones darkness fade away anyone go bring tyrant man love love make tyrant feel see make feel comfortable enough talk comfortable enough tell pain lead tyranny face love powerful unconditional love acceptance free judgment tyrant able start face action able start realise along cause suffer reason nothing never fault cause suffer suffer realisation spring upon remove blindfold see face worry mask tyrant originally wear trouble wish anymore though unchain remove mask realise along tyrant child suddenly anger felt towards tyrant vanish man fair love man believe punishment revenge man forgive man recognise child simply need hold love nurtured take child hand first fearful hurt say hurt give word promise safe deep heart know tell truth child weep arm hold tight tell love heard see moment forward never alone come basement child hand hand although first feel like relief easy see sun long light feel blind uncomfortable body still feel weak barely feel able look start wonder could possibly look child surprise small pleasure enjoy feel cool grass underneath foot find strength enough strength lift carry child start walk challenge worry step might last step worry might fall never find strength get back keep put foot front start feel natural eventually look realise sun blind first come see path know get home way home worry bring child back might much burden want love tyrant could love even love anymore go long stop wait give find someone else end hurt child already hurt time wait worry cry disappear suddenly never understood happen make mission find day night try save call thousand time searched clue every corner even try negotiate tyrant avail anger tried get help one could help end left weaken realise exhaust help thing could stop try save trust would able save wait held space nourish space could come back love nurture home one could one day feel whole heal come home welcome little boy open arm love learn love little girl hold hostage basement truth already know little boy see shadow already grow love also know little girl living home throughout entire relationship love much although first afraid afraid would hurt grow love learn trust go long begin worry worried perhaps would never come back worried perhaps want come back u perhaps want another home different home perhaps stop love u reassure tell love share hour day spend look others eyes time stand still world around u vanish questioned every day could lucky love true love ever know love deepest love ever know know love like never go away one day little girl meet little boy love much love four u build home whole fear replace trust anger replace love tyranny nothing distant memory go happen overnight want exhaust try come home want run fall want make wise calculate step slowly surely come back u could would basement want force basement little girl turn tyrant home collapse although darkness know still see still hold fort wait find strength love tyrant unconditionally bring home u nurture heal learn fearlessly trust u</t>
+          <t>girlfriend write letter agree share letter depress lover see know man love sought joy man felt deserve happiness blindfold hold hostage cold chain windowless basement tyrant thrive suffer time feel like hope time feel like escape weaken exhaustion take body mind soul question whether ever strong enough fight mighty tyrant escape grip darkness ever able feel sun stroke skin ever see light ever feel love get never ask would tyrant illegitimate ruler control oppression tyranny fair understand cruel tyrant want weaken choice succumb brainwash come term reign long threat tyrant want think strong ever beat mighty outthink present escape let tell something tyrant anger hate always stem fear pain behind every tyrant hurt child behind every tyrant voice unheard heart broken eye blind tyrant want see light light take want know love love take want hurt hurt tyranny defeat tyranny defeat force often pave way another form tyranny want kill tyrant leave blood hand trauma soul kill hide point fight way darkness make way another form darkness tyrant defeat force defeat love know love strong enough turn around man love find joy little thing touch grass foot sight bird tree sound stick fall icy water man love surprise unapologetically original passionate dot natural humour man love care emotional intelligence make anyone around feel see heard love man love wise offer advice never know need ray sunshine anyones day man love lighten entire room soothe even deep worry care attention man love love strongly unconditionally powerfully make anyones darkness fade away anyone go bring tyrant man love love make tyrant feel see make feel comfortable enough talk comfortable enough tell pain lead tyranny face love powerful unconditional love acceptance free judgment tyrant able start face action able start realise along cause suffer reason nothing never fault cause suffer suffer realisation spring upon remove blindfold see face worry mask tyrant originally wear trouble wish anymore though unchain remove mask realise along tyrant child suddenly anger felt towards tyrant vanish man fair love man believe punishment revenge man forgive man recognise child simply need hold love nurtured take child hand first fearful hurt say hurt give word promise safe deep heart know tell truth child weep arm hold tight tell love heard see moment forward never alone come basement child hand hand although first feel like relief easy see sun long light feel blind uncomfortable body still feel weak barely feel able look start wonder could possibly look child surprise small pleasure enjoy feel cool grass underneath foot find strength enough strength lift carry child start walk challenge worry step might last step worry might fall never find strength get back keep put foot front start feel natural eventually look realise sun blind first come see path know get home way home worry bring child back might much burden want love tyrant could love even love anymore go long stop wait give find someone else end hurt child already hurt time wait worry cry disappear suddenly never understood happen make mission find day night try save call time search clue every corner even try negotiate tyrant avail anger tried get help could help end left weaken realise exhaust help thing could stop try save trust would able save wait held space nourish space could come back love nurturing home could day feel whole heal come home welcome little boy open arm love learn love little girl hold hostage basement truth already know little boy see shadow already grow love also know little girl living home throughout entire relationship love much although first afraid afraid would hurt grow love learn trust go long begin worry worried perhaps would never come back worried perhaps want come back u perhaps want another home different home perhaps stop love u reassure tell love share hour day spend look others eyes time stand still world around u vanish questioned every day could lucky love true love ever know love deepest love ever know know love like never go away day little girl meet little boy love much love u build home whole fear replace trust anger replace love tyranny nothing distant memory go happen overnight want exhaust try come home want run fall want make wise calculate step slowly surely come back u could would basement want force basement little girl turn tyrant home collapse although darkness know still see still hold fort wait find strength love tyrant unconditionally bring home u nurture heal learn fearlessly trust u</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>past month mental health get bad know two friend want put blame met one begin school year one know never really talk really nice lot fun hang school since bus time go kind get mean one would sometimes slap punch stomach would stand would like react something one confuse since one day would praise say smart good everything next day like fuck dumb idiot smart like suppose know even know fuck anything make clear never really liked type compliment since make uncomfortable since like sudden meet expectation something feel like problem overreact try distance bus next hear talk shit keep around talk still talk ask ignore u probably overreact need advice since get anxious say get head sometimes sorry really good explain thing get confuse sorry</t>
+          <t>past month mental health get bad know friend want put blame meet begin school year know never really talk really nice lot fun hang school since bus time go kind get mean would sometimes slap punch stomach would stand would like react something confuses since day would praise say smart good everything next day like fuck dumb idiot smart like suppose know even know fuck anything make clear never really liked type compliment since make uncomfortable since like sudden meet expectation something feel like problem overreact try distance bus next hear talk shit keep around talk still talk ask ignore u probably overreact need advice since get anxious say get head sometimes sorry really good explain thing get confuse sorry</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>clinically depressed 3 year actually push demand solitude run people talk heart disease ihave slowly lose weight eat good doctor ask routine question degree graduate good money enough buy home say matter degree get become engineer much money plan get dead early able even attempt achieve enjoy authorize give personal opinion part want right</t>
+          <t>clinically depressed year actually push demand solitude run people talk heart disease ihave slowly lose weight eat good doctor ask routine question degree graduate good money enough buy home say matter degree get become engineer much money plan get dead early able even attempt achieve enjoy authorize give personal opinion part want right</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>last two year think depression day ago diagnose depression start think depression bitch know tell case weird thing last month increasingly feel well life shit becausd miss lit school worry lot normal feel fine feel depress could temporary mean depression thing give pill thing want take pill might fuck feel ok atm advice need make decision fast</t>
+          <t>last year think depression day ago diagnose depression start think depression bitch know tell case weird thing last month increasingly feel well life shit becausd miss lit school worry lot normal feel fine feel depress could temporary mean depression thing give pill thing want take pill might fuck feel ok atm advice need make decision fast</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8 month ago love life leave put everything salvaging relationship end even offer uproot whole life enough sunk really low friend help everything power help go theropy bit find far stressful useful turn self help book start think positively bit confidence self felt like genuinely self improve countied day ago get reject someone really care go well far reflection make progress goal set fix even though put effort little confidence gain shatter last day though sueicde lot point go work anymore point friend move life point feel reach burden anyways close family know depress would tell suck believe religion likely live computer simulation nothing matter go go die alone wait happen naturally</t>
+          <t>month ago love life leave put everything salvaging relationship end even offer uproot whole life enough sunk really low friend help everything power help go theropy bit find far stressful useful turn self help book start think positively bit confidence self felt like genuinely self improve countied day ago get reject someone really care go well far reflection make progress goal set fix even though put effort little confidence gain shatter last day though sueicde lot point go work anymore point friend move life point feel reach burden anyways close family know depress would tell suck believe religion likely live computer simulation nothing matter go go die alone wait happen naturally</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>can not fcking take long post probably help much desperate try anything glimpse hope confuse can not even write proper text beg help simple act become complex overwhelming try write coherent possible since english main language seem lose intelligence please forgive start get confuse basically idea depression get bad see way besides end feel pleasure ever even masturbate give pleasure feel like shit daily basis overwhelm sadness anxiety rage paranoia overwhelm suicidal thought even homicidal thought want hurt anyone besides thought failure 18 still virgin fat freak time join gym find give week later social skill well yet skills life illuded teacher parent friend think smart average bad thing good thing saw smart dumb piece shit tried everything could treat depression nothing seem work meditation minimum 30 minute per day medication multiple antipsychotic antidepressant benzodiazepine psychedelic drug lsd magic mushroom dmt name probably try go psychologist psychiatrist feel well probably worse start bad part even remember start would say abuse drug much mainly smoke bit weed every mostly weekend regard psychedelics do rarely every bit damage reduction could think perhaps indeed disrespect bit mostly take without prior plan lead uncomfortable set setting since can not enjoy anymore panic mind instantly tell take xanax benzo get hand however abuse xanax much end hospital couple time take much black school fuck reputation school friend try help much could mind fucked confused nothing seem help text get long still much say try make long get bore quickly grade hill currently 12th grade fail honestly can not stand another year school rather hang go specially since live isolate island middle nowhere resource limit nothing chance get girlfriend anywhere honest nobody would love fat piece shit like life unbearable see reason stay alive day play fcking lol let tell hate game much make blood boil give urges cut wrist can not make basic mathphysicschemistryetc make feel even bad cuz need get college understand shit school since can not study focus mind bombard horrible thought echo mind till put sleep control mind anymore start learn guitar end give tried learn program overwhelm start lose motivation much motivation general backstory kid get shot eye air pressure carabine leave 10 vision say eye make get fat cuz could exercise 23 year end get bad lifestyle general day computer play game combine trauma go throught midly toxic family lead become disgust person could think know get much information confuse please forgive retard right think kill tried pill end fail time think hang eventually think make blood boil hate life much hate fuck family hate fuck school hate want shoot head end</t>
+          <t>can not fcking take long post probably help much desperate try anything glimpse hope confuse can not even write proper text beg help simple act become complex overwhelming try write coherent possible since english main language seem lose intelligence please forgive start get confuse basically idea depression get bad see way besides end feel pleasure ever even masturbate give pleasure feel like shit daily basis overwhelm sadness anxiety rage paranoia overwhelm suicidal thought even homicidal thought want hurt anyone besides thought failure still virgin fat freak time join gym find give week later social skill well yet skills life illuded teacher parent friend think smart average bad thing good thing saw smart dumb piece shit tried everything could treat depression nothing seem work meditation minimum minute per day medication multiple antipsychotic antidepressant benzodiazepine psychedelic drug lsd magic mushroom dmt name probably try go psychologist psychiatrist feel well probably worse start bad part even remember start would say abuse drug much mainly smoke bit weed every mostly weekend regard psychedelics do rarely every bit damage reduction could think perhaps indeed disrespect bit mostly take without prior plan lead uncomfortable set setting since can not enjoy anymore panic mind instantly tell take xanax benzo get hand however abuse xanax much end hospital couple time take much black school fuck reputation school friend try help much could mind fucked confused nothing seem help text get long still much say try make long get bore quickly grade hill currently th grade fail honestly can not stand another year school rather hang go specially since live isolate island middle nowhere resource limit nothing chance get girlfriend anywhere honest nobody would love fat piece shit like life unbearable see reason stay alive day play fcking lol let tell hate game much make blood boil give urges cut wrist can not make basic mathphysicschemistryetc make feel even bad cuz need get college understand shit school since can not study focus mind bombard horrible thought echo mind till put sleep control mind anymore start learn guitar end give tried learn program overwhelm start lose motivation much motivation general backstory kid get shot eye air pressure carabine leave vision say eye make get fat cuz could exercise year end get bad lifestyle general day computer play game combine trauma go throught midly toxic family lead become disgust person could think know get much information confuse please forgive retard right think kill tried pill end fail time think hang eventually think make blood boil hate life much hate fuck family hate fuck school hate want shoot head end</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>previously post rassistance get debt resell stuff everything go well want make order thing already get pay accidentally deposit phishing site look acted exactly like original one instead 2000 usd debt 12000 usd debt yesterday first suicide attempt would successfull dad come early work five minute would dead know good die</t>
+          <t>previously post rassistance get debt resell stuff everything go well want make order thing already get pay accidentally deposit phishing site look acted exactly like original instead usd debt usd debt yesterday first suicide attempt would successfull dad come early work minute would dead know good die</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>kind hole almost 4 month work get high go friend anymore leave house anymore buy weed get kind anxious people bitter general anyone relate tip get therapy promise every night tomorrow different usually last like day two go back bed</t>
+          <t>kind hole almost month work get high go friend anymore leave house anymore buy weed get kind anxious people bitter general anyone relate tip get therapy promise every night tomorrow different usually last like day go back bed</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1949,12 +1949,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sarscov2</t>
+          <t>sarscov</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bad kind want catch virus already lot health condition die virus oh well tragic get odds get pretty high anyway see live epicenter u outbreak go public work already burden everyone around inconvenience pain dramatic right complain want annoy around say anything accidentally let something way feel disproportionate severity problem die covid19 would solve honestly really want die especially suffocation pneumonia feel inevitable right sorry rant read end good night wash hand maybe end thing sooner</t>
+          <t>bad kind want catch virus already lot health condition die virus oh well tragic get odds get pretty high anyway see live epicenter u outbreak go public work already burden everyone around inconvenience pain dramatic right complain want annoy around say anything accidentally let something way feel disproportionate severity problem die covid would solve honestly really want die especially suffocation pneumonia feel inevitable right sorry rant read end good night wash hand maybe end thing sooner</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>oh relationship one know seem cliché happens right make take kitchen knife go bedroom alone know check morning make sound notice wish easy cut one least reliable method one much effort</t>
+          <t>oh relationship know seem cliche happens right make take kitchen knife go bedroom alone know check morning make sound notice wish easy cut least reliable method one much effort</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>reason drink self medicate saw friend pas away car accident 19 stupid challenge race use parent car basically understeered tree tried therapy work also diagnose ptsd depression stop take prescription work feel blood hand one make parent grandfather come told worried drinking problem sometimes drink bottle vodka day want drink death scared kill granddad try relate situation tell thing vietnam walk upset everything think order would anything apologise time feel buy grandfather along get parkinson disease want worry well</t>
+          <t>reason drink self medicate saw friend pas away car accident stupid challenge race use parent car basically understeered tree tried therapy work also diagnose ptsd depression stop take prescription work feel blood hand make parent grandfather come told worried drinking problem sometimes drink bottle vodka day want drink death scared kill granddad try relate situation tell thing vietnam walk upset everything think order would anything apologise time feel buy grandfather along get parkinson disease want worry well</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>hi sure one thing ask definite answer sure experience truly suicidal thought feel sad become thankful try express god thanks give feel guilty spending time self harm self destructive feel never able truly convey thankful give back square one wishing never bear would thoughts emotion really care anything many thought wish could disappear wish less every possible way want alive feel emotion feel often contemplate different way kill moreso wish bear first place hop someday something else happen make decision majority thought wish dead never bear even happy wish could stop feel answer death way feeling consider suicidal thank read comment appreciate answered</t>
+          <t>hi sure thing ask definite answer sure experience truly suicidal thought feel sad become thankful try express god thanks give feel guilty spending time self harm self destructive feel never able truly convey thankful give back square wishing never bear would thoughts emotion really care anything many thought wish could disappear wish less every possible way want alive feel emotion feel often contemplate different way kill moreso wish bear first place hop someday something else happen make decision majority thought wish dead never bear even happy wish could stop feel answer death way feeling consider suicidal thank read comment appreciate answered</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>another thing mom recommend consider grief therapy group normal therapy group think still grieve might process group many time sometimes felt okay others idea deal far cripple depression time bad home life bpd point either one therapists seem like really know help like maybe personality case level actually consider get back group know maybe time actually help try closed get bad start shift personality interact mom anyone call hope make sense hope guy comfortable day send good vibe way</t>
+          <t>another thing mom recommend consider grief therapy group normal therapy group think still grieve might process group many time sometimes felt okay others idea deal far cripple depression time bad home life bpd point either man_facepalming therapist seem like really know help like maybe personality case level actually consider get back group know maybe time actually help try closed get bad start shift personality interact mom anyone call hope make sense hope guy comfortable day send good vibe way</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>hi first post sub loss feed feel numb tire like want exist brain fog can not think straight try everything take pill therapy seek advice nothing seem help like job also want resign without anything else line expert forums advice system suggest try think positive manner really try feel hopeless get 5 minute maybe ok immediately back grey reality start apply new job current manager suggest get year end still feel way perhaps look elsewhere kind see point actually try year end stay impress 11 later guess find time leave anyone anyone help sorry brain dump cheer</t>
+          <t>hi first post sub loss feed feel numb tire like want exist brain fog can not think straight try everything take pill therapy seek advice nothing seem help like job also want resign without anything else line expert forums advice system suggest try think positive manner really try feel hopeless get minute maybe ok immediately back grey reality start apply new job current manager suggest get year end still feel way perhaps look elsewhere kind see point actually try year end stay impress later guess find time leave anyone anyone help sorry brain dump cheer</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>reason severe depression cure never get well 30 year old virgin still know make friend talk girl able focus get field wantso stuck crappy job fire crappy job 9 late much late almost every day can not sleep nd can not get bed morning massive debt due school loan car repair stupid bank account 111 could afford make account positive today bank would waive fee one day can not basically can not manage time money sleep social life call heregame get pay friday go buy gun go make sure cat plenty food water someone take go treat whatever want best last meal afford go get drunk hell end end fade black pain</t>
+          <t>reason severe depression cure never get well year old virgin still know make friend talk girl able focus get field wantso stuck crappy job fire crappy job late much late almost every day can not sleep nd can not get bed morning massive debt due school loan car repair stupid bank account could afford make account positive today bank would waive fee day can not basically can not manage time money sleep social life call heregame get pay friday go buy gun go make sure cat plenty food water someone take go treat whatever want best last meal afford go get drunk hell end end fade black pain</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>10th grade start lose memory develop painful symptom limbs immediately know extremely serious possibly terminal every month would get sick remain way past 6 year get bad every month disease become severe can not continue school study cognitive impairment barely eat anything without get pain impossible gain weighti barely walk outside shortness breath can not leave house summerthe disease extremely painful disable every day battle pain control symptom several doctor diagnose neurological disease say untreatable curable past week visit gun shop lie parent tell go gym everyone treat like crap especially parent body reach physical limit can not endure pain disease impossible go buy gun kill</t>
+          <t>th grade start lose memory develop painful symptom limbs immediately know extremely serious possibly terminal every month would get sick remain way past year get bad every month disease become severe can not continue school study cognitive impairment barely eat anything without get pain impossible gain weighti barely walk outside shortness breath can not leave house summerthe disease extremely painful disable every day battle pain control symptom several doctor diagnose neurological disease say untreatable curable past week visit gun shop lie parent tell go gym everyone treat like crap especially parent body reach physical limit can not endure pain disease impossible go buy gun kill</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>day feel like want kill self find hard carry sometimes speak well people yesterday help 3 month wait talk one phone</t>
+          <t>day feel like want kill self find hard carry sometimes speak well people yesterday help month wait talk phone</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>come 4 way go 1 overdose 2 cop 3 bridge 4 train</t>
+          <t>come way go overdose cop bridge train</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>since young mom person take care dad leave baby however summer freshman year parent agree move together share apartment could parent dad make clear change well go deadbeat anymore arrangement last year half however dad recently move two week ago dad leave hurt lot felt like build enough relationship never really get point could tell personal stuff especially feel decision leave add stress anxiety yesterday straw break camel back erupted school end violent altercation another student push wall head start bleed lot immediately go apologize say hard feeling suspend five day mom furious find last two day repeatedly tell give dream say place ever end prison never shit give dad can not handle anymore make suffer</t>
+          <t>since young mom person take care dad leave baby however summer freshman year parent agree move together share apartment could parent dad make clear change well go deadbeat anymore arrangement last year half however dad recently move week ago dad leave hurt lot felt like build enough relationship never really get point could tell personal stuff especially feel decision leave add stress anxiety yesterday straw break camel back erupted school end violent altercation another student push wall head start bleed lot immediately go apologize say hard feeling suspend day mom furious find last day repeatedly tell give dream say place ever end prison never shit give dad can not handle anymore make suffer</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>felt like jump high rise building almost go near edge know make back anti depressant since 2 year cop well since mom pass away last month age 50 finding mean life right feel numb heart pound feel terrible</t>
+          <t>felt like jump high rise building almost go near edge know make back anti depressant since year cop well since mom pass away last month age find mean life right feel numb heart pound feel terrible</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>matter much struggle always end feel awful get track pursue goal want study physic country literally one decent uni study physic chance go abroad master phd kind confident intelligence think good chance get like think feel tire tend spend life dissociative fugue state make sense feel anxiety force think analytically also feel like can not ask help anyone around mostly stoic person infamous show outward emotion people mostly get amused upset enrages sorry make sense english secondary language trouble express word</t>
+          <t>matter much struggle always end feel awful get track pursue goal want study physic country literally decent uni study physic chance go abroad master phd kind confident intelligence think good chance get like think feel tire tend spend life dissociative fugue state make sense feel anxiety force think analytically also feel like can not ask help anyone around mostly stoic person infamous show outward emotion people mostly get amused upset enrages sorry make sense english secondary language trouble express word</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>title say full upper body workout cope thought head blast twenty one pilot today pretty shit day bad hair entire day shit get home voice return kept tell piece shit get one question learn love</t>
+          <t>title say full upper body workout cope thought head blast pilot sign_of_the_horns today pretty shit day bad hair entire day shit get home voice return kept tell piece shit get question learn love</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>hi 22 year old working software engineer last 3 day get emotionally triggerred reading manga potrays loneliness pedophilic romantic relationship know sound exaggereative andor trashy expect manga would push button deep inside hard would weep uncontrollably suicidal thought due tragic content manga emotionally trigger resonates deep within subconscious long relationship potrayed pedophile last 3 day able function properly work idea shake head</t>
+          <t>hi year old working software engineer last day get emotionally triggerred reading manga potrays loneliness pedophilic romantic relationship know sound exaggereative andor trashy expect manga would push button deep inside hard would weep uncontrollably suicidal thought due tragic content manga emotionally trigger resonates deep within subconscious long relationship potrayed pedophile last day able function properly work idea shake head</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2289,12 +2289,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>cake day today mark 1 year since leave abusive relationship</t>
+          <t>cake day today mark year since leave abusive relationship</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1 year ago leave good reddit lurker never make account day leave felt free yet lonely ever felt completely lose confuse make reddit account day year ago find comfort platform person year ago hard piece together learn many thing along way still grow work still long way go feel way well year ago happy cake day</t>
+          <t>year ago leave good reddit lurker never make account day leave felt free yet lonely ever felt completely lose confuse make reddit account day year ago find comfort platform person year ago hard piece together learn many thing along way still grow work still long way go feel way well year ago happy cake day</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>get traction every little give false sense hope come crash feel like pussy end right fuck negative shit want life fuck happiness get depression six year hope god get good</t>
+          <t>get traction every little give false sense hope come crash feel like pussy end right fuck negative shit want life fuck happiness get depression year hope god get good</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>brutally rap 2 month best friend boyfriend best friend die cancer month later boyfriend message say need friend go night place regret ever drug rap next morning threaten told keep give want would kill terrified 2 month every day let abuse rape fear eventually start get drunk would pass would wake bloody bruise would wake ready fuck head experience find miss hate thought never go away want think way anymore try everything nothing work want die never feel way year feel way void call name</t>
+          <t>brutally raped month best friend boyfriend best friend die cancer month later boyfriend message say need friend go night place regret ever drug rap next morning threaten told keep give want would kill terrified month every day let abuse rape fear eventually start get drunk would pass would wake bloody bruise would wake ready fuck head experience find miss hate thought never go away want think way anymore try everything nothing work want die never feel way year feel way void call name</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>bully school year especially high school time think dark part life early 30 consider time good old day really go show low sank</t>
+          <t>bully school year especially high school time think dark part life early consider time good old day really go show low sank</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>depression bad recently try desperately find therapist people usually go told 9 month wait list honestly think able wait long suggest someone else check website applied therapy manage book assessment appointment next month sleep easy last night think would get help soon wake morning notification phone say cancel appointment longer help people area sick try help know fault able help brief feeling hope mean much allow people apply go able help least warn everywhere look far say either wait go ae call 111 emergency classifies emergency almost certain would consider one want waste time consider nhs already stretch thin would pay therapist mean barely afford feed right know want give</t>
+          <t>depression bad recently try desperately find therapist people usually go told month wait list honestly think able wait long suggest someone else check website applied therapy manage book assessment appointment next month sleep easy last night think would get help soon wake morning notification phone say cancel appointment longer help people area sick try help know fault able help brief feeling hope mean much allow people apply go able help least warn everywhere look far say either wait go ae call emergency classify emergency almost certain would consider want waste time consider nhs already stretch thin would pay therapist mean barely afford feed right know want give</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>come down boyfriend leave december 2019 hard life mother drug addict young father leave two spent whole childhood mother become alcoholic 8 year old today 21 sort bad father figure life mom chose best men dead meet bf december 2014 16 leave last december 5 year best year life bestfriend friend never happy dog together sell could afford alone feel like lose whole world nothing suicidal 3 month write note family need find courage memory ex haunt every day best time life everything together really ride die left feeling anymore come told therapist thought doesent seem take serious wish could stop exist want live anymore everyday struggle devasted fact go put family pain hudge want anymore someday go courage end hope</t>
+          <t>come down boyfriend leave december hard life mother drug addict young father leave spent whole childhood mother become alcoholic year old today sort bad father figure life mom chose best men dead meet bf december leave last december year best year life bestfriend friend never happy dog together sell could afford alone feel like lose whole world nothing suicidal month write note family need find courage memory ex haunt every day best time life everything together really ride die left feeling anymore come told therapist thought doesent seem take serious wish could stop exist want live anymore everyday struggle devasted fact go put family pain hudge want anymore someday go courage end hope</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>another day nobody home understand underlying reason thing sleep much room time eat much sleep deal thing room bother people eat much food one thing make happy anymore put facade everyone optimistic happy go lucky person people really know god forbid tell mom depression would yell tell know something wrong something depression bpd adhd something poor diagnose scared ever confide family tell say want attention every day pretend ok</t>
+          <t>another day nobody home understand underlying reason thing sleep much room time eat much sleep deal thing room bother people eat much food thing make happy anymore put facade everyone optimistic happy go lucky person people really know god forbid tell mom depression would yell tell know something wrong something depression bpd adhd something poor diagnose scared ever confide family tell say want attention every day pretend ok</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>sleep shit last night since start take cymbalta insomnia even take melatonin miss sleep much restful sleep sex drive fuck go work suck much today one manager axe grind seem like question work company almost four year know answer go followed person make sure tell truth never dishonest anyone work really pissed hurt feeling tire trusted get accuse steal 5k credit union work long ago never charge could prove know ever find cause lot hurt grief one bad feeling everyone think something like theif far still try lose 50 pound gain bout depression think manager bullshit today stir shit simply exisiting today hurt everywhere feel like really point life anymore happy long time try medication stay active om top already incredibly phyiscal job work warehouse many friend anymore family super negative much go motion ak tire know happy anymore</t>
+          <t>sleep shit last night since start take cymbalta insomnia even take melatonin miss sleep much restful sleep sex drive fuck go work suck much today manager axe grind seem like question work company almost year know answer go followed person make sure tell truth never dishonest anyone work really pissed hurt feeling tire trusted get accuse steal k credit union work long ago never charge could prove know ever find cause lot hurt grief bad feeling everyone think something like theif far still try lose pound gain bout depression think manager bullshit today stir shit simply exisiting today hurt everywhere feel like really point life anymore happy long time try medication stay active om top already incredibly phyiscal job work warehouse many friend anymore family super negative much go motion ak tire know happy anymore</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>date year break arguing time always get mad ala could better make mad anyways happen tried reach first two week happen felt need time mature want get back together still love want felt needed time month later get back contact start try move do stuff another guy fight fought fought fought thing start pick hang felt like back together keep fight kept fight keep fight keep fight till 3 month later say feel anymore would do stuff 3 guy grant single want wish would tell sooner say always sort feeling first person love say still love want spend rest life really want live without first time since bully middle school college genuine suicidal thought want live without can not stand think someone else want want love see man want need know hardly eat past day genuinely hungry work week work part time job landscape work weather permit lately lay bed sulk sleep know want live without move like someone else spend time together can not take know</t>
+          <t>date year break arguing time always get mad ala could better make mad anyways happen tried reach first week happen felt need time mature want get back together still love want felt needed time month later get back contact start try move do stuff another guy fight fought fought fought thing start pick hang felt like back together keep fight kept fight keep fight keep fight till month later say feel anymore would do stuff guy grant single want wish would tell sooner say always sort feeling first person love say still love want spend rest life really want live without first time since bully middle school college genuine suicidal thought want live without can not stand think someone else want want love see man want need know hardly eat past day genuinely hungry work week work part time job landscape work weather permit lately lay bed sulk sleep know want live without move like someone else spend time together can not take know</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>depends much friend andor family hate tell much longer try convince probably delay calm feel like inevitable can not see make 2021 see go guess</t>
+          <t>depends much friend andor family hate tell much longer try convince probably delay calm feel like inevitable can not see make see go guess</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>married great guy two great kid job pay well field go school cuddly cat dog bipolar ii major depression issue anxiety ridden much inside empty want sex wonderful husband anyone want go drag late work every day skip shower hassle med trileptal sertraline lorazepam therapist really want talk think flip car highway lot want switch career scar want libido want mother girl deserve want return loyalty staff enthusiasm energy everything justoff</t>
+          <t>married great guy great kid job pay well field go school cuddly cat dog bipolar ii major depression issue anxiety ridden much inside empty want sex wonderful husband anyone want go drag late work every day skip shower hassle med trileptal sertraline lorazepam therapist really want talk think flip car highway lot want switch career scar want libido want mother girl deserve want return loyalty staff enthusiasm energy everything justoff</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>know guy understand keep thinking long left life already exhaust 24 tired living big problem keep overthinking exhaust live many year live reason accept living sure thought come bordem want know relate</t>
+          <t>know guy understand keep thinking long left life already exhaust tired living big problem keep overthinking exhaust live many year live reason accept living sure thought come bordem want know relate</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>try understand go current fully understand depression understand self harm spent 4 year ex severely depressed suicidal tendency bad point try hard eventually give force leave knew would well without current boyfriend amaze rock reveal cut actually see twice normal happy guy family trouble sometimes financial handle thing rather well optimistically hard gauge time generally happy guy break easily thing start pile understandably nowhere near would describe someone depressed sure sh someone help understand might go worry life heartbroken hate see pain go thought something would go hard go past feel selfish feeling like feel almost upset happen situation know go try see could help</t>
+          <t>try understand go current fully understand depression understand self harm spent year ex severely depressed suicidal tendency bad point try hard eventually give force leave knew would well without current boyfriend amaze rock reveal cut actually see twice normal happy guy family trouble sometimes financial handle thing rather well optimistically hard gauge time generally happy guy break easily thing start pile understandably nowhere near would describe someone depressed sure sh someone help understand might go worry life heartbroken hate see pain go thought something would go hard go past feel selfish feeling like feel almost upset happen situation know go try see could help</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>native english speaker sorry grammatical error feel like fuck idiot reason succeed school work hard first year college second semester start month ago feel like everything fall appart two teacher bark strongly imply fuck dumb study several hour test end fail miserably class study find test super easy bad thing place study even one high school teacher recommend go think easy go study anyway felt like would psychologically handle option high school teacher recommend go fact day math final hs paralyze bed 30min could stop cyring think would pass despite day spend study currently feel like dumb idiot everyone else simply smart sole reason succeed care grade many know even know even deserve post something find ridiculous start skip meal</t>
+          <t>native english speaker sorry grammatical error feel like fuck idiot reason succeed school work hard first year college second semester start month ago feel like everything fall appart teacher bark strongly imply fuck dumb study several hour test end fail miserably class study find test super easy bad thing place study even high school teacher recommend go think easy go study anyway felt like would psychologically handle option high school teacher recommend go fact day math final hs paralyze bed min could stop cyring think would pass despite day spend study currently feel like dumb idiot everyone else simply smart sole reason succeed care grade many know even know even deserve post something find ridiculous start skip meal</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>tell mum morning can not anymore saw hysterical tear school explain get help need suicidal thought time say know much shit well entitle feel sad like need break cop like everything go fast need time mentally ill life little less 15 year one depression break school take sleep pill night could wake mum think super tire sick still never tell anyone hop fall asleep never wake feel like burden people find hard ask support often resort cry help feel trap mind life exhaust can not control emotion want happy fuck brain get way everything</t>
+          <t>tell mum morning can not anymore saw hysterical tear school explain get help need suicidal thought time say know much shit well entitle feel sad like need break cop like everything go fast need time mentally ill life little less year depression break school take sleep pill night could wake mum think super tire sick still never tell anyone hop fall asleep never wake feel like burden people find hard ask support often resort cry help feel trap mind life exhaust can not control emotion want happy fuck brain get way everything</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>many post like almost 1 per minute really expect even ask response felt unexplainable obligation post somewhere finally start take real action towards end shave head decide put bullet skull hair everywhere also write first letter child continue write know sure pretty set soon look advice active community online felt leave something thanks read</t>
+          <t>many post like almost per minute really expect even ask response felt unexplainable obligation post somewhere finally start take real action towards end shave head decide put bullet skull hair everywhere also write first letter child continue write know sure pretty set soon look advice active community online felt leave something thanks read</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>start hurt 14 15 idea happy girlfriend class</t>
+          <t>start hurt idea happy girlfriend class</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>want try go another doctor appointment nothing come last one feel like much effort felt anxious entire time book nice also want someone hug entire night platonically one feel numb come sadness like can not cry anything tear clue fuck suck want stay bed day sleep un educate teen perk fuck many issue like teeth bad 10 filling tooth remove get point much pain hop pain drive kill go peace</t>
+          <t>want try go another doctor appointment nothing come last feel like much effort felt anxious entire time book nice also want someone hug entire night platonically feel numb come sadness like can not cry anything tear clue fuck suck want stay bed day sleep un educate teen perk fuck many issue like teeth bad filling tooth remove get point much pain hop pain drive kill go peace</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>mostly serious way wonder go death like would like pull plug tv blank screen soul leave body sometime think go leave note put maybe write something german mess family tattoo satanic symbol body reason weird messing people head one last time sound fun</t>
+          <t>mostly serious way wonder go death like would like pull plug tv blank screen soul leave body sometime think go leave note put maybe write something german mess family tattoo satanic symbol body reason weird messing people head last time sound fun</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>almost year since put antidepressant nothing change tried different med different dos work first slowly give rapidly feel like nobody help like shit stain everyone walk know fuck fact would miss jesus christ sound pitiful god damn nothing leave diagnosed ptsd recently tell depression ptsd jesus feel like another mark book fuck people every day hope fuck god wake every day everyday take two hour get sleep nightmare wake two hour fuck tired fuck do try universe feel like wait bowl popcorn see end feel like constantly scream scream room full people nobody care look nobody hears fuck worthless keep try seem</t>
+          <t>almost year since put antidepressant nothing change tried different med different dos work first slowly give rapidly feel like nobody help like shit stain everyone walk know fuck fact would miss jesus christ sound pitiful god damn nothing leave diagnosed ptsd recently tell depression ptsd jesus feel like another mark book fuck people every day hope fuck god wake every day everyday take hour get sleep nightmare wake hour fuck tired fuck do try universe feel like wait bowl popcorn see end feel like constantly scream scream room full people nobody care look nobody hears fuck worthless keep try seem</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>still nothing one</t>
+          <t>still nothing</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>scar go another little girl finally report abuse police nearly 6 year end physical evidence press charge need testify court go testify go kill regardless verdict make disgust horrible action know public history can not repeat little girl safe predator steal much much easy guarantee suffer end expect court right thing honestly never imagine live long never think would make senior year high school suppose go college fall dead wish could sooner want coward let others get hurt preventable</t>
+          <t>scar go another little girl finally report abuse police nearly year end physical evidence press charge need testify court go testify go kill regardless verdict make disgust horrible action know public history can not repeat little girl safe predator steal much much easy guarantee suffer end expect court right thing honestly never imagine live long never think would make senior year high school suppose go college fall dead wish could sooner want coward let others get hurt preventable</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>understand lose job lose mom get cheat find cliche possible way lose hope everything self destructive want feel way shit start happen difficult accept understanding happen past effectively shape negative positive way u stop stop negative way easy get catch loop right thing change anything say can not believe gotten bad good bore anyone detail childhood night worth story know always decision right pretty hard 25 year old let manipulate father ex remember young age feeling like deserve feel sad think plain joke test religious whatever mean fuck life get little real get letter school approve grade change appeal stop show 2 semester suspicion due community majordegree go tight knit backif community probably know receive letter first response anger would let someone like back time do self search long would think could changetweak make people like change make think care people think even though mind 99 time stress stick past time move unfortunate many u know something wrong want change many u know still know go fuck start start next step less thing get anywhere thing move forward thank reading</t>
+          <t>understand lose job lose mom get cheat find cliche possible way lose hope everything self destructive want feel way shit start happen difficult accept understanding happen past effectively shape negative positive way u stop stop negative way easy get catch loop right thing change anything say can not believe gotten bad good bore anyone detail childhood night worth story know always decision right pretty hard year old let manipulate father ex remember young age feeling like deserve feel sad think plain joke test religious whatever mean fuck life get little real get letter school approve grade change appeal stop show semester suspicion due community majordegree go tight knit backif community probably know receive letter first response anger would let someone like back time do self search long would think could changetweak make people like change make think care people think even though mind time stress stick past time move unfortunate many u know something wrong want change many u know still know go fuck start start next step less thing get anywhere thing move forward thank reading</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>really worried never receive fake pay lot hope peaceful death option take 30 pill ibuprofen opening artery</t>
+          <t>really worried never receive fake pay lot hope peaceful death option take pill ibuprofen opening artery</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>last week everything get lose son wife car home even eat 5 day nothing name live nothing tap water substance week ill due parent help say wimp attempt father say worthless amount nothing offering kick face puff rich never work entire life day mums always provide work abroad own home much yeah friend avoid want hang around place sleep thanks mother rock hard floor father let stay eat anything day cut lose wonder street rain cold problem lot major storm even flood recently last week go lake frequent child hung mean typical pathetic fashion fail rope snap woke minute later dizzy fall unsure due lack oxygen eventually recover go back parent sleep wet drench pain hungry next morning abuse father begin 24 nothing month ago everything newborn son ex wife take take thousand mile away miss anything nobody care hungry cold alone nobody even care attempted suicide single friend want spend time family hat son comfort take pride ability end everything soon finally time fail hopefully</t>
+          <t>last week everything get lose son wife car home even eaten day nothing name live nothing tap water substance week ill due parent help say wimp attempt father say worthless amount nothing offering kick face puff rich never work entire life day mums always provide work abroad own home much yeah friend avoid want hang around place sleep thanks mother rock hard floor father let stay eat anything day cut lose wonder street rain cold problem lot major storm even flood recently last week go lake frequent child hung mean typical pathetic fashion fail rope snap woke minute later dizzy fall unsure due lack oxygen eventually recover go back parent sleep wet drench pain hungry next morning abuse father begin nothing month ago everything newborn son ex wife take take thousand mile away miss anything nobody care hungry cold alone nobody even care attempted suicide single friend want spend time family hat son comfort take pride ability end everything soon finally time fail hopefully</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>really know expect right point willing anything stop unbearable pain exist go give brief overview entire life exactly right lead decision life worth live anymore elementary school hell teacher sit behind bookshelf even able see blackboard participate class distracing child teacher videotape misbehave class ridicule parent parentsmeetings smart kid able write basic math go school bore finish stuff walk room help child struggle see misbehave maybe wrong final report card straight teacher still recommend go school idiot country recommendation report card apply normal school single one want teach recommendation straigh bullshit end find school saw potential care recommendation able get decent education happen home hell dad violent abusive mother never intervene punched face etc know care afraid matter felt still feel abandon age 912 old brother rap like month something every single day sometimes even multiple time ask help father violent mother shit even invited friend watch spit 14 realization normal anymore talk alot stop enjoy literally anything also start cut fast forward 19 finished school get highschool diploma eventhough suffer severe depression find later also 1 friend let u call l get job 100 mile away parent move live terrible condition since make almost money think felt well sure since stoned time 3 year live away parent l tried commit suicide blame want get detail survive take year vacation 6 month later live parent since break able take care anymore admit mental hospital highly suicidal l urge admit l block social medium day 3 year ago stay 3 month hospital learn alot learn suffer depression paranoia narcissm borderline personality disorder symptom might psychosis one confirm deny talk stuff happen learned nothing cope stuff accept stop thinking constantly basically bad everything fresh mind one taught deal stuff hospital say heal move parent get job callcenter since thing available hometown get minimum wage crazy amount knowledge extreme stats reach lay hated every second sick alot like alot every 23 week something cold flu migrane etc stay whole year eventho sick often exceptional stats 99 customer satisfaction extremely low talk time etc quit could take anymore constant pressure know never promote matter good constant stuggle money miserable go different mental hospital dialectic behavioural therapy instead trauma therapy learn use skill basically find something occupy brain stop thinking sick sad thought solve anything feel good therapy find girlfriend perfect talk understand struggle hard since paranoia literally person planet try hurt trust know thought real hurt fuck much day ago get period almost 2 week earlier expect thought process situation well party friend last weekend probably fuck dude get planb one side effect period might come earlier later expect like hell even come something like feel like want hurt happy everything can not appreciate since mind think storys hurt literally make feel like insane would unemployed get money health insurance well next week psychiatrist tell write sick longer give reason continue since 100 aware mental state mean get money health insurance anymore since think healthy mean get money state umemployed get money state country mean require apply job job state choses apply show interview decline job offer give money like literally 0 can not work can not even apply job even able keep small flat clean keep care know anymore want pain stop</t>
+          <t>really know expect right point willing anything stop unbearable pain exist go give brief overview entire life exactly right lead decision life worth live anymore elementary school hell teacher sit behind bookshelf even able see blackboard participate class distracing child teacher videotape misbehave class ridicule parent parentsmeetings smart kid able write basic math go school bore finish stuff walk room help child struggle see misbehave maybe wrong final report card straight teacher still recommend go school idiot country recommendation report card apply normal school single want teach recommendation straigh bullshit end find school saw potential care recommendation able get decent education happen home hell dad violent abusive mother never intervene punched face etc know care afraid matter felt still feel abandon age old brother rap like month something every single day sometimes even multiple time ask help father violent mother shit even invited friend watch spit realization normal anymore talk alot stop enjoy literally anything also start cut fast forward finished school get highschool diploma eventhough suffer severe depression find later also friend let u call l get job mile away parent move live terrible condition since make almost money think felt well sure since stone time year live away parent l tried commit suicide blame want get detail survive take year vacation month later live parent since break able take care anymore admit mental hospital highly suicidal l urge admit l block social medium day year ago stay month hospital learn alot learn suffer depression paranoia narcissm borderline personality disorder symptom might psychosis confirm deny talk stuff happen learned nothing cope stuff accept stop thinking constantly basically bad everything fresh mind taught deal stuff hospital say heal move parent get job callcenter since thing available hometown get minimum wage crazy amount knowledge extreme stats reach lay hated every second sick alot like alot every week something cold flu migrane etc stay whole year eventho sick often exceptional stats customer satisfaction extremely low talk time etc quit could take anymore constant pressure know never promote matter good constant stuggle money miserable go different mental hospital dialectic behavioural therapy instead trauma therapy learn use skill basically find something occupy brain stop thinking sick sad thought solve anything feel good therapy find girlfriend perfect talk understand struggle hard since paranoia literally person planet try hurt trust know thought real hurt fuck much day ago get period almost week earlier expect thought process situation well party friend last weekend probably fuck dude get planb side effect period might come earlier later expect like hell even come something like feel like want hurt happy everything can not appreciate since mind think storys hurt literally make feel like insane would unemployed get money health insurance well next week psychiatrist tell write sick longer give reason continue since aware mental state mean get money health insurance anymore since think healthy mean get money state umemployed get money state country mean require apply job job state choses apply show interview decline job offer give money like literally can not work can not even apply job even able keep small flat clean keep care know anymore want pain stop</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3088,12 +3088,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>look story people recover 100 depression</t>
+          <t>look story people recover depression</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>anyone recover 100 would give hope know anyone thank much good day</t>
+          <t>anyone recover would give hope know anyone thank much good day</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>think depression lessen feeling thing sober 2 month think probably alcohol feel like become lot numb lately sad feel good least think lot happiness go feel bore</t>
+          <t>think depression lessen feeling thing sober month think probably alcohol feel like become lot numb lately sad feel good least think lot happiness go feel bore</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3173,7 +3173,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>suffer fuck 24 year</t>
+          <t>suffer fuck year</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>try every path possible stop pain counsel far seem like fail try extremely hard everything universe like play reverse card send back put come constantly lose whenever win millisecond literally extremely humble nice way can not use universe still trash try hard people say go get good go downhill nothing cause always feel fake empty soulless want feel feel full emotion world see build destroy continue get far honestly want able comforted friend nothing fuck work literally antiintrovert antiextrovertnothing work counseler tell challenge negative thought really challenge mind light give get escape death 15</t>
+          <t>try every path possible stop pain counsel far seem like fail try extremely hard everything universe like play reverse card send back put come constantly lose whenever win millisecond literally extremely humble nice way can not use universe still trash try hard people say go get good go downhill nothing cause always feel fake empty soulless want feel feel full emotion world see build destroy continue get far honestly want able comforted friend nothing fuck work literally antiintrovert antiextrovertnothing work counseler tell challenge negative thought really challenge mind light give get escape death</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>turn 18 want kill feel like waste space friends stay pity every time think see failure never able anything good ask advice lose mind</t>
+          <t>turn want kill feel like waste space friends stay pity every time think see failure never able anything good ask advice lose mind</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>feel like one understand suicidal thought go away like go kill like never think psychiatrist know say common people survive traumas suffer multitude mental physical problem always afraid tell anyone though therapist every time talk people get concern know maybe alone best way describe like fly contain room always hear buzz sometimes constant droning ear time barely hear like soft quick buzz mean never go away 18 never time think kill okay fly rather quiet like normal</t>
+          <t>feel like understands suicidal thought go away like go kill like never think psychiatrist know say common people survive traumas suffer multitude mental physical problem always afraid tell anyone though therapist every time talk people get concern know maybe alone best way describe like fly contain room always hear buzz sometimes constant droning ear time barely hear like soft quick buzz mean never go away never time think kill okay fly rather quiet like normal</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>phase feel nothing existance want lucky get nore 5 reply bump number</t>
+          <t>phase feel nothing existance want lucky get nore reply bump number</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>mental hospital want die persuade give advice find stash med can not overdose blade plan slit throat 15 min check afraid find can not get anything outside know make noose bed sheet tie please beg tell die tire do life</t>
+          <t>mental hospital want die persuade give advice find stash med can not overdose blade plan slit throat min check afraid find can not get anything outside know make noose bed sheet tie please beg tell die tire do life</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>sick sick feeling useless alone sick never happy feel ok sick lying time tell every one fine every fucking day constantly feel drain tired everything really see point carry one care like ill miss anyone end sorry still sorry waste time sorry every one deal shit lose</t>
+          <t>sick sick feeling useless alone sick never happy feel ok sick lying time tell every fine every fucking day constantly feel drain tired everything really see point carry care like ill miss anyone end sorry still sorry waste time sorry every deal shit lose</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>feel tire nothing brings joy lose fucking hobby start smoke lot alcoholic dad often lie also borrow money never give back luckily mom alcoholic also drink lot remember child parent often money buy tge food use visit grandma take food feed young brother remember dad come back home drunk beat motherand btoke glass door fucktone bloodit sticky smell horrible 13 rap drunk dad nobody know also 2 month agoi find gf break also amphetamine addict mentally unstable lot overdose honestly miss feel like future bear condom rip anti pregnant tablet work feel useless live small town western ukraine town fuck shithole europe 1 year graduate know want study</t>
+          <t>feel tire nothing brings joy lose fucking hobby start smoke lot alcoholic dad often lie also borrow money never give back luckily mom alcoholic also drink lot remember child parent often money buy tge food use visit grandma take food feed young brother remember dad come back home drunk beat motherand btoke glass door fucktone bloodit sticky smell horrible raped drunk dad nobody know also month agoi find gf break also amphetamine addict mentally unstable lot overdose honestly miss feel like future bear condom rip anti pregnant tablet work feel useless live small town western ukraine town fuck shithole europe year graduating know want study</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>9th grade know socialize anymore suppper shy anything</t>
+          <t>th grade know socialize anymore suppper shy anything</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>hi guy struggle relapse severe depression last couple month see psychiatrist change onto new med slowly start come good last couple day deep funk interested anything eat barely talk spent time bed watch youtube know change med probably want share ridiculous moment dog 5yo kelpie name max walk room nudge butt knee like want pat feel nudge away come back sat foot let rip huge fart right foot start laugh laugh last couple day keep laugh solid five minute open window clear air also open window last couple day sudden funk like poured cold water head vision clear sit desk fresh air still smile start uni work get jump max nap bed like champion thing dark long hard imagine anything different know version dog fart foot come try let pull funk well yet probably back normal another month get</t>
+          <t>hi guy struggle relapse severe depression last couple month see psychiatrist change onto new med slowly start come good last couple day deep funk interested anything eat barely talk spent time bed watch youtube know change med probably want share ridiculous moment dog yo kelpie name max walk room nudge butt knee like want pat feel nudge away come back sat foot let rip huge fart right foot start laugh laugh last couple day keep laugh solid minute open window clear air also open window last couple day sudden funk like poured cold water head vision clear sit desk fresh air still smile start uni work get jump max nap bed like champion thing dark long hard imagine anything different know version dog fart foot come try let pull funk well yet probably back normal another month get</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>girl know since forever year ago end major crush start talk become close friend go year talk month push away month later texting blue repeat almost 2 year ago star talk great house every weekend stupid shit like watch youtube video music netfix till like 11 night also end talk feeling stuff never like emotional guy show kind felt like like live weekend spending time lunch school like date super close friend talk felt sure felt hang less less month graduate night send text felt push much talk since year ago blame time scar lose kept push gotten well still miss ever honestly feel like something wrong hold long feel really lose life part really want try talk afraid hurt already want commit suicide really want exist lose feel like ever go get good none fault reason broken might</t>
+          <t>girl know since forever year ago end major crush start talk become close friend go year talk month push away month later texting blue repeat almost year ago star talk great house every weekend stupid shit like watch youtube video music netfix till like night also end talk feeling stuff never like emotional guy show kind felt like like live weekend spending time lunch school like date super close friend talk felt sure felt hang less less month graduate night send text felt push much talk since year ago blame time scar lose kept push gotten well still miss ever honestly feel like something wrong hold long feel really lose life part really want try talk afraid hurt already want commit suicide really want exist lose feel like ever go get good none fault reason broken might</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>might become homeless episode spent saving can not bring work 15 hour week binge xanies fuck stranger night hang married man man really love can not handle let go fuck reason support system everyone halfway unpredictable sick anyone consistently keep need turn 26 want something life can not even handle ft job adulthood clusterfuck mental illness grief need drug terrify low function life ruin make bad like year year know get good see mentally ill friend get good old get worried choice concede reality lifelong struggle wo much hope anything even remotely resemble security property prosperity family jealous high function people want someday tired thanks read</t>
+          <t>might become homeless episode spent saving can not bring work hour week binge xanies fuck stranger night hang married man man really love can not handle let go fuck reason support system everyone halfway unpredictable sick anyone consistently keep need turn want something life can not even handle ft job adulthood clusterfuck mental illness grief need drug terrify low function life ruin make bad like year year know get good see mentally ill friend get good old get worried choice concede reality lifelong struggle wo much hope anything even remotely resemble security property prosperity family jealous high function people want someday tired thanks read</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3649,12 +3649,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>21 go commit suicide 30</t>
+          <t>go commit suicide</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>21 college homeless college feel sad mad really bad feel nothing really feel stressed time thing keep go music sing play guitar write song everyday post new album every month currently learn mix record music thing make happy go continue write record song 30 end hopefully sound really nice year practice think idea two week ago feel bit well worry much since know end soon</t>
+          <t>college homeless college feel sad mad really bad feel nothing really feel stressed time thing keep go music sing play guitar write song everyday post new album every month currently learn mix record music thing make happy go continue write record song end hopefully sound really nice year practice think idea week ago feel bit well worry much since know end soon</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>people say self isolate bad surround friend family honestly sometimes self isolate less hurtful self isolation protect disappointment people action every single person whatever reason whenever second sinking one seem notice one seem take seriously enough really care get disappointment see people get drain yeah self isolate sick get hurt get disappointed</t>
+          <t>people say self isolate bad surround friend family honestly sometimes self isolate less hurtful self isolation protect disappointment people action every single person whatever reason whenever second sinking seem notice seem take seriously enough really care get disappointment see people get drain yeah self isolate sick get hurt get disappointed</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>post never get response whatever go turn 20 year wake every morning get hard feel lose like direction take mental health day work show much feel like hobby try play game lose interest 5 minute try work write draw lose motivation almost instantly way get satisfaction masturbation afterwards always feel disgusted try go school 2 time drop halfway semester time want stop exist want hurt everyone around</t>
+          <t>post never get response whatever go turn year wake every morning get hard feel lose like direction take mental health day work show much feel like hobby try play game lose interest minute try work write draw lose motivation almost instantly way get satisfaction masturbation afterwards always feel disgusted try go school time drop halfway semester time want stop exist want hurt everyone around</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>average story everyone heard friends broken family bully throughout elementary high school rough breakup escape drug self harm can not take anymore feel worthless turn 18 year think longer go like want die since 11 life painful every day constantly struggle can not even find motivation keep go can not even picture adult see nothing word can not even put together properly without autocorrect cry much want feel okay love feel like felt someone change mind start care somebody else particular way break contact tired people give tough love say decision selfish know make bad want stop never get well burn mind try hard continue make improvement always end back square one never insistent die life liar shitty people earth nobody seem care listen unless something</t>
+          <t>average story everyone heard friends broken family bully throughout elementary high school rough breakup escape drug self harm can not take anymore feel worthless turn year think longer go like want die since life painful every day constantly struggle can not even find motivation keep go can not even picture adult see nothing word can not even put together properly without autocorrect cry much want feel okay love feel like felt someone change mind start care somebody else particular way break contact tired people give tough love say decision selfish know make bad want stop never get well burn mind try hard continue make improvement always end back square never insistent die life liar shitty people earth nobody seem care listen unless something</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>want live little cheerful girl love music whenever go sleep take pink mp3 player bed listen favorite song hour imagine skydiver princess superhero dive blue sky scream loud throat hurt maybe loud enough able hear mother epileptic seizure nice paramedic asks read school go good try ignore grandma cry grandfather look away happen school go good really enjoy art class teacher say potential pleasure class maybe rarely talk like teacher praise make feel like special think sit bed one cd playing background middle school live city school big modern even cafeteria always crowd yet somehow empty time longer art class teacher say smart kind lazy girl pretty cheek chubby legs thicker belly stick skip lunch look picture gorgeous thin girl internet make feel full hate pe class girl can not play volleyball hit ball really hard hoodie stain red hurt pretend nothing happen nobody notice high school scary boy really like maybe way dress cut hair short starve becomes binge really hate thigh class clown skip school every day week overdose medication several time one time almost fall stairs pas bathtub overdose pill try kill er one teacher look barely stay awake one nurse tell selfish come back hospital teacher say lazy student ever mother force lie put psychiatric facility go psychiatrist never go back grandma sleep room look stuff every day ask go bathroom mom make stay guest room bed desk textbook dinner taste awful want die college start major great literature class average student sometimes remember elementary school art teacher feel like fail boy still like cheek still way chubby body cover white thick line people stare lot ask question avoid still imagine fantasize go sleep lot skydive turn jump bridge river grand party colorful dress turn lonely college dorm oversized tshirts old sweater longer superhero one wait someone something save long scream longer put fight remember loving music give headache almost 21yearold tired woman longer want live goodnight</t>
+          <t>want live little cheerful girl love music whenever go sleep take pink mp player bed listen favorite song hour imagine skydiver princess superhero dive blue sky scream loud throat hurt maybe loud enough able hear mother epileptic seizure nice paramedic asks read school go good try ignore grandma cry grandfather look away happen school go good really enjoy art class teacher say potential pleasure class maybe rarely talk like teacher praise make feel like special think sit bed cd play background middle school live city school big modern even cafeteria always crowd yet somehow empty time longer art class teacher say smart kind lazy girl pretty cheek chubby legs thicker belly stick skip lunch look picture gorgeous thin girl internet make feel full hate pe class girl can not play volleyball hit ball really hard hoodie stain red hurt pretend nothing happen nobody notice high school scary boy really like maybe way dress cut hair short starve becomes binge really hate thigh class clown skip school every day week overdose medication several time time almost fall stairs pas bathtub overdose pill try kill er teacher look barely stay awake nurse tell selfish come back hospital teacher say lazy student ever mother force lie put psychiatric facility go psychiatrist never go back grandma sleep room look stuff every day ask go bathroom mom make stay guest room bed desk textbook dinner taste awful want die college start major great literature class average student sometimes remember elementary school art teacher feel like fail boy still like cheek still way chubby body cover white thick line people stare lot ask question avoid still imagine fantasize go sleep lot skydive turn jump bridge river grand party colorful dress turn lonely college dorm oversized tshirts old sweater longer superhero wait someone something save long scream longer put fight remember loving music give headache almost yearold tired woman longer want live goodnight</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3836,7 +3836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>turn 32 april job friend girlfriend life</t>
+          <t>turn april job friend girlfriend life</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>hello everyone want tell depression loneliness general feeling want end life good even know know look post ashamed problem point feel ashamed write stranger ever see life since like 15 year ago problem bad breath really mean bad can not erase even directly brush teeth try heal sickness long time little success many doctor free health care live u obviously unemployed can not afford pay doctor stop try go doctor one doctor laugh sickness literally could feel care give vibe sickness go home imagine struggle even talk openly doctor receive nut sick threatment sure people problem hard understand hard let put like would feel stepped shit could wipe offwould comfortable walk around stand next someone talk someone obviously even need talk someone smell breathe thru nose like result get anxiety stand someone go shop like climb mount everest achieve nothing life none want anything person smell none ever take serious someone like want able interact people</t>
+          <t>hello everyone want tell depression loneliness general feeling want end life good even know know look post ashamed problem point feel ashamed write stranger ever see life since like year ago problem bad breath really mean bad can not erase even directly brush teeth try heal sickness long time little success many doctor free health care live u obviously unemployed can not afford pay doctor stop try go doctor doctor laughed sickness literally could feel care give vibe sickness go home imagine struggle even talk openly doctor receive nut sick threatment sure people problem hard understand hard let put like would feel stepped shit could wipe offwould comfortable walk around stand next someone talk someone obviously even need talk someone smell breathe thru nose like result get anxiety stand someone go shop like climb mount everest achieve nothing life none want anything person smell none ever take serious someone like want able interact people</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3904,12 +3904,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>8 year ago post want die life much well</t>
+          <t>year ago post want die life much well</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1516 year old post dark moment could see reason keep living thought nothing special next 8 year seem like endless slog look post history want since graduate college graduate school travel world swam bioluminescent algae indonesia hike among alpacas peru learn speak spanish fluently connect people around world country speak spanish publish write multiple publication fall love heart break several time realize gay come amazing woman career love help people every day honestly say depression may lifelong struggle possible recover develop tool cope every day manageable challenge every day grateful alive glad kill 8 year ago never would know beautiful life could become think kill remember know beautiful life could become could way know get need alive</t>
+          <t>year old post dark moment could see reason keep living thought nothing special next year seem like endless slog look post history want since graduate college graduate school travel world swam bioluminescent algae indonesia hike among alpacas peru learn speak spanish fluently connect people around world country speak spanish publish write multiple publication fall love heart break several time realize gay come amazing woman career love help people every day honestly say depression may lifelong struggle possible recover develop tool cope every day manageable challenge every day grateful alive glad kill year ago never would know beautiful life could become think kill remember know beautiful life could become could way know get need alive</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>combat year strong prevent functional member society sort attempt suicide twice within last 8 year wish go ball deep inpatient mental hospital do iop program php program dbt cbt etc 13 year even follow thing learn suicidal thought always win prescription prescription may help lessen frequency never actually go away can not tell therapist professional thing instantly admit already 1000 debt medical bill hospitalization therapy can not afford another useless admission hospitalization cash grab reason house suicidal people bankrupt profit health insurance even energy willpower go work anymore boss fire miss another day work can not go doctor get doctor note provide excuse come else hospitalize care get evict lose cat belonging live car can not function work environment feel way feel like vicious circlecatch 22 can not seem fuck break everyone around call weak leaf burden always small fear kill process fear feel skull hit pavement jump build fear feeling asphyxiate noose constricts blood flow airflow brain fear feeling organ shut brain overdose lately fear become less less issue would rather bite bullet do</t>
+          <t>combat year strong prevent functional member society sort attempt suicide twice within last year wish go ball deep inpatient mental hospital do iop program php program dbt cbt etc year even follow thing learn suicidal thought always win prescription prescription may help lessen frequency never actually go away can not tell therapist professional thing instantly admit already debt medical bill hospitalization therapy can not afford another useless admission hospitalization cash grab reason house suicidal people bankrupt profit health insurance even energy willpower go work anymore boss fire miss another day work can not go doctor get doctor note provide excuse come else hospitalize care get evict lose cat belonging live car can not function work environment feel way feel like vicious circlecatch can not seem fuck break everyone around call weak leaf burden always small fear kill process fear feel skull hit pavement jump build fear feeling asphyxiate noose constricts blood flow airflow brain fear feeling organ shut brain overdose lately fear become less less issue would rather bite bullet do</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>suppose take one pill every night help sleep wonder fuck take like 5 give shit one else give shit either maybe tomorrow 2 next day 6 maybe 9 still alive care nothing feel good</t>
+          <t>suppose take pill every night help sleep wonder fuck take like give shit else give shit either maybe tomorrow next day maybe still alive care nothing feel good</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>freak yesterday break crap scream cussed money problem stuff calm well back today say anything around house admit brother apparently texting talk crap behind back well say help apparently think keep two story house realize depress idiot dad start scream make life hard leave go start charge rent can not afford get house work hour think go need ride suppose function work literally hold one dad handguns lap give self defense ever need never think hard want bad quit wimp pull trigger see point go go want also think send photo brother least scare crap maybe think twice talk behind back man mentally unstable</t>
+          <t>freak yesterday break crap scream cussed money problem stuff calm well back today say anything around house admit brother apparently texting talk crap behind back well say help apparently think keep story house realize depress idiot dad start scream make life hard leave go start charge rent can not afford get house work hour think go need ride suppose function work literally hold dad handgun lap give self defense ever need never think hard want bad quit wimp pull trigger see point go go want also think send photo brother least scare crap maybe think twice talk behind back man mentally unstable</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4043,11 +4043,7 @@
           <t>nyc point anymore</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
+      <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4079,7 +4075,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>tired fake confidence confident one talk tire faking happiness tire look post history complain one else tell come reddit complain good worth whole life evidence prove ball actually kill probably would afraid hurt death can not take anymore know one save guess doom life negative self esteem perpetual loneliness feeling sorry</t>
+          <t>tired fake confidence confident talk tire faking happiness tire look post history complain else tell come reddit complain good worth whole life evidence prove ball actually kill probably would afraid hurt death can not take anymore know save guess doom life negative self esteem perpetual loneliness feeling sorry</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4096,7 +4092,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>friend keep talk need therapy stand think try starve self fresh yeets ankle make basement library meet random pair scissors find one seem notice sad popular people sad everyone notice everyone care one even say anything bearly talk mumble people always say talk people feel sad depressed talk every time try one understand sorry bother need vent</t>
+          <t>friend keep talk need therapy stand think try starve self fresh yeets ankle make basement library meet random pair scissors find seem notice sad popular people sad everyone notice everyone care even say anything bearly talk mumble people always say talk people feel sad depressed talk every time try understands sorry bother need vent</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4113,7 +4109,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>title state parent always think lazy highschool day unbelievably depress anyone else relate lazy time hell yea brother everyone point would call lazy hung bedroom shower ect go highschool day even football team whole highschool life never come home till 6 go fridaysaturday night friend clean much teenager point parent ever sit talk explain remember tear come face 14 year old hold knife kitchen step dad walk towards laundry room sigh relief someone would help mention see talk feel like would sit see sign would know would way well develop learn thing idea even depression think something wrong still till day determine quiet one like talk much highschool never problem felt like get sunk depression never really come stick profile guy even speak get speak like primal thing try shun word want people think parent bad great understand kid would make sure see quiet sign thanks listen</t>
+          <t>title state parent always think lazy highschool day unbelievably depress anyone else relate lazy time hell yea brother everyone point would call lazy hung bedroom shower ect go highschool day even football team whole highschool life never come home till go fridaysaturday night friend clean much teenager point parent ever sit talk explain remember tear come face year old hold knife kitchen step dad walk towards laundry room sigh relief someone would help mention see talk feel like would sit see sign would know would way well develop learn thing idea even depression think something wrong still till day determine quiet like talk much highschool never problem felt like get sunk depression never really come stick profile guy even speak get speak like primal thing try shun word want people think parent bad great understand kid would make sure see quiet sign thanks listen</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4164,7 +4160,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ecstasy win pain lose know teammate back try best let people lonely someone rely seem nice go many training section go beer team trash talk go middle school high school college without play sport wish parent force force 24 can not run 2 minute without breath unhealthy snore like pig</t>
+          <t>ecstasy win pain lose know teammate back try best let people lonely someone rely seem nice go many training section go beer team trash talk go middle school high school college without play sport wish parent force force can not run minute without breath unhealthy snore like pig</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4215,7 +4211,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>mature student toxic class mat basically today old teacher hate want die car accident 2 year ago wish die live see every goddamn person know do much life hate live 4th floor best thing jumping</t>
+          <t>mature student toxic class mat basically today old teacher hate want die car accident year ago wish die live see every goddamn person know do much life hate live th floor best thing jumping</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4266,7 +4262,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>almost 40 disability morbidly obese can not lose weight matter hard try almost 40 nothing 500 dollar laptop neighbor give fall apart worth around 70 pair shoe fall apart hurt walk dozen wornout sock shirt pant black mostly sweat pant two pair blue jean wornout wallet fall apart disability get less 800 usd month educational background ged homeless 8 year bad teeth need fix one need new crown taught dental hygiene become homeless even brush floss least worry get food try survive spend past year try get ged fail even tutor teacher study group find learn issue make hard get ged basically go 2nd 3rd grade 12th grade every subject family friends utterly alone world buy car two year ago first car planning living get scammed 3k try save another car live unable renting bedroom elderly woman bad health go surgery today make homeless nowhere live unable survive homeless time body arthritis low back rheumatoid arthritis knee foot day can not get bed hurt badly way survive street feel like complete utter crap especially compare everyone else realize worthless life maybe best live anymore nothing world live even care anymore nothing life get good apply hud housing suppose move apartment 7 year wait list 40 hud housing get accepted one could make money get first month rent downpayment light turn spent past ten year try good life get knock every time get example save 3 4 year 3k buy first car get scammed dealership resaved money 900 dollar need two teeth pull cost 450 tax drain 900 save last month almost year save get call first apartment ever could get two year ago need eye surgery remove cataract right eye need do leave eye dr refuse texas real id stuff need star driver license order need eye exam likely fail lose driver license cataract leave eye go driver license go get car live spent year try get ged fail every time try spent past eight year date scene get reject woman weight told worthless nothing offer relationship downright mock laughed weight get cataract eye take androgel testosterone medication low testosterone thyroid med thyroid basically dead give max dose lose 45 lbs 8 month absolutely change diet daily routine gain back year later literally can not take anymore crummy life point think death lot well good dead keep failing knock every time try something life also suffer cptsd complex post traumatic stress disorder serve thing life childhood also suffer severe chronic depression severe social anxiety severe abandonment issue paranoia learn issue diagnose look issue autism self diagnose may borderline autistic issue spectrum tired fighting tire go life like barely able breath barely able survive absolutely nothing show</t>
+          <t>almost disability morbidly obese can not lose weight matter hard try almost nothing dollar laptop neighbor give fall apart worth around pair shoe fall apart hurt walk dozen wornout sock shirt pant black mostly sweat pant pair blue jean wornout wallet fall apart disability get less usd month educational background ged homeless year bad teeth need fix need new crown taught dental hygiene become homeless even brush floss least worry get food try survive spend past year try get ged fail even tutor teacher study group find learn issue make hard get ged basically go nd rd grade th grade every subject family friends utterly alone world buy car year ago first car planning living get scammed k try save another car live unable renting bedroom elderly woman bad health go surgery today make homeless nowhere live unable survive homeless time body arthritis low back rheumatoid arthritis knee foot day can not get bed hurt badly way survive street feel like complete utter crap especially compare everyone else realize worthless life maybe best live anymore nothing world live even care anymore nothing life get good apply hud housing suppose move apartment year wait list hud housing get accept could make money get first month rent downpayment light turn spent past year try good life get knock every time get example saved year k buy first car get scammed dealership resaved money dollar need teeth pull cost tax drain save last month almost year save get call first apartment ever could get year ago need eye surgery remove cataract right eye need do leave eye dr refuse texas real id stuff need star driver license order need eye exam likely fail lose driver license cataract leave eye go driver license go get car live spent year try get ged fail every time try spend past year date scene get reject woman weight told worthless nothing offer relationship downright mock laughed weight get cataract eye take androgel testosterone medication low testosterone thyroid med thyroid basically dead give max dose lose lbs month absolutely change diet daily routine gain back year later literally can not take anymore crummy life point think death lot well good dead keep failing knock every time try something life also suffer cptsd complex post traumatic stress disorder serve thing life childhood also suffer severe chronic depression severe social anxiety severe abandonment issue paranoia learn issue diagnose look issue autism self diagnose may borderline autistic issue spectrum tired fighting tire go life like barely able breath barely able survive absolutely nothing show</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4312,12 +4308,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>give one reason carry life miss almost every joy imaginable</t>
+          <t>give reason carry life miss almost every joy imaginable</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>never best friend would never part friend group group matter never felt accepted temporary job waiter online chat class never girlfriend never kiss never sex never someone compliment never unforgettable holiday trip never memorable spring break summer break never go cool festival never great party never host one either list go feel lonely depression physically weigh motivation anything parent say read face legit can not remember last time fun would even bother go like feel like survive day rather live almost tempt move another country start anew go entirely crazy feel like would carry way even depress everyone around much fun last week overheard two normal guy around age discussing plan summer crazy memory want kill badly hear miss fuck</t>
+          <t>never best friend would never part friend group group matter never felt accepted temporary job waiter online chat class never girlfriend never kiss never sex never someone compliment never unforgettable holiday trip never memorable spring break summer break never go cool festival never great party never host either list go feel lonely depression physically weigh motivation anything parent say read face legit can not remember last time fun would even bother go like feel like survive day rather live almost tempt move another country start anew go entirely crazy feel like would carry way even depress everyone around much fun last week overheard normal guy around age discussing plan summer crazy memory want kill badly hear miss fuck</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4334,7 +4330,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>know begin word use come naturally feel dead go try know life go know thing seem spin control know stop thing move get fired job sick chronically ill best sick never effect work performance belong hospital patient suppose nurse nowi 24 dead set nurse school time little girl suppose make little kid laugh chemo flow vein port cath nursing school seem far away know know go relationship ship know go body go mayo clinic two week see fuck wrong feel like control know way turn try hard get feel like direction next week work line week go mayo alone start freak mean travel alone many time different go poke prodded scan thing scar alone boyfriend life open relationship come bisexual recently slowly drifting apart see live life bigay man like experience like alone house without know come home jesus much go head hurt k do ramble sad hate sad</t>
+          <t>know begin word use come naturally feel dead go try know life go know thing seem spin control know stop thing move get fired job sick chronically ill best sick never effect work performance belong hospital patient suppose nurse nowi dead set nurse school time little girl suppose make little kid laugh chemo flow vein port cath nursing school seem far away know know go relationship ship know go body go mayo clinic week see fuck wrong feel like control know way turn try hard get feel like direction next week work line week go mayo alone start freak mean travel alone many time different go poke prodded scan thing scar alone boyfriend life open relationship come bisexual recently slowly drifting apart see live life bigay man like experience like alone house without know come home jesus much go head hurt k do ramble sad hate sad</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4351,7 +4347,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>special unique let anyone say otherwise always neet find incredible person help see world hope eye something never find hobby anything sport game book talk whenever start bad thought remember one thing love even alone depend someone save become hero person take long time appear life already become well person put shotcut sorry bad english good luck life</t>
+          <t>special unique let anyone say otherwise always neet find incredible person help see world hope eye something never find hobby anything sport game book talk whenever start bad thought remember thing love even alone depend someone save become hero person take long time appear life already become well person put shotcut sorry bad english good luck life</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4385,7 +4381,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>believer anything spiritual supernatural truly feel like curse bad luck shit lot small thing constantly get bad loot video game miss public bus like 30 second etc always make small personal bet like get notification instagram like bet specific person like post look notification exactly kind shit constantly happen everyday bad really build start eat away big thing like 52 male pretty bad mental illness can not even relate mentally ill people get bronchitis like every fuck year tonight get news field trip hawaii look forward four fuck year cancel coronavirus bullshit course one fucking year senior able go pile fuck much feel like constantly bad luck life make lose excitement thing actually excite mindset go wrong bad luck make wonder even worth live stuck shit believe karma supernatural anything shit really make question</t>
+          <t>believer anything spiritual supernatural truly feel like curse bad luck shit lot small thing constantly get bad loot video game miss public bus like second etc always make small personal bet like get notification instagram like bet specific person like post look notification exactly kind shit constantly happen everyday bad really build start eat away big thing like male pretty bad mental illness can not even relate mentally ill people get bronchitis like every fuck year tonight get news field trip hawaii look forward fuck year cancel coronavirus bullshit course fuck year senior able go pile fuck much feel like constantly bad luck life make lose excitement thing actually excite mindset go wrong bad luck make wonder even worth live stuck shit believe karma supernatural anything shit really make question</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4419,7 +4415,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>use concerned image come little thought experiment imagine live world look others way feel depend good feel inside good appear others kind real hormone produce pheromone anyone feel certain way within direct impact others fact time look thing percieve feel focus live world everyone self conscious never think people observe people focus world percieves happen come mental trancestate one people burst bubble</t>
+          <t>use concerned image come little thought experiment imagine live world look others way feel depend good feel inside good appear others kind real hormone produce pheromone anyone feel certain way within direct impact others fact time look thing percieve feel focus live world everyone self conscious never think people observe people focus world percieves happen come mental trancestate people burst bubble</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4436,7 +4432,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>5 day ago slit wrist feel like absolute shit want reason felt like boyfriend find today really get make feel bad consider could feel hurt want know deep want live life anymore feel like constantly hurt people without realize</t>
+          <t>day ago slit wrist feel like absolute shit want reason felt like boyfriend find today really get make feel bad consider could feel hurt want know deep want live life anymore feel like constantly hurt people without realize</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4504,7 +4500,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>october assault exboyfriend even though broken august reach one people know year anniversary first time assault rap since nothing good withdraw semester depress go class relationship fall apart act like anymore one want around maybe want alone know sleep night feel safe bed happen feel like one talk anything sick hear even people know trust option tell mom dad would make move back home would make thing much bad close friend would try push get hospitalize family can not afford stop see therapist felt like whenever try open emotionally would change subject know talk anymore want kill actually several suicide attempt something time feels different know would sure afraid would actually work time afraid slight possibility could still survive know want die really want pain stop nothing make anything feel easy anymore know energy keep try sure hop get post even sure want kill yet anyone else talk need someone hear struggle right</t>
+          <t>october assault exboyfriend even though broken august reach people know year anniversary first time assault rap since nothing good withdraw semester depress go class relationship fall apart act like anymore want around maybe want alone know sleep night feel safe bed happen feel like talk anything sick hear even people know trust option tell mom dad would make move back home would make thing much bad close friend would try push get hospitalize family can not afford stop see therapist felt like whenever try open emotionally would change subject know talk anymore want kill actually several suicide attempt something time feels different know would sure afraid would actually work time afraid slight possibility could still survive know want die really want pain stop nothing make anything feel easy anymore know energy keep try sure hop get post even sure want kill yet anyone else talk need someone hear struggle right</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4521,7 +4517,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>exactly year ago turn gfs ex house want angry day walk towards explode pick run away forget even want angry go ikea look new stuff apartment go cafe take selfie u happy cute together selfie pop one year memory fast forward separate since end october last year talk remove everything except facebook hurt every fucking day remember remember good time remember future plan know exactly turn love leave wish spoke concern make mistake understand exactly want want happiness year ago miss much want get marry tell finish school get job get marry told love always tell love unconditionally wish somehow could redo relationship fit together damn well lifetime guess</t>
+          <t>exactly year ago turn gfs ex house want angry day walk towards explode pick run away forget even want angry go ikea look new stuff apartment go cafe take selfie u happy cute together selfie pop year memory fast forward separate since end october last year talk remove everything except facebook hurt every fucking day remember remember good time remember future plan know exactly turn love leave wish spoke concern make mistake understand exactly want want happiness year ago miss much want get marry tell finish school get job get marry told love always tell love unconditionally wish somehow could redo relationship fit together damn well lifetime guess</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4538,7 +4534,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>really suicidal lately lose faith god parent dad pastor come home screen curse see god could real see anything dad little friend group like 4 people ok always feel like drag like want sad every time try make joke get nerve mess really feel like really fit anywhere tonight parent yell look alive something can not tell really sad want say depress really strong word tire feel empty inside feel like always gag throat drill stomach would say anti social talk people whenever get semi close feel like always go mess</t>
+          <t>really suicidal lately lose faith god parent dad pastor come home screen curse see god could real see anything dad little friend group like people ok always feel like drag like want sad every time try make joke get nerve mess really feel like really fit anywhere tonight parent yell look alive something can not tell really sad want say depress really strong word tire feel empty inside feel like always gag throat drill stomach would say anti social talk people whenever get semi close feel like always go mess</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4601,12 +4597,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>lose 4 pound since monday get bad</t>
+          <t>lose pound since monday get bad</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>like complain talk depression lot friendsloved one want worry annoy get progressively worse recently though drop weight like crazy never interfere weight try talk thing get minimize nobody really give fck tell really sad yesterday mess know majority life like talk problem mean exist really idea mom therapist try talk get overly worried dad generally follow lead understand worry couple year ago pretty bad suicide attempt near fatal overdose od accident dumb within less 6 month worry happen get annoy though feel like can not even say sad without drug etc think maybe post make sense place guess easier vent stranger internet people life</t>
+          <t>like complain talk depression lot friendsloved one want worry annoy get progressively worse recently though drop weight like crazy never interfere weight try talk thing get minimize nobody really give fck tell really sad yesterday mess know majority life like talk problem mean exist really idea mom therapist try talk get overly worried dad generally follow lead understand worry couple year ago pretty bad suicide attempt near fatal overdose od accident dumb within less month worry happen get annoy though feel like can not even say sad without drug etc think maybe post make sense place guess easier vent stranger internet people life</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4635,12 +4631,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>265 day leave</t>
+          <t>day leave</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>265 day leave first attempt somehow already waste every single day nothing ok guess destine bored lazy know maybe courage idc anymore want end see continue</t>
+          <t>day leave first attempt somehow already waste every single day nothing ok guess destine bored lazy know maybe courage idc anymore want end see continue</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4674,7 +4670,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>junior year college lately depression get point can not help constantly think either die somehow outright kill tell isolate friend rarely answer text invite go either respond make excuse lot people tell miss see one consider ask feel like selfish want ask rather go talk badly struggle go everyday life also want go kind thing pretty heavy topic bring blue want scare anyone even know make sense maybe someone else felt similarly</t>
+          <t>junior year college lately depression get point can not help constantly think either die somehow outright kill tell isolate friend rarely answer text invite go either respond make excuse lot people tell miss seeing consider ask feel like selfish want ask rather go talk badly struggle go everyday life also want go kind thing pretty heavy topic bring blue want scare anyone even know make sense maybe someone else felt similarly</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4691,7 +4687,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>lately experience suicidal thought cry time worry everything feel like nothing go life good year behind diagnosed depression anxiety 17 25 fluoxetine various dos since valentine day year put zoloft finally go back doctor cbt counsel past nothing seem work much cope spent majority today research suicide method can not cope anymore sorry post know</t>
+          <t>lately experience suicidal thought cry time worry everything feel like nothing go life good year behind diagnosed depression anxiety fluoxetine various dos since valentine day year put zoloft finally go back doctor cbt counsel past nothing seem work much cope spent majority today research suicide method can not cope anymore sorry post know</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4708,7 +4704,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>thought 30yearold depressed guy afraid well afraid thing think regular basis worry daughter take away crazy exwife worry daughter think think goal ambition right make enough money outshine exwife want thing worry everything go wrong want start business successful afraid failure get stick right back like reset whole life worry go get cancer addict chew tobacco want stop daughter sake want influence life tell bad worry alone rest life can not seem find anyone love shallow think anyone 150 lbs pretty can not sleep mind race race night thing flow mind worry look successful people around hold back want show unsuccessful right feel like failure worthless person thing get really really tough thought daughter would raise pressure around right thing tremendous right thing right thing everyone think socially acceptable right thing think right people think thing wrong make right think thing past could do differently point can not change dwell need even worry worry go pay thing lose va disability want go va appointment feel reinforces fact mess come excuse go try reason ok go also distance away waste 2 hour day sit home nothing helpful go appointment lie doc 15 min tell every thing ok take med take med 1 hate take medication every day 2 like think take help take might write know need good work deadend job future pawn someone elses business story want make money know go one tell go afraid start anything fail want waste time something time take unforeseen event worry unforeseen event can not even see come life mess worried something may may happen sit type look baby monitor tell need well daughter example set anything life think whole life plan boom world rock unhealthy relationship everyone saw everyone tell girl everyone tell need leave cliché look spell cliché something go read sound love least thought love ready spend life go fucked two people know many others blame think affair affair write hoping feeling leave body worry anymore long go last really go help maybe post reddit website become famous ha kid nobody middle age man hand fuckedup life can not get fucked people live mine hurt bad maybe stuck materialistic thing want hide behind like nice truck nice one want smart enough burry debt loom content nothing afraid everything tell mean know get smart smart enough figure make happy really smart tell night day smarter right nothing show think everyone get way shape form trust anyone think agenda serve anyone truly selfless ramble ramble focus focus write focus focus focus hand dealt card instruction life purpose even waste time can not win lottery hide behind money least able thing make happy constrain money would really happy think would better would lucky win lottery strong people deserve luck figment imagination string pull divine supreme power might say drug right think like mind work think bless curse even read become long quick reader think interest short anyone take seriously write write want get well want good answer make answer hope get tell lie belittle people get life feel like people people come punish wrong afraid consequence pressure everyone right thing maybe govern people everyone act many question care mine right maybe share someone laugh someone feel empower someone belittle need good need push well start work thought might get laid look well anyone even go notice shape get lay sort less always find girl need make feel good wear alone go alone rest life least daughter right eventually leave one want around someone depress would want around always hear say radio tv love anyone love kidding always alone see love fat ugly stupid value ability love anyone else want use person make feel well even make sense connect anyone circulate around read far possibly keep go maybe still feel like go finger start hurt feel little good thing bottle inside maybe pretend type imaginary audience thing worry worry pay bill good financial stuff ok still worry worry right thing worry people think ridiculous worry right worry spell spell check worry sleep day daughter could hurt 2 also worry go grow think slept time know 3am write stupid paper thing worry fault worry make good impression people around want alone people around family right seem piss everyone else piss push people away can not hurt excuse worry get accident able take care responsibility worry someone elses burden want hinder someone elses life inability love one problem people want help get pay someone decide good business make money others suffer cancer maybe much definitely can not post anywhere worry get morning last day worry pile something can not take back think daughter worry trap life circumstance long time afraid take leap faith try make life well worry anything everything care anyone daughter truly life real thing care innocent contaminate life though negative think rub like hope see negative everything can not think fast think pace figure shit worry situation can not think way truly worry everything daughter push school well think mother want school ready think mom want take care want push school someone else must deal seem young start preschool mind care much exwife think maybe deal rest life like go away can not talk court see unfit parent lose daughter want feel like exwife life together mine fall apart underneath maybe hide like try one write stick feeling want lose daughter everything feeling like movement chess board moment go get check mat even uses term like anymore apparently worry go care daughter around worry fall something can not save literally figuratively worry life pointless think smile watch video make happy worry burden people one want deal try hide feel good anything good enough feel lonesome tire afraid beaten many struggle much mind emotionless defeat unintelligent worthless hopeless think like depression</t>
+          <t>thought yearold depressed guy afraid well afraid thing think regular basis worry daughter take away crazy exwife worry daughter think think goal ambition right make enough money outshine exwife want thing worry everything go wrong want start business successful afraid failure get stick right back like reset whole life worry go get cancer addict chew tobacco want stop daughter sake want influence life tell bad worry alone rest life can not seem find anyone love shallow think anyone lb pretty can not sleep mind race race night thing flow mind worry look successful people around hold back want show unsuccessful right feel like failure worthless person thing get really really tough thought daughter would raise pressure around right thing tremendous right thing right thing everyone think socially acceptable right thing think right people think thing wrong make right think thing past could do differently point can not change dwell need even worry worry go pay thing lose va disability want go va appointment feel reinforces fact mess come excuse go try reason ok go also distance away waste hour day sit home nothing helpful go appointment lie doc min tell every thing ok take med take med hate take medication every day like think take help take might write know need good work deadend job future pawn someone elses business story want make money know go tell go afraid start anything fail want waste time something time take unforeseen event worry unforeseen event can not even see come life mess worried something may may happen sit type look baby monitor tell need well daughter example set anything life think whole life plan boom world rock unhealthy relationship everyone saw everyone tell girl everyone tell need leave cliche look spell cliche something go read sound love least thought love ready spend life go fucked people know many others blame think affair affair write hoping feeling leave body worry anymore long go last really go help maybe post reddit website become famous ha kid nobody middle age man hand fuckedup life can not get fucked people live mine hurt bad maybe stuck materialistic thing want hide behind like nice truck nice want smart enough burry debt loom content nothing afraid everything tell mean know get smart smart enough figure make happy really smart tell night day smarter right nothing show think everyone get way shape form trust anyone think agenda serve anyone truly selfless ramble ramble focus focus write focus focus focus hand dealt card instruction life purpose even waste time can not win lottery hide behind money least able thing make happy constrain money would really happy think would better would lucky win lottery strong people deserve luck figment imagination string pull divine supreme power might say drug right think like mind work think bless curse even read become long quick reader think interest short anyone take seriously write write want get well want good answer make answer hope get tell lie belittle people get life feel like people people come punish wrong afraid consequence pressure everyone right thing maybe govern people everyone act many question care mine right maybe share someone laugh someone feel empower someone belittle need good need push well start work thought might get laid look well anyone even go notice shape get lay sort less always find girl need make feel good wear alone go alone rest life least daughter right eventually leave want around someone depress would want around always hear say radio tv love anyone love kidding always alone see love fat ugly stupid value ability love anyone else want use person make feel well even make sense connect anyone circulate around read far possibly keep go maybe still feel like go finger start hurt feel little good thing bottle inside maybe pretend type imaginary audience thing worry worry pay bill good financial stuff ok still worry worry right thing worry people think ridiculous worry right worry spell spell check worry sleep day daughter could hurt also worry go grow think slept time know write stupid paper thing worry fault worry make good impression people around want alone people around family right seem piss everyone else piss push people away can not hurt excuse worry get accident able take care responsibility worry someone elses burden want hinder someone elses life inability love one problem people want help get pay someone decide good business make money others suffer cancer maybe much definitely can not post anywhere worry get morning last day worry pile something can not take back think daughter worry trap life circumstance long time afraid take leap faith try make life well worry anything everything care anyone daughter truly life real thing care innocent contaminate life though negative think rub like hope see negative everything can not think fast think pace figure shit worry situation can not think way truly worry everything daughter push school well think mother want school ready think mom want take care want push school someone else must deal seem young start preschool mind care much exwife think maybe deal rest life like go away can not talk court see unfit parent lose daughter want feel like exwife life together mine fall apart underneath maybe hide like try write stick feeling want lose daughter everything feeling like movement chess board moment go get check mat even uses term like anymore apparently worry go care daughter around worry fall something can not save literally figuratively worry life pointless think smile watch video make happy worry burden people want deal try hide feel good anything good enough feel lonesome tire afraid beaten many struggle much mind emotionless defeat unintelligent worthless hopeless think like depression</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4725,7 +4721,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>nice know finally come home mara tara</t>
+          <t>nice know finally come home mara tara red_heart</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4742,7 +4738,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>graduate feel 0 desire go college find career anything point time away everyone else lol thanks thanks would much rather exist shit bore dumb af</t>
+          <t>graduate feel desire go college find career anything point time away everyone else lol thanks thanks would much rather exist shit bore dumb af</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4759,7 +4755,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>trouble focus suppose study least 6 hrs day brain fog also know cognitive dysfunction way super slow come difficult subject take many break dislike feel frustration want forget responsibility</t>
+          <t>trouble focus suppose study least hrs day brain fog also know cognitive dysfunction way super slow come difficult subject take many break dislike feel frustration want forget responsibility</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4771,12 +4767,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>think wake one day happy long suicidal would probably die massive heart attack shock</t>
+          <t>think wake day happy long suicidal would probably die massive heart attack shock</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>48m dealt depression suicidal thought probably 35 year pretty much different med 2 round tms 30 session therapy nothing make feel well remember way feel sad hopeless suicidal know much long keep go</t>
+          <t>dealt depression suicidal thoughts probably year pretty much different med round tms session therapy nothing make feel well remember way feel sad hopeless suicidal know much long keep go</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4861,7 +4857,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>tire miserable push around like cattle pretty sure prozac thing suicide thus put unbearable limbo state hate planet hate get waste life keep fed end one would care dissapeared even anyone would miss would get pretty quickly even bother</t>
+          <t>tire miserable push around like cattle pretty sure prozac thing suicide thus put unbearable limbo state hate planet hate get waste life keep fed end would care dissapeared even anyone would miss would get pretty quickly even bother</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4878,7 +4874,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>drown fail every single person life criticize every single person life control every single person life know deal abusive ex fight custody daughter grant overnights week never spend six hour go scared young understand mom try suggest transition slowly refuse unless give six hour week good faith two week pay 2k court appoint person ask can not get rid hold contempt court result fine jail time even though unemployed another couple month dad well able help want get involve financially able boyfriend completely minimize demonize feeling every single time point problem play victim turn around pick hurt feeling need toughen trust mean get upset tell need let go hatred imagined authority super stress point 85 negative time feel neglect unloved need keep feeling need guilt top stress baby sick sleep well woke 430 morning normally get 630 try get back well also live parent stepdad told mom yell daughter stomp around room intimidate true tell boyfriend stern yelling say maybe change stern voice apparently scar people yes let whatever fuck everyone want want autonomy authority damn life let stop express emotion mean stop emotion together please fucker life let change something even feel wrong make someone else fuck happy happy well bad apparently everyone elses feeling matter mine want die can not fuck live like every waking moment life try please someone else put everyone else chastise belittle berate one let think fuck hold able control say think feel can not fuck live like fuck way unemployed summer live parent listen bullshit can not get ex stop stalk harass insulting court refuse hold accountable can not force dad keep jail something zero control can not get boyfriend considerate feeling can not break either completely fall apart good moment literally thing keep function honestly feel like skin would shatter even shattered piece like broken piece temper glass split many piece impossible count get cut every single time move walk breathe flesh bag blood fragment zero way never felt hopeless life</t>
+          <t>drown fail every single person life criticize every single person life control every single person life know deal abusive ex fight custody daughter grant overnights week never spend hour go scared young understand mom try suggest transition slowly refuse unless give hour week good faith week pay k court appoint person ask can not get rid hold contempt court result fine jail time even though unemployed another couple month dad well able help want get involve financially able boyfriend completely minimize demonize feeling every single time point problem play victim turn around pick hurt feeling need toughen trust mean get upset tell need let go hatred imagined authority super stress point negative time feel neglect unloved need keep feeling need guilt top stress baby sick sleep well woke morning normally get try get back well also live parent stepdad told mom yell daughter stomp around room intimidate true tell boyfriend stern yelling say maybe change stern voice apparently scar people yes let whatever fuck everyone want want autonomy authority damn life let stop express emotion mean stop emotion together please fucker life let change something even feel wrong make someone else fuck happy happy well bad apparently everyone elses feeling matter mine want die can not fuck live like every waking moment life try please someone else put everyone else chastise belittle berated let think fuck hold able control say think feel can not fuck live like fuck way unemployed summer live parent listen bullshit can not get ex stop stalk harass insulting court refuse hold accountable can not force dad keep jail something control can not get boyfriend considerate feeling can not break either completely fall apart good moment literally thing keep function honestly feel like skin would shatter even shattered piece like broken piece temper glass split many piece impossible count get cut every single time move walk breathe flesh bag blood fragment way never felt hopeless life</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4895,7 +4891,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>break toxic boyfriend today come cry back tell give u break love much can not keep take shit keep tell thing get good change never know hard take back please someone help give</t>
+          <t>break toxic boyfriend today come cry back tell give u break love much can not keep take shit keep tell thing get good change never know hard take back please someone help give inloudly_crying_face</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4912,7 +4908,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>really would like die able save help people death like know could leave note say organ donor really would like opportunity die save someone one person time god wish could die fuck hero last moment miserable pathetic existence would able one give life someone else fuck useless piece shit life fucking failure human though die usefulshit almost make cry think joy think would feel</t>
+          <t>really would like die able save help people death like know could leave note say organ donor really would like opportunity die save someone person time god wish could die fuck hero last moment miserable pathetic existence would able give life someone else fuck useless piece shit life fucking failure human though die usefulshit almost make cry think joy think would feel</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4946,7 +4942,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>cry nearly everyday past 3 year know can not explain feel even know everyday 3 year life today feel like felt like knew know explain</t>
+          <t>cry nearly everyday past year know can not explain feel even know everyday year life today feel like felt like knew know explain</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4963,7 +4959,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>timewhen friends watch funny video laugh smile feel happy rest time sad confused life people surround find hard sleep always think cry time understand mum die couple year ago 13 never time fully grieve miss much time one seem understand consider happen long ago know always feel anxious stressy verge tear tire even stuff excite alot start dread confuse happen</t>
+          <t>timewhen friends watch funny video laugh smile feel happy rest time sad confused life people surround find hard sleep always think cry time understand mum die couple year ago never time fully grieve miss much time seem understand consider happen long ago know always feel anxious stressy verge tear tire even stuff excite alot start dread confuse happen</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4975,12 +4971,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>red dead redemption 2 help lot</t>
+          <t>red dead redemption help lot</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>get progressively worse throughout year find exact day social life pretty much nonexistent point find struggle hold onto friend drift away start play game actually excite get back apartment spend time world feel reward even spend whole day hunt work level 10 beard give sense purpose really feel lately probably go spend month chapter game want prolong time playing want share experience game definitely make life positive last month</t>
+          <t>get progressively worse throughout year find exact day social life pretty much nonexistent point find struggle hold onto friend drift away start play game actually excite get back apartment spend time world feel reward even spend whole day hunt work level beard give sense purpose really feel lately probably go spend month chapter game want prolong time playing want share experience game definitely make life positive last month</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4997,7 +4993,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>slowly kill past decade would smoke 5 spliff pack cigarette per day eat garbage 27 constantly live fear get cancer severe mental breakdown 2 3 month high level anxiety stress regret worry period give cancer life can not anymore convinced get cancer wish could quickly end finally peace</t>
+          <t>slowly kill past decade would smoke spliff pack cigarette per day eat garbage constantly live fear get cancer severe mental breakdown month high level anxiety stress regret worry period give cancer life can not anymore convinced get cancer wish could quickly end finally peace</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5031,7 +5027,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>always feel happy whole get one make even sad feel like something wrong</t>
+          <t>always feel happy whole get make even sad feel like something wrong</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5043,12 +5039,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>boyfriend classmate jump 6 story parking garage yesterday</t>
+          <t>boyfriend classmate jump story parking garage yesterday</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>write note everything nobody know thing successful athletic smart social friend everyone boyfriend say depress air school low everyone hit everyone person take life go think many time attempt fail much asshole want put suffer onto others yet much want death impact people feel like suffer bad enough kill time convince suicide longer even option take many time survive kid strong brave powerful able leap 6 story death write elaborate note keep mouth shut inner turmoil nobody know thing end do nothing fail everything include try kill feel like personality trait trauma everyone know depress can not help overshare feel like burden love one thought feeling can not ashamed</t>
+          <t>write note everything nobody know thing successful athletic smart social friend everyone boyfriend say depress air school low everyone hit everyone person take life go think many time attempt fail much asshole want put suffer onto others yet much want death impact people feel like suffer bad enough kill time convince suicide longer even option take many time survive kid strong brave powerful able leap story death write elaborate note keep mouth shut inner turmoil nobody know thing end do nothing fail everything include try kill feel like personality trait trauma everyone know depress can not help overshare feel like burden love one thought feeling can not ashamed</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5065,7 +5061,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>year ago depress suicidal several different reason think work thought well 22 last year thing gradually get worse point guess probably passively suicidal suicidal thought intention act urge self harm also occasionally come back do anything frustrated nothing specifically happen bring back happen really struggle see light end tunnel feel like put work nothing almost right back keep put much effort something futile always gunna end quite low low afraid something change get guess long scared suicidal hope know feel lonely people close would understand know sound cliche truly none depression try approach say something cliche unhelpful like thing get well promise try take walk sun movement always help like yeah wow thanks never think lol grant maybe partly fault really say full extent know bad still think would get anything helpful know gunna get anything helpful either even really sure point post vent felt like talk people would best shot</t>
+          <t>year ago depress suicidal several different reason think work thought well last year thing gradually get worse point guess probably passively suicidal suicidal thought intention act urge self harm also occasionally come back do anything frustrated nothing specifically happen bring back happen really struggle see light end tunnel feel like put work nothing almost right back keep put much effort something futile always gunna end quite low low afraid something change get guess long scared suicidal hope know feel lonely people close would understand know sound cliche truly none depression try approach say something cliche unhelpful like thing get well promise try take walk sun movement always help like yeah wow thanks never think lol grant maybe partly fault really say full extent know bad still think would get anything helpful know gunna get anything helpful either even really sure point post vent felt like talk people would best shot</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5099,7 +5095,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>million year evolution somehow one result ugly self harm socially awkward freak deserve friends constantly blowing lay bed day nothing 2020 suppose different unfixable 2019 suppose different 2018 suppose different 2017 2016 always fuck shiti know much long pretend suffer wish never exist know deserve</t>
+          <t>million year evolution somehow result ugly self harm socially awkward freak deserve friends constantly blowing lay bed day nothing suppose different unfixable suppose different suppose different always fuck shiti know much long pretend suffer wish never exist know deserve</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5150,7 +5146,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>currently sit ball dread anxiety wait colleges provost decide fate catch plagiarize ever since get email accusation spirit fight anymore feel like fuck sabotage pretty much ruin chance get medical school want move want look people want alone thought know enough keep go everything look hopeless think understood depression whole new level one put gun head ruin dream really hit differently 4 year money school waste hello rock bottom mind stay awhile</t>
+          <t>currently sit ball dread anxiety wait colleges provost decide fate catch plagiarize ever since get email accusation spirit fight anymore feel like fuck sabotage pretty much ruin chance get medical school want move want look people want alone thought know enough keep go everything look hopeless think understood depression whole new level put gun head ruin dream really hit differently year money school waste hello rock bottom mind stay awhile</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5184,7 +5180,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>life worth nothing yesterday roommate rap scared bf break time end end feel like anything might well finish set time 630 tonight well way gun</t>
+          <t>life worth nothing yesterday roommate rap scared bf break time end end feel like anything might well finish set time tonight good way gun</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5218,7 +5214,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>can not count many time try reach reddit time avail idea else go else hope someone say something helpful slightest can not afford see actual psychologist psychiatrist recently discover place city offer free counsel certain people week consideration paranoia finally suck go inquire almost felt proud take step find four month waitlist fuck can not wait long need help live broken poor city little opportunity can not afford move away neglected parent child abuse teen never true parental figure idea hell life thought suicide begin eleven year old try hang belt break true family aside grandmother friend long distance one meet internet year ago talk every month every romantic relationship go shit action develop strong hatred people life well overwhelming thought suicide pain loneliness severely hinders ability get anything do try sit work thing happen can not memory go shit barely remember much childhood anymore probably remember much say 20 minute say focus nonexistent lot difficulty read can not focus word currently unemployed jobsearching horrible resume pathetic graduate high school hardly eat anymore usually cheap unhealthy food good habit slip hardly brush teeth dentist year feel cavity lose one thing keep try move forward one thing give hope future can not see anywhere future nothing feel alone everyday fantasize pull big chef knife drive throat one ten time desire go know everyone suppose make everyone make genuinely feel like one people small part still want live know anyone see care enough respond respond please say generic copypasted shit believe heard</t>
+          <t>can not count many time try reach reddit time avail idea else go else hope someone say something helpful slightest can not afford see actual psychologist psychiatrist recently discover place city offer free counsel certain people week consideration paranoia finally suck go inquire almost felt proud take step find month waitlist fuck can not wait long need help live broken poor city little opportunity can not afford move away neglected parent child abuse teen never true parental figure idea hell life thought suicide begin year old try hang belt break true family aside grandmother friend long distance one meet internet year ago talk every month every romantic relationship go shit action develop strong hatred people life well overwhelming thought suicide pain loneliness severely hinders ability get anything do try sit work thing happen can not memory go shit barely remember much childhood anymore probably remember much say minute say focus nonexistent lot difficulty read can not focus word currently unemployed jobsearching horrible resume pathetic graduate high school hardly eat anymore usually cheap unhealthy food good habit slip hardly brush teeth dentist year feel cavity lose thing kept try move forward thing give hope future can not see anywhere future nothing feel alone everyday fantasize pull big chef knife drive throat time desire go know everyone suppose make everyone make genuinely feel like people small part still want live know anyone see care enough respond respond please say generic copypasted shit believe heard</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5264,12 +5260,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>3 hour</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>get work three hour get home think go dip woah 215 year life would never think would point think time go yanno know start say goodbye people without draw suspicion</t>
+          <t>get work hour get home think go dip woah year life would never think would point think time go yanno know start say goodbye people without draw suspicion</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5286,7 +5282,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>user jordanhttpswwwredditcomyoujordan177013 send himher suicide prevention link probably much help already create multiple post recently multiple subreddits suicide awful thing hope okay</t>
+          <t>user jordanhttpswwwredditcomyoujordan send himher suicide prevention link probably much help already create multiple post recently multiple subreddits suicide awful thing hope okay</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5337,7 +5333,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>freshman college feel terrible write problem online forum get point life feel stuck feel like can not confide friend family feel sad time like think ever get care people show care reminds make happy lately feel like burden everyone recently tell close best friend college hate sometimes even though would never anything feel like point tell want hear stuff like go distance make worry time understand go see counselor hurt yea friend tell would worry also would push away would understand need someone hurt put whole heart relationship would anything people care lift point feel like would feel alone feel like everyone feed sad many thing miss life know wrong know try hard amaze friend person everyone around get nowhere want fix know leave feeling absolutely alone one else turn know</t>
+          <t>freshman college feel terrible write problem online forum get point life feel stuck feel like can not confide friend family feel sad time like think ever get care people show care reminds make happy lately feel like burden everyone recently tell close best friend college hate sometimes even though would never anything feel like point tell want hear stuff like go distance make worry time understand go see counselor hurt yea friend tell would worry also would push away would understand need someone hurt put whole heart relationship would anything people care lift point feel like would feel alone feel like everyone feed sad many thing miss life know wrong know try hard amaze friend person everyone around get nowhere want fix know leave feeling absolutely alone else turn know</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5354,7 +5350,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>work together like 8 month know prior go like 5 date saw time outside leave 20 apartment want wake ask give hoodie work cold get back really suck trust people way hate world honestlh</t>
+          <t>work together like month know prior go like date saw time outside leave apartment want wake ask give hoodie work cold get back really suck trust people way hate world honestlh</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5371,7 +5367,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>depression long time partner date 6 month really good relationship however definitely get sad say thing mean sad guy build back trust faith say thing deeply sad see therapist encouraging partner see one</t>
+          <t>depression long time partner date month really good relationship however definitely get sad say thing mean sad guy build back trust faith say thing deeply sad see therapist encouraging partner see</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5400,7 +5396,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>five year later still miss</t>
+          <t>year later still miss</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5451,7 +5447,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>really need help guy m13</t>
+          <t>really need help guy</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -5473,7 +5469,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>sound emo cringy hell felt way 8 year meh</t>
+          <t>sound emo cringy hell felt way year meh</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5507,7 +5503,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>try transparent possible without reveal much high school senior graduate 3 month feel like life define pressure get good grade do decently well regard come expense social life lot thing value use love sport play feel like burden even show practice feel way extracurricular activity involve reject several collegesprograms already think decent shot get occasionally think real suicidal impulse know much fucking pussy anything closer closer get graduation low work ethic stoop bad feel utterly pathetic excuse human reason confuse occasionally moment enjoy enjoy life feel like bobble line despair hope sure whether make truly depressedsuicidal</t>
+          <t>try transparent possible without reveal much high school senior graduate month feel like life define pressure get good grade do decently well regard come expense social life lot thing value use love sport play feel like burden even show practice feel way extracurricular activity involve reject several collegesprograms already think decent shot get occasionally think real suicidal impulse know much fucking pussy anything closer closer get graduation low work ethic stoop bad feel utterly pathetic excuse human reason confuse occasionally moment enjoy enjoy life feel like bobble line despair hope sure whether make truly depressedsuicidal</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5570,7 +5566,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>help love one talk feeling</t>
+          <t>help love talk feeling</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5604,7 +5600,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>two brother kill fact thing keep look find sub instead</t>
+          <t>brother kill fact thing keep look find sub instead</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5677,7 +5673,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>hate always remind life go school get education hopefully get good pay job pay tax know stuff marriage whatever another year pass feel year fly remember elementary tell self recess wow never get high school positive child adult hope sad see depression hold need happy need change something hate take med schedule people go treat different find dumb arrogant self also lash girl best friend think hate say sorry like million time write paragraphs get forgive recently come front tell feel suicidal recently get mad make bad try fix best say get hug still talk class hallway text reason like get personal tell past family problem know stress know annoy keep positive vibe today one friends adhd say friend go give gun shoot two teacher trust one gym teacher school family mean guy go class year ago year divorce know depression stress anyways tell thanked bunch think speculate depression health teacher always talk know know something send vp tell story basically hail keep school safe grateful like reminded people care see neither probably think old teacher friend always talk bet miss right alright know write lot kind blurt knew stuff go write see big picture self sorry make sense either someone love swear take life take anothers maintain love love back love crispy</t>
+          <t>hate always remind life go school get education hopefully get good pay job pay tax know stuff marriage whatever another year pass feel year fly remember elementary tell self recess wow never get high school positive child adult hope sad see depression hold need happy need change something hate take med schedule people go treat different find dumb arrogant self also lash girl best friend think hate say sorry like time write paragraphs get forgive recently come front tell feel suicidal recently get mad make bad try fix best say get hug still talk class hallway text reason like get personal tell past family problem know stress know annoy keep positive vibe today friends adhd say friend go give gun shoot teacher trust gym teacher school family mean guy go class year ago year divorce know depression stress anyways tell thanked bunch think speculate depression health teacher always talk know know something send vp tell story basically hail keep school safe grateful like reminded people care see neither probably think old teacher friend always talk bet miss right alright know write lot kind blurt knew stuff go write see big picture self sorry make sense either someone love swear take life take anothers maintain love love back love crispy</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5728,7 +5724,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>hey everyone 22 year old ever since 9 father sexually abuse also verbally berate physically abuse never able get evidence crime document mother brainwash longer protects finally call police sick abuse afraid may fuck money due autism physical disability can not work feel stick first time year legitimately want end life see way foolish believe anyone would help know</t>
+          <t>hey everyone year old ever since father sexually abuse also verbally berate physically abuse never able get evidence crime document mother brainwash longer protects finally call police sick abuse afraid may fuck money due autism physical disability can not work feel stick first time year legitimately want end life see way foolish believe anyone would help know</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5745,7 +5741,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>think could really able grasp world want people fuck matter come even really act insufferable defect humanity existence 100 extinction event longer panic climate change anything like want accelerate want shit hit fan want happen certain incapable good future defect exist story keep play difference play smart phone people fucked people call failure laugh tragedy glory world could win million buck stock market still go rest u see way powerful people world act every day idiot decide give twitter account oh gosh riot get point weak still weak strong look dumber everyone else obviously kind attitude anyone would want put leave avoid piss anyone else even though absolutely right like tell good attitude mean accept wrong position sake get along everyone else walk cliff well two option right go crazy strand alone outside herd wrong feel good people walk abyss stupid stupid fate well third option could kill even want hear people worse sorry hear 6 billion people worse brighten day try hard try go make feel good remind country tax dollar contribute significantly peril bomb many people ruin sake politician bureaucrat literally become twitter troll funny mean want kill mind long time something spiritually hold wonder pass see anymore goal post beg desperately sign much want stop coward fear death pressure come sometimes hard intense think fear moment know might happen post may get deleted incite activism personally care social position collectively collapse care vote believe thought drive toward alienation inevitably perhaps death even look forward girlfriend anymore imagine wake every day tell doom well yet lie face say everything alright almost time go</t>
+          <t>think could really able grasp world want people fuck matter come even really act insufferable defect humanity existence extinction event longer panic climate change anything like want accelerate want shit hit fan want happen certain incapable good future defect exist story keep play difference play smart phone people fucked people call failure laugh tragedy glory world could win buck stock market still go rest u see way powerful people world act every day idiot decide give twitter account oh gosh riot get point weak still weak strong look dumber everyone else obviously kind attitude anyone would want put leave avoid piss anyone else even though absolutely right like tell good attitude mean accept wrong position sake get along everyone else walk cliff well option right go crazy strand alone outside herd wrong feel good people walk abyss stupid stupid fate well third option could kill even want hear people worse sorry hear people worse brighten day try hard try go make feel good remind country tax dollar contribute significantly peril bomb many people ruin sake politician bureaucrat literally become twitter troll funny mean want kill mind long time something spiritually hold wonder pass see anymore goal post beg desperately sign much want stop coward fear death pressure come sometimes hard intense think fear moment know might happen post may get deleted incite activism personally care social position collectively collapse care vote believe thought drive toward alienation inevitably perhaps death even look forward girlfriend anymore imagine wake every day tell doom well yet lie face say everything alright almost time go</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5762,7 +5758,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>go pretty good time get flat get job stay clean almost year except cigs beer try limit much even establish morning routine job like exercise meditation even write daily journal help lot memory think exercise proved excelent whenever attention start go jumpy go sleep exact time wake exact time exactly perfect good know happen guess freak weather loneliness along overthinking get back moodiness guess kind hop father mother would freak proud stop drag people hole use would proud find job keep try even health complication none happen family waste one talk except therapist girlfriend even know grateful least someone since understand feel sit home try live someone else life inside comic play game even hate try find way get away assist suicide can not shit right depress thing realize really matter much try change people instenctively hate matter try live normal life still suck matter clean since one care everywhere go black cloud negativity transfer bad mojo onto people burden gf since last month sad piece shit can not nothing make life well burden even friend take pity depress shit even matter would die one care one piece shit go friend till money drug call adn talk problem one wait till dignitas answer mail start prepare leave shitty hole call reality trough much abusive childhood abusive ex depression since 11 bully drug addiction anxiety agoraphobia call desilusions fake friend destroyed bit ability trust different human force girl almost sex 6 constant isolation school failure scapegoated hospitalise try kill 3 time left whole life support call parent make everything worse can not get keep hear bullshit like change think man heck suppose change something hardwired head year still child id love make comic id love make music can not anything else except read play energy anything bad part hear laugh people know even bad part know one answer post way end miserable piece shit call life hate people think assistedsuicideeuthanasia avaible people mental illness like say people cancer deserve die calm way life try good help people around cost dearly really bring realize matter matter try save mom alcoholic make thing bad matter try cheer people matter clean know form sentence ill say matter hard try always come back start tire reabulding rebuild understand keep cycling bardo fml</t>
+          <t>go pretty good time get flat get job stay clean almost year except cigs beer try limit much even establish morning routine job like exercise meditation even write daily journal help lot memory think exercise proved excelent whenever attention start go jumpy go sleep exact time wake exact time exactly perfect good know happen guess freak weather loneliness along overthinking get back moodiness guess kind hop father mother would freak proud stop drag people hole use would proud find job keep try even health complication none happen family waste talk except therapist girlfriend even know grateful least someone since understand feel sit home try live someone else life inside comic play game even hate try find way get away assist suicide can not shit right depress thing realize really matter much try change people instenctively hate matter try live normal life still suck matter clean since care everywhere go black cloud negativity transfer bad mojo onto people burden gf since last month sad piece shit can not nothing make life well burden even friend take pity depress shit even matter would die care piece shit go friend till money drug call adn talk problem wait till dignitas answer mail start prepare leave shitty hole call reality trough much abusive childhood abusive ex depression since bully drug addiction anxiety agoraphobia call desilusions fake friend destroyed bit ability trust different human force girl almost sex constant isolation school failure scapegoated hospitalise try kill time leave whole life support call parent make everything worse can not get keep hear bullshit like change think man heck suppose change something hardwired head year still child id love make comic id love make music can not anything else except read play energy anything bad part hear laugh people know even bad part know answer post way end miserable piece shit call life hate people think assistedsuicideeuthanasia avaible people mental illness like say people cancer deserve die calm way life try good help people around cost dearly really bring realize matter matter try save mom alcoholic make thing bad matter try cheer people matter clean know form sentence ill say matter hard try always come back start tire reabulding rebuild understand keep cycling bardo fml</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5779,7 +5775,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>put question context everyone understand come deal depression anxiety year really fuck childhood well take preteen help still feel everything therapy couple time help insurance cover therapist debate get onto med see psychiatrist anyways point date make step get well 21 ginger virgin male lot insecurity depression help fact worry bi polar disorder symptom fall category mdd point constantly feel like woman well cripple feel every time like girl think stop good leave alone literally friends relationship want bad want little experience one ego boost tell best kisser ever meet around block couple time honest miss someone would willing lose v risk rejection nice one non judgmental people ever meet nerd lol move state school fun cut short try date really hard since never love know look also want get virgin thing outta way one 40 fuck society social stigma impossible follow seem see date feeling year want 30 year old man experience either feel catch 22</t>
+          <t>put question context everyone understand come deal depression anxiety year really fuck childhood well take preteen help still feel everything therapy couple time help insurance cover therapist debate get onto med see psychiatrist anyways point date make step get well ginger virgin male lot insecurity depression help fact worry bi polar disorder symptom fall category mdd point constantly feel like woman well cripple feel every time like girl think stop good leave alone literally friends relationship want bad want little experience ego boost tell best kisser ever meet around block couple time honest miss someone would willing lose v risk rejection nice non judgmental people ever meet nerd lol move state school fun cut short try date really hard since never love know look also want get virgin thing outta way fuck society social stigma impossible follow seem see date feeling year want year old man experience either feel catch</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5796,7 +5792,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>therapy 2 year seem like get bad</t>
+          <t>therapy year seem like get bad</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5864,7 +5860,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>15 mom decide homeschool sibling fuck u subject math history even kniw basic grammarso life fuck burden society</t>
+          <t>mom decide homeschool sibling fuck u subject math history even kniw basic grammarso life fuck burden society</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5898,7 +5894,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>apologize advance term use may common reader proud see neutral thing join army first love comeraderie pt ruck etc basic lot fun grenade obstacle course etc academic fail ait job train army really painful living holdover think wtf holdover holdover someone whatever reason fail training get injured least moderately serious trouble job holdover mostly sit bleacher day near drill sergeant officespace end workday sometimes clean perform paper work occasion contribute nothing nothing watch old friend earn exact position spend last several month work heart angry much really frustrated job academic difficulty really uncommon stick holdover month 9 hour per day 5 day per week sit next nothing feel like drain society also miserable work use think contribute anything train fine job learn soldier job purpose none old freedom civilian consolation still abide battle buddy system soldier basic ait can not ever without another soldier around except specific circumstance allow base less 2 square mile space can not thing like electronics time work pas time make thoroughly reexamine reason every decision ever make first failed knew id send new mo army job id hop armor tank stuff artillery infantry really anything except signal computer frustrate wit end medical afraid needle transport hate work car drill sergeant say best case scenario id send specialist nothing short devastate one month ago would think think bubbly outgo motivate soldier today realize issue drill sgt much look come back go month notice show sign even really say anything use really great pt poorly may get kicked army entirely stress saddened prospect overall ashamed gf whose nothing short incredible way would ever make far feel like process join army start walk new york california get close nevada trip get knock fuck woke ohio star map think would much easy turn back cut loss thank put long rant reddit salty soldier</t>
+          <t>apologize advance term use may common reader proud see neutral thing join army first love comeraderie pt ruck etc basic lot fun grenade obstacle course etc academic fail ait job train army really painful living holdover think wtf holdover holdover someone whatever reason fail training get injured least moderately serious trouble job holdover mostly sit bleacher day near drill sergeant officespace end workday sometimes clean perform paper work occasion contribute nothing nothing watch old friend earn exact position spend last several month work heart angry much really frustrated job academic difficulty really uncommon stick holdover month hour per day day per week sit next nothing feel like drain society also miserable work use think contribute anything train fine job learn soldier job purpose none old freedom civilian consolation still abide battle buddy system soldier basic ait can not ever without another soldier around except specific circumstance allow base less square mile space can not thing like electronics time work pas time make thoroughly reexamine reason every decision ever make first failed knew id send new mo army job id hop armor tank stuff artillery infantry really anything except signal computer frustrate wit end medical afraid needle transport hate work car drill sergeant say best case scenario id send specialist nothing short devastate month ago would think think bubbly outgo motivate soldier today realize issue drill sgt much look come back go month notice show sign even really say anything use really great pt poorly may get kicked army entirely stress saddened prospect overall ashamed gf whose nothing short incredible way would ever make far feel like process join army start walk new york california get close nevada trip get knock fuck woke ohio star map think would much easy turn back cut loss thank put long rant reddit salty soldier</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5915,7 +5911,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>everyday could fine eventually think death creep think make sad question side life sometimes think kill get friend help either sorta surface level one closest negative want fun life 16 think much even care experience homeschool anymore try go college</t>
+          <t>everyday could fine eventually think death creep think make sad question side life sometimes think kill get friend help either sorta surface level one closest negative want fun life think much even care experience homeschool anymore try go college</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5932,7 +5928,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>battle depression try kill 2 week back chickened pass call friend help surreal feeling ever go away get life back want fall back old habit get dark place ever damn hard med seem help honestly feel like star black wall hope escape</t>
+          <t>battle depression try kill week back chickened pass call friend help surreal feeling ever go away get life back want fall back old habit get dark place ever damn hard med seem help honestly feel like star black wall hope escape</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5966,7 +5962,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>somebody sub go back time stop make decision focus happiness last year 2 day 25th birthday make decision fuck regret realize hopeless situation energy motivation throw cliff decide go kill turn 30 unless thing change way live life isolate trapped head edit whoever comment k bye delete post block lol</t>
+          <t>somebody sub go back time stop make decision focus happiness last year day th birthday make decision fuck regret realize hopeless situation energy motivation throw cliff decide go kill turn unless thing change way live life isolate trapped head edit whoever comment k bye delete post block lol</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5983,7 +5979,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>parent care friend sick one else give shit everyone shit deal even guy care hear feel slightly less pathetic people boat u feel completely alone piss can not find myslef fuck want already want shit stop</t>
+          <t>parent care friend sick else give shit everyone shit deal even guy care hear feel slightly less pathetic people boat u feel completely alone piss can not find myslef fuck want already want shit stop</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6017,7 +6013,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>hard couple month break simple manner general manager restaurant work 65 hour per week husband 29 year old diagnose crohns seven year ago unable work roughly 2 year year half ago surgery require remove roughly 6 foot intestine due u health insurance recently hes unable follow appointment get onto much need medication manage disease crohn get bad finally get doctor january get health insurance do several ct scan keep find abcesses develop intestine another surgery schedule upcoming tuesday go hospital today due abscess bulge stomach two puppy home husband hospital work ridiculous hour put lot plate already work feel like narcissistic po wife poor husband hospital worry much stress put lot trauma life physically abusive father grow really mess realize impact every day life 4 year relationship man cheat entire time together abuse physically verbally sexually manipulate really mentally screw one pay bill 13 hour sit home 4 year absolutely nothing lot like say situation put constantly tire unmotivated angry time reach point want give feel like neverending cycle problem fix one thing three bad thing get thrown working as every day plus nothing show since far medical send scrounge money 25 year old feel like 50 several panic attack past couple month many happen multiple time per day anytime go doctor anxietydepressionadd throw whatever med pull as tell come back couple month later try several medication none seem anything except zombify try journaling tried exercise regularly try everything feel like know else friends longer existant anyone talk figure would come sub vent really anyone else</t>
+          <t>hard couple month break simple manner general manager restaurant work hour per week husband year old diagnose crohn year ago unable work roughly year year half ago surgery require remove roughly foot intestine due u health insurance recently hes unable follow appointment get onto much need medication manage disease crohn get bad finally get doctor january get health insurance do several ct scan keep find abcesses develop intestine another surgery schedule upcoming tuesday go hospital today due abscess bulge stomach puppy home husband hospital work ridiculous hour put lot plate already work feel like narcissistic po wife poor husband hospital worry much stress put lot trauma life physically abusive father grow really mess realize impact every day life year relationship man cheat entire time together abuse physically verbally sexually manipulate really mentally screw pay bill hour sit home year absolutely nothing lot like say situation put constantly tire unmotivated angry time reach point want give feel like neverending cycle problem fix thing bad thing get thrown working as every day plus nothing show since far medical send scrounge money year old feel like several panic attack past couple month many happen multiple time per day anytime go doctor anxietydepressionadd throw whatever med pull as tell come back couple month later try several medication none seem anything except zombify try journaling tried exercise regularly try everything feel like know else friends longer existant anyone talk figure would come sub vent really anyone else</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6034,7 +6030,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>run 2 major problem life atm eat away well part month give backstory people pleaser life feel like always go flow people expectation rather do since kid turn 20 year say first problem run know want like partly due depression mostly due fact never really do say wanted outside force shut every turn school parent etc know drive wall 2 thought hard people pleaser trait lot come conclusion hate believe selfish feel do want life inauthentic go look outside validation love feel like incapable receive hit way want thing fast far like addict dump look new person give feeling long fucked people care extent prioritize feeling shit first realization fuck bad real bad thought would great lose right thanks</t>
+          <t>run major problem life atm eat away well part month give backstory people pleaser life feel like always go flow people expectation rather do since kid turn year say first problem run know want like partly due depression mostly due fact never really do say wanted outside force shut every turn school parent etc know drive wall think hard people pleaser trait lot come conclusion hate believe selfish feel do want life inauthentic go look outside validation love feel like incapable receive hit way want thing fast far like addict dump look new person give feeling long fucked people care extent prioritize feeling shit first realization fuck bad real bad thought would great lose right thanks</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6085,7 +6081,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>day feel like run around circle keep make wrong decision come inability control emotion currently face consequence decision course tire could see way feel accomplish additionally impose problem upon others include loved one begin well perfect mint condition average student prestigious high school country school full brilliant kid can not seem catch feel exhaust keep compete academically scholarship stop try mom perfectly stable job earn equivalent 500 usd month yet toxic environmental condition city live back make feel really oppressed mention absurdly overwhelm isolated feeling school give decide stupidly leave country another place seem ideal country europe inarguably well climate love cold weather well food quality generally peaceful urban life contrast busy city rule crazy driver felt great first day arrival head temporarily free pressure magic come price basic thing life water ridiculously expensive stressful think shower additionally move new school make reluctant fact international school small sweet community tuition fee considerably stress mom price equivalent mother make old job 2 year life good coronavirus strike apparently healthcare europe downright frustrate sorry european friend country take quarantine procedure seriously country live one want go back day go discovered lot kid old school currently achieve something something consider dream give becauseemotions ughh know anymore stress atm even know say anymore cut slash arm though noticeable much want much think feel guilty put someone like mom go thing could get wanted dear hell please give strong torture device deserve</t>
+          <t>day feel like run around circle keep make wrong decision come inability control emotion currently face consequence decision course tire could see way feel accomplish additionally impose problem upon others include loved one begin well perfect mint condition average student prestigious high school country school full brilliant kid can not seem catch feel exhaust keep compete academically scholarship stop try mom perfectly stable job earn equivalent usd month yet toxic environmental condition city live back make feel really oppressed mention absurdly overwhelm isolated feeling school give decide stupidly leave country another place seem ideal country europe inarguably well climate love cold weather well food quality generally peaceful urban life contrast busy city rule crazy driver felt great first day arrival head temporarily free pressure magic come price basic thing life water ridiculously expensive stressful think shower additionally move new school make reluctant fact international school small sweet community tuition fee considerably stress mom price equivalent mother make old job year life good coronavirus strike apparently healthcare europe downright frustrate sorry european friend country take quarantine procedure seriously country living want go back day go discovered lot kid old school currently achieve something something consider dream give becauseemotions ughh know anymore stress atm even know say anymore cut slash arm though noticeable much want much think feel guilty put someone like mom go thing could get wanted dear hell please give strong torture device deserve</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6102,7 +6098,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>28 friend close relative girl skill still live parent brother dream nothing single live last january almost drown swim ocean drown realize okay go rescue tried live month see anymore need stop pretend go ok yeah future really live</t>
+          <t>friend close relative girl skill still live parent brother dream nothing single live last january almost drown swim ocean drown realize okay go rescue tried live month see anymore need stop pretend go ok yeah future really live</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6136,7 +6132,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>hard get bed every morning right want die damn hard alive world want keep go want keep fight wish would end could peace ever ask life love ever want love world take request turn back form million dagger heart can not bear want die</t>
+          <t>hard get bed every morning right want die damn hard alive world want keep go want keep fight wish would end could peace ever ask life love ever want love world take request turn back form dagger heart can not bear want die</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6170,7 +6166,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>know make sound like horrible person mean send text brother friend check sender get aggression sadnessangerfrustration text turn recipient brotherit friend feel like world go end quickly delete fast could still see allor enough girl friend whole life 16 17 soon realize make huge mistake start shake frantically heart almost beat chest look situation less friend wrong wrong incident happen frantically type away send horrible text front face could even say anything mortified send text turn already see point simply walk away know say seriously take aggression one best friend text front get text say much basically say always think well always make feel bad forth guess whati start whole schpiel type blank annoy get scared angry afterwards throw bathroom cut wrist deserve go home early fill guilt ashamed continue throughout day lye write reddit bed hop someone could share advice also already tried message say know saw send youand sorry forth text apologize write thing say true tht really sad latley depressedi never talk thing like ever see handle type situationsshe simply cuts people feel suicidal sad feel awful wish could turn back time send text fear lose long best friend good age 16 please somebody help</t>
+          <t>know make sound like horrible person mean send text brother friend check sender get aggression sadnessangerfrustration text turn recipient brotherit friend feel like world go end quickly delete fast could still see allor enough girl friend whole life soon realize make huge mistake start shake frantically heart almost beat chest look situation less friend wrong wrong incident happen frantically type away send horrible text front face could even say anything mortified send text turn already see point simply walk away know say seriously take aggression best friend text front get text say much basically say always think well always make feel bad forth guess whati start whole schpiel type blank annoy get scared angry afterwards throw bathroom cut wrist deserve go home early fill guilt ashamed continue throughout day lye write reddit bed hop someone could share advice also already tried message say know saw send youand sorry forth text apologize write thing say true tht really sad latley depressedi never talk thing like ever see handle type situationsshe simply cuts people feel suicidal sad feel awful wish could turn back time send text fear lose long best friend good age please somebody help</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6221,7 +6217,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ever since break lonely depressed son would make probably still love ex hurt separate six month six year happen family drive nuts go glad get place soon break tear live cram annoy family drag pull hair break tear</t>
+          <t>ever since break lonely depressed son would make probably still love ex hurt separate month year happen family drive nuts go glad get place soon break tear live cram annoy family drag pull hair break tear</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6238,7 +6234,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>really know right honest 15 year old trans guy come like 11 wait tavistock uk gender clinic like 3 year get distarged co fuck friend anymore step dad prick apparently mean know shit literally like know 3 meeting wait fuck long feel fuck dysphoric fucking time hate body fuck much want enough testosterone least make voice little deep push edge go yesterday literally 5 people call girl mum step dad pretty much give call boy pronoun always call girlthier daughter use sheher even get transition society fuck transphobic like fuck twitter shit every post trans folks always negative like whole wave even cis lgbt people hat u literally fuck point already attempt suicide 12 camhs absolutely nothing therapist anything single friend except like one online friend literally every family member like oooh try kill sad hardly speak since plus even meet half family biological dad hardly ever speak keep arrange time u meet cancel like person might actually upset die cat anyway already 2 codomsl pill right accord google need like 5 one go kill probably way house yeah can not arsed life literally nothing live goodbye</t>
+          <t>really know right honest year old trans guy come like waited tavistock uk gender clinic like year get distarged co fuck friend anymore step dad prick apparently mean know shit literally like know meeting wait fuck long feel fuck dysphoric fucking time hate body fuck much want enough testosterone least make voice little deep push edge go yesterday literally people call girl mum step dad pretty much give call boy pronoun always call girlthier daughter use sheher even get transition society fuck transphobic like fuck twitter shit every post trans folks always negative like whole wave even cis lgbt people hat u literally fuck point already attempt suicide camhs absolutely nothing therapist anything single friend except like online friend literally every family member like oooh try kill sad hardly speak since plus even meet half family biological dad hardly ever speak keep arrange time u meet cancel like person might actually upset die cat anyway already codomsl pill right accord google need like go kill probably way house yeah can not arsed life literally nothing live goodbye</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6255,7 +6251,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>turn 25 last month always poor family car ton debt shit credit always bitter get frustrate everything work home activity use find fun agitate everything fuck mental obstacle course even simple task put college take loan can not even find career field despise god damn bitter feel like internal scream roar head time can not afford gun know roommate one never find desperate desperate make stop</t>
+          <t>turn last month always poor family car ton debt shit credit always bitter get frustrate everything work home activity use find fun agitate everything fuck mental obstacle course even simple task put college take loan can not even find career field despise god damn bitter feel like internal scream roar head time can not afford gun know roommate never find desperate desperate make stop</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6272,7 +6268,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>even know start 14 struggeled suicidal thought year recently get way bad life crap first trash happen school everyone know say smart easily get good grade get behind schoolwork beggining year snowball herei f ds school can not fix soo much 2 3 aunt uncle disown leave family girl like since meet 3 year ago like relationship one best old friend think togeather year ditch everyone know ago parent think caught school look grade discover horrible grade dig tell suicidal talk need stay want die sign therapist wich talk twice stop take cancel hobby bring joy piano filmmaking prop make lightsaber fighting costume make cosplay video game far piano broke can not play sign another semester filmmaking cu lazy prop make become un enjoyable 2 saber break costume make become frustriating hard say old costume need grow video game enjoyable anymore type parent think get grade back like b want check grade see still horrible want die point feel like nothing leave know know people worse happy may like overprivlaged child go phase really see way</t>
+          <t>even know start struggeled suicidal thought year recently get way bad life crap first trash happen school everyone know say smart easily get good grade get behind schoolwork beggining year snowball herei f ds school can not fix soo much aunt uncle disown leave family girl like since met year ago like relationship best old friend think togeather year ditch everyone know ago parent think caught school look grade discover horrible grade dig tell suicidal talk need stay want die sign therapist wich talk twice stop take cancel hobby bring joy piano filmmaking prop make lightsaber fighting costume make cosplay video game far piano broke can not play sign another semester filmmaking cu lazy prop make become un enjoyable saber break costume make become frustriating hard say old costume need grow video game enjoyable anymore type parent think get grade back like b want check grade see still horrible want die point feel like nothing leave know know people worse happy may like overprivlaged child go phase really see way</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6289,7 +6285,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>scared one day may strong enough thoughtful enough hopeful enough end know one word one frightening unbearable say even type suicide</t>
+          <t>scar day may strong enough thoughtful enough hopeful enough end know word frighten unbearable say even type suicide</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6301,12 +6297,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>can not see past 25 25</t>
+          <t>can not see past</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>long time could see live past 25 mostly come towards last year university get bad around end 2017 landing work 2018 meet someone suddenly felt alive felt calm collect although stuck loop apply work feel tiresome 2019 get accepted medicine move overseas partner start tear u apart 3 week move drop med school stress break become way much handle especially since overseas back apply job old degree get nowhere heavily depress can not see past 25 strong feeling die year atm welcome death open hand tired life constantly shift</t>
+          <t>long time could see live past mostly come towards last year university get bad around end landing work meet someone suddenly felt alive felt calm collect although stuck loop apply work feel tiresome get accepted medicine move overseas partner start tear u apart week move drop med school stress break become way much handle especially since overseas back apply job old degree get nowhere heavily depress can not see past strong feeling die year atm welcome death open hand tired life constantly shift</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6323,7 +6319,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>since year start feel like keep screw thought could make life well compare last year instead fcked want nothing either end get away town city everything everyone nothing anymore one would rather dead feeling point</t>
+          <t>since year start feel like keep screw thought could make life well compare last year instead fcked want nothing either end get away town city everything everyone nothing anymore would rather dead feeling point</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6374,7 +6370,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>depress like forever ugly one like loser always sad can not anything people tell tht life well dead life suck</t>
+          <t>depress like forever ugly like loser always sad can not anything people tell tht life well dead life suck</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6425,7 +6421,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>day day isolate long begin actually despise people use loathe idea hat human isolation start get expect everyone meat matter anymore make difference weather try everyone feel think need friend go talked people nobody want hangout school work try life pathetic matter yes never hang call friend try way hard people want badly stay maybe push away one want thing change</t>
+          <t>day day isolate long begin actually despise people use loathe idea hat human isolation start get expect everyone meat matter anymore make difference weather try everyone feel think need friend go talked people nobody want hangout school work try life pathetic matter yes never hang call friend try way hard people want badly stay maybe push away want thing change</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6459,7 +6455,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>always want find soulmate scar one ever love back know stupid reason sad romance something dream since kid one like romantic way one person crush entire life last month everyday find friends date people post picture significant others every time see post feel like cry</t>
+          <t>always want find soulmate scar ever love back know stupid reason sad romance something dream since kid like romantic way person crush entire life last month everyday find friends date people post picture significant others every time see post feel like cry</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6476,7 +6472,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>spent past three day type suicide letter near end find grow anxiety riddle realize many people care enough life felt need give explanation personally go back added section die suicide part want go anymore write pretty sure point suicide letter care much want imagine face read everything hard recently really tire physically emotionally tired loss tired class tire way relationship head want rest stop feeling overwhelm want friend also struggle one particular anyone entire life potentially go similar problem answer text message assume want bother think never want bother either bottle everything wish society teach u thing negative emotion need lock away people view could honest without feel burden love wonder many life could save many deep conversation could love one feel bad anything feel like way everyone elses progress add another problem mountain problem everyone deserve well wish way get way would potentially hurt already</t>
+          <t>spend past day type suicide letter near end find grow anxiety riddle realize many people care enough life felt need give explanation personally go back added section die suicide part want go anymore write pretty sure point suicide letter care much want imagine face read everything hard recently really tire physically emotionally tired loss tired class tire way relationship head want rest stop feeling overwhelm want friend also struggle particular anyone entire life potentially go similar problem answer text message assume want bother think never want bother either bottle everything wish society teach u thing negative emotion need lock away people view could honest without feel burden love wonder many life could save many deep conversation could love one feel bad anything feel like way everyone elses progress add another problem mountain problem everyone deserve well wish way get way would potentially hurt already</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6488,12 +6484,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>21 recently realize dad terrible person childhood fuck anyone see feel hopeless life skill think family curse</t>
+          <t>recently realize dad terrible person childhood fuck anyone see feel hopeless life skill think family curse</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>dad immigrant come u 30 marry 18 year old mother study abroad home country quickly become financially successful moderately famous industry thing come define anything else parent 11 year marriage sibling homeschooled childhood super shelter everything life never allow sleepover rarely allow friend every moment life schedule micromanaged never encourage pursue anything except become professional soccer player never want something dad want way live dream vicariously never around financially support mom live city u time never parent rarely even around holiday birthdays keep thing house come home maybe month sometimes less always say need closer work stay friend house everything whole city 30 minute drive less never work anyone adult understand live various girlfriend though still marry mom always seem wait come home finally dadhusband develop severe anorexia 12 family seem ignore even though stop grow lose 40 pound rarely eat exercise 46 hour day literally week away death bmi 12 mom finally take doctor grandma beg something really wrong doctor tell anorexic recommend inpatient treatment psychotherapy mom yell doctor say way daughter anorexic storm office next 6 month stay weight nightly would sit dinner table mom cry hour scream finish food never go therapy eat disorder deny every doctor tell mentally ill sure tapeworm thyroid disease celiac ailment cause lose 40 body weight stay dangerously low weight 16 first year go school trade ed nightly sneak binge drinking bulimia 16 almost arrest try buy alcohol dad find told want alcohol could ask start help sneak give alcohol whenever want think drive wedge mom always love secret would keep would take around 23 year old girlfriend tell tell mom fact would blackmail say thing like tell mom would hate find sneak party right 17 dad lose business wealth still unable recover financial loss pin happiness money go change completely every time talk since talk break mom cause financial ruin stupid idiot curse mom around almost every time talk long talk one night 16 tell never kid ruin life never want kid would multi millionaire happy free never family mom crazy lunatic ruin life finance fell horribly abusive 4 year relationship guy 17 bounce around college vocational school also moderately successful entertainment career never able find foot anywhere feel like can not connect anyone really feel passion anything feel like path life want take though feel like talented multiple thing awful romantic relationship friendship maybe never healthy relationship example family never long term friendship grow year ago talk dad want get job make lot money like bottle service suggest become stripper dance year insist call tell much money make every night act like lucky give permission like wtf grown adult living since 18 god know put work money make every time see negative toxic realize lot anxiety problem felt child suicidal literally since remember stem insane toxic energy always engulf family life do lot psychedelics really good grip spirituality mindfulness know something way big earth plane live light force dark force thing lately feel like meant bless light force like born darkness curse family doom miserable depressed toxic like dad good person think narcissistic sociopath scar half gene come dad total narcissist respect woman felt unexplainably awful vibe always paternal grandfather successful business young somehow dissolve end completely break nothing leave family dementia mindset child take care death last year aunt put unspeakable stress pain take care grandfather completely ungrateful dad family end mental hospital 70 completely depress mentally ill feel demon take every day felt dark force around since remember see demon nightmare sleep paralysis think abusive exboyfriend influence demon follow around can not see anything good happen life long term fear go end like everyone dad side recently talk lot stuff mom start cry say fail every way leave dad little wish never even married teenager literally know month get married hit hard make feel like whole life never even suppose happen part one giant fuck mistake make naive 18 year old feel like lose soul mean exist dark energy get ahold want talk dad anymore wrong question everything really hope live long see anyone family glimmer nice life age 55 one take seriously say childhood fuck much grow lot material possession money seemingly super involve mother people think bad childhood think poverty physical abuse druggie parent thing like maybe spoil brat either way happy can not remember ever ever happy couple day time wrong</t>
+          <t>dad immigrant come u marry year old mother study abroad home country quickly become financially successful moderately famous industry thing come define anything else parent year marriage sibling homeschooled childhood super shelter everything life never allow sleepover rarely allow friend every moment life schedule micromanaged never encourage pursue anything except become professional soccer player never want something dad want way live dream vicariously never around financially support mom live city u time never parent rarely even around holiday birthdays keep thing house come home maybe month sometimes less always say need closer work stay friend house everything whole city minute drive less never work anyone adult understand live various girlfriend though still marry mom always seem wait come home finally dadhusband develop severe anorexia family seem ignore even though stop grow lose pound rarely eat exercise hour day literally week away death bmi mom finally take doctor grandma beg something really wrong doctor tell anorexic recommend inpatient treatment psychotherapy mom yell doctor say way daughter anorexic storm office next month stay weight nightly would sit dinner table mom cry hour scream finish food never go therapy eat disorder deny every doctor tell mentally ill sure tapeworm thyroid disease celiac ailment cause lose body weight stay dangerously low weight first year go school trade ed nightly sneak binge drinking bulimia almost arrest try buy alcohol dad find told want alcohol could ask start help sneak give alcohol whenever want think drive wedge mom always love secret would keep would take around year old girlfriend tell tell mom fact would blackmail say thing like tell mom would hate find sneak party right dad lose business wealth still unable recover financial loss pin happiness money go change completely every time talk since talk break mom cause financial ruin stupid idiot curse mom around almost every time talk long talk night tell never kid ruin life never want kid would multi millionaire happy free never family mom crazy lunatic ruin life finance fell horribly abusive year relationship guy bounce around college vocational school also moderately successful entertainment career never able find foot anywhere feel like can not connect anyone really feel passion anything feel like path life want take though feel like talented multiple thing awful romantic relationship friendship maybe never healthy relationship example family never long term friendship grow year ago talk dad want get job make lot money like bottle service suggest become stripper dance year insist call tell much money make every night act like lucky give permission like wtf grown adult living since god know put work money make every time see negative toxic realize lot anxiety problem felt child suicidal literally since remember stem insane toxic energy always engulf family life do lot psychedelics really good grip spirituality mindfulness know something way big earth plane live light force dark force thing lately feel like meant bless light force like born darkness curse family doom miserable depressed toxic like dad good person think narcissistic sociopath scar half gene come dad total narcissist respect woman felt unexplainably awful vibe always paternal grandfather successful business young somehow dissolve end completely break nothing leave family dementia mindset child take care death last year aunt put unspeakable stress pain take care grandfather completely ungrateful dad family end mental hospital completely depress mentally ill feel demon take every day felt dark force around since remember see demon nightmare sleep paralysis think abusive exboyfriend influence demon follow around can not see anything good happen life long term fear go end like everyone dad side recently talk lot stuff mom start cry say fail every way leave dad little wish never even married teenager literally know month get married hit hard make feel like whole life never even suppose happen part giant fuck mistake make naive year old feel like lose soul mean exist dark energy get ahold want talk dad anymore wrong question everything really hope live long see anyone family glimmer nice life age take seriously say childhood fuck much grow lot material possession money seemingly super involve mother people think bad childhood think poverty physical abuse druggie parent thing like maybe spoil brat either way happy can not remember ever ever happy couple day time wrong</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6527,7 +6523,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>real life friend sometimes talk people school mutual subject never get call school weekend decent grade live comfortably one like try approachable try nice always shut ask go away one want go therapist friday tire living constant state loneliness isolation begin slit area arm shoulder elbow want people see know pain everyday go school smile face come home cry one like nothing worthless know hop accomplish say hey story</t>
+          <t>real life friend sometimes talk people school mutual subject never get call school weekend decent grade live comfortably like try approachable try nice always shut ask go away want go therapist friday tire living constant state loneliness isolation begin slit area arm shoulder elbow want people see know pain everyday go school smile face come home cry like nothing worthless know hop accomplish say hey story confused_face</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6539,12 +6535,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>probable attempt 4 hour</t>
+          <t>probable attempt hour</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>find link think someone maybe want kill something 4 hour link videos hysteria challenge leave comment</t>
+          <t>find link think someone maybe want kill something hour link videos hysteria challenge leave comment</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6561,7 +6557,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>weak small person know one respect treat like shit abandon society aggressive people think murder kill others take rage pretend slaughter people constantly disrespect hurt like grey sky give depress tone like gore violence thing find somewhat happiness towards fall void grief sorrow hopeless one load bullet care anyone think care life anymore accept fate glad choose kill give mature understand cold brutal reality human race go counselor therapist like way cold sad make feel happy lose interest friends activity prefer alone sad pathetic human want say goodbye one care practically 0 loser hang guitar string bully daily thank might care fell safe internet real life hope death brutal long feel much harm humanly possible die care nothing death type feel feel heart goodbye 352020 suicide date</t>
+          <t>weak small person know respect treat like shit abandon society aggressive people think murder kill others take rage pretend slaughter people constantly disrespect hurt like grey sky give depress tone like gore violence thing find somewhat happiness towards fall void grief sorrow hopeless load bullet care anyone think care life anymore accept fate glad choose kill give mature understand cold brutal reality human race go counselor therapist like way cold sad make feel happy lose interest friends activity prefer alone sad pathetic human want say goodbye one care practically loser hang guitar string bully daily thank might care fell safe internet real life hope death brutal long feel much harm humanly possible die care nothing death type feel feel heart goodbye suicide date</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6578,7 +6574,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>lay bed listen joji wish live earth tire exist stress unbearable know fuck vent phone suck reason 1 sister move university 2 mother</t>
+          <t>lay bed listen joji wish live earth tire exist stress unbearable know fuck vent phone suck reason sister move university mother</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6595,7 +6591,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>grow people always tell somebody whoever want put mind 10 year pass turn nobody motivation live look back want hug old self tell cherish every moment young kid world harsh place everyone also victim society nothing worthless nobody die nothing would happen world around would still people die every day would make different disappear nothing decide hang bathroom cry pain satisfaction leave earth shower curtain rod bathroom break loud thud luckily everyone asleep proceed cry silence think ugly worthless piece crap waste oxygen acne scar make feel like nothing everything shit want die murder blame somebody death want live anymore</t>
+          <t>grow people always tell somebody whoever want put mind year pass turn nobody motivation live look back want hug old self tell cherish every moment young kid world harsh place everyone also victim society nothing worthless nobody die nothing would happen world around would still people die every day would make different disappear nothing decide hang bathroom cry pain satisfaction leave earth shower curtain rod bathroom break loud thud luckily everyone asleep proceed cry silence think ugly worthless piece crap waste oxygen acne scar make feel like nothing everything shit want die murder blame somebody death want live anymore</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6612,7 +6608,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>pretty much deal depression anxiety quite number year go real low rough patch moment self hatred grow rapidly top ex girlfriend break day wondering could comment positive thing like inspiration whatnot thank advance hope everyone read right cop alright never alone</t>
+          <t>pretty much deal depression anxiety quite number year go real low rough patch moment self hatred grow rapidly top ex girlfriend break day wondering could comment positive thing like inspiration whatnot thank advance hope everyone read right cop alright never alone red_heart</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6629,7 +6625,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>hii know else go devastated right feel like spiral control feel fuck numb cry lung even best friend longer supportive family parent home shit real friend care can not bother anything right want sleep without wake see another morning feel fuck pathetic shit cut regularly much fuck self pity pretend normal want lose best friend person help come far previous suicidal attempt suppress make much fucking bad feel like nobody fuck care matter many time shout help one close care know lean towards paracetamol poison die die try different method feel like absolute shit jobless regret everything life every fuck thing know trust anymore even fuck shoulder lean cry lung ldr past 6 month prior study overseas can not even fuck hold arm feel like shit best supportive best friend can not hurt harm fuck struggle feel enrage angry everythingi can not fuck find job due covid19 sometimes feel like money get kick go near find job least stay sane right seem fuck impossible feel like fuck mess wish fucking die right feel much burden inhale want die get else go plan consume med tonight can not anymore</t>
+          <t>hii know else go devastated right feel like spiral control feel fuck numb cry lung even best friend longer supportive family parent home shit real friend care can not bother anything right want sleep without wake see another morning feel fuck pathetic shit cut regularly much fuck self pity pretend normal want lose best friend person help come far previous suicidal attempt suppress make much fucking bad feel like nobody fuck care matter many time shout help close care know lean towards paracetamol poison die die try different method feel like absolute shit jobless regret everything life every fuck thing know trust anymore even fuck shoulder lean cry lung ldr past month prior study overseas can not even fuck hold arm feel like shit best supportive best friend can not hurt harm fuck struggle feel enrage angry everythingi can not fuck find job due covid sometimes feel like money get kick go near find job least stay sane right seem fuck impossible feel like fuck mess wish fucking die right feel much burden inhale want die get else go plan consume med tonight can not anymore</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6646,7 +6642,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>tldr feel really shut away know get anymore hi brendan 27soon 28 yo male know anymore try avoid post end feel matter anyway say something cry help would accept feel able get problem diagnose wish major depressive disorder 15 obsessive compulsive behavior 23 generalized anxiety come 25 know can not simply get issue brain also know head call mental problem get point lonely like 3 friend know girlfriend would still lonely one amazing still feel alone really think go bad deserve make good time seem good patient come feeling want feel go away anything basically shelter room past year half remember talk people act public job strive homeless sorry anything say upset anyone somehow really need say something start lose battle head feel like fight much long want give fight give sickness take yet though try stay hopeful even know</t>
+          <t>tldr feel really shut away know get anymore hi brendan soon yo male know anymore try avoid post end feel matter anyway say something cry help would accept feel able get problem diagnose wish major depressive disorder obsessive compulsive behavior generalize anxiety come know can not simply get issue brain also know head call mental problem get point lonely like friend know girlfriend would still lonely amaze still feel alone really think go bad deserve make good time seem good patient come feeling want feel go away anything basically shelter room past year half remember talk people act public job strive homeless sorry anything say upset anyone somehow really need say something start lose battle head feel like fight much long want give fight give sickness take yet though try stay hopeful even know</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -6675,7 +6671,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>can not fathom one love</t>
+          <t>can not fathom love</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6697,7 +6693,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>think really want end go soon though everyone beat able help go get back thing work get another job earn much money possible eat workout everything plan year go therapy assessment stop social medium wean people away slowly guess move away like every know always plan go felt hope one day would okay back never ever want feel honest probably end feel okay fear feeling like worth period okay meant sorry everyone every wish ever pray still feel numb ever want feel happy go euphoria plan mention one note deserve much well see anything else fix</t>
+          <t>think really want end go soon though everyone beat able help go get back thing work get another job earn much money possible eat workout everything plan year go therapy assessment stop social medium wean people away slowly guess move away like every know always plan go felt hope day would okay back never ever want feel honest probably end feel okay fear feeling like worth period okay meant sorry everyone every wish ever pray still feel numb ever want feel happy go euphoria plan mention note deserve much well see anything else fix</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6714,7 +6710,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>family hat friend college degree 7 job last 3 year absolutely defeat lost enjoyment thing truly understand guess care enough people around upset truly anymore fuck suck</t>
+          <t>family hat friend college degree job last year absolutely defeat lost enjoyment thing truly understand guess care enough people around upset truly anymore fuck suck</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6731,7 +6727,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>26 year old male always always worried something could big could small matter always worry say worried talk everyday anxiety talk constant panic attack 26 people guess 40 time relief sleep everytime thing seem look something always manage go wrong anxiety turn rage year get closer closer snap everyday clean brathrooms live someone could much ask could use bathroom try clean want rip head fuck shoulder almost afraid might hurt someone soon feel nothing live anymore felt past 10 year get well vile person tell countless people vile person know do would think vile person turn back thing do nothing lose feel time inflict pain upon others think disappoint parent see monster comfort really see live life much longer</t>
+          <t>year old male always always worried something could big could small matter always worry say worried talk everyday anxiety talk constant panic attack people guess time relief sleep everytime thing seem look something always manage go wrong anxiety turn rage year get closer closer snap everyday clean brathrooms live someone could much ask could use bathroom try clean want rip head fuck shoulder almost afraid might hurt someone soon feel nothing live anymore felt past year get well vile person tell countless people vile person know do would think vile person turn back thing do nothing lose feel time inflict pain upon others think disappoint parent see monster comfort really see live life much longer</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6743,7 +6739,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>one give shit feel</t>
+          <t>give shit feel</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6765,7 +6761,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>every interaction feel fake always want popular guy charismatic consider many friend hide away people spend least 15 hour day room watch tv show see 100 time want anything interest start hobby go gym work constant good enough people nice really like know fake try hard conscious everything walk talk etc can not seem accept struggle authentic fill information subject know stop bitch get grip like internal battle exhaust like can not let go reason basically live mind thought inadequate fake area slow fall victim role know make sence suggestion people relate</t>
+          <t>every interaction feel fake always want popular guy charismatic consider many friend hide away people spend least hour day room watch tv show see time want anything interest start hobby go gym work constant good enough people nice really like know fake try hard conscious everything walk talk etc can not seem accept struggle authentic fill information subject know stop bitch get grip like internal battle exhaust like can not let go reason basically live mind thought inadequate fake area slow fall victim role know make sence suggestion people relate</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -6794,7 +6790,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>lowstatus man early 30 really turn around</t>
+          <t>lowstatus man early really turn around</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6811,7 +6807,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>scream one hear one want hear</t>
+          <t>scream hear want hear</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6833,7 +6829,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>method suicide select hypothermia river near house 40 degree water fahrenheit 4 degree celsius night one would see would tie rope life jacket confine tree drift along current spot someone would find death would occur within couple hour water unconsciousness would happen method easy pull involve highly intense pain get really want problem go work soon due warmer season approach quickly decide want die afraid act regret endure life another year also 100 set death yet</t>
+          <t>method suicide select hypothermia river near house degree water fahrenheit degree celsius night would see would tie rope life jacket confine tree drift along current spot someone would find death would occur within couple hour water unconsciousness would happen method easy pull involve highly intense pain get really want problem go work soon due warmer season approach quickly decide want die afraid act regret endure life another year also set death yet</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6867,7 +6863,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>like help people suicidal thought really sometimes help people feel like fraud know one day sooner later go end life always say head help go rough period live get good truly believe believe ever go get good kind know good something live forever point lie</t>
+          <t>like help people suicidal thought really sometimes help people feel like fraud know day sooner later go end life always say head help go rough period live get good truly believe believe ever go get good kind know good something live forever point lie</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6884,7 +6880,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>24 shitty degree translation job close friend feel like disappointment life go nowhere wake face faliure compare sister brother every single day see point live burden parent feel like matter happen future end kill know go sound dramatic feel cell go kill point life wish could right least want save money pay funeral stuff want burden death lol</t>
+          <t>shitty degree translation job close friend feel like disappointment life go nowhere wake face faliure compare sister brother every single day see point live burden parent feel like matter happen future end kill know go sound dramatic feel cell go kill point life wish could right least want save money pay funeral stuff want burden death lol</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6918,7 +6914,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>much shit go right mom terminal cancer family dog put sleep tonight sister extremely ill potentially go lose baby 6 month pregnant partner work mental health issue can not leave house work every hour keep roof head try hard every one feel like one can not break</t>
+          <t>much shit go right mom terminal cancer family dog put sleep tonight sister extremely ill potentially go lose baby month pregnant partner work mental health issue can not leave house work every hour keep roof head try hard every feel like can not break</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6930,12 +6926,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>add value workplace internship one guide work feel worthless piece shit feel partly fault one care believe get undiagnosed dperession</t>
+          <t>add value workplace internship guide work feel worthless piece shit feel partly fault care believe get undiagnosed dperession</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>make whole google doc sheet go kill look pretty good 31 way list emotional support around mum would give silent treatment say feel get anxiety attack often lot time really hard open around stayed college come wrong place ie get idea would shut give response know even go survive corporate workplace</t>
+          <t>make whole google doc sheet go kill look pretty good way list emotional support around mum would give silent treatment say feel get anxiety attack often lot time really hard open around stayed college come wrong place ie get idea would shut give response know even go survive corporate workplace</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6952,7 +6948,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>reason drink self medicate saw friend pas away car accident 19 stupid challenge race use parent car basically understeered tree tried therapy work also diagnose ptsd depression stop take prescription work feel blood hand one make parent grandfather come told worried drinking problem sometimes drink bottle vodka day want drink death granddad try relate situation tell thing vietnam walk upset everything think order would anything apologise time feel buy grandfather along get parkinson disease want worry well</t>
+          <t>reason drink self medicate saw friend pas away car accident stupid challenge race use parent car basically understeered tree tried therapy work also diagnose ptsd depression stop take prescription work feel blood hand make parent grandfather come told worried drinking problem sometimes drink bottle vodka day want drink death granddad try relate situation tell thing vietnam walk upset everything think order would anything apologise time feel buy grandfather along get parkinson disease want worry well</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -7003,7 +6999,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>throwaway friend know account know care hurt head always conflict cloud thought keep think die maybe everybody would happier maybe stop fuck maybe everybody would think good version go young know much ahead maybe one day thing get well incredibly hard think anymore stay psych ward make behind school make feel selfish want work cause pain others sometimes think maybe go people would need worry anymore would need go chat certain people feel well would stay bed cry day much want disappear think hang read much get fucked start think different method know feel today go last</t>
+          <t>throwaway friend know account know care hurt head always conflict cloud thought keep think die maybe everybody would happier maybe stop fuck maybe everybody would think good version go young know much ahead maybe day thing get well incredibly hard think anymore stay psych ward make behind school make feel selfish want work cause pain others sometimes think maybe go people would need worry anymore would need go chat certain people feel well would stay bed cry day much want disappear think hang read much get fucked start think different method know feel today go last</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -7020,7 +7016,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>long story shorten bit get kick crisis housing dog know property go state apart agreement go service dog change mind 4 month later say stay can not basically force homeless one really seem care reach love nothing busy something well know say give get past 2 year cancer find remission program youth organisation accept australian bush fire start effect family home lose granddad well go end</t>
+          <t>long story shorten bit get kick crisis housing dog know property go state apart agreement go service dog change mind month later say stay can not basically force homeless really seem care reach love nothing busy something well know say give get past year cancer find remission program youth organisation accept australian bush fire start effect family home lose granddad well go end</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -7037,7 +7033,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>keep look way kill doubt little store town would need successful 3500 medical bill thay beeds pay thst kind money work three 12 work apparently enough need somehow get 4 hour shift can not find person need ask even possible tired wabt anymore one listening probably post main account doubt anyone know habe reddit guess</t>
+          <t>keep look way kill doubt little store town would need successful medical bill thay beeds pay thst kind money work work apparently enough need somehow get hour shift can not find person need ask even possible tired wabt anymore listen probably post main account doubt anyone know habe reddit guess</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7054,7 +7050,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>see meme everyday occasionally nose exhale shit vibe anymore hate alone time even speak entire week one talk college help friend group home break apart slowly shit hurt can not fuck talk anyone know keep conversation go even text new people</t>
+          <t>see meme everyday occasionally nose exhale shit vibe anymore hate alone time even speak entire week talk college help friend group home break apart slowly shit hurt can not fuck talk anyone know keep conversation go even text new people</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7083,12 +7079,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>cancel wed 4 month away date</t>
+          <t>cancel wedding month away date</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>know anymore 4 month away get married best friend 10 yr say know want everything fine actively plan wed call fiancee hand save date say needs time leave house next week 1 month separation everyone say well happen v later still hurt like hell ask reason say know post instagram use 100 energy let go happy someone else thing want anyone else always choose told say anything except push love much heart feel like go explode feel like die everyday know bad thing happen world feel stupid say would rather die without relationship perfect yes issue always find way work time around really come literally blindside feel crush find go motion alarm family can not anymore need best friend back need love life backi can not tell anyone feel instantly tell idiot leave find someone else want anyone else want himsometimes drive back parent house move back find long drive car road way die people would say accident intentionally</t>
+          <t>know anymore month away get married best friend yr say know want everything fine actively plan wed call fiancee hand save date say needs time leave house next week month separation everyone say well happen v later still hurt like hell ask reason say know post instagram use energy let go happy someone else thing want anyone else always choose told say anything except push love much heart feel like go explode feel like die everyday know bad thing happen world feel stupid say would rather die without relationship perfect yes issue always find way work time around really come literally blindside feel crush find go motion alarm family can not anymore need best friend back need love life backi can not tell anyone feel instantly tell idiot leave find someone else want anyone else want himsometimes drive back parent house move back find long drive car road way die people would say accident intentionally</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7139,7 +7135,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>call hotline say exactly honestly know expect get dude read bunch question answer get transferred sassy lady inform could either send team collect take hospital could call 911 repeat can not afford hospital lady tell option deal mental health issue since kid really explode last 23 year get people depression kill want die sad want die go happen rest life can not agree never think would person would strongly consider even sad help want hurt can not can not</t>
+          <t>call hotline say exactly honestly know expect get dude read bunch question answer get transferred sassy lady inform could either send team collect take hospital could call repeat can not afford hospital lady tell option deal mental health issue since kid really explode last year get people depression kill want die sad want die go happen rest life can not agree never think would person would strongly consider even sad help want hurt can not can not</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7173,7 +7169,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>think everything fine even plan hang day say love say love night told could relationship leave dust nothing best friend also friend state since move one feel like lose part</t>
+          <t>think everything fine even plan hang day say love say love night told could relationship leave dust nothing best friend also friend state since move feel like lose part</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7190,7 +7186,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>deserve love fuck mess reason relationship feel like people deserve something well shit trash one love try give give funeral cry guess people would even show one care friends texting guy group one best friend still hang alone lose drinking know else numb pain maybe death end deserve death love maybe ill die tomorow maybe 10 year time tell survive 4 suicide attemps life nothing well</t>
+          <t>deserve love fuck mess reason relationship feel like people deserve something well shit trash love try give give funeral cry guess people would even show care friends texting guy group best friend still hang alone lose drinking know else numb pain maybe death end deserve death love maybe ill die tomorow maybe year time tell survive suicide attemps life nothing well</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7207,7 +7203,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>mobile format suck well another thing fail fight whole life survive severely abuse neglect child childhood constant battle beaten starve mentally abused broken teen sexually assault 14 step brother best friend 15 still mentally abused mother lead suicide attempt 16 take bottle xanax oxy sadly find wake hospital tube shove throat taste charcoal soon get relationship man cut friends family beat make tell worthless daily basis get away 18 almost 19 involved stalk terrorize struggle eat disorder whole time 19 meet soon ex husband never abusive clueless everything never good enough never validate feeling 5 child 2129 leave husband 30 get relationship another man end abuse raped beat mentally abuse also introduce drug struggle addiction eat disorder leave 4 month last year press charge soon ex husband give place stay need nanny mom move go homeless know kid deserve much mentally broken mother withdrawn give custody freely tire struggle thought fight whole life can not anymore plan next week get hotel make look like accidental overdose ex get life insurance money way post can not even link two phone main one one everyone know use vpm phone way would know post take life think anymore</t>
+          <t>mobile format suck well another thing fail fight whole life survive severely abuse neglect child childhood constant battle beaten starve mentally abused broken teen sexually assaulted step brother best friend still mentally abused mother lead suicide attempt take bottle xanax oxy sadly find wake hospital tube shove throat taste charcoal soon get relationship man cut friends family beat make tell worthless daily basis get away almost involved stalk terrorize struggle eat disorder whole time meet soon ex husband never abusive clueless everything never good enough never validate feeling child leave husband get relationship another man end abuse raped beat mentally abuse also introduce drug struggle addiction eat disorder leave month last year press charge soon ex husband give place stay need nanny mom move go homeless know kid deserve much mentally broken mother withdrawn give custody freely tire struggle thought fight whole life can not anymore plan next week get hotel make look like accidental overdose ex get life insurance money way post can not even link phone main everyone know use vpm phone way would know post take life think anymore</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7224,7 +7220,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>pretty sure get buried post guess need somewhere vent either want remind piece shit depress pretty much entire life never realise think everyone sad time constant pit stomach like want cry random thought kill go shit since elementary school always akward kid overly loud make joke expense order get others crack smile never good keep friendships let alone make friendship always consider loner way mainly always feel like want alone never party unless birthday never go drinking friend never really conversation anyone without turn akward silence currently senior highschool feel like waste highschool year freshman year meet girl great care shy cute seem truly listen say never ball ask suppose good thing later find gay half year get involved highschool lgbt community full flat rude people change bad start spend alot less time know go entire month without spending time together would always ask want hang always busy slowly start complete 180 use become self center always say nice person eventually stop talk completely realise destroy love use guess think hard tried friend maybe would start like around guess wrong one point stop even acknowledge like guess annoy would text ask would send lengthy text explain like even read keep exact thing tell make feel like trash friendship absolutely destroy become extremely depressed become somewhat hermit would go school soon get home would sleep next day still really sad happen can not help blame something say something early friend make treat others well basically kind destroy self esteem confidence leave quiet kid school although friend say really seem like quiet type 6 foot 2 inch tall build like viking say spent time month barely bring leave house pretty much last friend feel like let slip away like friend destroy afraid anything hate terrible friend know change always know nice guy help way like talk anyone willing give time day well even know lady store day drop something cane arm full fuck watch struggle pick stuff ground kind fuck person watch someone struggle apparently like froze guess could move body like paralyzed pit stomach felt really anxious would describe hate become want go back kind guy always help others instead watch struggle like jackass know fix become afraid go affect try get job summer go college afraid go use someone watch thing happen instead give help hand feel like agoddamn failure mainly guess story type thing really point talk reflect much asshole someone actually read well would love suggestion get rid damn leave alot detail 1am school morning maybe come back sometime computer fill bit thanks read sincerely hope go go</t>
+          <t>pretty sure get buried post guess need somewhere vent either want remind piece shit depress pretty much entire life never realise think everyone sad time constant pit stomach like want cry random thought kill go shit since elementary school always akward kid overly loud make joke expense order get others crack smile never good keep friendships let alone make friendship always consider loner way mainly always feel like want alone never party unless birthday never go drinking friend never really conversation anyone without turn akward silence currently senior highschool feel like waste highschool year freshman year meet girl great care shy cute seem truly listen say never ball ask suppose good thing later find gay half year get involved highschool lgbt community full flat rude people change bad start spend alot less time know go entire month without spending time together would always ask want hang always busy slowly start complete use become self center always say nice person eventually stop talk completely realise destroy love use guess think hard tried friend maybe would start like around guess wrong point stop even acknowledge like guess annoy would text ask would send lengthy text explain like even read keep exact thing tell make feel like trash friendship absolutely destroy become extremely depressed become somewhat hermit would go school soon get home would sleep next day still really sad happen can not help blame something say something early friend make treat others well basically kind destroy self esteem confidence leave quiet kid school although friend say really seem like quiet type foot inch tall build like viking say spent time month barely bring leave house pretty much last friend feel like let slip away like friend destroy afraid anything hate terrible friend know change always know nice guy help way like talk anyone willing give time day well even know lady store day drop something cane arm full fuck watch struggle pick stuff ground kind fuck person watch someone struggle apparently like froze guess could move body like paralyzed pit stomach felt really anxious would describe hate become want go back kind guy always help others instead watch struggle like jackass know fix become afraid go affect try get job summer go college afraid go use someone watch thing happen instead give help hand feel like agoddamn failure mainly guess story type thing really point talk reflect much asshole someone actually read well would love suggestion get rid damn leave alot detail school morning maybe come back sometime computer fill bit thanks read sincerely hope go go</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7241,7 +7237,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>17 feel way ever since 15 friend social anxiety homeschooled since 5 top aspergers syndrome would give away everything least one real friend understand normal anxiety gotten bad barely even go anymore reason huge fear kid around age almost panic attack check new college mum think ever make like lot stuff sure one age like get angry relative reason hate teen hormone exist everything complicate lose mind never use worry shit little kid wish could go back time undo whatever fuck make way come good family family related thing isolate entire world family stay room play game watch video can not anything else thing keep alive family cry feel like cry whenever picture look horror take life</t>
+          <t>feel way ever since friend social anxiety homeschooled since top aspergers syndrome would give away everything least real friend understand normal anxiety gotten bad barely even go anymore reason huge fear kid around age almost panic attack check new college mum think ever make like lot stuff sure age like get angry relative reason hate teen hormone exist everything complicate lose mind never use worry shit little kid wish could go back time undo whatever fuck make way come good family family related thing isolate entire world family stay room play game watch video can not anything else thing keep alive family cry feel like cry whenever picture look horror take life</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -7309,7 +7305,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>vent throwaway account privacy mind blank can not think want eat want try anymore try almost 30 year gotten well like everyone say would series up down rollercoaster never seem end fuck hate partner grad program fuck u direct deposit bill go overdue barely food house neither u mental energy lately cook could pick shift work weekend penny try slowly pay tiny bit everything able make enough pay everything work brink death barely get smoke get day drink fall asleep night could end partner know mentally ill try best go beyond effort ever see include parent want leave behind feel guilty feel way can not keep go like want end sight make exit</t>
+          <t>vent throwaway account privacy mind blank can not think want eat want try anymore try almost year get good like everyone say would series up down rollercoaster never seem end fuck hate partner grad program fuck u direct deposit bill go overdue barely food house neither u mental energy lately cook could pick shift work weekend penny try slowly pay tiny bit everything able make enough pay everything work brink death barely get smoke get day drink fall asleep night could end partner know mentally ill try best go beyond effort ever see include parent want leave behind feel guilty feel way can not keep go like want end sight make exit</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7326,7 +7322,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>feel like life worth live people tell life set since 16 know school confuse scared pas go life set everyone get mad family typical mormon think life something control life control</t>
+          <t>feel like life worth live people tell life set since know school confuse scared pas go life set everyone get mad family typical mormon think life something control life control</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7343,7 +7339,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>start 2 year ago 15th birthday friend gift video game call csgo though go best thing ever new game meet guy uk name nuke steam game platform good friend year use play sometimes chit chat csgo trading stuff next birthday decide buy 100 steam wallet code save past year birthday money big deal job yet student rich nuke tell idea would great could send could get profit trading item game steam 34 year already like innocent person go start find lie start blackmail act racist force stuff like shave eveybrows call friend n word tape want money back naive though could get money back big deal go move ask social always pretext one last thing need get severely cyber bullied abused day night tell anyone use cry everyday night even go stalk youtube channel make false promise message real life friend tried block lure back make really sucidal last 2 year can not live anymore never though like would bad lose money would lose much far live</t>
+          <t>start year ago th birthday friend gift video game call csgo though go best thing ever new game meet guy uk name nuke steam game platform good friend year use play sometimes chit chat csgo trading stuff next birthday decide buying steam wallet code save past year birthday money big deal job yet student rich nuke tell idea would great could send could get profit trading item game steam year already like innocent person go start find lie start blackmail act racist force stuff like shave eveybrows call friend n word tape want money back naive though could get money back big deal go move ask social always pretext last thing need get severely cyber bullied abused day night tell anyone use cry everyday night even go stalk youtube channel make false promise message real life friend tried block lure back make really sucidal last year can not live anymore never though like would bad lose money would lose much far live</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7377,7 +7373,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>26 yo male live kc mo lose package handler job february damn slow living brother apartment throw since can not make rent anymore 3 dollar change ps4 phone typing nowhere go friend whatsoever family even give time day degree certification credit terrible several grand debt probably go spend last 3 steel reserve kill hurt much fuck life fuck people fuck useless piece shit never succeed anything life</t>
+          <t>yo male living kc mo lose package handler job february damn slow living brother apartment throw since can not make rent anymore dollar change p phone typing nowhere go friend whatsoever family even give time day degree certification credit terrible several grand debt probably go spend last steel reserve kill hurt much fuck life fuck people fuck useless piece shit never succeed anything life</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7479,7 +7475,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>know belongs apologize post meant rhetorical additional detail provide feedback require get thought head hope brain find little peace recently deal lot negativity jeopardy lose family due action takendecisions make girlfriend two little boy give life purpose become life would spend night bar simply something pick chick anything well sit home lose really know would life quote ernest hemingway go every man two death bury ground last time someone say name mean contemplate suicide bury get think completely sever tie everyone ever know start life somewhere else though essentially bury life far long would take friend family stop try find long dailyweeklymonthly think mind long distant memory memory could even already go week without talk parent longer without talk family random amount time without talk friend people talk daily person say talk daily 100 certainty girlfriend wonder could truly run away start new life life fall apart could manage find new purpose would catch shadow purpose feel</t>
+          <t>know belongs apologize post meant rhetorical additional detail provide feedback require get thought head hope brain find little peace recently deal lot negativity jeopardy lose family due action takendecisions make girlfriend little boy give life purpose become life would spend night bar simply something pick chick anything well sit home lose really know would life quote ernest hemingway go every man death bury ground last time someone say name mean contemplate suicide bury get think completely sever tie everyone ever know start life somewhere else though essentially bury life far long would take friend family stop try find long dailyweeklymonthly think mind long distant memory memory could even already go week without talk parent longer without talk family random amount time without talk friend people talk daily person say talk daily certainty girlfriend wonder could truly run away start new life life fall apart could manage find new purpose would catch shadow purpose feel</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7496,7 +7492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>mean yes never feel happiness always feel tire shit come depression would contribute think use depression excuse hide fact terrible person depression since least age 10 17 year two ago depression never huge problem pass school friend hobbies one day suicide attempt get random boost motivation felt happiness first time year feel happiness make realize miserable time lead figure depression ever since become aware started thing like fail school ghost friend drop hobby whenever smile laugh hide try best make sad fetishize sadness sadness happy place happy painful feel like put play hide fact selfish as nothing play videogames day good confession suicide attempt yeah day come lazy get bed walk railway yet everyone tell story heard talk suicide attempt tell much actually forget never even try lie excuse make look broken already day think actually go reenact moment see actually lazy get bed would fear therapist find get cure depression still go shitty always along true mean cure go like forever</t>
+          <t>mean yes never feel happiness always feel tire shit come depression would contribute think use depression excuse hide fact terrible person depression since least age year ago depression never huge problem pass school friend hobby day suicide attempt get random boost motivation felt happiness first time year feel happiness make realize miserable time lead figure depression ever since become aware started thing like fail school ghost friend drop hobby whenever smile laugh hide try best make sad fetishize sadness sadness happy place happy painful feel like put play hide fact selfish as nothing play videogames day good confession suicide attempt yeah day come lazy get bed walk railway yet everyone tell story heard talk suicide attempt tell much actually forget never even try lie excuse make look broken already day think actually go reenact moment see actually lazy get bed would fear therapist find get cure depression still go shitty always along true mean cure go like forever</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7525,12 +7521,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>lonely tonight one know awake kind glad</t>
+          <t>lonely tonight know awake kind glad</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>man holy fuck feel neutral passive right past 3 odd day kind float try kill twice past 5 month people long world truly believe cut man paradoxical think objectively good life outside loneliness diagnosis major depression disorder w suicidal ideation complex ptsd anxiety truck apartment cat decently pay job survive ha feel goddamn lonely irl friend usually push away want bother lot time feel shameful tell mental problem fuck man tire head really want tell kill life mean love like hear stuff</t>
+          <t>man holy fuck feel neutral passive right past odd day kind float try kill twice past month people long world truly believe cut man paradoxical think objectively good life outside loneliness diagnosis major depression disorder w suicidal ideation complex ptsd anxiety truck apartment cat decently pay job survive ha feel goddamn lonely irl friend usually push away want bother lot time feel shameful tell mental problem fuck man tire head really want tell kill life mean love like hear stuff</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7564,7 +7560,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>bf live 9th floor kind want jump window yes know little shit stalk post enjoy suffer blask may dead soon can not take anymorei wish everything would end</t>
+          <t>bf live th floor kind want jump window yes know little shit stalk post enjoy suffer blask may dead soon can not take anymorei wish everything would end</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7581,7 +7577,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>line cook job two week unemployed 9 month hire 14 hour nice though good tell everyday suck food send back cooked refired tell sorry retard sorry actually useless stupid today call show bought beer drink sleep tonight deserve well cook one suck move food window without upcooks feel bad pay 14 hr clearly good enough make much go call n tell tomorrow deserve well get offer suck everything try sell video game instrument wish everyday id never put rock mediocre useless fuck useless loser never amount shit</t>
+          <t>line cook job week unemployed month hire hour nice though good tell everyday suck food send back cooked refired tell sorry retard sorry actually useless stupid today call show bought beer drink sleep tonight deserve well cook suck move food window without upcooks feel bad pay hr clearly good enough make much go call n tell tomorrow deserve well get offer suck everything try sell video game instrument wish everyday id never put rock mediocre useless fuck useless loser never amount shit</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7593,7 +7589,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>3 story high enough</t>
+          <t>story high enough</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -7717,7 +7713,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>cry whole morning could take anymore horrible nightmare life tell real parent orphan adoptive parent never tell dad family constantly abuse mon kid say poor uneducated family filthy peasant mom die family tell marry rich man matter become hidden wife second wife old man tell different normal girl deserve good life discover two year ago adopt neither mom dad biological parent country shame orphan usually treat bad deserve maid nightmare remember father tell family kid could take anymore really want die really purpose life know life life hate</t>
+          <t>cry whole morning could take anymore horrible nightmare life tell real parent orphan adoptive parent never tell dad family constantly abuse mon kid say poor uneducated family filthy peasant mom die family tell marry rich man matter become hidden wife second wife old man tell different normal girl deserve good life discover year ago adopt neither mom dad biological parent country shame orphan usually treat bad deserve maid nightmare remember father tell family kid could take anymore really want die really purpose life know life life hate</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7734,7 +7730,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>notice young brother 18 depressive thought live different city glad able vulnerable tell feel know next think might one family talk tell believei handle sure everyone react possible overbear someone might depress push away would share make lose trust</t>
+          <t>notice young brother depressive thought live different city glad able vulnerable tell feel know next think might family talk tell believei handle sure everyone react possible overbear someone might depress push away would share make lose trust</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7751,7 +7747,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>19 surprised make far around halloween cut wrist big scare show move parent house think would make thing well really still suffer greatly feel can not even put word emptiness great suffocation feel alive everyday community college barely go work part time job get one day week overwhelm want artist can not even make art anymore everything feel like burden chore life feel like people care understand life feel one take say seriously especially people live sister wife say care understand feeling come point thing like understand try can not useless horrible incompetent kid never really felt happy either always leave alone hat ignored kid sexually abuse 2 year old girl 2 random occasion 2 boy suffer trauma come surface 16 deal can not seem overcome tried couple medication really seem work kill seem way end pain can not function human get tire mentally physically always hope thing get well never fat sack shit accomplish anything life feel can not say anything truly feel fuck hate alive feel like live people one listening want</t>
+          <t>surprise make far around halloween cut wrist big scare show move parent house think would make thing well really still suffer greatly feel can not even put word emptiness great suffocation feel alive everyday community college barely go work part time job get day week overwhelm want artist can not even make art anymore everything feel like burden chore life feel like people care understand life feel take say seriously especially people live sister wife say care understand feeling come point thing like understand try can not useless horrible incompetent kid never really felt happy either always leave alone hat ignored kid sexually abused year older girl random occasion boy suffer trauma come surface deal can not seem overcome tried couple medication really seem work kill seem way end pain can not function human get tire mentally physically always hope thing get well never fat sack shit accomplish anything life feel can not say anything truly feel fuck hate alive feel like live people listen want</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7785,7 +7781,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>start current job almost year ago really good place mentally really depressed recognize sign first anxiety weightloss irritability shorttemperedness lot suicidal thought know get good get however last time go still college spend 8 hour day five day week people know keep affect work friendshipsrelationships coworkers even boss help</t>
+          <t>start current job almost year ago really good place mentally really depressed recognize sign first anxiety weightloss irritability shorttemperedness lot suicidal thought know get good get however last time go still college spend hour day day week people know keep affect work friendshipsrelationships coworkers even boss help</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -7802,7 +7798,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>keep happen know ptsd anxiety panic attack start think everything begin panic hyperventilate feel like trapped know go want find support everything know go one nothing life feel alone desperate terrify help please</t>
+          <t>keep happen know ptsd anxiety panic attack start think everything begin panic hyperventilate feel like trapped know go want find support everything know go nothing life feel alone desperate terrify help please</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7916,7 +7912,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>every single poster wanne say one thing</t>
+          <t>every single poster wanne say thing</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7938,7 +7934,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ok definitely first time go counsel first meet new counsellor set work eap service use limited success anyway first session week weird first unconventional location office mean literally room desk office chair inside organization typically know mental health service weird take get comfortable enough start talk since first session explain go life anyway near end remark fascinating person really want talk first time hear especially professional ask familiar mbti reply fan also suggest check metaphysics might help something know walked feeling strange one hand counselor nice hand certain thing make bit uncomfortable anybody else similar experience stick find someone else</t>
+          <t>ok definitely first time go counsel first meet new counsellor set work eap service use limited success anyway first session week weird first unconventional location office mean literally room desk office chair inside organization typically know mental health service weird take get comfortable enough start talk since first session explain go life anyway near end remark fascinating person really want talk first time hear especially professional ask familiar mbti reply fan also suggest check metaphysics might help something know walked feeling strange hand counselor nice hand certain thing make bit uncomfortable anybody else similar experience stick find someone else</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7955,7 +7951,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>one want hear anymore everyone exhaust depressive energy one want anymore want anymore goodbye</t>
+          <t>want hear anymore everyone exhaust depressive energy want anymore want anymore goodbye</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -8006,7 +8002,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>know right place post thought would give shot artist whole life ever since remember go many year art school study well art synonymous identity forever always want artist anything else also mental health issue entire life go couple period terrible depression past medicate since child help time start last autumn go depressive period bit different previous one think combination medication lose efficacy experience artistic burnout reason depression two solo show recently push draw much think burnout likely case start notice enjoy draw anymore draw become terrible dread chore start feel like way much work work interest exciting work also difficult much many line honestly think draw start feel physically unwell advise take break draw actually draw anything couple week go one month terrify never enjoy draw can not even remember feel like hate draw still want artist much plus honestly hobby unrelated art could focus nothing else really interest also mention switch medication right go onto full dose new medication actually one work past never experience anything like scared thought advice would super appreciate</t>
+          <t>know right place post thought would give shot artist whole life ever since remember go many year art school study well art synonymous identity forever always want artist anything else also mental health issue entire life go couple period terrible depression past medicate since child help time start last autumn go depressive period bit different previous one think combination medication lose efficacy experience artistic burnout reason depression solo show recently push draw much think burnout likely case start notice enjoy draw anymore draw become terrible dread chore start feel like way much work work interest exciting work also difficult much many line honestly think draw start feel physically unwell advise take break draw actually draw anything couple week go month terrify never enjoy draw can not even remember feel like hate draw still want artist much plus honestly hobby unrelated art could focus nothing else really interest also mention switch medication right go onto full dose new medication actually work past never experience anything like scared thought advice would super appreciate</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8040,7 +8036,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>waste life everyday leave house work sometime food get old everything 26 feel depress 18 ever get good stop waste away</t>
+          <t>waste life everyday leave house work sometime food get old everything feel depress ever get good stop waste away</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -8091,7 +8087,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>people need realise understand much bullshit suicide prevention yes let u put poster suicide hotline bit everywhere look help suicide hotline yes course think thing make people happy fool think great job help really one force seek counsel ah yes talk feel go make problem go away course well get tool cope thing see oh resolve underlying issue see treat symptom flesh eating disease institutionalisation well fuck sheryl isolate even really go help rest assure everything could look problem longer visible therefore must work pat shoulder great job person surely go fold even already sit around look blank wall wait next therapy session doctor rush overworked care good like face corner adult think nice hard see three week well numb therapy listen maribeth think go work entire industry around must mean successful everyone everytime guarantee surely help poor depressed soul good doctor book say work surely one followup call remake appointment change everything fail show well want someone actually want helped cycle continue surely take pill numb force sit emotional comatose cure autoimmune disease end prematurally anyways find nice stable job work around frequent random stay hospital stop job fire invalid reason extinguish innumerable amount real fire life set path first place 1 morris moss pick flame fire extinguisher put rest firehttpsimgpicturequotescom28483812illjustputthisoverherewiththerestofthefirequote1jpg 2 cartoon dog sit table entire room fire closeup smile face finehttpsstatic01nytcomimages can not people see work push people away even though really really really want hurt even permanently scar relationship matter never able go back thing inevitably help push take final jump one left around finally shut none bother reach care anymore know finally jump feel stick like atom stuck plateau try fuse way unlock potential energy would quantum tunnel need put outside energy system work power work firm grasp hand one love hold might despite weight try sink ever deep mighty tug go hill hold hard careen quantum waterfall burst energy stupid fuck poster leave always leave alone</t>
+          <t>people need realise understand much bullshit suicide prevention yes let u put poster suicide hotline bit everywhere look help suicide hotline yes course think thing make people happy fool think great job help really force seek counsel ah yes talk feel go make problem go away course well get tool cope thing see oh resolve underlying issue see treat symptom flesh eating disease institutionalisation well fuck sheryl isolate even really go help rest assure everything could look problem longer visible therefore must work pat shoulder great job person surely go fold even already sit around look blank wall wait next therapy session doctor rush overworked care good like face corner adult think nice hard see week well numb therapy listen maribeth think go work entire industry around must mean successful everyone everytime guarantee surely help poor depressed soul good doctor book say work surely followup call remake appointment change everything fail show well want someone actually want helped cycle continue surely take pill numb force sit emotional comatose cure autoimmune disease end prematurally anyways find nice stable job work around frequent random stay hospital stop job fire invalid reason extinguish innumerable amount real fire life set path first place morris moss pick flame fire extinguisher put rest firehttpsimgpicturequotescomilljustputthisoverherewiththerestofthefirequotejpg cartoon dog sit table entire room fire closeup smile face finehttpsstaticnytcomimages can not people see work push people away even though really really really want hurt even permanently scar relationship matter never able go back thing inevitably help push take final jump leave around finally shut none bother reach care anymore know finally jump feel stick like atom stuck plateau try fuse way unlock potential energy would quantum tunnel need put outside energy system work power work firm grasp hand one love hold might despite weight try sink ever deep mighty tug go hill hold hard careen quantum waterfall burst energy stupid fuck poster leave always leave alone</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8125,7 +8121,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>life outside perspective objectively comfortable terribly rich roof head food plate money spare hobby group close supportive friend depression since 11 consistently bad past year everyday fill excruciate pain loneliness often wish bad ashamed admit sometimes wish parent die sudden house burn get bad accident receive public sympathy finally something concrete complain guess right much concrete thing complain least thing tell people publicly guess another way put desperate attention although like connotation come phrase true may head constantly battle dark thought life live hell frustrate nobodys take notice damn fault open anybody man tire know much longer keep everyday think last straw one day go collapse time able get back</t>
+          <t>life outside perspective objectively comfortable terribly rich roof head food plate money spare hobby group close supportive friend depression since consistently bad past year everyday fill excruciate pain loneliness often wish bad ashamed admit sometimes wish parent die sudden house burn get bad accident receive public sympathy finally something concrete complain guess right much concrete thing complain least thing tell people publicly guess another way put desperate attention although like connotation come phrase true may head constantly battle dark thought life live hell frustrate nobodys take notice damn fault open anybody man tire know much longer keep everyday think last straw day go collapse time able get back</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8142,7 +8138,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>can not even right could even fuck right 5 hour hospital tell leave go back home go sleep get go work back sick sick sick sick sick point anymore point can not fuck tired want anymore want keep fight want give rot tire fucking tire</t>
+          <t>can not even right could even fuck right hour hospital tell leave go back home go sleep get go work back sick sick sick sick sick point anymore point can not fuck tired want anymore want keep fight want give rot tire fucking tire</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8193,7 +8189,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>hi would rather say name 15 like since 11 want anything anymore everything seem boring quite sick everyday repetition wake eat go school come home eat sleep lose interest game think interest dull pencil sharpen couple year want anymore grade drop like downwards part roller coaster hate everyone everything hate disgust hate annoy hate nothing help everyone like tolerate like pick since like think funny someone failure failure like disgraceful everyone can not anything right get yell mother small thing religious propaganda push everyday stop need space want feel spark interest felt little kid everyone think okay clearly see internally suffer want live anymore life okay life great hell would even say life best thing happen life start go downhill still go low low kill problem would go away everyone could bother anymore everything would peaceful would okay can not anymore everything stressful deal want put life anymore already suck enough end guess finish thing plan first want thing okay go anyone want help go ahead want good</t>
+          <t>hi would rather say name like since want anything anymore everything seem boring quite sick everyday repetition wake eat go school come home eat sleep lose interest game think interest dull pencil sharpen couple year want anymore grade drop like downwards part roller coaster hate everyone everything hate disgust hate annoy hate nothing help everyone like tolerate like pick since like think funny someone failure failure like disgraceful everyone can not anything right get yell mother small thing religious propaganda push everyday stop need space want feel spark interest felt little kid everyone think okay clearly see internally suffer want live anymore life okay life great hell would even say life best thing happen life start go downhill still go low low kill problem would go away everyone could bother anymore everything would peaceful would okay can not anymore everything stressful deal want put life anymore already suck enough end guess finish thing plan first want thing okay go anyone want help go ahead want good</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -8227,7 +8223,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>love mum mum god sake go something saw get wrong fault leave phone desk try mum put therapy help want seem like okay past month everyone walk egg shell want die get reason live ruin life tell matter word mean anything tell worthless give lie mum close suicide multiple time turn 18 year well support parent feel lose want mum think happy yet fuck suicidal lose many people might well dead keep push people away</t>
+          <t>love mum mum god sake go something saw get wrong fault leave phone desk try mum put therapy help want seem like okay past month everyone walk egg shell want die get reason live ruin life tell matter word mean anything tell worthless give lie mum close suicide multiple time turn year well support parent feel lose want mum think happy yet fuck suicidal lose many people might well dead keep push people away</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8261,7 +8257,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>get people want live worthless want around anymore plan try hang get home work maybe time get right struggle bill one love scar tell therapist can not go inpatient lose job</t>
+          <t>get people want live worthless want around anymore plan try hang get home work maybe time get right struggle bill love scar tell therapist can not go inpatient lose job</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8278,7 +8274,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>go inpatient couple week ago stay hospital year time cry felt like could finally move recognize still maintain habit medicine felt like could give fuck got release couple day felt apart fail class single friend get fight sister talk feel like shit time can not talk anyone one feel like option kill throw away account would like help maybe maybe reason live goal really</t>
+          <t>go inpatient couple week ago stay hospital year time cry felt like could finally move recognize still maintain habit medicine felt like could give fuck got release couple day felt apart fail class single friend get fight sister talk feel like shit time can not talk anyone feel like option kill throw away account would like help maybe maybe reason live goal really</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8290,7 +8286,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>help four letter word</t>
+          <t>help letter word</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -8312,7 +8308,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>whenever bed try sleep always lay another 23 hour try see get point always end feel bad even think anything anymore essentially cry sleepthe lack sleep cause grade plummet never focus class every day make feel bad everything around slowly lose mean</t>
+          <t>whenever bed try sleep always lay another hour try see get point always end feel bad even think anything anymore essentially cry sleepthe lack sleep cause grade plummet never focus class every day make feel bad everything around slowly lose mean</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8329,7 +8325,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>boyfriend long distance relationship since five month know much longer uni start realise wanted date recently close cousin die car crash father pass away 14 also die car crash yesterday find sister hospital due car accident presume much knew accident affect believe purposely kept tell go something stupid everything felt crazy inside kept tell love needed sister family hardly reply ask go know even know situation dead alive coma eat inside know seem like best option wait agonise try get wait till know happen love lot unsure would person opportunity live life together anymore disappeared time every stressful break constantly eat starve know sound like relationship unhealthy nothing perfect love caring believe recent ready spend whole life however hardly help contact situation like feel like waste uni life run someone sure even know anymore despite know break hurt lot think long run also medicine think could greatly impact degree unless figure</t>
+          <t>boyfriend long distance relationship since month know much longer uni start realise wanted date recently close cousin die car crash father pass away also died car crash yesterday find sister hospital due car accident presume much knew accident affect believe purposely kept tell go something stupid everything felt crazy inside kept tell love needed sister family hardly reply ask go know even know situation dead alive coma eat inside know seem like best option wait agonise try get wait till know happen love lot unsure would person opportunity live life together anymore disappeared time every stressful break constantly eat starve know sound like relationship unhealthy nothing perfect love caring believe recent ready spend whole life however hardly help contact situation like feel like waste uni life run someone sure even know anymore despite know break hurt lot think long run also medicine think could greatly impact degree unless figure</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8341,12 +8337,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>16 want die</t>
+          <t>want die</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>16 frequent thought die kill think new way like cut hang stuff cut self lot rough childhood recently something awful happen lucky supportive friend family still feel empty lonely might soon</t>
+          <t>frequent thought die kill think new way like cut hang stuff cut self lot rough childhood recently something awful happen lucky supportive friend family still feel empty lonely might soon</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8363,7 +8359,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>get date set can not come soon enough anticipate look forward genuinely can not wait first set frequently become nauseous dizzy think impend mortality get close closer day less worried ready feel become difficult discuss others bring conversation especially mind 247 remarkable thing happen probably ever probably sound like egotistical rant care long life dictate people factor control last 15 day go fucking focus nobody nothing else matter ever matter</t>
+          <t>get date set can not come soon enough anticipate look forward genuinely can not wait first set frequently become nauseous dizzy think impend mortality get close closer day less worried ready feel become difficult discuss others bring conversation especially mind remarkable thing happen probably ever probably sound like egotistical rant care long life dictate people factor control last day go fucking focus nobody nothing else matter ever matter</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8380,7 +8376,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>get really bad grade class use really good another class really disorganize lose sheet get homework do time truth exhaust moment wake sleep get home need distract low effort activity rather concentrate homework calm want hurt lazy right frustrate see careless try survive teacher expect get everyone go hard time already see school counsellor help way secret parent let see proper therapist yesterday get 2 essay back get e want tear hair try hard balance everything good enough seriously think kill good enough actually come school want anyone see feel ugly try socialise people zone class like 8 hour want everyone know depression help way give shit fail never know</t>
+          <t>get really bad grade class use really good another class really disorganize lose sheet get homework do time truth exhaust moment wake sleep get home need distract low effort activity rather concentrate homework calm want hurt lazy right frustrate see careless try survive teacher expect get everyone go hard time already see school counsellor help way secret parent let see proper therapist yesterday get essay back get e want tear hair try hard balance everything good enough seriously think kill good enough actually come school want anyone see feel ugly try socialise people zone class like hour want everyone know depression help way give shit fail never know</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8414,7 +8410,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>chest pain heart condition er point much want live think ever happy live thinking world people realize little control attract people environment biology tell u attract action base two thing probably tell hard determinist believe anyone special believe love day sliver happiness sliver come feeling extreme loneliness say sliver mean second two follow dive abyss sadness anyone think actually connect leave blame either talk woman tell kiss cheat tried understand would feel bad someone kiss someone else insecurity fear leave umbrella insecurity realize know tell connection special think special none connection special would person sever mean might multitude reason end day become special person exist anymore manage keep talk one person feel pain guess healthy relationship could end moment depend relationship end goal produce viable offspring though would work look good exercise make u appeal mate authenticity control people bond either anyone special face cruel oblivion destine feel alone rest life ugh hate feel like shit lonely logic way still feel like fuck garbage meet someone special enough make u happy since people never feel happy lucky mean guess jesus can not happy much want say already long one read</t>
+          <t>chest pain heart condition er point much want live think ever happy live thinking world people realize little control attract people environment biology tell u attract action base thing probably tell hard determinist believe anyone special believe love day sliver happiness sliver come feeling extreme loneliness say sliver mean second follow dive abyss sadness anyone think actually connect leave blame either talk woman tell kiss cheat tried understand would feel bad someone kiss someone else insecurity fear leave umbrella insecurity realize know tell connection special think special none connection special would person sever mean might multitude reason end day become special person exist anymore manage keep talk person feel pain guess healthy relationship could end moment depend relationship end goal produce viable offspring though would work look good exercise make u appeal mate authenticity control people bond either anyone special face cruel oblivion destine feel alone rest life ugh hate feel like shit lonely logic way still feel like fuck garbage meet someone special enough make u happy since people never feel happy lucky mean guess jesus can not happy much want say already long read</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8448,7 +8444,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>hey question anyone willing answer would like know anyone cut past maybe still cut help way relive sort distress know dangerous game play curious cheer everyone hope stay life continue least try conquer demon might think love love someone might want someone ask ok milk end sort progression get good please stay life struggle want push forward see anything get good feel free answer question would like love night everyone</t>
+          <t>hey question anyone willing answer would like know anyone cut past maybe still cut help way relive sort distress know dangerous game play curious cheer everyone hope stay life continue least try conquer demon might think love love someone might want someone ask ok milk end sort progression get good please stay life struggle want push forward see anything get good feel free answer question would like love night everyone red_heart</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8465,7 +8461,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>senior year depress suicidal 6 year plan hang graduate need start work see point feel like shit future hear everybody talk go college get married kid future dead stop school work matter anymore work pile feel goddamn worthless everybody else become successful become failure go fail senior year become disapointment family nothing matter anymore parent think go college fuck much emotional pain know anymore</t>
+          <t>senior year depress suicidal year plan hang graduate need start work see point feel like shit future hear everybody talk go college get married kid future dead stop school work matter anymore work pile feel goddamn worthless everybody else become successful become failure go fail senior year become disapointment family nothing matter anymore parent think go college fuck much emotional pain know anymore</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8516,7 +8512,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>hi 15 year old currently pull schooldue many reason clear mind thought may lead thing might regret later would like share first story one would come meex 15 phase pls stop get attentionetc young really pay attention whenever father mother would fight sister 2nd old would always ignore would get pissed think norm thing get bad whole family fight shtty thing father do start drink goddmn cola go like drank cola father ask scared reply ask mother tell father start shout force eldest sister butt whole thing go father adultery abuse lead father push mother push sister fight father physically could anything really shock blamed whole ordeal take 5 month mend back family think finally still problemsto face know stereotypical say asian parentsfilipino would always force study never want wanted play kid care world could mother way teach really leave toll cuz would hit whenever get wrong answer could reply correct answer always 2nd honor roll say way back home pls drop grade would really embarassing friend jusy painful others may think overreact still really painful though still could speak mind continue still get bully well reason year go already first year highschool prestige academy make friend respected little bump grade still felt really great one day one friends guy tell hang could tell malicious intent really stupid corner touch boob say shock refuse really strong manage touch resort attempted rape afte break free cry run day could tell anyone parent cry whole night proceed go school bear class finally muster courage tell guidance councelor due get expelled word get thing get harass even guy could anything tell bear enter 2nd year highschool start change become irritated hot mess disrespectful mom reason fight every morning another problem rosed mistress father contact knew mess felt angry tell guidance counselor know anymore told mom file case dad mistress case get drop say account iwas fake clearly know professional pretty obvious fake get even mad mom mind tell must gods plan christian really mother believesnow thing really go downhill mei could eat could think happy thought would think nothing everything useless even humanity wish could sleep die thing get even bad sisterthe 2nd eldest whenever tell wrong would get mad mewhenever get mad would get make even though wrong prideful would say sorry still anyway thing get even hectic start hurt mom know tell angrily internet could take anymore everything wrong like misfortune want kill go guidance counselor tell mom everything pull school appoint psychiatrist medicine much short painful make go insane reason even mess dietmade eat mom stop drink pill withdrawal shtty still get mad everything really want kill mean know still think pro con kill wish sleep someone would kill really want know suicide worth shot regret everything desperate whole thing sthst happen get long</t>
+          <t>hi year old currently pull schooldue many reason clear mind thought may lead thing might regret later would like share first story would come meex phase pls stop get attentionetc young really pay attention whenever father mother would fight sister nd old would always ignore would get pissed think norm thing get bad whole family fight shtty thing father do start drink goddmn cola go like drank cola father ask scared reply ask mother tell father start shout force eldest sister butt whole thing go father adultery abuse lead father push mother push sister fight father physically could anything really shock blamed whole ordeal take month mend back family think finally still problemsto face know stereotypical say asian parentsfilipino would always force study never want wanted play kid care world could mother way teach really leave toll cuz would hit whenever get wrong answer could reply correct answer always nd honor roll say way back home pls drop grade would really embarassing friend jusy painful others may think overreact still really painful though still could speak mind continue still get bully well reason year go already first year highschool prestige academy make friend respected little bump grade still felt really great day friends guy tell hang could tell malicious intent really stupid corner touch boob say shock refuse really strong manage touch resort attempted rape afte break free cry run day could tell anyone parent cry whole night proceed go school bear class finally muster courage tell guidance councelor due get expelled word get thing get harass even guy could anything tell bear enter nd year highschool start change become irritated hot mess disrespectful mom reason fight every morning another problem rosed mistress father contact knew mess felt angry tell guidance counselor know anymore told mom file case dad mistress case get drop say account iwas fake clearly know professional pretty obvious fake get even mad mom mind tell must gods plan christian really mother believesnow thing really go downhill mei could eat could think happy thought would think nothing everything useless even humanity wish could sleep die thing get even bad sisterthe nd eldest whenever tell wrong would get mad mewhenever get mad would get make even though wrong prideful would say sorry still anyway thing get even hectic start hurt mom know tell angrily internet could take anymore everything wrong like misfortune want kill go guidance counselor tell mom everything pull school appoint psychiatrist medicine much short painful make go insane reason even mess dietmade eat mom stop drink pill withdrawal shtty still get mad everything really want kill mean know still think pro con kill wish sleep someone would kill really want know suicide worth shot regret everything desperate whole thing sthst happen get long</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8533,7 +8529,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>start college 10 yr ago go graduate soon able keep w school since january depression anxiety give self sabotage isolate friendsfamily can not seem anything feel helpless motivation angry confidence therapy med help let everyone include</t>
+          <t>start college yr ago go graduate soon able keep w school since january depression anxiety give self sabotage isolate friendsfamily can not seem anything feel helpless motivation angry confidence therapy med help let everyone include</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8550,7 +8546,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>literally cba anything anymore constant pain chest really really wish attempt od would work fuck cry go find pill enough really really want someone genuinely care feel ask hey hru unprovoked one everyone say someone kill hey know feel like write note want can not want thing motivate force commit suicide literary nothing help sick try understand others situation can not really take weak note suicide note know write reddit hope come back one day able say km seem likely right split emotion edit goodbye</t>
+          <t>literally cba anything anymore constant pain chest really really wish attempt od would work fuck cry go find pill enough really really want someone genuinely care feel ask hey hru unprovoked everyone say someone kill hey know feel like write note want can not want thing motivate force commit suicide literary nothing help sick try understand others situation can not really take weak note suicide note know write reddit hope come back day able say km seem likely right split emotion edit goodbye</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -8601,7 +8597,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>talk parent today first time regard want get therapy question may hard answer bare want know expect 1 know make sense typical depressive thought seem accessible well happy though mood make hard talk underlie issue could potential problem 2 typically ask first appointment 3 really narrowminded closeminded lot people around try tell think positive eat etc therapy really best would therapy help become less stubborn openminded 4 go therapy relieve finally official diagnosis 5 go throughare go therapy big change see good bad thanks advance</t>
+          <t>talk parent today first time regard want get therapy question may hard answer bare want know expect know make sense typical depressive thought seem accessible well happy though mood make hard talk underlie issue could potential problem typically ask first appointment really narrowminded closeminded lot people around try tell think positive eat etc therapy really best would therapy help become less stubborn openminded go therapy relieve finally official diagnosis go throughare go therapy big change see good bad thanks advance</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8613,12 +8609,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>manage cry first time since 6 year</t>
+          <t>manage cry first time since year</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>depress since 14 today 22nd birthday finally manage let feeling can not tell anyone least post</t>
+          <t>depress since today nd birthday finally manage let feeling can not tell anyone least post</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -8652,7 +8648,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>bad catalyst depression period remember problem amplify feel bad feel like escape love never start fantasize salvation life source possible happiness imagine time pass bad get hurt ruin head either suicide find salvation person never hurt much fucking fiction person know head love person create even know person exterior yet feel like close person hurt imagine fake relationship hurt fuck bad feel good think abandon world regret favor crush yet still hurt can not fall asleep make sense strong fictional love make feel like want escape hell already cripple thought future keep come bad bad feel like one step pull underworld away everything king lonely world</t>
+          <t>bad catalyst depression period remember problem amplify feel bad feel like escape love never start fantasize salvation life source possible happiness imagine time pass bad get hurt ruin head either suicide find salvation person never hurt much fucking fiction person know head love person create even know person exterior yet feel like close person hurt imagine fake relationship hurt fuck bad feel good think abandon world regret favor crush yet still hurt can not fall asleep make sense strong fictional love make feel like want escape hell already cripple thought future keep come bad bad feel like step pull underworld away everything king lonely world</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8686,7 +8682,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>dad commit suicide 12 played role suicide narcissistic mother tell many lie convince hate become alienated commit suicide 23 see reason continue live hope join soon thing afterlife want tell love</t>
+          <t>dad commit suicide played role suicide narcissistic mother tell many lie convince hate become alienated committed suicide see reason continue live hope join soon thing afterlife want tell love</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8720,7 +8716,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>can not even tell start memory fuzzy past monthsso let u say 35 week ago think feel love first time 19 boyfriend even want see huge problem every time think love something similar want puke joke almost puke way many time day life become normal like usual 20 hb stop care really good student even skip school school 15 week puke come back reason strong feel like lose motivation fun smile get bad vision hard concentrate one thing iam get easily exhaust walk 2x slow usually oversleep matter go bed early still oversleep school also listen one song like crazy obsess put ease reason even meet friend still listen song even go sleep listen music know help make worse start smoke 1 pack cigs day usually 1 pack cigs last 45days feel emotionally unstable like eye get teary reason think fever lately understand hot outside cold lately think would nice feel anything like lock feeling emotion peace know lock emotion tell 3 suicidal thought bcz typical normie hang small thread courage something body even know tf write oh think know write want friend could backstab would help cut tiny thread ignore post like usually ignore would put weight thread would able support weight depression 12 year ago talk bestfriend make good go long like lvl 1 feel like lvl 5 oh say talk bf agian last night go afraid show back let go first inside want see doctor actually depression would make bad like totally afraid seeing doc would even know go hope somebody help get rid thread ty</t>
+          <t>can not even tell start memory fuzzy past monthsso let u say week ago think feel love first time boyfriend even want see huge problem every time think love something similar want puke joke almost puke way many time day life become normal like usual hb stop care really good student even skip school school week puke come back reason strong feel like lose motivation fun smile get bad vision hard concentrate thing iam get easily exhaust walk x slow usually oversleep matter go bed early still oversleep school also listen song like crazy obsess put ease reason even meet friend still listen song even go sleep listen music know help make worse start smoke pack cigs day usually pack cigs last day feel emotionally unstable like eye get teary reason think fever lately understand hot outside cold lately think would nice feel anything like lock feeling emotion peace know lock emotion tell suicidal thought bcz typical normie hang small thread courage something body even know tf write oh think know write want friend could backstab would help cut tiny thread ignore post like usually ignore would put weight thread would able support weight depression year ago talk bestfriend make good go long like lvl feel like lvl oh say talk bf agian last night go afraid show back let go first inside want see doctor actually depression would make bad like totally afraid seeing doc would even know go hope somebody help get rid thread ty</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8754,7 +8750,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>feel like life spiraling downwards get bad day dad al mom stress max take care husband selfish unappreciative jack wagon deal bullish vindictive shithead manager make dream break kneecap inward friend woman life faith grow dim day asshats ride hypocritical high horse doc say depression anxiety high blood pressure live see 35 night virtually every night go bed bit angry bit suicidal hop praying god could give rat ass either give cancer allow wake vent either fight enough battle worry anyone elses blame anyone smoking black milds vent evening</t>
+          <t>feel like life spiraling downwards get bad day dad al mom stress max take care husband selfish unappreciative jack wagon deal bullish vindictive shithead manager make dream break kneecap inward friend woman life faith grow dim day asshats ride hypocritical high horse doc say depression anxiety high blood pressure live see night virtually every night go bed bit angry bit suicidal hop praying god could give rat ass either give cancer allow wake vent either fight enough battle worry anyone elses blame anyone smoking black milds vent evening</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8771,7 +8767,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>m23 probably one two bad day away give school take class qualify dream program would qualify dream job girlfriend great family sure put school problem relationship deal mental health issue anymore struggle depression anxiety adhd symptom therapist suppose refer doctor see medicine do yet almost two week return call take step get medicine evaluation enough girlfriend romantic enough sexual enough thoughtful enough tried year change change bit maybe medication would help can not seem able get struggle learn class struggle improve relationship every day find entice fall back bachelor degree already work office something sure know happy happy difference least would put effort want give nothing leave thing keep go want disappoint parent girlfriend anymore</t>
+          <t>probably bad day away give school take class qualify dream program would qualify dream job girlfriend great family sure put school problem relationship deal mental health issue anymore struggle depression anxiety adhd symptom therapist suppose refer doctor see medicine do yet almost week return call take step get medicine evaluation enough girlfriend romantic enough sexual enough thoughtful enough tried year change change bit maybe medication would help can not seem able get struggle learn class struggle improve relationship every day find entice fall back bachelor degree already work office something sure know happy happy difference least would put effort want give nothing leave thing keep go want disappoint parent girlfriend anymore</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8805,7 +8801,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>hi title suggest go help option severely limited gp organise pill way acquire therapist severely depress past couple week mildly since november trust parent sibling friend could open try ago ask support function day day push work tell sorry wish could help know empty talk get well cut contact boyfriend say know help phase randomly compliment texting tell love two day straight forgets sure try best wish support say can not help anymore everytime feel trap always pretend fine always cover humor seem like insincere dramatic finally snap say mess can not afford therapist university counsel office help offer suicide hotline number sorry psychological support cope go edit please advertise religioncults interested heavily despise brainwash without real therapeutical value</t>
+          <t>hi title suggest go help option severely limited gp organise pill way acquire therapist severely depress past couple week mildly since november trust parent sibling friend could open try ago ask support function day day push work tell sorry wish could help know empty talk get well cut contact boyfriend say know help phase randomly compliment texting tell love day straight forgets sure try best wish support say can not help anymore everytime feel trap always pretend fine always cover humor seem like insincere dramatic finally snap say mess can not afford therapist university counsel office help offer suicide hotline number sorry psychological support cope go edit please advertise religioncults interested heavily despise brainwash without real therapeutical value</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8822,7 +8818,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>hi 19 absolutely nothing lose girl love addict weed dozen substance whatever make sleep night huge debt job degrees future black sheep family would rather wish born live cuz mom dad kick divorce yes kick twice try nice guy every one hat want go can not get anyone feel</t>
+          <t>hi absolutely nothing lose girl love addict weed dozen substance whatever make sleep night huge debt job degrees future black sheep family would rather wish born live cuz mom dad kick divorce yes kick twice try nice guy every hate want go can not get anyone feel</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8890,7 +8886,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>20 year old unemployed get email say might able stay university next year zero friend speak family month eat properly little motivation anything try many time fix ready end</t>
+          <t>year old unemployed get email say might able stay university next year friend speak family month eat properly little motivation anything try many time fix ready end</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8907,7 +8903,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>every day year exactly wake attend online school get scold teacher parent poor grade slow spend hour homework struggle overwhelm stressed life cry contemplate die go bed repeat weekend either sit room day watch youtube nap day can not even find energy get bed anything can not even find finish homework enjoy anything anymore skills talent interest can not even get job since live middle nowhere terrify learn drive even really know anything real world husk person rots isolation room day fantasize dead desperately alone feel like absolute worthless moron entire life literally never even one friend every time past go public school try make friend people always fuck make look idiotic never understood talk people form connection can not even make online friend one care even parent tire try survive day hell see life get good already incapable achieve anything help either scared future know want life even would idea get far fall behind everyone else unmotivated scared fucking life even already maybe would easier point drown prevent depress future suffer even really know</t>
+          <t>every day year exactly wake attend online school get scold teacher parent poor grade slow spend hour homework struggle overwhelm stressed life cry contemplate die go bed repeat weekend either sit room day watch youtube nap day can not even find energy get bed anything can not even find finish homework enjoy anything anymore skills talent interest can not even get job since live middle nowhere terrify learn drive even really know anything real world husk person rots isolation room day fantasize dead desperately alone feel like absolute worthless moron entire life literally never even friend every time past go public school try make friend people always fuck make look idiotic never understood talk people form connection can not even make online friend care even parent tire try survive day hell see life get good already incapable achieve anything help either scared future know want life even would idea get far fall behind everyone else unmotivated scared fucking life even already maybe would easier point drown prevent depress future suffer even really know</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -8924,7 +8920,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>hey 16m wee little high schooler feel like whole as war fuck brain context depression get intense around 7th9th grade finally start slow want kill much middle school everythings hunky dory know alone doubt hard get motivate anything play video game smoke weed know probably tell weed help motivation issue issue drive want good anything fun alone something depression never homework never study day actually affect grade kill could get away homework get amazing grade test 9 time 10 would pass c get fs class want quit can not find reason continue useless place call school education anyway probably something well talk would better get back work</t>
+          <t>hey wee little high schooler feel like whole as war fuck brain context depression get intense around thth grade finally start slow want kill much middle school everythings hunky dory know alone doubt hard get motivate anything play video game smoke weed know probably tell weed help motivation issue issue drive want good anything fun alone something depression never homework never study day actually affect grade kill could get away homework get amazing grade test time would pass c get fs class want quit can not find reason continue useless place call school education anyway probably something well talk would better get back work</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8970,12 +8966,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>one help</t>
+          <t>help</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>go school counselor talk recent sexual trauma general ill feeling leave feeling bad therapy since 2014 mostly deal depression symptom therapy help tremendously felt well talk complete transparency baggage someone equip handle go back recently interaction boil tell 1 medicated young age start ssris young therefore parent raise incorrectly 2 skepticism therapy ever help literally ask even help stop go tell background social service record session school record also tell preliminary session would refer person proper training session ultimately decide would take appointment normally schedule hard right move new city soon really feel scar go support someone generally selfsufficient sort heavy blow since really need someone talk</t>
+          <t>go school counselor talk recent sexual trauma general ill feeling leave feeling bad therapy since mostly deal depression symptom therapy help tremendously felt well talk complete transparency baggage someone equip handle go back recently interaction boil tell medicate young age start ssris young therefore parent raise incorrectly skepticism therapy ever help literally ask even help stop go tell background social service record session school record also tell preliminary session would refer person proper training session ultimately decide would take appointment normally schedule hard right move new city soon really feel scar go support someone generally selfsufficient sort heavy blow since really need someone talk</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -9009,7 +9005,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>title say birthday saturday past 20 year never good birthday mom never stable birthday exception would would either view birthday burden react specific way something would birthday would act world collapse around make huge deal appreciate bad parent maybe ungreatful like always tell regardless far back remember never good birthday recall vividly birthday party child one want really play party tried isolate table cake cut go well mom scald front everyone birthday go remember sigh moan groan whenever mention last year one wish happy birthday family yes history show really care mom say celebrate birthday one give birth later go pub knew could get tried get drunk could barley manage never felt alone room people like place unfamiliar know regular regulars knew well aquatint yet still never felt alone end contacting mate sell pot get high weed guy person genuinely wish happy birthday outside family flashforward present day life pretty decent business well album release soon clean bill health part realization set friend call j talk group chat say want social stuff soon tell call b b go stuff friday could go something together chat go cold time pass moment later someone else chat call c say something fridayeveryone light agree b enters chat say birthday saturday go friday matt c responds fine everything hit feel like burden probably want hangout b say something feel obligate told would rather guy full night chat silent since burden people probably hangout feel morally obligate waste space probably dramatic act like child seek attention know post waste away void nothing genuine always lonely</t>
+          <t>title say birthday saturday past year never good birthday mom never stable birthday exception would would either view birthday burden react specific way something would birthday would act world collapse around make huge deal appreciate bad parent maybe ungreatful like always tell regardless far back remember never good birthday recall vividly birthday party child want really play party tried isolate table cake cut go well mom scald front everyone birthday go remember sigh moan groan whenever mention last year wish happy birthday family yes history show really care mom say celebrate birthday give birth later go pub knew could get tried get drunk could barley manage never felt alone room people like place unfamiliar know regular regulars knew well aquatint yet still never felt alone end contacting mate sell pot get high weed guy person genuinely wish happy birthday outside family flashforward present day life pretty decent business well album release soon clean bill health part realization set friend call j talk group chat say want social stuff soon tell call b b go stuff friday could go something together chat go cold time pass moment later someone else chat call c say something fridayeveryone light agree b enters chat say birthday saturday go friday matt c responds fine everything hit feel like burden probably want hangout b say something feel obligate told would rather guy full night chat silent since burden people probably hangout feel morally obligate waste space probably dramatic act like child seek attention know post waste away void nothing genuine always lonely</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9043,7 +9039,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>hello people 23 spanish male diagnose depression anxiety last 7 year know action could lead really care struggle suicide toughts last year think can not control much time sad people worry miss probably cat know mother sad sometimes can not hold long can not express feel want make suffer think prepared live world try best try improve mental health take medication think ever really happy really think could usefull society social problem can not even go home can not even get bed somedays really try happy version really hard</t>
+          <t>hello people spanish male diagnose depression anxiety last year know action could lead really care struggle suicide toughts last year think can not control much time sad people worry miss probably cat know mother sad sometimes can not hold long can not express feel want make suffer think prepared live world try best try improve mental health take medication think ever really happy really think could usefull society social problem can not even go home can not even get bed somedays really try happy version really hard</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -9072,7 +9068,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>update part 3</t>
+          <t>update part</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -9094,7 +9090,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>hey struggle hard depression currently grieve suicide love one feeling great moment offering song want one write record song topic would like free hope make life little bit well even moment musician love write song people 4 year ago write 3040 song people reddit go really well think decide offer guy first song humorous nature however tell anything say respect edit 1 minute post someone write something delete seem like negative could read offensive anyone remove post right away last thing want</t>
+          <t>hey struggle hard depression currently grieve suicide love feeling great moment offering song want write record song topic would like free hope make life little bit well even moment musician love write song people year ago write song people reddit go really well think decide offer guy first song humorous nature however tell anything say respect edit minute post someone write something delete seem like negative could read offensive anyone remove post right away last thing want</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9111,7 +9107,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>year depress take medication one thing keep go familys encouragement love life grow please parent want realised later could keep tried kill catch five year since parent love tell care future long happy keep go day ago find brother dad tell compare u kid officemates boast say can not help say know wrong can not blame say go wrong u shatter write almost everythimg ready go tomorrow last time wa go die desperate grieving angry sad nothing leave matter option leave fail never parent love proud lie 5 year know love know pity think defect produce parent anyone know find please know fault never hate anyone coward always know brother want everything choose throw away give away plushies go dad makeup go mom clothes sell rest sorry could sister admire thank everyone inspire encouraged live sorry fault mine edit parent hear cry talk mom say problem small strong heart dad deny say stuff knock sleep pill today can not go anywhere without supervision guess still alive thank everyone reply read make cry lot none know talk kindness crazy thank thank</t>
+          <t>year depress take medication thing keep go familys encouragement love life grow please parent want realised later could keep tried kill catch year since parent love tell care future long happy keep go day ago find brother dad tell compare u kid officemates boast say can not help say know wrong can not blame say go wrong u shatter write almost everythimg ready go tomorrow last time wa go die desperate grieving angry sad nothing leave matter option leave fail never parent love proud lied year know love know pity think defect produce parent anyone know find please know fault never hate anyone coward always know brother want everything choose throw away give away plushies go dad makeup go mom clothes sell rest sorry could sister admire thank everyone inspire encouraged live sorry fault mine edit parent hear cry talk mom say problem small strong heart dad deny say stuff knock sleep pill today can not go anywhere without supervision guess still alive thank everyone reply read make cry lot none know talk kindness crazy thank thank</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9128,7 +9124,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>heart scream soul right arm due self harm bleed burn feel low low day pass feel like explode several personnal reason cause feel way sexual abuse poverty loneliness study ill relative also possibly underdiagnosed come mental health know ask help know say would feel guilty say people around bother tell best friend suicidal severely depress start self harm tell self harm want make feel bad want support although strength tell friend sister well although help kind want tell bad feel know try see psychologist wait untill least april free psychologist can not afford see another one early mean pay credit card steal anyway lol anyway way cop put danger make feel physically bad hope feel valid suffering finally able ask help feel like deserve someone else feel way thank read message sorry english</t>
+          <t>heart scream soul right arm due self harm bleed burn feel low low day pass feel like explode several personnal reason cause feel way sexual abuse poverty loneliness study ill relative also possibly underdiagnosed come mental health know ask help know say would feel guilty say people around bother tell best friend suicidal severely depress start self harm tell self harm want make feel bad want support although strength tell friend sister well although help kind want tell bad feel know try see psychologist wait untill least april free psychologist can not afford see another early mean pay credit card steal anyway lol anyway way cop put danger make feel physically bad hope feel valid suffering finally able ask help feel like deserve someone else feel way thank read message sorry english</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9145,7 +9141,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>use drink often stop intoxicated might shit happens right depress fuck long hurt think 13 16 19 everyone say get good 23 nothing get well 3 year relationship throw curb 2 year relationship follow break 1st dated year closefuck buddy year lead break tonight fun fact still live together july depression stem relationship plethora thing contribute think depth one fuck buddy want another relationship want give someone chance hurt move school could bare think lose asked date plan move together punched face less damaging cut think point self harm end promise long ago though follow last time start cut time think would one pump adrenaline would take would hurt anymore left friend move hour away see point live see point eat sleep know expect fro honestly noone sister hate burden though tonight may keep know would would 10 minute trip get need want nothing noone friends outof family nana sister talk texted dad yesterday today car issue talk 2 day remember usually around 1 month sometimes sometimes less burden everyone think world would better place think put knife throat givin er relationship certainly attribute friend family noone hurt die know hop accomplish post think push far towards hope good day thanks take minute read messysuicidal thought tldr good day</t>
+          <t>use drink often stop intoxicated might shit happens right depress fuck long hurt think everyone say get good nothing get good year relationship throw curb year relationship follow break st date year closefuck buddy year lead break tonight fun fact still live together july depression stem relationship plethora thing contribute think depth fuck buddy want another relationship want give someone chance hurt move school could bare think lose asked date plan move together punched face less damaging cut think point self harm end promise long ago though follow last time start cut time think would pump adrenaline would take would hurt anymore left friend move hour away see point live see point eat sleep know expect fro honestly noone sister hate burden though tonight may keep know would would minute trip get need want nothing noone friends outof family nana sister talk texted dad yesterday today car issue talk day remember usually around month sometimes sometimes less burden everyone think world would better place think put knife throat givin er relationship certainly attribute friend family noone hurt die know hop accomplish post think push far towards hope good day thanks take minute read messysuicidal thought tldr good day</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -9174,12 +9170,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>want corona virus think quarantine two week sound appeal</t>
+          <t>want corona virus think quarantine week sound appeal</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>would like spend 2 week home work leave house interact anyone without sickness</t>
+          <t>would like spend week home work leave house interact anyone without sickness</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9196,7 +9192,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>clean heroine 2 week even since unbearable pain withdrawal pass mental emptiness might long time like many still think end life every day 2 day ago porch write suicide note seemingly get last ray sunshine would ever feel content heard phone ring hell call last day best friend twin sister diagnose leukemia think best friend pain often well mean already way grab car key see family griefstricken hour spend head back home realize whole two hour really forget fuck kill one thing take thought death simply thoughts someone else help realize ended thing heroine life one know whether healthy love someone love know phone call best friend stop kill circumstance call remind importance still alive anyone experience something like encourage see instance coincidence testament fact mean still alive really know wrap hope know much really matter remember much matter know help everybody hope help somebody kill put end pain pass onto someone else</t>
+          <t>clean heroine week even since unbearable pain withdrawal pass mental emptiness might long time like many still think end life every day day ago porch write suicide note seemingly get last ray sunshine would ever feel content heard phone ring hell call last day best friend twin sister diagnose leukemia think best friend pain often well mean already way grab car key see family griefstricken hour spend head back home realize whole hour really forget fuck kill thing take thought death simply thoughts someone else help realize ended thing heroine life know whether healthy love someone love know phone call best friend stop kill circumstance call remind importance still alive anyone experience something like encourage see instance coincidence testament fact mean still alive really know wrap hope know much really matter remember much matter know help everybody hope help somebody kill put end pain pass onto someone else</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9213,7 +9209,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>job friend girlfriend play video game hang dog workout hour bore life bad part want anything want socialize want go nothing really feel worthwhile genuinely interesting almost 30 life lose purpose wait next hour gym everyday</t>
+          <t>job friend girlfriend play video game hang dog workout hour bore life bad part want anything want socialize want go nothing really feel worthwhile genuinely interest almost life lose purpose wait next hour gym everyday</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9230,7 +9226,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>go limb anyone want talk go much living hell depression would talk form sort support group anyones interest post let know remember alone 22 year old girl deal life</t>
+          <t>go limb anyone want talk go much living hell depression would talk form sort support group anyones interest post let know remember alone year old girl deal life</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9247,7 +9243,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>sound bite cliché really mean everybody sub hero especially people help others new section time time also try thing back know cost lot time always need think really hard write good comment always appreciate get comment post seek mainly post comment yet give terrible feeling put much time let feeling post know anybody read guy really help people lot can not say much respect everybody care many people see say keep head</t>
+          <t>sound bite cliche really mean everybody sub hero especially people help others new section time time also try thing back know cost lot time always need think really hard write good comment always appreciate get comment post seek mainly post comment yet give terrible feeling put much time let feeling post know anybody read guy really help people lot can not say much respect everybody care many people see say keep head</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9264,7 +9260,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>hello 12 year old dutch boy scilent smart kid class always get good grade butt also tipical nerd class anything learn 7th grade class call science make anything bicicle race withit look boy also class sort friend butt make comment like sytse name ruin everything really like sort comment soccially really unstable trough lott last couple year little sister3 year young alway angry really effect also classmates kick know al yoke en stuff really like happy long time home also always really tired thing give energy draw alone lock room watch youtube wit h earbuds also help little sister really adhd something mean really adhd normal can not attention always something parent see parent best get wrong butt really know also share story anyone ever parent tell seem depress proved yet happy time school home thing give sort energy draw day long well thanks read story hope help ps super good english</t>
+          <t>hello year old dutch boy scilent smart kid class always get good grade butt also tipical nerd class anything learn th grade class call science make anything bicicle race withit look boy also class sort friend butt make comment like sytse name ruin everything really like sort comment soccially really unstable trough lott last couple year little sister year young alway angry really effect also classmates kick know al yoke en stuff really like happy long time home also always really tired thing give energy draw alone lock room watch youtube wit h earbuds also help little sister really adhd something mean really adhd normal can not attention always something parent see parent best get wrong butt really know also share story anyone ever parent tell seem depress proved yet happy time school home thing give sort energy draw day long well thanks read story hope help ps super good english</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -9298,7 +9294,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>want self diagnose feel like might depression severe lack interest activity emotional numbness suicidal thought stuff past 2 month time last year thing last nearly 6 month start feel okay know depression make unproductive drop grade grades school still really good still hard concentrate class understand subject daily task like shower clean really affect academically socially still depression</t>
+          <t>want self diagnose feel like might depression severe lack interest activity emotional numbness suicidal thought stuff past month time last year thing last nearly month start feel okay know depression make unproductive drop grade grades school still really good still hard concentrate class understand subject daily task like shower clean really affect academically socially still depression</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9349,7 +9345,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>today really rough struggle gender identity almost 2 year boyfriend say love matter even decide happy girl instead boy like convinced trans afab doubt tell today would never leave make depression spiral back talk tell cop mechanism never work one cop mechanism knowledge thing want hurt within reach utility knife want use safety college really want cut scar try km tried open family trans tell give enough think know want 17 know hat girl since hit puberty 10 want attempt desperate want okay</t>
+          <t>today really rough struggle gender identity almost year boyfriend say love matter even decide happy girl instead boy like convinced trans afab doubt tell today would never leave make depression spiral back talk tell cop mechanism never work cop mechanism knowledge thing want hurt within reach utility knife want use safety college really want cut scar try km tried open family trans tell give enough think know want know hated girl since hit puberty want attempt desperate want okay</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9485,7 +9481,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>bit context american black big ugly autistic work aircraft mechanic go every day less see point continue life one gotten know person want anything people make fun quirk time think funny obnoxious besides friend still one high school far away father man care anyone else pass away year ago sudden heart kidney failure wait connect flight visit besides people connect much need clearly problem know address amount therapy fix issue people cross street see sidewalk society general like people like many people support openly racist president regress know ever able rely cop anything likely get shot figure issue racially profile many time live new york city happen stop every random drug search whenever take staten island ferry carry backpack case value sort provide society job also vocational training high qualification every day question care money go fix person truth mistake learn year ago adopt birth probably new parent know would difficult aborted leave die prognosis world grow dire every day due global warming facilitate old people give shit u reason believe thing get well people reject science go backwards long gun allow protect know law enforcement also give power choose want die least give peace mind know way whenever need starve kid africa whatever bullshit people push discontent still deal pretty shitty hand life see reason keep bother many thing wrong future get worse</t>
+          <t>bit context american black big ugly autistic work aircraft mechanic go every day less see point continue life gotten know person want anything people make fun quirk time think funny obnoxious besides friend still one high school far away father man care anyone else pass away year ago sudden heart kidney failure wait connect flight visit besides people connect much need clearly problem know address amount therapy fix issue people cross street see sidewalk society general like people like many people support openly racist president regress know ever able rely cop anything likely get shot figure issue racially profile many time live new york city happen stop every random drug search whenever take staten island ferry carry backpack case value sort provide society job also vocational training high qualification every day question care money go fix person truth mistake learn year ago adopt birth probably new parent know would difficult aborted leave die prognosis world grow dire every day due global warming facilitate old people give shit u reason believe thing get well people reject science go backwards long gun allow protect know law enforcement also give power choose want die least give peace mind know way whenever need starve kid africa whatever bullshit people push discontent still deal pretty shitty hand life see reason keep bother many thing wrong future get worse</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9502,7 +9498,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>sleep unmotivated know really know feel like can not handle anything 17 want life anymore want know brought relieve thought drag knife arm vertically think kill make feel well like would happier</t>
+          <t>sleep unmotivated know really know feel like can not handle anything want life anymore want know brought relieve thought drag knife arm vertically think kill make feel well like would happier</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9536,7 +9532,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>yeah everything freak suck spring break can not go anywhere literally lock house day dad refuse fix car let pay get fix also let use car give enough time change break 21 tire ask ride like 15 feel worthless suck school pa school struggle 2 class get scholarship even apply white female whose dad stepmother great job though still great financially shit biological mother cause gpa good enough professor write recommendation suck school iv know 5 week know even pay rest school can not work pa school day 15 hour long include class nonstop study never go good anything endometriosis surgery suppose 3 week chunk spring summer semester can not book spend 9 month pain can not go anywhere trap thought hate family situation dad rude critical stepmom bitch mom ruin family literally point living can not ever anything want life fair slight fuck want die want deal anything anymore wish never bear god obviously fuck want make life damn hard point feel though set depress edit thanks whoever vote glad feeling good enough either</t>
+          <t>yeah everything freak suck spring break can not go anywhere literally lock house day dad refuse fix car let pay get fix also let use car give enough time change break tire ask ride like feel worthless suck school pa school struggle class get scholarship even apply white female whose dad stepmother great job though still great financially shit biological mother cause gpa good enough professor write recommendation suck school iv know week know even pay rest school can not work pa school day hour long include class nonstop study never go good anything endometriosis surgery suppose week chunk spring summer semester can not book spend month pain can not go anywhere trap thought hate family situation dad rude critical stepmom bitch mom ruin family literally point living can not ever anything want life fair slight fuck want die want deal anything anymore wish never bear god obviously fuck want make life damn hard point feel though set depress edit thanks whoever vote glad feeling good enough either</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9553,7 +9549,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>cross road yesterday mid term show 50 minute late actually gotten morning go take mom take car extra early come back late even though tell need school unfortunately help fact attend school hwks lab programming professor understood give slip go back labs hwks miss though yesterday tell approach deadline consideration close suggest take medical withdrawal professor year year feel withdrawn everything can not bring hold onto shread stability miss class also something tell therapist psychiatrist professor want hold meeting academic advisor see way avoid medical withdrawal catch assignment appreciate consideration early today realize likely attend lab today either can not keep second time take class gotten admittedly worse first time alright timeis terrible support group like last time team first time turn assignment lack part study midterm still long stride actually pass feel uncomfortable class feel like foreigner get sad idea go around make sad sibling face problem try attend college get depressed start sleep never leave school know can not stay college actually graduate seem like curse leave school face leave school job lose school job fund mother leave hometown able get help like need know withdraw able withdraw one class would leave best luck find work without school tie scar leave school diagnose depression gad would anxiety ridden depressed know hold grad year back able conjure fund want love school know love learn can not seem love anything else right suppose graduate year souldnt anyway due need class complete plan pass semester take extra summer class go shorten time go know schedule meet hope finding option withdraw end piss away possible opportunity withdrawal possibly homeless come back school well hard make live without college degree worry want stop self sabotage depression can not want leave home want stay home time tell counselor really get make seem easy fix hate therapist ineffective one turn child psychiatrist thousand time well reason can not see facility longer</t>
+          <t>cross road yesterday mid term show minute late actually gotten morning go take mom take car extra early come back late even though tell need school unfortunately help fact attend school hwks lab programming professor understood give slip go back labs hwks miss though yesterday tell approach deadline consideration close suggest take medical withdrawal professor year year feel withdrawn everything can not bring hold onto shread stability miss class also something tell therapist psychiatrist professor want hold meeting academic advisor see way avoid medical withdrawal catch assignment appreciate consideration early today realize likely attend lab today either can not keep second time take class gotten admittedly worse first time alright timeis terrible support group like last time team first time turn assignment lack part study midterm still long stride actually pass feel uncomfortable class feel like foreigner get sad idea go around make sad sibling face problem try attend college get depressed start sleep never leave school know can not stay college actually graduate seem like curse leave school face leave school job lose school job fund mother leave hometown able get help like need know withdraw able withdraw class would leave best luck find work without school tie scar leave school diagnose depression gad would anxiety ridden depressed know hold grad year back able conjure fund want love school know love learn can not seem love anything else right suppose graduate year souldnt anyway due need class complete plan pass semester take extra summer class go shorten time go know schedule meet hope finding option withdraw end piss away possible opportunity withdrawal possibly homeless come back school well hard make live without college degree worry want stop self sabotage depression can not want leave home want stay home time tell counselor really get make seem easy fix hate therapist ineffective turn child psychiatrist time well reason can not see facility longer</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9570,7 +9566,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>hi depression something deal least 15 year 33 marry two young kid come family parent want supportive really understand depression mental health problem make bad fact two young sibling already accomplish anyways therapy 3 time last 15 year quite honestly disaster time point longer believe psychotherapy legitimate mean help recent bout start late october move severe life affect depression last two month make much bad look wife precious child eye everyday know fail wonderful child 25 1 year old bring much joy much anxiety fail waste life malaise real impend problem probably bad part people know live would never know even depressed fake social situation would say people think funny personable depress keen mind mild success business endeavor people would shock read hear torture feel mentally like idiot fell old trap try take edge couple drink morning get tough time veteran depressed reading shake head know much bad make luckily recognize early enough cut cold turkey sip 10 day right need inertia get door run small business provide today bad felt year paralyzed demon absolute agony become father best thing ever happen fail child wife never ever forgive need face thing head fear damage do last month negligent dig hole see know major bout depression future worry many recovery make life hard inconsistency torture thanks give forum say</t>
+          <t>hi depression something deal least year marry young kid come family parent want supportive really understand depression mental health problem make bad fact young sibling already accomplish anyways therapy time last year quite honestly disaster time point longer believe psychotherapy legitimate mean help recent bout start late october move severe life affect depression last month make much bad look wife precious child eye everyday know fail wonderful child year old bring much joy much anxiety fail waste life malaise real impend problem probably bad part people know live would never know even depressed fake social situation would say people think funny personable depress keen mind mild success business endeavor people would shock read hear torture feel mentally like idiot fell old trap try take edge couple drink morning get tough time veteran depressed reading shake head know much bad make luckily recognize early enough cut cold turkey sip day right need inertia get door run small business provide today bad felt year paralyzed demon absolute agony become father best thing ever happen fail child wife never ever forgive need face thing head fear damage do last month negligent dig hole see know major bout depression future worry many recovery make life hard inconsistency torture thanks give forum say</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -9604,7 +9600,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>job horrible thing anxiety depression wayy intense finally quit 5 month bittersweet can not imagine deal shit deal mind day night one job really imbue personality becomes part feel like every job seem like piece cake also quit deal mental health go family breathe neck half even believe mental problem mom insists problem overthink sigh yep anyway woo</t>
+          <t>job horrible thing anxiety depression wayy intense finally quit month bittersweet can not imagine deal shit deal mind day night job really imbue personality becomes part feel like every job seem like piece cake also quit deal mental health go family breathe neck half even believe mental problem mom insists problem overthink sigh yep anyway woo</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9616,12 +9612,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>probably make 20</t>
+          <t>probably make</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>teenage boy soon 18 year old well tragic thing keep bother daily basis month ago exgirlfiend still happy relationship saw share future might commit much relationship something always rely weird phase talk much breaking constantly say busy school work family hobby believe work active person one day week ago call say think gay heartbroken obviously still see girl lot can not stop think ifs secretly cheat never even love dated pity 2 whole year barely sleep night think go rough heartbreak also struggle quite severe loneliness hard admit enjoy alone make sense seriously lonely month ago stop go school consult teacher decide best school work home never leave house go see friend hell even think want see pretty sure end life many people would even remember online friend can not even play video game would mean lot could something fun people currently see therapist see worst never tell suicidal sure might know already solution think get hell medication wait kind miracle happen work really can not see make 20 30 suck want live living depression loneliness anxiety heartbreak kind b sound worth go end even lonely soon move way good end even less people sad hurt others go away</t>
+          <t>teenage boy soon year old well tragic thing keep bother daily basis month ago exgirlfiend still happy relationship saw share future might commit much relationship something always rely weird phase talk much breaking constantly say busy school work family hobby believe work active person day week ago call say think gay heartbroken obviously still see girl lot can not stop think ifs secretly cheat never even love dated pity whole year barely sleep night think go rough heartbreak also struggle quite severe loneliness hard admit enjoy alone make sense seriously lonely month ago stop go school consult teacher decide best school work home never leave house go see friend hell even think want see pretty sure end life many people would even remember online friend can not even play video game would mean lot could something fun people currently see therapist see worst never tell suicidal sure might know already solution think get hell medication wait kind miracle happen work really can not see make suck want live living depression loneliness anxiety heartbreak kind b sound worth go end even lonely soon move way good end even less people sad hurt others go away</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -9638,7 +9634,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>fight leave really strength keep push every day wife parent would check long ago can not also can not keep like mask start crack lack support professional help take med go therapy look physically right thing yet nearly every minute every day want die know anymore basically wait clock run 2030 year away holy hell think terrify feel like prison chance parole</t>
+          <t>fight leave really strength keep push every day wife parent would check long ago can not also can not keep like mask start crack lack support professional help take med go therapy look physically right thing yet nearly every minute every day want die know anymore basically wait clock run year away holy hell think terrify feel like prison chance parole</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -9667,7 +9663,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>help 2</t>
+          <t>help</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -9689,7 +9685,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>last year compulsory school try kill take overdose prescription pain medication fail miserably thought life would return normal everything fuck everyone act weird around home uncomfortable label vulnerable student use free period use spend hang friend chill empty classroom take away timetabled compulsory supervise study everyday allow leave school break lunch need make sure safe fucking embarrass school tell teacher vulnerable asked question lesson allow take break social worker come visit today parent tell young sister attempt without fuck knowledge camhs book appointment despite turn 18 2 month everyone act fuck weird around parent narcs sudden want start caring start tell everyone ask reason attempted suicide get reject top university choice really truly reason felt like need die try tell one friend attempt mention pass stomach pump start ask feel like whether replace substance remove stomach like fuck cool something insensitive can not bare awkwardness feel trap everything feel strange know everything feel fuck want special treatment want life return way</t>
+          <t>last year compulsory school try kill take overdose prescription pain medication fail miserably thought life would return normal everything fuck everyone act weird around home uncomfortable label vulnerable student use free period use spend hang friend chill empty classroom take away timetabled compulsory supervise study everyday allow leave school break lunch need make sure safe fucking embarrass school tell teacher vulnerable asked question lesson allow take break social worker come visit today parent tell young sister attempt without fuck knowledge camhs book appointment despite turn month everyone act fuck weird around parent narcs sudden want start caring start tell everyone ask reason attempted suicide get reject top university choice really truly reason felt like need die try tell friend attempt mention pass stomach pump start ask feel like whether replace substance remove stomach like fuck cool something insensitive can not bare awkwardness feel trap everything feel strange know everything feel fuck want special treatment want life return way</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -9706,7 +9702,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>get good person handful friend worry ask okay person actually significant always turn person community accept discriminate entire identity person depression literal learn disability impact interact others treat horribly person pretty least average look least disfigured face people avoid soon see least one always get good none want hear life get good fails take account people nothing like year rest life matter hard try make good nothing stick always go back status quo misery fuck do go kill tonight literally nothing anyone stop</t>
+          <t>get good person handful friend worry ask okay person actually significant always turn person community accept discriminate entire identity person depression literal learn disability impact interact others treat horribly person pretty least average look least disfigured face people avoid soon see least always get good none want hear life get good fails take account people nothing like year rest life matter hard try make good nothing stick always go back status quo misery fuck do go kill tonight literally nothing anyone stop</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9718,12 +9714,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>try cut arm 20 minute can not see fuck blood</t>
+          <t>try cut arm minute can not see fuck blood</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>fuck mad right scissors use work ok can not even see fuck blood push fuck hard even try fuck sharpen like 5 minute can not relax see blood</t>
+          <t>fuck mad right scissors use work ok can not even see fuck blood push fuck hard even try fuck sharpen like minute can not relax see blood</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9774,7 +9770,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>17 year old feel suicidal 5or 6 month think kill self nearly everyday enough courage every night go bedi think hope die night anybody feel</t>
+          <t>year old feel suicidal month think kill self nearly everyday enough courage every night go bedi think hope die night anybody feel</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9791,7 +9787,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>do right currently mature student university hate 23 first year university fun graduate already energy study try</t>
+          <t>do right currently mature student university hate first year university fun graduate already energy study try</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9808,7 +9804,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>can not remember day decent life can not remember day abuse one way head feel useless can not think feel worthless can not get job make living share bathroom rat cover rat feces tire kick abused people rent place stay top guilt see dad pay live space shitty place can not get job every interview end would hire degree even though always tell hand currently study university star 5th semester need two year degree willing work long unfair hour still take put back burner abuser live lavish lifestyle dad choose victim abuser master degree even get job dad pay can not even get job tire defeat alone</t>
+          <t>can not remember day decent life can not remember day abused way head feel useless can not think feel worthless can not get job make living share bathroom rat cover rat feces tire kick abused people rent place stay top guilt see dad pay live space shitty place can not get job every interview end would hire degree even though always tell hand currently study university star th semester need year degree willing work long unfair hour still take put back burner abuser live lavish lifestyle dad choose victim abuser master degree even get job dad pay can not even get job tire defeat alone</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -9825,7 +9821,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>yo think enough always noose wood yeet like walk sat like 6 minute try fully commit like threw yeah shirt throw instead police clean ffs</t>
+          <t>yo think enough always noose wood yeet like walk sat like minute try fully commit like threw yeah shirt throw instead police clean ffs</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9842,7 +9838,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>know good see expert rather strange internet 2 therapist help 23 male fit healthy come good upper middle class family support well really hard struggle deal despite since age 10 wish never bear would rather dead really thing keep suicide want put family love one pain may decent enough keep alive still much viewpoint live time resent family endure pain stress life would much rather dead go stress living work rest life call depression laziness whatever viewpoint life can not shake anyone similar mentality ever think tell anything truly shift mindset therapy never do anything help shift almost feel like much therapist able</t>
+          <t>know good see expert rather strange internet therapist help male fit healthy come good upper middle class family support well really hard struggle deal despite since age wish never bear would rather dead really thing keep suicide want put family love one pain may decent enough keep alive still much viewpoint live time resent family endure pain stress life would much rather dead go stress living work rest life call depression laziness whatever viewpoint life can not shake anyone similar mentality ever think tell anything truly shift mindset therapy never do anything help shift almost feel like much therapist able</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9854,12 +9850,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>post day two feeling well back</t>
+          <t>post day feel good back</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>lay bed cry feel like failure can not save money degree anything can not drive place quite literally live basement shitty one could move dad would mean live property man molest half life dad step grandfather lose keep go tired belittle many people life wish get support real life online mean love support really want praised tell everything go good someone life crave get instead always get knock</t>
+          <t>lay bed cry feel like failure can not save money degree anything can not drive place quite literally live basement shitty could move dad would mean live property man molest half life dad step grandfather lose keep go tired belittle many people life wish get support real life online mean love support really want praised tell everything go good someone life crave get instead always get knock</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9876,7 +9872,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>really bad place mentally grateful little thing life odds stack can not even think straight even focus uni even drive properly everyone else well life know stop complaining try make thing well much easy say do try everything nothing work see guy girlfriend cheat laugh right face spit face show failure sorry self loathe one talk might drive car bridge tonight</t>
+          <t>really bad place mentally grateful little thing life odds stack can not even think straight even focus uni even drive properly everyone else well life know stop complaining try make thing well much easy say do try everything nothing work see guy girlfriend cheat laugh right face spit face show failure sorry self loathe talk might drive car bridge tonight</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9910,7 +9906,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>relaxed relationship since september ever since january thing wall winter break especially holidays become lil bit distant eventually talk wanted apart awhile due personal issue understand go relationship best friend talk issue tell always insist want thing change grow apart adult relationship want ruin friendship eventually become close thing break lately though go thing hard time get time last time take mature actually relationship actually completely fall apart break time think though low self esteem cause issue anything barely get text never get hang really hurt anything every felt result thing never do feel ashamed caused take nicotine major issue result school work college burden rather something help sorry need get stuff chest thing hope never see absolute gem want one much feel like hide time want even deal anymore part give hope joy see class talk joke kiss good bye see another day alot pain see someone care much dissapear life like atleast feel way think sorry guy</t>
+          <t>relaxed relationship since september ever since january thing wall winter break especially holidays become lil bit distant eventually talk wanted apart awhile due personal issue understand go relationship best friend talk issue tell always insist want thing change grow apart adult relationship want ruin friendship eventually become close thing break lately though go thing hard time get time last time take mature actually relationship actually completely fall apart break time think though low self esteem cause issue anything barely get text never get hang really hurt anything every felt result thing never do feel ashamed caused take nicotine major issue result school work college burden rather something help sorry need get stuff chest thing hope never see absolute gem want much feel like hide time want even deal anymore part give hope joy see class talk joke kiss good bye see another day alot pain see someone care much dissapear life like atleast feel way think sorry guy</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9927,7 +9923,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>bad situation ever become homeless returned uk living abroad 5 month ago thing seem promise first however thing go downhill pretty quickly find job nightmare decent experience lot interview everywhere either ghost reject get reject lot show want job enough year bpd depression mean find incredibly hard show emotions one company reject reason 4 round interview top gamble addict year ago make life hell create kind debt signing websites detail get loan name completely fault stick long leave 12000 approx worth debt course chase debt also entitle benefit finally run money 2 month behind rent let rental company know today pretty honest circumstance say redundancy less embarrass agree move week expect sympathy lady rental company dick homeless pregnant super young super old anything like chance get help pretty much zilch leave behind amazing boyfriend never think would find much guilt think deep leave message hope one day see know nothing could do try talk think bpd episode exaggerate way help anyway certainly could help financially would expect life house stay option main wish friend ok eventually understand much good place</t>
+          <t>bad situation ever become homeless returned uk living abroad month ago thing seem promise first however thing go downhill pretty quickly find job nightmare decent experience lot interview everywhere either ghost reject get reject lot show want job enough year bpd depression mean find incredibly hard show emotion company reject reason round interview top gamble addict year ago make life hell create kind debt signing websites detail get loan name completely fault stick long left approx worth debt course chase debt also entitle benefit finally run money month behind rent let rental company know today pretty honest circumstance say redundancy less embarrass agree move week expect sympathy lady rental company dick homeless pregnant super young super old anything like chance get help pretty much zilch leave behind amazing boyfriend never think would find much guilt think deep leave message hope day see know nothing could do try talk think bpd episode exaggerate way help anyway certainly could help financially would expect life house stay option main wish friend ok eventually understand much good place</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -9990,12 +9986,12 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>21st century suck</t>
+          <t>st century suck</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>people screen never go interact know know say care even know name world absolutely suck can not even talk anyone anymore everyone walk around goddamn airpods make everyone unapproachable fuck sake tired living today world friends two dog swear day parent two dog pass away off insufferable miserable planet</t>
+          <t>people screen never go interact know know say care even know name world absolutely suck can not even talk anyone anymore everyone walk around goddamn airpods make everyone unapproachable fuck sake tired living today world friends dog swear day parent dog pass away off insufferable miserable planet</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -10046,7 +10042,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>mom talk would give suicide table fuck table live hell can not concentrate intrusive thought bad need something take mind thought parent tell allow tell doctor intrusive thought could endanger plan medical career life become much bear can not take become stressed eye start twitch almost every time blink can not escape even suicide answer anymore help feel like everyone god damn hate mistake make always think like wow person probably hate can not live thought ever distraction mind start say violent stuff dint agree say voice make think fuck crazy maybe fuck crazy id prefer one know one would miss go please someone help</t>
+          <t>mom talk would give suicide table fuck table live hell can not concentrate intrusive thought bad need something take mind thought parent tell allow tell doctor intrusive thought could endanger plan medical career life become much bear can not take become stressed eye start twitch almost every time blink can not escape even suicide answer anymore help feel like everyone god damn hate mistake make always think like wow person probably hate can not live thought ever distraction mind start say violent stuff dint agree say voice make think fuck crazy maybe fuck crazy id prefer knew would miss go please someone help</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -10109,7 +10105,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>take 12 ibuprofen start slit wrist please help</t>
+          <t>take ibuprofen start slit wrist please help</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -10131,7 +10127,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>horribly depressed episode past 6 month diagnose deal casual symptom depression whole life 18 finally go doctor january give referral psychiatrist wait list long month hear anything ill probably wait much long thought feel like torture make feel bad self harm personally think alarm level month long period actively suicidal plan date tool obviously follow think suicide still linger mind lowkey actively suicidal consider voluntary hospitalization know route would get treatment much quicker right feel like option current situation know selfish can not bare thought wait much longer treatment depressive episode whole life believe middle bad one yet right feel like deserve inpatient care since actively suicidal risk cause serious harm idea</t>
+          <t>horribly depressed episode past month diagnose deal casual symptom depression whole life finally go doctor january give referral psychiatrist wait list long month hear anything ill probably wait much long thought feel like torture make feel bad self harm personally think alarm level month long period actively suicidal plan date tool obviously follow think suicide still linger mind lowkey actively suicidal consider voluntary hospitalization know route would get treatment much quicker right feel like option current situation know selfish can not bare thought wait much longer treatment depressive episode whole life believe middle bad yet right feel like deserve inpatient care since actively suicidal risk cause serious harm idea</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10148,7 +10144,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>23 year old know even life work long hour 11 12 400 week get time want stream even though set get take low motivation leave room go much</t>
+          <t>year old know even life work long hour week get time want stream even though set get take low motivation leave room go much</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10182,7 +10178,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>know try live life normally always voice thought keep push away good thing can not accept try best need stop like ignore person voice head keep push really feel see dark entire universe black light every time find sparkle fade away fast ask one thing want die kind person can not say try best help everyone look nice everyone feel lose inside can not make choice voice keep tell everytime feel like get low low already plan everything suicide thing get good ill nothing lose sometimes wish could soul ally beat voice lose wish maybe something could help anyone help make decision know always lonely big problem socialize voice might friend love feel like nothing voice keep push away everyone try make new friend meet lot people end feel bad end ignore everyone stay hostage voice get people seem strange anything try tell thing people notice problem end close thought can not seem try anything beat game read till end hope great day</t>
+          <t>know try live life normally always voice thought keep push away good thing can not accept try best need stop like ignore person voice head keep push really feel see dark entire universe black light every time find sparkle fade away fast ask thing want die kind person can not say try best help everyone look nice everyone feel lose inside can not make choice voice keep tell everytime feel like get low low already plan everything suicide thing get good ill nothing lose sometimes wish could soul ally beat voice lose wish maybe something could help anyone help make decision know always lonely big problem socialize voice might friend love feel like nothing voice keep push away everyone try make new friend meet lot people end feel bad end ignore everyone stay hostage voice get people seem strange anything try tell thing people notice problem end close thought can not seem try anything beat game read till end hope great day</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10194,7 +10190,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>start self harm two day ago</t>
+          <t>start self harm day ago</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -10250,7 +10246,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>lock room almost 2 year want get house feel ugly want show face afraid tommorrow future parent die know feel hideously ugly want go like want rest tire tire want rest</t>
+          <t>lock room almost year want get house feel ugly want show face afraid tommorrow future parent die know feel hideously ugly want go like want rest tire tire want rest</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10284,7 +10280,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>thing stop mom love much want disappoint especially since literally watch dad die alcoholism sibling die without even get chance know sibling weave addiction father alcoholic sober left collegei golden child family one supposedly everything right rap multiple time become alcoholic far perfect definitely feel like deserve alive can not find job marriage fall apart feel alone feel like deserve family deserve decide go</t>
+          <t>thing stop mom love much want disappoint especially since literally watch dad die alcoholism sibling die without even get chance know sibling weave addiction father alcoholic sober left collegei golden child family supposedly everything right rap multiple time become alcoholic far perfect definitely feel like deserve alive can not find job marriage fall apart feel alone feel like deserve family deserve decide go</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -10314,7 +10310,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>quite long time restless enjoy life allanhedonia lack sort motivation anything think lazy quite rational person even make full sense get thing recede nothing seem care enough anything nothing seem worth effort passion like thing sit computer daytv day see reason get anything healthyproductive quite nihilistic view must say quite optimistic contradictory sound always look bright side thing always bode well result extremely lazy depressed sure feel time friends okay like laugh smile genuine however feel emotionless time go least year two really need get work do get life fall behind help would appreciate</t>
+          <t>quite long time restless enjoy life allanhedonia lack sort motivation anything think lazy quite rational person even make full sense get thing recede nothing seem care enough anything nothing seem worth effort passion like thing sit computer daytv day see reason get anything healthyproductive quite nihilistic view must say quite optimistic contradictory sound always look bright side thing always bode well result extremely lazy depressed sure feel time friends okay like laugh smile genuine however feel emotionless time go least year really need get work do get life fall behind help would appreciate</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10348,7 +10344,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>debt high work suck feel alone world think suicide almost every day life thirty year never find courage actually circle drain feel like stress unhappiness depression go cease spent afternoon research method even performative thing belt around neck turn tour slip doorjamb know tie noose couple kind slipknot good place tie end rope know want want someone stop want someone give psychological push need kill know unhappy want deal anymore know</t>
+          <t>debt high work suck feel alone world think suicide almost every day life year never find courage actually circle drain feel like stress unhappiness depression go cease spent afternoon research method even performative thing belt around neck turn tour slip doorjamb know tie noose couple kind slipknot good place tie end rope know want want someone stop want someone give psychological push need kill know unhappy want deal anymore know</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -10394,12 +10390,12 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>probably last 14 day life</t>
+          <t>probably last day life</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>27 year old struggle depression year couple day ago finally decide go end miserable life good already plan way properly 17th march use 20 gram potassium cyanide mixed water need course find place far away crowd ie forest something go lay finally peace hop would painful do research correct dose poison give clean death matter second funny thing actually want die love life smell rain beauty music taste sugar life wonderful thing can not take anymore life extremely difficult totally give much stay alive thought share story still fight hope guy weak hope someday find light get darkness thank</t>
+          <t>year old struggle depression year couple day ago finally decide go end miserable life good already plan way properly th march use gram potassium cyanide mixed water need course find place far away crowd ie forest something go lay finally peace hop would painful do research correct dose poison give clean death matter second funny thing actually want die love life smell rain beauty music taste sugar life wonderful thing can not take anymore life extremely difficult totally give much stay alive thought share story still fight hope guy weak hope someday find light get darkness thank</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10433,7 +10429,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>actually salon get hair cut color around 12 year take courage leave house go somewhere make feel well</t>
+          <t>actually salon get hair cut color around year take courage leave house go somewhere make feel well</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10450,7 +10446,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>desperate advice explain 11 year old son depression actually bipolar disorder even know would start one son get angry think choose befeel way say stop sad happy easy know can not upset understanding also extremely frustrated say embarrass mom depression hurt even go happy energetic spunky fun thrill seek supportive mom one lay bed time constantly fatigue migraine constantly patience never want anything cry lot etc feel like grieve grieve understand can not think selfish lazy mean etc look google idea find anything felt like go try many time explain perspective can not comprehend say lose make feel even bad please anyone anything helpful would greatly appreciate</t>
+          <t>desperate advice explain year old son depression actually bipolar disorder even know would start son get angry think choose befeel way say stop sad happy easy know can not upset understanding also extremely frustrated say embarrass mom depression hurt even go happy energetic spunky fun thrill seek supportive mom lay bed time constantly fatigue migraine constantly patience never want anything cry lot etc feel like grieve grieve understand can not think selfish lazy mean etc look google idea find anything felt like go try many time explain perspective can not comprehend say lose make feel even bad please anyone anything helpful would greatly appreciate</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -10462,12 +10458,12 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>26 30 minute</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>5 year 30 minute till kill like celebrate birthday anymorex since 19 live parent insist take lunch tomorrow grandma want go school either buy cake another girl whose birthday earlier week make extremely anxious people know birthday enjoy live anymore friend city isolate everyday feel make look pathetic sad everyone eyes good thing find put mom buy bluetooth earphone gift fucking tire</t>
+          <t>year minute till kill like celebrate birthday anymorex since living parent insist take lunch tomorrow grandma want go school either buy cake another girl whose birthday earlier week make extremely anxious people know birthday enjoy live anymore friend city isolate everyday feel make look pathetic sad everyone eyes good thing find put mom buy bluetooth earphone gift fucking tire</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10484,7 +10480,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>pressure succeed school job life get treat awfully time one talk live fading day think day kill maybe birthday may 21 weak carry see option</t>
+          <t>pressure succeed school job life get treat awfully time talk live fading day think day kill maybe birthday may weak carry see option</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10496,12 +10492,12 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>one friends die know</t>
+          <t>friend die know</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>get news one mat go school study abroad recently pass can not quite process can not say close never friend die close someone close seem devastated feel weird feel weird say pass confused shocked know</t>
+          <t>get news mate go school study abroad recently pass can not quite process can not say close never friend die close someone close seem devastated feel weird feel weird say pass confused shocked know</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10569,7 +10565,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>take iq test queendom get score 112 put near one standard deviation engineering field science field probably close well feel like result genetics economic background lack learn thing throughout life iq would qualify go account trade want sit desk day get dirty want occupation allow mixture outdoors desk lab</t>
+          <t>take iq test queendom get score puts near standard deviation engineering field science field probably close well feel like result genetics economic background lack learn thing throughout life iq would qualify go account trade want sit desk day get dirty want occupation allow mixture outdoors desk lab</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -10586,7 +10582,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>bit excited write post struggle severe depression since 11 also one cry thing happen past condition living last year want advice finally able handle everyday wake great dissatisfaction always bad mood motivation always tire sleepy feeling totally lose lose interest nearly everything draw music sing know fear future ahead totally design thought go however also lose interest gradual change can not even explain happen since always passionate sit day day everything annoy interest anymore worth stressful feel like fell abyss head full negative thought know neither satisfied situation change tried meditation good experience even mood continue might help situation thing currently play game whole day confront bad thought flood mind get wrong really grateful able sleep bed enough food embrace small thing live like fancy want find happiness able laugh someone experience get</t>
+          <t>bit excited write post struggle severe depression since also cry thing happen past condition living last year want advice finally able handle everyday wake great dissatisfaction always bad mood motivation always tire sleepy feeling totally lose lose interest nearly everything draw music sing know fear future ahead totally design thought go however also lose interest gradual change can not even explain happen since always passionate sit day day everything annoy interest anymore worth stressful feel like fell abyss head full negative thought know neither satisfied situation change tried meditation good experience even mood continue might help situation thing currently play game whole day confront bad thought flood mind get wrong really grateful able sleep bed enough food embrace small thing live like fancy want find happiness able laugh someone experience get</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10603,7 +10599,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>sick wake everyday live life want live close want life idea get would alright could least people like can not even body dosnt belong belongs everyone else except want dye hair pierce tattoo body can not piece shit can not anything right grown as adult whole still can not fuck drive job even firends talk one talk could even text sucide hotline contact school counselor anxiety make want peel skin try feel trap never end cycle sometimes feel like death solution scare people keep say go get good always case think case best thing would alright never great</t>
+          <t>sick wake everyday live life want live close want life idea get would alright could least people like can not even body dosnt belong belongs everyone else except want dye hair pierce tattoo body can not piece shit can not anything right grown as adult whole still can not fuck drive job even firends talk talk could even text sucide hotline contact school counselor anxiety make want peel skin try feel trap never end cycle sometimes feel like death solution scare people keep say go get good always case think case best thing would alright never great</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10671,7 +10667,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>depress seem get increasingly depress day want die stop want die know hurt would cause family pain specifically sister one able talk midattempt father around age lose close cousin suicide want know way solve aware final suicide know try talk someone real life say thing consider fine cost parent money therapy recently start keep journal thought help little clue else would able</t>
+          <t>depress seem get increasingly depress day want die stop want die know hurt would cause family pain specifically sister able talk midattempt father around age lose close cousin suicide want know way solve aware final suicide know try talk someone real life say thing consider fine cost parent money therapy recently start keep journal thought help little clue else would able</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10700,12 +10696,12 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>good way give several people suicide note without realize 6 hour</t>
+          <t>good way give several people suicide note without realize hour</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>h see begin day way give late way escape school partway want give 2 people 2 teacher</t>
+          <t>h see begin day way give late way escape school partway want give people teacher</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -10722,7 +10718,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>depression real playlist httpsopenspotifycomplaylist2yu2ynndftds8ki6yjlmdu</t>
+          <t>depression real playlist httpsopenspotifycomplaylistyuynndftdskiyjlmdu</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10756,7 +10752,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>try best take care mother suffers mental health issue look like dementia unconfirmed uncontrollable rage time towards everyone husband can not understand bipolar filing divorce job mean support want deal anything anymore 40 year scream shout fight drama right childhood sibling can not anymore heart feel like go stop beating think feel guilty leave mother old grandmother without support would kill already exhaust</t>
+          <t>try best take care mother suffers mental health issue look like dementia unconfirmed uncontrollable rage time towards everyone husband can not understand bipolar filing divorce job mean support want deal anything anymore year scream shout fight drama right childhood sibling can not anymore heart feel like go stop beating think feel guilty leave mother old grandmother without support would kill already exhaust</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -10773,7 +10769,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>title basically say 22 get school year half ago semester go well 333gpa moment tell go drop point go able recover work well hour kill sometimes work 1 morning tired time even really know half time know fail semester end drop second time lose anyway want worthless piece shit anymore can not seem grasp anything even know anymore muc hbk longer take know come need vent beforehand know come</t>
+          <t>title basically say get school year half ago semester go well gpa moment tell go drop point go able recover work well hour kill sometimes work morning tired time even really know half time know fail semester end drop second time lose anyway want worthless piece shit anymore can not seem grasp anything even know anymore muc hbk longer take know come need vent beforehand know come</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10790,7 +10786,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>new sub scroll read bunch post realize people want end least one area live shitty maybe partner love job find meaning couple friend love case close say least 23 finish college career unemployable flat broke zero friend never relationship still hold v card basically one people life average loser worthless piece crap consume food resource stay alive add severe anxiety cripple depression recently start experience physical pain emotion trap body spend last 4 year state try really tried find reason keep living can not see thing unfold body hurt write post even know want guys maybe already go can not save sorry english</t>
+          <t>new sub scroll read bunch post realize people want end least area live shitty maybe partner love job find meaning couple friend love case close say least finish college career unemployable flat break friend never relationship still hold v card basically people life average loser worthless piece crap consume food resource stay alive add severe anxiety cripple depression recently start experience physical pain emotion trap body spend last year state try really tried find reason keep living can not see thing unfold body hurt write post even know want guys maybe already go can not save sorry english</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -10807,7 +10803,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>pretty bad place right suicidal month feel good yesterday one low year go take pill alcohol much could handle bottle hand heard dog vomit get clean stumble around pass get desperate take arm walk 15min close clinic even remember plan till get home night bunch exam make med relatively well keep think take pill would least incredibly high would able help think universes way tell hang bit</t>
+          <t>pretty bad place right suicidal month feel well yesterday low year go take pill alcohol much could handle bottle hand heard dog vomit get clean stumble around pass get desperate take arm walk min close clinic even remember plan till get home night bunch exam make med relatively well keep think take pill would least incredibly high would able help think universes way tell hang bit</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -10858,7 +10854,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>fuck brain fuck try whole life healthy succeed little healthsy weight ate healthy really exercise 3 year go crash back use currently almost 220 pound 5 foot 10 chronic heavy drinker binge eater lack exercise depress usually can not get bed want go anywhere unless drink become little bubbly sigh</t>
+          <t>fuck brain fuck try whole life healthy succeed little healthsy weight ate healthy really exercise year go crash back use currently almost pound foot chronic heavy drinker binge eater lack exercise depress usually can not get bed want go anywhere unless drink become little bubbly sigh</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10892,7 +10888,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>try hang yesterday hook pull ceiling motherfucker man weight fuck everything one second</t>
+          <t>try hang yesterday hook pull ceiling motherfucker man weight fuck everything second</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10909,7 +10905,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>find one main issue keep productive move forward inability believe worried others perceive never able relax exist moment therapy medication depression none help can not better get good point kill want keep try life bore wild dream always lead end alone way another die without hurt anyone go attempt suicide make past wonder can not follow anything self harm push people away half measure real solution lose alone 5 dollar whoever want free pas kill</t>
+          <t>find main issue keep productive move forward inability believe worried others perceive never able relax exist moment therapy medication depression none help can not better get good point kill want keep try life bore wild dream always lead end alone way another die without hurt anyone go attempt suicide make past wonder can not follow anything self harm push people away half measure real solution lose alone dollar whoever want free pas kill</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -10943,7 +10939,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>24 still terrible acne use hate way look high school get hit acne huge cystic acne leave scars face super painful use look high school mirror say hate want die mantra hold onto hope teenage phase would get life year year still get new zit cyst every day painful pop bleed everywhere try acne treatment except accutaine doctor recommend reason medical history offset acne grow hair long make main feature distract disgust acne become large part personality friends time call goldilocks recently ago start bald really quickly hairline go way back start lose hair crown look old picture dad go go year can not stand look mirror face red pocked cover acne one thing like appearance slowly fall away sort freakish middle age man greasy teen hybrid use moderate luck relationship department back hair noone even look hair thing ever compliment treat like monster noone want picture life try family would devastate thing keep brother get firearm licence want come refuse know weapon would matter time do make pain stop stop care awful look much hate</t>
+          <t>still terrible acne use hate way look high school get hit acne huge cystic acne leave scars face super painful use look high school mirror say hate want die mantra hold onto hope teenage phase would get life year year still get new zit cyst every day painful pop bleed everywhere try acne treatment except accutaine doctor recommend reason medical history offset acne grow hair long make main feature distract disgust acne become large part personality friends time call goldilocks recently ago start bald really quickly hairline go way back start lose hair crown look old picture dad go go year can not stand look mirror face red pocked cover acne thing like appearance slowly fall away sort freakish middle age man greasy teen hybrid use moderate luck relationship department back hair noone even look hair thing ever compliment treat like monster noone want picture life try family would devastate thing keep brother get firearm licence want come refuse know weapon would matter time do make pain stop stop care awful look much hate</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -10994,7 +10990,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>go small school normally 20 student classroom yet teacher even realize class time amaze teacher always want help student learn always forget slow enough need special help smart enough need help though pretty quiet almost always get interrupted loud people actually work nerve ask question assholefilled class teacher get distract two idiot try kill forgets know probably sound like spoil child want attention want forget interrupted count absent class always</t>
+          <t>go small school normally student classroom yet teacher even realize class time amaze teacher always want help student learn always forget slow enough need special help smart enough need help though pretty quiet almost always get interrupted loud people actually work nerve ask question assholefilled class teacher get distracted idiot try kill forgets know probably sound like spoil child want attention want forget interrupted count absent class always</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -11011,7 +11007,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>close friend tell get help get help get help could bring others even vent stop last thing want talk stranger feeling want go feel hopeless feed refuse take medication commit person understands friend also suicidal people suffer depression extreme loss life daily struggle understand exactly want die feeling one get annoy</t>
+          <t>close friend tell get help get help get help could bring others even vent stop last thing want talk stranger feeling want go feel hopeless feed refuse take medication commit person understands friend also suicidal people suffer depression extreme loss life daily struggle understand exactly want die feeling get annoyed</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -11045,7 +11041,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>course life attempt suicide four time time hospitalized time try last time fail someone find stop ex boyfriend commit suicide last year difficulty making plan due mild obsessive compulsive disorder find time heart condition steadily worsen miscarriage due can not hold regular job since resort online work pay like shit homeless two people sort position provide support emotionally even though look like difficult part life end get well honestly believe life new restriction worth family go vacation soon invite week complete step way plan want question even physical strength one last shot know might fail doubt keep try thing give meditation seem point direction tarot reading horoscopes seem drop hint main difference time time nothing leave afraid can not forgive thing become</t>
+          <t>course life attempt suicide time time hospitalized time try last time fail someone find stop ex boyfriend commit suicide last year difficulty making plan due mild obsessive compulsive disorder find time heart condition steadily worsen miscarriage due can not hold regular job since resort online work pay like shit homeless people sort position provide support emotionally even though look like difficult part life end get well honestly believe life new restriction worth family go vacation soon invite week complete step way plan want question even physical strength last shot know might fail doubt keep try thing give meditation seem point direction tarot reading horoscopes seem drop hint main difference time time nothing leave afraid can not forgive thing become</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -11062,7 +11058,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>make rope noose write email parent much love want can not go scheduled sent twelve hour can not go please someone help try find way die seem option successful anything class money friend love life general thinking possible future go point start unsuccessful none scenario make happy can not live one miserable life know parent love much destroy wish could suck keep go everything hurt fuck much think longer even know expect single thing help think every possible thing single way please fuck</t>
+          <t>make rope noose write email parent much love want can not go scheduled sent hour can not go please someone help try find way die seem option successful anything class money friend love life general thinking possible future go point start unsuccessful none scenario make happy can not live miserable life know parent love much destroy wish could suck keep go everything hurt fuck much think longer even know expect single thing help think every possible thing single way please fuck</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -11096,7 +11092,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>always struggle depression low felt long time push friend boyfriend away family hardly talk top big stressor drown debt unable find good employment live rural part california without transportation housing scarce expensive rent raise know go afford family turn financially parent well 70 enjoy end live brother drug dealer top brother live 5 hour away parent two state survive car accident december 2018 leave carless mountain debt top debt debt fact can not seem save get ahead one turn really conventionally attractive either feel lose depressed numb want stress go away even moment miss best friend pass away month ago sure intentional definitely overdose mad time push away encourage binge thing still keep would feel guilty dog leave alone day body could find want end wrong hand</t>
+          <t>always struggle depression low felt long time push friend boyfriend away family hardly talk top big stressor drown debt unable find good employment live rural part california without transportation housing scarce expensive rent raise know go afford family turn financially parent well enjoy end live brother drug dealer top brother live hour away parent state survive car accident december leave carless mountain debt top debt debt fact can not seem save get ahead turn really conventionally attractive either feel lose depressed numb want stress go away even moment miss best friend pass away month ago sure intentional definitely overdose mad time push away encourage binge thing still keep would feel guilty dog leave alone day body could find want end wrong hand</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11113,7 +11109,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>go free man week want kill self within time gun neither buy one way seem give guarantee death can not better life can not die frustrate</t>
+          <t>go free man week want kill self within time gun neither buy way seem give guarantee death can not better life can not die frustrate</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -11147,7 +11143,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>party get drunk can not walk drunk drunk enough make metabolism fast enough get rid med blood guess finish high school party classmate people call friend thought could go talk try befriend miss much always shy thought would drink make bubbly stuff time work go right past bubbly drink mess straight feel like want die never happen kind med feel depressed pool place one would notice fast started get slowly jump try body would want sink bottom numb everything justgo guess body would could physically parent come 4 people try help one would expect like like think like definatly enough help sure dissapear except one can not take care like need need someone time guess fair guess fair lose friend understand need someone try open also need checkup convince bother wanted one friends help one id know long one always able come back get time help like need anymore want take med truly think good turn drug time feel fake think happy soon enough doctor would take slowly start understand depress think way feel fight take drug make disappear always able fight hard yes think make</t>
+          <t>party get drunk can not walk drunk drunk enough make metabolism fast enough get rid med blood guess finish high school party classmate people call friend thought could go talk try befriend miss much always shy thought would drink make bubbly stuff time work go right past bubbly drink mess straight feel like want die never happen kind med feel depressed pool place would notice fast started get slowly jump try body would want sink bottom numb everything justgo guess body would could physically parent come people tried help would expect like like think like definatly enough help sure dissapear except can not take care like need need someone time guess fair guess fair lose friend understand need someone try open also need checkup convince bother wanted friend help id know long always able come back get time help like need anymore want take med truly think good turn drug time feel fake think happy soon enough doctor would take slowly start understand depress think way feel fight take drug make disappear always able fight hard yes think make</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -11232,7 +11228,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>use frequent sub time time ban one place people share similar view suicide without cringey life unfair blah blah crap see sub rdepression</t>
+          <t>use frequent sub time time ban place people share similar view suicide without cringey life unfair blah blah crap see sub rdepression</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -11249,7 +11245,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>well title say choice would sleep hang day cousin town want meet local art expo make excuse can not meet lunch tell disappointed feel lousy mom pass away 6 month ago cancer dad live memory care facility dementia get divorced september estrange crazy brother good reason anyway justnot mood make small talk talk decease mother walk around art show feel like terrible person able meet social obligation terrible anyone else feel similarly help please</t>
+          <t>well title say choice would sleep hang day cousin town want meet local art expo make excuse can not meet lunch tell disappointed feel lousy mom pass away month ago cancer dad live memory care facility dementia get divorced september estrange crazy brother good reason anyway justnot mood make small talk talk decease mother walk around art show feel like terrible person able meet social obligation terrible anyone else feel similarly help please</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -11266,7 +11262,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>date bf 4 month relationship fairly new yesterday suppose hangout stood texted 11pm say overslept told need talk something tomorrow ask could give topic worry say depression never discuss depression however ex also struggle depression suicidal thought throughout 3yr relationship always best love supportive ex also felt like know best thing say also go low point always single extremely alone without friend supportive family people depression anything significant others say make feel like understood back anything wish say</t>
+          <t>date bf month relationship fairly new yesterday suppose hangout stood texted pm say overslept told need talk something tomorrow ask could give topic worry say depression never discuss depression however ex also struggle depression suicidal thought throughout yr relationship always best love supportive ex also felt like know best thing say also go low point always single extremely alone without friend supportive family people depression anything significant others say make feel like understood back anything wish say</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -11283,7 +11279,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>home life really bad moment parent alcoholic recently drink get lot bad side family argue due parent lack care young sister want move money really anywhere go want call social service parent can not kick belonging potentially trash parent never best childhood cause unfortunate array mental disorder depression start think win lottery 1 million everything okay keep think go win money move give sister well life u get point daydream constantly win large sum money get place sister okay start genuinely think millionare depress unrealistic dream thought future think happen home know get lot money self can not get job due healthmental health reason even though would like work everything get bad feel like brain struggle way cope</t>
+          <t>home life really bad moment parent alcoholic recently drink get lot bad side family argue due parent lack care young sister want move money really anywhere go want call social service parent can not kick belonging potentially trash parent never best childhood cause unfortunate array mental disorder depression start think win lottery everything okay keep think go win money move give sister well life u get point daydream constantly win large sum money get place sister okay start genuinely think millionare depress unrealistic dream thought future think happen home know get lot money self can not get job due healthmental health reason even though would like work everything get bad feel like brain struggle way cope</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -11317,7 +11313,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>motivation post magically cure depression anxiety least todayi ok know may last dayor week maybe month two lucky least today get open curtain house get shit do need clean mess pile exhaust take care dish finally do clean clothes follow email mean send take care big task thing people every day like roll boulder mountain day least today do accomplish something ok</t>
+          <t>motivation post magically cure depression anxiety least todayi ok know may last dayor week maybe month lucky least today get open curtain house get shit do need clean mess pile exhaust take care dish finally do clean clothes follow email mean send take care big task thing people every day like roll boulder mountain day least today do accomplish something ok</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11329,12 +11325,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>12 really fucking hate childhood wish could end</t>
+          <t>really fuck hate childhood wish could end</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>hello 12 see reason live would never want give parent see point wait 6 year see childhood nothing please help</t>
+          <t>hello see reason live would never want give parent see point wait year see childhood nothing please help</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11368,7 +11364,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>struggle depression since 13 encouragement wife finally want see someone go general doctor first get referral try find therapist u insurance require referral</t>
+          <t>struggle depression since encouragement wife finally want see someone go general doctor first get referral try find therapist u insurance require referral</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -11380,12 +11376,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>8 year ago post want die life much well</t>
+          <t>year ago post want die life much well</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>1516 year old post dark moment could see reason keep living thought nothing special next 8 year seem like endless slog look post history want since graduate college graduate school travel world swam bioluminescent algae indonesia hike among alpacas peru learn speak spanish fluently connect people around world country speak spanish publish write multiple publication fall love heart break several time realize gay come amazing woman career love help people every day honestly say depression may lifelong struggle possible recover develop tool cope every day manageable challenge every day grateful alive glad kill 8 year ago never would know beautiful life could become think kill remember know beautiful life could become could way know get need alive</t>
+          <t>year old post dark moment could see reason keep living thought nothing special next year seem like endless slog look post history want since graduate college graduate school travel world swam bioluminescent algae indonesia hike among alpacas peru learn speak spanish fluently connect people around world country speak spanish publish write multiple publication fall love heart break several time realize gay come amazing woman career love help people every day honestly say depression may lifelong struggle possible recover develop tool cope every day manageable challenge every day grateful alive glad kill year ago never would know beautiful life could become think kill remember know beautiful life could become could way know get need alive</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -11419,7 +11415,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>birthday 22 still live parent get kicked state university community college second year take maybe 12 class semester anymore overwhelmed work 10 hour per week data entry job parent work still come home put homework study play video game skip class lot watch show concrete idea future go still laugh humor find funny teen lie old friend make single new one college friend high school life go exercise often genetics allow still skinny expect face accumulate fat beneath chin good look self conscious skinny never wear short sleeve summer social anxiety appearance wrong can not move certain part life grow responsible mature could possibly</t>
+          <t>birthday still live parent get kicked state university community college second year take maybe class semester anymore overwhelmed work hour per week data entry job parent work still come home put homework study play video game skip class lot watch show concrete idea future go still laugh humor find funny teen lie old friend make single new college friend high school life go exercise often genetics allow still skinny expect face accumulate fat beneath chin good look self conscious skinny never wear short sleeve summer social anxiety appearance wrong can not move certain part life grow responsible mature could possibly</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11436,7 +11432,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>know guy life suck mean people seem like life give shit try positive thing help even lsd like 4 time every time use like 3 hour think life thing make happy help know want life care car money want family wife love knowledge come fear archive thing know feel alone moment fuck alone make reddit post express feeling know guess go smoke weed drink sleep tonight hope guy fine remember mom would sad</t>
+          <t>know guy life suck mean people seem like life give shit try positive thing help even lsd like time every time use like hour think life thing make happy help know want life care car money want family wife love knowledge come fear archive thing know feel alone moment fuck alone make reddit post express feeling know guess go smoke weed drink sleep tonight hope guy fine remember mom would sad</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11470,7 +11466,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>scroll page amaze much people feel way make feel well actually determine take life know people live rest life like 16 year old leave school 15 quit college 16 qualification rely extremely socially awkward possibly deppresion know see thing also extreme fear doctor people examine general take effect normal around december last year take acid first time remember lot night enter incredibly deep bad trip friend kick house leave alone first time say can not remember lot night 2 main factor stick 1 ball felt heavy real heavy 2 thought kill multiple occasion night keep see image weapon infront time different time deadly everyone time believe real try use end life felt like would wake everytime alive would cry read back probably mention already suicidal shit take oh well anyway couple month progress ok lie bed smoke joint sane feel heaviness occur ball strong time still couple week consistent around night time feeling heaviness occur decide google yeah ik issue absolute fuck horror discover something call vardicole something like want go back check extremely 0aranoid read something want anything get typed want say 100 percent condition whatever name may symptoms exactly common among condition say extremely scared hospital get examine something around area extreme effect even think get check good can not get thought head feel spiral final moment find eternal peace ask reading would help terrify search happen get surgery also kind want know base heavily trust tiny bit research condition leave positive comment absolutely nothing negative condition please like damage tell even kill please tell find anything reassure please let know get surgery please please tell anything bad genuinely terrify post case people say shit anyway also find condition type google wierd feel testicle something like sure sorry know lot could take time night help would mean know</t>
+          <t>scroll page amaze much people feel way make feel well actually determine take life know people live rest life like year old leave school quit college qualification rely extremely socially awkward possibly deppresion know see thing also extreme fear doctor people examine general take effect normal around december last year take acid first time remember lot night enter incredibly deep bad trip friend kick house leave alone first time say can not remember lot night main factor stick ball felt heavy real heavy thought kill multiple occasion night keep see image weapon infront time different time deadly everyone time believe real try use end life felt like would wake everytime alive would cry read back probably mention already suicidal shit take oh well anyway couple month progress ok lie bed smoke joint sane feel heaviness occur ball strong time still couple week consistent around night time feeling heaviness occur decide google yeah ik issue absolute fuck horror discover something call vardicole something like want go back check extremely aranoid read something want anything get typed want say percent condition whatever name may symptoms exactly common among condition say extremely scared hospital get examine something around area extreme effect even think get check good can not get thought head feel spiral final moment find eternal peace ask reading would help terrify search happen get surgery also kind want know base heavily trust tiny bit research condition leave positive comment absolutely nothing negative condition please like damage tell even kill please tell find anything reassure please let know get surgery please please tell anything bad genuinely terrify post case people say shit anyway also find condition type google wierd feel testicle something like sure sorry know lot could take time night help would mean know</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -11487,7 +11483,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>post people believe back care care anymore serve military feel shit feel broken inside change bad way start brakedowns even wet bed feel embarrass ashamed bad part still 2 year leave serve 1 year far tell anyone wet bed 4 year old frankly speak want think think end sometimes want cause family friends unnecessary sorrow hate hate hate life read far thank</t>
+          <t>post people believe back care care anymore serve military feel shit feel broken inside change bad way start brakedowns even wet bed feel embarrass ashamed bad part still year leave serve year far tell anyone wet bed year old frankly speak want think think end sometimes want cause family friends unnecessary sorrow hate hate hate life read far thank</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -11504,7 +11500,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>struggle depression h since teen year start barely get hold like today morning brain like life meaningless want die let u wrist forearm doom like bad brain realise even situation trigger longer present even everything run smooth others standard brain still rely default think pattern thing one could bypass think pattern become default therapy finally make sense</t>
+          <t>struggle depression h since teen year start barely get hold like today morning brain like life meaningless want die let u wrist forearm doom like bad brain realise even situation trigger longer present even everything run smooth others standard brain still rely default think pattern thing could bypass think pattern become default therapy finally make sense</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -11521,7 +11517,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>hello certain suffer anxiety depression number year result completely withdraw society end last year time get job try put back hopefully make live bit comfortably maybe give chance recover life late 20 also believe dypraxia difficulty talk people certain situation complete fluency others however get job experience number thing experience every role since work people quick jump conclusion paranoid accumulation experience similar know happen month hat person job everyday go likely give hell say mental health condition employer diagnose really want personally attack every time enter new workplace would like chance live people quick assess one another give hell one person front talk properly really need job never say anything mental health condition believe would almost certainly affected chance anything know happen adventure employment leave comment accusation true something seem right also know something wrong hardly want talk anyone nowadays friend choice example dreamt work insular job grow well may well kill one help give placebo give one thing cure depression mental illness instant can not give job wanted life tell point thank reading time really worth</t>
+          <t>hello certain suffer anxiety depression number year result completely withdraw society end last year time get job try put back hopefully make live bit comfortably maybe give chance recover life late also believe dypraxia difficulty talk people certain situation complete fluency others however get job experience number thing experience every role since work people quick jump conclusion paranoid accumulation experience similar know happen month hat person job everyday go likely give hell say mental health condition employer diagnose really want personally attack every time enter new workplace would like chance live people quick assess another give hell person front talk properly really need job never say anything mental health condition believe would almost certainly affected chance anything know happen adventure employment leave comment accusation true something seem right also know something wrong hardly want talk anyone nowadays friend choice example dreamt work insular job grow well may well kill help give placebo give thing cure depression mental illness instant can not give job wanted life tell point thank reading time really worth</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -11538,7 +11534,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>change much since gotten depression stop care school relationship friend stop care peaple think witch cause asshole depression thought would even touch alcohol starve shrooms drink much use get decent grade try pass teacher round make 50 recently stop cut nothing gf want want get chest</t>
+          <t>change much since gotten depression stop care school relationship friend stop care peaple think witch cause asshole depression thought would even touch alcohol starve shrooms drink much use get decent grade try pass teacher round make recently stop cut nothing gf want want get chest</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11555,7 +11551,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>53 year old man life suck many level marry divorce 3 time several ltrs year include one year live together get 5 kid one turn 13 last week want nothing 2 halfsisters even nearby call dfcs split literally hundreds roach apartment live would nothing among thing like time autistic son find loaded insecure handgun detail stuff since pariah 100 would call anyway contact young 3 really struggle know typical reason involve everyone else hurt affect horribly etc girlfriend really like honest say rude person ever meet believe mean even though never tell rude person 50 year aside affect others hell religious faith take away affect others see reason keep living anymore job suck girlfriend even really like apparently see parent year 2 day brother see 7 tmyears even though get along hear suck constantly ask people repeat frustrates involve even really loud tinnitus neuropathy adhd constant joint pain debilitate always frequent memory loss gf show picture 3rd date steak place remember uncommon current relationship probably end soon anyway point want hear affect others add guilt already pretty shitty life kind make want stop guilt would feel know selfish suicide indeed probably selfish thing get oh want keep living whole adult life cycle misery promise know right head heart want help</t>
+          <t>year old man life suck many level marry divorce time several ltrs year include year live together got kid turn last week want nothing halfsisters even nearby call dfcs split literally hundreds roach apartment live would nothing among thing like time autistic son find loaded insecure handgun detail stuff since pariah would call anyway contact young really struggle know typical reason involve everyone else hurt affect horribly etc girlfriend really like honest say rude person ever meet believe mean even though never tell rude person year aside affect others hell religious faith take away affect others see reason keep living anymore job suck girlfriend even really like apparently see parent year day brother see tmyears even though get along hear suck constantly ask people repeat frustrates involve even really loud tinnitus neuropathy adhd constant joint pain debilitate always frequent memory loss gf show picture rd date steak place remember uncommon current relationship probably end soon anyway point want hear affect others add guilt already pretty shitty life kind make want stop guilt would feel know selfish suicide indeed probably selfish thing get oh want keep living whole adult life cycle misery promise know right head heart want help</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11567,7 +11563,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>future death 22st century suicide</t>
+          <t>future death st century suicide</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -11584,7 +11580,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>5minutes end</t>
+          <t>minute end</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -11606,7 +11602,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>goodbye wish thing could go differently hate every second life hate every thought every breathe take every piece life want suffer rest life also want others suffer selfish choice hat grow abused everyday insult something hat go home go back school feeling different separate everyone else rush life anything important grow amazing friend love also reason still always tell know anything maybe maybe foolish choice maybe hell feel like life go dead end hate college even know want life feel like waste time time feel like learn self fuck hard chance go campus therapist reason keep hesitate call like need someone push go anyone alone dorm room want live anymore feel like worthless zero value need someone feel almost like living others</t>
+          <t>goodbye wish thing could go differently hate every second life hate every thought every breathe take every piece life want suffer rest life also want others suffer selfish choice hat grow abused everyday insult something hat go home go back school feeling different separate everyone else rush life anything important grow amazing friend love also reason still always tell know anything maybe maybe foolish choice maybe hell feel like life go dead end hate college even know want life feel like waste time time feel like learn self fuck hard chance go campus therapist reason keep hesitate call like need someone push go anyone alone dorm room want live anymore feel like worthless value need someone feel almost like living others</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -11623,7 +11619,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>actually suicide note writen age ago think get something help ready specify exactly honestly feel like thing worth right feel like actually understood think future life want opt continue exist anymore point life go die one day anyway</t>
+          <t>actually suicide note writen age ago think get something help ready specify exactly honestly feel like thing worth right feel like actually understood think future life want opt continue exist anymore point life go die day anyway</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -11640,7 +11636,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>feeling happiness feel good anymore everyday feel like cloudy dream use zest life last 34 year completely disappear can not go live feel like daily basis</t>
+          <t>feeling happiness feel good anymore everyday feel like cloudy dream use zest life last year completely disappear can not go live feel like daily basis</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -11708,7 +11704,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>well think post know today go feel abnormally sad almost five year never go get clinically diagnosed depression say itbut dark thought past three yearsi deny end case always small group friend circle three three friend one since 1st grade mess part happen almost three year ago close share emotional thing anymore laugh joke lot mainly friendship talk see one another contact textshe usually find way cut conversation short know loose hurt know find someone well side second friend friend since 6th grade feel like loose much othersbut life issue get way see able talk muchif lastperhaps close friend admit today believe whole friendship ordeal say believe none friend actually like himand say right face today detach people think people care himhe care top really distant lately deep conversation like past talk nothing particular hurt see go always super low time response say promise would never stop try show care brush say fun try feel like loose friend slowly talk anyone anymore feel alone hate go public remind people friendswhen mine slowly fade know anymore reason push throughand reason push past five year know can not talk emotional one one able see due life issue deserve type weight shoulder guess vent get shoulder could go many different thing butthis one kill lately thank much take time day read andi know sound hypocritical butplease never give please matter</t>
+          <t>well think post know today go feel abnormally sad almost year never go get clinically diagnosed depression say itbut dark thought past yearsi deny end case always small group friend circle friend since st grade mess part happen almost year ago close share emotional thing anymore laugh joke lot mainly friendship talk see another contact textshe usually find way cut conversation short know loose hurt know find someone well side second friend friend since th grade feel like loose much othersbut life issue get way see able talk muchif lastperhaps close friend admit today believe whole friendship ordeal say believe none friend actually like himand say right face today detach people think people care himhe care top really distant lately deep conversation like past talk nothing particular hurt see go always super low time response say promise would never stop try show care brush say fun try feel like loose friend slowly talk anyone anymore feel alone hate go public remind people friendswhen mine slowly fade know anymore reason push throughand reason push past year know can not talk emotional able see due life issue deserve type weight shoulder guess vent get shoulder could go many different thing butthis kill lately thank much take time day read andi know sound hypocritical butplease never give please matter</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -11725,7 +11721,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>everything get depression suicidal backfire everything try 1 tried usefuli get job car mechanic help people somehow broke arm quit job get accept job 2 try find love really succesful get contact people never hear anything alse always get contacted people need help make feel use stop though becouse 3i try make happy make others happyand work two week becouse surprise get use talked people tought friend backfire fell itsef make look like asshoe try make everyone fight leave use alone stay week goodbye</t>
+          <t>everything get depression suicidal backfire everything try tried usefuli get job car mechanic help people somehow broke arm quit job get accept job try find love really succesful get contact people never hear anything alse always get contacted people need help make feel use stop though becouse try make happy make others happyand work week becouse surprise get use talked people tought friend backfire fell itsef make look like asshoe try make everyone fight leave use alone stay week goodbye</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -11742,7 +11738,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>try yesterday take almost 30 pill sertralina wake make feel like trash do cut try stop head run can not try tomorrow time ist go work hace 12 year enought love</t>
+          <t>try yesterday take almost pill sertralina wake make feel like trash do cut try stop head run can not try tomorrow time ist go work hace year enought love</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -11759,7 +11755,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>feel like life stack endless abuse trauma bear would prefer spend life friendless alone bully abused seem like alive sick explain go one helpful people think live perspective view point one seem exist life truly miserable can not even get bed anymore use want fight musician continue abuse mistreated fucking hell shit end guess real question people find way live something mind abuse something gratify actually suffer make music share blossom artist can not see way make pain worth fight really need focus music even kill try reach goal else alive hate abuse hate thing life mediocre job worth mistreat die try something wild dreams pull plug talk find joy something great whatever keep people alive talk try convince shadow mind give</t>
+          <t>feel like life stack endless abuse trauma bear would prefer spend life friendless alone bully abused seem like alive sick explain go helpful people think live perspective view point one seem exist life truly miserable can not even get bed anymore use want fight musician continue abuse mistreated fucking hell shit end guess real question people find way live something mind abuse something gratify actually suffer make music share blossom artist can not see way make pain worth fight really need focus music even kill try reach goal else alive hate abuse hate thing life mediocre job worth mistreat die try something wild dreams pull plug talk find joy something great whatever keep people alive talk try convince shadow mind give</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -11793,7 +11789,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>reason alive fact want people care feel pain suffer go everyday commit suicide want live anymore</t>
+          <t>reason alive fact want people care feel pain suffer go everyday commit suicide loudly_crying_face want live anymore</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11822,12 +11818,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>every day last 6 month think kill</t>
+          <t>every day last month think kill</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>keep wake immediate dread nothing bring joy anymore thing seem promise quickly turn bitter disappointment want go motion anymore life objectively bad subjectively miserable severely depressed never really planned life past 30 want grow old fit anywhere constantly ignore catch interest life gray can not imagine future truly happy everything fake</t>
+          <t>keep wake immediate dread nothing bring joy anymore thing seem promise quickly turn bitter disappointment want go motion anymore life objectively bad subjectively miserable severely depressed never really planned life past want grow old fit anywhere constantly ignore catch interest life gray can not imagine future truly happy everything fake</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -11861,7 +11857,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>hello everyone preface doctor diagnose depression anxiety ocd recently fill self hatred 57 weigh 140 pound convince fat even though average body weight look mirror think ugly people tell attractive believe feel like life failure graduate college degree fine art history honorsthis good enough feel ignorant perceive travel abroad three different timesyet others tell travel feel inadequate ever go public think everyone hate talk also constantly google mental illness symptom convince something majorly wrong meeven though three doctor tell normal take multiple mental health quiz everyday see lose mind constantly ask coworkers work think artist believe every work produce garbage even people validate usually believe advice</t>
+          <t>hello everyone preface doctor diagnose depression anxiety ocd recently fill self hatred weigh pound convince fat even though average body weight look mirror think ugly people tell attractive believe feel like life failure graduate college degree fine art history honorsthis good enough feel ignorant perceive traveled abroad different timesyet others tell travel feel inadequate ever go public think everyone hate talk also constantly google mental illness symptom convince something majorly wrong meeven though doctor tell normal take multiple mental health quiz everyday see lose mind constantly ask coworkers work think artist believe every work produce garbage even people validate usually believe advice</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -11878,7 +11874,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>almost six month since start think die issue deal seem best option confident think next sunday however still kind confused think please let know least someone may give hope</t>
+          <t>almost month since start think die issue deal seem best option confident think next sunday however still kind confused think please let know least someone may give hope</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -11895,7 +11891,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>bring since happens around thirty second ago sit school depress thought break dam inconvenient consider become think trash everyone see like fuck brutal dealt shit 3 year enough wish could get help weird head problem embarrass get help matter many time tell get help ok can not see way</t>
+          <t>bring since happens around second ago sit school depress thought break dam inconvenient consider become think trash everyone see like fuck brutal dealt shit year enough wish could get help weird head problem embarrass get help matter many time tell get help ok can not see way</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11946,7 +11942,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>like title say often times feel like side character live around 19 college suck diagnose mdd 2 month ago struggle convince need help 2 year kind feel like despite try present life around end hurt ignore matter try example try get habit ask roommate recently day go want get food etc kind feel like time motivation reciprocate try share something life feel like shrug ignore completely every day feel like grow apart around needless say fun introverted nature socialize often exhaust guess even insult around blow despite colossal effort take even say hello</t>
+          <t>like title say often times feel like side character live around college suck diagnose mdd month ago struggle convince need help year kind feel like despite try present life around end hurt ignore matter try example try get habit ask roommate recently day go want get food etc kind feel like time motivation reciprocate try share something life feel like shrug ignore completely every day feel like grow apart around needless say fun introverted nature socialize often exhaust guess even insult around blow despite colossal effort take even say hello</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -11980,7 +11976,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>struggle depression whole life graduate recently lucky enough land pretty decent job however since move start job relapse heavy know common people lonely make big move new environment tried end h tell would never go back place decide get help month ago thought come back glad bore detail work reason lot issue decide proactive change well today get offer company want work since start college best back town friend graduate know happy place surround people make enjoy life short 4 year hop change look make every excuse nothing would get well live start next month way sign betterhelp therapy everyone shy bad experience psychiatrist counselor excuse make get help</t>
+          <t>struggle depression whole life graduate recently lucky enough land pretty decent job however since move start job relapse heavy know common people lonely make big move new environment tried end h tell would never go back place decide get help month ago thought come back glad bore detail work reason lot issue decide proactive change well today get offer company want work since start college best back town friend graduate know happy place surround people make enjoy life short year hop change look make every excuse nothing would get well live start next month way sign betterhelp therapy everyone shy bad experience psychiatrist counselor excuse make get help</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -11997,7 +11993,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>new reddit mostly sole purpose bit social talk depression anxiety issue though aspire artist username express way able express long time today easygoing day smoke ganja eating chocolate try get even online far away live breathe human being 3 boyfriend shopping hide world anyhow sure else say mean say behave like would real life guess go go back hide 3</t>
+          <t>new reddit mostly sole purpose bit social talk depression anxiety issue though aspire artist username express way able express long time today easygoing day smoke ganja eating chocolate try get even online far away live breathe human being boyfriend shop hide world anyhow sure else say mean say behave like would real life guess go go back hiding</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -12014,7 +12010,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>wonder anyone problem struggle 3 year get good anytime soon get sick job although good mean want rest work life problem can not seem stay type job year 4 company already within span 3 year plus lose even work lose son partner stupid fight decide cut tie lose right can not sleep time know problem keep add add need advice keep sane might end dead one day</t>
+          <t>wonder anyone problem struggle year get good anytime soon get sick job although good mean want rest work life problem can not seem stay type job year company already within span year plus lose even work lose son partner stupid fight decide cut tie lose right can not sleep time know problem keep add add need advice keep sane might end dead day</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -12031,7 +12027,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>feel like everyone say wait get good wait 11 year good thing happen time still well</t>
+          <t>feel like everyone say wait get well wait year good thing happen time still well</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12065,7 +12061,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>diagnose depression two different doctor would consult quickly think could wrong feel like hurt feel like kill even though think would can not thing look people wonder misdiagnosed lazy</t>
+          <t>diagnose depression different doctor would consult quickly think could wrong feel like hurt feel like kill even though think would can not thing look people wonder misdiagnosed lazy</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -12099,7 +12095,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>go casually someone die suicide week find see people even call thing back think would wrong thought make really clear like exclusive sometimes self blame guilt get immense overwhelming want go sometimes terrify really fault would come bite as one day think intensifies urge tap think would take blame also scar whenever remember analogy glass full glass spill empty glass fault ever feel like okay feel like</t>
+          <t>go casually someone die suicide week find see people even call thing back think would wrong thought make really clear like exclusive sometimes self blame guilt get immense overwhelming want go sometimes terrify really fault would come bite as day think intensifies urge tap think would take blame also scar whenever remember analogy glass full glass spill empty glass fault ever feel like okay feel like</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -12116,7 +12112,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>sry englishhello reddit 24 hour livecuz go kill self begin start name andreyi bear little siberian town uzhur live like anyone else one day friend tell csgoloungewebsite bet team csgo 2013 start bet 19 1 2000 13 yo kid lot especially russia spent money new pc around 1000 1k help parent hard time u money really help usfor next 5 year continue bettingsome time win sometimes lose really change september 2019 dad get ischemic strokenow finei forget everything study girl friend sit home play video game bet good per month make like 3000 50 fuck good change december lose like 5000 tilt take debt2000 think increase like 3x even 4 lose everything ask help beg start bet cuz one way road end end like mety everything bye</t>
+          <t>sry englishhello reddit hour livecuz go kill self begin start name andreyi bear little siberian town uzhur live like anyone else day friend tell csgoloungewebsite bet team csgo start bet yo kid lot especially russia spent money new pc around k help parent hard time u money really help usfor next year continue bettingsome time win sometimes lose really changed september dad get ischemic strokenow finei forget everything study girl friend sit home play video game bet good per month make like fuck good change december lose like tilted take debt think increase like x even lose everything ask help beg start bet cuz way road end end like mety everything bye</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -12133,7 +12129,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>perhaps play victim life pretty shitty lately spin circle head problem situation find woven diabolical monster weave fuck hell stick fuck tired brain come conclusion victim tire fault codependent fault choice men always worst mean fault marry 19 person stupid enough say yes fault four year relationship feel escape drown weight entire second person tug foot fuck blinked year older brain feel like evolve slight still easily disturbed hurt still put trust one person let come harsh realization human make mistake know know everyone fuck feel like world end people mean fall short unrealistic expectation feel ridiculously deceive surely whole entire life surely world revolve around get stuck insecure unsure thought roll crash head surely fault course mean suppose man never leave suppose one held let suppose show deserve taste lust sorry never either sorry one ever show right wrong sorry one hold heart broken know keep try stay rational state mind stray away path paved hard keep playing victim</t>
+          <t>perhaps play victim life pretty shitty lately spin circle head problem situation find woven diabolical monster weave fuck hell stick fuck tired brain come conclusion victim tire fault codependent fault choice men always worst mean fault marry person stupid enough say yes fault year relationship feel escape drown weight entire second person tug foot fuck blinked year older brain feel like evolve slight still easily disturbed hurt still put trust person let come harsh realization human make mistake know know everyone fuck feel like world end people mean fall short unrealistic expectation feel ridiculously deceive surely whole entire life surely world revolve around get stuck insecure unsure thought roll crash head surely fault course mean suppose man never leave suppose hold let supposed show deserve taste lust sorry never either sorry ever show right wrong sorry hold heart broken know keep try stay rational state mind stray away path paved hard keep playing victim</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -12150,7 +12146,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>aight 15 completely fuck everything need help know spend time room time leave go go school smoke weedtake acid md scar talk anyone someone friends talk one leave 2 nervous talk best friend give tell fuck want around parent give tell want go therapy 13 tell waste time feel emotion felt happysad year scar death anymore can not sleep know 2 every decision make make bad make good currently think suicide</t>
+          <t>aight completely fuck everything need help know spend time room time leave go go school smoke weedtake acid md scar talk anyone someone friends talk leave nervous talk best friend give tell fuck want around parent give tell want go therapy told waste time feel emotion felt happysad year scar death anymore can not sleep know every decision make make bad make good currently think suicide</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12167,7 +12163,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>nothing suicidal thought anymore could use rope pill know mom gun can not take anymore 13 year hop would do well get bad hour go think miss work can not bother health insurance medication 2 year can not handle anymore suck want continue weed help stop help can not handle anymore</t>
+          <t>nothing suicidal thought anymore could use rope pill know mom gun can not take anymore year hop would do well get bad hour go think miss work can not bother health insurance medication year can not handle anymore suck want continue weed help stop help can not handle anymore</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12201,7 +12197,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>currently zoloft lamictal anxiety month ago state panic attack resolve zoloft yesterday something freighting happen talk daughter teacher felt slowly disconnect surroundings forget talk horror last 2 hour finally take klonopin symptom stop relatively healthy person see neurologist make sure underling condition ever happen</t>
+          <t>currently zoloft lamictal anxiety month ago state panic attack resolve zoloft yesterday something freighting happen talk daughter teacher felt slowly disconnect surroundings forget talk horror last hour finally take klonopin symptom stop relatively healthy person see neurologist make sure underling condition ever happen</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -12252,7 +12248,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>bully school life start get good around 11th grade never really experianced girl nice long think dream soft touch woman sexually hug snuggle end 10th grade start selfimproving like tomorrow go uphill real quick start work daily start fight sport join volunteer firefighter volunteer wildlandfirefighters recently send application german red cross go well exept one thing still want girl like ever finish firefighting training first psychologically demand firecalls sometimes come home wish girl would come nowhere hug still kissless virgin even though outside may even desireable least people tell life really girls nice interpret every single nice thing girl kind flirt get feeling almost every single girl could bitchy anything long woman would develop feeling make advance openly flirt almost every girl know sort know needy guy people tell slowly realise chance girl act like one favorite crush lot long talk tell felt needyness past tell chance tell stop think girl time maybe someone would actually turn first time really talk someone problem devastating could stop think woman year home alone would pretend girl bed ask day make pillow everything sometimes dinner would put two plate table talk day know help volunteer work sport time therapist idea punish would think woman idea start every day would take leather belt take top start belt away back would take phone turn porn start belt would stop get erection something sexual happen school volunteer work would pinch trizeps real hard whenever would think woman would look girl butt breast everytime see girl would catch glimpse quickly look away begin help stop think girl time edge time hurt slight thought someone would look woman firecalls otherwise need otherwise would look away hurt confidence plumeted look ground whole time spot back arm feel like shit day tire motivation anything anymore know anymore</t>
+          <t>bully school life start get good around th grade never really experianced girl nice long think dream soft touch woman sexually hug snuggle end th grade start selfimproving like tomorrow go uphill real quick start work daily start fight sport join volunteer firefighter volunteer wildlandfirefighters recently send application german red cross go well exept thing still want girl like ever finish firefighting training first psychologically demand firecalls sometimes come home wish girl would come nowhere hug still kissless virgin even though outside may even desireable least people tell life really girls nice interpret every single nice thing girl kind flirt get feeling almost every single girl could bitchy anything long woman would develop feeling make advance openly flirt almost every girl know sort know needy guy people tell slowly realise chance girl act like favorite crush lot long talk tell felt needyness past tell chance tell stop think girl time maybe someone would actually turn first time really talk someone problem devastating could stop think woman year home alone would pretend girl bed ask day make pillow everything sometimes dinner would put plate table talk day know help volunteer work sport time therapist idea punish would think woman idea start every day would take leather belt take top start belt away back would take phone turn porn start belt would stop get erection something sexual happen school volunteer work would pinch trizeps real hard whenever would think woman would look girl butt breast everytime see girl would catch glimpse quickly look away begin help stop think girl time edge time hurt slight thought someone would look woman firecalls otherwise need otherwise would look away hurt confidence plumeted look ground whole time spot back arm feel like shit day tire motivation anything anymore know anymore</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12269,7 +12265,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>14 3 abusive parent mother slowly go insane accept sister grow freedom whatsoever suffer severe anxiety depression rapidly lose vision reason kill friend band hang feel like burden everyone around feel like people think annoy want subject kind avoid people know</t>
+          <t>abusive parent mother slowly go insane accept sister grow freedom whatsoever suffer severe anxiety depression rapidly lose vision reason kill friend band hang feel like burden everyone around feel like people think annoy want subject kind avoid people know</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12286,7 +12282,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>nature mental health condition someone really aspirations life even would energy stability achieve prove case past would say depressed apathetic accept thought nothing change good get experienced want experience except wait die interested marriage child type career spend day sleep eat watch tv get boring several year would bad could enjoy solitary hobby use enjoy pick something lose interest within minute feel like delay inevitable point know many year put old crap something kill feel guilty think wish 2 family member close would die can not feel guilty last moment leave grief know would relief way know hopelessly try survive without life become easy see potential positive kill compare negative bad transgender complete transition fm rather lease life become like phew least die peace type situation peaceful element involve make tempt progressively find hard see point live seem like anything able change point</t>
+          <t>nature mental health condition someone really aspirations life even would energy stability achieve prove case past would say depressed apathetic accept thought nothing change good get experienced want experience except wait die interested marriage child type career spend day sleep eat watch tv get boring several year would bad could enjoy solitary hobby use enjoy pick something lose interest within minute feel like delay inevitable point know many year put old crap something kill feel guilty think wish family member close would die can not feel guilty last moment leave grief know would relief way know hopelessly try survive without life become easy see potential positive kill compare negative bad transgender complete transition fm rather lease life become like phew least die peace type situation peaceful element involve make tempt progressively find hard see point live seem like anything able change point</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12320,7 +12316,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>feel like life spiral control idea hate much nothing ever seem go right stuck stupid rut fucking tire life one long loop feel like purpose honestly want idea energy anything love anymore nothing make happy even go well know surface deep still wish dead worthless like take space deserve get help little sister start go therapy last year parent found harm can not even count amount time sat floor sob mom can not take alive anymore one do anything try help beg someone help feel like one care bad part tire fuck sick exhaust matter always fog matter much sleep get can not focus think head always hurt feel like body shut appetite lose 20 lb since summer gain back start hat way look go eat 1 make feel sick 2 hate way look 3 know hurt fuck sick entire life suppose perfect can not admit anyone scar pitied vulnerable grade slip know deal entire life perfect student go get perfect college can not fuck worthless dead top think might lesbian one thing hate body personality grade anything else think kill every single day scar plan suicide note write case ready decide ever even want die want garbage 17 feel like go make another year thing keep go way honestly scar wish never bear would even go kill way one would hurt dead die apply college come worry fail eat hate way look hurt anything would would deal shit fuck tire can not even think legit reason feel way hate everything go wrong tangible reason make want panic frustrate outlet even feel like human whole life barely keep head water school come home chug green tea eat want kill something small go wrong want tldr wish dead know</t>
+          <t>feel like life spiral control idea hate much nothing ever seem go right stuck stupid rut fucking tire life long loop feel like purpose honestly want idea energy anything love anymore nothing make happy even go well know surface deep still wish dead worthless like take space deserve get help little sister start go therapy last year parent found harm can not even count amount time sat floor sob mom can not take alive anymore do anything try help beg someone help feel like care bad part tire fuck sick exhaust matter always fog matter much sleep get can not focus think head always hurt feel like body shut appetite lose lb since summer gain back start hat way look go eat make feel sick hate way look know hurt fuck sick entire life suppose perfect can not admit anyone scar pitied vulnerable grade slip know deal entire life perfect student go get perfect college can not fuck worthless dead top think might lesbian thing hate body personality grade anything else think kill every single day scar plan suicide note write case ready decide ever even want die want garbage feel like go make another year thing keep go way honestly scar wish never bear would even go kill way would hurt dead die apply college come worry fail eat hate way look hurt anything would would deal shit fuck tire can not even think legit reason feel way hate everything go wrong tangible reason make want panic frustrate outlet even feel like human whole life barely keep head water school come home chug green tea eat want kill something small go wrong want tldr wish dead know</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -12337,7 +12333,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>feel come go usually keep suppressed submerge mundane stuff 34 year old deal episodes worthlessness since probably middle school grow small rural town puerto rico can not say know everyone know everyone elses business grow strict pentecostal family many rule force sibling use go church usually 7 day week sundays twice bible school morning afternoonevening service secular music prohibit tv material deem demonic pastor course live pentecostal family make huge impact elementary school way decide part way faith later 20 insecure try super hard fit kid challenge never felt understood others mainly nothing relate allow listen secular music even go movie rule mom enforce u insecurity grow even strong enter high school course bad year teenage year many thing happen life moment think weird way normal last year elementary school dad decide distance church become alcoholic shortly everything go downhill multiple affair mom ware turn well mom become aggressive depress used get hit reason remember day think felt trap divorce father option due fanaticism mom use break stuff every day scream yell stay inside room day pray part one positive thing say never hungry somehow always find way provide u clothes food dad disappear many month one time think give u specially felt betrayed mom also nonpresent life school grade drop drastically bully lot school alone majority time much say everything happen think everything happen today angry parent irresponsible kid compare every one else around feel like good upbringing know know longer responsible still hurt much deal insecurity every day something never go able change compare lot everyone tend feel like way less version whoever compare go therapy help degree wish could find people least someone relate read far thanks apologize typos grammar error best fix later</t>
+          <t>feel come go usually keep suppressed submerge mundane stuff year old deal episodes worthlessness since probably middle school grow small rural town puerto rico can not say know everyone know everyone elses business grow strict pentecostal family many rule force sibling use go church usually day week sundays twice bible school morning afternoonevening service secular music prohibit tv material deem demonic pastor course live pentecostal family make huge impact elementary school way decide part way faith later insecure try super hard fit kid challenge never felt understood others mainly nothing relate allow listen secular music even go movie rule mom enforce u insecurity grow even strong enter high school course bad year teenage year many thing happen life moment think weird way normal last year elementary school dad decide distance church become alcoholic shortly everything go downhill multiple affair mom ware turn well mom become aggressive depress used get hit reason remember day think felt trap divorce father option due fanaticism mom use break stuff every day scream yell stay inside room day pray part positive thing say never hungry somehow always find way provide u clothes food dad disappear many month time think give u specially felt betrayed mom also nonpresent life school grade drop drastically bully lot school alone majority time much say everything happen think everything happen today angry parent irresponsible kid compare every else around feel like good upbringing know know longer responsible still hurt much deal insecurity every day something never go able change compare lot everyone tend feel like way less version whoever compare go therapy help degree wish could find people least someone relate read far thanks apologize typos grammar error best fix later</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -12422,7 +12418,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>20 min ago talk girlfriend say want kill get fight parrents tell told love matter tell take pill different kind keep texting call answer try contact mutual friend answer either contact internet since country please tell</t>
+          <t>min ago talk girlfriend say want kill get fight parrents tell told love matter tell take pill different kind keep texting call answer try contact mutual friend answer either contact internet since country please tell</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -12439,7 +12435,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>since start college life go downhill health 21 multiple illness make life miserable top depression anxiety also chronic fatigue syndrome chronic pelvic pain syndrome migraine porninduced erectile dysfunction hate life want die</t>
+          <t>since start college life go downhill health multiple illness make life miserable top depression anxiety also chronic fatigue syndrome chronic pelvic pain syndrome migraine porninduced erectile dysfunction hate life want die</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -12456,7 +12452,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>write think kill even within first 100 time think suicide young age would say roughly around age 1112 first think end even remember sat window ledge look bathed moment climb back tear come face strong enough wow well bet sound crazy strong enough kill direct contradiction strength la felt feel relate course must wonder get fuck happen well go let know case day get strength one 10 child slot number 7 emotionally physically abuse suppose nourish different though make life hell control life extent could even make decision little thing still can not thing beat get vibe child would pee sleep would wake belt hit body kid would fall asleep sofa watch tv would wake belt hit body tell dad point something nothing good enough beaten metal pole could longer use arm defend self take blow head drip blood house summarise fuck try figure start point become person afraid insecure manipulative untrustworthy give attribute really afraid world horrify possibly ran class fuck uni felt everyone look cripple feel everyone always look insecure lol even know say delete everything social medias multiple time purely anxiety someone give fuck enough look possibility find picture funny give much anxiety would prefer manipulative yes understand one manipulative like thing way course know get do know get response people get people want learn one fuck 10 child show middle brady bunch happy family shit control abusive manipulative guess become product environment really know purpose direction stop cry 213pm decide fuck go kms least maybe one mfer know try say guy think go crazy new development mind start sit room talk inside head hour day full conversation guess happen get train social skill sometimes cry sometimes get angry even know sometimes admittedly feel straight heart break do disservice world unfairly bear one family instead another fantasize much kind sorta relate people netflix series like joe stalker get bro want feel solid love go anything keep turn require thing loyalty one fortunately say relate killing would another burden head drive crazy instead heart broken people kick piece side move fuuuuuuck really good structuring thing write ok think logical thing start little story childhood work way present day born 1998 africa move united kingdom young age sure young remember dad previously marry 5 child first wife time 3 mum 2 brother one year old one year younger say born thought fuck baby go disabled something sort doctor say way like born look say na way little would know little brother bear 10 month later fantastic way start life live one house first get uk vague memory shit way combination tell fact know true kid describe quiet timid kid quiet infact old brother sister age 1214 different mother would pinch hit make cry would cry funny would make noise also huge fan lion king ask watch multiple time day everyday move couple time memory blurry arrive next destination remember live flat small town england couple year memories place constantly injure severly play dbz toonami vegeta ps2 normal kid would get fuck dad way around 46 year old still remember time call downstairs beaten think draw rude picture discover beaten boom boom much go entrance life suffer much honest move council house elsewhere kid mum dad decide stressful live people would rather pay 1k rent elsewhere place help family year bad though anything favourite around u 3 year place year 2 year 5 would still drive though occasion hit u return home flip side uk fantastic personal growth course learn father mean come shout argue wife beat child cut beat mean sure age 7810 would hit u leave belt mark day body extent neighbour would hear u scream would mock u next day walk school think become bad child time sibling top class thanks mum keep u study well age start force go mosque mon fri 57 weekend would go arabic school home would play outside park know bad could really knowsshe college homework help u actually say would steal mum lot everyday pound 2 everyone else school could afford buy thing like sweet toy would never able join none would come home school mum id sit outside house couple hour people would walk friend house go like brother would sit door wait life hell maybe easy outside view say naa bad try live everyday come home body even time everyone get time mum talk dad ask school bruh go sleep summarize though study everyday 7 day week still beat along brother newly bear sister time move big city fuck maybe get betterbruh forgot remember nigga would look 3 u garage whole day punishment leave would get beat throw back think mentally much would fuck even fuck 10 yet first get new city quick discover rough day one robbed park could go play become indoors kid go along dad live far away neighbour town instead monthly visit weekly fair enough say within year put know 10 maybe 15kg fat af go year 7 year 6 thin frame kid depressed sure know life consist go school bully come home beaten know safe place choose solitude learnt sight mind even work time nigga try mum become pregnant necessary grow love child soon 5 kid none already receive adequate amount love paint character father beat young sister time maybe 34 take hid phone later reveal leave jacket pocket apology ever give ever history mistaken beating spend little time house ire member drag bed beaten beat nearly every morning without fail 12 year bed wet punch pull move sort thing really would show day fuck everyone mood cut one want around body would say everyone afraid get beat house live decided ahh man maybe life thing go sat window ledge room 3rd floor look wish could let go would lock attic time door genuinely lock could get wanted room 3x4 meter storage room basically 3 u locked whole day live circumstance create bitch nigga behaviour amongst u brother beating bad want beat would fuck whole shit nigga start snitch bruh brother come room learn beat meat take phone take picture watch show everyone sit live room promptly beat environment grow even fucking room could shit could trust nobody likely go fuck anything could include limited hold brother hand fight gay apparently would beat defend parent rude speak back beaten speak rude speak speak beaten finish milk bruh imagine 12 year old hungry self want cereal finish go beaten fuck life id go school fat unloved ugly kid think good time point go bad school white neighbour hood know nothing scary poor white people jk guys harsh day one highschool fight racially abuse constantly racially abuse even accept race black enough quarter white 3 quated black skin color dark brown mean paki indian terrorist osama bin laden uncle forth body ever give shit single teacher body thing get fuck start dumb shit start prick friend fully understand even go think get cover back get make sure punk reality make punk ill get later still remember everything nice people ever say felt say genuinely though popular kid school tell let anyone pick tell asian although tried felt sincerity much appreciate still think day want fast forward year 11 shit really hit fan move school mixed gender year 710 boy school introduction woman definitely catch eye see many year since everyday school mosque home runescape repeat maaaaaaaaaan fuck shit bad childhood make good slide couple hundred beating 3 year might begin get grasp person course little moment thing workout really summarise love atleast felt like horribly exams time accrete focusing time start downwards spiral little brother tell parent fast prom ever fast day since pretty sure give religion long time ago thing beaten lock house could attend final meeting nc save 5 week 10 week pay 50 go could imagine feel go finally away whole home summer could dad move full time decide spite summer finish high school enjoyment arrive plan friend put halt plan go top 3 college city put halt summer instead sit room everyday whole summer alone talk anyone multiple day time solitude become serious become awkward nervous rek could even talk people properly without overthinking everything id say summer 10 day long beaten 67 day well yh torture house make good friend move fuck much know single person could get know lived jewish neighbour hood ever live one black muslim family go friend yh return college ok except everyday would come home lock house everyday without fail dad would sit kitchen look window laugh nowhere else go would sit garden storage cupboard nothing much probably big wardrobe dry would go college repeat process day day mentally exhaust self little little beating on4 every 10 day image first year college like parent decide family read quran together muslim people book like page day read page leave goning upstairs heard talk decide ah probably go beat let stay wait soon enough heard say read page read day ago he look easy one mum say ill call back read call come downstairs read replied point nothing good enough anyway respond walk kitchen get metal pole come hit best bit detached house one could even hear scream first try block leave arm could hold anymore switched right happen lie beaten dad metal pole bleeding floor head think do left day day lose shit soon could stand go grabbed knife stop mother always find funny would always come stop never call police arrive much blood ground floor corridor throw shoe hide could clean sat sofa smug know get away mum hidden police another great day life become sick told mum care think tire leave go foster care must deal shit anymore know important also 17 without phone laptop communication outside world room day play badminton wall star ceiling create fantasy mind rescue currently tell ill get job receive ni number ill figure say nothing maybe month move house come one morning tell move pack think move away cunt chosen son manipulative control abusive husband instead rent another place drop would come round maybe every month 2 hour life completely seclude first time actually try kill panic attack anxiety get take sleep pill boom wake next day fuck natural herbal thing could shit bummer know still know continued think kill self shit never stop first time till thought idea finally try fail instead start smoke weed would help sometimes time like learnt hardway would make think life actually happen compare peer around would breakdown cry life direction family around ironic family 133 parent 10 kidsbecause torment soo much know look eachother look self first selfish can not afford number 1 term greedy way like look first one else mum tell want continue pay live find somewhere else 1819 real bitch do want year back leave family suffer would alright instead go college everyday thinking tf go live drop college work end return college restart live city different one study work night shift go straight class figure get uni guess know fuck go everyone social know socialise sometimes feel though stand badly suppose surround people life bless people see world people parent love soo much even come watch train uni whole fuck life never single thing do say look crowd single person support instead tell dream free tell go make anything life go failure honestly accept truth even feel like anymore feel stupid take couple many hit head information sink properly anymore embarraced class everyone else know level fuck idea everyone else go home christmas family come visit loool family give single fuck alone world tire depressed ready go accepted death little back one night lie bed cry realised deal anymore really accept kill wait day get final little nudge step ledge want peace also girlfriend cheat stop value person keep stuff even get pregnant abort 20 question crazy feeling like shoe think would feel different</t>
+          <t>write think kill even within first time think suicide young age would say roughly around age first think end even remember sat window ledge look bathed moment climb back tear come face strong enough wow well bet sound crazy strong enough kill direct contradiction strength la felt feel relate course must wonder get fuck happen well go let know case day get strength child slot number emotionally physically abuse suppose nourish different though make life hell control life extent could even make decision little thing still can not thing beat get vibe child would pee sleep would wake belt hit body kid would fall asleep sofa watch tv would wake belt hit body tell dad point something nothing good enough beaten metal pole could longer use arm defend self take blow head drip blood house summarise fuck try figure start point become person afraid insecure manipulative untrustworthy give attribute really afraid world horrify possibly ran class fuck uni felt everyone look cripple feel everyone always look insecure lol even know say delete everything social medias multiple time purely anxiety someone give fuck enough look possibility find picture funny give much anxiety would prefer manipulative yes understand manipulative like thing way course know get do know get response people get people want learn fucking child show middle brady bunch happy family shit control abusive manipulative guess become product environment really know purpose direction stop cry pm decide fuck go kms least maybe mfer know try say guy think go crazy new development mind start sit room talk inside head hour day full conversation guess happen get train social skill sometimes cry sometimes get angry even know sometimes admittedly feel straight heart break do disservice world unfairly bear family instead another fantasize much kind sorta relate people netflix series like joe stalker get bro want feel solid love go anything keep turn require thing loyalty fortunately say relate killing would another burden head drive crazy instead heart broken people kick piece side move fuuuuuuck really good structuring thing write ok think logical thing start little story childhood work way present day bear africa move united kingdom young age sure young remember dad previously marry child first wife time mum brother year older year younger say born thought fuck baby go disabled something sort doctor say way like born look say na way little would know little brother bear month later fantastic way start life live house first get uk vague memory shit way combination tell fact know true kid describe quiet timid kid quiet infact old brother sister age different mother would pinch hit make cry would cry funny would make noise also huge fan lion king ask watch multiple time day everyday move couple time memory blurry arrive next destination remember live flat small town england couple year memories place constantly injure severly play dbz toonami vegeta p normal kid would get fuck dad way around year old still remember time call downstairs beaten think draw rude picture discover beaten boom boom much go entrance life suffer much honest move council house elsewhere kid mum dad decide stressful live people would rather pay k rent elsewhere place help family year bad though anything favourite around u year place year year would still drive though occasion hit u return home flip side uk fantastic personal growth course learn father mean come shout argue wife beat child cut beat mean sure age would hit u leave belt mark day body extent neighbour would hear u scream would mock u next day walk school think become bad child time sibling top class thanks mum keep u study well age start force go mosque mon fri weekend would go arabic school home would play outside park know bad could really knowsshe college homework help u actually say would steal mum lot everyday pound everyone else school could afford buy thing like sweet toy would never able join none would come home school mum id sit outside house couple hour people would walk friend house go like brother would sit door wait life hell maybe easy outside view say naa bad try live everyday come home body even time everyone get time mum talk dad ask school bruh go sleep summarize though study everyday day week still beat along brother newly bear sister time move big city fuck maybe get betterbruh forgot remember nigga would look u garage whole day punishment leave would get beat throw back think mentally much would fuck even fuck yet first get new city quick discover rough day rob park could go play become indoors kid go along dad live far away neighbour town instead monthly visit weekly fair enough say within year put know maybe kg fat af go year year thin frame kid depressed sure know life consist go school bully come home beaten know safe place choose solitude learnt sight mind even work time nigga try mum become pregnant necessary grow love child soon kid none already receive adequate amount love paint character father beat young sister time maybe take hid phone later reveal leave jacket pocket apology ever give ever history mistaken beating spend little time house ire member drag bed beaten beat nearly every morning without fail year bed wet punch pull move sort thing really would show day fuck everyone mood cut want around body would say everyone afraid get beat house live decided ahh man maybe life thing go sat window ledge room rd floor look wish could let go would lock attic time door genuinely lock could get wanted room x meter storage room basically u locked whole day live circumstance create bitch nigga behaviour amongst u brother beating bad want beat would fuck whole shit nigga start snitch bruh brother come room learn beat meat take phone take picture watch show everyone sit live room promptly beat environment grow even fucking room could shit could trust nobody likely go fuck anything could include limited hold brother hand fight gay apparently would beat defend parent rude speak back beaten speak rude speak speak beaten finish milk bruh imagine year old hungry self want cereal finish go beaten fuck life id go school fat unloved ugly kid think good time point go bad school white neighbour hood know nothing scary poor white people jk guys harsh day highschool fight racially abuse constantly racially abuse even accept race black enough quarter white quated black skin color dark brown mean paki indian terrorist osama bin laden uncle forth body ever give shit single teacher body thing get fuck start dumb shit start prick friend fully understand even go think get cover back get make sure punk reality make punk ill get later still remember everything nice people ever say felt say genuinely though popular kid school tell let anyone pick tell asian although tried felt sincerity much appreciate still think day want fast forward year shit really hits fan move school mixed gender year boy school introduction woman definitely catch eye see many year since everyday school mosque home runescape repeat maaaaaaaaaan fuck shit bad childhood make good slide couple beating year might begin get grasp person course little moment thing workout really summarise love atleast felt like horribly exams time accrete focusing time start downwards spiral little brother tell parent fast prom ever fast day since pretty sure give religion long time ago thing beaten lock house could attend final meeting nc save week week pay go could imagine feel go finally away whole home summer could dad move full time decide spite summer finish high school enjoyment arrive plan friend put halt plan go top college city put halt summer instead sit room everyday whole summer alone talk anyone multiple day time solitude become serious become awkward nervous rek could even talk people properly without overthinking everything id say summer day long beaten day well yh torture house make good friend move fuck much know single person could get know lived jewish neighbour hood ever live black muslim family go friend yh return college ok except everyday would come home lock house everyday without fail dad would sit kitchen look window laugh nowhere else go would sit garden storage cupboard nothing much probably big wardrobe dry would go college repeat process day day mentally exhaust self little little beating every day image first year college like parent decide family read quran together muslim people book like page day read page leave goning upstairs heard talk decide ah probably go beat let stay wait soon enough heard say read page read day ago he look easy one mum say ill call back read call come downstairs read replied point nothing good enough anyway respond walk kitchen get metal pole come hit best bit detached house could even hear scream first try block leave arm could hold anymore switched right happen lie beaten dad metal pole bleeding floor head think do left day day lose shit soon could stand go grabbed knife stop mother always find funny would always come stop never call police arrive much blood ground floor corridor throw shoe hide could clean sat sofa smug know get away mum hidden police another great day life become sick told mum care think tire leave go foster care must deal shit anymore know important also without phone laptop communication outside world room day play badminton wall star ceiling create fantasy mind rescue currently tell ill get job receive ni number ill figure say nothing maybe month move house come morning told move pack think move away cunt chosen son manipulative control abusive husband instead rent another place drop would come round maybe every month hour life completely seclude first time actually try kill panic attack anxiety get take sleep pill boom wake next day fuck natural herbal thing could shit bummer know still know continued think kill self shit never stop first time till thought idea finally try fail instead start smoke weed would help sometimes time like learnt hardway would make think life actually happen compare peer around would breakdown cry life direction family around ironic family parent kidsbecause torment soo much know look eachother look self first selfish can not afford number term greedy way like look first else mum tell want continue pay live find somewhere else real bitch do want year back leave family suffer would alright instead go college everyday thinking tf go live drop college work end return college restart live city different study work night shift go straight class figure get uni guess know fuck go everyone social know socialise sometimes feel though stand badly suppose surround people life bless people see world people parent love soo much even come watch train uni whole fuck life never single thing do say look crowd single person support instead tell dream free tell go make anything life go failure honestly accept truth even feel like anymore feel stupid take couple many hit head information sink properly anymore embarraced class everyone else know level fuck idea everyone else go home christmas family come visit loool family give single fuck alone world tire depressed ready go accepted death little back night lie bed cry realised deal anymore really accept kill wait day get final little nudge step ledge want peace also girlfriend cheat stop value person keep stuff even get pregnant aborted question crazy feeling like shoe think would feel different</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -12473,7 +12469,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>hi witch take craft seriously really work deperate brink kill much life know unfortunately every door every option every opertunity close since born say come ask alittle backstory backstory throughout mom pregnancy doctor absolutely sure bear healthy baby girl somewhere along line something unexpected happen come boy accord tell write birth certificate also unfortunate enough born cleft lip cleft palette asthma droopy eyesdo know clinical term basically 8 10 can not remember unable open eye way various problem always felt like bear boy let alone live past 3 week another fail diagnosis lucky right childhood consist stuff get attention really want liked hard thing basically physically retard can not talk like everyone else constantly remind failer could even bear right since conciousness first make way world find think girl along think much well litterally life would manage get right dad never picture grow without father difficult course inform dad chance come america bear condition decline start new family sure reason mom always work time pretty much old brother time old brother constantly make fun along mom talk acted brother constantly call gay faggot bitch name do sure unaware felt inside traumatize much afraid body shape normal guy either idea take problem school label retard kid one like turn 11 mom meet man let u call wasis military later find get married quick span month finance surgery come background poverty single parent 2 kid later 3 always treat like pet always harsh frequent punishment always force everything everybody else brother go something like talk neighbor get bike fix stuff like day get ask family buy plane ticket order stuff know always use life nothing tool patiently wait surgery suppose get atleast one fix nose make look somewhat normal 12 delay 16 18 finally 19 receive first surgery make life living hell medical history doctor mess nose glass size gap bridge nose tip put cartalage side lie take right chest fat even care first place want nose straight deal rest later put maxillary distractor fancy name cage head move upper jaw forward reconstruct palate roof mouth straighten jaw whatever clue seem unnessesary however improve speech tiny bit wear crap head 4 month later make appointment 2 year later 22 get surgery bonegraft still miss tooth implant can not afford ever able another surgery nose always suffer depression unfortunate medical circumstance also get pain around abdominal area either get something go born doctor decide best stick penis call boy reason highly depress verge collapse force stepdad go debt want go college want like everyone else real place surround real people maybe make atleast one friend total failer course luck hit home force go online college promiss let use money army provide school use agree turn day yea land 16k debt can not pay 3k force pay get diploma 3k mom force pay able enroll class though plan join military get one life apparently god plan since brought idea straight refuse allow work go allowance type money except money get birthday 20 every year age 181920 help friend senior year highschool summer happy memory leave home town control feel can not anything without constant reminder trauma face however keep promis make join military unfortunately though let two year wait provide medical paperwork finally send meps marine finally chance straighten life man get rediculous thought feeling head nope get take asvap score high side know right smart actually come handy might look like retard mental capacity high side score 80 go medical everything good physical doctor ask always tall skinny feminine body besides lack breast penis say yes normal ok cool go eye exam tell astigmatism leave eye knew happen 5 start hallucinate see giant spider extream detail go see get fix say quote damage eye savire equipment require even make dent progress best solution offer use effect eye hope get good time sorry nothing time lasik doctor dream job marine go meps people tell try army accept pretty much anyone thing say can not join stupid eye gee thanks god point start think maybe mean give job history halarious atleast almost even get hire first job age 20 mcdonalds mom get house brother get live fantasy military travel world decide mock make life even worse decide need surgery penis think curve can not sex yet never try depressed think never doctor messed doctor also give circomsition happen attempt join marine throughout course 6 month would constantly scream top lung say god hat punishment lash reason make feel unsafe want take life even get situation move new house continue along every day month end calm explain tell patient gunna heal right away heal body depend mind state anyways move force quit job actually enjoy transfer another mcdonalds side town move two town work 6 month quit unfairly treat everything fault never anything right lazy work even though mainly everybodys job kitchen everyday wash grill sweep mop multiple time day would grill table make burger would go get 50 pound box freezer name eventually quit 6 month buy one way ticket california say goodbye brother call mom cry say leave tried stop sick shit shit deal life deal problem excuse langauge fuck outta shit little control life spend 2 day california mom tell entire family get aunt grandma sister technically grandma also nun somehow convince go new york stay uncle can not believe actually fell stupid guilt trip somehow 5 day nyc tell probably best since lots opportunity musican wrong basically plummited exact situation different people greedy money hungry aunt job money uncle work night sleep durring day wierd daughter turn mother get outta get point look stuff find proof could pay 700 stay shitty stinky room keep rabbit door lock outside break window small room two month look job make music simaltaniously call liar good nothing lazy bum name label manage get job mcdonalds ny manage set bonegraft appointment lay air mattress two week feel useless call useless go back work move grandpa room rent lucky vacation next two month durring time granpa come back j felt obligate want help bill ultimately give little 4 month pass much consideration mombrother beg come back oblige get job another mcdonalds next town oppisate direction help old bos work 6 month quit drama first time hear people continuously talk shit make feel terrible even emense parinoia experience due smoke much parinoia hid fact normal wish girl intricate detail life think well wrong aunt come usa visa put shit situation feeling unsafe accord mom one usa know mom fold buy plane ticket stay time money mom fine desperate time desperate measure stay entire month quickly realise nothing everything far drive everywhere time could use work music 3 hour leave alone house everything buy well make buy complains say someone else complain buy anything use mom clothes instead buy thing buy everyone else supposedly say need phone make go find one go trouble find iphone 7 plus crazy deal 150 usually go 300350 go borrow money go get phone say oh wanted modern onelike like ugh ok reset mine give say give 150 phone iphone x pristine condition month pass still job stop look focus get licence everybody keep make excuse teach piece crap car brother go pas need new battery can not use also decide retract offer get chance use sell want pay rich wealthy 40k bank meanwhile 30k debt 12 collector send debt borrow money help pay bill call worthless useless borrow much take 5k ran away california brings present day detail leave make extreamly long side note always like girl like admirationenvy type thing always wish one always felt wrong body ok tldr shit life bear girl instead come many problem mental issue along traumatize circumstance put problem still continue</t>
+          <t>hi witch take craft seriously really work deperate brink kill much life know unfortunately every door every option every opertunity close since born say come ask alittle backstory backstory throughout mom pregnancy doctor absolutely sure bear healthy baby girl somewhere along line something unexpected happen come boy accord tell write birth certificate also unfortunate enough born cleft lip cleft palette asthma droopy eyesdo know clinical term basically can not remember unable open eye way various problem always felt like bear boy let alone live past week another fail diagnosis lucky right childhood consist stuff get attention really want liked hard thing basically physically retard can not talk like everyone else constantly remind failer could even bear right since conciousness first make way world find think girl along think much well litterally life would manage get right dad never picture grow without father difficult course inform dad chance come america bear condition decline start new family sure reason mom always work time pretty much old brother time old brother constantly make fun along mom talk acted brother constantly call gay faggot bitch name do sure unaware felt inside traumatize much afraid body shape normal guy either idea take problem school label retarded kid like turned mom meet man let u call wasis military later find get married quick span month finance surgery come background poverty single parent kid later always treat like pet always harsh frequent punishment always force everything everybody else brother go something like talk neighbor get bike fix stuff like day get ask family buy plane ticket order stuff know always use life nothing tool patiently wait surgery suppose get atleast fix nose make look somewhat normal delay finally receive first surgery make life living hell medical history doctor mess nose glass size gap bridge nose tip put cartalage side lie take right chest fat even care first place want nose straight deal rest later put maxillary distractor fancy name cage head move upper jaw forward reconstruct palate roof mouth straighten jaw whatever clue seem unnessesary however improve speech tiny bit wear crap head month later make appointment year later get surgery bonegraft still miss tooth implant can not afford ever able another surgery nose always suffer depression unfortunate medical circumstance also get pain around abdominal area either get something go born doctor decide best stick penis call boy reason highly depress verge collapse force stepdad go debt want go college want like everyone else real place surround real people maybe make atleast friend total failer course luck hit home force go online college promiss let use money army provide school use agree turn day yea land k debt can not pay k force pay get diploma k mom force pay able enroll class though plan join military get life apparently god plan since brought idea straight refuse allow work go allowance type money except money get birthday every year age help friend senior year highschool summer happy memory leave home town control feel can not anything without constant reminder trauma face however keep promis make join military unfortunately though let year wait provide medical paperwork finally send meps marine finally chance straighten life man get rediculous thought feeling head nope get take asvap score high side know right smart actually come handy might look like retard mental capacity high side score go medical everything good physical doctor ask always tall skinny feminine body besides lack breast penis say yes normal ok cool go eye exam tell astigmatism leave eye knew happen start hallucinate see giant spider extream detail go see get fix say quote damage eye savire equipment require even make dent progress best solution offer use effect eye hope get good time sorry nothing time lasik doctor dream job marine go meps people tell try army accept pretty much anyone thing say can not join stupid eye gee thanks god point start think maybe mean give job history halarious atleast almost even get hire first job age mcdonalds mom get house brother get live fantasy military travel world decide mock make life even worse decide need surgery penis think curve can not sex yet never try depressed think never doctor messed doctor also give circomsition happen attempt join marine throughout course month would constantly scream top lung say god hat punishment lash reason make feel unsafe want take life even get situation move new house continue along every day month end calm explain tell patient gunna heal right away heal body depend mind state anyways move force quit job actually enjoy transfer another mcdonalds side town move towns work month quit unfairly treat everything fault never anything right lazy work even though mainly everybodys job kitchen everyday wash grill sweep mop multiple time day would grill table make burger would go get pound box freezer name eventually quit month buy way ticket california say goodbye brother call mom cry say leave tried stop sick shit shit deal life deal problem excuse langauge fuck outta shit little control life spend day california mom tell entire family get aunt grandma sister technically grandma also nun somehow convince go new york stay uncle can not believe actually fell stupid guilt trip somehow day nyc tell probably best since lots opportunity musican wrong basically plummited exact situation different people greedy money hungry aunt job money uncle work night sleep durring day wierd daughter turn mother get outta get point look stuff find proof could pay stay shitty stinky room keep rabbit door lock outside break window small room month look job make music simaltaniously call liar good nothing lazy bum name label manage get job mcdonalds ny manage set bonegraft appointment lay air mattress week feel useless call useless go back work move grandpa room rent lucky vacation next month durring time granpa come back j felt obligate want help bill ultimately give little month pass much consideration mombrother beg come back oblige get job another mcdonalds next town oppisate direction help old bos work month quit drama first time hear people continuously talk shit make feel terrible even emense parinoia experience due smoke much parinoia hid fact normal wish girl intricate detail life think well wrong aunt come usa visa put shit situation feeling unsafe accord mom usa know mom fold buy plane ticket stay time money mom fine desperate time desperate measure stay entire month quickly realise nothing everything far drive everywhere time could use work music hour leave alone house everything buy well make buy complains say someone else complain buy anything use mom clothes instead buy thing buy everyone else supposedly say need phone make go find go trouble find iphone plus crazy deal usually go go borrow money go get phone say oh wanted modern onelike like ugh ok reset mine give say give phone iphone x pristine condition month pass still job stop look focus get licence everybody keep make excuse teach piece crap car brother go pas need new battery can not use also decide retract offer get chance use sell want pay rich wealthy k bank meanwhile k debt collector send debt borrow money help pay bill call worthless useless borrow much take k run away california brings present day detail leave make extreamly long side note always like girl like admirationenvy type thing always wish always felt wrong body ok tldr shit life bear girl instead come many problem mental issue along traumatize circumstance put problem still continue</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -12490,7 +12486,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>see total 4 therapist feel like none help depression actually work generally try healthy mindset life fall trap negative thought feel like progress make without professional help bounce back low reassure support get friend family normal find medication therapy effective necessary fighting depression</t>
+          <t>see total therapist feel like none help depression actually work generally try healthy mindset life fall trap negative thought feel like progress make without professional help bounce back low reassure support get friend family normal find medication therapy effective necessary fighting depression</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -12507,7 +12503,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>anout 5 day since sadness hit want sleep even know cause wake fine 5 day ago point day hit can not even begin think reason make feel selfishmy life actually go pretty well right</t>
+          <t>anout day since sadness hit want sleep even know cause wake fine day ago point day hit can not even begin think reason make feel selfishmy life actually go pretty well right</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12524,7 +12520,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>grant know many acquaintance zero friend often repeat call friend listen hear frankly give shit suffer bipolar disorder manic depression upwards 18 year tell myseld could make past 27 yrs thing would get good hospitalize recently september 2019 staff basically say treat u monitor u stable med fit leave family raise foster care system completely alone see point live anymore constantly mental agony ignore used every level take care people think friends much love give misguide usual end use throw like tissue ignore blatantly can not keep job stability often rock uncontrollable emotion outburst can not cope anymore lose hope honestly would like someone acknowledge alive sensitive real person even know curb feeling thought suicide close friend grow pass either suicide excessive drug use honestly debate path without alone ever know reddit place least get one outlet speak real feeling seek therapy psych med seem like never want hear bad try silver lining struggle say strongi tire exhaust strong allow vulnerable get real help rx bandaid work</t>
+          <t>grant know many acquaintance friend often repeat call friend listen hear frankly give shit suffer bipolar disorder manic depression upwards year tell myseld could make past yr thing would get good hospitalize recently september staff basically say treat u monitor u stable med fit leave family raise foster care system completely alone see point live anymore constantly mental agony ignore used every level take care people think friends much love give misguide usual end use throw like tissue ignore blatantly can not keep job stability often rock uncontrollable emotion outburst can not cope anymore lose hope honestly would like someone acknowledge alive sensitive real person even know curb feeling thought suicide close friend grow pass either suicide excessive drug use honestly debate path without alone ever know reddit place least get outlet speak real feeling seek therapy psych med seem like never want hear bad try silver lining struggle say strongi tire exhaust strong allow vulnerable get real help rx bandaid work</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12558,7 +12554,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>everyone end hat eventually psychologist almost ten year blow kick last session doubt every interaction every person meet doubt every interaction every single one friend can not get substance abuse issue control bad enemy accuse bully subsequently bully workplace bully system uprooted life change well part domino dog kill would give anything different person right awful repulsive contemptible self</t>
+          <t>everyone end hat eventually psychologist almost year blow kick last session doubt every interaction every person meet doubt every interaction every single friend can not get substance abuse issue control bad enemy accuse bully subsequently bully workplace bully system uprooted life change well part domino dog kill would give anything different person right awful repulsive contemptible self</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -12605,7 +12601,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>28m move back parent house sell slowly deteriorate consider suicide since middleschool attempt sometimes halfheartedly handful time feel empty like belong single last 6 year count short relationship go college desire continue live young suicide strong fleeting feeling would hit like train hold long enough would disappear like light switch grow old seem feeling quick constant suicide almost always mind determination succeed seem strengthen little complain life job save money fantastic friend live beautiful part world alone though every attempt make relationship woman fail always feel empty alone unbearable partnership hardwired dna seem bear perfect brain avoid know want end worry might parent already edge divorce believe come since young already show fairly incapable come help mental issue know add child nothing hop would go away take therapy depression find difficult honest feeling face face someone time lead response consist distance alienation compassion empathy even often simple word suck fairly sure die suicide likely within next year goal try patch relationship family love one send least amount guilt possible want tear people live apart wish never bear feel lovable feel really trust anyone know fight 28 year know strength want stop feeling alone empty</t>
+          <t>move back parent house sell slowly deteriorate consider suicide since middleschool attempt sometimes halfheartedly handful time feel empty like belong single last year count short relationship go college desire continue live young suicide strong fleeting feeling would hit like train hold long enough would disappear like light switch grow old seem feeling quick constant suicide almost always mind determination succeed seem strengthen little complain life job save money fantastic friend live beautiful part world alone though every attempt make relationship woman fail always feel empty alone unbearable partnership hardwired dna seem bear perfect brain avoid know want end worry might parent already edge divorce believe come since young already show fairly incapable come help mental issue know add child nothing hop would go away take therapy depression find difficult honest feeling face face someone time lead response consist distance alienation compassion empathy even often simple word suck fairly sure die suicide likely within next year goal try patch relationship family love one send least amount guilt possible want tear people live apart wish never bear feel lovable feel really trust anyone know fight year know strength want stop feeling alone empty</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12622,7 +12618,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>know anyone even read need vent somewhere background live back home state unhappy situation want come back finish school could around family originally move away year unhappy leave home find real happiness west colorado time begin travel around work seasonal job ski resort national park really enjoy awhile want keep travel reality life set degree sort highpaying job struggle make paycheck paycheck despite still relatively happy eventually though realize miss family old friend terribly decide move back could around get education fast forward 26 year old living dad house work unfulfilling job pay terribly wait first semester school start feel like absolute failure even degree 30 start career almost decade everyone else miss place travel terribly much feel like miss part back leave west consider move back idea would afford see career opportunity outside deadend low pay job also school think ever move back would go back see family year two three day love much hard part want able see regularly extremely close parent want miss moment realize go day every moment precious feel like slowly die turn depressed cynical person can not see good life anymore everything negative people around state ignorant offensive belong know grapple indecision unbelievably hard stay become unhappy leave never able see parent unhappy can not take anymore look ahead life seem like go one endless stream depression honestly want end please help know anymore feel like go insane battle thought day</t>
+          <t>know anyone even read need vent somewhere background live back home state unhappy situation want come back finish school could around family originally move away year unhappy leave home find real happiness west colorado time begin travel around work seasonal job ski resort national park really enjoy awhile want keep travel reality life set degree sort highpaying job struggle make paycheck paycheck despite still relatively happy eventually though realize miss family old friend terribly decide move back could around get education fast forward year old living dad house work unfulfilling job pay terribly wait first semester school start feel like absolute failure even degree start career almost decade everyone else miss place travel terribly much feel like miss part back leave west consider move back idea would afford see career opportunity outside deadend low pay job also school think ever move back would go back see family year day love much hard part want able see regularly extremely close parent want miss moment realize go day every moment precious feel like slowly die turn depressed cynical person can not see good life anymore everything negative people around state ignorant offensive belong know grapple indecision unbelievably hard stay become unhappy leave never able see parent unhappy can not take anymore look ahead life seem like go endless stream depression honestly want end please help know anymore feel like go insane battle thought day</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12656,7 +12652,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>can not stop think constant think sleep wake whenever mind totally occupied sometimes contemplate suicide action follow thought afterlife even one never stop obsess normally one give advice life forth recently actually contemplate happens dead keep think every moment make bad people tell worry okay live life full something cheesy dumb quite honestly life pointless think seem good dead live suffer pain pain gain humiliation satisfaction nothing short horrible life experience mean nothing go yet still way think sometimes cut short would can not see wad thru torture call life option</t>
+          <t>can not stop think constant think sleep wake whenever mind totally occupied sometimes contemplate suicide action follow thought afterlife even never stop obsess normally give advice life forth recently actually contemplate happens dead keep think every moment make bad people tell worry okay live life full something cheesy dumb quite honestly life pointless think seem good dead live suffer pain pain gain humiliation satisfaction nothing short horrible life experience mean nothing go yet still way think sometimes cut short would can not see wad thru torture call life option</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12673,7 +12669,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>realize recently might bipolar disorder base couple friend know also symptom checklist look diagnosed general anxiety depression lately felt particularly swing extreme optimism sociability pessimisms day depression anyways look online find online counsel website one box fill info counselor look order well understand upfront filling pour heart explain feeling well ever anyone even feel like hope figure fuck go head hit next page button bring payment section never website mention pay thing page understand business counselor get pay somehow order completely shit job fact mention already break open really pissed felt like say okay go wrong oh unfortunate give help super personal stuff open go need credit card info oh can not afford well fuck 323 live feel completely stick college student work two job try make end meet also juggle exhaust unpredictable bullshit head everyday fact pay help something ask would wish bad enemy kind astound moment know would visit site without semi level head right hit price tag well want get political sub honestly fuck capitalism right end vent go delete tomorrow side personality get mad post hope good safe night</t>
+          <t>realize recently might bipolar disorder base couple friend know also symptom checklist look diagnosed general anxiety depression lately felt particularly swing extreme optimism sociability pessimisms day depression anyways look online find online counsel website box fill info counselor look order well understand upfront filling pour heart explain feeling well ever anyone even feel like hope figure fuck go head hit next page button bring payment section never website mention pay thing page understand business counselor get pay somehow order completely shit job fact mention already break open really pissed felt like say okay go wrong oh unfortunate give help super personal stuff open go need credit card info oh can not afford well fuck live feel completely stick college student work job try make end meet also juggle exhaust unpredictable bullshit head everyday fact pay help something ask would wish bad enemy kind astound moment know would visit site without semi level head right hit price tag well want get political sub honestly fuck capitalism right end vent go delete tomorrow side personality get mad post hope good safe night</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12690,7 +12686,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>know right sub need place vent right know start depressed 6 year always manage see good thing life last 2 month get bad randomly urge cry day long hold back probably good idea also still live mom every time get home yell last 3 week get really tire soon get home lay bed try relax even vision get darker think know go think keep go much longer</t>
+          <t>know right sub need place vent right know start depressed year always manage see good thing life last month get bad randomly urge cry day long hold back probably good idea also still live mom every time get home yell last week get really tire soon get home lay bed try relax even vision get darker think know go think keep go much longer</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -12707,7 +12703,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>feel depression crawl back right could feel heart get heavy day feelin stress tired sick sleepy time bad day good feel fun wake look forward day like ago need idea inspiration advice anything help get funk stop see therapist last month due moneyfunding go 5 year past 2 year consecutive normal feel like stop therapy</t>
+          <t>feel depression crawl back right could feel heart get heavy day feelin stress tired sick sleepy time bad day good feel fun wake look forward day like ago need idea inspiration advice anything help get funk stop see therapist last month due moneyfunding go year past year consecutive normal feel like stop therapy</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -12741,7 +12737,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>probably heard since make concern post awhile ago delete welp alive still close end today head spiral ever felt light start blur noise distort keep mind die gain consciousness walk around school heard noise helicopter sunset gleam eye try find damn helicopter since noise consume whole world vanish lose meaning completely want end know knew would alive tomorrow mind go sat cry hole table outside saw pair converse cry try hide tear cheer team get back practice saw friend converse come back 711 surprise see give rest iced coffee know cry since play sleeping spent another 30 minute eat brownie talk day think ever appreciate person much life never know person save would one would least expect owe life</t>
+          <t>probably heard since make concern post awhile ago delete welp alive still close end today head spiral ever felt light start blur noise distort keep mind die gain consciousness walk around school heard noise helicopter sunset gleam eye try find damn helicopter since noise consume whole world vanish lose meaning completely want end know knew would alive tomorrow mind go sat cry hole table outside saw pair converse cry try hide tear cheer team get back practice saw friend converse come back surprised see give rest iced coffee know cry since play sleeping spent another minute eat brownie talk day think ever appreciate person much life never know person save would would least expect owe life</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12758,7 +12754,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>average story everyone heard friends broken family bully throughout elementary high school rough breakup escape drug self harm can not take anymore feel worthless turn 18 year think longer go like want die since 11 life painful every day constantly struggle can not even find motivation keep go can not even picture adult see nothing word can not even put together properly without autocorrect cry much want feel okay love feel like felt someone change mind start care somebody else particular way break contact tired people give tough love say decision selfish know make bad want stop never get well burn mind try hard continue make improvement always end back square one never insistent die life liar shitty people earth nobody seem care listen unless something</t>
+          <t>average story everyone heard friends broken family bully throughout elementary high school rough breakup escape drug self harm can not take anymore feel worthless turn year think longer go like want die since life painful every day constantly struggle can not even find motivation keep go can not even picture adult see nothing word can not even put together properly without autocorrect cry much want feel okay love feel like felt someone change mind start care somebody else particular way break contact tired people give tough love say decision selfish know make bad want stop never get well burn mind try hard continue make improvement always end back square never insistent die life liar shitty people earth nobody seem care listen unless something</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12770,12 +12766,12 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>personal crisis go write internet hey welcome ted talk</t>
+          <t>personal crisis go write internet hey welcome ted talk waving_hand_mediumlight_skin_tone</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>hate life much question even sometimes like mandatory policy life way go well born everyone tell ideal path life go school get job settle start family well fuck piece shit already start fuck whole life want take back mean god sake even someone express crisis get go internet spill heart feel content feel feel fuck overwhelm like one care right dude one fucking care go back first statement anyways drug abusive boyfriend give less fuck wake middle night cry overthinking everything scar wide awake one even care first place life empty one even comfort life one suppose actually give fuck get realize get even lonely point scar life want live scar happen end anyways die without really live full potential already live purpose little even get realize die know know life easy one say looked way thing easy people still care world seem curious million possibility life could take worry away people care go curiosity go away see ugly world nothing look beautiful anymore maybe depress can not ever really happy felt genuine happiness without drug long time maybe defective even think anyone care enough even read much reading thank hear actually help bite</t>
+          <t>hate life much question even sometimes like mandatory policy life way go well born everyone tell ideal path life go school get job settle start family well fuck piece shit already start fuck whole life want take back mean god sake even someone express crisis get go internet spill heart feel content feel feel fuck overwhelm like care right dude fuck care go back first statement anyways drug abusive boyfriend give less fuck wake middle night cry overthinking everything scar wide awake even care first place life empty even comfort life one suppose actually give fuck get realize get even lonely point scar life want live scar happen end anyways die without really live full potential already live purpose little even get realize die know know life easy say looked way thing easy people still care world seem curious possibility life could take worry away people care go curiosity go away see ugly world nothing look beautiful anymore maybe depress can not ever really happy felt genuine happiness without drug long time maybe defective even think anyone care enough even read much reading thank hear actually help bite</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -12792,7 +12788,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>rewatching bojack horseman netflix umpteenth time thing enjoy anymore recently notice show secretariat right never stop ruin never look back ahead seem work long stop last relationship almost kill ex abusive survive since shit sexual assault like do terrible thing thing survival thing simply bastard keep busy work 50 hr volunteer entire weekend pet need constant attention constantly move run around always drink hand work time look back fall asleep bad can not escape thankfully sleep cone soon need keep move stop consume terrify can not handle can not relive can not know anymore come long line alcoholic fast way join tire can not risk show wish would end scared anything ruin fast hard slow catch think would get easy</t>
+          <t>rewatching bojack horseman netflix umpteenth time thing enjoy anymore recently notice show secretariat right never stop ruin never look back ahead seem work long stop last relationship almost kill ex abusive survive since shit sexual assault like do terrible thing thing survival thing simply bastard keep busy work hr volunteer entire weekend pet need constant attention constantly move run around always drink hand work time look back fall asleep bad can not escape thankfully sleep cone soon need keep move stop consume terrify can not handle can not relive can not know anymore come long line alcoholic fast way join tire can not risk show wish would end scared anything ruin fast hard slow catch think would get easy</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -12809,7 +12805,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>somewhat suicidal much pain want stop existing plan end kind way love someone dearly attempt suicide hospitalize attempt also struggle addiction also lose someone love suicide call often drunk high sometimes tell goodbye end plan know specific phrase allow generalize gist need kill readily accessiblei location go kill self hang go sometimes close enough physically go sometimes every time feel like life hand responsibility feel like handle something happen would feel entirely responsible feel like read much suggestion seek professional help helpful last thing call police emergency service scar love friend want know want know truly support blame feeling think anything wrong truly can not handle feeling like life hand can not handle feel like say wrong thing say right thing die one chose come help feel like can not help situation want turn away clearly need someone would different active plan comfortable want die sentiment comfortable listen someone talk deep pain hatred towards ambivalence towards life goodbye plan dead hang know suppose feel like take seriously die word would come next anyway advice appreciate</t>
+          <t>somewhat suicidal much pain want stop existing plan end kind way love someone dearly attempt suicide hospitalize attempt also struggle addiction also lose someone love suicide call often drunk high sometimes tell goodbye end plan know specific phrase allow generalize gist need kill readily accessiblei location go kill self hang go sometimes close enough physically go sometimes every time feel like life hand responsibility feel like handle something happen would feel entirely responsible feel like read much suggestion seek professional help helpful last thing call police emergency service scar love friend want know want know truly support blame feeling think anything wrong truly can not handle feeling like life hand can not handle feel like say wrong thing say right thing die choose come help feel like can not help situation want turn away clearly need someone would different active plan comfortable want die sentiment comfortable listen someone talk deep pain hatred towards ambivalence towards life goodbye plan dead hang know suppose feel like take seriously die word would come next anyway advice appreciate</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -12855,12 +12851,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>tell get well 10 year later get numb</t>
+          <t>tell get good year later get numb</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>first know rule never doctor actually get confirmed depression anxiety issue likely agoraphobia leave house 4 year even last month since leave house 5 year even receive high school education spend guess house small portion life actually friends 10 year ago active fun enjoy life fairly well occasionally still dump friend seemed way talk lot course friend time tried encourage tell get good kept eye make sure come say course fuck make small mistake say sorry forgive punish allow see friend still see day besides one somehow infinite patience put shit punish lot would cut would punch slam destroy possession try best sort fizzle day get anymore ever since nothing whole 10 year even spend time mother young sister maybe still punish hobby even thing though fully enjoy start feel pretty emotionless towards end actually start reconnecting mother finally learn stuff start connect sister go fairly well start look bright side still never leave house start feel comfortable instead prison sister something unspeakable something think could ever forgive mother instantly hurt angry pull straight back ever since weird around sister find almost impossible connect angry mother feel numb really know try forgive forget impossible try go outside almost panic attack think sometimes back prison nothing wait tldr many year thing start look good family trouble bad ever</t>
+          <t>first know rule never doctor actually get confirmed depression anxiety issue likely agoraphobia leave house year even last month since leave house year even receive high school education spend guess house small portion life actually friends year ago active fun enjoy life fairly well occasionally still dump friend seemed way talk lot course friend time tried encourage tell get good kept eye make sure come say course fuck make small mistake say sorry forgive punish allow see friend still see day besides somehow infinite patience put shit punish lot would cut would punch slam destroy possession try best sort fizzle day get anymore ever since nothing whole year even spend time mother young sister maybe still punish hobby even thing though fully enjoy start feel pretty emotionless towards end actually start reconnecting mother finally learn stuff start connect sister go fairly well start look bright side still never leave house start feel comfortable instead prison sister something unspeakable something think could ever forgive mother instantly hurt angry pull straight back ever since weird around sister find almost impossible connect angry mother feel numb really know try forgive forget impossible try go outside almost panic attack think sometimes back prison nothing wait tldr many year thing start look good family trouble bad ever</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12877,7 +12873,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>suicidal long time see therapist psychiatrist weekly hospital 4 day couple week ago shit ton med see way think happen week can not promise next week passion anything life fun anymore good hiding friend family care see way nothing earth matter</t>
+          <t>suicidal long time see therapist psychiatrist weekly hospital day couple week ago shit ton med see way think happen week can not promise next week passion anything life fun anymore good hiding friend family care see way nothing earth matter</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12911,7 +12907,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>18 terrorised think death like</t>
+          <t>terrorised think death like</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -12945,7 +12941,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>hey much meditation decide create post therapy open forum conversation write right go work probably edit later go apologize advance ramble currently 20 year old sophomore college minute ago type eventually go kill google try find forum post read lo behold rsuicidewatch post come 3 year ago lead create reddit account make post throughout life far struggle crippling loneliness mostly loner middle school high school one arrogant assholes care grade etc inside however crippling insecurity body image distinct memory perhaps 1011 star mirror look face critique every last bit know would make much sense always tell attractive never see however phone day fill photo take deep think depression mostly natural physiological basis 18 never even hold girl hand kiss one pretty italian girl leave country soon spend last 2 year listen sad song drive aimlessly chain smoke watch movie like manchester sea luckily enough best friend meet hs struggle depression well however problem pick girl charisma developed year cop mechanism together mostly drink smoke weed watch film always make point get drunk high enough entire life past future flash sort slideshow write use steroids 25 year first start lose 25 pound mostly starve develop ok physique think nothing else would make attractive make decision buy testosterone enanthate darknet 17 give shit die mind way find girl fill void inside muscular 510 190 around 10 bf yet void fill think ever solid trajectory right inherit large sum grandfather turn 25 add mean life however see sort holden caulfield amory blaine side paradise want help people love cripple fear feel love vicariously watch movie read book can not shake feel make past 40 eventually kill father currently slowly die alcoholism depression 50 father every time think take back memory senior h talk girl month two best friend hid fact sex never felt inadequate life drive home cry tie belt around doorknob lean forward thankfully follow inadequacy still consume want hope someday feeling subside</t>
+          <t>hey much meditation decide create post therapy open forum conversation write right go work probably edit later go apologize advance ramble currently year old sophomore college minute ago type eventually go kill google try find forum post read lo behold rsuicidewatch post come year ago lead create reddit account make post throughout life far struggle crippling loneliness mostly loner middle school high school arrogant asshole care grade etc inside however crippling insecurity body image distinct memory perhaps star mirror look face critique every last bit know would make much sense always tell attractive never see however phone day fill photo take deep think depression mostly natural physiological basis never even hold girl hand kiss pretty italian girl leave country soon spend last year listen sad song drive aimlessly chain smoke watch movie like manchester sea luckily enough best friend meet hs struggle depression well however problem pick girl charisma developed year cop mechanism together mostly drink smoke weed watch film always make point get drunk high enough entire life past future flash sort slideshow write use steroid year first start lose pound mostly starve develop ok physique think nothing else would make attractive make decision buy testosterone enanthate darknet give shit die mind way find girl fill void inside muscular around bf yet void fill think ever solid trajectory right inherit large sum grandfather turn add mean life however see sort holden caulfield amory blaine side paradise want help people love cripple fear feel love vicariously watch movie read book can not shake feel make past eventually kill father currently slowly die alcoholism depression father every time think take back memory senior h talk girl month best friend hid fact sex never felt inadequate life drive home cry tie belt around doorknob lean forward thankfully follow inadequacy still consume want hope someday feeling subside</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -12979,7 +12975,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>feel really depress lonely lately job full time late night janitor courthouse 10 mile away hometown work pretty easy wound feel super lonely lot consider really get talk friend hang much today come home late usual little interaction mom make joke take pretty personal felt like insult rather sense humor tell really want joke around like refuse listen told go away despite attempt change topic explain feel high kept tell great mom raise brother struggle make end meet keep house ungrateful little bastard appreciate hard work sacrifice moment legitimately begin cry rather instead pause try reverse damage mom host little parental style oppression olympics proclaim amount tear cry course three week get first tear would legitimately run cheek even go bed go life worse escalates would make terrible mistake get behind wheel consider practice drive morning unaware lite fuse trigger firework seem care thanks read hope feel well soon find key unlock next set happiness along parent make suffering depress</t>
+          <t>feel really depress lonely lately job full time late night janitor courthouse mile away hometown work pretty easy wound feel super lonely lot consider really get talk friend hang much today come home late usual little interaction mom make joke take pretty personal felt like insult rather sense humor tell really want joke around like refuse listen told go away despite attempt change topic explain feel high kept tell great mom raise brother struggle make end meet keep house ungrateful little bastard appreciate hard work sacrifice moment legitimately begin cry rather instead pause try reverse damage mom host little parental style oppression olympics proclaim amount tear cry course week get first tear would legitimately run cheek even go bed go life worse escalates would make terrible mistake get behind wheel consider practice drive morning unaware lite fuse trigger firework seem care thanks read hope feel well soon find key unlock next set happiness along parent make suffering depress</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13013,7 +13009,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>many people experience many even realize young remember think one thing happen count denial truly body remembers body souls carry heaviness pain never seem put believe time people want end life even slowly addiction passive behavior reason whether manipulate trick force brutalize lied used discard action cut deep core feel like way ever move past nothing else distract u weight unbearable</t>
+          <t>many people experience many even realize young remember think thing happen count denial truly body remembers body souls carry heaviness pain never seem put believe time people want end life even slowly addiction passive behavior reason whether manipulate trick force brutalize lied used discard action cut deep core feel like way ever move past nothing else distract u weight unbearable</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -13030,7 +13026,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>strength really mean right want instant death least expect feel like suppose alive every day completely miserable day always least good month pass real friend year girlfriend live hundred mile away feel like care anymore even blame ready die hard every day look suicide method fuck article post almost funny stop take useless antidepressant tire asexual brain zap weak laugh cry reason time house yell simple chore feel sisyphean bother 18 feel like kind childhood teenagehood go suppose happy college something tell tire type fuck</t>
+          <t>strength really mean right want instant death least expect feel like suppose alive every day completely miserable day always least good month pass real friend year girlfriend live hundred mile away feel like care anymore even blame ready die hard every day look suicide method fuck article post almost funny stop take useless antidepressant tire asexual brain zap weak laugh cry reason time house yell simple chore feel sisyphean bother feel like kind childhood teenagehood go suppose happy college something tell tire type fuck</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -13047,7 +13043,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>one listen problem think would write decide post move new city start new school miss anything old hometown actually quite happy somewhere else move tough though give cat say goodbye friend kind join group friends school pretty nice dynamic group little weird though like 50 introvert talk much include 50 strongly opinionated extrovert mostly seem like nice group people though regard make friend thing go pretty well try form deep relationship people hard long process though hard get impatient blame though feel like ungrateful even though think lucky find group friend exactly want still feel shit never diagnose think could depression andor anxiety would love get medication would ease pain want tell parent feel past year think suicide probably least month usually weekly daily though plan two three time life thinking lot recently research pill get chemist could overdose find suicide bridge close house tell live good moment life effort take reach moment seem worth sometimes start find hard trust like different person day day even hour hour brief moment feel happy something worry emotion cause something regret sad empty think girl new social circle really nice seem like really nice person see much always make effort greet unsure whether intention romantic platonic make dizzy really want u become good friend maybe great social interaction always make feel shit every little mistake make feel kind like never happen yet spent whole afternoon texting feel like go insane people admire one seem like nice people could ever know make feel happy present short conversation always leave want aspire like make people happy need remember smile though usually high libido past two week drive literally nonexistent month ago shit suddenly become sloppy even though diet quite healthy change much think anxiety cause extremely tense time start wake 4am every morning nowhere can not stop know fuck happen feel lonely want someone talk listen get point someone new take time get kind impatient know make happy thing work girl think would happier yet think lose interest make feel awful wow end really long</t>
+          <t>listen problem think would write decide post move new city start new school miss anything old hometown actually quite happy somewhere else move tough though give cat say goodbye friend kind join group friends school pretty nice dynamic group little weird though like introvert talk much include strongly opinionated extrovert mostly seem like nice group people though regard make friend thing go pretty well try form deep relationship people hard long process though hard get impatient blame though feel like ungrateful even though think lucky find group friend exactly want still feel shit never diagnose think could depression andor anxiety would love get medication would ease pain want tell parent feel past year think suicide probably least month usually weekly daily though plan time life thinking lot recently research pill get chemist could overdose find suicide bridge close house tell live good moment life effort take reach moment seem worth sometimes start find hard trust like different person day day even hour hour brief moment feel happy something worry emotion cause something regret sad empty think girl new social circle really nice seem like really nice person see much always make effort greet unsure whether intention romantic platonic make dizzy really want u become good friend maybe great social interaction always make feel shit every little mistake make feel kind like never happen yet spent whole afternoon texting feel like go insane people admire one seem like nice people could ever know make feel happy present short conversation always leave want aspire like make people happy need remember smile though usually high libido past week drive literally nonexistent month ago shit suddenly become sloppy even though diet quite healthy change much think anxiety cause extremely tense time start wake every morning nowhere can not stop know fuck happen feel lonely want someone talk listen get point someone new take time get kind impatient know make happy thing work girl think would happier yet think lose interest make feel awful wow end really long</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -13064,7 +13060,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>throwaway account like matter today write suicide note mom boyfriend feel guilty thing really take bad turn can not anymore miss thing tell boyfriend would stay alive birthday 18 day nothing improved despite effort go honest know stick around long keep get bad hate feeling way</t>
+          <t>throwaway account like matter today write suicide note mom boyfriend feel guilty thing really take bad turn can not anymore miss thing tell boyfriend would stay alive birthday day nothing improved despite effort go honest know stick around long keep get bad hate feeling way</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -13098,7 +13094,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>together almost four year never happy life since met help encourage improve grow much never insult never yell disagreement never fight always much love want spend rest life think want say however also say can not satisfy sexually want open relationship fool around cis men transgender kill want one body part want happy believe relationship sustainable can not promise one day tempt cheat outlet marry unless agree open relationship deeply monogamous person can not can not never believe anyone could love multiple sclerosis trans along ton issue make happy felt loved secure learn satisfy never always fear good enough couple counsel want make thing work somehow can not see possible solution even though want nothing hate body ever hate struggled depression suicidal thought past 20 year believe last chance fail horribly keep try</t>
+          <t>together almost year never happy life since met help encourage improve grow much never insult never yell disagreement never fight always much love want spend rest life think want say however also say can not satisfy sexually want open relationship fool around cis men transgender kill want body part want happy believe relationship sustainable can not promise day tempt cheat outlet marry unless agree open relationship deeply monogamous person can not can not never believe anyone could love multiple sclerosis trans along ton issue make happy felt loved secure learn satisfy never always fear good enough couple counsel want make thing work somehow can not see possible solution even though want nothing hate body ever hate struggled depression suicidal thought past year believe last chance fail horribly keep try</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13115,7 +13111,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>first sorry brazilian english break 26 year old think beautiful look young severe depression ten year family loss borderline disorder think bear mentally ill hospitalize 2016 2017 psychiatric treatment think cure stop go university stop work everything go wrong last year think everything go change meet someone help give house food love family accept make bad make go hell leave rock bottom year leave leave living happy life help well live chaos fair everything go wrong life love family 25 cat still love can not go anymore feel exhaust old</t>
+          <t>first sorry brazilian english broken year old think beautiful look young severe depression year family loss borderline disorder think bear mentally ill hospitalize psychiatric treatment think cure stop go university stop work everything go wrong last year think everything go change meet someone help give house food love family accept make bad make go hell leave rock bottom year leave leave living happy life help well live chaos fair everything go wrong life love family cat still love can not go anymore feel exhaust old</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13132,7 +13128,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>right feel alone live city know many people depression anxiety treat 7 year keep want meet new people real world scary always afraid mess say people think stupid people know half turn horrible people resort try tear daily love daughter boyfriend sometimes want talk someone else know else explain feel really trapped end sad rant</t>
+          <t>right feel alone live city know many people depression anxiety treat year keep want meet new people real world scary always afraid mess say people think stupid people know half turn horrible people resort try tear daily love daughter boyfriend sometimes want talk someone else know else explain feel really trapped end sad rant</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -13149,7 +13145,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>40 year old today live bad life bad person sorry</t>
+          <t>year old today live bad life bad person sorry</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -13183,7 +13179,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>can not talk feel fcking annoy like illiterate something everytime start write roffmychest whatever stupid communitywebsite feel like fcking stupid can not help like hopeless something curse much want talk one talk</t>
+          <t>can not talk feel fcking annoy like illiterate something everytime start write roffmychest whatever stupid communitywebsite feel like fcking stupid can not help like hopeless something curse much want talk talk</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -13200,7 +13196,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>16 severely suicidal since 10 around 11 slit wrist parent walk bleeding say busy work give antiseptic cream bandaids instead take hospital dad walk later night cry basically call selfish one ever talk never receive help 11th grade school never bad already 2 pretty serious breakdown 6 week extensive online research find painless suicide method purchase drug blade necessary pull almost night want finalise thing first mum go go dad final plea help tell say head thing self pity etc know go end pretty soon sure almost definitely soon thanks read make far appreciate</t>
+          <t>severely suicidal since around slit wrist parent walk bleeding say busy work give antiseptic cream bandaids instead take hospital dad walk later night cry basically call selfish ever talk never receive help th grade school never bad already pretty serious breakdown week extensive online research find painless suicide method purchase drug blade necessary pull almost night want finalise thing first mum go go dad final plea help tell say head thing self pity etc know go end pretty soon sure almost definitely soon thanks read make far appreciate</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -13217,7 +13213,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>hate work precisely hate work can not come term think go waste huge part life thing like see point work hard achieve career goal time go would retire ever go retire drop dead 5060s 27 idea live life supposedly chance sentience depress due lot thing physical health problem able find job go least tolerate feeling generally lose life hat job majorly contribute suicidal tendency quit last job awful premonition go quit soon possible go kill family understand everybodys get work live usual kind resent like would gladly drink koolaid world relatively happy work drone point life mind wire way tire constantly feel depress guilty angry world feel absolutely alone even think know alone type think right feel empty like way lile nothing live sorry rant know write attention maybe sort connection another human</t>
+          <t>hate work precisely hate work can not come term think go waste huge part life thing like see point work hard achieve career goal time go would retire ever go retire drop dead idea live life supposedly chance sentience depress due lot thing physical health problem able find job go least tolerate feeling generally lose life hat job majorly contribute suicidal tendency quit last job awful premonition go quit soon possible go kill family understand everybodys get work live usual kind resent like would gladly drink koolaid world relatively happy work drone point life mind wire way tire constantly feel depress guilty angry world feel absolutely alone even think know alone type think right feel empty like way lile nothing live sorry rant know write attention maybe sort connection another human</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13234,7 +13230,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>can not believe write fought hard long want die can not live like anymore can not pain intense nothing hope leave nothing try fight depression nearly decade many different therapist cop mechanisms med different kind different dos 8 year later pain ever want get well bad possible possible nothing anymore drop school job friend quickly run money scar attempt know else hurt bad</t>
+          <t>can not believe write fought hard long want die can not live like anymore can not pain intense nothing hope leave nothing try fight depression nearly decade many different therapist cop mechanisms med different kind different dos year later pain ever want get well bad possible possible nothing anymore drop school job friend quickly run money scar attempt know else hurt bad</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13281,7 +13277,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>28f husband want move west coast east coast 5 month later hate job coworkers meet coworker love end leave nothing look forward work eat car would rather eat gossip whine woman husband always people person he make friend pretty quick day he sit home alone alone cry secret keep thing know gotten idea need strong cry weakness try talk husband last night hard time talk end leave sleep livingroom help situation miss mom miss sister really fuckin miss friend god miss thier hug damn much miss job amazing job great pay coworkers friends miss little home miss car lucy miss weather want hug</t>
+          <t>f husband want move west coast east coast month later hate job coworkers meet coworker love end leave nothing look forward work eat car would rather eat gossip whine woman husband always people person he make friend pretty quick day he sit home alone alone cry secret keep thing know gotten idea need strong cry weakness try talk husband last night hard time talk end leave sleep livingroom help situation miss mom miss sister really fuckin miss friend god miss thier hug damn much miss job amazing job great pay coworkers friends miss little home miss car lucy miss weather want hug</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13298,7 +13294,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>change diet help within day two ate lot burger wing lot salty flavorful food flavor additives message n fuck w brain chemistry never ate green grow 2 day eat salad fruit healthy fat add 2 tblspn olive oil mixed help tremendously mood felt much good use angry time also gluck crazy drink 2 shake day make blender throw bunch salad green along w cut whole apple orange carrot broccoli peanut butter apple cider vinegar hamulayian salt tablespoon olive oil twice day two college midterm come week even stress reason hope help</t>
+          <t>change diet help within day eat lot burger wing lot salty flavorful food flavor additives message n fuck w brain chemistry never ate green grow day eat salad fruit healthy fat add tblspn olive oil mixed help tremendously mood felt much good use angry time also gluck crazy drink shake day make blender throw bunch salad green along w cut whole apple orange carrot broccoli peanut butter apple cider vinegar hamulayian salt tablespoon olive oil twice day college midterm come week even stress reason hope helpsfolded_handsfolded_handsfolded_hands</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -13332,7 +13328,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>last year go various cycle depression anxiety panic attack fall trap everythings fine alright hit oncoming train depression 6 month later spend lot time room alone rarely leave house much leave feel massively anxious feel much bad deal people get hit sporadicly depression insomnia make everything much bad insomnia truely wonderful talent nuke everything feel like future certainly future life happy even content spoken friend love one job always get wishywashy response fine everything work fine want purpose life feel incredibly hollow low time interest hobby fade away absolutely terrified apply job interview completely nuke mental health year fear go destroy mental health bad experience last job help friendsfamily tell need apply job lazy really know suppose people think big concern feel like something cope rest life think go able cope really worry lead bearing important decision life really struggle help get help even write post hard fifth attempt compose thought really difficult anyone similar problem similar situation overcome really want feel like stick unable anything feel trap nowhere go</t>
+          <t>last year go various cycle depression anxiety panic attack fall trap everythings fine alright hit oncoming train depression month later spend lot time room alone rarely leave house much leave feel massively anxious feel much bad deal people get hit sporadicly depression insomnia make everything much bad insomnia truely wonderful talent nuke everything feel like future certainly future life happy even content spoken friend love one job always get wishywashy response fine everything work fine want purpose life feel incredibly hollow low time interest hobby fade away absolutely terrified apply job interview completely nuke mental health year fear go destroy mental health bad experience last job help friendsfamily tell need apply job lazy really know suppose people think big concern feel like something cope rest life think go able cope really worry lead bearing important decision life really struggle help get help even write post hard fifth attempt compose thought really difficult anyone similar problem similar situation overcome really want feel like stick unable anything feel trap nowhere go</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13366,7 +13362,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>one want anyways mess everything retard want die anyways fuck ig know really point make post one go read anyways matter ig</t>
+          <t>want anyways mess everything retard want die anyways fuck ig know really point make post one go read anyways matter ig</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -13378,12 +13374,12 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>14 struggle lot</t>
+          <t>struggle lot</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>depressed couple year suicidal past 3 year one main reason family outsider chose want religious want tried mould model son hate speak lot people online become close friend begin year lose close friend 3 year inspiration go feel alone friend still slowly drift come day recently tell dark joke cop mechanism help relieve stress make joke stuff slip make joke offend girl class go head student affair school complain despite apologise least 5 time parent get involved news spread like wildfire feel like go school tomorrow last thing want stress peer peer problem though family religious believe never joke stuff still joke thing mental state deteriorate depression insomnia ptsd family know hour either confess everything wrong whichll probably give shit deal x20 bad kill today heavily weigh option want live suffer anymore attempt past pussied last moment time can not live like anymore would probably get disown call child support hotline go private school academic scholarship move school whichd mean would lose close friend real life pretty much fail every class flunk every class work anymore constantly pain head thump everyday migraine can not focus stay sane dog music love videogames pc die last september able play make really sad want incentive live keep go can not see anything future go dim school type hop insane luck make promise depend year start would contemplate suicide decide would feb want today know make please someone help</t>
+          <t>depressed couple year suicidal past year main reason family outsider chose want religious want tried mould model son hate speak lot people online become close friend begin year lose close friend year inspiration go feel alone friend still slowly drift come day recently tell dark joke cop mechanism help relieve stress make joke stuff slip make joke offend girl class go head student affair school complain despite apologise least times parent get involved news spread like wildfire feel like go school tomorrow last thing want stress peer peer problem though family religious believe never joke stuff still joke thing mental state deteriorate depression insomnia ptsd family know hour either confess everything wrong whichll probably give shit deal x bad kill today heavily weigh option want live suffer anymore attempt past pussied last moment time can not live like anymore would probably get disown call child support hotline go private school academic scholarship move school whichd mean would lose close friend real life pretty much fail every class flunk every class work anymore constantly pain head thump everyday migraine can not focus stay sane dog music love videogames pc die last september able play make really sad want incentive live keep go can not see anything future go dim school type hop insane luck make promise depend year start would contemplate suicide decide would feb want today know make please someone help</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -13498,7 +13494,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>depress want live anymore always feel ignored tell crush like get reject person hate like already make plan kill go next week family sick head never close spread canada pretty sure mental illness seem like friend group get small small hour nothing live life seem get crazy crazy day everyone around seem happy seem like one suffer need help major help go counsel tell lie good enough even though nothing one miss final call help</t>
+          <t>depress want live anymore always feel ignored tell crush like get reject person hate like already make plan kill go next week family sick head never close spread canada pretty sure mental illness seem like friend group get small small hour nothing live life seem get crazy crazy day everyone around seem happy seem like suffer need help major help go counsel tell lie good enough even though nothing miss final call help</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -13515,7 +13511,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>mom kick can not wait final straw kill wish never 302 could get gun sleep car night till get hand one</t>
+          <t>mom kick can not wait final straw kill wish never could get gun sleep car night till get hand</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -13532,7 +13528,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>husband separate fight thought want die go study abroad prozac take maybe work tomorrow maybe electrolyte tablet maybe something want fail class study physically feel drained hurt cry want end everything literally lay bed zero motivation even sit know need work instead google pill see anything take everything probably want yes also everything hurt long time since felt way like</t>
+          <t>husband separate fight thought want die go study abroad prozac take maybe work tomorrow maybe electrolyte tablet maybe something want fail class study physically feel drained hurt cry want end everything literally lay bed motivation even sit know need work instead google pill see anything take everything probably want yes also everything hurt long time since felt way like</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -13561,7 +13557,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>tired care people one caring</t>
+          <t>tired care people care</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -13578,7 +13574,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>one get</t>
+          <t>get</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -13595,7 +13591,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>free depression worry first time year back 2 hour fuck</t>
+          <t>free depression worry first time year back hour fuck</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -13634,7 +13630,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>commute work commute sleep pretty much life right feel tired every day can not get anything do personal life can not even game watch anime anymore damn tired couple intense loneliness felt whole life 22m never girlfriend find throughout life people lose interest always end leave always matter time mean understandable sleep work guess honestly can not take anymore want something change whatever hell may want feel connect someone want thing can not can not bring get</t>
+          <t>commute work commute sleep pretty much life right feel tired every day can not get anything do personal life can not even game watch anime anymore damn tired couple intense loneliness felt whole life never girlfriend find throughout life people lose interest always end leave always matter time mean understandable sleep work guess honestly can not take anymore want something change whatever hell may want feel connect someone want thing can not can not bring get</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -13668,7 +13664,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>know start everything child wrong first mistake 17 2 can not stand around every time try give attention tell go away run grandma even let one put sleep night everything try keep happy good enough would rather daycare home cry every day pick soon get home go straight grandma ignores rest day get angry sometimes first reaction yell bad day feel like total piece garbage afterward really bad parent abusive mother</t>
+          <t>know start everything child wrong first mistake can not stand around every time try give attention tell go away run grandma even let put sleep night everything try keep happy good enough would rather daycare home cry every day pick soon get home go straight grandma ignores rest day get angry sometimes first reaction yell bad day feel like total piece garbage afterward really bad parent abusive mother</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -13702,7 +13698,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>14 name josh start give everything life get good ton family issue school struggle cut 56 time day deep still someone please help</t>
+          <t>name josh start give everything life get good ton family issue school struggle cut time day deep still someone please help</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -13719,7 +13715,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>intensely suicidal since 7 many thing make way seriously go snap soon can not take anymore dad scream threaten whoop as time mom smother point think ever see something sweet little baby almost self harm free month course fuck cut hate fuck much hate even try get help support anyone people tell face kill yet blame fuck selfish asshole even though even think human every single minor inconvenience make want slit wrist course make feel absolutely fuck terrible many people worse dad threaten beat shit though think really push edge tall muscular guy 64 like could defend anyways want kill bad end world suffer fuck burden like everything come mouth reason rid existence mom insanely protective always insist tuck kiss lay lot nicer literally beat mother force kiss refuse pinned wrist bed put thick facade sometimes even know nothing actually pretend everyone elses sake people actually stupid enough care extent sometimes wish like would affect death person think know love exist nobody knew like matter kid fuck idiot hate sorry long sorry jumble around cry three hour wits end love girlfriend ever love anything would hate leave alone dead post maybe help get everything head fuck sensible person much say right really can not think anything sorry worry anyone</t>
+          <t>intensely suicidal since many thing make way seriously go snap soon can not take anymore dad scream threaten whoop as time mom smother point think ever see something sweet little baby almost self harm free month course fuck cut hate fuck much hate even try get help support anyone people tell face kill yet blame fuck selfish asshole even though even think human every single minor inconvenience make want slit wrist course make feel absolutely fuck terrible many people worse dad threaten beat shit though think really push edge tall muscular guy like could defend anyways want kill bad end world suffer fuck burden like everything come mouth reason rid existence mom insanely protective always insist tuck kiss lay lot nicer literally beat mother force kiss refuse pinned wrist bed put thick facade sometimes even know nothing actually pretend everyone elses sake people actually stupid enough care extent sometimes wish like would affect death person think know love exist nobody knew like matter kid fuck idiot hate sorry long sorry jumble around cry hour wit end love girlfriend ever love anything would hate leave alone dead post maybe help get everything head fuck sensible person much say right really can not think anything sorry worry anyone</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -13736,7 +13732,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2014 first enter university encounter lot change new people new environment new class time lot acne prevent meeting people furthermore identity crisis start ask fundamental question life go constantly think life death want harm people lonely miserable spot everyone else look happy lasted month pick lift weight practice meditation acne clear fast forward 5 year completely happy good friend good relationship family stable career since environment improve negative thought subside know depression go away time worried suffer clinical depression 2014 circumstantial thing</t>
+          <t>first enter university encounter lot change new people new environment new class time lot acne prevent meeting people furthermore identity crisis start ask fundamental question life go constantly think life death want harm people lonely miserable spot everyone else look happy lasted month pick lift weight practice meditation acne clear fast forward year completely happy good friend good relationship family stable career since environment improve negative thought subside know depression go away time worried suffer clinical depression circumstantial thing</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -13753,7 +13749,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>everything get bad isolation yield well result world alone maybe go insane matter boyfriend love none ever best friend like much much wrong physically mentally society accomodating idiot like would dead dead bos think racist terrible communicate something loose job deal dad bad enough deal job loud noise make panic trust anyone like deprive sleep anywhere else would die slowly maybe someone would come along put misery feel complete without misery like inflict others unlike people know feel like unless depressed suffering feel greedy unhappy listen everyone one listen guess selfish see ever open roll eye leave god head hurt virus need wipe</t>
+          <t>everything get bad isolation yield well result world alone maybe go insane matter boyfriend love none ever best friend like much much wrong physically mentally society accomodating idiot like would dead dead bos think racist terrible communicate something loose job deal dad bad enough deal job loud noise make panic trust anyone like deprive sleep anywhere else would die slowly maybe someone would come along put misery feel complete without misery like inflict others unlike people know feel like unless depressed suffering feel greedy unhappy listen everyone listen guess selfish see ever open roll eye leave god head hurt virus need wipe</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -13821,7 +13817,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>objectively say prochoice can not want need already suicidal outside situation selfish know survive can not see future without know hole heart rest life ready bad situation can not fix say ready go know feeling put stress try avoid talk much would like long distance can not even touch push away awhile hurt much also struggle morally allow go anyone lean can not talk people allow someone suicide think one friend know situation think bad person get authority involve please help burst seam function</t>
+          <t>objectively say prochoice can not want need already suicidal outside situation selfish know survive can not see future without know hole heart rest life ready bad situation can not fix say ready go know feeling put stress try avoid talk much would like long distance can not even touch push away awhile hurt much also struggle morally allow go anyone lean can not talk people allow someone suicide think friend know situation think bad person get authority involve please help burst seam function</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -13838,7 +13834,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>head feel crazy like super foggy slow also spin 100mph think much stress also feel nothing low confuse try list feel low start immediate problem longer last distant problem struggle write essay 4 separate deadline loom even start read 3 everyone well feel like deserve uni feel clever enough fit feel like one care classmatefriend 700x well everything genuinely good everything love unknowingly rub face make dehumanise comment ever even allude struggle anything slight amount like ever even start ask help talk understand lecture even get sentence cut noooooooo silly obvious go easy find need go revision know everything talk exam early term look grade yet would know get anything wrong know know blah blah blah ok get know everything god send even suggest might ok upstairs tell fine need worry literally shuts immediately complain talk walk lecture together friend fuck self absorb person know even realise make bad polar opposite social class ie rich privately educate live extremely shelter ungrateful life ahe get whatever want whenever always make comment thing like mention student debt literally go well parent pay university worry go can not afford proceed tell yes job since 14 want experience could afford luxury university explain bursary keep make ignorant remark like wha would need cost much quite dehumanise make feel like utter worthless shit annoy realise lucky lucky many opportunity hand connection good company high pay job parent like say wish would stop blind world actually learn people exist lived life wish would respectful people fuck oblivious world miss home burnt need break ever get one soon term need revise term start learn term end revise study work revise break ever anxiety roof everything miss home stuff like memory thing forget ever happen can not remember detail remember everything sure make feel horrible nervous necessarily bad event think memory event younger even long ago wish would remember anything seem bother compare sister sister well expect really really well uni sister accord mother since sister take year uni degree anymore fucking sister basically steal everything since take year attention fine eveyone assume one allow suffer fantastic drop take year anything apparently mean fucking fantastic go get 1st exam sister matter also can not go parent ever would attention sister allow let well sister genral annoyed everything nothing fair allow say lifes fair ro suck pretend fantastic love everything</t>
+          <t>head feel crazy like super foggy slow also spin mph think much stress also feel nothing low confuse try list feel low start immediate problem longer last distant problem struggle write essay separate deadline loom even start read everyone well feel like deserve uni feel clever enough fit feel like care classmatefriend x well everything genuinely good everything love unknowingly rub face make dehumanise comment ever even allude struggle anything slight amount like ever even start ask help talk understand lecture even get sentence cut noooooooo silly obvious go easy find need go revision know everything talk exam early term look grade yet would know get anything wrong know know blah blah blah ok get know everything god send even suggest might ok upstairs tell fine need worry literally shuts immediately complain talk walk lecture together friend fuck self absorb person know even realise make bad polar opposite social class ie rich privately educate live extremely shelter ungrateful life ahe get whatever want whenever always make comment thing like mention student debt literally go well parent pay university worry go can not afford proceed tell yes job since want experience could afford luxury university explain bursary keep make ignorant remark like wha would need cost much quite dehumanise make feel like utter worthless shit annoy realise lucky lucky many opportunity hand connection good company high pay job parent like say wish would stop blind world actually learn people exist lived life wish would respectful people fuck oblivious world miss home burnt need break ever get soon term need revise term start learn term end revise study work revise break ever anxiety roof everything miss home stuff like memory thing forget ever happen can not remember detail remember everything sure make feel horrible nervous necessarily bad event think memory event younger even long ago wish would remember anything seem bother compare sister sister well expect really really well uni sister accord mother since sister take year uni degree anymore fucking sister basically steal everything since take year attention fine eveyone assumes allow suffer fantastic drop take year anything apparently mean fucking fantastic go get st exam sister matter also can not go parent ever would attention sister allow let well sister genral annoyed everything nothing fair allow say lifes fair ro suck pretend fantastic love everything</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -13855,7 +13851,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>20 may may depression mild however say feel pain mess future girl seriously would hand craft madly love long distance make work end problem move hurt break find within couple month meet another guy fly plan move could easily painful together person easily say happy 2 week life get people think find someone else like others assume extremely picky people like picky response never happy someone settle less never unhappy living good tip turn around happy really one thing look life right someone connect</t>
+          <t>may may depression mild however say feel pain mess future girl seriously would hand craft madly love long distance make work end problem move hurt break find within couple month meet another guy fly plan move could easily painful together person easily say happy week life get people think find someone else like others assume extremely picky people like picky response never happy someone settle less never unhappy living good tip turn around happy really thing look life right someone connect</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -13872,7 +13868,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>hate fuck much useless everyone actually waste space earth think could happy joke make laugh piece fuck dog shit never happy hope end dead somewhere nobody find forget friend worthless contribute nothing everyone never see one person fuck ugly inside slit wrist bleed stupid fucking cunt could ruin happiness like fuck oh right nothing worthless nobody drift everybodys life like useless pile shit blow head already stop try live like someone go stop lmfao disgust disgust fuck piss much hate fuck ugly piece shit die fuck wrong mess fuck stupid piece shit gun fucking end garbage lmao nobody give two shit think manage create life worth live anymore think brain shoot across church parking lot use make plan feel betrayed everyone especially could ruin could ruin hate fuck much hate voice keep hear hate side person hate fuck despise fuck weird unlovable wonder discard like trash friend lmfao absolute fucking failure actually joke make laugh type paragraph much piece shit try get head guess leave fuck pull trigger worthless piece garbage actually think friend would end lmao would go nobody would even think n b care fuck hate go hell freak never friends stop talk take grant idiot fuck wrong need medication god damn freak could anyone care piece garbage idiot hate like rest head consciousness fuck alone go forever alone shit life unless end can not believe actually think get healthy lmao surprise give little reminder useless waste fuck space belong waste</t>
+          <t>hate fuck much useless everyone actually waste space earth think could happy joke make laugh piece fuck dog shit never happy hope end dead somewhere nobody find forget friend worthless contribute nothing everyone never see person fuck ugly inside slit wrist bleed stupid fucking cunt could ruin happiness like fuck oh right nothing worthless nobody drift everybodys life like useless pile shit blow head already stop try live like someone go stop lmfao disgust disgust fuck piss much hate fuck ugly piece shit die fuck wrong mess fuck stupid piece shit gun fucking end garbage lmao nobody give shit think manage create life worth live anymore think brain shoot across church parking lot use make plan feel betrayed everyone especially could ruin could ruin hate fuck much hate voice keep hear hate side person hate fuck despise fuck weird unlovable wonder discard like trash friend lmfao absolute fucking failure actually joke make laugh type paragraph much piece shit try get head guess leave fuck pull trigger worthless piece garbage actually think friend would end lmao would go nobody would even think n b care fuck hate go hell freak never friends stop talk take grant idiot fuck wrong need medication god damn freak could anyone care piece garbage idiot hate like rest head consciousness fuck alone go forever alone shit life unless end can not believe actually think get healthy lmao surprise give little reminder useless waste fuck space belong waste</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -13923,7 +13919,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>everyone constantly interrupt talk whenever try talk problem one seem care counteracts say harder mean guess wish could talk someone school without say like much work get two hour sleep last night hate nice supportive sometimes listen people help people feel like almost never get returned people feel like one school home young feel like ignore say listen anything say proud sister care much accomplishment award maybe impressive</t>
+          <t>everyone constantly interrupt talk whenever try talk problem seem care counteracts say harder mean guess wish could talk someone school without say like much work get hour sleep last night hate nice supportive sometimes listen people help people feel like almost never get returned people feel like school home young feel like ignore say listen anything say proud sister care much accomplishment award maybe impressive</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -13974,7 +13970,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>get back week long stay big island hawaii coolest experience see shark snorkel right next feeding manta ray amazing trip love much problem whenever go vacation even young would cry horribly depressed next day week two hate go vacation know go feel like shit nothing feel right come home want spend one day away real life hate know go back work get another vacation like long time hate can not explain feel wife lucky enough experience depression except third person perspective badly want still hawaii anywhere go vacation care work care school bill family drama want go back work school monday know else thing bad long run hate feeling like go hawaii first place love spending time wife enjoy week together love see thing never somewhere love time whatever want feel badly anything want love anticipation excitement lead day leave think lot depression stem build anticipation great go sooner arrive go back anticipate nothing feel like life mostly boring dull one really want admit get day enjoy feel like nothingness deepens sink know make sense anyone go read really want stop cry go bed</t>
+          <t>get back week long stay big island hawaii coolest experience see shark snorkel right next feeding manta ray amazing trip love much problem whenever go vacation even young would cry horribly depressed next day week hate go vacation know go feel like shit nothing feel right come home want spending day away real life hate know go back work get another vacation like long time hate can not explain feel wife lucky enough experience depression except third person perspective badly want still hawaii anywhere go vacation care work care school bill family drama want go back work school monday know else thing bad long run hate feeling like go hawaii first place love spending time wife enjoy week together love see thing never somewhere love time whatever want feel badly anything want love anticipation excitement lead day leave think lot depression stem build anticipation great go sooner arrive go back anticipate nothing feel like life mostly boring dull really want admit get day enjoy feel like nothingness deepens sink know make sense anyone go read really want stop cry go bed</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -13986,12 +13982,12 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>give one good reason dare</t>
+          <t>give good reason dare</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>give one good reason kill right whole world go shit one change people could help refuse world never good place always brink everyone always say look bright side point every good thing could say could name 3 bad thing end right save trouble everyone die eventually point afraid inevitable house can not afford underwater anyways dead time need one everyone always say kill people would sad welp good person selfish rude hopeless annoy general everyone point prolong inevitable please good actual answer people would inconvenience please tell</t>
+          <t>give good reason kill right whole world go shit change people could help refuse world never good place always brink everyone always say look bright side point every good thing could say could name bad thing end right save trouble everyone die eventually point afraid inevitable house can not afford underwater anyways dead time need everyone always say kill people would sad welp good person selfish rude hopeless annoy general everyone point prolong inevitable please good actual answer people would inconvenience please tell</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -14042,7 +14038,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>first ever post reddit friend mine say post finding every excuse afraid nothing leave goesi literally give everything marriage get anything return 4 amazing child together everything often time feel like matter time realize worth time move find wife cheat reason still want work thing well fast forward 4 month later thing happen another guy every confrontation basically flip make feel like fault never cheat never think single time feel low want anymore feel like stranger home people tell think child good truly believe good without worth try make marriage work would worth even choose attempt suicide christmas sisterinlaw find call 911 end hospital week promise would never let happen can not help thought come back see way nothing leave give</t>
+          <t>first ever post reddit friend mine say post finding every excuse afraid nothing leave goesi literally give everything marriage get anything return amaze child together everything often time feel like matter time realize worth time move find wife cheat reason still want work thing well fast forward month later thing happen another guy every confrontation basically flip make feel like fault never cheat never think single time feel low want anymore feel like stranger home people tell think child good truly believe good without worth try make marriage work would worth even choose attempt suicide christmas sisterinlaw find call end hospital week promise would never let happen can not help thought come back see way nothing leave give</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -14054,7 +14050,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>get senior picture back 2 day ago</t>
+          <t>get senior picture back day ago</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -14076,7 +14072,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>tire shit try sit explains syuff work never work outright say punish depressed thing depress get punished bad grade fail almost everything try depression really hard know get try phone videogames take away can not fall asleep night anxiety know get nightly panic attack yell stay night know get trouble keep room clean ground tommorow lose phone grade bad ignore fact try yeah let u care damn letter alphabet make sense flippin live person t_ even like phone much one people super addict nothing phone cop mechanism without able vent watch relax video calm probably go end cut suck deal butt next year know could survive latter</t>
+          <t>tire shit try sit explains syuff work never work outright say punish depressed thing depress get punished bad grade fail almost everything try depression really hard know get try phone videogames take away can not fall asleep night anxiety know get nightly panic attack yell stay night know get trouble keep room clean ground tommorow lose phone grade bad ignore fact try yeah let u care damn letter alphabet make sense flippin live person t_ even like phone much people super addict nothing phone cop mechanism without able vent watch relax video calm probably go end cut suck deal butt next year know could survive latter</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -14093,7 +14089,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>whole life lie act happy people expect fuck could happy 18 several people know kill watched man drown death right front parent make go right back spot happen right grandma house sleep twenty foot away tell man deal well fuck tire pretending molest father leave twice happy piss sense leave awnser call never get see little sister two never get meet know good boy need smile pain happy right family say society say woman can not sexual attacked can not depress sad fuck</t>
+          <t>whole life lie act happy people expect fuck could happy several people know kill watched man drown death right front parent make go right back spot happen right grandma house sleep foot away tell man deal well fuck tire pretending molest father leave twice happy piss sense leave awnser call never get see little sister never get meet know good boy need smile pain happy right family say society say woman can not sexual attacked can not depress sad fuck</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -14110,7 +14106,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>try fix everything word save life best community ever ask help wife husband pretty good rich man reddit love scar ask help help realize life end lose moneysand want give advice everyone lose hope reasonlost girlfriendmoney scar tell relative orientation tire live something else step edge roof understand life end lose something important life end decide give pls never give must live whatever take complexity step must overcom get alone ask help whole world one person help resolve good luck buddy</t>
+          <t>try fix everything word save life best community ever ask help wife husband pretty good rich man reddit love scar ask help help realize life end lose moneysand want give advice everyone lose hope reasonlost girlfriendmoney scar tell relative orientation tire live something else step edge roof understand life end lose something important life end decide give pls never give must live whatever take complexity step must overcom get alone ask help whole world person help resolve good luck buddy</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -14122,12 +14118,12 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>15 depressed tell mom</t>
+          <t>depress tell mom</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>like suicidal thought since 13 exam 2 month right main couse stress parent also divorce propably year know long sort stuff take live mom alwayes really stress hurry recently also heart ache doctor say caused stress uneasiness mom know something wrong suggested therapist help deal stress think really understands act way original plan give week kill nothing change well already wednesday still fell maybe tell somebody really friend could trust think tell mum already lot problem though already try tell say depress want commit suicide 14 say everybody feel like sometimes forgot next day tell understands</t>
+          <t>like suicidal thought since exams month right main couse stress parent also divorce propably year know long sort stuff take live mom alwayes really stress hurry recently also heart ache doctor say caused stress uneasiness mom know something wrong suggested therapist help deal stress think really understands act way original plan give week kill nothing change well already wednesday still fell maybe tell somebody really friend could trust think tell mum already lot problem though already try tell say depress want commit suicide say everybody feel like sometimes forgot next day tell understands</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -14161,7 +14157,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>hahaha sad even suicidal know must die see get back wow life 22i wish disease snatch away something might regret</t>
+          <t>hahahacrying_face sad even suicidal know must die see get back wow life wish disease snatch away something might regret</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -14178,7 +14174,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>use suicidal feel alone one talk mother busy sister bull crap wish someone talk anyone else ever feel alone emotional side talk logical know thing get well can not kill kind wish would get car crash something</t>
+          <t>use suicidal feel alone talk mother busy sister bull crap wish someone talk anyone else ever feel alone emotional side talk logical know thing get well can not kill kind wish would get car crash something</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -14212,7 +14208,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>21 can not goddamn thing world mention like fuck toddler spend hour try cook chicken burn react throw fuck tantrum hit head multiple time cry shout fuck adult art project go finish another subreddit nope useless artist everything draw complete garbage anyways skills world high school dropout mcdonalds employee virgin friendless stupid hope hell real go fuck whatever put earth want shit wish never bear</t>
+          <t>can not goddamn thing world mention like fuck toddler spend hour try cook chicken burn react throw fuck tantrum hit head multiple time cry shout fuck adult art project go finish another subreddit nope useless artist everything draw complete garbage anyways skills world high school dropout mcdonalds employee virgin friendless stupid hope hell real go fuck whatever put earth want shit wish never bear</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -14229,7 +14225,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>make journal entry thought could share see help anyone go grief stage something happen person piece soul pass away realize denial time something never think would want becomes something realize push away ignorant side mind would think yes part soul go try numb pain beyond kind description feel like something precious rip hand lit fire burn something alive part burn could feel slow painful burn like watch someone love get torture unknown entity result stage grief denial already since child grow ignorant bliss want acknowledge know true anger nasty creature create get back whatever hurt literally drive mad crazy try show others much someone hurt try find something call closure way fairytale myth ever hear closure thing world impossible stuck miserable monster wonder escape alive never sorry one center anger unclearity deserve give period grief bargain sake whatever sanity may leave bargain hope freedom whatever else lot regardless bargain try find people help love unconditionally realize can not enable grief anymore leave alone wonder hell become anymore become sad hopeless mess person people love love much can not take struggle soul dy little depression stage feel motivation life empty void fill feeling mention prior depression make remember one make many sad hurt people want sort clarity question every day feeling thing make wonder feeling even ok feel supposedly acceptance get yet depression good luck u bridge cross afraid cross mean ok sometimes really scary always know feel ok anymore beautiful love one matter want success happiness deep part soul want part still alive forget part beautiful friend soul body one rip away one can not take ugly thing grief every day together let u reach part soul survive let u remember grief suffer express feeling open input</t>
+          <t>make journal entry thought could share see help anyone go grief stage something happen person piece soul pass away realize denial time something never think would want becomes something realize push away ignorant side mind would think yes part soul go try numb pain beyond kind description feel like something precious rip hand lit fire burn something alive part burn could feel slow painful burn like watch someone love get torture unknown entity result stage grief denial already since child grow ignorant bliss want acknowledge know true anger nasty creature create get back whatever hurt literally drive mad crazy try show others much someone hurt try find something call closure way fairytale myth ever hear closure thing world impossible stuck miserable monster wonder escape alive never sorry one center anger unclearity deserve give period grief bargain sake whatever sanity may leave bargain hope freedom whatever else lot regardless bargain try find people help love unconditionally realize can not enable grief anymore leave alone wonder hell become anymore become sad hopeless mess person people love love much can not take struggle soul dy little depression stage feel motivation life empty void fill feeling mention prior depression make remember make many sad hurt people want sort clarity question every day feeling thing make wonder feeling even ok feel supposedly acceptance get yet depression good luck u bridge cross afraid cross mean ok sometimes really scary always know feel ok anymore beautiful love one matter want success happiness deep part soul want part still alive forget part beautiful friend soul body rip away can not take ugly thing grief every day together let u reach part soul survive let u remember grief suffer express feeling open input</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -14246,7 +14242,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>feel like three thing absolutely can not dumb ugly useless gotten life fairly well able somewhat accept dumb ugly part try blame factor integral part can not get pass useless skill whatsoever fall three category wish give life sooner</t>
+          <t>feel like thing absolutely can not dumb ugly useless gotten life fairly well able somewhat accept dumb ugly part try blame factor integral part can not get pass useless skill whatsoever fall category wish give life sooner</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -14280,7 +14276,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>understand can not make friend get really shy even try social get shut nobody use talk want talk anymore never felt alone struggle everyday keep go left domestic violent relationship day haunt happen shuts even sit alone car lunch one want around hate something wrong bad person sometimes wonder keep fight one give fuck destine nothing one cell phone social medium one msg text call one would know go one give shit</t>
+          <t>understand can not make friend get really shy even try social get shut nobody use talk want talk anymore never felt alone struggle everyday keep go left domestic violent relationship day haunt happen shuts even sit alone car lunch want around hate something wrong bad person sometimes wonder keep fight give fuck destine nothing cell phone social medium msgs texts call would know go give shit</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -14297,7 +14293,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>context 19 first year college one month since fail one exam lose everything thought friend crush week dad want upset forever help end carry construction material one month enter downward spiral amplify event rejection mention earlier able give license exam two day ago stupid policeman tell pay license tax correctly able make dad hate final straw come hour ago get laugh enter classroom happen enter time old student belong leave college one notice probably matter week even day take life nothing worth nothing make happy nothing save nothing one apart probably mother sister miss let u serious live without also sure one notice post heap post people serious life issue really make failure able live happily life would seem ok people yeah</t>
+          <t>context first year college month since fail exam lose everything thought friend crush week dad want upset forever help end carry construction material month enter downward spiral amplify event rejection mention earlier able give license exam day ago stupid policeman tell pay license tax correctly able make dad hate final straw come hour ago get laugh enter classroom happen enter time old student belong leave college notice probably matter week even day take life nothing worth nothing make happy nothing save nothing apart probably mother sister miss let u serious live without also sure notice post heap post people serious life issue really make failure able live happily life would seem ok people yeah</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -14314,7 +14310,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>wish felt well one top art university isolate feel unwanted probably shy try lot polite make friend start know loud people class guess voice get hear within kind give like 11 student wish felt equal everyone class also always seem like competition every project best guess get bit</t>
+          <t>wish felt well top art university isolate feel unwanted probably shy try lot polite make friend start know loud people class guess voice get hear within kind give like student wish felt equal everyone class also always seem like competition every project best guess get bit</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -14365,7 +14361,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>fuck burden everyone know still like 5 people care wish could fuck die already</t>
+          <t>fuck burden everyone know still like people care wish could fuck die already</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -14428,12 +14424,12 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>26 feeling burnt</t>
+          <t>feel burnt</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>long story short college fail two different time take breaks class twice addiction problem alcohol time basically try get bachelor degree 7 year last 4 year college cause soo much stress parent wealthy say fault way failire sort enable financially keep try get degree waste probly around 100000 dollar failedwithdrawn class sister deeply resents insane amount guilt even though parent say would pay anything help way graduate make final semester graduation take 2 class might fail 1 would result 3rd final academic dismissal mean wount get degree flunk final semester understand can not sit homework actually care problem give crap anything unless innate desire interest like motivation 0 anything academic understand even pass graduate feel like break endure much stress age 26 feel like vegetable can not fathom use business degree get real job know ill ever able get idea spend 250000 dollar degree desiree work normal job feel like brain empty void seek pleasure purpose drive surface happy bubbly person outgo sociable feel deep really alot potential soooo lose easily overwhelm everything feel slight bit resistance shut mentally seek pleasure form leisure activity alcohol know even go sorta let guess nobody talk read far sorry grammatical error type read nice day</t>
+          <t>long story short college fail different time take breaks class twice addiction problem alcohol time basically try get bachelor degree year last year college cause soo much stress parent wealthy say fault way failire sort enable financially keep try get degree waste probly around dollar failedwithdrawn class sister deeply resents insane amount guilt even though parent say would pay anything help way graduate make final semester graduation take class might fail would result rd final academic dismissal mean wount get degree flunk final semester understand can not sit homework actually care problem give crap anything unless innate desire interest like motivation anything academic understand even pass graduate feel like break endure much stress age feel like vegetable can not fathom use business degree get real job know ill ever able get idea spend dollar degree desiree work normal job feel like brain empty void seek pleasure purpose drive surface happy bubbly person outgo sociable feel deep really alot potential soooo lose easily overwhelm everything feel slight bit resistance shut mentally seek pleasure form leisure activity alcohol know even go sorta let guess nobody talk read far sorry grammatical error type read nice day</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -14450,7 +14446,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>go lot throughout life none really fault except one exist brain keep attack bad thing example mom refuse pay tution fee get kick brain imposes fault sick sick selfish parent hide medical record brain blame sickness well could get college parent bam brain attack people bully brain attack tldr brain love attack sense stop blame everything do</t>
+          <t>go lot throughout life none really fault except exist brain keep attack bad thing example mom refuse pay tution fee get kick brain imposes fault sick sick selfish parent hide medical record brain blame sickness well could get college parent bam brain attack people bully brain attack tldr brain love attack sense stop blame everything do</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -14484,7 +14480,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>16 year old kiddo diagnose deep depression along sad social anxiety disorder hard talk people even go today make first move go school go almost 2 year make way get benzodiazepams sad hope everything go well go friend barely remember last time go friend relative think lazy understand hard talk people even go get like mini panic attack come contact stranger feel awful oh mann tire shyt</t>
+          <t>year old kiddo diagnose deep depression along sad social anxiety disorder hard talk people even go today make first move go school go almost year make way get benzodiazepams sad hope everything go well go friend barely remember last time go friend relative think lazy understand hard talk people even go get like mini panic attack come contact stranger feel awful oh mann tire shyt</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -14518,7 +14514,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>someone survive attempt know someone would like know life look like survive go impact social life get friend family probably much impact work school try graduate 2nd time drop massive depressive episode get homeless thing like put therapy even hospitalize long situation wish die can not kill worried might happen fail somehow survive like life already worst could get even bad</t>
+          <t>someone survive attempt know someone would like know life look like survive go impact social life get friend family probably much impact work school try graduate nd time drop massive depressive episode get homeless thing like put therapy even hospitalize long situation wish die can not kill worried might happen fail somehow survive like life already worst could get even bad</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -14552,7 +14548,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>people unrelatable hinder point feel every time someone approach walk space predict go say annoys fire last 5 job reason use marijuana calm co worker outright verbal confrontation result get fire use like around people reach age 25 feel like struggle eternity truly tire fuck 95 society everyone seem able spend 40 year come accomplished seem matter many counsellor appoint many doctor appointment make nobody help feel reach break point know can not live without society can not continue tried step help counsel therapy doctor appointment lead back bullshit place stick society recently acquire second dui breathalyzer vehicle spend day sit home thinking much hate interact people woman age date around want hear men suppose complain whine suppose shut apply another job continue run like bull can not relate anyone life ask anyone feels way surpass moment life without turn hard drug</t>
+          <t>people unrelatable hinder point feel every time someone approach walk space predict go say annoys fire last job reason use marijuana calm co worker outright verbal confrontation result get fire use like around people reach age feel like struggle eternity truly tire fucking society everyone seem able spend year come accomplished seem matter many counsellor appoint many doctor appointment make nobody help feel reach break point know can not live without society can not continue tried step help counsel therapy doctor appointment lead back bullshit place stick society recently acquire second dui breathalyzer vehicle spend day sit home thinking much hate interact people woman age date around want hear men suppose complain whine suppose shut apply another job continue run like bull can not relate anyone life ask anyone feels way surpass moment life without turn hard drug</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -14569,7 +14565,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>22 year old unlike people truly deserve kill verbally physically abusive everyone around since could talk far human go bullied kid kid lot kid never nice anyone mean parent hit beat one friends adult physically verbally abusive mom leave black eye stepdad tell kill million time say truly awful thing lose friend verbally abuse treat best friend horribly worse animal first cat ever run away must do something third chase around sprayed water hit year traumatize hat would always scratch deserved fifth cat run away know sixth cat remember mean nice give old lady move hope love seventh cat current cat get right turn twelve used put laundry basket shake scream little kitten stop point mom talk hit sometimes multiple time cat traumatize mostly cuddle every fucking night let dog beat shit old dog multiple time older teen beat shoe chew sad go school beat young dog beat shit maybe technically twice day short time period ever 1264 day ago gutted badly hurt bruise fur upset day swore never beat animal ever still hit extremely abusive grandma describes fuck grandma dog traumatize anymore also rip lizard tailand kill lizardbut accident top quite possible pedophile 14 chase 11 year old girl around try kiss succeed happen 2x 19 read 2 fanfiction sexual relationship 16 year old 12 year old dream year rape child mean also ocd could one day abruptly decide go happen anymore happen much less unpleasant want like want abusive anyone never abuse recently start therapy medication paxil think abuse time probably 80 thought try thing never verbally physically abusive love family pet never deserve never able undo thing do even try make amends even forgiven bad person thanks do always deserve every ounce guilt felt past 1264 day know abusive past year try change deserve feel way every miserable day rest life deserve kill</t>
+          <t>year old unlike people truly deserve kill verbally physically abusive everyone around since could talk far human go bullied kid kid lot kid never nice anyone mean parent hit beat friend adult physically verbally abusive mom leave black eye stepdad tell kill time say truly awful thing lose friend verbally abuse treat best friend horribly worse animal first cat ever run away must do something third chase around sprayed water hit year traumatize hat would always scratch deserved fifth cat run away know sixth cat remember mean nice give old lady move hope love seventh cat current cat get right turn use put laundry basket shake scream little kitten stop point mom talk hit sometimes multiple time cat traumatize mostly cuddle every fucking night let dog beat shit old dog multiple time older teen beat shoe chew sad go school beat young dog beat shit maybe technically twice day short time period ever day ago gutted badly hurt bruise fur upset day swore never beat animal ever still hit extremely abusive grandma describes fuck grandma dog traumatize anymore also rip lizard tailand kill lizardbut accident top quite possible pedophile chase year old girl around try kiss succeed happen x read fanfiction sexual relationship year old year old dream year rape child mean also ocd could day abruptly decide go happen anymore happen much less unpleasant want like want abusive anyone never abuse recently start therapy medication paxil think abuse time probably thought try thing never verbally physically abusive love family pet never deserve never able undo thing do even try make amends even forgiven bad person thanks do always deserve every ounce guilt felt past day know abusive past year try change deserve feel way every miserable day rest life deserve kill</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -14586,7 +14582,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>feel tire nothing brings joy lose fucking hobby start smoke lot alcoholic dad often lie also borrow money never give back luckily mom alcoholic also drink lot remember child parent often money buy tge food use visit grandma take food feed young brother remember dad come back home drunk beat motherand btoke glass door fucktone bloodit sticky smell horrible 13 rap drunk dad nobody know also 2 month agoi find gf break also amphetamine addict mentally unstable lot overdose honestly miss feel like future bear condom rip anti pregnant tablet work feel useless live small town western ukraine town fuck shithole europe 1 year graduate know want study</t>
+          <t>feel tire nothing brings joy lose fucking hobby start smoke lot alcoholic dad often lie also borrow money never give back luckily mom alcoholic also drink lot remember child parent often money buy tge food use visit grandma take food feed young brother remember dad come back home drunk beat motherand btoke glass door fucktone bloodit sticky smell horrible raped drunk dad nobody know also month agoi find gf break also amphetamine addict mentally unstable lot overdose honestly miss feel like future bear condom rip anti pregnant tablet work feel useless live small town western ukraine town fuck shithole europe year graduating know want study</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -14603,7 +14599,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>sick big nose big forehead big everything hard deal people tell date ugly people even tell ugly go get wrong fair share relationship reject many time ugly sick soon leave home college want get nose job make confident leave none 758394858 retail job apply get back like world want way believe look matter b want look good suicidal sick living can not look good</t>
+          <t>sick big nose big forehead big everything hard deal people tell date ugly people even tell ugly go get wrong fair share relationship reject many time ugly sick soon leave home college want get nose job make confident leave none retail job apply get back like world want way believe look matter b want look good suicidal sick living can not look good</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -14615,12 +14611,12 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>kill 21st birthday haha unless</t>
+          <t>kill st birthday haha unless</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>sad prolong something inevitable self harm since middle school wish death long treatment can not stick people can not stick somehow appear confident outside feel worthless black hole deserve light anyone else would like think believe destiny never feel sure anything besides nothing else truly know would cool least go one tortured artist type can not even make art anymore study hard stats exam tomorrow kill happen tonight know think buy ticket somewhere maybe go somewhere far nothing hope bad maybe nice pimp find make life simple stay coke someone sex doll want think anymore fuck hate mind</t>
+          <t>sad prolong something inevitable self harm since middle school wish death long treatment can not stick people can not stick somehow appear confident outside feel worthless black hole deserve light anyone else would like think believe destiny never feel sure anything besides nothing else truly know would cool least go tortured artist type can not even make art anymore study hard stats exam tomorrow kill happen tonight know think buy ticket somewhere maybe go somewhere far nothing hope bad maybe nice pimp find make life simple stay coke someone sex doll want think anymore fuck hate mind</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -14654,7 +14650,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>hello everyone preface doctor diagnose depression anxiety ocd recently fill self hatred 57 weigh 140 pound convince fat even though average body weight look mirror think ugly people tell attractive believe feel like life failure graduate college degree fine art history honorsthis good enough feel ignorant perceive travel abroad three different timesyet others tell travel feel inadequate dream goal feel absolutely impossible ever go public think everyone hate talk also constantly google mental illness symptom convince something majorly wrong meeven though three doctor tell normal take multiple mental health quiz everyday see lose mind constantly ask coworkers work think artist believe every work produce garbage even people validate usually believe advice</t>
+          <t>hello everyone preface doctor diagnose depression anxiety ocd recently fill self hatred weigh pound convince fat even though average body weight look mirror think ugly people tell attractive believe feel like life failure graduate college degree fine art history honorsthis good enough feel ignorant perceive traveled abroad different timesyet others tell travel feel inadequate dream goal feel absolutely impossible ever go public think everyone hate talk also constantly google mental illness symptom convince something majorly wrong meeven though doctor tell normal take multiple mental health quiz everyday see lose mind constantly ask coworkers work think artist believe every work produce garbage even people validate usually believe advice</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -14671,7 +14667,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>go vent imn ot doihg 100 right good life incredibly incredibly lucky evem issue depression control extent good social life lot friend connection need feel like deserve love think feel like know entire group would fuck broken give quite enogh connection actually help really know struggle bad want kill littl bit right everything right want kill nothing mad think moment bad feeligs tonight fatigue want attempt know need talk someone f get actual consider can not tonight even wanted think really consider honestly reason like people need absence would felt actually add anything life could get alone could fortunate enough would really work stuck</t>
+          <t>go vent imn ot doihg right good life incredibly incredibly lucky evem issue depression control extent good social life lot friend connection need feel like deserve love think feel like know entire group would fuck broken give quite enogh connection actually help really know struggle bad want kill littl bit right everything right want kill nothing mad think moment bad feeligs tonight fatigue want attempt know need talk someone f get actual consider can not tonight even wanted think really consider honestly reason like people need absence would felt actually add anything life could get alone could fortunate enough would really work stuck</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -14705,7 +14701,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>honestly lazy motivate anything could everything make life well like want hard explain depress hopeless much thought build inside one trust judge complain say every time hold stuff end big breakdown tell someone usually regret wish life would get good wish could change wish good life general doubt anyone read whatever could maybe give advice something honestly lose</t>
+          <t>honestly lazy motivate anything could everything make life well like want hard explain depress hopeless much thought build inside trust judge complain say every time hold stuff end big breakdown tell someone usually regret wish life would get good wish could change wish good life general doubt anyone read whatever could maybe give advice something honestly lose</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -14739,7 +14735,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>access knife right bathroom away people fuck courage flunk test already fail grade ugh need one good reason</t>
+          <t>access knife right bathroom away people fuck courage flunk test already fail grade ugh need good reason</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -14773,7 +14769,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>go people generally seem two three sentence away express exhaustion lot surface level happiness maybe people around couple people sort talk hard life still watch trigger sort depression right line happy people capable reach reasonably sustain way always way</t>
+          <t>go people generally seem sentence away express exhaustion lot surface level happiness maybe people around couple people sort talk hard life still watch trigger sort depression right line happy people capable reach reasonably sustain way always way</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -14807,7 +14803,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>quite long story need vent tw drug use september 9th 2018 bad day life day father pass away unexpectedly blood clot lung doctor know never put medication day entire life change since able recover yes depress much struggle suicidal thought tendency since 8 father death make much bad start get antidepressant get counsel come mother trans long discover trans none treatment help much late november attempt suicide realize care family visit hospital really start work hard get good make sure could get day could start hormone replacement therapy year long incident travel new mexico visit family mom fell love hole felt need reconnect family live decided buy home make family move can not fully blame want get state live ny remind much dad first hear news depress slowly become accept get much happy healthy get point longer felt need medication cut back therapy move new mexico month hard work crash get move honestly lose everything know stuck family alcoholic always start stupid drama small thing feel can not even anything without someone start shit something do around anyways soon enough start school fairly excite quickly excitement dy replace absolute misery school currently go refuse let use men bathroom make use womens one biological sex keep account name attendance birth name despite fact identify dress cod piercings dye hair never mention would problem go register school even week school year start first day get dress cod thing never warn told sign paper state fully read dress code agree comply actually get two week later school hour bullshit right well get bad kid willing talk drug addict do cocaine front offer high almost choke death chuck desk girl front u quite fuck terrify almost month event kid break pencil sharpener take blade part leave class shortly go bathroom course tell teacher get counselor get get send mental hospital week transfer school yes may absolute crackhead still friend bum felt alone month pass feel depressed day go start contemplate suicide try get mom get therapist still do course top kid school find transgender get dead name pick ask extremely personal question since discovery make classmate start also get rape threat death threat feel point reporting since school can not even comply law let use bathroom feel comfortable well start make friend still feel alone hopeless thing get good life try hard get life back shape actually give love best shot fail fail many others see point continue since thing keep get bad sure hold much long reason still know people care want put pain go lose dad</t>
+          <t>quite long story need vent tw drug use september th worst day life day father pass away unexpectedly blood clot lung doctor know never put medication day entire life change since able recover yes depress much struggle suicidal thought tendency since father death make much bad start get antidepressant get counsel come mother trans long discover trans none treatment help much late november attempt suicide realize care family visit hospital really start work hard get good make sure could get day could start hormone replacement therapy year long incident travel new mexico visit family mom fell love hole felt need reconnect family live decided buy home make family move can not fully blame want get state live ny remind much dad first hear news depress slowly become accept get much happy healthy get point longer felt need medication cut back therapy move new mexico month hard work crash get move honestly lose everything know stuck family alcoholic always start stupid drama small thing feel can not even anything without someone start shit something do around anyways soon enough start school fairly excite quickly excitement dy replace absolute misery school currently go refuse let use men bathroom make use womens biological sex keep account name attendance birth name despite fact identify dress cod piercings dye hair never mention would problem go register school even week school year start first day get dress cod thing never warn told sign paper state fully read dress code agree comply actually get week later school hour bullshit right well get bad kid willing talk drug addict do cocaine front offer high almost choke death chuck desk girl front u quite fuck terrify almost month event kid break pencil sharpener take blade part leave class shortly go bathroom course tell teacher get counselor get get send mental hospital week transfer school yes may absolute crackhead still friend bum felt alone month pass feel depressed day go start contemplate suicide try get mom get therapist still do course top kid school find transgender get dead name pick ask extremely personal question since discovery make classmate start also get rape threat death threat feel point reporting since school can not even comply law let use bathroom feel comfortable well start make friend still feel alone hopeless thing get good life try hard get life back shape actually give love best shot fail fail many others see point continue since thing keep get bad sure hold much long reason still know people care want put pain go lose dad</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -14824,7 +14820,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>suffer depression whole life enough friend family selfish mum know care feel like burdon know fact would happier without bullshit get one talk honestly enough get bit car accident today burst tyre energy sort energy keep fight talk people online help none around talk moment talk someone really like decided stop talk sure one want end want end much fucking pussy close end though know expect help clear head guess really sure</t>
+          <t>suffer depression whole life enough friend family selfish mum know care feel like burdon know fact would happier without bullshit get talk honestly enough get bit car accident today burst tyre energy sort energy keep fight talk people online help none around talk moment talk someone really like decided stop talk sure want end want end much fucking pussy close end though know expect help clear head guess really sure</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -14841,7 +14837,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>could swear go work due already stress heart take 100 mg worth melatonin beer probably go kill know bought two bottle something three bottle something put bucket mix sit car would kill instantly may ready fml</t>
+          <t>could swear go work due already stress heart take mg worth melatonin beer probably go kill know bought bottle something bottle something put bucket mix sit car would kill instantly may ready fml</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -14875,7 +14871,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>like people isolate outside world six year want long conversation one need strong med get combat issue try something illegal tempting use time way achieve without see psychologist sorry come certain way tire need help</t>
+          <t>like people isolate outside world year want long conversation need strong med get combat issue try something illegal tempting use time way achieve without see psychologist sorry come certain way tire need help</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -14892,7 +14888,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>question body get depress without even know last month see change body get 4 hour sleep lucky broken want go tired everytime eat feel sick thing mind feel okay yes suffer depression many time also thing see doctor regular basis late hard find right time day think body might depress start think stuff go last month remember major operation 7 month ago start gotten bad time reason ask want worry family friend find hard talk stuff really understand question body get depress without know thank anyone take time read answer question</t>
+          <t>question body get depress without even know last month see change body get hour sleep lucky broken want go tired everytime eat feel sick thing mind feel okay yes suffer depression many time also thing see doctor regular basis late hard find right time day think body might depress start think stuff go last month remember major operation month ago start gotten bad time reason ask want worry family friend find hard talk stuff really understand question body get depress without know thank anyone take time read answer question</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -14904,12 +14900,12 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>anyone else enjoy life one like find anything interesting care anything</t>
+          <t>anyone else enjoy life like find anything interesting care anything</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>turn 20 soon lately realize even enjoy live everyday wake even want get bed want lay get bed hate anything matter rather dead time anything maybe lazy something hate stuff rather dead lol peace antidepressant help still enjoy life enjoy life mostly can not hold job keep friend even talk anyone feel like fuck ghost think end can not get enough courage hopefully soon say fuck</t>
+          <t>turn soon lately realize even enjoy live everyday wake even want get bed want lay get bed hate anything matter rather dead time anything maybe lazy something hate stuff rather dead lol peace antidepressant help still enjoy life enjoy life mostly can not hold job keep friend even talk anyone feel like fuck ghost think end can not get enough courage hopefully soon say fuck</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -14926,7 +14922,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>spoke lifeline australia person speak help honestly wake every morning regret die sleep night explain decide get debate fuck religion thing think point need someone talk able convince good idea slit fuck throat jump 3rd floor balcony do yet fuck coward honestly tire life want end somehow without bother family know else seriously envy american easy access gun fyi anti depressant already fuck help ever always voice back head tell ok experience shit anyway go ahead anyway</t>
+          <t>spoke lifeline australia person speak help honestly wake every morning regret die sleep night explain decide get debate fuck religion thing think point need someone talk able convince good idea slit fuck throat jump rd floor balcony do yet fuck coward honestly tire life want end somehow without bother family know else seriously envy american easy access gun fyi anti depressant already fuck help ever always voice back head tell ok experience shit anyway go ahead anyway</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -14938,7 +14934,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>end year 99 sure</t>
+          <t>end year sure</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -14977,7 +14973,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>think saw tub five time whole day far 4pm care people around deeply think devastate leave make even depressed deal everybody feel bad everyone eventually leave realize difficult situation drain deal guess say big as burden best worker incredibly lazy choose fun feel good enough motivation anything 0 another factor never know want upbringing great always constantly thrown course thing really want cater people care see happy kind shit without ask take almost year learn think thanks current partner though start lose hope though although people care afraid telling feel beyond depressed know make people around really sad sometimes suicidal stay quiet actual extent bad job hard make friend can not even tell people know lonely get bottle everything afraid tell people eat slowly well second job last week spend whole time burnt cry nonstop condition affect lose one person able get productive ignore feeling people go comment say ignore feeling tire impede progress know leave go back anything laying curl ball wait death come naturally feel like end avoid much burden want happy edit mom call write really want leave hearing voice make sad sad give birth someone like</t>
+          <t>think saw tub time whole day far pm care people around deeply think devastate leave make even depressed deal everybody feel bad everyone eventually leave realize difficult situation drain deal guess say big as burden best worker incredibly lazy choose fun feel good enough motivation anything another factor never know want upbringing great always constantly thrown course thing really want cater people care see happy kind shit without ask take almost year learn think thanks current partner though start lose hope though although people care afraid telling feel beyond depressed know make people around really sad sometimes suicidal stay quiet actual extent bad job hard make friend can not even tell people know lonely get bottle everything afraid tell people eat slowly well second job last week spend whole time burnt cry nonstop condition affect lose person able get productive ignore feeling people go comment say ignore feeling tire impede progress know leave go back anything laying curl ball wait death come naturally feel like end avoid much burden want happy edit mom call write really want leave hearing voice make sad sad give birth someone like</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -15062,7 +15058,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>wrong know pretty deep depression life change flip much last 6 month happyenough marriage change drastically bring u closer together present extremely difficult challenge announce spouse transgender kid try imagine wife feel everything lose nearly entire family change wifes sister disown u parent sort supportive yet transphobic hate choose wife family grow would make choice million time regret mother nothing cruel evil everyone else close reach keep circle know point post want vent wife right</t>
+          <t>wrong know pretty deep depression life change flip much last month happyenough marriage change drastically bring u closer together present extremely difficult challenge announce spouse transgender kid try imagine wife feel everything lose nearly entire family change wifes sister disown u parent sort supportive yet transphobic hate choose wife family grow would make choice time regret mother nothing cruel evil everyone else close reach keep circle know point post want vent wife right</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -15079,7 +15075,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>3rd job field grad first last 3 month tell work second last 7 month tell slip one end today phone call mere 2 month know make go know else go skill good enough specialized field quiet something clientoriented translate terrible communication skill can not get peer go hear small field tend see everyone industry conferences two work first job heavy gossiper probably tell everyone happen feel happy schadenfreude fucking failure another piece conversation fodder laugh classmates social medium post great field share interest likely run fanrelated event say care people think easy say do can not face can not face either thing keep alive fact option run brain ideal painless high success rate well cowardice guess still miserably alive find something suitable</t>
+          <t>rd job field grad first last month tell work second lasted month tell slip end today phone call mere month know make go know else go skill good enough specialized field quiet something clientoriented translate terrible communication skill can not get peer go hear small field tend see everyone industry conference work first job heavy gossiper probably tell everyone happen feel happy schadenfreude fucking failure another piece conversation fodder laugh classmates social medium post great field share interest likely run fanrelated event say care people think easy say do can not face can not face either thing keep alive fact option run brain ideal painless high success rate well cowardice guess still miserably alive find something suitable</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -15096,7 +15092,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>feel like always something anything big excite impactful turn 25 day marry good man love struggled communication compatibility therapy work hard work worth love love best friend partner think would hard nobody talk hard couple hard right person make feel like failure feel like failure everything life can not keep job currently unemployed skill qualification anything even remotely interesting hate contribute financially struggle barely eat right humiliate fault struggle infertility want start family can not even never finish college debt remind every day go get easy adult nothing significant go change make thing easy never life dream point overcome much anxiety ocd still really burn sometimes keep thinking future scary age afraid dying afraid ceasing exist make sense end get sick husband could accidents could lose something traumatic anything could happen people live whole life become 40 feel unrealistic understand keep always kind problem insignificant compare suffer others feel sorry internet point</t>
+          <t>feel like always something anything big excite impactful turning day marry good man love struggled communication compatibility therapy work hard work worth love love best friend partner think would hard nobody talk hard couple hard right person make feel like failure feel like failure everything life can not keep job currently unemployed skill qualification anything even remotely interesting hate contribute financially struggle barely eat right humiliate fault struggle infertility want start family can not even never finish college debt remind every day go get easy adult nothing significant go change make thing easy never life dream point overcome much anxiety ocd still really burn sometimes keep thinking future scary age afraid dying afraid ceasing exist make sense end get sick husband could accidents could lose something traumatic anything could happen people live whole life become feel unrealistic understand keep always kind problem insignificant compare suffer others feel sorry internet point</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -15130,7 +15126,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>week ago leave really shitty situation parent treat pretty awfully year finally free however homeless stay friend spend time crisis accommodation provide psychologist finally open everything really hard trouble get legal document need secure stable living situation country much reliant parental confirmation even though legal adult meet mum today try talk thing get brutalise put make feel really worthless could even cruel meet one day see eachother awhile decide go contact feel really helpless feel like system place quite literally fuck abusive family need birth certificate verify thing feel like make near impossible live independently without know never go back put much trauma many thing know okay remorse never go put ever really want go anymore feel weak try hard get everything order 10 day straight amount nothing really feel like choice</t>
+          <t>week ago leave really shitty situation parent treat pretty awfully year finally free however homeless stay friend spend time crisis accommodation provide psychologist finally open everything really hard trouble get legal document need secure stable living situation country much reliant parental confirmation even though legal adult meet mum today try talk thing get brutalise put make feel really worthless could even cruel meeting day see eachother awhile decide go contact feel really helpless feel like system place quite literally fuck abusive family need birth certificate verify thing feel like make near impossible live independently without know never go back put much trauma many thing know okay remorse never go put ever really want go anymore feel weak try hard get everything order day straight amount nothing really feel like choice</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -15198,7 +15194,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>anyone suggestion deal major depressive 20 year old depression since around 13 everyday challenge point feel like lose close friend live different country emotionally exhaust hold onto problem without talk feel like life would easier give rather fight constantly family would distraught hurt do lot resort tell people internet hope someone know deal dark thought lack emotion feel anymore cereal</t>
+          <t>anyone suggestion deal major depressive year old depression since around everyday challenge point feel like lose close friend live different country emotionally exhaust hold onto problem without talk feel like life would easier give rather fight constantly family would distraught hurt do lot resort tell people internet hope someone know deal dark thought lack emotion feel anymore cereal</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -15210,12 +15206,12 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>19m need help badly relationship</t>
+          <t>need help badly relationship</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>start get say struggle girl become interested since rateme many place rate 758 10 male average main problem keep interest little background many hobbiesdropped hs social anxiety deppressionfathers deadstill live mother car licenseand motivation whatsoever life mess compare age lack pretty much everything especially confidence friend really mostly alone feel like die come need advice need bad soon afraid go hurt pain keep break know turn help would appreciate close end need someone talk right</t>
+          <t>start get say struggle girl become interested since rateme many place rate male average main problem keep interest little background many hobbiesdropped hs social anxiety deppressionfathers deadstill live mother car licenseand motivation whatsoever life mess compare age lack pretty much everything especially confidence friend really mostly alone feel like die come need advice need bad soon afraid go hurt pain keep break know turn help would appreciate close end need someone talk right</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -15232,7 +15228,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>chronic mental illness desire kid little desire relationship feel like hold dad dy know loose would break heart anticipate another 510 year unsure rent save money attempt mortgage condo want whatever would comfortable time live economically viable still go month ago really hard time unsure would even make far medication help lot little desire exist full human lifespan know one</t>
+          <t>chronic mental illness desire kid little desire relationship feel like hold dad dy know loose would break heart anticipate another year unsure rent save money attempt mortgage condo want whatever would comfortable time live economically viable still go month ago really hard time unsure would even make far medication help lot little desire exist full human lifespan know</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -15266,7 +15262,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>ever since little sister 3rd grade extremely unhappy alone strange ritual would obsess lock door point ocd today unspoken black sheep family old sister already aware depression take counselor much saw cut afraid approach parent african last year little sister eight year old walk bedroom saw sister hnging back door luckily get time admit hospital week come back beam happy therapist adores medication everything go smooth relapsed way catch another attempt attempt around 20 time mom quit job watch sister claim fine day check phone search suicide method many afterschool activity one watch around clock someone please help beyond point stress determination grade decrease year spend much time look yet ignore complains people bother scar go sleep sometimes roam around look way hurt suppose help teen want help junior year high school important year completely hopeless love sister much can not even imagine someone could offer advice help would really love thank</t>
+          <t>ever since little sister rd grade extremely unhappy alone strange ritual would obsess lock door point ocd today unspoken black sheep family old sister already aware depression take counselor much saw cut afraid approach parent african last year little sister year old walk bedroom saw sister hnging back door luckily get time admit hospital week come back beam happy therapist adores medication everything go smooth relapsed way catch another attempt attempt around time mom quit job watch sister claim fine day check phone search suicide method many afterschool activity watch around clock someone please help beyond point stress determination grade decrease year spend much time look yet ignore complains people bother scar go sleep sometimes roam around look way hurt suppose help teen want help junior year high school important year completely hopeless love sister much can not even imagine someone could offer advice help would really love thank</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -15283,7 +15279,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>similar story op case dad spend childhood promise help pursue science career move along many exorbitant promise coax sign life saving guise teach money management skill afterwards personality instantly change like replace body snatcher start hold money hostage control force flat earth fundamentalist church start incessantly discourage scientific interest forbid even see girl since might lead others think sexually active threaten cut ever associate member many demographic functionally unable friend would scream belittle humiliate hour every day church strict give hobby sinful tried damage relationship family member would constantly follow around would incessantly act attention much struggle even attempt schoolwork even remain hobby quickly psychologically break start fail class despite grow honor student year later take second major hop raise gpa barely squeak grad school dad take somehow mean verge graduate two phd completely flip incessantly discourage exert 247 pressure graduate two phd immediately explain get two phd would accept despite protest spread word far wide two phd gain reputation kind miracle prodigy could never actually live point dad final stage terminal heart problem relentless pressure start go along even year lie abuse want disappoint death bed year go thing continue get bad overwhelmed preemptive grief dad impend death every day go traumatic religious deconversion lose soulsustaining nonfundamentalist faith god start experience severe diabetes symptom struggle increased course load fail recover grade dad continue sink deep deep obsession completely imaginary phd one day dad start take visit old man crazy cult bedridden terminal heart problem year go dad old guy alive meant dad final stage terminal illness something like 6 year realize outrageously exaggerate health problem spend last several go along delusional nonsense fuck tire hurt much hurt much</t>
+          <t>similar story op case dad spend childhood promise help pursue science career move along many exorbitant promise coax sign life saving guise teach money management skill afterwards personality instantly change like replace body snatcher start hold money hostage control force flat earth fundamentalist church start incessantly discourage scientific interest forbid even see girl since might lead others think sexually active threaten cut ever associate member many demographic functionally unable friend would scream belittle humiliate hour every day church strict give hobby sinful tried damage relationship family member would constantly follow around would incessantly act attention much struggle even attempt schoolwork even remain hobby quickly psychologically break start fail class despite grow honor student year later take second major hop raise gpa barely squeak grad school dad take somehow mean verge graduate phd completely flip incessantly discourage exert pressure graduate phd immediately explain get phd would accept despite protest spread word far wide phd gain reputation kind miracle prodigy could never actually live point dad final stage terminal heart problem relentless pressure start go along even year lie abuse want disappoint death bed year go thing continue get bad overwhelmed preemptive grief dad impend death every day go traumatic religious deconversion lose soulsustaining nonfundamentalist faith god start experience severe diabetes symptom struggle increased course load fail recover grade dad continue sink deep deep obsession completely imaginary phd day dad start take visit old man crazy cult bedridden terminal heart problem year go dad old guy alive meant dad final stage terminal illness something like year realize outrageously exaggerate health problem spend last several go along delusional nonsense fuck tire hurt much hurt much</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -15317,7 +15313,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>college everything ruin failed math class third time exclude science business major gpa shit degree advisor say major something humanity aka end poor job prospect college can not even attend next semester money hit car accident bike spend tuition money also could afford insurance can not get loan school fuck option maxed credit card food rent could work broken leg friend family help therapy pointless hotlines work group therapy work reach help like people say people always say talk therapist everything get fix maybe small issue never love cared end depression since 8 expect wish waste time think thing could get good do high school goodbye</t>
+          <t>college everything ruin failed math class third time exclude science business major gpa shit degree advisor say major something humanity aka end poor job prospect college can not even attend next semester money hit car accident bike spend tuition money also could afford insurance can not get loan school fuck option maxed credit card food rent could work broken leg friend family help therapy pointless hotlines work group therapy work reach help like people say people always say talk therapist everything get fix maybe small issue never love cared end depression since expect wish waste time think thing could get good do high school goodbye</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -15351,7 +15347,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>suicidal thought whole day want end tonight slit wrists earth 16 year do</t>
+          <t>suicidal thought whole day want end tonight slit wrists earth year do</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -15397,7 +15393,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>do seven year ago chance</t>
+          <t>do year ago chance</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -15436,7 +15432,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>know keep go drive away person loved world never love someone like lie tell completely ex say would leave lie later find text break ex find u talk relationship still love told heartbroken cheat say insist break trust can not say cheat apologized much change many behavior could make finally come talk two month say cheat manipulate do many thing hurt whole time know leave come back many time get bad bad exchange matter action do well lose right take many month understand really meant think every day get destroy love much disrespectful never see never get love bad thing never care need die know everyone convince can not move can not forgive person love heart would anything ruin one chance ruin can not together miss much end hurt finally understand deserve want stop anymore can not talk friend sick talk million time talk every day can not move nothing anyone say bad say everything say abuser never understood abuse could do could see could beg forgiveness hurt bad want kill hurt bad deserve feel like can not forgive can not solve can not get want far move do can not get want back badly miss much always go hurt like already hell</t>
+          <t>know keep go drive away person loved world never love someone like lie tell completely ex say would leave lie later find text break ex find u talk relationship still love told heartbroken cheat say insist break trust can not say cheat apologized much change many behavior could make finally come talk month say cheat manipulate do many thing hurt whole time know leave come back many time get bad bad exchange matter action do well lose right take many month understand really meant think every day get destroy love much disrespectful never see never get love bad thing never care need die know everyone convince can not move can not forgive person love heart would anything ruined chance ruin can not together miss much end hurt finally understand deserve want stop anymore can not talk friend sick talk million time talk every day can not move nothing anyone say bad say everything say abuser never understood abuse could do could see could beg forgiveness hurt bad want kill hurt bad deserve feel like can not forgive can not solve can not get want far move do can not get want back badly miss much always go hurt like already hell</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -15453,7 +15449,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>reach help even end rope talk crisis line basically tell take walk puzzle take mind thing clearly person line never suicidal shit work way honest say wanted end life tonight fuck puzzle bye edit updatehttpswwwredditcomrsuicidewatchcommentsfdv8dqi_attempted_last_night_and_lived thanks</t>
+          <t>reach help even end rope talk crisis line basically tell take walk puzzle take mind thing clearly person line never suicidal shit work way honest say wanted end life tonight fuck puzzle bye edit updatehttpswwwredditcomrsuicidewatchcommentsfdvdqi_attempted_last_night_and_lived thanks</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -15483,7 +15479,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>1130pm sharp tell thing spend last hour sob room</t>
+          <t>pm sharp tell thing spend last hour sob room</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -15517,7 +15513,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>every morning wake really wish wake everyday honestly feel difficult get point almost energy longer can not find pleasure anything idea longer really make lose scared end life worry work turn even bad already can not handle loneliness isolation constant demand work day day make money pay bill feel fuck awful day long one truly care want keep selfish reason can not assist suicide mental health legal call crisis line multiple time daily recently ready overdose fentanyl know need vent scar want everything do want sleep peacefully forever please beg make stop put misery can not take long</t>
+          <t>every morning wake really wish wake everyday honestly feel difficult get point almost energy longer can not find pleasure anything idea longer really make lose scared end life worry work turn even bad already can not handle loneliness isolation constant demand work day day make money pay bill feel fuck awful day long truly care want keep selfish reason can not assist suicide mental health legal call crisis line multiple time daily recently ready overdose fentanyl know need vent scar want everything do want sleep peacefully forever please beg make stop put misery can not take long</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -15534,7 +15530,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>firstly english first language third actually error third language dumb anyway say well people already see sub around depression lot stuff like point living can not find happiness endure pain pain living society pain live shitty family pain life think come world bloody cry way baby beg bear believe incarnation actually make sense right thinking lot sad truth half people sub give advice people give high depression right mean like u deal depression maybe get well think time ganna different maybe last time feel good right high right see hope well sad truth ganna relapse like everytime notice try stop depression go devil call depression even deeply constant battle kind funny people give advice month wait advice co relapse final thought get lose thousand post turn 20 month ganna 20 plan precisely perfect possible place material cut connection delete social medium burn phone id drug heavily alcohol make body weak fight survival instinct get way watch countless suicide video fail learn mistake make fail good luck lose soul hope find peace final massage wonderful platform reddit thank sub place write final thought</t>
+          <t>firstly english first language third actually error third language dumb anyway say well people already see sub around depression lot stuff like point living can not find happiness endure pain pain living society pain live shitty family pain life think come world bloody cry way baby beg bear believe incarnation actually make sense right thinking lot sad truth half people sub give advice people give high depression right mean like u deal depression maybe get well think time ganna different maybe last time feel good right high right see hope well sad truth ganna relapse like everytime notice try stop depression go devil call depression even deeply constant battle kind funny people give advice month wait advice co relapse final thought get lose thousand post turn month ganna plan precisely perfect possible place material cut connection delete social medium burn phone id drug heavily alcohol make body weak fight survival instinct get way watch countless suicide video fail learn mistake make fail good luck lose soul hope find peace final massage wonderful platform reddit thank sub place write final thought</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -15568,7 +15564,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>month long problem slowly coming end thing look somewhat stress worry thrown month stress get back main group friend decide separation would benefit everyone learn likely go welcome backleast member genuinely like close friend heart heart even though still hurt lose place felt could relax enjoy start let go know worry come back still hangups get good girlfriend 3 day finally get message day birthday say deal stuff none fault anything talk whatever know bad act like part afraid fault talk close friend able regain reason eventually tell want talk leave give space think still bit dishearten say love backits 2 insistence second time say maybe distract thought forget year sad year say depress diagnose hop feeling go away annoys end guy help others talk issue make people laugh make others happy sad whimpering insecure paranoid guy act like guess saythank listen</t>
+          <t>month long problem slowly coming end thing look somewhat stress worry thrown month stress get back main group friend decide separation would benefit everyone learn likely go welcome backleast member genuinely like close friend heart heart even though still hurt lose place felt could relax enjoy start let go know worry come back still hangups get well girlfriend day finally get message day birthday say deal stuff none fault anything talk whatever know bad act like part afraid fault talk close friend able regain reason eventually tell want talk leave give space think still bit dishearten say love backits insistence second time say maybe distract thought forget year sad year say depress diagnose hop feeling go away annoys end guy help others talk issue make people laugh make others happy sad whimpering insecure paranoid guy act like guess saythank listen</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -15585,7 +15581,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>birthday today one low mental point ever ijust get wish compare past birthday gotten could hop mean lot help even little bit depression relentless parasite closing hour march third feel sad lonely context subreddit feel everyone understands mean lot loneliness reach loneliness subreddit understands least feeling visceral sadness pain way think die painful make feel tire like want happen cry way much put word want die man</t>
+          <t>birthday today low mental point ever ijust get wish compare past birthday gotten could hop mean lot help even little bit depression relentless parasite closing hour march third feel sad lonely context subreddit feel everyone understands mean lot loneliness reach loneliness subreddit understands least feeling visceral sadness pain way think die painful make feel tire like want happen cry way much put word want die man</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -15653,7 +15649,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>every year seem something go wrong alone birthday twenty feel like mundane thing upset good birthday would like one day happy maybe even celebrate little every day pit selfloathing misery get little big would like able spend friend actually care put effort people hear year post apathetic happy birthday fee never realize much friend could affect mental state lose one happy today fun instead withdrawn inattentively watch hulu keep thinking everything would like able share friend</t>
+          <t>every year seem something go wrong alone birthday twenty feel like mundane thing upset good birthday would like day happy maybe even celebrate little every day pit selfloathing misery get little big would like able spend friend actually care put effort people hear year post apathetic happy birthday fee never realize much friend could affect mental state lose one happy today fun instead withdrawn inattentively watch hulu keep thinking everything would like able share friend</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -15687,7 +15683,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>4th time ask anyone could talk please forgive annoy know else desperate could give 5 minute time thanks</t>
+          <t>th time ask anyone could talk please forgive annoy know else desperate could give minute time thanks</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -15704,7 +15700,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>even know begin life pathetic pointless sad sobbing hour today waste space even know anymore sit room day everyday job hobby one friend live half hour away even drive pathetic want kill want stupid life end every single day can not even feel positive emotion anymore like happy excite ever feel sad annoy angry upset insecure barely even feel empathy feel like brain wire backwards want anything life end reason kill yet want hurt close everyday pray hope natural take continue patience grow thin though see reason keep go seriously consider give life obviously pointless think anyone would blame anyone read thank sorry take time issue</t>
+          <t>even know begin life pathetic pointless sad sobbing hour today waste space even know anymore sit room day everyday job hobby friend live half hour away even drive pathetic want kill want stupid life end every single day can not even feel positive emotion anymore like happy excite ever feel sad annoy angry upset insecure barely even feel empathy feel like brain wire backwards want anything life end reason kill yet want hurt close everyday pray hope natural take continue patience grow thin though see reason keep go seriously consider give life obviously pointless think anyone would blame anyone read thank sorry take time issue</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -15721,7 +15717,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>school go fire two elsa therapist apparently redundant school make many lie help anyone basically useless track feeling good session one get fire fall back deep depression self harm hole also social anxiety feel confident see therapist outside school feel confident talk parent lady saw know since get felt comfortable talk one honestly give school entirely feel mentally well today put head pop lovely 24 hour vacation solitary confinement learn hub fuck shit</t>
+          <t>school go fire elsa therapist apparently redundant school make many lie help anyone basically useless track feeling well session get fire fall back deep depression self harm hole also social anxiety feel confident see therapist outside school feel confident talk parent lady saw know since get felt comfortable talk honestly give school entirely feel mentally well today put head pop lovely hour vacation solitary confinement learn hub fuck shit</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -15755,7 +15751,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>age finally ask crush one best friend date say yesthis make fking happy bin forever 2 month date realize take slowly think fine good thing need time blossom another 2 month realize suffer circumstance really hard knowing still like back yes kiss yes initiate two week ago happen one best night ever talk car ask everything alright u moment silence dread answer startet try say something tried try finally say love someone else thing another malethis really hard think lesbian felt insecure sexuallity sooo afraid people would accept anymore stuck wierd af situation still really love feel like give u even option one best friend age want loose know healthy keep see hang mean kind depress bad feeling think come go also worried distance would intensify insecurites love another guy would probalby stop see though would least told talk go meet sunday know want tell love do cool sort stuff outthat bitch date month intention relationship pretty bad moodswings know really feel know thing can not stay shit really hard mei mean seriously think time everything remind awsome time can not even watch lebian pron without bluethanks read</t>
+          <t>age finally ask crush best friend date say yesthis make fking happy bin forever month date realize take slowly think fine good thing need time blossom another month realize suffer circumstance really hard knowing still like back yes kiss yes initiated week ago happen best night ever talk car ask everything alright u moment silence dread answer startet try say something tried try finally say love someone else thing another malethis really hard think lesbian felt insecure sexuallity sooo afraid people would accept anymore stuck wierd af situation still really love feel like give u even option best friend age want loose know healthy keep see hang mean kind depress bad feeling think come go also worried distance would intensify insecurites love another guy would probalby stop see though would least told talk go meet sunday know want tell love do cool sort stuff outthat bitch date month intention relationship pretty bad moodswings know really feel know thing can not stay shit really hard mei mean seriously think time everything remind awsome time can not even watch lebian pron without bluethanks read</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -15784,12 +15780,12 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>2 month leave</t>
+          <t>month leave</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>meantime think plant flower hang friend also try make comic way suggest get help already go therapist take ad can not handle life anymore school hard constantly feel tired mark get bad lose motivation keep go reason feel like share know maybe couple month feel well thanks advance</t>
+          <t>meantime think plant flower hang friend also try make comic way suggest get help already go therapist take ad can not handle life anymore school hard constantly feel tired mark get bad lose motivation keep go reason feel like share know maybe couple month feel well thanks advance sparkling_heart</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -15840,7 +15836,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>life really hard even though life relatively good happy everyday question college hat every second work rest life lazy unmotivated least favorite thing college people want stay inside skip therapy week much pointless school work lucky even therapy anymore turn 25 23</t>
+          <t>life really hard even though life relatively good happy everyday question college hat every second work rest life lazy unmotivated least favorite thing college people want stay inside skip therapy week much pointless school work lucky even therapy anymore turn</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -15857,7 +15853,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>desire spend next 50 year work every day miserable spending free time misery try therapy treatment center almost anti depressant work briefly always go back miserable baseline nothing financial drain family still reason love shit sometimes wish die guilt dad 4 grand ketamine treatment work know go really really hope wrong thing work thanks let vent</t>
+          <t>desire spend next year work every day miserable spending free time misery try therapy treatment center almost anti depressant work briefly always go back miserable baseline nothing financial drain family still reason love shit sometimes wish die guilt dad grand ketamine treatment work know go really really hope wrong thing work thanks let vent</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -15942,7 +15938,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>random thing guess need hug feel lonely lately can not even basic stuff like need motivate take shower find reason eat something finally take medication still struggle find job okay guess kind regret waste money save like cop mechanism starve feel sick can not motivate workout limit either anything workout till exhaust either cry lot everything feel nothing like two friend boyfriend appreciate really hate able phone call boyfriendwe long distance right really love want change can not make like know issue patient supportive feeling like bother al tome make feel sad call someone love like basic thing make feel closer point post idea even make sense tire feel broken desire end life know temporary fine feeling extremely motivate sad hate productive afraid lose boyfriend friend hate annoy person always ask regret relationship tire idea feel sad lately stress can not sleep headache time want cry get hug maybe definitely seek attention really sorry look like sad guess</t>
+          <t>random thing guess need hug feel lonely lately can not even basic stuff like need motivate take shower find reason eat something finally take medication still struggle find job okay guess kind regret waste money save like cop mechanism starve feel sick can not motivate workout limit either anything workout till exhaust either cry lot everything feel nothing like friend boyfriend appreciate really hate able phone call boyfriendwe long distance right really love want change can not make like know issue patient supportive feeling like bother al tome make feel sad call someone love like basic thing make feel closer point post idea even make sense tire feel broken desire end life know temporary fine feeling extremely motivate sad hate productive afraid lose boyfriend friend hate annoy person always ask regret relationship tire idea feel sad lately stress can not sleep headache time want cry get hug maybe definitely seek attention really sorry look like sad guess</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -15959,7 +15955,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>hey reddit debate post suicidal thought ever need get chest 32 male amaze girlfriend way league fun job enjoy yet despite really good part life slam thought worthless live pointless existence debt eyeball credit trash feel like despite get 15000 raise work still nowhere near want point life feel like tangible future wait die one day past 4 year lose father grandmother two influential people life process move difficult time find good apartment credit force stay mom settle travel job car fall apart good replacement option credit issue ridden anxiety everything fear future issue prevents enjoy top visit girlfriend weekend live hour away severely inured knee can not walk find surgeon probably operation want take care hand foot make feel like giant burden amaze feel like offer anything financially 32 dependent right barely make bathroom damn leg atheist believe form afterlife can not accept something evidence firmly believe heart grandmother father go aside graf nothing remain another realm enjoy exists black void nothingness despite many ray sunshine dark life feel envious feel anxiety pain anymore appeal feel world terrible place ignorance hate run rampant people take joy hurt fellow man future society foundation like find think end everything near daily basis see lots redditors post excited kind afterlife can not accept best absence anything would good existence heaven feel well lay text still find objectively weigh pro con end life know hop post maybe need someone talk ledge know honestly leap ledge look well bettter pass minute</t>
+          <t>hey reddit debate post suicidal thought ever need get chest male amaze girlfriend way league fun job enjoy yet despite really good part life slam thought worthless live pointless existence debt eyeball credit trash feel like despite get raise work still nowhere near want point life feel like tangible future wait die day past year lose father grandmother influential people life process move difficult time find good apartment credit force stay mom settle travel job car fall apart good replacement option credit issue ridden anxiety everything fear future issue prevents enjoy top visit girlfriend weekend live hour away severely inured knee can not walk find surgeon probably operation want take care hand foot make feel like giant burden amaze feel like offer anything financially dependent right barely make bathroom damn leg atheist believe form afterlife can not accept something evidence firmly believe heart grandmother father go aside graf nothing remain another realm enjoy exists black void nothingness despite many ray sunshine dark life feel envious feel anxiety pain anymore appeal feel world terrible place ignorance hate run rampant people take joy hurt fellow man future society foundation like find think end everything near daily basis see lots redditors post excited kind afterlife can not accept best absence anything would good existence heaven feel well lay text still find objectively weigh pro con end life know hop post maybe need someone talk ledge know honestly leap ledge look well bettter pass minute</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -15993,7 +15989,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>care others would feel anymore motivation move forward feel hat feel like anyone love feel like anyone care already hate 14 little friend want people talk know want keep away like nuisance probably one mean one sooner later go go fuck happy 14 year old girl nothing live great</t>
+          <t>care others would feel anymore motivation move forward feel hat feel like anyone love feel like anyone care already hate little friend want people talk know want keep away like nuisance probably mean sooner later go go fuck happy year old girl nothing live forupsidedown_face great</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -16010,7 +16006,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>nearly 23 year old father abandon family 14 best friend time see 6 year void make become extremely close friend clinginess reach point get fed anxiety paranoia lose close friend use reach help reach point everything shoulder could handle anymore distanced time use fit attractive life take downwards spiral gain 70 lbs selfconsciousness eats inside anxiety roof motivation anything anymore anxiety med truly think antidepressant fail school heart tell mother break also know find life probably turn hell always extremely high standard still virgin never girlfriend see girl 17 peak attractiveness laughable unattractive people literally laugh appearance selfconfidence inexistent get anxiety attack people look think judge look can not deal anymore move away hometown 3 year ago university make single new friend live alone literally use voice anymore one talk reach point talk scar go without talk long lose voice time use use voice play videogames online thing bring bit joy console broke can not afford fix ambition know want life everyone around seem figure meanwhile loser eating life away future envision honestly one throw apartment build think end time feel alone world motivation selfconfidence anything people may care couple family member put much shit stuff do past fed want kill want fall asleep never wake</t>
+          <t>nearly year old father abandon family best friend time see year void make become extremely close friend clinginess reach point get fed anxiety paranoia lose close friend use reach help reach point everything shoulder could handle anymore distanced time use fit attractive life take downwards spiral gain lbs selfconsciousness eats inside anxiety roof motivation anything anymore anxiety med truly think antidepressant fail school heart tell mother break also know find life probably turn hell always extremely high standard still virgin never girlfriend see girl peak attractiveness laughable unattractive people literally laugh appearance selfconfidence inexistent get anxiety attack people look think judge look can not deal anymore move away hometown year ago university make single new friend live alone literally use voice anymore talk reach point talk scar go without talk long lose voice time use use voice play videogames online thing bring bit joy console broke can not afford fix ambition know want life everyone around seem figure meanwhile loser eating life away future envision honestly throw apartment build think end time feel alone world motivation selfconfidence anything people may care couple family member put much shit stuff do past fed want kill want fall asleep never wake</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -16039,12 +16035,12 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>turn 26 year</t>
+          <t>turn year</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>record try feel sorry try gather sympathy do life let people walk always put everyone else go beyond people know people like around go therapy year well always try best person work hate much burden parent people care waste space alive know parent upset get quickly brother extremely intelligent handsome wellliked dad sure okay two kid previous marriage one doctor get engage own marketing agency marry great guy two beautiful child come family overachiever never measure matter hard try also attractive people reason come look deform ugly feel like point try anymore screw time huge loser people like good waste another 25 year alone go disappear background never try fight long do</t>
+          <t>record try feel sorry try gather sympathy do life let people walk always put everyone else go beyond people know people like around go therapy year well always try best person work hate much burden parent people care waste space alive know parent upset get quickly brother extremely intelligent handsome wellliked dad sure okay kid previous marriage one doctor get engage own marketing agency marry great guy beautiful child come family overachiever never measure matter hard try also attractive people reason come look deform ugly feel like point try anymore screw time huge loser people like good waste another year alone go disappear background never try fight long do</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -16061,7 +16057,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>mom literary person world truly care everyone else pretty much exist background people use period intense depression life many time contemplate self harm never dare actually take action think much mom love sad would hurt do much think could ever half good mom hospital pretty much whole year tremendous pain never even 1 visitor really care friend visit year never leave enough past month suffer health issue grow severe doctor almost positive cancer al try keep hope kind short term problem every day worsen can not stop think possibility life without thought can not bear life would pointless would truly want nothing able take away pain</t>
+          <t>mom literary person world truly care everyone else pretty much exist background people use period intense depression life many time contemplate self harm never dare actually take action think much mom love sad would hurt do much think could ever half good mom hospital pretty much whole year tremendous pain never even visitor really care friend visit year never leave enough past month suffer health issue grow severe doctor almost positive cancer al try keep hope kind short term problem every day worsen can not stop think possibility life without thought can not bear life would pointless would truly want nothing able take away pain</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -16078,7 +16074,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>world seem fuck ever since 2012 wish world end 2012 would deal bullshit currently debt like 25000 work full time job dependent weather sea job pay well winter summer hit get pay fuck fall fully depressivedilussional state mind brain race 100 mile hour time every little thing analyse see friend go drug addiction drug relate psychosis see life shit depression start early age bully lack friend except one life currently can not destroy relationship feel like depression really kick around 15 16 friend move away another city leave alone time bully get bad make acquaintance real close friend 17 drop school move family home start panic attack shower turn drug numb pain xanax go sedation could fight effect somehow love iv daily cannabis smoker time since 16 except time run could get anymore do lot psychedelics could call psychonaut sort alternate reality really cannabis help motivate stuff currently 19 still virgin struggle financial situation earn enough money every week cover bill never really buy anything except weed never seem get ahead depression like keep drag really depress choose sleep day sleep place shut fuck lucid dream time actually read good fuck do life</t>
+          <t>world seem fuck ever since wish world end would deal bullshit currently debt like work full time job dependent weather sea job pay well winter summer hit get pay fuck fall fully depressivedilussional state mind brain race mile hour time every little thing analyse see friend go drug addiction drug relate psychosis see life shit depression start early age bully lack friend except life currently can not destroy relationship feel like depression really kick around friend move away another city leave alone time bully get bad make acquaintance real close friend drop school move family home start panic attack shower turn drug numb pain xanax go sedation could fight effect somehow love iv daily cannabis smoker time since except time run could get anymore do lot psychedelics could call psychonaut sort alternate reality really cannabis help motivate stuff currently still virgin struggle financial situation earn enough money every week cover bill never really buy anything except weed never seem get ahead depression like keep drag really depress choose sleep day sleep place shut fuck lucid dream time actually read good fuck do life</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -16107,12 +16103,12 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>turn 31 soonis worth try make something</t>
+          <t>turn soonis worth try make something</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>almost 31 nurse home capital city australia roughly 23 mortgage pay despite success feel like failure pretty much lived whole adult life way completely inauthentic really feel inside like let free way always want translator japanese choose nursing much stable lack confidence early 20 ed let guy use sex slept 4 people look back think wanted sleep use nice slim figure put pound binge eat fat work lose pretty much friend really socialise outside work can not drive sex since 24 never would call proper grownup relationship think learning language hop change career feel like total loser 31 feel like hill chance become proficient skill succeed feel like noone care could literally live house cat get fatter fatter die seem obsess guy use pretty badly university get married ballet dancer recently keep thinking quality woman talented never talented like point basically anxious spiralcan anyone snap depress think know sound really pathetic selfpitying</t>
+          <t>almost nurse home capital city australia roughly mortgage pay despite success feel like failure pretty much lived whole adult life way completely inauthentic really feel inside like let free way always want translator japanese choose nursing much stable lack confidence early ed let guy use sex slept people look back think wanted sleep use nice slim figure put pound binge eat fat work lose pretty much friend really socialise outside work can not drive sex since never would call proper grownup relationship think learning language hop change career feel like total loser feel like hill chance become proficient skill succeed feel like noone care could literally live house cat get fatter fatter die seem obsess guy use pretty badly university get married ballet dancer recently keep thinking quality woman talented never talented like point basically anxious spiralcan anyone snap depress think know sound really pathetic selfpitying</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -16146,7 +16142,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>late night bread milk keep late night shiw end fucken police standoff television look like go apprehend suspect lose live alone world insanity ky heal force aunt vega aunt converstaion fir hour hour like talk 26 hold back joke sometimes wish would die drop acid inhale party ballons</t>
+          <t>late night bread milk keep late night shiw end fucken police standoff television look like go apprehend suspect lose live alone world insanity ky heal force aunt vega aunt converstaion fir hour hour like talk hold back joke sometimes wish would die drop acid inhale party ballons</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -16197,7 +16193,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>know explain imfeeling right know alone life useless matter hard try always good enough good friend good daughternot good person suck one want need presence want disappear</t>
+          <t>know explain imfeeling right know alone life useless matter hard try always good enough good friend good daughternot good person suck want need presence want disappear</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -16214,7 +16210,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>hi 23 year old october 2019 intense headache nausea birthday 24th family think normal period 2 week go pain bad tense take hospital neurologist saw say sign problem whatsoever make sure prescribe declofenac get resonance head tumor find declofenac make problem worsen go different hospital grandmother sister work head emergency pediatrician doctor attend state fine nothing study nursing license know look doctor face tell still pain administrate medication want drug face tell grandma sister tell doctor attend always fight attitude insinuation patient time already 2 month pain family try look know neurologist field see go none know 3 month talk friend moment felt numb numb feel pain dad get scared saw leave eye drift away take oftalmologist know go check referred hospital specialize neurooftalmologist go emergency room obviously angry frustrate name doctor check eye tell papilledema might birth control pill since always issue hormone blood pressure eye thus nausea headaches desoroentation sensitivity light insomnia treat papilledema can not use birth control whatsoever still sensitive light see like huge tv 90 vhs leave eye leave nerve damage can not see peripheral view eye leave eye lose blur see get darker pitch black like 1cm blurred think even less also able see color differentiate deepness stairs step hole etc 6 month change doctor learn go surroundings without depend eye sight longer papilledema still get headache even try force eye sigth plus december find knee usual pops time pop go use kinesiology tape support control snap lot people degrade tell nothing people worse situation grateful allow snap allow defend allow call people make feel like literally go nothing friends people know know position literally give sht social whenever actual fear lose eye sight afraid risk make hard decision animal crisis fear actually come true go feel depress sad upset angry frustrate literally use keyboard voice option instead write google assistant everything like read book watch old movie go con bad part son hide every time get already know mommy can not see freak can not hear feel house go end cuz get upset also make head hurt usual</t>
+          <t>hi year old october intense headache nausea birthday th family think normal period week go pain bad tense take hospital neurologist saw say sign problem whatsoever make sure prescribe declofenac get resonance head tumor find declofenac make problem worsen go different hospital grandmother sister work head emergency pediatrician doctor attend state fine nothing study nursing license know look doctor face tell still pain administrate medication want drug face tell grandma sister tell doctor attend always fight attitude insinuation patient time already month pain family try look know neurologist field see go none know month talk friend moment felt numb numb feel pain dad get scared saw leave eye drift away take oftalmologist know go check referred hospital specialize neurooftalmologist go emergency room obviously angry frustrate name doctor check eye tell papilledema might birth control pill since always issue hormone blood pressure eye thus nausea headaches desoroentation sensitivity light insomnia treat papilledema can not use birth control whatsoever still sensitive light see like huge tv vhs leave eye leave nerve damage can not see peripheral view eye leave eye lose blur see get darker pitch black like cm blur think even less also able see color differentiate deepness stairs step hole etc month change doctor learn go surroundings without depend eye sight longer papilledema still get headache even try force eye sigth plus december find knee usual pops time pop go use kinesiology tape support control snap lot people degrade tell nothing people worse situation grateful allow snap allow defend allow call people make feel like literally go nothing friends people know know position literally give sht social whenever actual fear lose eye sight afraid risk make hard decision animal crisis fear actually come true go feel depress sad upset angry frustrate literally use keyboard voice option instead write google assistant everything like read book watch old movie go con bad part son hide every time get already know mommy can not see freak can not hear feel house go end cuz get upset also make head hurt usual</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -16265,7 +16261,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>depression long remember can not make last friendship let alone date anyone severe acne give really bad anxiety make undesirable tried get rid nothing work stationary therapy half year suicide attempt everything fine get voluntary job child care felt like purpose 2 month rag alcoholic feel like die feel like everyone hate know know really insecure suffer mental illness really need help know get scared reach</t>
+          <t>depression long remember can not make last friendship let alone date anyone severe acne give really bad anxiety make undesirable tried get rid nothing work stationary therapy half year suicide attempt everything fine get voluntary job child care felt like purpose month rag alcoholic feel like die feel like everyone hate know know really insecure suffer mental illness really need help know get scared reach</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -16282,7 +16278,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>need vent move month energy pack plan mover everything also go breakup 3 month ago ex still thing need get apartment keep push back come cause much anxiety break amicable respect time resent also find yesterday hit one friends presumably hook question literally part 3 year relationship real genuine feel alone overwhelm can not focus anything need right feel like one care</t>
+          <t>need vent move month energy pack plan mover everything also go breakup month ago ex still thing need get apartment keep push back come cause much anxiety break amicable respect time resent also find yesterday hit friend presumably hook question literally part year relationship real genuine feel alone overwhelm can not focus anything need right feel like care</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -16316,7 +16312,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>hi german native english far excellent want beat around bush longer must therapist private intimate contact know live bday today day first meet within like 2 week know proceed story translate look improvement httpswwwwattpadcomstory215904264mytherapistandmeabrokenrelationshipranbyhttpswwwwattpadcomstory215904264mytherapistandmeabrokenrelationshipranby</t>
+          <t>hi german native english far excellent want beat around bush longer must therapist private intimate contact know live bday today day first meet within like week know proceed story translate look improvement httpswwwwattpadcomstorymytherapistandmeabrokenrelationshipranbyhttpswwwwattpadcomstorymytherapistandmeabrokenrelationshipranby</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -16435,7 +16431,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>30 day 30 day know failed class 4th time know thing look forward past year actually make happy get pay able afford gun clean room pay bill maybe write note never felt prepared future</t>
+          <t>day day know failed class th time know thing look forward past year actually make happy get pay able afford gun clean room pay bill maybe write note never felt prepared future</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -16452,7 +16448,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>hi id like advice possible suffer extreme anxiety due environmental emotional stressor make extremely difficult physically sit complete schoolwork deadline also miss lot class scar confrontation yesterday submit late essay assign week back half assed even meet page number requirement perpetuate exist anxiety face teacher tomorrow morning possibly question quality work 504 plan think ask extension additional help make feel pathetic anxiety depression untreated eat disorder cause grade falter ever since start last year senior high school deathly afraid defer college accept fact can not keep high school work suggest ill fail college start become suicidal due body dysmorphia make difficult step outside house friends lonely comfort food usually throw people willing listen adult pay fear people view undisciplined lazy plain stupid evidence perspective keep mental struggle hide reality invest energy haul as bed morning get day mom work long shift sustain child nothing offer return friends partner introduce academic success improvement etc top schedule psych therapy appointment difficult parent would better burden bunch upcoming psych appointment finger cross prescribed medicine maybe would sulk less zoloft know way least permanent one tire want end know good end life situation month can not stand thought deal long</t>
+          <t>hi id like advice possible suffer extreme anxiety due environmental emotional stressor make extremely difficult physically sit complete schoolwork deadline also miss lot class scar confrontation yesterday submit late essay assign week back half assed even meet page number requirement perpetuate exist anxiety face teacher tomorrow morning possibly question quality work plan think ask extension additional help make feel pathetic anxiety depression untreated eat disorder cause grade falter ever since start last year senior high school deathly afraid defer college accept fact can not keep high school work suggest ill fail college start become suicidal due body dysmorphia make difficult step outside house friends lonely comfort food usually throw people willing listen adult pay fear people view undisciplined lazy plain stupid evidence perspective keep mental struggle hide reality invest energy haul as bed morning get day mom work long shift sustain child nothing offer return friends partner introduce academic success improvement etc top schedule psych therapy appointment difficult parent would better burden bunch upcoming psych appointment finger cross prescribed medicine maybe would sulk less zoloft know way least permanent tire want end know good end life situation month can not stand thought deal long</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -16469,7 +16465,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>dont agree playlist httpsopenspotifycomplaylist2yu2ynndftds8ki6yjlmdu</t>
+          <t>dont agree playlist httpsopenspotifycomplaylistyuynndftdskiyjlmdu</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -16486,7 +16482,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>almost 40 disability morbidly obese can not lose weight matter hard try almost 40 nothing 500 dollar laptop neighbor give fall apart worth around 70 pair shoe fall apart hurt walk dozen wornout sock shirt pant black mostly sweat pant two pair blue jean wornout wallet fall apart disability get less 800 usd month educational background ged homeless 8 year bad teeth need fix one need new crown taught dental hygiene become homeless even brush floss least worry get food try survive spend past year try get ged fail even tutor teacher study group find learn issue make hard get ged basically go 2nd 3rd grade 12th grade every subject family friends utterly alone world buy car two year ago first car planning living get scammed 3k try save another car live unable renting bedroom elderly woman bad health go surgery today make homeless nowhere live unable survive homeless time body arthritis low back rheumatoid arthritis knee foot day can not get bed hurt badly way survive street feel like complete utter crap especially compare everyone else realize worthless life maybe best live anymore nothing world live even care anymore nothing life get good apply hud housing suppose move apartment 7 year wait list 40 hud housing get accepted one could make money get first month rent downpayment light turn spent past ten year try good life get knock every time get example save 3 4 year 3k buy first car get scammed dealership resaved money 900 dollar need two teeth pull cost 450 tax drain 900 save last month almost year save get call first apartment ever could get two year ago need eye surgery remove cataract right eye need do leave eye dr refuse texas real id stuff need star driver license order need eye exam likely fail lose driver license cataract leave eye go driver license go get car live spent year try get ged fail every time try spent past eight year date scene get reject woman weight told worthless nothing offer relationship downright mock laughed weight get cataract eye take androgel testosterone medication low testosterone thyroid med thyroid basically dead give max dose lose 45 lbs 8 month absolutely change diet daily routine gain back year later literally can not take anymore crummy life point think death lot well good dead keep failing knock every time try something life also suffer cptsd complex post traumatic stress disorder serve thing life childhood also suffer severe chronic depression severe social anxiety severe abandonment issue paranoia learn issue diagnose look issue autism self diagnose may borderline autistic issue spectrum tired fighting tire go life like barely able breath barely able survive absolutely nothing show</t>
+          <t>almost disability morbidly obese can not lose weight matter hard try almost nothing dollar laptop neighbor give fall apart worth around pair shoe fall apart hurt walk dozen wornout sock shirt pant black mostly sweat pant pair blue jean wornout wallet fall apart disability get less usd month educational background ged homeless year bad teeth need fix need new crown taught dental hygiene become homeless even brush floss least worry get food try survive spend past year try get ged fail even tutor teacher study group find learn issue make hard get ged basically go nd rd grade th grade every subject family friends utterly alone world buy car year ago first car planning living get scammed k try save another car live unable renting bedroom elderly woman bad health go surgery today make homeless nowhere live unable survive homeless time body arthritis low back rheumatoid arthritis knee foot day can not get bed hurt badly way survive street feel like complete utter crap especially compare everyone else realize worthless life maybe best live anymore nothing world live even care anymore nothing life get good apply hud housing suppose move apartment year wait list hud housing get accept could make money get first month rent downpayment light turn spent past year try good life get knock every time get example saved year k buy first car get scammed dealership resaved money dollar need teeth pull cost tax drain save last month almost year save get call first apartment ever could get year ago need eye surgery remove cataract right eye need do leave eye dr refuse texas real id stuff need star driver license order need eye exam likely fail lose driver license cataract leave eye go driver license go get car live spent year try get ged fail every time try spend past year date scene get reject woman weight told worthless nothing offer relationship downright mock laughed weight get cataract eye take androgel testosterone medication low testosterone thyroid med thyroid basically dead give max dose lose lbs month absolutely change diet daily routine gain back year later literally can not take anymore crummy life point think death lot well good dead keep failing knock every time try something life also suffer cptsd complex post traumatic stress disorder serve thing life childhood also suffer severe chronic depression severe social anxiety severe abandonment issue paranoia learn issue diagnose look issue autism self diagnose may borderline autistic issue spectrum tired fighting tire go life like barely able breath barely able survive absolutely nothing show</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -16520,7 +16516,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>sure place post go apology advance go place mobile lose real name throw away etc etc etc okay 22 guess deal depression 8 year anxiety self conscious like believe fuck actually okay would like get chest talk life one particular never popular kid know never popular kid get pick last sport game never get play soccer kid good enough include tag hide go seek press know kid bully get play lego slap jack tic tac toe name play 3 4 friend primary school kindergartengrade 3 know interact kid lonely realize lonely well normal world get let voice know stand fear hurt person tell felt never teach show emotion use interpret know look like feel show use would better luck get volcano spew water bring knew life like look beer goggles everyone else distort fake image mature faster aspect life grasp adult concept earlier grow worry others think always compare everyone else best people everyone felt like everyone hat think annoy kid shut world first year life run around happy lonely kid grow 10 11 learn read people guess feelingthinking day go n shit learn feed everyone emotion around rather feel essentially shut emotion without realize struggle fix feed kid happy replicate happiness imitate copied feel include grow like try fill big empty lonely hole felt buried deep green swamp friend mine say become onion make layer try hide nothing seem work sorry post kind become pity party intention fuck let u continue next couple year life pretty much continue like build wall fake emotion protect everyone else great enemy trust fuck trust really connect anyone lie everyone around push anyone away try get close learn really inside repulsive wrong know would say get first taste depression around age 12 grade 57 class runtguinne pigdoormat kid bully kid unanimously decide kid pick fucking private religious bullshit school nothing prevent seem care hell even teacher would pick accepted school fuck tried take name tag wear pride yea work bit armor make insensitive bullying first little bit grade 6 smack really start happen become germ kid get idea give permanent cheese touch germ like call tipping point call classmate friend suddenly turn alone truly alone leave half dead vulture pick break break many little piece people grow around people trust turn could touch anyone scream touch germ great thanks wash hurtful shit like could even sit chair use without wash sanitize okay say alone 2 friend payton dane try help try everything could kid would back half way thru school year attempt suicide steak knife point heart start push drew little blood hurt much stuck around tell dane keep quite like ask one day tell tell teacher something like know like close told feeling good head go thru tough time due class teacher 0 clue happen immediately go principal brought tell tell go play dumb long hoping would end want deal persist eventually bring dane ask start say something break tell almost everything want die want live wish everyone else would die first tell attempt suicide bad fear come true speak everyone hat could bully hate whole class get ripped new as hole push kid suicidal thought yes tell thought tell try come back class room greet silence stone cold eye star back first thing kid tell think one people acquaintance know op fuck go cry principal treat nicely well guess want u treat dignity respect well try treat u way next time think speak can not tell much affect kid get sent home rest week suppose part story end right fucker come back next kept call germ keep bully bully harder grade 7 repeat grade 6 age hid emotion keep feed others rely react different situation elementary school behind move middle school make new friend new chapter life friendsthat judge one guy even name mysteriouslyreddited started notice girl point two girl particular quinn anna quinn couple year young babysat mother mother switch work well quinns amaze pretty beautiful get eye hair wow smile _ everything first crush although quickly forget go different school know sight mind k like see anna well describe similarly thing different anna easier well girl fell head heel know talked hour upon hour never mean continued way elementary school wear armor grow onion anna stay close couple year wrap around finger go guy get couple boyfriend reluctantly introduce couple guy know crush enjoy watch look back feed boyfriend emotion mixed bad idea 010 would recommend well go well may guess go great wrong confuse shut shut shot remember start fight u go month become personal u tell come funeral told fuck go die word say damage do think okay learn quickly fact okay fight break armour bare everything fell depression suicidal thought spiral low point ever self harm alchohol skip school bad part life highschool hard everyone oof bad skip school fight mother husband smoke pot drinking waaaaay much booze fall anna life ruin yes felt yes want back life hatred time almost outweigh good felt cut everyday 2 year know pain felt good bring head prevent think anything long blade entire depressive episode bring could stand tell okay stop lost lose armor lose everything least thought lose everything reality discover life become cold truly shut emotion even fee others become robot woke late go school skipped class go home play cod skyrim go bed rinse repeat live day day month month couple year still reconnected anna anna end reading sorry bad memory like think still love left know false live like family life start become stretch strained brought christian tell believe god he answer ask help call bullshit truly cared none u would suffer suffer fuck jesus die cross u grandparents mother take kindly word dare speak god manor mass one sunday would like 15 grandparent topic vacation come one year would like go peeps go visit cousin another town day drive away spring break leave next weekend inquire could go grade told tell let go would pick pace school would try let go well attitude need fix next thing know mother yell tell entitle id lucky consider even go teen yell back fuck yous exchange grandfather enough tried manhandle fuck chance gramps current state fist fight end broken glass litterally rip shirt rip necklace throw door thrown onto floor get start yell get fuck come back damn well ready apologize get reply well guess nice know ready get grandson back track tell sorry leave without look back track next day tell sorry react step far line night make get blizzard go home find mother husband fume talk mother fight night lose home family disown cast like garbage even though one low point see loss yea fuck also free want want start work move new city enrol new school start fresh climb depress hole yet beat depression get great girlfriend live large adays start anti depressant counsel well go skip ahead want get baggage back week ago go bar friend run none quinn would pregame drinks drink eat anything day already dehydrate alcohol consume like med already drink feel great would see quinn know say smile ignore well let tell fuck hard ignore mean would find impossible drunk man shot approach ask could buy drink remember hit blast honest look anything remembe use feel importantly j remember fun time use grow memory year lonely seem kind talk look time seem stop talk remember one point ask could kiss self conscience scream tell okay alchohol deep much wish could remember night can not know happen say hard fight depression long time time worry able win recognize anymore like person become love gf feel like go drag make depress like feel like good enough hurting can not stop think quinn think fuck even try friend small spark nothing major besides want spark right talk gf know feeling another hard deal first talk know struggle feeling look way leave verge relapse go back self harm cross line turn back tire depress want hard part figure keep current bridge go build new bridge go keep trudge find way thru fuck place call earth sorry long place read thanks listen skip story thanks waste time come wrong ov well look help need talk someone okay much pent need release next therapy session hopefully straighten current state mind</t>
+          <t>sure place post go apology advance go place mobile lose real name throw away etc etc etc okay guess deal depression year anxiety self conscious like believe fuck actually okay would like get chest talk life particular never popular kid know never popular kid get pick last sport game never get play soccer kid good enough include tag hide go seek press know kid bully get play lego slap jack tic tac toe name play friend primary school kindergartengrade know interact kid lonely realize lonely well normal world get let voice know stand fear hurt person tell felt never teach show emotion use interpret know look like feel show use would better luck get volcano spew water bring knew life like look beer goggles everyone else distort fake image mature faster aspect life grasp adult concept earlier grow worry others think always compare everyone else best people everyone felt like everyone hat think annoy kid shut world first year life run around happy lonely kid grow learn read people guess feelingthinking day go n shit learn feed everyone emotion around rather feel essentially shut emotion without realize struggle fix feed kid happy replicate happiness imitate copied feel include grow like try fill big empty lonely hole felt buried deep green swamp friend mine say become onion make layer try hide nothing seem work sorry post kind become pity party intention fuck let u continue next couple year life pretty much continue like build wall fake emotion protect everyone else great enemy trust fuck trust really connect anyone lie everyone around push anyone away try get close learn really inside repulsive wrong know would say get first taste depression around age grade class runtguinne pigdoormat kid bully kid unanimously decide kid pick fucking private religious bullshit school nothing prevent seem care hell even teacher would pick accepted school fuck tried take name tag wear pride yea work bit armor make insensitive bullying first little bit grade smack really start happen become germ kid get idea give permanent cheese touch germ like call tipping point call classmate friend suddenly turn alone truly alone leave half dead vulture pick break break many little piece people grow around people trust turn could touch anyone scream touch germ great thanks wash hurtful shit like could even sit chair use without wash sanitize okay say alone friends payton dane try help try everything could kid would back half way thru school year attempt suicide steak knife point heart start push drew little blood hurt much stuck around tell dane keep quite like ask day tell tell teacher something like know like close told feeling good head go thru tough time due class teacher clue happen immediately go principal brought tell tell go play dumb long hoping would end want deal persist eventually bring dane ask start say something break tell almost everything want die want live wish everyone else would die first tell attempt suicide bad fear come true speak everyone hat could bully hate whole class get ripped new as hole push kid suicidal thought yes tell thought tell try come back class room greet silence stone cold eye star back first thing kid tell thought people acquaintance know op fuck go cry principal treat nicely well guess want u treat dignity respect well try treat u way next time think speak can not tell much affect kid get sent home rest week suppose part story end right fucker come back next kept call germ keep bully bully harder grade repeat grade age hid emotion keep feed others rely react different situation elementary school behind move middle school make new friend new chapter life friendsthat judge guy even name mysteriouslyreddited started notice girl point girl particular quinn anna quinn couple year young babysat mother mother switch work well quinns amaze pretty beautiful get eye hair wow smile _ everything first crush although quickly forget go different school know sight mind k like see anna well describe similarly thing different anna easier well girl fell head heel know talked hour upon hour never mean continued way elementary school wear armor grow onion anna stay close couple year wrap around finger go guy get couple boyfriend reluctantly introduce couple guy know crush enjoy watch look back feed boyfriend emotion mixed bad idea would recommend well go well may guess go great wrong confuse shut shut shot remember start fight u go month become personal u tell come funeral told fuck go die word say damage do think okay learn quickly fact okay fight break armour bare everything fell depression suicidal thought spiral low point ever self harm alchohol skip school bad part life highschool hard everyone oof bad skip school fight mother husband smoke pot drinking waaaaay much booze fall anna life ruin yes felt yes want back life hatred time almost outweigh good felt cut everyday year know pain felt good bring head prevent think anything long blade entire depressive episode bring could stand tell okay stop lost lose armor lose everything least thought lose everything reality discover life become cold truly shut emotion even fee others become robot woke late go school skipped class go home play cod skyrim go bed rinse repeat live day day month month couple year still reconnected anna anna end reading sorry bad memory like think still love left know false live like family life start become stretch strained brought christian tell believe god he answer ask help call bullshit truly cared none u would suffer suffer fuck jesus die cross u grandparents mother take kindly word dare speak god manor mass sunday would like grandparent topic vacation come year would like go peeps go visit cousin another town day drive away spring break leave next weekend inquire could go grade told tell let go would pick pace school would try let go well attitude need fix next thing know mother yell tell entitle id lucky consider even go teen yell back fuck yous exchange grandfather enough tried manhandle fuck chance gramps current state fist fight end broken glass litterally rip shirt rip necklace throw door thrown onto floor get start yell get fuck come back damn well ready apologize get reply well guess nice know ready get grandson back track tell sorry leave without look back track next day tell sorry react step far line night make get blizzard go home find mother husband fume talk mother fight night lose home family disown cast like garbage even though low point see loss yea fuck also free want want start work move new city enrol new school start fresh climb depress hole yet beat depression get great girlfriend live large adays start anti depressant counsel well go skip ahead want get baggage back week ago go bar friend run none quinn would pregame drinks drink eat anything day already dehydrate alcohol consume like med already drink feel great would see quinn know say smile ignore well let tell fuck hard ignore mean would find impossible drunk man shot approach ask could buy drink remember hit blast honest look anything remembe use feel importantly j remember fun time use grow memory year lonely seem kind talk look time seem stop talk remember point ask could kiss self conscience scream tell okay alchohol deep much wish could remember night can not know happen say hard fight depression long time time worry able win recognize anymore like person become love gf feel like go drag make depress like feel like good enough hurting can not stop think quinn think fuck even try friend small spark nothing major besides want spark right talk gf know feeling another hard deal first talk know struggle feeling look way leave verge relapse go back self harm cross line turn back tire depress want hard part figure keep current bridge go build new bridge go keep trudge find way thru fuck place call earth sorry long place read thanks listen skip story thanks waste time come wrong ov well look help need talk someone okay much pent need release next therapy session hopefully straighten current state mind</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -16571,7 +16567,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>hate work precisely hate work can not come term think go waste huge part life thing like see point work hard achieve career goal time go would retire ever go retire drop dead 5060s 27 idea live life supposedly chance sentience depress due lot thing physical health problem able find job go least tolerate feeling generally lose life hat job majorly contribute suicidal tendency quit last job awful premonition go quit soon possible go kill family understand everybodys get work live usual kind resent like would gladly drink koolaid world relatively happy work drone point life mind wire way tire constantly feel depress guilty angry world feel absolutely alone even think know alone type think right feel empty like way lile nothing live sorry rant know write attention maybe sort connection another human</t>
+          <t>hate work precisely hate work can not come term think go waste huge part life thing like see point work hard achieve career goal time go would retire ever go retire drop dead idea live life supposedly chance sentience depress due lot thing physical health problem able find job go least tolerate feeling generally lose life hat job majorly contribute suicidal tendency quit last job awful premonition go quit soon possible go kill family understand everybodys get work live usual kind resent like would gladly drink koolaid world relatively happy work drone point life mind wire way tire constantly feel depress guilty angry world feel absolutely alone even think know alone type think right feel empty like way lile nothing live sorry rant know write attention maybe sort connection another human</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -16605,7 +16601,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>first post ever reddit feel low right cry night want get good nothing seem work christmas vacation realise partner cheat night found go girl house intercourse still come back place tell everything next day completely lose first time someone cheat felt betray could wrap head around reaction drink much alcool smoke cigarette could forget happen unfortunately enough still feel much pain decides take half empty bottle xanax bottle antidepressant wash pain away like first suicide attempt 20 minute realise do call emergency ambulance come spent 24 hour psychiatry aisle start see psychiatrist diagnose borderline personality make sense seem close friend family think much borderline thing really good hiding true self boulimic year without anyone ever know intense rage impulsive reaction love anyway let u come back story end stay partner decision torture ever since day pass without think would ut think happen imagine start feel sick everything turn black easy could psychiatrist prescribed new drug mix antidepressant start yesterday hate side effect take new drug feel like want give lot fight partner last day find supportive feel alone right tried communicate much feel like burden break even much life want like always want kid feel unlovable feel like mental health take much place need help need reason keep go</t>
+          <t>first post ever reddit feel low right cry night want get good nothing seem work christmas vacation realise partner cheat night found go girl house intercourse still come back place tell everything next day completely lose first time someone cheat felt betray could wrap head around reaction drink much alcool smoke cigarette could forget happen unfortunately enough still feel much pain decides take half empty bottle xanax bottle antidepressant wash pain away like first suicide attempt minute realise do call emergency ambulance come spent hour psychiatry aisle start see psychiatrist diagnose borderline personality make sense seem close friend family think much borderline thing really good hiding true self boulimic year without anyone ever know intense rage impulsive reaction love anyway let u come back story end stay partner decision torture ever since day pass without think would ut think happen imagine start feel sick everything turn black easy could psychiatrist prescribed new drug mix antidepressant start yesterday hate side effect take new drug feel like want give lot fight partner last day find supportive feel alone right tried communicate much feel like burden break even much life want like always want kid feel unlovable feel like mental health take much place need help need reason keep go</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -16639,7 +16635,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>time show everyone happen treat someone bad want kill rejection leave ignore bully make fun tired abuse everyone give tire can not take anymore one want friend especially irl one want girl friend one even give chance abuse tire show everyone happen treat someone like treat love abuse show maybe could save life see see</t>
+          <t>time show everyone happen treat someone bad want kill rejection leave ignore bully make fun tired abuse everyone give tire can not take anymore want friend especially irl want girl friend even give chance abuse tire show everyone happen treat someone like treat love abuse show maybe could save life see see</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -16673,7 +16669,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>99 sure struggle depression past 2 week every time try talk friend pass helplines do take long explain fkn life story fuck wrong even say like really think point</t>
+          <t>sure struggle depression past week every time try talk friend pass helplines do take long explain fkn life story fuck wrong even say like really think point</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -16685,12 +16681,12 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>diary entry 01 hate xi jin ping</t>
+          <t>diary entry hate xi jin ping</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>dear diary feel yet slide abyss darkness well remain fueled anger frustration ccp hopelessness overtakes anger feel sucked swirl vortex desolation knives scissors shiny sharp object beckon warmly seduce sweet promise end pain carefully lay plan budget go awry situation beyond control exacerbate one man greed power face fear run anger fury long trigger desolation lay waste sanity would probably begin end love cat</t>
+          <t>dear diary feel yet slide abyss darkness well remain fueled anger frustration ccp hopelessness overtakes anger feel sucked swirl vortex desolation knives scissors shiny sharp object beckon warmly seduce sweet promise end pain carefully lay plan budget go awry situation beyond control exacerbate man greed power face fear run anger fury long trigger desolation lay waste sanity would probably begin end love cat</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -16707,7 +16703,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>hi dealt mild depression life handle decently medication therapy cbt however 3 fail shoulder surgery since 2016 shoulder pain trigger relapse anger depression feel bad can not play basketball anymore love trouble hold play two young daughter well try something longer daughter shoulder shoot hoop driveway usually mean rest day know people deal much serious stroke misfortune bad arm often spiral feel bad mad basketball play lead original injury anyone recommend book method cbt advice deal well thanks advance appreciate reading sub first time post</t>
+          <t>hi dealt mild depression life handle decently medication therapy cbt however fail shoulder surgery since shoulder pain trigger relapse anger depression feel bad can not play basketball anymore love trouble hold play young daughter well try something longer daughter shoulder shoot hoop driveway usually mean rest day know people deal much serious stroke misfortune bad arm often spiral feel bad mad basketball play lead original injury anyone recommend book method cbt advice deal well thanks advance appreciate reading sub first time post</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -16741,7 +16737,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>therapist professional anyone need someone talk order get tough time tonight</t>
+          <t>therapist professional anyone need someone talk order get tough time tonight red_heart</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -16775,7 +16771,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>never good make friend never middle school last year make one though get really close told depression seem drift yesterday morning talk say meet teacher tell would tell do walk around hall saw group people care others consider thing get awkward u bother ditch would much rather tell go meet friend anyone tanymore say want see anymore</t>
+          <t>never good make friend never middle school last year make though got really close told depression seem drift yesterday morning talk say meet teacher tell would tell do walk around hall saw group people care others consider thing get awkward u bother ditch would much rather tell go meet friend anyone tanymore say want see anymore</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -16792,7 +16788,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>seriously like 95 forte hate kid ability pursue passion job everyone life use emotional support downer ever think would rather dead point try prevent suicide never help get good think honestly enough living point want hate anylonger</t>
+          <t>seriously like forte hate kid ability pursue passion job everyone life use emotional support downer ever think would rather dead point try prevent suicide never help get good think honestly enough living point want hate anylonger</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -16804,12 +16800,12 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>21yo school family hat alcooholic</t>
+          <t>check_mark_buttonyo check_mark_buttonno school check_mark_button family hat check_mark_button alcooholic</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>21yo french garbage parent make go engineering school far home paris 3 year preparatory maths physic immediatly hat school entreprise visit class know want engineer rather kill become one engislave make really good friend city though even go school anymore one point still happy tell parent want stop engineering school want get job next year go study something always dream become doctor go back home holiday 3 week ago rough background story parent always conflict last summer always solve conflict hit insult say horrible thing make hate make sleep outside day still good student preparatory class make bleed several time dad sharped stick wood mom nail tell want get job city study far home could near friend tell home torture make go insane suicidal still home right job still want go live city friend girlfriend live get job nobody talk home take computer credit card can not go can not see friend nearby can not anything enjoy life want stay discussion possible make want kill repeat every time talk friends care think loose piece shit stop school want go city next week appartment anymore know convince pay rent one month time get job independent</t>
+          <t>yo french garbage parent make go engineering school far home paris year preparatory maths physic immediatly hat school entreprise visit class know want engineer rather kill become engislave make really good friend city though even go school anymore point still happy tell parent want stop engineering school want get job next year go study something always dream become doctor go back home holiday week ago rough background story parent always conflict last summer always solve conflict hit insult say horrible thing make hate make sleep outside day still good student preparatory class make bleed several time dad sharped stick wood mom nail tell want get job city study far home could near friend tell home torture make go insane suicidal still home right job still want go live city friend girlfriend live get job nobody talk home take computer credit card can not go can not see friend nearby can not anything enjoy life want stay discussion possible make want kill repeat every time talk friends care think loose piece shit stop school want go city next week appartment anymore know convince pay rent month time get job independent</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -16826,7 +16822,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>heart feel heavy empty feel like love care want someone lose job twice due drink job time talk someone partner stress start drink lose job twice feel like fault can not anything make happy want care someone care need emotional physically sick feel well without someone take care one time fever go work partner wish never come home check heard plan time put hold partner want take nap time want someone love hurt anymore want hug kiss cuddle spoil alittle bit partner right find one stuck behind rent try build go stuff</t>
+          <t>heart feel heavy empty feel like love care want someone lose job twice due drink job time talk someone partner stress start drink lose job twice feel like fault can not anything make happy want care someone care need emotional physically sick feel well without someone take care time fever go work partner wish never come home check heard plan time put hold partner want take nap time want someone love hurt anymore want hug kiss cuddle spoil alittle bit partner right find stuck behind rent try build go stuff</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -16843,7 +16839,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>want die start jan 2018 thing gotten bad summer 2018 fuck suicide prevention chatroom call police express suicidal ideation kidnap sent series hospitalprisons junk medical staff lose job due hospital stay apartment car dog shortly follow can not get decent job resume fuck connection refuse go back miserable job pay horribly would rather die life sue 4k debt yesterday hand 65k medical bill treatment would 100 unnecessary still insurance able go regular check ups fuck suicide prevention line make life demonstrably bad destroyed mechanism keep go independent selfsufficient human nothing far bad position logistically speak deal right sort wait currently stay kick soon time die sure let responsible party know part</t>
+          <t>want die start jan thing get bad summer fuck suicide prevention chatroom call police express suicidal ideation kidnap sent series hospitalprisons junk medical staff lose job due hospital stay apartment car dog shortly follow can not get decent job resume fuck connection refuse go back miserable job pay horribly would rather die life sue k debt yesterday hand k medical bill treatment would unnecessary still insurance able go regular check ups fuck suicide prevention line make life demonstrably bad destroyed mechanism keep go independent selfsufficient human nothing far bad position logistically speak deal right sort wait currently stay kick soon time die sure let responsible party know part</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -16860,7 +16856,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>awake anxiety every moment overwhelm feel heart beat faster breathe becomes mess feel whole body feel uncomfortable awake time feel panic feel much negative feeling lie bed mind get ready sleep know long take fall asleep take 10 minute 10 minute best ever felt whole day know good sleep much understand people would choose sleep lot depress look forward peaceful 10 minute wish could feel throught day without need fall asleep first</t>
+          <t>awake anxiety every moment overwhelm feel heart beat faster breathe becomes mess feel whole body feel uncomfortable awake time feel panic feel much negative feeling lie bed mind get ready sleep know long take fall asleep take minute minute best ever felt whole day know good sleep much understand people would choose sleep lot depress look forward peaceful minute wish could feel throught day without need fall asleep first</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -16928,7 +16924,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>one really go read yeah 15 year old get diagnosed depression 12 strongly dislike talk negative feeling partially trauma partially afraid people look differently finally open really go well got immediately dragged doctor see wrong afraid open get therapy literally second appointment send therapist email say feel much good need therapy thought would work know bottle emotion healthy entire life sometimes talk online even feel awkward like burden people listen get hold back last year feel like go tell everyone could get bed tried really hard kill second suicide attempt year want tell anyone like teacher friend trusted one people know happy bubbly dumb annoy something like anyway feel like fuck failure think mindset would change time never year tiny bit well less absent still great school really hard motivation always think would make past 15 would end kill anyways point want stay alive family friend suicide option anymore know want live motivation like everythings big joke know care anyone advice</t>
+          <t>one really go read yeah year old get diagnosed depression strongly dislike talk negative feeling partially trauma partially afraid people look differently finally open really go well got immediately dragged doctor see wrong afraid open get therapy literally second appointment send therapist email say feel much good need therapy thought would work know bottle emotion healthy entire life sometimes talk online even feel awkward like burden people listen get hold back last year feel like go tell everyone could get bed tried really hard kill second suicide attempt year want tell anyone like teacher friend trusted one people know happy bubbly dumb annoy something like anyway feel like fuck failure think mindset would change time never year tiny bit well less absent still great school really hard motivation always think would make past would end kill anyways point want stay alive family friend suicide option anymore know want live motivation like everythings big joke know care anyone advice</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -16962,7 +16958,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>friend year go month without talk anyone cry see happy people public lot trauma sexual abusetrafficking make want live sick world first get diagnose depression 8 see point go people would say get well get objectively worse every year nearly decade never healthy enough life want try sort thing include cbt dbt emdr yoga meditation behavioral therapy art therapy etc eat healthy everything suppose tried dozen medication range anti depressant anxiety med mood stabilizer end either cause severe health side effect make even suicidal make psychotic try get help talk someone suicidal u apprehend police handcuff thrown ambulance ship psych ward staff verbally physically abuse next 72 hour 2 week youth psych ward house put solitary confinement cry get feel even scar hopeless disgruntle world sicken fact help get suicidal abused day end realize literally nothing get lock psych ward treat like shit continue get depress angry resentful rinse repeat system chip away nothing leave finally deal anymore</t>
+          <t>friend year go month without talk anyone cry see happy people public lot trauma sexual abusetrafficking make want live sick world first get diagnosed depression see point go people would say get well get objectively worse every year nearly decade never healthy enough life want try sort thing include cbt dbt emdr yoga meditation behavioral therapy art therapy etc eat healthy everything suppose tried dozen medication range anti depressant anxiety med mood stabilizer end either cause severe health side effect make even suicidal make psychotic try get help talk someone suicidal u apprehend police handcuff thrown ambulance ship psych ward staff verbally physically abuse next hour week youth psych ward house put solitary confinement cry get feel even scar hopeless disgruntle world sicken fact help get suicidal abused day end realize literally nothing get lock psych ward treat like shit continue get depress angry resentful rinse repeat system chip away nothing leave finally deal anymore</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -16979,7 +16975,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>seek medical advice want know anyone similar experience start take lexapro moderate depression anxiety first week prescribe 5mg 10mg thereafter two day mild feel like ecstasymdma body feel light weird concentration energy neck back head anyone felt thisexperienced</t>
+          <t>seek medical advice want know anyone similar experience start take lexapro moderate depression anxiety first week prescribe mg mg thereafter day mild feel like ecstasymdma body feel light weird concentration energy neck back head anyone felt thisexperienced</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -16996,7 +16992,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>start lexapro 10 mg 3 week ago anxiety go lot depression still doctor say strange since two either improve worsen together right wait week see anything change</t>
+          <t>start lexapro mg week ago anxiety go lot depression still doctor say strange since either improve worsen together right wait week see anything change</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -17047,7 +17043,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>can not stand loneliness one minute afraid go sleep overthink nobody know even exist</t>
+          <t>can not stand loneliness minute afraid go sleep overthink nobody know even exist</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -17081,7 +17077,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>bear taught get good education one day provide thing could survive world never even ask experience well yeah remember cease exist people remember memory well yeah one day also go every person memory long forgotten fade oblivion point experience thing end even remember experience first place</t>
+          <t>bear taught get good education day provide thing could survive world never even ask experience well yeah remember cease exist people remember memory well yeah day also go every person memory long forgotten fade oblivion point experience thing end even remember experience first place</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -17132,7 +17128,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>single year 5 year relationship accept probably single rest life care someone accept option appreciate work accept make slightly bearable depressed accept decide good time 30 do accept important anyone okay find loving home cat go people say oh love lie accept make feel good accept life manage</t>
+          <t>single year year relationship accept probably single rest life care someone accept option appreciate work accept make slightly bearable depressed accept decide good time do accept important anyone okay find loving home cat go people say oh love lie accept make feel good accept life manage</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -17144,7 +17140,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>almost 26 nothing gotten well</t>
+          <t>almost nothing gotten good</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -17234,7 +17230,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>hate college hate hate everyone else attend college wish could lay bed dorm room day would see anybody anything passion interest task must complete return lay bed use high achieve student high school academic athletics wash bum perform simple task correctly pathetic high hope use ivyleague college work hard get spring board successful career already fail miserably skills one need make real world feel lethargic weak struggle way sport practice everyday know much long keep go wish could disappear never see anyone complete fucking failure</t>
+          <t>hate college hate hate everyone else attend college wish could lay bed dorm room day would see anybody anything passion interest task must complete return lay bed use high achieve student high school academic athletics wash bum perform simple task correctly pathetic high hope use ivyleague college work hard get spring board successful career already fail miserably skill need make real world feel lethargic weak struggle way sport practice everyday know much long keep go wish could disappear never see anyone complete fucking failure</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -17251,7 +17247,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>make account could post without know prepared end way caretaker mom exhaust give childhood long time ago major moment life period date do lot sibling marry go reach high school dad always sense abusive mostly something wrong eye yell slap etc even yesterday get frustrated get phone call work frustration grab near thing threw cause hand bloody boyfriend well absolute sweet day break wanted hurt make choice go goodbye need make tired worn want stop burden drag go dad finally know disappointment alive one morning video pop talk still chance get past go 5th last attempt think boyfriend ex figure go keep beg want stop hurt people want stop feeling hurt can not seek help culture church everything mean would completely turn away whole community unsure go want stop drain people want stop feeling drain</t>
+          <t>make account could post without know prepared end way caretaker mom exhaust give childhood long time ago major moment life period date do lot sibling marry go reach high school dad always sense abusive mostly something wrong eye yell slap etc even yesterday get frustrated get phone call work frustration grab near thing threw cause hand bloody boyfriend well absolute sweet day break wanted hurt make choice go goodbye need make tired worn want stop burden drag go dad finally know disappointment alive morning video pop talk still chance get past go th last attempt think boyfriend ex figure go keep beg want stop hurt people want stop feeling hurt can not seek help culture church everything mean would completely turn away whole community unsure go want stop drain people want stop feeling drain</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -17268,7 +17264,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>think nothing leave want life since 5 never saw part world least want mine anymore important people ill leave behind know life well without guess mind always universe never ground front know life chaos also beautiful time last dream see light alaska sit horizon forever watch universe want put backpack make way far nothing leave expect much expect find place finally close eye open try make least journey ready could lose</t>
+          <t>think nothing leave want life since never saw part world least want mine anymore important people ill leave behind know life well without guess mind always universe never ground front know life chaos also beautiful time last dream see light alaska sit horizon forever watch universe want put backpack make way far nothing leave expect much expect find place finally close eye open try make least journey ready could lose</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -17319,7 +17315,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>hello never really write online curious stigma behind death seem discourage discussion actively try talk family therapist perception life inability understand never stem depression irritates want die believe death ultimate end goal every single human rapidly increase approach would lead end please note social life close friend college work also pretty active socia life go couple party solid relationship together two year abuse drug alcohol kick back something depression pretty lay back earth guy never mental illness thought worthlessness extreme sadness etc personally meaningless within life main motivator methodology realistically true living due value past can not change future unknown past life happen work sex love entertainment etc use keep individual live work 95 job kid thing yet reason boil survival entertainment entertainment keep u loop within endless cycle netflix show game tv show youtube survival work eat feed future generation realistically love chemical compound effect spark motivate production kid continue specie love parent child prevent child hood death child become parent produce child cycle continue really boil life endless cycle continuation within specie know curious anyone else feel way develop meaning life mean even taught mean society social interaction parent develop mean believe reality pursuit good job big house produce music serial killer perception learn society incorporate definition life want live even perception jumble social expectation mix anyone help understand would great help want know life mean live social pressure biological barrier prevents self harm personal meaning etc</t>
+          <t>hello never really write online curious stigma behind death seem discourage discussion actively try talk family therapist perception life inability understand never stem depression irritates want die believe death ultimate end goal every single human rapidly increase approach would lead end please note social life close friend college work also pretty active socia life go couple party solid relationship together year abuse drug alcohol kick back something depression pretty lay back earth guy never mental illness thought worthlessness extreme sadness etc personally meaningless within life main motivator methodology realistically true living due value past can not change future unknown past life happen work sex love entertainment etc use keep individual live work job kid thing yet reason boil survival entertainment entertainment keep u loop within endless cycle netflix show game tv show youtube survival work eat feed future generation realistically love chemical compound effect spark motivate production kid continue specie love parent child prevent child hood death child become parent produce child cycle continue really boil life endless cycle continuation within specie know curious anyone else feel way develop meaning life mean even taught mean society social interaction parent develop mean believe reality pursuit good job big house produce music serial killer perception learn society incorporate definition life want live even perception jumble social expectation mix anyone help understand would great help want know life mean live social pressure biological barrier prevents self harm personal meaning etc</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -17332,7 +17328,7 @@
       <c r="A996" t="inlineStr"/>
       <c r="B996" t="inlineStr">
         <is>
-          <t>one ask long time ask night start cry know answer friend guy reach need somethingi tiredi jealous friend go quiet day everyone ask nothing person know guess actually friend</t>
+          <t>ask long time ask night start cry know answer friend guy reach need somethingi tiredi jealous friend go quiet day everyone ask nothing person know guess actually friend</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -17366,7 +17362,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>15 think think move go kill want feel alone know able take sorry definitely</t>
+          <t>think think move go kill want feel alone know able take sorry definitely</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -17383,7 +17379,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>hello everyone well people subreddit depression struggle year recently prescribe welbutrin must say can not express much good still moment night definitely bad struggle weight well lay bed weird switch get flip want change diet want start go gym active crazy lazy fuck maybe help lot depression scar though year ago break back play football really active outdoors play football school kayak hiked etc able thing cause gain bunch weight become insanely depressed lose feeling toe 6 month initial accident able anything active toe fine fact able used accident cause depressed want depress anymore sure everyone relate want get life back way way step comfort zone find someone willing help achieve goal although may difficult know try hard achieve goal apologize rant sudden change mindset get really motivate honestly bit emotional scar would never find way rut also scar lose motivation want small fluke motivation tomorrow right back focus tomorrow anyways sorry rant could bottle hope nice day whomever reading</t>
+          <t>hello everyone well people subreddit depression struggle year recently prescribe welbutrin must say can not express much good still moment night definitely bad struggle weight well lay bed weird switch get flip want change diet want start go gym active crazy lazy fuck maybe help lot depression scar though year ago break back play football really active outdoors play football school kayak hiked etc able thing cause gain bunch weight become insanely depressed lose feeling toe month initial accident able anything active toe fine fact able used accident cause depressed want depress anymore sure everyone relate want get life back way way step comfort zone find someone willing help achieve goal although may difficult know try hard achieve goal apologize rant sudden change mindset get really motivate honestly bit emotional scar would never find way rut also scar lose motivation want small fluke motivation tomorrow right back focus tomorrow anyways sorry rant could bottle hope nice day whomever reading</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -17400,7 +17396,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>life second third place never first always someone well always one step behind can not get honor can not live parent expectation never proud always hurry sibilings 10x good everything common sense even third grade teacher tell smart class grade inconsistent become content failure stop try like two friend 10 spend thousand hour game still good nothing live except dog grow get job ill still cripple student loan even though brother get scholarship definitely get one work 95 hour job never enjoy life can not control anger relative extremely annoy constantly incredibly high standard set upon know dad never meet expectation never good spanish nothing live use athletic elementary get ridicule unable catch tennis ball know end post</t>
+          <t>life second third place never first always someone well always step behind can not get honor can not live parent expectation never proud always hurry sibilings x good everything common sense even third grade teacher tell smart class grade inconsistent become content failure stop try like friend spend thousand hour game still good nothing live except dog grow get job ill still cripple student loan even though brother get scholarship definitely get work hour job never enjoy life can not control anger relative extremely annoy constantly incredibly high standard set upon know dad never meet expectation never good spanish nothing live use athletic elementary get ridicule unable catch tennis ball know end post</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -17413,7 +17409,7 @@
       <c r="A1001" t="inlineStr"/>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>try km right best friend birthday 5 day want feel place world anyone want talk 16 f need somebody talk scare</t>
+          <t>try km right best friend birthday day want feel place world anyone want talk f need somebody talk scare</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -17447,7 +17443,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>every day year exactly wake attend online school get scold teacher parent poor grade slow spend hour homework struggle overwhelm stressed life cry go bed repeat weekend either sit room day watch youtube nap day can not even find energy get bed anything can not even find finish overwhelming amount homework enjoy anything anymore skills talent interest can not even get job since live middle nowhere terrify learn drive even really know anything real world husk person rots isolation room day fantasize die desperately alone feel like absolute worthless moron entire life never even one friend talk confide every time past go public school try make friend people always fuck make look idiotic never understood talk people form connection can not even make online friend one care even parent every time try conversation mom thing keep totally socially isolate pathetically desperate someone talk since one else even bother pretend listen important thing spare moment time talk get wish make obvious tired try survive day hell see life get good already incapable achieve anything help either scared future know want life even would idea get far fall behind everyone else unmotivated scared fucking life even already maybe would easier point drown prevent depress future suffer even really know expect anyone actually read thank much hope find form peace today</t>
+          <t>every day year exactly wake attend online school get scold teacher parent poor grade slow spend hour homework struggle overwhelm stressed life cry go bed repeat weekend either sit room day watch youtube nap day can not even find energy get bed anything can not even find finish overwhelming amount homework enjoy anything anymore skills talent interest can not even get job since live middle nowhere terrify learn drive even really know anything real world husk person rots isolation room day fantasize die desperately alone feel like absolute worthless moron entire life never even friend talk confide every time past go public school try make friend people always fuck make look idiotic never understood talk people form connection can not even make online friend care even parent every time try conversation mom thing keep totally socially isolate pathetically desperate someone talk since else even bother pretend listen important thing spare moment time talk get wish make obvious tired try survive day hell see life get good already incapable achieve anything help either scared future know want life even would idea get far fall behind everyone else unmotivated scared fucking life even already maybe would easier point drown prevent depress future suffer even really know expect anyone actually read thank much hope find form peace today</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -17464,7 +17460,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>couple week ago overdose xanax lie around chase vodka put deep sleep take around 36 hour completely recover friend find point since return call know struggle anyway reason really think happen since guess kind shook try think question intent behind plan kill remember think kill okay consider suicide attempt odd lapse judgement mention attempt suicide think process much different happen time part reason confuse</t>
+          <t>couple week ago overdose xanax lie around chase vodka put deep sleep take around hour completely recover friend find point since return call know struggle anyway reason really think happen since guess kind shook try think question intent behind plan kill remember think kill okay consider suicide attempt odd lapse judgement mention attempt suicide think process much different happen time part reason confuse</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -17498,7 +17494,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>bad situation group home unable handle say live can not leave parent sick nowhere go situation make absolutely miserable well one reacts ill probably homeless next week fcking shitshow</t>
+          <t>bad situation group home unable handle say live can not leave parent sick nowhere go situation make absolutely miserable well reacts ill probably homeless next week fcking shitshow</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -17515,7 +17511,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>lose everyone everything around reach one seem understand fight within head 2 child 8 yr old ache wonder would without always think okay parent dad someone go save demon can not seem battle anymore lose brother two year ago suicide wish instead everyone keep telling time heals wound one tell suppose right right can not sleep right can not eat right still hear voice sense presence even though know right seem cry know time wound heal even time world still know hurt right want walk away ready end last resort graduate college pay thousand dollar tell good enough can not make anyone love never enough attempted suicide young hid depression long think anyone realize far grid go 27 literally lose everything baby lose determination lose strive life give</t>
+          <t>lose everyone everything around reach seem understand fight within head child yrs old ache wonder would without always think okay parent dad someone go save demon can not seem battle anymore lose brother year ago suicide wish instead everyone keep telling time heals wound tell suppose right right can not sleep right can not eat right still hear voice sense presence even though know right seem cry know time wound heal even time world still know hurt right want walk away ready end last resort graduate college pay thousand dollar tell good enough can not make anyone love never enough attempted suicide young hid depression long think anyone realize far grid go literally lose everything baby lose determination lose strive life give</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -17549,7 +17545,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>go lie feel like fuck dumbass type fail life really want die embarrass explain people close would rather die proceed futile attempt life reddit unknown fuck reason guess need vent seem like best place sure one know look go 23 live parent basement amaze girl really deserve life quiet kid people scar school much pussy actually anything reason anyone would talk played football go school team elementary school middle school really fuck ugly acne terrible huge fucking nose confidence like 2 encounter girls time period hardcore nice guy 2 encounter enough everyone realize pretty fuck retarded people avoid high school peak peak really mean much time absolutely pathetic meet girl get really good shape pretty good football manage get fuck c throughout though got scholarship college high school parent amaze enough pay college 5000 fuck dollar semester average first semester fail calculus second semester second semester let father convince go school closer home electrical engineering first semester average next semester fail fucking chemistry lab semester fail chemistry lab switch computer engineering semester fail pdes pretty much every semester fail class learn material fuck lazy half homework usually homework grade suck test score good good enough keep fail every year parent keep tell go make move pay school keep give chance keep royal fuck chance honestly understand give many chance anyways year different last semester take 3 fucking class 9 credit hour fail three class worst ever do current semester retake 2 3 fail withdraw one probably get c get part time job fuck chili live home everything go worry expense amaze girlfriend family love yet can not fuck pas two fucking class failure honestly explanation get tell mother semester drop move therefore waisting 50000 money thing can not pass two fucking class fuck suppose live thing would girlfriend would make everything bad would drag instead move decide probably kill plan part 3006 room guarantee death scout place one able find corpse write goodbye letter honestly pathetic write one probably even leave one plan deposit money account girlfriend access get house quickly possible need etc know death negatively impact close almost positive parent get honestly father give think care much grandparent devastate get one worried girlfriend start new job right plan kill want ruin sure figure something time really want die still break heart leave everything behind family two amazing dog would die manage go girl way league 5 year get job relevant dream career grandparent aunt uncle seem like etc guess bring couple bottle try get heartbreak pull trigger anyways sorry start fuck pity party hurt say write anything die since do relatively good hiding depression everyone thank reading</t>
+          <t>go lie feel like fuck dumbass type fail life really want die embarrass explain people close would rather die proceed futile attempt life reddit unknown fuck reason guess need vent seem like best place sure know look go live parent basement amaze girl really deserve life quiet kid people scar school much pussy actually anything reason anyone would talk played football go school team elementary school middle school really fuck ugly acne terrible huge fucking nose confidence like encounter girls time period hardcore nice guy encounter enough everyone realize pretty fuck retarded people avoid high school peak peak really mean much time absolutely pathetic meet girl get really good shape pretty good football manage get fuck c throughout though got scholarship college high school parent amaze enough pay college fuck dollar semester average first semester fail calculus second semester second semester let father convince go school closer home electrical engineering first semester average next semester fail fucking chemistry lab semester fail chemistry lab switch computer engineering semester fail pdes pretty much every semester fail class learn material fuck lazy half homework usually homework grade suck test score good good enough keep fail every year parent keep tell go make move pay school keep give chance keep royal fuck chance honestly understand give many chance anyways year different last semester take fuck class credit hour fail class worst ever do current semester retake fail withdraw probably get c get part time job fuck chili live home everything go worry expense amaze girlfriend family love yet can not fuck pas fucking class failure honestly explanation get tell mother semester drop move therefore waisting money thing can not pass fuck class fuck suppose live thing would girlfriend would make everything bad would drag instead move decide probably kill plan part room guarantee death scouted place able find corpse write goodbye letter honestly pathetic write probably even leave plan deposit money account girlfriend access get house quickly possible need etc know death negatively impact close almost positive parent get honestly father give think care much grandparent devastate get worried girlfriend start new job right plan kill want ruin sure figure something time really want die still break heart leave everything behind family amazing dog would die manage go girl way league year get job relevant dream career grandparent aunt uncle seem like etc guess bring couple bottle try get heartbreak pull trigger anyways sorry start fuck pity party hurt say write anything die since do relatively good hiding depression everyone thank reading</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -17566,7 +17562,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>1 want run open field do someone cold hand warm smile choke death hear snap 2a dark room someone sit corner 3i want carve face reason</t>
+          <t>want run open field do someone cold hand warm smile choke death hear snap dark room someone sit corner want carve face reason</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -17583,7 +17579,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>hey 17yo living uk look advice therapycouncelling anyone could share real experience councelling negative thought session like 89 pretty brief person conduct unfortunately fell really ill go sick never really hear one session 1314 school counsellor say would check never want mess find reach really hard legitimately try accord first time without anyone elses input advice get therapy even manage get session somewhere</t>
+          <t>hey yo living uk look advice therapycouncelling anyone could share real experience councelling negative thought session like pretty brief person conduct unfortunately fell really ill go sick never really heard session school counsellor say would check never want mess find reach really hard legitimately try accord first time without anyone elses input advice get therapy even manage get session somewhere</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -17600,7 +17596,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>edge suicide can not deal pain anymore one fucking like always nice everythint feel dry fuck cry sorry</t>
+          <t>edge suicide can not deal pain anymore fucking like always nice everythint feel dry fuck cry sorry</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -17617,7 +17613,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>18 parent constantly tell disappointed life go failure every time iv ask stop say kind stuff say would say true absolutely one turn low iv ever</t>
+          <t>parent constantly tell disappointed life go failure every time iv ask stop say kind stuff say would say true absolutely turn low iv ever</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -17634,7 +17630,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>spent almost day hospital internet use public network write threw bed change sheet almost 3am geez can not something go right</t>
+          <t>spent almost day hospital internet use public network write threw bed change sheet almost geez can not something go right</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -17651,7 +17647,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>understand really feel like can not make progress day feel good well usual least others like today feel like can not literally anything almost never take nap climb bed nothing hour take two hour nap want awake day think get good make good habit get crutch get hit like goddamn bus negative thought nowhere back square one disheartening feel like try swim tar towards land mile mile away know people care feel like know friend people call need feel alone depression hardi hope get good eventuallyi need hang hope</t>
+          <t>understand really feel like can not make progress day feel good well usual least others like today feel like can not literally anything almost never take nap climb bed nothing hour take hour nap want awake day think get good make good habit get crutch get hit like goddamn bus negative thought nowhere back square dishearten feel like try swim tar towards land mile mile away know people care feel like know friend people call need feel alone depression hardi hope get good eventuallyi need hang hope</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -17685,7 +17681,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>0 friend get bad mark school garbage major never girlfriend terrible anxiety inhibits everything ball approach girl even ask question class final blow literally break work weekend keep 150 buck account put behind school tire everything tire everything alone one talk tire constant school work shitty parttime job work resent dad dislike step mom feel like try hard improve life go gym meditate cold shower get nowhere want try anymore want die life thank read</t>
+          <t>friend get bad mark school garbage major never girlfriend terrible anxiety inhibits everything ball approach girl even ask question class final blow literally break work weekend keep buck account put behind school tire everything tire everything alone talk tire constant school work shitty parttime job work resent dad dislike step mom feel like try hard improve life go gym meditate cold shower get nowhere want try anymore want die life thank read</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -17719,7 +17715,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>think suicide day visit 92yr old grandmother care home wish could wait die peaceful must know release suffer soon consider spiritual person heavily yoga meditation psychedelics learnt buddhist philosophy form beliefs death people find healing path transcendental experience felt like homecoming want return reality never felt home often feel like desperately want get body feel trapped always felt bear wrong bodylife also believe young age die suicide reckless accident unsuccessfully attempt age 25 near miss thing struggle believe kill soul return back source worry turn around put right back another life equal amount suffer mine soul evolve think escape unless evolve overcome struggle eat disorder 17yrs well bpd bipolar guess cycle samsara continual dukkhasuffering part human condition think make feel trap go way put idea suicide time feel like exhausted energy try overcome life exhaust battle ed feel completely hopeless perhaps reincarnation happen least could try overcome set struggle hop reincarnation thing souls return source come back bullshit</t>
+          <t>think suicide day visit yr old grandmother care home wish could wait die peaceful must know release suffer soon consider spiritual person heavily yoga meditation psychedelics learnt buddhist philosophy form beliefs death people find healing path transcendental experience felt like homecoming want return reality never felt home often feel like desperately want get body feel trapped always felt bear wrong bodylife also believe young age die suicide reckless accident unsuccessfully attempt age near miss thing struggle believe kill soul return back source worry turn around put right back another life equal amount suffer mine soul evolve think escape unless evolve overcome struggle eat disorder yrs well bpd bipolar guess cycle samsara continual dukkhasuffering part human condition think make feel trap go way put idea suicide time feel like exhausted energy try overcome life exhaust battle ed feel completely hopeless perhaps reincarnation happen least could try overcome set struggle hop reincarnation thing souls return source come back bullshit</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -17736,7 +17732,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>fell deep dark place 6 month ago make much progress thing hold together med make day bearable</t>
+          <t>fell deep dark place month ago make much progress thing hold together med make day bearable</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -17753,7 +17749,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>hello depression always secondary problem main antagonist severe harm ocd since relationship end 8 month ago stick horrific cycle absolutely loathe feel heavytired totally unmotivated anything like live 2 dimensional world nothing life jump catch attention like use use quite creative take nose dive work utterly awful amaze kicked project work freelance wake want dead quite honestly fact last week even find get bed monumental struggle almost tear weight everything get help therapist ssrilow dose anti psych take advice seriously term behavioural activation avoid stay bed start cycle do 20 mile today fact still feel utterly wretched everything lace horrible belief end suicide way pain go year ahead fill dread 30 harm ocd huge hatred anyway lately thing get heavy would like know anybody relate post first person advice psychiatrist therapists always feel removed reality anyway would like hear people know like help</t>
+          <t>hello depression always secondary problem main antagonist severe harm ocd since relationship end month ago stuck horrific cycle absolutely loathe feel heavytired totally unmotivated anything like live dimensional world nothing life jump catch attention like use use quite creative take nose dive work utterly awful amaze kicked project work freelance wake want dead quite honestly fact last week even find get bed monumental struggle almost tear weight everything get help therapist ssrilow dose anti psych take advice seriously term behavioural activation avoid stay bed start cycle do mile today fact still feel utterly wretched everything lace horrible belief end suicide way pain go year ahead fill dread harm ocd huge hatred anyway lately thing get heavy would like know anybody relate post first person advice psychiatrist therapists always feel removed reality anyway would like hear people know like help</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -17770,7 +17766,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>make small effort try fix self esteem hard feel impossible believe negative thought think ugly huge bore unfunny person put good front talk people even think anyone know much want stop living make suicide attempt night start think lonely one high school like much lot rumor would spread graduated keep many friend get though bore even daydream anymore live well mental state surround fun love people think stupid live inside head stop one thing would help fall asleep well used hopeless romantic convince one ever love crush anymore think relationship suck always put microscope find everything wrong alone can not even bring conservation mental health mom think attention subconsciously probably want anymore bear really depress would kill already know feel like think get good way almost 3 year unfortunate exist can not disappear people mind see eternal sunshine spotless mind know erase someone memory movie real would erase sister memory aunt feel pain kill</t>
+          <t>make small effort try fix self esteem hard feel impossible believe negative thought think ugly huge bore unfunny person put good front talk people even think anyone know much want stop living make suicide attempt night start think lonely high school like much lot rumor would spread graduated keep many friend get though bore even daydream anymore live well mental state surround fun love people think stupid live inside head stop thing would help fall asleep well used hopeless romantic convince ever love crush anymore think relationship suck always put microscope find everything wrong alone can not even bring conservation mental health mom think attention subconsciously probably want anymore bear really depress would kill already know feel like think get good way almost year unfortunate exist can not disappear people mind see eternal sunshine spotless mind know erase someone memory movie real would erase sister memory aunt feel pain kill</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -17787,7 +17783,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>suffer year november decide tell parent ask help could find therapist want help listen say lot right thing near end discussion sum stress school activity try fix problem agree search therapist though couple day later even tell find someone wait call back 4 month nothing ask say wait call back want help get progressively bad bad come place currently afraid could go home commit suicide need rant sorry fit sub rule scan</t>
+          <t>suffer year november decide tell parent ask help could find therapist want help listen say lot right thing near end discussion sum stress school activity try fix problem agree search therapist though couple day later even tell find someone wait call back month nothing ask say wait call back want help get progressively bad bad come place currently afraid could go home commit suicide need rant sorry fit sub rule scan</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -17804,7 +17800,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>plan kill tonight buy pill ready end feel empty hopeless worthless lately sick feeling like sister call start talk plan come home two week happy talk get spend 9 day can not would like week happy memory something want spring break take anything anything even know call want tell</t>
+          <t>plan kill tonight buy pill ready end feel empty hopeless worthless lately sick feeling like sister call start talk plan come home week happy talk get spend day can not would like week happy memory something want spring break take anything anything even know call want tell</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -17821,7 +17817,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>broke bf year half ago together 4 year throughout relationship often depress angry everything narcissistic extremely anxious would go phase eat etc try help much could encourage get help time see therapist never work cut relationship become much would blame carelessness would get annoy offer help way constantly negative often feel love without rant mental health issue stressful try tried help felt useless broke feel need block want friend really ever communication since broke texted suicidal hate everyone screams reason live etc tell since broke would kill take manipulation would text try help offering advice mentally draining time would try help would continue texting thing like go kill tell many time need professional help improve mental health nearly 30 barely hold job hat manager wherever work continuously drops school sit home hand money mom play ps4 day encourage find different job get offend tell slave full time job since enter new relationship someone love much ex randomly occasionally texts text probably every 1015 day say want kill panic reply try help tell current bf help ex understandably upset know need stop communication ex worry tell need stop talk actually kill tell close friend tell want accept help seek help kill least tried nothing could day work check phone ton miss texts say go kill reason live anymore text make panic terribly leave work start cry end call suicide prevention beyond unhelpful know need help 4 year hear talk depress never accept help breaking still hear text still try get see professional get help honestly burn mentally drain know else point besides tell last time need help due new relationship need stop talk wish best</t>
+          <t>broke bf year half ago together year throughout relationship often depress angry everything narcissistic extremely anxious would go phase eat etc try help much could encourage get help time see therapist never work cut relationship become much would blame carelessness would get annoy offer help way constantly negative often feel love without rant mental health issue stressful try tried help felt useless broke feel need block want friend really ever communication since broke texted suicidal hate everyone screams reason live etc tell since broke would kill take manipulation would text try help offering advice mentally draining time would try help would continue texting thing like go kill tell many time need professional help improve mental health nearly barely held job hat manager wherever work continuously drops school sit home hand money mom play ps day encourage find different job get offend tell slave full time job since enter new relationship someone love much ex randomly occasionally texts text probably every day say want kill panic reply try help tell current bf help ex understandably upset know need stop communication ex worry tell need stop talk actually kill tell close friend tell want accept help seek help kill least tried nothing could day work check phone ton miss texts say go kill reason live anymore text make panic terribly leave work start cry end call suicide prevention beyond unhelpful know need help year hear talk depress never accept help breaking still hear text still try get see professional get help honestly burn mentally drain know else point besides tell last time need help due new relationship need stop talk wish best</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -17838,7 +17834,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>life hard fail one classeschem really stress depression past year feel like kill good enough parent sibling amaze job great singing voice feel like one home depress hold parent feel like would easier go instead pain spread pain others</t>
+          <t>life hard fail classeschem really stress depression past year feel like kill good enough parent sibling amaze job great singing voice feel like home depress hold parent feel like would easier go instead pain spread pain others</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -17855,7 +17851,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>one reach stranger help something wrong felt empty long time always contribute lack motivation fill void speak temporary pleasure like woman sex work regularly win game distraction today wake sad even know usually able hold feeling back wake 3am morning go bed almost 1am absurdly hungry make egg start cry sat eat damn egg tear stream face even anything wrong sad yet feel low ever get good family plenty friend job adequate time reasonably good look knowledge never enough matter much improve physically matter much win dbfz matter many woman say hot end day still feel empty claim depress without even see doctor like seem like time happy relationship need constantly use girl crutch justify existence much well miserable even enjoy life anymore go motion know frustrates mean suicidal tired feeling tire every morning wake 3 4 hour sleep lay nothing feel useless undesirable go tinder maybe match two bore monotonous bios question like toxic best make conversation thoughtless close end response girls send annoy drop want feel content even sure remember know one ever felt way guysgirls fill hole guess</t>
+          <t>reach stranger help something wrong felt empty long time always contribute lack motivation fill void speak temporary pleasure like woman sex work regularly win game distraction today wake sad even know usually able hold feeling back wake morning go bed almost absurdly hungry make egg start cry sat eat damn egg tear stream face even anything wrong sad yet feel low ever get good family plenty friend job adequate time reasonably good look knowledge never enough matter much improve physically matter much win dbfz matter many woman say hot end day still feel empty claim depress without even see doctor like seem like time happy relationship need constantly use girl crutch justify existence much well miserable even enjoy life anymore go motion know frustrates mean suicidal tired feeling tire every morning wake hour sleep lay nothing feel useless undesirable go tinder maybe match bore monotonous bios question like toxic best make conversation thoughtless close end response girls send annoy drop want feel content even sure remember know ever felt way guysgirls fill hole guess</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -17872,7 +17868,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>turn 31 friday every year since maybe 12 13 felt way awhile want see friend party indulge last mere minute doom gloom set think really stick everyone off birthday feel like stay alive one feeling get hurt point drown self loathingi literally live pay bill make sure everyone happy longer financially mentally physically afford stay alive want write really really mean note make sure everyone stay mad glad dead want spill everyone secret turn everyone one another miss wrap embarrassed action unveil sad angry hate everythingexcept dog pathetic suck want</t>
+          <t>turn friday every year since maybe felt way awhile want see friend party indulge last mere minute doom gloom set think really stick everyone off birthday feel like stay alive one feeling get hurt point drown self loathingi literally live pay bill make sure everyone happy longer financially mentally physically afford stay alive want write really really mean note make sure everyone stay mad glad dead want spill everyone secret turn everyone another miss wrap embarrassed action unveil sad angry hate everythingexcept dog pathetic suck want</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -17889,7 +17885,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>put back antidepressant help anxiety depression also short term benzo nothing go right life moment take hurt anyway much possible control alone one actually want walk norm do always cut everyone deletedeactivate everything go work mask every day cry sleep every single night guess know actually get go work good thing last time let everything go deep back still sink right also two panic attack since long antidepressant begin work typically</t>
+          <t>put back antidepressant help anxiety depression also short term benzo nothing go right life moment take hurt anyway much possible control alone actually want walk norm do always cut everyone deletedeactivate everything go work mask every day cry sleep every single night guess know actually get go work good thing last time let everything go deep back still sink right also panic attack since long antidepressant begin work typically</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -17936,7 +17932,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>always tire concentration memory get bad get good take 20 mg lexapro seem work generic wellbutrin 150 mg exhaust even take medication wake unrefreshed every fucking day nightmare chronic headache backache well every day</t>
+          <t>always tire concentration memory get bad get good take mg lexapro seem work generic wellbutrin mg exhaust even take medication wake unrefreshed every fucking day nightmare chronic headache backache well every day</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -17987,7 +17983,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>always issue dissociation since start take med depression seem constant thing hate feel like even human anymore feel like robot everybody say see difference since start take feel well feel anything scary feeling depress emptiness drove start self harm year ago desperately want go back place feel like medication push backwards know take many attempt find right medication try three different one far every one make feel like drive insane want able feel like normal human instead choice miserable empty make feel like would better dead exactly help</t>
+          <t>always issue dissociation since start take med depression seem constant thing hate feel like even human anymore feel like robot everybody say see difference since start take feel well feel anything scary feeling depress emptiness drove start self harm year ago desperately want go back place feel like medication push backwards know take many attempt find right medication try different one far every make feel like drive insane want able feel like normal human instead choice miserable empty make feel like would better dead exactly help</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -18038,7 +18034,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>ever think suicide take revenge people ruin life deciet lie unborn kill themthey take futurethey take ten year base complete lie gunpoint deserve</t>
+          <t>ever think suicide take revenge people ruin life deciet lie unborn kill themthey take futurethey take year base complete lie gunpoint deserve</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -18055,7 +18051,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>everyone hat first sight give fck need sometimes could use fuck sometimes sometimes fuck need give fck feeling care get rid even though know wtf wrong always ignore like bad pile shit acutally almost one remembers fuck birthday facebook birthday reminder can not even get therapist whatever plz tell easy painless way</t>
+          <t>everyone hat first sight give fck need sometimes could use fuck sometimes sometimes fuck need give fck feeling care get rid even though know wtf wrong always ignore like bad pile shit acutally almost remembers fuck birthday facebook birthday reminder can not even get therapist whatever plz tell easy painless way</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -18067,12 +18063,12 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>feel like might end hurt someone one day</t>
+          <t>feel like might end hurt someone day</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>want put fbi watch list anything depression get bad iv get angry one talk add anger en bottle feel like one day may physically hurt someone want believe feel like may happen due lack communication feeling</t>
+          <t>want put fbi watch list anything depression get bad iv get angry talk add anger en bottle feel like day may physically hurt someone want believe feel like may happen due lack communication feeling</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -18106,7 +18102,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>lot live get promotion work 6 month really enjoy think soon get another guy date last 3 year love support way family finally want start relationship meso still think suicide time</t>
+          <t>lot live get promotion work month really enjoy think soon get another guy date last year love support way family finally want start relationship meso still think suicide time</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -18140,7 +18136,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>hurt much can not happy without empty void heart get big everyday wait eats since never 2 side love</t>
+          <t>hurt much can not happy without empty void heart get big everyday wait eats since never side love</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -18157,7 +18153,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>fell kind sad lately sure sub right one help sorry english dumb make mistake friend secretly want leave alone say without hard enough life kind fall apart need advice keep go please help</t>
+          <t>fell kind sad lately sure sub right help sorry english dumb make mistake friend secretly want leave alone say without hard enough life kind fall apart need advice keep go please help</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -18191,7 +18187,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>fuck stupid manage fuck everything date girl break problematic fuck pretend even exist anymore stupid cunt think one day feel fine love haha really want anything anymore parent hate friend run away lovely really appreciate want go place everyone hat even bother tell go next one suicide fuck school deserve possessive narcissist cunt maybe accept thing kill</t>
+          <t>fuck stupid manage fuck everything date girl break problematic fuck pretend even exist anymore stupid cunt think day feel fine love haha really want anything anymore parent hate friend run away lovely really appreciate want go place everyone hat even bother tell go next suicide fuck school deserve possessive narcissist cunt maybe accept thing kill</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -18225,7 +18221,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>scar lose hate feel like week come day two go back</t>
+          <t>scar lose hate feel like week come day go back</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -18237,12 +18233,12 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>feel depress eat 1 meal day</t>
+          <t>feel depress eating meal day</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>begin lose control eat august due job stress lose control everything life one thing could therapist iswas aware know go gym lot think improve get hungry literally ignore itcome home eat around 7pm enough maybe chicken lose weight try break cycle downward spiral</t>
+          <t>begin lose control eat august due job stress lose control everything life thing could therapist iswas aware know go gym lot think improve get hungry literally ignore itcome home eat around pm enough maybe chicken lose weight try break cycle downward spiral</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -18259,7 +18255,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>know post like go anything whatever go pretty wordy fella fight long fight everythings shit everythings shit since like 11 day least 56 year suicide cross mind manage stay pretty functional less can not anything used bad day use long time bad day maximum 17 hour bed get piss something different bad day 31 hour bed food water go online talk anyone sulk everythings go shit family big sort therapymental illness sort talk last year august break start therapy know slack decide change mood least change behavior help cut december shit break resort med always med know maybe add perspective felt like med equivalent give personality become mass pretentious know whatever med shit many appointment psychiatrist change med dosage nothing work long decided go outpatient program february thing really bad start disassociate intensely can not feel body move can not control motion one terrify thing ever experience go application process get accepted outpatient care finally go get thorough help confidentiality break relationship irreparable go need day start find insurance cover fucking tired poor tire fuck humiliate able take care can not afford grow everyone thought go kid escape shit break cycle actually make something content smart bilingual inventive passionate learn best fight circumstance really think chance escape cycle poverty come back bite matter grade suffer computer internet lose apartment whatever crisis might time grade shit like 1 something gpa can not get scholarship totally fuck honest sure would even graduate high school financial drain guardian mom buy food dad try lose kid grandma raise force live dad pay house can not afford knew could leech can not work already fail class suppose fix bad part aware situation can not afford healthy can not afford educate can not afford happy fuck try paint victim dumb as capitalist society come matter play game matter hard try well can not pay keep go 10 year go deadbeat work three job toxic relationship like every adult life can not life can not pay kill like max 7000 funeral thousand family probably would spend much anyway hell get rid body even deal food expense school expense health expense sell shit rent room care fuck dead need shit can not keep every time turn corner new crisis dealt can not keep something get change thing leave try kill</t>
+          <t>know post like go anything whatever go pretty wordy fella fight long fight everythings shit everythings shit since like day least year suicide cross mind manage stay pretty functional less can not anything used bad day use long time bad day maximum hour bed get piss something different bad day hour bed food water go online talk anyone sulk everythings go shit family big sort therapymental illness sort talk last year august break start therapy know slack decide change mood least change behavior help cut december shit break resort med always med know maybe add perspective felt like med equivalent give personality become mass pretentious know whatever med shit many appointment psychiatrist change med dosage nothing work long decided go outpatient program february thing really bad start disassociate intensely can not feel body move can not control motion terrify thing ever experience go application process get accepted outpatient care finally go get thorough help confidentiality break relationship irreparable go need day start find insurance cover fucking tired poor tire fuck humiliate able take care can not afford grow everyone thought go kid escape shit break cycle actually make something content smart bilingual inventive passionate learn best fight circumstance really think chance escape cycle poverty come back bite matter grade suffer computer internet lose apartment whatever crisis might time grade shit like something gpa can not get scholarship totally fuck honest sure would even graduate high school financial drain guardian mom buy food dad try lose kid grandma raise force live dad pay house can not afford knew could leech can not work already fail class suppose fix bad part aware situation can not afford healthy can not afford educate can not afford happy fuck try paint victim dumb as capitalist society come matter play game matter hard try well can not pay keep go year go deadbeat work job toxic relationship like every adult life can not life can not pay kill like max funeral family probably would spend much anyway hell get rid body even deal food expense school expense health expense sell shit rent room care fuck dead need shit can not keep every time turn corner new crisis dealt can not keep something get change thing leave try kill</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -18293,7 +18289,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>food use love taste like nothing anymore almost feel like eat plastic food one joy life enjoyment go</t>
+          <t>food use love taste like nothing anymore almost feel like eat plastic food joy life enjoyment go</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -18305,12 +18301,12 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>improve one take seriously</t>
+          <t>improve take seriously</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>18 want commit suicide brave enough want tell parent friend say acting weird plus go class month parent know yet dad decides say like videogames yesterday smash phone piece call blame lose want cry share shit someone close person exist</t>
+          <t>want commit suicide brave enough want tell parent friend say acting weird plus go class month parent know yet dad decides say like videogames yesterday smash phone piece call blame lose want cry share shit someone close person exist</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -18327,7 +18323,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>go long time schedule therapist appointment medication wait pharmacy fuck dip routine three four time know muster drive get shitty hole guy manage</t>
+          <t>go long time schedule therapist appointment medication wait pharmacy fuck dip routine time know muster drive get shitty hole guy manage</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -18361,7 +18357,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>16 constantly deny help know need since 12 tire go anymore anxious leave house drop want quit know would selfish whenever feel suicidal always think bird dog cat every morning puppy greets wake would happen one day come room feel helpless stuck cycle want fuck kill realize can not even become real adult yet think lack skill nothing offer anyone mad time everything result burn anger inside want stop</t>
+          <t>constantly deny help know need since tire go anymore anxious leave house drop want quit know would selfish whenever feel suicidal always think bird dog cat every morning puppy greets wake would happen day come room feel helpless stuck cycle want fuck kill realize can not even become real adult yet think lack skill nothing offer anyone mad time everything result burn anger inside want stop</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -18395,7 +18391,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>warn long sure purpose really want put world maybe get advice maybe someone read realize alone started write many time lose motivation half way yet another attempt let u see happen 30 year old woman work photographer fashion company degree graphic design volunteer cat rescue 2 day week suffer depression socialgeneral anxiety disorder first realize teen angst phase sometime early 20 teenager would normal thing drink drug smoke weed would also write lot write hindsight deepest cry help since lose precious notebook come upon snippet poetry sketchbook stuff anything ordinary grow listen emo heart wrench music style really lyric try artistically describe dark cloud inside every minute every day lose interest activity around age 20 always shy person play friend school never allow anyone go anyones house result always find yard skip rope alone parent bring canada 9 year old order expand option education bear russia much choice time anything life engineering medicine teach aspect thank able attend art school toronto attain graphic design degree anxious artistic brain appreciates arrive canada speak much english esl program first year 4th grade bully speaking language girl quickly realize would fun put rock little pebble playground pant carpet time kid gather around cross legged floor front teacher lesson know would say anything partly could physically partly could mentally kid would kick chair constantly walk someone even throw thing back brush go two great friend one still life albeit close childish bullying subside first year go another school grade 5 move building parent 6th grade split yet another school move elementary middle school half way 6th grade establish quite solid group new friend transfer new school yet another move parent start friend thing luckily befriend girl right away also outcast extremely tiny skinny age also fit cool popular kid laugh look upon new 1 friend extremely shy become close another girl let u call jessica 7th grade go bearably around outside minor incident like basketball throw head recess also develop extremely bad acne doom ugly shy girl next year end 8th grade real trouble start jessica cooler kid grade attach get hang group occasionally start relationship two boy let u call andrew let u call mike would hang school lot one day bring house mike take parent cellar one point thought would first kiss hand force onto penis know retaliate go instead first kiss give first hand job next time hung movie bring bathroom thought make session turn attempt blow job can not remember whether go remember cry even soon find andrew mike bet go would get dick suck first jessica agree bring group could use bet thing bleed high school rumour start slut reinforce photo distribute throughout school photo wear see mesh pant provocative pose jessica take room one night fun fashion night wear although somehow photo never get distribute finally new girl come school let u call beth finally thing seem calm great friendship go inseparable high school point people call u lesbian even attend wed two year ago beautiful human try best normal life throw art would come school 7 morning spend time photography dark room lab get great mark class teacher love course throughout time regular teenage girl stuff like boy would make already well trained hand job department guy learn hand friend do make happy mind make good thing felt excelled course none behaviour help grow rumour first try drug 10th grade beth would skip school pop ecstasy spend day together go year 11th grade mark drastically plummet sure trigger factor stop manage graduate high school honour roll end 12th grade meet let u call sam date 2 year lose virginity always remember doubt intention stay sex want around would smoke weed matter lose romantic interest year stay together despite u fight comfortable habit want could break get top school choice spend first year work hard break sam meet let u call dale interesting first would show work almost daily chat finally start go real date bring gift shower attention realize borderline stalker behaviour would take answer even really feel like anything thing dale kind ordeal never fully together would hang often usually drink go drive start get really put one night insist hang well know trouble say go bar get buzz go go drive know shameful drink drive know first hand almost kill friend drunk drive episode do since never car completely insistent non sexual meet would stop try kiss push hand crotch push head ask suck little make shut could go home seem since refuse talk eventually block day try make attempt communication nothing dangerous truly destructive behaviour start around 22 begin frequent party first drink lot meet 28 year old man let u call izack dj much rave party scene try coke first time age 23 24 let u call rest blur would party twice week heavily drug go school completely hang long story short manage graduate scrap warn letter pass mark give probably kindness professor heart love izack old experience best sex ever make forget everything everyone live downtown apartment two roommate also love party get along quite well sanctuary apartment heavenly would able spend time away strict russian parent izack start go road lot due dj career flourish away would come place clean everything buy huge new tv room want come home beautiful place mind say thank let stay rent free many day week year relationship go gynaecologist check follow phone call say std tell get partner office could give medication nothing overly serious clear pill serious conversation izack swore life never cheat beg believe hour upon hour cry plead finally never get nag feel something right month uncertainty phone birthday remember day clearly ask one time sure make tell truth time around yes course sleep someone tour yes contract std complete utter wreck next month drug alcohol increase go tinder begin first sex binge one point manage sleep 6 different men one week want forget hurt know blurry can not say exact moment izack come back life remember go bar meet get closure finally say forgive move meeting end apartment sex get back together continue destructive behaviour next tour slept someone let one go easily since never state officially couple think learn numb brain hurt mad anymore quietly walk away threw second huge sex binge tinder month meet guy let u call jon date something close year relationship also fuel alcohol drug party point want another life relationship involve cry almost every day work something abusive may say day example love make feel like idiot ask take hour answer text massage tell crazy almost daily basis fast forward end girl friend reach say also date jon 6 month spot u party kiss lose mind apparently knowledge long together turns one come knowledge slept 8 different people span include upstairs neighbour constantly tell worry laugh cry feel angry laugh pulled phone next tinder binge go take 6 month get next relationship one kind man would never thing hurt lasted 2 year meet parent meet mine talk marriage move together end fall apart search apartment right 30 year old living back parent since stop party life satisfy anymore body can not handle coke free year mainly can not afford drink drink several time week can not stand job drink feel trap mind drink live situation drink nothing excites drink 3 time week crack bottle wine way stop bottle get drunk last drop often second one get open last half way pass job thing realize one help take lot photo edit effort update portfolio sit edit photo sober option go work laugh coworkers end day thing make happy take forward next drink start exercise continue pretty consistently always fall boat can not stay excited motivate last night come home collection wine bottle display front dad mom discover first bottle closet could find cat say proceed go every crevice room pull 20 hidden long story short life drink work photo edit hour terrify feel like nothing happy come home spend last night cry today first day show work thing know want stop thought suicide since early teenage year never go away cut numerous occasion dabble idea overdose anxiety depression medication go therapy month turn way pricey minimal salary dad offer pay therapy last night offer sure want take want time thing okay brain sleep heavily buzz child boyfriend maybe 2 friend find difficult see purpose go would like finish say awful feel put amount time word use upset selfish since know people way worse like parent point numerous time nothing sad good job warm house food water car dad kindly give buy new one right good inside dark cloud lift way describe word someone felt pull thank bottom heart anyone read fully attempt read even glance scared reason thing think morning writing</t>
+          <t>warn long sure purpose really want put world maybe get advice maybe someone read realize alone started write many time lose motivation half way yet another attempt let u see happens year old woman work photographer fashion company degree graphic design volunteer cat rescue day week suffer depression socialgeneral anxiety disorder first realize teen angst phase sometime early teenager would normal thing drink drug smoke weed would also write lot write hindsight deepest cry help since lose precious notebook come upon snippet poetry sketchbook stuff anything ordinary grow listen emo heart wrench music style really lyric try artistically describe dark cloud inside every minute every day lose interest activity around age always shy person play friend school never allow anyone go anyones house result always find yard skip rope alone parent bring canada year old order expand option education bear russia much choice time anything life engineering medicine teach aspect thank able attend art school toronto attain graphic design degree anxious artistic brain appreciates arrive canada speak much english esl program first year th grade bully speaking language girl quickly realize would fun put rock little pebble playground pant carpet time kid gather around cross legged floor front teacher lesson know would say anything partly could physically partly could mentally kid would kick chair constantly walk someone even throw thing back brush go great friend still life albeit close childish bullying subside first year go another school grade move building parent th grade split yet another school move elementary middle school half way th grade establish quite solid group new friend transfer new school yet another move parent start friend thing luckily befriend girl right away also outcast extremely tiny skinny age also fit cool popular kid laugh look upon new friend extremely shy become close another girl let u call jessica th grade go bearably around outside minor incident like basketball throw head recess also develop extremely bad acne doom ugly shy girl next year end th grade real trouble start jessica cooler kid grade attach get hang group occasionally start relationship boy let u call andrew let u call mike would hang school lot day bring house mike take parent cellar point thought would first kiss hand force onto penis know retaliate go instead first kiss give first hand job next time hung movie bring bathroom thought make session turn attempt blow job can not remember whether go remember cry even soon find andrew mike bet go would get dick suck first jessica agree bring group could use bet thing bleed high school rumour start slut reinforce photo distribute throughout school photo wear see mesh pant provocative pose jessica take room night fun fashion night wear although somehow photo never get distribute finally new girl come school let u call beth finally thing seem calm great friendship go inseparable high school point people call u lesbian even attend wed year ago beautiful human try best normal life throw art would come school morning spend time photography dark room lab get great mark class teacher love course throughout time regular teenage girl stuff like boy would make already well trained hand job department guy learn hand friend do make happy mind make good thing felt excelled course none behaviour help grow rumour first try drug th grade beth would skip school pop ecstasy spend day together go year th grade mark drastically plummet sure trigger factor stop manage graduate high school honour roll end th grade meet let u call sam dated year lose virginity always remember doubt intention stay sex want around would smoke weed matter lose romantic interest year stay together despite u fight comfortable habit want could break get top school choice spend first year work hard break sam meet let u call dale interesting first would show work almost daily chat finally start go real date bring gift shower attention realize borderline stalker behaviour would take answer even really feel like anything thing dale kind ordeal never fully together would hang often usually drink go drive start get really put night insist hang well know trouble say go bar get buzz go go drive know shameful drink drive know first hand almost kill friend drunk drive episode do since never car completely insistent non sexual meet would stop try kiss push hand crotch push head ask suck little make shut could go home seem since refuse talk eventually block day try make attempt communication nothing dangerous truly destructive behaviour start around begin frequent party first drink lot meet year old man let u call izack dj much rave party scene try coke first time age let u call rest blur would party twice week heavily drug go school completely hang long story short manage graduate scrap warn letter pass mark give probably kindness professor heart love izack old experience best sex ever make forget everything everyone live downtown apartment roommate also love party get along quite well sanctuary apartment heavenly would able spend time away strict russian parent izack start go road lot due dj career flourish away would come place clean everything buy huge new tv room want come home beautiful place mind say thank let stay rent free many day week year relationship go gynaecologist check follow phone call say std tell get partner office could give medication nothing overly serious clear pill serious conversation izack swore life never cheat beg believe hour upon hour cry plead finally never get nag feel something right month uncertainty phone birthday remember day clearly ask time sure make tell truth time around yes course sleep someone tour yes contract std complete utter wreck next month drug alcohol increase go tinder begin first sex binge point manage sleep different men week want forget hurt know blurry can not say exact moment izack come back life remember go bar meet get closure finally say forgive move meeting end apartment sex get back together continue destructive behaviour next tour slept someone let go easily since never state officially couple think learn numb brain hurt mad anymore quietly walk away threw second huge sex binge tinder month meet guy let u call jon date something close year relationship also fuel alcohol drug party point want another life relationship involve cry almost every day work something abusive may say day example love make feel like idiot ask take hour answer text massage tell crazy almost daily basis fast forward end girl friend reach say also date jon month spot u party kiss lose mind apparently knowledge long together turns one come knowledge slept different people span include upstairs neighbour constantly tell worry laugh cry feel angry laugh pulled phone next tinder binge go take month get next relationship kind man would never thing hurt lasted year meet parent meet mine talk marriage move together end fall apart search apartment right year old living back parent since stop party life satisfy anymore body can not handle coke free year mainly can not afford drink drink several time week can not stand job drink feel trap mind drink live situation drink nothing excite drink time week crack bottle wine way stop bottle get drunk last drop often second get open last half way pass job thing realize help take lot photo edit effort update portfolio sit edit photo sober option go work laugh coworkers end day thing make happy take forward next drink start exercise continue pretty consistently always fall boat can not stay excited motivate last night come home collection wine bottle display front dad mom discover first bottle closet could find cat say proceed go every crevice room pull hidden long story short life drink work photo edit hour terrify feel like nothing happy come home spend last night cry today first day show work thing know want stop thought suicide since early teenage year never go away cut numerous occasion dabble idea overdose anxiety depression medication go therapy month turn way pricey minimal salary dad offer pay therapy last night offer sure want take want time thing okay brain sleep heavily buzz child boyfriend maybe friend find difficult see purpose go would like finish say awful feel put amount time word use upset selfish since know people way worse like parent point numerous time nothing sad good job warm house food water car dad kindly give buy new right good inside dark cloud lift way describe word someone felt pull thank bottom heart anyone read fully attempt read even glance scared reason thing think morning writing</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -18407,7 +18403,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>march 20th go day</t>
+          <t>march th go day</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
@@ -18429,7 +18425,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>early 30 transgender mtf life ruin friend mean figuratively mean literal sense nobody care use decent life bad decision mistake never take drug addict anything matter trust wrong people include parent four year ago move back home sick mother fuck die year later become stuck middle nowhere transportation survive generosity religious family live alone small mobile home family property unable guest unable find work transportation reason severe depression social anxiety mild ocd able hormone past 4 year please forgive ramble nature post typing come head future viable possibility get start life live mobile home infest bed bug slept floor four year without even change sheet blanket laundry detergent four year wash underwear bathtub heater mess winter freeze one blanket one sheet pillow get infested bed bug eat past three year potatoes macaroni cheese balogne sandwich able even leave house 3 year last time mom funeral can not even shave face legs razers shave cream anything three year face wash bottle shampoo three year four bar soap past three year kitchen sink work wash one plastic bowl bathroom sink speak anyone essentially already dead although doubt get 2000 calorie day type food eat make gain least 30 pound none clothes fit one pair stretchy pajama pant two tshirts fit could worse could homeless keep inside long tired life really already exhaust month internet fairly certain nothing music etc go insane make peace fate guess last month life remember happiness can not even think anything could change life point even dream point go point feel like failure feel sad hurt find one mom journal recently mention rap father kid energy surround stick isolated treat like animal basically die nobody would care probably even notice can not think anything else say need get chest thank</t>
+          <t>early transgender mtf life ruin friend mean figuratively mean literal sense nobody care use decent life bad decision mistake never take drug addict anything matter trust wrong people include parent year ago move back home sick mother fuck die year later become stuck middle nowhere transportation survive generosity religious family live alone small mobile home family property unable guest unable find work transportation reason severe depression social anxiety mild ocd able hormone past year please forgive rambling nature post typing come head future viable possibility get start life live mobile home infest bed bug slept floor year without even change sheet blanket laundry detergent year wash underwear bathtub heater mess winter freeze blanket sheet pillow get infested bed bug eat past year potatoes macaroni cheese balogne sandwich able even leave house year last time mom funeral can not even shave face legs razers shave cream anything year face wash bottle shampoo year bar soap past year kitchen sink work wash plastic bowl bathroom sink speak anyone essentially already dead although doubt get calorie day type food eat make gain least pound none clothe fit pair stretchy pajama pant tshirts fit could worse could homeless keep inside long tired life really already exhaust month internet fairly certain nothing music etc go insane make peace fate guess last month life remember happiness can not even think anything could change life point even dream point go point feel like failure feel sad hurt find mom journal recently mention rap father kid energy surround stick isolated treat like animal basically die nobody would care probably even notice can not think anything else say need get chest thank</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -18446,7 +18442,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>let start say hate best friend sometimes time basic reason perfect feel like waste piece shit see 16 sophomore high school meet last year freshman never friends immediately accepted 13 met start kindergarten early skip grade two year older nothing compare get straight take ap honor class make varsity softball freshman age 7th grader get lead role theatre show perfect life best home life try tell can not sleep need med reason tell oh everyone feel sad sometimes need stupid pill tell anxiety adhd pill like everyone form adhd see everyone can not pay attention pill anything reluctant end friendship friend also mom get really close family can not end friendship beacuse would awkward feel like toxic though know maybe good enough feel like shit</t>
+          <t>let start say hate best friend sometimes time basic reason perfect feel like waste piece shit see sophomore high school meet last year freshman never friends immediately accept met start kindergarten early skip grade year older nothing compare get straight take ap honor class make varsity softball freshman age th grader get lead role theatre show perfect life best home life try tell can not sleep need med reason tell oh everyone feel sad sometimes need stupid pill tell anxiety adhd pill like everyone form adhd see everyone can not pay attention pill anything reluctant end friendship friend also mom get really close family can not end friendship beacuse would awkward feel like toxic though know maybe good enough feel like shit</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -18463,7 +18459,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>trans girl 17 year old sit as do practically nothing past 2 year get withdrawn 15 school due mom worry would get bullied trans try homeschooling fell always say true dropout plan get college point right even know possible body worthless 6 foot tall 130 lb nobody want date skeleton maybe something wrong get skinny people one bony point concern can not get anyone would attract yet somehow boyfriend jawline brow ridge make look like fuck neanderthal yet tell would pass fine estrogen nice know crush suicidal feeling ever tell can not pass simply want get push edge end nice gotten job even gotten license do anything school relate much either sit as play video game watch youtube anime listen music hobby think get as get life back track lack motivation weigh like anvil tie ankle feel need joke one mediocre punchline somebody respectable would do something emotionally abuse stepfather year get really can not use reason excuse could job license college right can not lack motivation want license say male dead name want discriminate humiliated public workplace trans maybe lazy pussy could get somewhere nah laziness lack motivation fear 6 month recover fair enough year maybe serious 2 year sigh one word anyone describe would failure sorry let everyone sorry disappoint</t>
+          <t>trans girl year old sit as do practically nothing past year get withdrawn school due mom worry would get bullied trans try homeschooling fell always say true dropout plan get college point right even know possible body worthless foot tall lbs nobody want date skeleton maybe something wrong get skinny people one bony point concern can not get anyone would attract yet somehow boyfriend jawline brow ridge make look like fuck neanderthal yet tell would pass fine estrogen nice know crush suicidal feeling ever tell can not pass simply want get push edge end nice gotten job even gotten license do anything school relate much either sit as play video game watch youtube anime listen music hobby think get as get life back track lack motivation weigh like anvil tie ankle feel need joke mediocre punchline somebody respectable would do something emotionally abuse stepfather year get really can not use reason excuse could job license college right can not lack motivation want license say male dead name want discriminate humiliated public workplace trans maybe lazy pussy could get somewhere nah laziness lack motivation fear month recover fair enough year maybe serious year sigh word anyone describe would failure sorry let everyone sorry disappoint</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -18480,7 +18476,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>hey everyone weird reddit board exist hey 31 year old generally lot go paper good job partner lot friends supportive family health etc job one caveat know context purpose accountant one almost decade kid study butt school expectation would pay form good job success etc also one people think good others deep really everybody special unique way anyways get feel put lot bad energy culminate one big disaster past month disaster realization skill say paper actually real life somehow miraculously get past 10 year know past month sleep barely get anything do work overall feel like end near suicide ideation since 15 couple worry death general anyways sure expect get post wanted share situation want live deep many uncertainty realization scare live shit</t>
+          <t>hey everyone weird reddit board exist hey year old generally lot go paper good job partner lot friends supportive family health etc job caveat know context purpose accountant almost decade kid study butt school expectation would pay form good job success etc also people think good others deep really everybody special unique way anyways get feel put lot bad energy culminate big disaster past month disaster realization skill say paper actually real life somehow miraculously get past year know past month sleep barely get anything do work overall feel like end near suicide ideation since couple worry death general anyways sure expect get post wanted share situation want live deep many uncertainty realization scare live shit</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -18509,7 +18505,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>want share shit one care</t>
+          <t>want share shit care</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
@@ -18548,7 +18544,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>want die simple want anymore life fuck shit show since 5 people life help person give fucking shirt back anyone life would right practically wait nonverbal 3 year old autism finally say love check thing living tell people call selfish people love think kid never visit grave would take die people start show love honestly kid well without deserve fuck mom bury want cremate thrown away really need visitor want die ready fuck ready</t>
+          <t>want die simple want anymore life fuck shit show since people life help person give fucking shirt back anyone life would right practically wait nonverbal year old autism finally say love check thing living tell people call selfish people love think kid never visit grave would take die people start show love honestly kid well without deserve fuck mom bury want cremate thrown away really need visitor want die ready fuck ready</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -18565,7 +18561,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>dear reddit hello everyone 16 year old female feeling well right get thought suicidal feel come back occasionally right eat beautiful mother laugh dad say mother wonderful cook break last night finish review study class study hard test today felt good right eat type day think would bad okay turn bad relationship love boy much happy since year ago sophomore high school way trust boyfriend much always today however felt something wrong really speak okay probably overthinking want nothing pure happiness whether find someone else always help others always smile face always want nothing happiness everyone want happiness everyone else want feel good appreciate atleast someone something always support anything never judge kind everyone appreciate everything give month feel usual suicide thought come often year since like try hang move whether see happy moment time love view others sure feel felt pressured mother verbally hate try hard school fail point go fail anyways always do best everything always try stay happy look positive way can not anymore always think end would anyone really miss think imagine parent would really make difference go hell religiously talk love god sorry feel like lose faith see anymore every night pray good day see parent friends stay safe want die want attempt afraid fail would family ashamed think daily feel like reason love need company can not find light can not happy support good bad matter matter past dad work really hard every single night family friend need support friend family dog always listen felt alone knowing would understand know upset let u cry anyone else know feel like tonight could want wonder would even matter</t>
+          <t>dear reddit hello everyone year old female feeling well right get thought suicidal feel come back occasionally right eat beautiful mother laugh dad say mother wonderful cook break last night finish review study class study hard test today felt good right eat type day think would bad okay turn bad relationship love boy much happy since year ago sophomore high school way trust boyfriend much always today however felt something wrong really speak okay probably overthinking want nothing pure happiness whether find someone else always help others always smile face always want nothing happiness everyone want happiness everyone else want feel good appreciate atleast someone something always support anything never judge kind everyone appreciate everything give month feel usual suicide thought come often year since like try hang move whether see happy moment time love view others sure feel felt pressured mother verbally hate try hard school fail point go fail anyways always do best everything always try stay happy look positive way can not anymore always think end would anyone really miss think imagine parent would really make difference go hell religiously talk love god sorry feel like lose faith see anymore every night pray good day see parent friends stay safe want die want attempt afraid fail would family ashamed think daily feel like reason love need company can not find light can not happy support good bad matter matter past dad work really hard every single night family friend need support friend family dog always listen felt alone knowing would understand know upset let u cry anyone else know feel like tonight could want wonder would even matter</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -18582,7 +18578,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>hello use throwaway account frequent sub main account anyway need advice can not trust girlfriend depress u deal anxiety depression seem get depressed get wrong fault always best understand walk hard time one another however last two time depress end push away need month ago get upset walk angrily accuse show enough attention relationship family member pas week think finally get apologize told depress say wish could better tell depressed walk away angry slam door behind person love turn back need go walk message ask come back cry much felt bad felt terrible listen first time something like happen though depressed push away besides girlfriend incredibly love thoughtful creative relationship sacrifice much u hurt fuck bad reddit experience something similar turn depress talk fixed tldr love girlfriend push away depress know go feel like</t>
+          <t>hello use throwaway account frequent sub main account anyway need advice can not trust girlfriend depress u deal anxiety depression seem get depressed get wrong fault always best understand walk hard time another however last time depress end push away need month ago get upset walk angrily accuse show enough attention relationship family member pas week think finally get apologize told depress say wish could better tell depressed walk away angry slam door behind person love turn back need go walk message ask come back cry much felt bad felt terrible listen first time something like happen though depressed push away besides girlfriend incredibly love thoughtful creative relationship sacrifice much u hurt fuck bad reddit experience something similar turn depress talk fixed tldr love girlfriend push away depress know go feel like</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -18633,7 +18629,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>httpswwwbustlecomp7subtlesignsyou aresufferingfromchildhoodrejectionasadult13197726</t>
+          <t>httpswwwbustlecompsubtlesignsyou aresufferingfromchildhoodrejectionasadult</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -18650,7 +18646,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>30yr male live alone unemployed break alone thing get go dream become filmmaker dream start fall apart filmmaking literally thing shape today videography edit stuff almost 10 year beside passion project also earn live edit produce video small business overtime learn alot entertainment industry never part instead freelance work dream make feature film know lack study research much could independent film unfortunately country indie scene basically non existent decide fund film nobody want finance stranger like early year think year year finally make sell car use save fund film project hope one get people attention slowly develop project meet several industry folk intention gain knowledge get support instead get dismissed laugh project fool even dream make film budget importantly nobody treat nonchalantly hate say agree point give aware even make film chance actually help career slim love would love make living money tight think give thing passionate life kill today lay hopelessly type crap phone lose passion motivation keep go tired see people spent day home alone embarrassed friend family especially mom nothing supportive contemplating let go dream look new job 30yr</t>
+          <t>yr male live alone unemployed break alone thing get go dream become filmmaker dream start fall apart filmmaking literally thing shape today videography edit stuff almost year beside passion project also earn live edit produce video small business overtime learn alot entertainment industry never part instead freelance work dream make feature film know lack study research much could independent film unfortunately country indie scene basically non existent decide fund film nobody want finance stranger like early year think year year finally make sell car use save fund film project hope get people attention slowly develop project meet several industry folk intention gain knowledge get support instead get dismissed laugh project fool even dream make film budget importantly nobody treat nonchalantly hate say agree point give aware even make film chance actually help career slim love would love make living money tight think give thing passionate life kill today lay hopelessly type crap phone lose passion motivation keep go tired see people spent day home alone embarrassed friend family especially mom nothing supportive contemplating let go dream look new job yr</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -18701,7 +18697,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>post lot recently well bother friend feel bad probably seem like search kind attention depress do everything else turn use text crisis hotlines never help anymore trained recite thing aggravate conversation really feel like feeling really validate everyone go thing know much next person world cruel yet charm place fill mixture amaze people people could give two shit others hate complicate world hate good thing people never seem lessen bad thing turn cynical person time go find hard hard see good world past amazing friend unconditional love animal provide someone kill beloved dog though everything feel bleak deserve death get anger nobody even want put time find would do best friend bring back right maybe would settle rag anger inside maybe would help feel less guilty fact busy fuck around college give everything give loneliness someone brutally murder never understand feel way everything life go shit tire do world mom die march 2019 thought finally break start get well go counsel lean friend start cope well honestly think everything finally look world like put people like back place think consider fact probably mean misery world constantly kick back start get back foot come home spring break mistake well father do nothing make feel bad inside do nothing recluse room watch netflix start draw away support system do anything wrong tired bothering thing go life without come around depress sack shit wish fail suicide attempt past wish selfish naive brave enough try wish feel thing inside everyone would probably well without anyway mom would alive sweet baby would alive guarantee karma towards take away karma shit person</t>
+          <t>post lot recently well bother friend feel bad probably seem like search kind attention depress do everything else turn use text crisis hotlines never help anymore trained recite thing aggravate conversation really feel like feeling really validate everyone go thing know much next person world cruel yet charm place fill mixture amaze people people could give shit others hate complicate world hate good thing people never seem lessen bad thing turn cynical person time go find hard hard see good world past amazing friend unconditional love animal provide someone kill beloved dog though everything feel bleak deserve death get anger nobody even want put time find would do best friend bring back right maybe would settle rag anger inside maybe would help feel less guilty fact busy fuck around college give everything give loneliness someone brutally murder never understand feel way everything life go shit tire do world mom die march think finally break start get well go counsel lean friend start cope well honestly think everything finally look world like put people like back place think consider fact probably mean misery world constantly kick back start get back foot come home spring break mistake well father do nothing make feel bad inside do nothing recluse room watch netflix start draw away support system do anything wrong tired bothering thing go life without come around depress sack shit wish fail suicide attempt past wish selfish naive brave enough try wish feel thing inside everyone would probably well without anyway mom would alive sweet baby would alive guarantee karma towards take away karma shit person</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -18752,7 +18748,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>work talk laugh hide behind shield family little vulnerable mostly still silent thing work hard bring however alonethat hit kid home leave device afraid think anyone would miss fact honestly care would would feel like knew extreme pain mental anguish event life drug would understand want release constant cheating ex constant deception pain toss away uselessness feel get bed vicious cycle await every single day life tire tired give others put make vulnerable wash rinse repeat thousand time time go matter want know death find release want know separation world allow find peace one thing sure scaredbut alsonot</t>
+          <t>work talk laugh hide behind shield family little vulnerable mostly still silent thing work hard bring however alonethat hit kid home leave device afraid think anyone would miss fact honestly care would would feel like knew extreme pain mental anguish event life drug would understand want release constant cheating ex constant deception pain toss away uselessness feel get bed vicious cycle await every single day life tire tired give others put make vulnerable wash rinse repeat time time go matter want know death find release want know separation world allow find peace thing sure scaredbut alsonot</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -18769,7 +18765,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>hi know help help even one person enough bit back ground information 22 year old suffering severe depression past year suicidal thought everyday every hour felt like already dead one seem notice slowly waste away inside also begin hear voice would constantly berate tell kill seek help gp put onto antidepressant sertraline absolutely nothing make bad certainly make good put onto another antidepressant mirtazapine start take begin february 2020 seem help energy finally get bed take shower leave house couple week ago notice although energy get go daily life still think kill everyday time different energy motivation actually come detailed plan go scared much never felt urge kill much last couple week yesterday lot deal partner sick unknown illness nearly year parent rush hospital absolute mess really struggle silence suicidal thought whilst also fulfil duty carer partner mental breakdown take hospital voice would stop actually begin shout back minute sob bathroom floor become completely numb decide follow plan grab supply involve dog lead make sure buy one especially occasion perfectly fit around neck sturdy metal clip could attach banister would hold weight ready ready go put collar around neck begin push neck collar cut blood supply main artery neck heard would take minute make unconscious whole time hold dog close chest scared want die badly could feel go stop know stopped part think time go end pick phone call someone manage calm help look everything different perspective know lot people say selfish feeling suicidal commit suicide due hurt would cause familyfriends etc felt yesterday none matter truly believe want die stop would probably dead morning partner finally get official diagnosis make ill currently sit hospital wait come surgery tell doctor go live healthy normal life operation kill yesterday afternoon would never get find partner go okay would never get marry april would never get see healthy happy thing would never know dead look forward able spend time partner start enjoy life try enjoy mine much know around long time try get long as story sort hope cling onto whether friend pet something get plan near future even feel sun skin anything get day never know life could take turn best something amaze happen thing never get experience end say end day stranger internet know know thing always get good always never know never know</t>
+          <t>hi know help help even person enough bit back ground information year old suffering severe depression past year suicidal thought everyday every hour felt like already dead seem notice slowly waste away inside also begin hear voice would constantly berate tell kill seek help gp put onto antidepressant sertraline absolutely nothing make bad certainly make good put onto another antidepressant mirtazapine start take begin february seem help energy finally get bed take shower leave house couple week ago notice although energy get go daily life still think kill everyday time different energy motivation actually come detailed plan go scared much never felt urge kill much last couple week yesterday lot deal partner sick unknown illness nearly year parent rush hospital absolute mess really struggle silence suicidal thought whilst also fulfil duty carer partner mental breakdown take hospital voice would stop actually begin shout back minute sob bathroom floor become completely numb decide follow plan grab supply involve dog lead make sure buy especially occasion perfectly fit around neck sturdy metal clip could attach banister would hold weight ready ready go put collar around neck begin push neck collar cut blood supply main artery neck heard would take minute make unconscious whole time hold dog close chest scared want die badly could feel go stop know stopped part think time go end pick phone call someone manage calm help look everything different perspective know lot people say selfish feeling suicidal commit suicide due hurt would cause familyfriends etc felt yesterday none matter truly believe want die stop would probably dead morning partner finally get official diagnosis make ill currently sit hospital wait come surgery tell doctor go live healthy normal life operation kill yesterday afternoon would never get find partner go okay would never get marry april would never get see healthy happy thing would never know dead look forward able spend time partner start enjoy life try enjoy mine much know around long time try get long as story sort hope cling onto whether friend pet something get plan near future even feel sun skin anything get day never know life could take turn best something amaze happen thing never get experience end say end day stranger internet know know thing always get good always never know never know</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -18786,7 +18782,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>due fact self harm way punish 1yr pesky razor make bleed lack blood hand foot always cold purpleish wrist partially numb always tire mentally physicall life train wreck start never know would get bad bad part know stop</t>
+          <t>due fact self harm way punish yr pesky razor make bleed lack blood hand foot always cold purpleish wrist partially numb always tire mentally physicall life train wreck start never know would get bad bad part know stop</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -18820,7 +18816,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>band concert today excite go see girlfriend see school past couple day texted say might able go big deal ever get bad news especially excite something one want go withsee something cancel real effect depression right even self harm help question wether go would go concert know mom would force go blame want go fact girlfriend go way true go caused depression start depress want go deal people depressed make every thing bad know can not take go like need relief depression anxiety almost get say think get well go use tie chock self death</t>
+          <t>band concert today excite go see girlfriend see school past couple day texted say might able go big deal ever get bad news especially excite something want go withsee something cancel real effect depression right even self harm help question wether go would go concert know mom would force go blame want go fact girlfriend go way true go caused depression start depress want go deal people depressed make every thing bad know can not take go like need relief depression anxiety almost get say think get well go use tie chock self death</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -18832,12 +18828,12 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>thing keep alive plan die 2 week</t>
+          <t>thing keep alive plan die week</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>really can not anymore like suffer spread onto love point longer put fake smile long pretend okay hate see friend family hurt breaks heart see feel helpless life failure already ruin much literally point go fall asleep cry every night realize problem existence make live others bad people keep tell much love much live mean something enough make want live existence hurt people death hurt people point least die eventually hurt begin fade hope want people love live life without worry hurt hurt 2 week finish quarter school decide end wonderful life want finish one quarter go achieve anything want push last 2 week even extremely difficult cry every single day agony live another day hard try even study exams ability concentrate take anything want ridden pain</t>
+          <t>really can not anymore like suffer spread onto love point longer put fake smile long pretend okay hate see friend family hurt breaks heart see feel helpless life failure already ruin much literally point go fall asleep cry every night realize problem existence make live others bad people keep tell much love much live mean something enough make want live existence hurt people death hurt people point least die eventually hurt begin fade hope want people love live life without worry hurt hurt week finish quarter school decide end wonderful life want finish quarter go achieve anything want push last week even extremely difficult cry every single day agony live another day hard try even study exams ability concentrate take anything want ridden pain</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -18854,7 +18850,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>suicidal since age 14 28 half life want alive get annoyed people say bad life know anyone suffer much recently hear somebody say experience trauma childhood somebody dress clown fear clown think people actually shot face maybe understand really trauma really feel like suffer</t>
+          <t>suicidal since age half life want alive get annoyed people say bad life know anyone suffer much recently hear somebody say experience trauma childhood somebody dress clown fear clown think people actually shot face maybe understand really trauma really feel like suffer</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -18888,7 +18884,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>cop longer work actively suicidal passive peel finger bloody chew lip bloody want shave head last time 21 serious need mental health help hug know chronic pain awful last year relationship problem work chooses stubborn stand offish know much life handle without crack shatter mostly abuse loneliness brief happy moment inherit every crazy gene family top know much take want shave head help somehow know struggle general know cope anymore journaling help minute craft help minute stand sun help minute know else feel well nothing feel well long automatically start rock chair every time sit rock write chair rock chair</t>
+          <t>cop longer work actively suicidal passive peel finger bloody chew lip bloody want shave head last time serious need mental health help hug know chronic pain awful last year relationship problem work chooses stubborn stand offish know much life handle without crack shatter mostly abuse loneliness brief happy moment inherit every crazy gene family top know much take want shave head help somehow know struggle general know cope anymore journaling help minute craft help minute stand sun help minute know else feel well nothing feel well long automatically start rock chair every time sit rock write chair rock chair</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -18939,7 +18935,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>try make progress thesis week back difficult mental state ever since get depression hardest time focus stuff even tried focus stuff enjoy can not long head get dizzy can not read line book without get vision blurry end forget line suppose read also hard time recall short term long term memory day would lunch half hour later would ask wait eat lunch today yesterday need eat can not tell day week currently two thing absolutely crucial productivity concentration memory try bring freak hard body can not respond back guess try brace tomorrow sure destroy defense tomorrow scar shtless know one professor ruthless heartless imagine heartbreaking tomorrow want pat back say okay go fine do best odds fail tomorrow fine try next time can not bring scared feel alone feel like need hug</t>
+          <t>try make progress thesis week back difficult mental state ever since get depression hardest time focus stuff even tried focus stuff enjoy can not long head get dizzy can not read line book without get vision blurry end forget line suppose read also hard time recall short term long term memory day would lunch half hour later would ask wait eat lunch today yesterday need eat can not tell day week currently thing absolutely crucial productivity concentration memory try bring freak hard body can not respond back guess try brace tomorrow sure destroy defense tomorrow scar shtless know professor ruthless heartless imagine heartbreaking tomorrow want pat back say okay go fine do best odds fail tomorrow fine try next time can not bring scared feel alone feel like need hug</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -18973,7 +18969,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>take 1600mg advil 220lbs 14yo point really care anymore want know write note send couple snapchats</t>
+          <t>take mg advil lb yo point really care anymore want know write note send couple snapchats</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -18990,7 +18986,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>wonder many people would take easy without even think family would leave behind simple press red button 20 population must good easy product hundred generation choose say yes life probably thousand tumes kid dna fight</t>
+          <t>wonder many people would take easy without even think family would leave behind simple press red button population must good easy product hundred generation choose say yes life probably thousand tumes kid dna fight</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -19024,7 +19020,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>past ten year mum unwell autoimmune disease two year ago dad injured spine work spinal surgery feel like matter great feel antidepressant almost two year always back mind parent suffer illness injury everyday kill close parent hate see like know cope</t>
+          <t>past year mum unwell autoimmune disease year ago dad injured spine work spinal surgery feel like matter great feel antidepressant almost year always back mind parent suffer illness injury everyday kill close parent hate see like know cope</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -19075,7 +19071,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>feel like never enough anything worth waste space bad everyone else matter feel like deserve nothingand can not really explain want feel goodbut mind say wrong feel defeat worthless never amount anything inferior everyone one want anything everyone know bad leave isolated longing slight warmth really deserve anything deserve suffer eternal torment really wish could kill already tired agony lack energyand ache pain see hope miserable life</t>
+          <t>feel like never enough anything worth waste space bad everyone else matter feel like deserve nothingand can not really explain want feel goodbut mind say wrong feel defeat worthless never amount anything inferior everyone want anything everyone know bad leave isolated longing slight warmth really deserve anything deserve suffer eternal torment really wish could kill already tired agony lack energyand ache pain see hope miserable life</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -19104,12 +19100,12 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>nowhere one else say</t>
+          <t>nowhere else say</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>go long post lot say sorry advance see way life get track 23 year old achieve nothing noteworthy life generally live life isolation stem way back secondary school relentlessly bully black overweight 11 year old first get diagnosed depression shelter life live meant idea people would like get high school one tell black something people may like one told overweight would something kid would make fun happen 4 year straight throughout high school run various obstacle would never want kid go almost weekly fight bad report card parent evening lead detention 3 day exclusion lead start simply skip school go try hard get kicked school mother would take school understand still understand think part resents day truly believe life could different get force stay school almost kill multiple time bully definitely subside touch last year kid want get good 6th form start look finish exams guess damage already do started school pretty normal happy kid fair friend think much besides pokemon need catch fill national dex cartoon want watch record last year could barely bother anything talk anyone simply go school get bus home avoid people cost skip way much school get good grade could motivate want study get bare minimum get 6th form hopefully enough scrape thing wernt bad enough go residential school trip one class cut short end severe athsma attack get accommodation camp first time athsma attack first time would ever hospital 15 first feeling obviously extreme panic small part would say honestly relieve maybe end would go ambulance get must ask respond hundred time go die obviously can not tell child probably say comfort ride hospital felt like eternity wrap part obviously die woken week later icu surround family weird see dad mum together well partner split long time happy wake guess stay hospital day wake test rehab get use walk bed week interesting lot hard ever think would tell people suffer acute asthma attack generally low survival rate can not remember exact number low enough cause reaction everyone leave hospital told would able go back school least month obviously kid would thrill hear super happy meant time away hell earth however recovery process month kind set precedent hole get trap still trap nothing month mean get pretty lazy habit also get used world play xbox watching tv day transition back school life harder anticipate half day start 2 week fast forward bit bullying start fuck bully kid fresh hospital right get exam period full sack school skip day get put assisted education program take exam different room personal ta counsel session course none really help care education want away school soon possible miracle without study manage scrape enough gcse qualification go 6th form condition would take english math alongside foundation year lead onto next problem reason unknown chalk can not bother mum decide go go college hometown would instead go live dad 3 year college probably explain problem dad get well long stop child still barely real relationship talk like month talk little brother sister obviously reason relationship go much detail post already feel long much get long story short dad extremely emotionally abusive anything like would meet scream bang thing threat physical violence would anything dish study earlier plan warp view education really course enjoyed rather available feel inspire commit study study time sneak phone silent go 3 year straight isolate person really interacted abusive dad teacher classmate try confide mother simply tell people include bad he strict care want best give well throughout life one thing really enjoy play video game use escape ignore real life situation responsibilities healthy debate escape know would even type like play video game say pointless take away time could study look work take away never let back occasion half first year thing get really bad without something pas time take mind thing depression suicidal tendency come flood back start self harm still look scar along arm sometimes get reminded bad thing back never think would still 6 year later wish think somehow 3 year later without really put effort manage complete level get enough point get university foundation entry degree guess happy finally free parent maybe could someone new different never would imagine 4 year ago uni life start fine still avoid people keep couple people course would always sit next try talk guess see someone sit first year uni make want include even manage friend first year hardship never teach budget independent course money get tight towards end aside think first year issue pass without issue find advance first year actual degree go detail every year say apart odd time would go together still mostly stayed flat play game watch stuff online party study kind drift whatever reason can not remember get argument mum can not remember sent message say do really know feel kind stop stop go uni stop go stop everything start spending every day wake play game eat junk food sleep repeat imagine lifestyle like really number mental physical health would go entire week without shower sometimes human contact take food downstairs low point obviously fail year attend work next year allow stay uni take different course thinking could power apparently student finance company pay tuition fee turn around say would fund year learn obviously kind fuck completely tell would fund decide point go certainly 9k lay around pay fee attend single lecture year live unhealthy life live towards end previous year entire year horrible one beacon hope could find eventually start benefit get money pay rent anything cover meanwhile local game store run tournament game play really enjoy go week make friend team assign life finally felt like form normality decent friend group finally go something look forward whilst tried find proper work fill time move place unfortunately could find work come time decide go next summer time another argument mum begin catch clearly something wrong want go university degree interest speak almost month sure cut tie message plead come open day course honestly sound extremely appealing go place seem nice get onto course currently situation worse 3rd year previous uni attend almost class almost certainly go kick retake year even bad part bad part still ask pay year tell would fund include year meaning insane amount debt way pay year also fund despite tell would currently negative balance bank account next payment underfunded maintenance loan come 20th next month eat 3 day already feel good parent option try ask help loansassistance reddits get marked scammer get reply keep try know think well truly ready end see recover hole put 23 year old degree debt work experience meaning can not get job despite 100 application probably send never romantic partner hell never even real best friend completely alone think anyone miss go sorry long read anyone else talk really explain thing last resort think want die really see live</t>
+          <t>go long post lot say sorry advance see way life get track year old achieve nothing noteworthy life generally live life isolation stem way back secondary school relentlessly bully black overweight year old first get diagnosed depression shelter life live meant idea people would like get high school tell black something people may like tell overweight would something kid would make fun happen year straight throughout high school run various obstacle would never want kid go almost weekly fight bad report card parent evening lead detention day exclusion lead start simply skip school go try hard get kicked school mother would take school understand still understand think part resents day truly believe life could different get force stay school almost kill multiple time bully definitely subside touch last year kid want get good th form start look finish exams guess damage already do started school pretty normal happy kid fair friend think much besides pokemon need catch fill national dex cartoon want watch record last year could barely bother anything talk anyone simply go school get bus home avoid people cost skip way much school get good grade could motivate want study get bare minimum get th form hopefully enough scrape thing wernt bad enough go residential school trip class cut short end severe athsma attack get accommodation camp first time athsma attack first time would ever hospital first feeling obviously extreme panic small part would say honestly relieve maybe end would go ambulance get must ask respond time go die obviously can not tell child probably say comfort ride hospital felt like eternity wrap part obviously die woken week later icu surround family weird see dad mum together well partner split long time happy wake guess stay hospital day wake test rehab get use walk bed week interesting lot hard ever think would tell people suffer acute asthma attack generally low survival rate can not remember exact number low enough cause reaction everyone leave hospital told would able go back school least month obviously kid would thrill hear super happy meant time away hell earth however recovery process month kind set precedent hole get trap still trap nothing month mean get pretty lazy habit also get used world play xbox watching tv day transition back school life harder anticipate half day start week fast forward bit bullying start fuck bully kid fresh hospital right get exam period full sack school skip day get put assisted education program take exam different room personal ta counsel session course none really help care education want away school soon possible miracle without study manage scrape enough gcse qualification go th form condition would take english math alongside foundation year lead onto next problem reason unknown chalk can not bother mum decide go go college hometown would instead go live dad year college probably explain problem dad get well long stop child still barely real relationship talk like month talk little brother sister obviously reason relationship go much detail post already feel long much get long story short dad extremely emotionally abusive anything like would meet scream bang thing threat physical violence would anything dish study earlier plan warp view education really course enjoyed rather available feel inspire commit study study time sneak phone silent go year straight isolate person really interacted abusive dad teacher classmate try confide mother simply tell people include bad he strict care want best give well throughout life thing really enjoy play video game use escape ignore real life situation responsibilities healthy debate escape know would even type like play video game say pointless take away time could study look work take away never let back occasion half first year thing get really bad without something pas time take mind thing depression suicidal tendency come flood back start self harm still look scar along arm sometimes get reminded bad thing back never think would still year later wish think somehow year later without really put effort manage complete level get enough point get university foundation entry degree guess happy finally free parent maybe could someone new different never would imagine year ago uni life start fine still avoid people keep couple people course would always sit next try talk guess see someone sit first year uni make want include even manage friend first year hardship never teach budget independent course money get tight towards end aside think first year issue pass without issue find advance first year actual degree go detail every year say apart odd time would go together still mostly stayed flat play game watch stuff online party study kind drift whatever reason can not remember get argument mum can not remember sent message say do really know feel kind stop stop go uni stop go stop everything start spending every day wake play game eat junk food sleep repeat imagine lifestyle like really number mental physical health would go entire week without shower sometimes human contact take food downstairs low point obviously fail year attend work next year allow stay uni take different course thinking could power apparently student finance company pay tuition fee turn around say would fund year learn obviously kind fuck completely tell would fund decide point go certainly k lay around pay fee attend single lecture year live unhealthy life live towards end previous year entire year horrible beacon hope could find eventually start benefit get money pay rent anything cover meanwhile local game store run tournament game play really enjoy go week make friend team assign life finally felt like form normality decent friend group finally go something look forward whilst tried find proper work fill time move place unfortunately could find work come time decide go next summer time another argument mum begin catch clearly something wrong want go university degree interest speak almost month sure cut tie message plead come open day course honestly sound extremely appealing go place seem nice get onto course currently situation worse rd year previous uni attend almost class almost certainly go kick retake year even bad part bad part still ask pay year tell would fund include year meaning insane amount debt way pay year also fund despite tell would currently negative balance bank account next payment underfunded maintenance loan come th next month eaten day already feel good parent option try ask help loansassistance reddits get marked scammer get reply keep try know think well truly ready end see recover hole put year old degree debt work experience meaning can not get job despite application probably send never romantic partner hell never even real best friend completely alone think anyone miss go sorry long read anyone else talk really explain thing last resort think want die really see live</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -19172,12 +19168,12 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>yesterday turn 25 still wonder make far</t>
+          <t>yesterday turn still wonder make far</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>thing hold marriage sort together come today family dinner tomorrow nothing argue stupid shit guess tire even fake yesterday birthday party friend course great mainly attempt get dopamine people consider friend live together try shit would bind simple stuff like cook bit common household chore around kitchen common place go drugstore someone sick stuff feedback ask something something like bag cold food know call bag put frozen stuff go grocery store one bat eye help find asked someone text get instant ramen store whoop sorry guess forget work treat like everyman almost everyone constantly forgets shit ask rely feel completely alone like alone person rely close one make sick social interaction make sick work make sick constant struggle mental complication make sick corrupted country make sick whole world make sick weird chinese virus literally make people sick consider pussy come suicide already two attempt know get impulse third one hope would lucky time</t>
+          <t>thing hold marriage sort together come today family dinner tomorrow nothing argue stupid shit guess tire even fake yesterday birthday party friend course great mainly attempt get dopaminetrade_mark people consider friend live together try shit would bind simple stuff like cook bit common household chore around kitchen common place go drugstore someone sick stuff feedback ask something something like bag cold food know call bag put frozen stuff go grocery store bat eye help find asked someone text get instant ramen store whoop sorry guess forget work treat like everyman almost everyone constantly forgets shit ask rely feel completely alone like alone person rely close one make sick social interaction make sick work make sick constant struggle mental complication make sick corrupted country make sick whole world make sick weird chinese virus literally make people sick consider pussy come suicide already attempt know get impulse third hope would lucky time</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -19211,7 +19207,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>mom best friend go cancer right spend every moment deal depression 10 year november close call almost kill think still mom dy think able hang know</t>
+          <t>mom best friend go cancer right spend every moment deal depression year november close call almost kill think still mom dy think able hang know</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -19228,7 +19224,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>matter happy sad miserable love etc tire living life mundane unintressing time relative one experience whether grow old die kill self make difference end know life even would fine hell would actually prefer uninterested participate world negative reason like boredom plus fact always hat parent even create like enjoy thing good memory like cool come saw bore wish move rest eternally idea similar feeling tell much live shit sell emotional side think pain cause like actually matter sun dy planet stop exist friendsand familywill get pain woulddisappear death emotion petty meaningless anyways wonder many feel idea good way end think overdose heroin lace fentanyl beach watch sunset kind fantasy dream yr</t>
+          <t>matter happy sad miserable love etc tire living life mundane unintressing time relative experience whether grow old die kill self make difference end know life even would fine hell would actually prefer uninterested participate world negative reason like boredom plus fact always hat parent even create like enjoy thing good memory like cool come saw bore wish move rest eternally idea similar feeling tell much live shit sell emotional side think pain cause like actually matter sun dy planet stop exist friendsand familywill get pain woulddisappear death emotion petty meaningless anyways wonder many feel idea good way end think overdose heroin lace fentanyl beach watch sunset kind fantasy dream yr</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -19279,7 +19275,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>get abused 7 thought could get good everyone either laugh say ugly disappointment even parent say today get make fun get call look like ugly horse loner call friend hate school hate alive even purpose fuck suffer know much longer hold</t>
+          <t>got abuse think could get good everyone either laugh say ugly disappointment even parent say today get make fun get call look like ugly horse loner call friend hate school hate alive even purpose fuck suffer know much longer hold</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -19291,12 +19287,12 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>tw 16 attempt suicide 4 time bully appearance making consider</t>
+          <t>tw attempt suicide time bully appearance making consider</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>generally steer clear make post nature since like discuss personal life social medium say something feel must open order come term contextualise 16 year old girl originally eastern europe live uk may long read sure tldr diagnose autism age 4 low function lack good term feel free suggest one per se people pretty obvious developmentally disabled poor fine motor skill struggle articulate thought extremely susceptible meltdown birth control explain later early childhood largely huge issue life receive good support people usually empathetic towards struggle however thing start go slowly eventually dramatically downhill get period age 10 parent noticed menstrual cycle average around 21 day length initially worried assume would eventually become regular time go become shorter last calculated cycle last 18 day average messed hormone become extremely depressed depression peak around period mean get typical premenstrual symptom day lead period would self harm suicidal thought experience violent dramatic mood swing become extremely sensitive sound texture lose interest hobby friends suggest possibly pmdd idea dismiss parent doctor first attempt suicide either 13 14 definitely old inform parent want upset make feel like fail parent definitely attempt age 15 time period prescribe combined oral contraceptive pill theoretically suppose tricycle word take three month worth pack take break second recent attempt october last year first one tell anybody may shock hear happen whilst period break go ae next day wait seven hour see therapist twenty minute tell seemed thing control take action except refer another therapist one appointment heard thing mother birthday day forgiven make spend ae stay mostly collect throughout could tell felt upset shake since stop take break period massively helpful situation still great partly reason inform recent attempt december also due fly canada day attempt could bring jeopardise trip consider call suicide hotline montreal end mainly look number call could find one quebec offer english counselling also mother discourage would charge please remember know attempt suicide year 11 uk final year high school currently catch revise gcse ok academic perspective struggle cope mentally also bully less previous year still way fuck even though pretend use target personality mannerism give upset since accept carry typically recently though shifted target appearance may make sound shallow 16 year old girl appearance mock scorn completely crush month ago never something give much thought never felt insecure appearance outside typical concern teenage girl people call ugly laugh face never relationship kind risk sound like incel give hope future make question physically attractive anybody make feel arrogant ever think nothing wrong way look start spiral emotionally 15 year old would laugh idea insecure physical appearance one thing genuine confidence pride take feel shallow fragile feel way 16 four attempt name embarrass hate never really able disassociate want look back 10 20 year time tldr 16 year old autistic girl attempt suicide 4 time reconsider due bully concern physical appearance</t>
+          <t>generally steer clear make post nature since like discuss personal life social medium say something feel must open order come term contextualise year old girl originally eastern europe live uk may long read sure tldr diagnose autism age low function lack good term feel free suggest per se people pretty obvious developmentally disabled poor fine motor skill struggle articulate thought extremely susceptible meltdown birth control explain later early childhood largely huge issue life receive good support people usually empathetic towards struggle however thing start go slowly eventually dramatically downhill get period age parent notice menstrual cycle average around day length initially worry assume would eventually become regular time go become shorter last calculated cycle last day average messed hormone become extremely depressed depression peak around period mean get typical premenstrual symptom day lead period would self harm suicidal thought experience violent dramatic mood swing become extremely sensitive sound texture lose interest hobby friends suggest possibly pmdd idea dismiss parent doctor first attempt suicide either definitely old inform parent want upset make feel like fail parent definitely attempt aged time period prescribe combined oral contraceptive pill theoretically suppose tricycle word take month worth pack take break second recent attempt october last year first tell anybody may shock hear happen whilst period break go ae next day wait hour see therapist minute tell seemed thing control take action except refer another therapist appointment hear thing mother birthday day forgiven make spend ae stay mostly collect throughout could tell felt upset shake since stop take break period massively helpful situation still great partly reason inform recent attempt december also due fly canada day attempt could bring jeopardise trip consider call suicide hotline montreal end mainly look number call could find quebec offer english counselling also mother discourage would charge please remember know attempt suicide year uk final year high school currently catch revise gcse ok academic perspective struggle cope mentally also bully less previous year still way fuck even though pretend use target personality mannerism give upset since accept carry typically recently though shifted target appearance may make sound shallow year old girl appearance mock scorn completely crush month ago never something give much thought never felt insecure appearance outside typical concern teenage girl people call ugly laugh face never relationship kind risk sound like incel give hope future make question physically attractive anybody make feel arrogant ever think nothing wrong way look start spiral emotionally year old would laugh idea insecure physical appearance thing genuine confidence pride take feel shallow fragile feel way attempt name embarrass hate never really able disassociate want look back year time tldr year old autistic girl attempt suicide time reconsider due bully concern physical appearance</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -19342,12 +19338,12 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>25m wife 24f break cry today confess want kill past three month know</t>
+          <t>wife f break cry today confess want kill past month know</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>title say would like tag reddit account unsure break rule believe reason hold back fear would happen 1year old son attempt past marry say last month unkind family severe understatement lose job could find work several month eventually lead recent eviction result force return long haul truck drive unable physically stay extremely mentally abusive parent home manage secure well place stay friend mine even place dog limit bad feeling good listener completely lose handle situation want run away feel though drown nobody care want notice afraid come forward today get ready follow thousand mile away way home completely depth need advice help possible show community support send way sincerely concern scared husband</t>
+          <t>title say would like tag reddit account unsure break rule believe reason hold back fear would happen year old son attempt past marry say last month unkind family severe understatement lose job could find work several month eventually lead recent eviction result force return long haul truck drive unable physically stay extremely mentally abusive parent home manage secure well place stay friend mine even place dog limit bad feeling good listener completely lose handle situation want run away feel though drown nobody care want notice afraid come forward today get ready follow mile away way home completely depth need advice help possible show community support send way sincerely concern scared husband</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -19415,7 +19411,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>go tell little situation usually pretty happy person like fun thing like go friend know pretty much life 23 passion film make since start school even young age always problem concentrate focus school see benefit also think school system extremly outdated last september start education live germany english word ausbildung translate education work world know firm go name couple reason relate problem though would say pretty fun co worker boss pretty nice always want succeed good also pretty good job even though get lot go particular job really see self work job rest life would rather make living film could imagine work year work dream problem school major problem germany go school vocational training another word german word ausbildung easy literally cry everyday come school school 2 time week can not concentrate well school miss lot school material try focus topic write exam become depress fck study everytime imagine work school suicidal thought can not get bed day sometimes thought sometimes bad imagine end also girlfriend big supporter best human could ever imagine give everything try cheer help problem work 9 5 job want marry even get job cultural reason family let get married unless future husband get secure vocational training case something happen life something fall back outlook culture living fckin stupid understand parent well totally burn point life can not get motivated finish know make life easy</t>
+          <t>go tell little situation usually pretty happy person like fun thing like go friend know pretty much life passion film make since start school even young age always problem concentrate focus school see benefit also think school system extremly outdated last september start education live germany english word ausbildung translate education work world know firm go name couple reason relate problem though would say pretty fun co worker boss pretty nice always want succeed good also pretty good job even though get lot go particular job really see self work job rest life would rather make living film could imagine work year work dream problem school major problem germany go school vocational training another word german word ausbildung easy literally cry everyday come school school time week can not concentrate well school miss lot school material try focus topic write exam become depress fck study everytime imagine work school suicidal thought can not get bed day sometimes thought sometimes bad imagine end also girlfriend big supporter best human could ever imagine give everything try cheer help problem work job want marry even get job cultural reason family let get married unless future husband get secure vocational training case something happen life something fall back outlook culture living fckin stupid understand parent well totally burn point life can not get motivated finish know make life easy</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -19449,7 +19445,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>fuck canada student loan receive confirmation enrollment yet continue take money three month row call deal can not even give information shit system vile scum get another cent do fuck country fuck stupid fucking idiot take loan prick edit prick go beyond overdraft authorization money return still fuck idea tell would anymore monthly payment first place idea keep happen useless people fuck world happen pretty much fuck</t>
+          <t>fuck canada student loan receive confirmation enrollment yet continue take money month row call deal can not even give information shit system vile scum get another cent do fuck country fuck stupid fucking idiot take loan prick edit prick go beyond overdraft authorization money return still fuck idea tell would anymore monthly payment first place idea keep happen useless people fuck world happen pretty much fuck</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -19483,7 +19479,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>faith can not believe name birth would appreciate girl meet psych hospital 10 year old name would attempt suicide many time absolute wreck feel like every single day creep close closer become</t>
+          <t>faith can not believe name birth would appreciate girl meet psych hospital year old name would attempt suicide many time absolute wreck feel like every single day creep close closer become</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -19500,7 +19496,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>24 year old recently graduate college ba art art passion since little kid hope one day exhibition showcasing art back 2019 month graduate college apply artists residence program knew probably would get accepted residence usually popular still buliding career art still want try get experienced writing application though would give go never know might lucky enough accepted particular application send post ask mum stamp later day dad see stamp booklet ask mum tell conpleatly lose shit start yell mum arngry mum tell plan apply residence could hear yell bedroom come see can not remember everything happen say basically dad felt terrible idea residence would good move kept try explain many benefit residence would move away forever besides 23 time lot people age live away parent however could get head around thought residence program legitimate despite fact find college lecture literally give u seminars apply residence keep yell scream cause mum cry sleep sister room night let event night keep pursue dream fast forward day ago work another application artist residence one also send post time tell dad go bed roll eye say much next day print application hear dad speak negativity residence mum mum kind love supportive dream really could ask anyway come room tell dad hear talk say similar stuff say back 2019 think bad idea think move belief look rise tinted glass try explain stupid little kid follow whimsical dream passion thing degree much plan pursue reason can not understand residence involves think team residence make fairly obvious however try explain place live work produce artwork proper studio still shake head say bad idea ask think bad idea cut tell tell good idea try explain benefit make small bit watercolour painting bedroom studio would much ideal star ask question chose people explain send cover letter artist cv image work reason keep refer residence course mum tell course place live work seem understand say people benefit course people run seem believe would pay attend residence waste time even ask parent money fund residence plan pay rent say look work bit booomer seem think load job go round could bother get one true job long ago temporary contract work end week ago nerve say unemployed since early 2000s mum main breadwinner happens relate wealthy parent inherit load money die know struggle look work strict budget ask would prefer dead end job make miserable say would like see job make happy sort suggest continue art side apparently work art residence much anyway get back track mention think vulnerable ready move know go react enough money save move can not stop move live life even accept residence program act leave live side world everything point upset stressful depressing go say good enough talented enough thst future residences future art fuck hurt highly suspect tell already know man even see half art see capable understand art world work bad would get ba still hard let word get still plan apply open call residences exhibition know talent work hard even currently good enough mean stop thing stop future art give give make</t>
+          <t>year old recently graduate college ba art art passion since little kid hope day exhibition showcasing art back month graduate college apply artists residence program knew probably would get accepted residence usually popular still buliding career art still want try get experienced writing application though would give go never know might lucky enough accepted particular application send post ask mum stamp later day dad see stamp booklet ask mum tell conpleatly lose shit start yell mum arngry mum tell plan apply residence could hear yell bedroom come see can not remember everything happen say basically dad felt terrible idea residence would good move kept try explain many benefit residence would move away forever besides time lot people age live away parent however could get head around thought residence program legitimate despite fact find college lecture literally give u seminars apply residence keep yell scream cause mum cry sleep sister room night let event night keep pursue dream fast forward day ago work another application artist residence also send post time tell dad go bed roll eye say much next day print application hear dad speak negativity residence mum mum kind love supportive dream really could ask anyway come room tell dad hear talk say similar stuff say back thinks bad idea think move belief look rise tinted glass try explain stupid little kid follow whimsical dream passion thing degree much plan pursue reason can not understand residence involves think team residence make fairly obvious however try explain place live work produce artwork proper studio still shake head say bad idea ask think bad idea cut tell tell good idea try explain benefit make small bit watercolour painting bedroom studio would much ideal star ask question chose people explain send cover letter artist cv image work reason keep refer residence course mum tell course place live work seem understand say people benefit course people run seem believe would pay attend residence waste time even ask parent money fund residence plan pay rent say look work bit booomer seem think load job go round could bother get true job long ago temporary contract work end week ago nerve say unemployed since early mum main breadwinner happens relate wealthy parent inherit load money die know struggle look work strict budget ask would prefer dead end job make miserable say would like see job make happy sort suggest continue art side apparently work art residence much anyway get back track mention think vulnerable ready move know go react enough money save move can not stop move live life even accept residence program act leave live side world everything point upset stressful depressing go say good enough talented enough thst future residences future art fuck hurt highly suspect tell already know man even see half art see capable understand art world work bad would get ba still hard let word get still plan apply open call residences exhibition know talent work hard even currently good enough mean stop thing stop future art give give make</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -19534,7 +19530,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>context 20 year old soon highschool graduate go mind right matter write surely happen individual entire life copy paste someone elses decision matter long run life insignificant year year feel presence get weak weak sooner later go start work industry want work feel happy want happy something like want accomplish something drive want special would rather watch youtube learn train something school end 2 month feel weirdly nostalgic think maybe proud achievement even remember maybe happy situation bring maybe feel like movie end need plan mr finish move like say finish highschool feel like appropriate end get certificate happy get end fulfil life wait moment happen want another chapter story want single season tv show sorry typo type swipe</t>
+          <t>context year old soon highschool graduate go mind right matter write surely happen individual entire life copy paste someone elses decision matter long run life insignificant year year feel presence get weak weak sooner later go start work industry want work feel happy want happy something like want accomplish something drive want special would rather watch youtube learn train something school end month feel weirdly nostalgic think maybe proud achievement even remember maybe happy situation bring maybe feel like movie end need plan mr finish move like say finish highschool feel like appropriate end get certificate happy get end fulfil life wait moment happen want another chapter story want single season tv show sorry typo type swipe</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -19585,7 +19581,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>suicidal year today do bully since grade 1 father use abuse young lie damn near everyone lose mom 2018 attempt multiple ocasions nobody ever fuck listens finally past tip point thought minute today come back full force frankly tire living life fuck suck tonight plan take life edit final message go since go go anyways pull vape quit multiple time already start go town throat burn feel super weak head rush nicotine plan relax move grab knife end also medication go start toattempt fully live may can not guarantee edit post feel bad want actively want thank take time read though doubt ever see goodbye</t>
+          <t>suicidal year today do bully since grade father use abuse young lie damn near everyone lose mom attempt multiple ocasions nobody ever fuck listens finally past tip point thought minute today come back full force frankly tire living life fuck suck tonight plan take life edit final message go since go go anyways pull vape quit multiple time already start go town throat burn feel super weak head rush nicotine plan relax move grab knife end also medication go start toattempt fully live may can not guarantee edit post feel bad want actively want thank take time read though doubt ever see goodbye</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -19602,7 +19598,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>know go one anymore mom stole another 1000 currently live 200 month apply many job many apprenticeship place today get another company can not take anymore day family shame therapy many time get good boyfriend first real one afraid lose choses someone else get chance like last dude lonely even cat run away cry please someone talk</t>
+          <t>know go anymore mom stole another currently live month apply many job many apprenticeship place today get another company can not take anymore day family shame therapy many time get good boyfriend first real afraid lose choses someone else get chance like last dude lonely even cat run away cry please someone talk</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -19619,7 +19615,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>competition promote one bad 24 hour knock felt suicidial pick back get knock felt suicidal pick back happen actively think kill three different bad thing happen last 24 hour right would helpful hear others also exhaust routine</t>
+          <t>competition promote bad hour knock felt suicidial pick back get knock felt suicidal pick back happen actively thought kill different bad thing happen last hour right would helpful hear others also exhaust routine</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -19636,7 +19632,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>can not believe driven beloved friend point able bear conversation almost 6 month contact lose live every day</t>
+          <t>can not believe driven beloved friend point able bear conversation almost month contact lose live every day</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -19653,7 +19649,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>decide go end life want painless possible please waste time try talk feel life suicide everyone right shoot head caliber best 9mm small good penetration maybe penetrate skull 40 feeling like best world 9mm 45 big power 45 big slow bullet maybe penetrate skull either point blank range 357 sig feeling like either 40 although military friend say 40 suck 9mm well 40 think watch penetration video youtube obviously none skullx point blank really want end hospital bed plan temple read brain matter temple may work afraid roof mouth like maybe would survive choke death blood decide go little high temple toward middle skull harder think</t>
+          <t>decide go end life want painless possible please waste time try talk feel life suicide everyone right shoot head caliber best mm small good penetration maybe penetrate skull feeling like best world mm big power big slow bullet maybe penetrate skull either point blank range sig feel like either although military friend say suck mm good think watch penetration video youtube obviously none skullx point blank really want end hospital bed plan temple read brain matter temple may work afraid roof mouth like maybe would survive choke death blood decide go little high temple toward middle skull harder think</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -19687,7 +19683,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>severe severe depression high magnitude anxiety neurotic personality obsessive thinking treatment appropriate normal total session 10 day session per day 2 15 min session one hour gap medication moment fludacs also psychiatrist write something like l p f c mean</t>
+          <t>severe severe depression high magnitude anxiety neurotic personality obsessive thinking treatment appropriate normal total session day session per day min session hour gap medication moment fludacs also psychiatrist write something like l p f c mean</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -19704,7 +19700,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>around 67 yo dad get scholarship australia really happy someone lot friends exceptional grade etc turn 180 come back australia home countryi know junior high pretty average execpt grade start fall get occasional tease different english accent come high school everything hit real hard grade par dad allow hang friend start heli parent would make irrational night curfew also get numerous trouble school time think friend leave one one even spread rumor gay big country top girlfriend cheat felt desolate unwanted ever since become socially awkward start stuttermumble speech think jump roof cancel eventually ate depression loneliness time gain 10 kilo make obese last year get accepted uni city away home give much need liberty away dad try make friend usual stuff shrug cool enough plain awkward person kill look people leave right friend happy walk alone sit class alone uni also make mind grow wild think many different way ordinary object use kill tried swerve motorbike onto oncoming 18 wheeler scar also buy ropea decision use back forth feel like razor thin wire can not</t>
+          <t>around yo dad get scholarship australia really happy someone lot friends exceptional grade etc turn come back australia home countryi know junior high pretty average execpt grade start fall get occasional tease different english accent come high school everything hit real hard grade par dad allow hang friend start heli parent would make irrational night curfew also get numerous trouble school time think friend leave even spread rumor gay big country top girlfriend cheat felt desolate unwanted ever since become socially awkward start stuttermumble speech think jump roof cancel eventually ate depression loneliness time gain kilo make obese last year get accepted uni city away home give much need liberty away dad try make friend usual stuff shrug cool enough plain awkward person kill look people leave right friend happy walk alone sit class alone uni also make mind grow wild think many different way ordinary object use kill tried swerve motorbike onto oncoming wheeler scar also buy ropea decision use back forth feel like razor thin wire can not</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -19721,7 +19717,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>full offense lot people lie lie lie go kill tonight sureno fuck stats low low go realistic honest probably kill wish everyone else would honest well probably go itbut twist might might need support wake today call job take mental health day still feel slightly suicidal life fuck suck purpose religion destroy job emotionally drain pay bill tough situation happy life partner feel guilty feel like want die make genuinely happy often find emotionally dependent thing make deeply happy anyways would appreciate kind word without one people 100 threaten get response</t>
+          <t>full offense lot people lie lie lie go kill tonight sureno fuck stats low low go realistic honest probably kill wish everyone else would honest well probably go itbut twist might might need support wake today call job take mental health day still feel slightly suicidal life fuck suck purpose religion destroy job emotionally drain pay bill tough situation happy life partner feel guilty feel like want die make genuinely happy often find emotionally dependent thing make deeply happy anyways would appreciate kind word without people threaten get response</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -19772,7 +19768,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>long unhealthy abusive relationship date first optimistic point many date go nowhere think ever find someone rest life felt like really click anyone men seem right quality interested nobody normal interested dating disable person even invisible disability even attractive can not overcome career get sick nobody want deal tired see everyone else happy marriage family remind good enough ever would rather die alone rest life lot great quality lot love give one share feel like today might bad day hopefully keep end</t>
+          <t>long unhealthy abusive relationship date first optimistic point many date go nowhere think ever find someone rest life felt like really click anyone men seem right quality interested nobody normal interested dating disable person even invisible disability even attractive can not overcome career get sick nobody want deal tired see everyone else happy marriage family remind good enough ever would rather die alone rest life lot great quality lot love give share feel like today might bad day hopefully keep end</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -19823,7 +19819,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>first let say problem good depression anything personal thing existential human being make great leap last hundred year think speck calendar far movie music seem like every song write every tvshowmovie make specie kind go motion add innate sense self destruction humans hard put word seem like come w need time probably mean many time see movie franchise reboot anyone song run original melody top factor ai world friction seem like taper towards end id rather som long drawn song dance sure make sense thts could verbalise way feeling</t>
+          <t>first let say problem good depression anything personal thing existential human being make great leap last year think speck calendar far movie music seem like every song write every tvshowmovie make specie kind go motion add innate sense self destruction humans hard put word seem like come w need time probably mean many time see movie franchise reboot anyone song run original melody top factor ai world friction seem like taper towards end id rather som long drawn song dance sure make sense thts could verbalise way feeling</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -19840,7 +19836,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>nothing change end yearive decide kill can not live like anymore tried sick fail life sick people call crazy sick treat like crap sick life nothing change end year plan kill turn 20 tire want end want releaf</t>
+          <t>nothing change end yearive decide kill can not live like anymore tried sick fail life sick people call crazy sick treat like crap sick life nothing change end year plan kill turn tire want end want releaf</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -19874,7 +19870,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>holy shit thing go bad fast last year go deep depression however recover summer thing seemingly look get job grade good hang friend regularly however past two week thing go absolute shit parent decide wanted try parent decide spent much time video game even though really play 12 hour night one main way interact friend well decide phone distracting confiscate soon get home school decide take door hinge look bad part even know grade good b 6 ap class work 20 hour week maintain social life everything go good get home feel empty alone can not even cry privacy audacity ask honey wrong sad understand</t>
+          <t>holy shit thing go bad fast last year go deep depression however recover summer thing seemingly look get job grade good hang friend regularly however past week thing go absolute shit parent decide wanted try parent decide spent much time video game even though really play hour night main way interact friend well decide phone distracting confiscate soon get home school decide take door hinge look bad part even know grade good b ap class work hour week maintain social life everything go good get home feel empty alone can not even cry privacy audacity ask honey wrong sad understand</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -19891,7 +19887,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>make enough money fit pretty healthy get friend family long distance gf know care still feel like kill every day halfway work day like clockwork get home stare wall drinking beer never want talk anyone hang anyone get several potential method mind pick one day day point</t>
+          <t>make enough money fit pretty healthy get friend family long distance gf know care still feel like kill every day halfway work day like clockwork get home stare wall drinking beer never want talk anyone hang anyone get several potential method mind pick day day point</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -19925,7 +19921,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>best part winter water cold think jump never come back think probably least day since get cold spot people disappear maybe take bunch xanax something help mess much die easier write suicide note go back read think sound stupid time keep brief 32 year try hold mom brother fight leave tired want rest forever sorry everyone fine grand scheme thing grateful essential anything</t>
+          <t>best part winter water cold think jump never come back think probably least day since get cold spot people disappear maybe take bunch xanax something help mess much die easier write suicide note go back read think sound stupid time keep brief year try hold mom brother fight leave tired want rest forever sorry everyone fine grand scheme thing grateful essential anything</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -19959,7 +19955,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>thing good skipping breakfast dinner soo get drunk day drink sad useless as sleep haha get fired line cook job chili cuhs suck bad 2 week guess pile shit can not wait get pay tomorrow buy mezcal drink sleep next week still</t>
+          <t>thing good skipping breakfast dinner soo get drunk day drink sad useless as sleep haha get fired line cook job chili cuhs suck bad week guess pile shit can not wait get pay tomorrow buy mezcal drink sleep next week still</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -19993,7 +19989,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>last year get do senior highschool year despite work soo hard since june till next june study hour daily end fall short percentage need enter major want computer science let family major finance since choice hat moreover hat fact living failure never achieve anygoals want never get anywhere ocd take medication therapy kick hard lately negativity make go crazy always depress family disappoint feel like burden every body around always breakdown family always blast relative engineer good major job stick sorry write organize disoriented right feel like die would relief every body around burden relief shame can not stand live self know complete utter failure deserve anything never get anywhere life want end want die can not live anymore relief know die one care want hurt anyone friends family wish relative even care call visit hospitalize cycling accident wish die forget instead live misery burden family want kill self bit religious suicide prohibit religion wish could want die can not live anymore hate self hate see self mirror every morningi hatr wake know still alive cry self sleep every might wish never wakeup still know escape go shame deprisson wish would die instant need help nothing help</t>
+          <t>last year get do senior highschool year despite work soo hard since june till next june study hour daily end fall short percentage need enter major want computer science let family major finance since choice hat moreover hat fact living failure never achieve anygoals want never get anywhere ocd take medication therapy kick hard lately negativity make go crazy always depress family disappoint feel like burden every body around always breakdown family always blast relative engineer good major job stick sorry write organize disoriented right feel like die would relief every body around burden relief shame can not stand live self know complete utter failure deserve anything never get anywhere life want end want die can not live anymore relief know die care want hurt anyone friends family wish relative even care call visit hospitalize cycling accident wish die forget instead live misery burden family want kill self bit religious suicide prohibit religion wish could want die can not live anymore hate self hate see self mirror every morningi hatr wake know still alive cry self sleep every might wish never wakeup still know escape go shame deprisson wish would die instant need help nothing help</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -20010,7 +20006,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>get talent whatsoever get nothing want try hard search good find actually hopeless fuck talent whatsoever motivation anything well huge disappointment everyone around hurt love friend family want proud nothing proud recently try best everything study socialize class take everything motivation make parent friend proud useful human love loveable lose motivation recently parent say good enough say young sister well laugh get pissed tell try best tell result grade evidence get 2 b math social study 01 02 difference otherwise athey call dumb regret spending much money go way work hard get best result say act depressed reason whine life spoil break completely father say losing motivation go work earn money wasting mother say disappoint fault could get straight everything admit could do well pushed harder admit do word hurt lot point still want impress friend parent tell want hang keep continue dumb useless helpful make feel like every effort make useless nobody ever tell good job parent compliment whatsoever do diagnose depression even parent never take seriously say lie want loveable person love day motivation anything want die may sound like whine parent validation want live know even know write really really want die disappear parent waste hard earn money anymore could support talented young sister instead hope could use money go vacation something useful instead waste burden people around hate want die hopefully soon enough</t>
+          <t>get talent whatsoever get nothing want try hard search good find actually hopeless fuck talent whatsoever motivation anything well huge disappointment everyone around hurt love friend family want proud nothing proud recently try best everything study socialize class take everything motivation make parent friend proud useful human love loveable lose motivation recently parent say good enough say young sister well laugh get pissed tell try best tell result grade evidence get bs math social study difference otherwise athey call dumb regret spending much money go way work hard get best result say act depressed reason whine life spoil break completely father say losing motivation go work earn money wasting mother say disappoint fault could get straight everything admit could do well pushed harder admit do word hurt lot point still want impress friend parent tell want hang keep continue dumb useless helpful make feel like every effort make useless nobody ever tell good job parent compliment whatsoever do diagnose depression even parent never take seriously say lie want loveable person love day motivation anything want die may sound like whine parent validation want live know even know write really really want die disappear parent waste hard earn money anymore could support talented young sister instead hope could use money go vacation something useful instead waste burden people around hate want die hopefully soon enough</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -20061,7 +20057,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>hate hate everything affect environment flunk school ruin relationship people see people drop life really really happy ask help multiple time one take seriously though funny ill ever everyone everyday pain pain pain hurt keep go towards nothing pain hurt self hate</t>
+          <t>hate hate everything affect environment flunk school ruin relationship people see people drop life really really happy ask help multiple time take seriously though funny ill ever everyone everyday pain pain pain hurt keep go towards nothing pain hurt self hate</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -20078,7 +20074,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>suffer asthma bronchopulmonary dysplasia heart condition lung function 80 suffer pneumonia multiple time past place oxygen contract coronavirus would likely die family generally healthy would likely alright experience mild case virus think would rather die virus suicide since spare family guilt</t>
+          <t>suffer asthma bronchopulmonary dysplasia heart condition lung function suffer pneumonia multiple time past place oxygen contract coronavirus would likely die family generally healthy would likely alright experience mild case virus think would rather die virus suicide since spare family guilt</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -20095,7 +20091,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>finally decide reach help 4 month ago start take med go psychotherapy last two week feel really like usual struggle get bed point end skip morning class can not focus want around anyone can not stop think worthless effort make last 4 month nice would die</t>
+          <t>finally decide reach help month ago start take med go psychotherapy last week feel really like usual struggle get bed point end skip morning class can not focus want around anyone can not stop think worthless effort make last month nice would die</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -20112,7 +20108,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>want die somewhere 11 9 year unsuccessfully attempt suicide least 5 time honestly can not remember self harm 2 year keep alive safety net parent willing house fee clothe dark moment cause juuuuuuuuust comfortable enough kill finally move wait list home 3 month finally find one tomorrow get chance go see pick key day alone sure desperate enough properly follow suicide seriously can not wait anyone else ever felt giddy prospect kill also currently stick parent god frustrate want scream shout finally get die sensitive bitch ass would try stop bite tongue constantly man hard</t>
+          <t>want die somewhere year unsuccessfully attempt suicide least time honestly can not remember self harm year keep alive safety net parent willing house fee clothe dark moment cause juuuuuuuuust comfortable enough kill finally move wait list home month finally find tomorrow get chance go see pick key day alone sure desperate enough properly follow suicide seriously can not wait anyone else ever felt giddy prospect kill also currently stick parent god frustrate want scream shout finally get die sensitive bitch ass would try stop bite tongue constantly man hard</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -20163,7 +20159,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>19 first attempt age 7 basically want die life attempt several time since recently august realize start mode select physically impossible college unemployed look job look month live isolated area know drive option nonexistant school active theater would ask close friend come performance desire support even though knew much meant even though offer arrange ride pay ticket always one make plan best friend would frequently cancel plan day one best friend still pajamas come pick tell feel like go shut door face friend call hour 18th birthday party start already tell would rather go see friend since graduation run public ignore pretend recognize bunch internet friend close know like send funny meme care person blame family really care either grow young adult one give shit parent big messy divorce bank take house result give whole life everything ever know move halfway across state mom whole experience traumatic plague horrific nightmare every night 3 different antidepressant last 6 year one work lot health problem worsen despite best effort direction want go college constant pain think want die beg god time let die can not take anymore still want anything entertainment business refuse even ensemble part every audition want badly wake</t>
+          <t>first attempt age basically want die life attempt several time since recently august realize start mode select physically impossible college unemployed look job look month live isolated area know drive option nonexistant school active theater would ask close friend come performance desire support even though knew much meant even though offer arrange ride pay ticket always make plan best friend would frequently cancel plan day best friend still pajamas come pick tell feel like go shut door face friend call hour th birthday party start already tell would rather go see friend since graduation run public ignore pretend recognize bunch internet friend close know like send funny meme care person blame family really care either grow young adult give shit parent big messy divorce bank take house result give whole life everything ever know move halfway across state mom whole experience traumatic plague horrific nightmare every night different antidepressant last year work lot health problem worsen despite best effort direction want go college constant pain think want die beg god time let die can not take anymore still want anything entertainment business refuse even ensemble part every audition want badly wake</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -20180,7 +20176,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>wife pass cancer 4 year ago may 2 year start come depression turn everything around money nice car nice home manage amazing woman life understand dealt know one type story need share 50 year old alot go full time musician always busy word life good feel finish tire still suffer depression drink drug work almost every day therapy can not shake go head kill 23 year old son otherwise would go long ago anybody read share thought go life want honestly world pretty shitty place alot good somewhere</t>
+          <t>wife pass cancer year ago may year start come depression turn everything around money nice car nice home manage amazing woman life understand dealt know type story need share year old alot go full time musician always busy word life good feel finish tire still suffer depression drink drug work almost every day therapy can not shake go head kill year old son otherwise would go long ago anybody read share thought go life want honestly world pretty shitty place alot good somewhere</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -20197,7 +20193,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>depression struggle suicide currently college make realize much life suck know thing bad place follow thing bother 1all go school get career like work pay bill 2i interested fun anything 3 college make depressed feel like can not succeed anything waste money 4 factor people hate reason politics race sexuality etc someone please help also take depression med talk doctor work none counsel therapy help</t>
+          <t>depression struggle suicide currently college make realize much life suck know thing bad place follow thing bother go school get career like work pay bill interested fun anything college make depressed feel like can not succeed anything waste money factor people hate reason politics race sexuality etc someone please help also take depression med talk doctor work none counsel therapy help</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -20231,7 +20227,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>awake last 3 hour partner get home around 2 wake able close eye 5 minute sure accurate tire without graphic ideation overwhelm physical intent want kill much want kill reach feel little less lonely right</t>
+          <t>awake last hour partner get home around wake able close eye minute sure accurate tire without graphic ideation overwhelm physical intent want kill much want kill reach feel little less lonely right</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -20248,7 +20244,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>hello everyone know start feel really helpless honest feel like burden like parasite every day pain joy temporary surrender point childhood mess dysfunctional parent never good want idea mother borderline personality disorder mean violent physically emotionally father narcissistic abuse emotionally make feel like burden never keep promise never happy long time would say life 10 happy 90 pain 21 know survive point reach limit try take life away success family learn moment think finally consider short amount time always walk eggs parent university right hard energy persevere energy level low low try therapy med take walk sport every time feel like finally get life together something happen go example thought could hope two week ago cat die real family really love always kind help lot care presence destroy tried get issue parent exhaust strength continue life helpless sincerely consider end everything week much could erase memory start possible</t>
+          <t>hello everyone know start feel really helpless honest feel like burden like parasite every day pain joy temporary surrender point childhood mess dysfunctional parent never good want idea mother borderline personality disorder mean violent physically emotionally father narcissistic abuse emotionally make feel like burden never keep promise never happy long time would say life happy pain know survive point reach limit try take life away success family learn moment think finally consider short amount time always walk eggs parent university right hard energy persevere energy level low low try therapy med take walk sport every time feel like finally get life together something happen go example thought could hope week ago cat die real family really love always kind help lot care presence destroy tried get issue parent exhaust strength continue life helpless sincerely consider end everything week much could erase memory start possible</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -20299,7 +20295,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>tire extremely hard life father use crack till 12 beat mom every day stop still impossible deal cocaine talk mom another kid another husband far family live u alone work 10 hour shiiiiit 19 tire know hard barely pay rent ant eat tire anyone rely since bear well let go know srry</t>
+          <t>tire extremely hard life father use crack till beat mom every day stop still impossible deal cocaine talk mom another kid another husband far family live u alone work hour shiiiiit tire know hard barely pay rent ant eat tire anyone rely since bear well let go know srry</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -20316,7 +20312,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>try best loved heart soul enough can not live another heartbreak choose nothing leave hollow happiness joy life soulmate heart shatter million piece can not without</t>
+          <t>try best loved heart soul enough can not live another heartbreak choose nothing leave hollow happiness joy life soulmate heart shatter piece can not without</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -20418,7 +20414,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>perhaps coronavirus answer although sure end life 31years old odds</t>
+          <t>perhaps coronavirus answer although sure end life year old odds</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -20435,7 +20431,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>sister cry say want kill since mom take away ps4 phone f asl punch hole wall cut arm anything say help really worried want die please help</t>
+          <t>sister cry say want kill since mom take away ps phone f asl punch hole wall cut arm anything say help really worried want die please help</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -20447,12 +20443,12 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>35f suffer clinical depression feel trap 9 year relationship</t>
+          <t>f suffer clinical depression feel trap year relationship</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>hi sure post since relates relationship deal depression since early teen continue major problem life mid 20 meet current partner emotionally mature supportive trusting felt espisodes frequent severe however begin hit 30 start notice large issue overlook young important like finanical health view moneysaving hold job little responsibility lowstress pay ie near minimum wage work overtime time afford house need pay half mortgage order afford say love life interested get marry also almost nearly decade old feel trap much love want leave major reason want leave different view towards finance marriage move want move away parent live want leave long time also scar decision cause anxiety depression spring full force comptemplating suicide would rather die live live since early 20 every time live alone would result suicidal nearly every day struggle graduate late college manage business degree nothing earn unstable job history act cover people okay realize emotionally dependent scare family friends talk emotional support also hate state live many bad memory past abuse parent also live relationship remains strain want move city start know depression talk trust decision judgement low esteem choice back reason leave partner thoughi feel like say want relationship since instance can not even hold steady job make hard leave also currently school try job suitable personalitymassage stick live another 6 month find courage live past find care live anyone mean anyone leave scare stay stay work thing sure know can not sleep well eat much cry every day sometimes would rather die make life decision people mental illness subject whatever relationship get lucky even partner put u</t>
+          <t>hi sure post since relates relationship deal depression since early teen continue major problem life mid met current partner emotionally mature supportive trusting felt espisodes frequent severe however begin hit started notice large issue overlook young important like finanical health view moneysaving hold job little responsibility lowstress pay ie near minimum wage work overtime time afford house need pay half mortgage order afford say love life interested get marry also almost nearly decade old feel trap much love want leave major reason want leave different view towards finance marriage move want move away parent live want leave long time also scar decision cause anxiety depression spring full force comptemplating suicide would rather die live live since early every time live alone would result suicidal nearly every day struggle graduate late college manage business degree nothing earn unstable job history act cover people okay realize emotionally dependent scare family friends talk emotional support also hate state live many bad memory past abuse parent also live relationship remains strain want move city start know depression talk trust decision judgement low esteem choice back reason leave partner thoughi feel like say want relationship since instance can not even hold steady job make hard leave also currently school try job suitable personalitymassage stick live another month find courage live past find care live anyone mean anyone leave scare stay stay work thing sure know can not sleep well eat much cry every day sometimes would rather die make life decision people mental illness subject whatever relationship get lucky even partner put u</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -20469,7 +20465,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>make throwaway start suspect people know see previous post feel empty sort empty feel intruder body mind good 3 year stop live merely exist know point likely live child destroyed system enough mixture starvation purge probably child point think likely die hand thing actively stop maybe fact want paramedic family find body sound sick conceeded sometimes think fat find haha ironic make deal would reach certain weight slowly kill via starvation exhaustion know painful could deserve poor excuse human try speak family friend want anyones sympathy even though vent</t>
+          <t>make throwaway start suspect people know see previous post feel empty sort empty feel intruder body mind good year stop live merely exist know point likely live child destroyed system enough mixture starvation purge probably child point think likely die hand thing actively stop maybe fact want paramedic family find body sound sick conceeded sometimes think fat find haha ironic make deal would reach certain weight slowly kill via starvation exhaustion know painful could deserve poor excuse human try speak family friend want anyones sympathy even though vent</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
@@ -20520,7 +20516,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>hate life much would better dead feel everyday nothing life get good friend see like anymore lot talk school friend seem like like anymore find lot talk shit thought friend already get bully half year want live anymore can not even see doctor even though legal right one none available walk clinic useless canada shit healthcare grade bad disappointment parent point want drown problem drug gf keep fight problem move new school tell everyone nice especially boys like trouble ugly nothing offer personality feel like guy well need want help one help do none make sense ramble want die contemplating</t>
+          <t>hate life much would better dead feel everyday nothing life get good friend see like anymore lot talk school friend seem like like anymore find lot talk shit thought friend already get bully half year want live anymore can not even see doctor even though legal right none available walk clinic useless canada shit healthcare grade bad disappointment parent point want drown problem drug gf keep fight problem move new school tell everyone nice especially boys like trouble ugly nothing offer personality feel like guy well need want help help do none make sense ramble want die contemplating</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -20554,7 +20550,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>childhood self fuck effeminate little boy make easy target could interest fuck way yet fuck vanilla as piece shit corner people show shoot shit thought would make strong interest person make quiet boring easy ignore fuck remember physical emotional abuse dad family fuck let mom run little experiment body like sort lab rat fuck speak suffer go adult really improved life make abuser hate get slap wrist huh fuck remember childhood especially bad part 25 experience idea sort hell get vague memory fault want dead like want dead want suffer way ever survive experience anymore hold fraction malice horrible wish anyone person world deserve suffer ash kill kill</t>
+          <t>childhood self fuck effeminate little boy make easy target could interest fuck way yet fuck vanilla as piece shit corner people show shoot shit thought would make strong interest person make quiet boring easy ignore fuck remember physical emotional abuse dad family fuck let mom run little experiment body like sort lab rat fuck speak suffer go adult really improved life make abuser hate get slap wrist huh fuck remember childhood especially bad part experience idea sort hell get vague memory fault want dead like want dead want suffer way ever survive experience anymore hold fraction malice horrible wish anyone person world deserve suffer ash kill kill</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -20571,7 +20567,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>eldest child young sister always favour knew age around 5 around grade 5 major test parent start hit tell useless trash never fight every time blame relationship problem despite still act normal around start tell interest laugh mock wanting thing philosophy would live life want live everything want get depressed young age start cut way relieve stress anger awkward relationship parent flinch every time yell even talk sometimes still act normal around get scar even slight thing wrong yet still joke around sister go test could even care less mark complain ipad take away slight word make upset kind glad raise like become spoil brat like still mixed feeling find judge people could literally say absurd thiing would care unless harm feel like connect parent abuse anyway kind need rant since dad say thing kind trigger memory ok bye</t>
+          <t>eldest child young sister always favour knew age around around grade major test parent start hit tell useless trash never fight every time blame relationship problem despite still act normal around start tell interest laugh mock wanting thing philosophy would live life want live everything want get depressed young age start cut way relieve stress anger awkward relationship parent flinch every time yell even talk sometimes still act normal around get scar even slight thing wrong yet still joke around sister go test could even care less mark complain ipad take away slight word make upset kind glad raise like become spoil brat like still mixed feeling find judge people could literally say absurd thiing would care unless harm feel like connect parent abuse anyway kind need rant since dad say thing kind trigger memory ok bye</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -20588,7 +20584,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>23 worthless as history degree physical attraction whatsoever real job social life hope get u fuck country sure niece nephews might miss good kid get dead reason kill yet much pussy shoot empty fuckin head</t>
+          <t>worthless as history degree physical attraction whatsoever real job social life hope get u fuck country sure niece nephews might miss good kid get dead reason kill yet much pussy shoot empty fuckin head</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -20622,7 +20618,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>buy bottle wine way home work lastnight drink alone never good felt like really need drink anyway 2 glass try find somebody hang texting friend nearby everyone busy felt lonely painfully lonely start hat learn really love past year lastnight dark side emerge wanted hurt take knife leg start cut something do since high school finish look knew mistake go hide till heals sex beachpool trip short weather always warm live even though winter thing still option limited moment weakness try forgive get chest one person could talk lot feel like need say something well</t>
+          <t>buy bottle wine way home work lastnight drink alone never good felt like really need drink anyway glass try find somebody hang texting friend nearby everyone busy felt lonely painfully lonely start hat learn really love past year lastnight dark side emerge wanted hurt take knife leg start cut something do since high school finish look knew mistake go hide till heals sex beachpool trip short weather always warm live even though winter thing still option limited moment weakness try forgive get chest person could talk lot feel like need say something well</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -20634,12 +20630,12 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>think need leave partner 10 year</t>
+          <t>think need leave partner year</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>girlfriend together ten year know anymore suffers depression anxiety severe ocd last couple year anxiety worsen last month much see anybody anymore panic attack end cancel plan niece third birthday party tomorrow suppose go stay parent weekend want go fair enough see family less less needing weekend family friends mine really feel like nobody else exhaust ask family friends back home talk want tell anyone believe way make everyone life shit try tell true deep root mind think would better dead threaten suicide feel like leave even weekend would kill really threat mindset think good dead know anymore really even know kme asshole lose confused tire still love care life anymore stop take medication year ago think make worse respected wish honest sometimes seemed fine lately absolutely fine refuse go back form medication know please help leave worry also worried feel sick</t>
+          <t>girlfriend together year know anymore suffers depression anxiety severe ocd last couple year anxiety worsen last month much see anybody anymore panic attack end cancel plan niece third birthday party tomorrow suppose go stay parent weekend want go fair enough see family less less needing weekend family friends mine really feel like nobody else exhaust ask family friends back home talk want tell anyone believe way make everyone life shit try tell true deep root mind think would better dead threaten suicide feel like leave even weekend would kill really threat mindset think good dead know anymore really even know kme asshole lose confused tire still love care life anymore stop take medication year ago think make worse respected wish honest sometimes seemed fine lately absolutely fine refuse go back form medication know please help leave worry also worried feel sick</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -20673,7 +20669,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>40 fought high low depression think reality never go away life live lie lie much move forward great family nice new home nice car new business great career nothing seem make happy long think want end life yes know suicide easy way temporary problem life today longer temporary feel longer feel alive anymore 1st rodeo try end life 10 year ago wish never survive today think feeling feel much one person take every day every second mostly every breath take day want end life find way end po follow throw go bed say prayer go sleep lord soul keep need wake morning please take life let rest peace sleep praise lord savoir take life take soul take away pain live pain live much take everyday wear fake smile every day drive vehicle office think pole bridge wall truck drive building jump never feel pain feel know funnest man alive robin williams end life want hard live world alive dead easy anymore rather die live lie fake smile show ok</t>
+          <t>fought high low depression think reality never go away life live lie lie much move forward great family nice new home nice car new business great career nothing seem make happy long think want end life yes know suicide easy way temporary problem life today longer temporary feel longer feel alive anymore st rodeo try end life year ago wish never survive today think feeling feel much person take every day every second mostly every breath take day want end life find way end po follow throw go bed say prayer go sleep lord soul keep need wake morning please take life let rest peace sleep praise lord savoir take life take soul take away pain live pain live much take everyday wear fake smile every day drive vehicle office think pole bridge wall truck drive building jump never feel pain feel know funnest man alive robin williams end life want hard live world alive dead easy anymore rather die live lie fake smile show ok</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -20690,7 +20686,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>nowadays people start embrace body positivity learn love can not every time look mirror see flaws stomach bulge much face fat acne ugly need shave teeth yellow butts small etc can not see good big insecurity stomach can not help think fat even though average bmi 55 140 playing sportworking every day think insecurity sort stem everyone around stick thin one girl grade keep say fat half foot taller weigh less know bother also gymnast see everyone around thin look good leotard make feel awful eating lot can not help mad later put much weight sometimes can not help like food gotten point lunch granola bar hungry throughout day anyone tip help raise self esteem greatly appreciate honestly one probably go see read thanks random reddit user listen rant breathtaking ann ominous</t>
+          <t>nowadays people start embrace body positivity learn love can not every time look mirror see flaws stomach bulge much face fat acne ugly need shave teeth yellow butts small etc can not see good big insecurity stomach can not help think fat even though average bmi play sportworking every day think insecurity sort stem everyone around stick thin girl grade keep say fat half foot taller weigh less know bother also gymnast see everyone around thin look good leotard make feel awful eating lot can not help mad later put much weight sometimes can not help like food gotten point lunch granola bar hungry throughout day anyone tip help raise self esteem greatly appreciate honestly one probably go see read thanks random reddit user listen rant breathtaking ann ominous</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -20707,7 +20703,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>still want keep living zero hope future goal dream thing keep scar pain like meme mom would sad keep joke friend really really want stop carry life</t>
+          <t>still want keep living hope future goal dream thing keep scar pain like meme mom would sad keep joke friend really really want stop carry life</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -20724,7 +20720,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>can not anymore cry 3 hour can not get stop everyone life hate family want grade drain hate look really think worth anymore</t>
+          <t>can not anymore cry hour can not get stop everyone life hate family want grade drain hate look really think worth anymore</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -20736,7 +20732,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>one really care sent psych ward tell therapist much</t>
+          <t>really care sent psych ward tell therapist much</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
@@ -20792,7 +20788,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>suicidal thought long time see gp put med counsel name try apart feel like enough option end life sound dramatic selfish honest feel like nobody anymore disappointing people around like parent example know deep failure eye prolong upset make life difficult certain aspect depression constantly make worry also feel though end would worry would go speak friend turn around say man stop soft cause believe anyone close talk feel like can not rely anyone anymore would better dead ex split 6 month ago short term relationship one thing felt really happy end sad perhaps perhaps capable relationship clearly something wrong see move another shatter deeply can not seem want get back believe type person anyone like time many thing could add list like mid 20 part time job feel motivate want look career feel good enough anymore feel though really do life time really know anymore sad exist world want apart anymore type really know else talk anymore want crawl ball cry every day wake go sleep thinking want dead wish could happy feel option anymore</t>
+          <t>suicidal thought long time see gp put med counsel name try apart feel like enough option end life sound dramatic selfish honest feel like nobody anymore disappointing people around like parent example know deep failure eye prolong upset make life difficult certain aspect depression constantly make worry also feel though end would worry would go speak friend turn around say man stop soft cause believe anyone close talk feel like can not rely anyone anymore would better dead ex split month ago short term relationship thing felt really happy end sad perhaps perhaps capable relationship clearly something wrong see move another shatter deeply can not seem want get back believe type person anyone like time many thing could add list like mid part time job feel motivate want look career feel good enough anymore feel though really do life time really know anymore sad exist world want apart anymore type really know else talk anymore want crawl ball cry every day wake go sleep thinking want dead wish could happy feel option anymore</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -20819,11 +20815,7 @@
       </c>
     </row>
     <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
-      </c>
+      <c r="A1202" t="inlineStr"/>
       <c r="B1202" t="inlineStr">
         <is>
           <t>call get say social security number involve suspicious activity b real fmlagain want go jury duty man fuck fuck sorry</t>
@@ -20872,12 +20864,12 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>incredibly lethargicachy today spend majority lay couch also 2 cat dog sleep alongside</t>
+          <t>incredibly lethargicachy today spend majority lay couch also cat dog sleep alongside</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>scatter around body couch three lay peacefully asleep much bearable feel sick need get try start dinner family stay recuperate go another hour want come home nothing need cut four vegetableswish luck</t>
+          <t>scatter around body couch lay peacefully asleep much bearable feel sick need get try start dinner family stay recuperate go another hour want come home nothing need cut vegetableswish luck</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -20894,7 +20886,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>today appointment therapist let know suicidal thought want committed able convince need hospitalize let leave office condition check every twelve hour text hear agree upon time would send emts house glad able honest feel willing compromise type intervention use</t>
+          <t>today appointment therapist let know suicidal thought want committed able convince need hospitalize let leave office condition check every hour text hear agree upon time would send emts house glad able honest feel willing compromise type intervention use</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -20911,7 +20903,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>diagnose depression anxiety two year agoi bad relationship year half ago meet new guy move room live central london afford room use antidepressant year work part time self study want get uni think really want study dentistry even stand chance get uni friend boyfriend work part time go college 22 feel like fail everything can not interact people without instantly think judge mocked something always overthink create scenario head never happen think always scar people hate mad randomly remember bad memory past keep thinking happy honestly know life stick honestly feel like get stab die would relieve</t>
+          <t>diagnose depression anxiety year agoi bad relationship year half ago meet new guy move room live central london afford room use antidepressant year work part time self study want get uni think really want study dentistry even stand chance get uni friend boyfriend work part time go college feel like fail everything can not interact people without instantly think judge mocked something always overthink create scenario head never happen think always scar people hate mad randomly remember bad memory past keep thinking happy honestly know life stick honestly feel like get stab die would relieve</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -20974,12 +20966,12 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>break 2 year sobrietysuicidal thought</t>
+          <t>break year sobrietysuicidal thought</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>today drink first time almost 2 year point want feel anymore job depression cripple 6 month since leave last job 3 year get point could take anymore try keep busy home renovation can not even get bed past 1pm even go bed early know need see someone can not even make appointment today know snap want anymore tire tire force stay alive would kill long time ago would destroy small family know much long</t>
+          <t>today drink first time almost year point want feel anymore job depression cripple month since leave last job year get point could take anymore try keep busy home renovation can not even get bed past pm even go bed early know need see someone can not even make appointment today know snap want anymore tire tire force stay alive would kill long time ago would destroy small family know much long</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -21013,7 +21005,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>barely graduate high school due many absence two semester college take medical leave absence would fall behind coursework past point able catch try get job thing can not promise go show work base pattern behavior psychiatrist keep put pill work think therapist help either know step take can not think meant alive today world can not survive without burden everyone else ineptness really want kill wish never bear could normal thing functional</t>
+          <t>barely graduate high school due many absence semester college take medical leave absence would fall behind coursework past point able catch try get job thing can not promise go show work base pattern behavior psychiatrist keep put pill work think therapist help either know step take can not think meant alive today world can not survive without burden everyone else ineptness really want kill wish never bear could normal thing functional</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
@@ -21064,7 +21056,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>problem start 4 year ago generally calm person introvert ambivalent like liked help quite specific empathetic although stayed normal cool people could dick time noticed stand others go somewhere spent time etc problem start high school come party crazy outing everyone snap tell exit unknown anyone one friend find something wrong begin change want reprogram upload extroverted software time completely distorted picture reality example always balance make quick illconsidered decision see others suppress add new software see others respond immediately hut also begin small seemingly low risk example change plenty everything know sick begin think people live like wanted experience beautiful moment hear told last long time current personality change copy every behavior think pattern well one take example half year get depressed felt terrible memory loss pit realize do want unprogram begin think analyze personality lot change behave feel tried remember previous identity many copy habit know behave feel think feel like unreal dream without contact feeling emotion situation continue day know feel anything feel thing keep alive awareness use good head often thoughts suicide sick thought classify people accord quality useful divide people better bad feel anything 4 year feel alive sadness shot joy intense feeling constantly compare others know look others wonder feel think chance would face psychologist therapy nothing keep touch psychologist tell stop think follow feeling try still want write feel lose thing keep alive reason nothing else tell think remember like happy know thank reading advice</t>
+          <t>problem start year ago generally calm person introvert ambivalent like liked help quite specific empathetic although stayed normal cool people could dick time noticed stand others go somewhere spent time etc problem start high school come party crazy outing everyone snap tell exit unknown anyone friend find something wrong begin change want reprogram upload extroverted software time completely distorted picture reality example always balance make quick illconsidered decision see others suppress add new software see others respond immediately hut also begin small seemingly low risk example change plenty everything know sick begin think people live like wanted experience beautiful moment hear told last long time current personality change copy every behavior think pattern well one take example half year get depressed felt terrible memory loss pit realize do want unprogram begin think analyze personality lot change behave feel tried remember previous identity many copy habit know behave feel think feel like unreal dream without contact feeling emotion situation continue day know feel anything feel thing keep alive awareness use good head often thoughts suicide sick thought classify people accord quality useful divide people better bad feel anything year feel alive sadness shot joy intense feeling constantly compare others know look others wonder feel think chance would face psychologist therapy nothing keep touch psychologist tell stop think follow feeling try still want write feel lose thing keep alive reason nothing else tell think remember like happy know thank reading advice</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -21098,7 +21090,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>notice lifelong friend elementary middle school like everyone else never boyfriend hometown state humor mindset hobby interest fuck people conform either even sound like live bay area make even bad new cancer generation tech asshole everyone samefake one kind genuine anymore never felt comfortable fuck 0 want kill never get</t>
+          <t>notice lifelong friend elementary middle school like everyone else never boyfriend hometown state humor mindset hobby interest fuck people conform either even sound like live bay area make even bad new cancer generation tech asshole everyone samefake one kind genuine anymore never felt comfortable fuck want kill never get</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -21115,7 +21107,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>today work mental breakdown can not stop feeling sad suddenly suicide thought keep pop head keep fall apart never smoke reason want bad cry cut continuously sad thing one care coworker never ask start smoke parent laugh stupidthat think might care hah mess right can not stop think dead honest feel like sometimes even internet care parent can not love anymore accident reason make everyone suffer never want die though life suck make reason get way</t>
+          <t>today work mental breakdown can not stop feeling sad suddenly suicide thought keep pop head keep fall apart never smoke reason want bad cry cut continuously sad thing care coworker never ask start smoke parent laugh stupidthat think might care hah mess right can not stop think dead honest feel like sometimes even internet care parent can not love anymore accident reason make everyone suffer never want die though life suck make reason get way</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -21132,7 +21124,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>life repeat wake thing every single day friends one feel empty alone guess another night sit stare nothing think crap life see everyone happy great time meanwhile home 18 year old graduate even know want go college always think end come time</t>
+          <t>life repeat wake thing every single day friend feel empty alone guess another night sit stare nothing think crap life see everyone happy great time meanwhile home year old graduate even know want go college always think end come time</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
@@ -21183,7 +21175,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>one two every day go list important people know go would rather small form closure close</t>
+          <t>every day go list important people know go would rather small form closure close</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
@@ -21195,12 +21187,12 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>30 year old get good</t>
+          <t>year old get good</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>every time start build life get ripped apart day relapse alcohol everything go shit could go jail life always get bad want die 30 get bad bad bad sure small space joy worth want slit wrist vertically want end suffering love good time want go life longer also physical disability little scared death go die either way scar pain want life end</t>
+          <t>every time start build life get ripped apart day relapse alcohol everything go shit could go jail life always get bad want die get bad bad bad sure small space joy worth want slit wrist vertically want end suffering love good time want go life longer also physical disability little scared death go die either way scar pain want life end</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
@@ -21217,7 +21209,7 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>hey 14 year old female 9th grade right low point life one im14andthisisdeep girl haha moment really want discus everything yet one situation also please mind bad expressing may sound repetitive try list everything friend group consist around 9 people think keep add explain later girl friend group can not really say friend really close keep avoid start avoid around start school year start show dislike around friend talk jokingly can not recall properly sorry go receive flower valentine day hence say people friend group would group watch movie together curious ask something related sorry can not remember exactly think say something like oh movie like would event take place rudely reply girl friend group star rude way way can not read expression kind hurt behaviour kept continue around day later go spot friend sit sat next girl apparently dislike immediately stood rush kid run away opposite side sit blankly star hurt frick group stay silent girl look say oh know shit mood shittiest mood compare whole day walk hsie class 2 friend ask one privacy call sally let u call fiona keep avoid sally reply say say something fiona month ago piss sally tell worry fiona petty person honestly think okay wtf actually actually tear bit due sadness extent cry though timeskip day fiona go opposite side friend circle always1 try near even slight near go even away ask someone friendsclose fiona go commerce class next period explain situation whilst cling edge wall like yandere girl yandere simulator awkward af seriously also respond something similar say fiano use act like need get use tear extend cry le fuck sigh add oh like say something similar sally say petty ugh tired hearing word everyone timeskip keep avoid sit next recently go bathroom another girl whilst walk back class fiona respond hey name ignore wow nice talk glare negative reaction today hsie class lunch complain annoy way bore fuck piano responds maybe friend pause literally flash emotion hit hurtfulness pain frustration anger name enough play say something around maybe respond differently direct nicely hate whatever tell say sorry blah blah blah sorry start notice kind year lead hurt people take advantage go top yeah girl would hate dislike talk thread would wayyy long fiona reply nothingno nothing wrong hate spread bad mood bad morning math test sleep stay study also extremely stress group go silent stop talk enough want apart group explain later want near fuckinghadenough abruptly leave group sorry mention earlier often something shitty walk around star happy mean really know people friend fake smilingugh reason approach closely stare ugh fuck amazing life also talk friend fix group especially around 8th grade know new student teacher would force put group well welcome mine anyways group basically new people come 1 8th grade never meet old friend come backleft would another girl would hang group another one one year 9th grade already 6th week 2 girl introduce even remember name certain thing create friend group example like book stay bookworm bookworm group though nothing like make feel close friend friend group closely connect one another like lunch fuck bore last time fun recess lunchnote_ 4 5 day school meeting lunch src thing people eat due boredom half go phones little interaction create quiet quiet group talk laugh seriously never felt close friend would go party park movie home photo post instagram one time party tag include one thanks way close though printed photo card picture share memory phone case one picture korean hand heart saranghaeyo thingy make together circle wow like nott hurt close feel lonely around one talk one trust go make friend reach bout loneliness online different platform talk nice talk someone online though know keep secret sorry longer think want talk never think something think small would end long may post future something want elaborate please feel free ask respond personal hehe need someone talk</t>
+          <t>hey year old female th grade right low point life imandthisisdeep girl haha moment really want discus everything yet situation also please mind bad expressing may sound repetitive try list everything friend group consist around people think keep add explain later girl friend group can not really say friend really close keep avoid start avoid around start school year start show dislike around friend talk jokingly can not recall properly sorry go receive flower valentine day hence say people friend group would group watch movie together curious ask something related sorry can not remember exactly think say something like oh movie like would event take place rudely reply girl friend group star rude way way can not read expression kind hurt behaviour kept continue around day later go spot friend sit sat next girl apparently dislike immediately stood rush kid run away opposite side sit blankly star hurt frick group stay silent girl look say oh know shit mood shittiest mood compare whole day walk hsie class friend ask privacy call sally let u call fiona keep avoid sally reply say say something fiona month ago piss sally tell worry fiona petty person honestly think okay wtf actually actually tear bit due sadness extent cry though timeskip day fiona go opposite side friend circle always try near even slight near go even away ask someone friendsclose fiona go commerce class next period explain situation whilst cling edge wall like yandere girl yandere simulator awkward af seriously also respond something similar say fiano use act like need get use tear extend cry le fuck sigh add oh like say something similar sally say petty ugh tired hearing word everyone timeskip keep avoid sit next recently go bathroom another girl whilst walk back class fiona respond hey name ignore wow nice talk glare negative reaction today hsie class lunch complain annoy way bore fuck piano responds maybe friend pause literally flash emotion hit hurtfulness pain frustration anger name enough play say something around maybe respond differently direct nicely hate whatever tell say sorry blah blah blah sorry start notice kind year lead hurt people take advantage go top yeah girl would hate dislike talk thread would wayyy long fiona reply nothingno nothing wrong hate spread bad mood bad morning math test sleep stay study also extremely stress group go silent stop talk enough want apart group explain later want near fuckinghadenough abruptly leave group sorry mention earlier often something shitty walk around star happy mean really know people friend fake smilingugh reason approach closely stare ugh fuck amazing life also talk friend fix group especially around th grade know new student teacher would force put group well welcome mine anyways group basically new people come th grade never meet old friend come backleft would another girl would hang group another year th grade already th week girl introduce even remember name certain thing create friend group example like book stay bookworm bookworm group though nothing like make feel close friend friend group closely connect another like lunch fuck bore last time fun recess lunchnote_ day school meeting lunch src thing people eat due boredom half go phones little interaction create quiet quiet group talk laugh seriously never felt close friend would go party park movie home photo post instagram time party tag include thanks way close though printed photo card picture share memory phone case picture korean hand heart saranghaeyo thingy make together circle wow like nott hurt close feel lonely around talk trust go make friend reach bout loneliness online different platform talk nice talk someone online though know keep secret sorry longer think want talk never think something think small would end long may post future something want elaborate please feel free ask respond personal hehe need someone talk</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
@@ -21247,7 +21239,7 @@
       <c r="A1227" t="inlineStr"/>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>try good 10 11 time past year fail yet still want try try co mostly everything useless number fail attempt mean anything weird luck</t>
+          <t>try good time past year fail yet still want try try co mostly everything useless number fail attempt mean anything weird luck</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
@@ -21264,7 +21256,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>title say cut first time yesterday 2 swipe feel like huge step back know therapist can not talk parent think serious know go</t>
+          <t>title say cut first time yesterday swipe feel like huge step back know therapist can not talk parent think serious know go</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
@@ -21281,7 +21273,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>hi v intense realization depress long time though would think met every day slap smile ask kind beauty go see today allow life flow people say nice happy fun charm get good even convince pass 10yrs happy truth though think would know happiness hit face think depress since young childhood come wildly dysfunctional military home constantly bully turned sex drug alcohol young age order cope 25 big city feeling isolate ever work two job go university decide drop trade decide poly felt lonely monogamous relationship poly nothing heartache live close friend clean constantly girl friend even though work night apartment know set boundary one ever respect therapy currently guess almost back assaulted abused cat never cuddle know make deep connection people keep friendship think state world feel helpless hopeless point fantasize die every single day think end life every single day incredibly miserable incredibly tire want go sleep never wake ever</t>
+          <t>hi v intense realization depress long time though would think met every day slap smile ask kind beauty go see today allow life flow people say nice happy fun charm get good even convince pass yrs happy truth though think would know happiness hit face think depress since young childhood come wildly dysfunctional military home constantly bully turned sex drug alcohol young age order cope big city feeling isolate ever work job go university decide drop trade decide poly felt lonely monogamous relationship poly nothing heartache live close friend clean constantly girl friend even though work night apartment know set boundary ever respect therapy currently guess almost back assaulted abused cat never cuddle know make deep connection people keep friendship think state world feel helpless hopeless point fantasize die every single day think end life every single day incredibly miserable incredibly tire want go sleep never wake ever</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
@@ -21298,7 +21290,7 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>lethal dose mefenamic acid 5g know much enough kill</t>
+          <t>lethal dose mefenamic acid g know much enough kill</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
@@ -21315,7 +21307,7 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>suicidal thought go serious something fantasize actually make feel good think want bad big pussy actually anyones 2 cent valuable happy moment today</t>
+          <t>suicidal thought go serious something fantasize actually make feel good think want bad big pussy actually anyones cent valuable happy moment today</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
@@ -21349,7 +21341,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>get chest go go someone read back post spravato short time insurance pull rug two week right two week insurance come back preapproving treatment say since show 50 improvement deny treatment thanks warn fucker course depression anxiety drop severely happen partly piss irate outright shock could even second body mind care suddenly stop treatment downward spiral two week well clinic treatment really get back kind drop like bad habit get money insurance lady call tell say would talk dr charge program ask want almost two week ago speak since try call several time call back like seriously fuck someone tell severely depressed suicidal enough get approve disability easy go fuck ignore call concern let go wayside happen check dr ask next step like well spravato do deal feed fuck quite honestly wait week since talk monday go call tomorrow ask speak supervisor someone charge fuck place let add also first contact set initial appointment take almost two month get right two month begin december first call someone suppose call back wait wait finally call go ask say suicidal someone take seriously call back soon finally get little ridiculous think make suicidal person wait almost two month start treatment evaluate insurance screw truly utterly fed make sick pissed system fail people like wonder mental illness issue stigma around well fuck wonder others treat anything like feel many see people lose shit either end kill self others let clarify way condone behavior say okay simply say wonder issue mental illness county say one go tried therapist countless medicine obviously spravato come pretty much treat life mean nothing completely utterly ignore hate sound narcissistic god damn life important anyone elses conclusion pretty much come last 24 hour stop depend anyone help deal fuck sickness depend somehow get good one nobody else give fuck nobody nothing invest mean nothing get money insurance bother even return phone call right know society come seriously want part anymore disgust point hate people general know sound bad go back reread post really want try understand start hate people always way yes dealt mental illness life capacity another last 5 year hit absolute bottom bottom look back time think depressed think would give anything go back time redo thing really anything else say ramble enough get way make read whole post thank show concern people claim deal depression insurance money stop come</t>
+          <t>get chest go go someone read back post spravato short time insurance pull rug week right week insurance come back preapproving treatment say since show improvement deny treatment thanks warn fucker course depression anxiety drop severely happen partly piss irate outright shock could even second body mind care suddenly stop treatment downward spiral week well clinic treatment really get back kind drop like bad habit get money insurance lady call tell say would talk dr charge program ask want almost week ago speak since try call several time call back like seriously fuck someone tell severely depressed suicidal enough get approve disability easy go fuck ignore call concern let go wayside happen check dr ask next step like well spravato do deal feed fuck quite honestly wait week since talk monday go call tomorrow ask speak supervisor someone charge fuck place let add also first contact set initial appointment take almost month get right month begin december first call someone suppose call back wait wait finally call go ask say suicidal someone take seriously call back soon finally get little ridiculous think make suicidal person wait almost month start treatment evaluate insurance screw truly utterly fed make sick pissed system fail people like wonder mental illness issue stigma around well fuck wonder others treat anything like feel many see people lose shit either end kill self others let clarify way condone behavior say okay simply say wonder issue mental illness county say go tried therapist countless medicine obviously spravato come pretty much treat life mean nothing completely utterly ignore hate sound narcissistic god damn life important anyone elses conclusion pretty much come last hour stop depend anyone help deal fuck sickness depend somehow get good nobody else give fuck nobody nothing invest mean nothing get money insurance bother even return phone call right know society come seriously want part anymore disgust point hate people general know sound bad go back reread post really want try understand start hate people always way yes dealt mental illness life capacity another last year hit absolute bottom bottom look back time think depressed think would give anything go back time redo thing really anything else say ramble enough get way make read whole post thank show concern people claim deal depression insurance money stop come</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
@@ -21366,7 +21358,7 @@
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>2020 kick as bad get laid november pregnancy would allow work get call go back work start saturday use unemployment pay enough make rent bill social assistance help recieving unemployment give 14 day pay rent start eviction process notice landlord wait late payment unemployment come husband take everything value u ps4 switch even guitar pawn shop solid 60 short rent income sight remain day pay put name emergency commission figure people might go honesty one another bomb drop today flu 3 year old daughter day actually scarlet fever get scarlet fever 1800s happen newborn son catch year year lose child face big deep fear know man wish year would stop kick assi need tell world</t>
+          <t>kick as bad get laid november pregnancy would allow work get call go back work start saturday use unemployment pay enough make rent bill social assistance help recieving unemployment give day pay rent start eviction process notice landlord wait late payment unemployment come husband take everything value u ps switch even guitar pawn shop solid short rent income sight remain day pay put name emergency commission figure people might go honesty another bomb drop today flu year old daughter day actually scarlet fever get scarlet fever happen newborn son catch year year lose child face big deep fear know man wish year would stop kick assi need tell world</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
@@ -21383,7 +21375,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>know life eventually get well think recently much want die go park week ago giant bridge lead across river could think jump would never actually know would destroy family hard hard pretend happy tire fuck feel worthless know obviously need therapist can not afford one</t>
+          <t>know life eventually get well think recently much want die go park week ago giant bridge lead across river could think jump would never actually know would destroy family hard hard pretend happy tire fuck feel worthless know obviously need therapist can not afford</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -21451,7 +21443,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>long passion interest even passion life honest lonely af feel worthless hopeless want kill though mind tell id much rather happy thrive prosper strange sure would like say hard worker intuitive problem solver thing aspire know phyiscally mentally capable one part mind part always lurk tell worthless piece shit can not anything even successful still nobody would care point recently lose battle part mind try rationalise life situation even bad thought conclusion come self termination sometimes get overwhelmed imagine gun point chin pull trigger imagine go away almost instantly make feel good moment might legit pull trigger heat moment make real glad gun live uk can not really get one easily anyway edit feel calmer demon bed tomorrow hope want add thing mind perceives major fuck problem like friend girfriend overcome terminal illness even mind want see way say people lot believe healthy mind much human can not overcome look tyson fury pork pie jelly around coke addict get help mental health he heavy weight champion world people like caroline flack sorry misspell get pretty bad sitaution mental health issue make seem 1000x bad healthy mind could go court take punishment dealt repercussion would hard heck take toll sure could do want die kill rational think nothing rational poor mental health think help lot understand science lil bit fact chemical imbalance fuck u many way think definitely help bring perspective</t>
+          <t>long passion interest even passion life honest lonely af feel worthless hopeless want kill though mind tell id much rather happy thrive prosper strange sure would like say hard worker intuitive problem solver thing aspire know phyiscally mentally capable part mind part always lurk tell worthless piece shit can not anything even successful still nobody would care point recently lose battle part mind try rationalise life situation even bad thought conclusion come self termination sometimes get overwhelmed imagine gun point chin pull trigger imagine go away almost instantly make feel good moment might legit pull trigger heat moment make real glad gun live uk can not really get easily anyway edit feel calmer demon bed tomorrow hope want add thing mind perceives major fuck problem like friend girfriend overcome terminal illness even mind want see way say people lot believe healthy mind much human can not overcome look tyson fury pork pie jelly around coke addict get help mental health he heavy weight champion world people like caroline flack sorry misspell get pretty bad sitaution mental health issue make seem x bad healthy mind could go court take punishment dealt repercussion would hard heck take toll sure could do want die kill rational think nothing rational poor mental health think help lot understand science lil bit fact chemical imbalance fuck u many way think definitely help bring perspective</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -21468,7 +21460,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>never write reddit sure expect guess feeling release suppress feeling put show everyone else despite year bring hard time life strong resilient truth interact people bubbly smiley persona expect soon alone face blank emotion numb feeling push resurface expression completely change alone different person person one know facade start fall apart want anymore one care girl behind mask</t>
+          <t>never write reddit sure expect guess feeling release suppress feeling put show everyone else despite year bring hard time life strong resilient truth interact people bubbly smiley persona expect soon alone face blank emotion numb feeling push resurface expression completely change alone different person person know facade start fall apart want anymore care girl behind mask</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -21480,7 +21472,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>fuck record 6 month without cut whole arm stomach cover blood</t>
+          <t>fuck record month without cut whole arm stomach cover blood</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
@@ -21498,7 +21490,7 @@
       <c r="A1242" t="inlineStr"/>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>sometimes feel left one bad situation stick another</t>
+          <t>sometimes feel left bad situation stick another</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -21515,7 +21507,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>past month depression social anxiety spiral control end junior year high school really bad breakup lose friend cause start self harm isolate everyone thankfully acquaintance take time day make music lunch really meant lot friend really time hung friends couple time throughout high school start play video game eventually summer get really close become part friend group really bring dark hole depression never love group friend entire life still go extreme social anxiety help become confident alleviated bunch begin senior year hung afterschool basically everyday happy would ever want get detail something change bunch group dynamic change make felt inferior think thought funny anymore weird awkward revert back state previous girlfriend start worry incessantly would abandon mindset group also change felt like constantly meet standard entertain else would abandon make socialize grueling chore fun experience isolate lot even feel bit anger towards event happen make feel like think weird awkward unfunny annoy constantly try change try less talkative apply tight filter say hate can not live feel like everyone interact think thing can not stand hate everything voice way pronounce thing mannerisms sense humor conversation people everything can not take anymore right 50 mg zoloft tonight go trip 300 mg robotussin gel possibility could experience extreme even fatal side effect due serotonin syndrome care anymore want take reality even suicidal try kill end happen care want</t>
+          <t>past month depression social anxiety spiral control end junior year high school really bad breakup lose friend cause start self harm isolate everyone thankfully acquaintance take time day make music lunch really meant lot friend really time hung friends couple time throughout high school start play video game eventually summer get really close become part friend group really bring dark hole depression never love group friend entire life still go extreme social anxiety help become confident alleviated bunch begin senior year hung afterschool basically everyday happy would ever want get detail something change bunch group dynamic change make felt inferior think thought funny anymore weird awkward revert back state previous girlfriend start worry incessantly would abandon mindset group also change felt like constantly meet standard entertain else would abandon make socialize grueling chore fun experience isolate lot even feel bit anger towards event happen make feel like think weird awkward unfunny annoy constantly try change try less talkative apply tight filter say hate can not live feel like everyone interact think thing can not stand hate everything voice way pronounce thing mannerisms sense humor conversation people everything can not take anymore right mg zoloft tonight go trip mg robotussin gel possibility could experience extreme even fatal side effect due serotonin syndrome care anymore want take reality even suicidal try kill end happen care want</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
@@ -21532,7 +21524,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>struggled major depressive disorder year officially diagnose 2016 know 5 year least suicide attempt right officially diagnose since ups down down happen every year tonight sit work want run away cry hide fairly good lately received life change news night ago ready change tell exactly feel want well maybe say want relieve help feel good minute back stress want cry worry secretly hat want change break even though engage issue hope always tell want honest keep thing try openhonest know enjoy hear honest opinion feeling time bring child world though parent would debt one jobless even marry yet struggle mental healthanxiety regard everything kid even crap born one parent register sex offender still probation can not hopeful first couple day start consider situation ready tols many people tell today can not abort want seriously give adoption can not call irresponsible careful try mentality everything happen reason feel fall apart mentally work help distract degree lot downtime tonight keep ruminate feel also pretty sure far along get abortion like afford anyway fml tldr feeling depress find expect prefreakout mode</t>
+          <t>struggled major depressive disorder year officially diagnose know year least suicide attempt right officially diagnose since ups down down happen every year tonight sit work want run away cry hide fairly good lately received life change news night ago ready change tell exactly feel want well maybe say want relieve help feel good minute back stress want cry worry secretly hat want change break even though engage issue hope always tell want honest keep thing try openhonest know enjoy hear honest opinion feeling time bring child world though parent would debt jobless even marry yet struggle mental healthanxiety regard everything kid even crap bear parent register sex offender still probation can not hopeful first couple day start consider situation ready tols many people tell today can not abort want seriously give adoption can not call irresponsible careful try mentality everything happen reason feel fall apart mentally work help distract degree lot downtime tonight keep ruminate feel also pretty sure far along get abortion like afford anyway fml tldr feeling depress find expect prefreakout mode</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
@@ -21544,7 +21536,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>one can not love</t>
+          <t>can not love</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
@@ -21566,7 +21558,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>clean depression cave today room disgusting start early morning yesterday work day day today still finish till tomorrow take picture shame thishttpsimgurcomaj34jy2d bad bag full trash room get love bad week like month though</t>
+          <t>clean depression cave today room disgusting start early morning yesterday work day day today still finish till tomorrow take picture shame thishttpsimgurcomajjyd bad bag full trash room get love bad week face_with_rolling_eyes like month though</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
@@ -21583,7 +21575,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>think religion like believe god well since god create man woman well god super hero start believe god since dinosaur even try pray god take back 1994 even life go mental illness call schizophrenia brain cognitive dysfunctional hallucination hear voice make think solipsism hell god believe god since create cloud tree even dinosaurs admit mental illness path success even want give pray new one get old could live forever would cause die go get good get good human god think god would remember everything</t>
+          <t>think religion like believe god well since god create man woman well god super hero start believe god since dinosaur even try pray god take back even life go mental illness call schizophrenia brain cognitive dysfunctional hallucination hear voice make think solipsism hell god believe god since create cloud tree even dinosaurs admit mental illness path success even want give pray new get old could live forever would cause die go get good get good human god think god would remember everything</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -21600,7 +21592,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>mom stop criticize movie youtube watch swear 20 year old really help depression especially yms movie channel michael reef swear private lot never front parent think funny problem feel like fuck garbage assault groped come home cry bully mercilessly cry nobody love literally say manipulative attention slash thigh tell graduate college would loser relys welfare homeless drug addict thrown shit trouble get bed morning swearing problem</t>
+          <t>mom stop criticize movie youtube watch swear year old really help depression especially yms movie channel michael reef swear private lot never front parent think funny problem feel like fuck garbage assault groped come home cry bully mercilessly cry nobody love literally say manipulative attention slash thigh tell graduate college would loser relys welfare homeless drug addict thrown shit trouble get bed morning swearing problem</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
@@ -21629,12 +21621,12 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>advice hold two week</t>
+          <t>advice hold week</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>mind grammar dutch read easily trigger want feel badworse okay already start type reason stay alive kind miss kind people everyone leave cuz depress everytime deep point depression wave somebody dy like life also try convince kill hear august could go mental hospital march point sound far away give neglect cuz everyday hell suppose wait 6 month course thankfull psychiatrist get list mental hospital specialise autism scar really tell would survive severe depressed october really come room except diner go toilet selfharmed whole day long slept tire certain time sleep rythm ruin gain weight could concentrate anything like mind already fade away become sure life give sign die everything could go wrong go wrong deep point grandma die still accept death feel real day funeral felt like life punch head amount emotion much try reality anymore think alternate life write story imagine constantly think last thing give depersonalisation disorder something know work know can not diagnose moment lot emotion little stress feel like watch body experience thing like coördinator head watch eye can not really talk think cuz feel like body talk think situation watch happens take decision late october stand edge bridge decide talk old friend instead jump moment one personalities agressive one make dissociate want km say bad influence one still stand one kind humor help thing happen last year happen anyway become little happier start enjoy go outside make friend therian community cuz figure back august therian whatever opinion therians pls post cuz post know know go depressed moment irritate everyday selfharming land depressed wave say drown enjoy anything every food taste bore can not sleep cuz cry every damn night constantly think kms even try sort search boundary take pill enough still stay alive standing edge bridge jump trigger write post heard cat mine cancer may survive another week cat shove fur face get little distracted traumatise situation happen 23 year ago can not talk cuz ptsd flashback kill amount emotion cat walk legs jump neck demand attention cry floor middle night like esa official one lose can not go can not lose last string rope hold edge ravine feel like km moment want die want pain mental hospital march 18 day apointment talk practical stuff wait another week guess finally save plz give strenght advice know need hold last week can not every minute everyday torture think survive</t>
+          <t>mind grammar dutch read easily trigger want feel badworse okay already start type reason stay alive kind miss kind people everyone leave cuz depress everytime deep point depression wave somebody dy like life also try convince kill hear august could go mental hospital march point sound far away give neglect cuz everyday hell suppose wait month course thankfull psychiatrist get list mental hospital specialise autism scar really tell would survive severe depressed october really come room except diner go toilet selfharmed whole day long slept tire certain time sleep rythm ruin gain weight could concentrate anything like mind already fade away become sure life give sign die everything could go wrong go wrong deep point grandma die still accept death feel real day funeral felt like life punch head amount emotion much try reality anymore think alternate life write story imagine constantly think last thing give depersonalisation disorder something know work know can not diagnose moment lot emotion little stress feel like watch body experience thing like coordinator head watch eye can not really talk think cuz feel like body talk think situation watch happens take decision late october stand edge bridge decide talk old friend instead jump moment personality agressive make dissociate want km say bad influence still stand kind humor help thing happen last year happen anyway become little happier start enjoy go outside make friend therian community cuz figure back august therian whatever opinion therians pls post cuz post know know go depressed moment irritate everyday selfharming land depressed wave say drown enjoy anything every food taste bore can not sleep cuz cry every damn night constantly think kms even try sort search boundary take pill enough still stay alive standing edge bridge jump trigger write post heard cat mine cancer may survive another week cat shove fur face get little distracted traumatise situation happen year ago can not talk cuz ptsd flashback kill amount emotion cat walk legs jump neck demand attention cry floor middle night like esa official lose can not go can not lose last string rope hold edge ravine feel like km moment want die want pain mental hospital march day apointment talk practical stuff wait another week guess finally save plz give strenght advice know need hold last week can not every minute everyday torture think survive</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
@@ -21651,7 +21643,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>can not need remember tell final therapist would sit paralyzed mind scream thing say one thing tell sting day paralysis internal weakness control hell work can not figure would go see someone would know would tell come help give help fault even choice like</t>
+          <t>can not need remember tell final therapist would sit paralyzed mind scream thing say thing tell sting day paralysis internal weakness control hell work can not figure would go see someone would know would tell come help give help fault even choice like</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
@@ -21663,12 +21655,12 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>17f wish starve death year ago</t>
+          <t>f wish starve death year ago</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>year ago really bad anorexia lose 50lbs 2 month wish never stop hate much want perfect bad feel like ill live life want cat suffer reason anything lose interest everything hate nothing want go away please let go away</t>
+          <t>year ago really bad anorexia lose lbs month wish never stop hate much want perfect bad feel like ill live life want cat suffer reason anything lose interest everything hate nothing want go away please let go away</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
@@ -21685,7 +21677,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>yea ready kid idgaf want go mind body scream way fuck horrible mindset myn dumbfucking stoner stepdad literally make fear go downstairs sit room day hope fuck die mom dosent fuck care jack shit step dad get pissed nothing leave 8 month swear say 8 month happy month ever stepfather almost choke father 16 say wish make scared say anything mother know like like near dosent care bully nearly whole elementary school year suicidal thought start grade 3 4 okay eye anybody currently take 10 pill hop black one friend make force move back old house bond stupid racist shit like brother wish put bullshit love like brother feel would get soon enough feel bad people deal want pain suffer day day fuck end want end want everything fuck end</t>
+          <t>yea ready kid idgaf want go mind body scream way fuck horrible mindset myn dumbfucking stoner stepdad literally make fear go downstairs sit room day hope fuck die mom dosent fuck care jack shit step dad get pissed nothing leave month swear say month happy month ever stepfather almost choke father say wish make scared say anything mother know like like near dosent care bully nearly whole elementary school year suicidal thought start grade okay eye anybody currently take pill hop black friend make force move back old house bond stupid racist shit like brother wish put bullshit love like brother feel would get soon enough feel bad people deal want pain suffer day day fuck end want end want everything fuck end</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
@@ -21702,7 +21694,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>feel like faling apart like worse back also feel like lose tha make feel weird empty want end al get bad feelingn start cut make promise friend would never feel depressed al wait til get good pretend al right even tough hard somtimes ik wil get trough music also help alot realy thankful people try help otherside need help feel realy weird bad lie everyone feel somtimes well tel truth later want tell truth get worser scared tel parent also scare understand good tel wnat give worry already feel wothless nothing right fail al math test say study study 16 hour parent also lil disappointed cuz good grade would know wrong mind would react different sure scar tel want let feel like already life tought dumb think life easy</t>
+          <t>feel like faling apart like worse back also feel like lose tha make feel weird empty want end al get bad feelingn start cut make promise friend would never feel depressed al wait til get good pretend al right even tough hard somtimes ik wil get trough music also help alot realy thankful people try help otherside need help feel realy weird bad lie everyone feel somtimes well tel truth later want tell truth get worser scared tel parent also scare understand good tel wnat give worry already feel wothless nothing right fail al math test say study study hour parent also lil disappointed cuz good grade would know wrong mind would react different sure scar tel want let feel like already life tought dumb think life easy</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -21719,7 +21711,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>think depress really sure work kind do make sense past semester school weird time get assignment feel overwhelm even though different previous semester fail first math test start senior project behind everything else want get caught desire anything live home community college life sure many others would kill still cringe sound point 357 skull dry fire hate idea family friends deal fallout really can not see future go anything think post</t>
+          <t>think depress really sure work kind do make sense past semester school weird time get assignment feel overwhelm even though different previous semester fail first math test start senior project behind everything else want get caught desire anything live home community college life sure many others would kill still cringe sound point skull dry fire hate idea family friends deal fallout really can not see future go anything think post</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -21736,7 +21728,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>22 grow emotionally verbally occasionally physically abusive home dad become alcoholic result abuse mom become unwilling referee parental therapist preteen eventual side punch bag teen mom try kill time 18 also kidnap child dad fight spend adolescence wait chance get cps come twice nothing ever help get dream school everything senior get ripped away mom refuse sign loan could get without cosigner go escape divorce become physical punching bag mom cut hair prevent grab dad get bad try kill time fail reason another get 5150d mom proceed use threat could send behave stay dad cut still depress fuck though person could talk grandma one night talk aunt racist hate happen also take phone scream tell never call grandma tell stop making shit family stop talk suicide elder grandma could handle use feel way could talk fast forward little bit dad finally patch relationship thing look well suddenly die drinking problem go back mom relative option mom immediately take become terrified even wake tried smother death try choke aux cord try shove stair try push move vehicle etc yet every time blame bad year life think least grandma depress lose son abuse daughter racist aunt try help always get covered somehow exactly one year later grandma suddenly die left half estate protect want move live near person leave want help aunt one get hissy fact mom closer ever lawyered refuse give key refuse give item grandma specifically want proof inform sale well happen state also keep go mom idiotic parent divorce adult ask dodged write letter never contact month get attorney can not afford honest back forth since threaten file tax name without permission without ssn irs come fuck recipe card desk always think want end end pain end inevitable suffering always come can not can not leave cat refuse rehome word hurt even type see could thing family one anytime cry sit purr lick face one legit meow talk keep meow till do snuggle literally closest one keep go wish could something like find new place live can not mom recently make credit card name maxed tell would understand position anyone ask say help build credit sure somewhat true intend sign name cosigner property want buy ever mean end want want die want place cat safe sound feel like never get afraid wish everytime get something bad</t>
+          <t>grow emotionally verbally occasionally physically abusive home dad become alcoholic result abuse mom become unwilling referee parental therapist preteen eventual side punch bag teen mom try kill time also kidnap child dad fight spend adolescence wait chance get cps come twice nothing ever help get dream school everything senior get ripped away mom refuse sign loan could get without cosigner go escape divorce become physical punching bag mom cut hair prevent grab dad get bad try kill time fail reason another get mom proceed use threat could send behave stay dad cut still depress fuck though person could talk grandma night talk aunt racist hate happen also take phone scream tell never call grandma tell stop making shit family stop talk suicide elder grandma could handle use feel way could talk fast forward little bit dad finally patch relationship thing look well suddenly die drinking problem go back mom relative option mom immediately take become terrified even wake tried smother death try choke aux cord try shove stair try push move vehicle etc yet every time blame bad year life think least grandma depress lose son abuse daughter racist aunt try help always get covered somehow exactly year later grandma suddenly die left half estate protect want move live near person leave want help aunt get hissy fact mom closer ever lawyered refuse give key refuse give item grandma specifically want proof inform sale well happen state also keep go mom idiotic parent divorce adult ask dodged write letter never contact month get attorney can not afford honest back forth since threaten file tax name without permission without ssn irs come fuck recipe card desk always think want end end pain end inevitable suffering always come can not can not leave cat refuse rehome word hurt even type see could thing family one anytime cry sit purr lick face legit meow talk keep meow till do snuggle literally closest one keep go wish could something like find new place live can not mom recently make credit card name maxed tell would understand position anyone ask say help build credit sure somewhat true intend sign name cosigner property want buy ever mean end want want die want place cat safe sound feel like never get afraid wish everytime get something bad</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -21753,7 +21745,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>httpsiimgurcomriwmyj2jpg</t>
+          <t>httpsiimgurcomriwmyjjpg</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -21766,7 +21758,7 @@
       <c r="A1258" t="inlineStr"/>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>want happy happy last four year last time felt sensation brain freshman year college talk girl could feel dopamine head last time felt happy chasing feeling ever since friend help make feel whole alone know repressed feeling long time start watch bojack horseman feeling come back whole person take mess feel love ask every day drink able let feeling want dependent alcohol feel way want talk feeling want less man jessica make decently happy still feel way want dependant either beat finish think personal emotion can not even cry anymore mean good decency alcohol stop still feel way know lonely mess mother tell miscarriage reevaluate life age thirteen really age question existence want pity want feel normal look question life accept death also notice finite life live die scary want cry even write can not people worse way think waste life college full life live one wish dumb could fade crowd can not think deathbed anything die go high school thought stepmom say young understand find thought maybe nonexistence fine want lay bed drift away mind die afraid loss think go go nothingness scar want feel one time happiness happen relationship family accomplishment future scar want sit shitty earth feeling fifty people become happy lost feeling know get back die go die feel nothing relationship enough broken almost want pas away think mean bacteria evolve enough think want answer nobody tell</t>
+          <t>want happy happy last year last time felt sensation brain freshman year college talk girl could feel dopamine head last time felt happy chasing feeling ever since friend help make feel whole alone know repressed feeling long time start watch bojack horseman feeling come back whole person take mess feel love ask every day drink able let feeling want dependent alcohol feel way want talk feeling want less man jessica make decently happy still feel way want dependant either beat finish think personal emotion can not even cry anymore mean good decency alcohol stop still feel way know lonely mess mother tell miscarriage reevaluate life age really age question existence want pity want feel normal look question life accept death also notice finite life live die scary want cry even write can not people worse way think waste life college full life live wish dumb could fade crowd can not think deathbed anything die go high school thought stepmom say young understand find thought maybe nonexistence fine want lay bed drift away mind die afraid loss think go go nothingness scar want feeling time happiness happen relationship family accomplishment future scar want sit shitty earth feeling people become happy lost feeling know get back die go die feel nothing relationship enough broken almost want pas away think mean bacteria evolve enough think want answer nobody tell</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
@@ -21795,7 +21787,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>slept 2 pm today</t>
+          <t>slept pm today</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
@@ -21817,7 +21809,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>time think want commit suicide watch movie play game something similar boring fine problem work 8hr suicide thinking session</t>
+          <t>time think want commit suicide watch movie play game something similar boring fine problem work hr suicide think session</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
@@ -21834,7 +21826,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>piss depression come go every time come back bad hate talk therapist every two week diagnose depression cry every night feel alone isolated others order heal go gym 4 day week eat healthy try chores self care know need med apparently show sign willingness need piss consume chronic sadness every day night 247 also pissed supportive people besides parent cousin perhaps ungrateful would rather end honest nothing life excite 21 life fun excite wild laidback etc young woman excite come excite wonderful life absolutely hate self life nothing help even talk others person help nothing work</t>
+          <t>piss depression come go every time come back bad hate talk therapist every week diagnose depression cry every night feel alone isolated others order heal go gym day week eat healthy try chores self care know need med apparently show sign willingness need piss consume chronic sadness every day night also piss supportive people besides parent cousin perhaps ungrateful would rather end honest nothing life excite life fun excite wild laidback etc young woman excite come excite wonderful life absolutely hate self life nothing help even talk others person help nothing work</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -21885,7 +21877,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>well month everything come back full circle bad move suppose great u money well opportunity get away bad stuff old town new opportunity everything would hop would money even tight know go make car payment pay internet rent even make trip back see parent weekend nothing seem enough even matter beyond stress barely sleep anymore can not shut mind thought race back forth mind thing instead sleep like clean find good job second job lay awake stress help feel like everything enough wait everything come crashing yet hand angry angry get help household chore amidst claim every day work come home clean paycheck extra cash get hold immediately spent bill check enough sale last month spend game pass subscription game one drove back go errands sit beach mexico friend feel terrible right back suck numbness darkness want wake morning everything thought suicide self harm back full force reason harm simply razor blade house sorry post mess anywhere else get chest thank stuck sorry</t>
+          <t>well month everything come back full circle bad move suppose great u money well opportunity get away bad stuff old town new opportunity everything would hop would money even tight know go make car payment pay internet rent even make trip back see parent weekend nothing seem enough even matter beyond stress barely sleep anymore can not shut mind thought race back forth mind thing instead sleep like clean find good job second job lay awake stress help feel like everything enough wait everything come crashing yet hand angry angry get help household chore amidst claim every day work come home clean paycheck extra cash get hold immediately spent bill check enough sale last month spend game pass subscription game drive back go errands sit beach mexico friend feel terrible right back suck numbness darkness want wake morning everything thought suicide self harm back full force reason harm simply razor blade house sorry post mess anywhere else get chest thank stuck sorry</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -21919,7 +21911,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>year ago survive suicide attempt watch movie fight club motivate hell even give boost confidence huge confidence never fix problem fckin lazy live world movie like temporary medical right come back happy moment daily life bedtime really wish one fckin day never wake fall asleep knowledge goddamn thing anymore like anything come great family way mom dad love even spoil little good person still blame shit feelin everyday srlys lookin way die like sickness want stupid parent wrong son kill yada yada yada blah blah blah maybe ricin really know prepare though idea</t>
+          <t>year ago survive suicide attempt watch movie fight club motivate hell even give boost confidence huge confidence never fix problem fckin lazy live world movie like temporary medical right come back happy moment daily life bedtime really wish fckin day never wake fall asleep knowledge goddamn thing anymore like anything come great family way mom dad love even spoil little good person still blame shit feelin everyday srlys lookin way die like sickness want stupid parent wrong son kill yada yada yada blah blah blah maybe ricin really know prepare though idea</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -21970,7 +21962,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>life worth live destructive person one love everyday look go school work procrastinate stress cry sleep repeat every day get unbearable talked therapist 4 month help go inpatient 5th time help nothing help school make impossible enjoy literally fuck anything never whole life felt depressed even though survive suicide attempt year ago compare depression feeling right scary year therapy even bad want lie bed fall asleep never wake also scared people think try enough lazy put mask pretend smile make people laugh pretend till come home completely destroy mother thought depression fuck exhaust high expectation life dream hope want disappear badly also scar</t>
+          <t>life worth live destructive person one love everyday look go school work procrastinate stress cry sleep repeat every day get unbearable talked therapist month help go inpatient th time help nothing help school make impossible enjoy literally fuck anything never whole life felt depressed even though survive suicide attempt year ago compare depression feeling right scary year therapy even bad want lie bed fall asleep never wake also scared people think try enough lazy put mask pretend smile make people laugh pretend till come home completely destroy mother thought depression fuck exhaust high expectation life dream hope want disappear badly also scar</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -21982,12 +21974,12 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>one turn</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>father pass away last year feel incredibly alone goto person whenever problem leave job take time pass leave two job since can not handle gf stay want leave find can not blame really father gf time pass previous 15 year already move started date guy think dad would approve either know turn little bit money save immediate danger think work gf stay find job hold ton hope whenever think get another job likely field hate anyway recruit think point like really ton live juncture want way can not seem figure way would give good quality life feel pointless tried look free low cost therapist area couple number try read state fund mental health care could make head tail webpage way complex</t>
+          <t>father pass away last year feel incredibly alone goto person whenever problem leave job take time pass leave job since can not handle gf stay want leave find can not blame really father gf time pass previous year already move started date guy think dad would approve either know turn little bit money save immediate danger think work gf stay find job hold ton hope whenever think get another job likely field hate anyway recruit think point like really ton live juncture want way can not seem figure way would give good quality life feel pointless tried look free low cost therapist area couple number try read state fund mental health care could make head tail webpage way complex</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -22004,7 +21996,7 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>can not take life anymore dad already kill 4 year ago know devastate family know deal pain anymore want family girlfriend go tragic death</t>
+          <t>can not take life anymore dad already kill year ago know devastate family know deal pain anymore want family girlfriend go tragic death</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
@@ -22016,7 +22008,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>much mg take person overdose age 18</t>
+          <t>much mg take person overdose age</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
@@ -22038,7 +22030,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>13 year old boy want one self diagnose people look attention lately think kill say fuck everything life hate say gun right think would kill fast easy pain unlike wait bleed slit wrists one ever like parent always talk useless piece shit brags friend like accomplishment know even etc fuck asshole anything right wish never kid want girl would say usually weekly shit hurt reject everyone always straight smart mostly progressive person class tire put facade anything worth anything heaven hell nothing end one listen problem man boys cry woman run world men pig need die constantly tell know anymore stop care listen music cry school useless learn absolutely fuck nothing waste life away degree can not use sure everyone go say young can not depression course go phase seek attention alright always introvert quiet know think kill soon life purpose mean eternal land misery fake happiness thing make remotely happy video game talk people play game rare occurrence never allow play though excel every way school fuck drop everything give shit grade give shit anything do guy love fuck hope die</t>
+          <t>year old boy want self diagnose people look attention lately think kill say fuck everything life hate say gun right think would kill fast easy pain unlike wait bleed slit wrists ever likes parent always talk useless piece shit brags friend like accomplishment know even etc fuck asshole anything right wish never kid want girl would say usually weekly shit hurt reject everyone always straight smart mostly progressive person class tire put facade anything worth anything heaven hell nothing end one listen problem man boys cry woman run world men pig need die constantly tell know anymore stop care listen music cry school useless learn absolutely fuck nothing waste life away degree can not use sure everyone go say young can not depression course go phase seek attention alright always introvert quiet know think kill soon life purpose mean eternal land misery fake happiness thing make remotely happy video game talk people play game rare occurrence never allow play though excel every way school fuck drop everything give shit grade give shit anything do guy love fuck hope die</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -22072,7 +22064,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>guess finally grown ball fulfil plan hopefully go well deal thanks put long love</t>
+          <t>guess finally grown ball fulfil plan hopefully go well deal thanks put long love victory_hand</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
@@ -22106,7 +22098,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>want die way think inevitably one save everyday take much effort function mediocrely want live think change wait game depress enough want act thought scar care much people around want die take everyone suffering want everyone happy deserve wish way could sacrifice make everyone good enough suffering can not bear see feel empathy hard severe depressive episode go year ago can not bear imagine anyone experience break heart convince die never truly felt peace life exhaust attempt constantly distract depressive thought can not get rid learnt cope never cure one day feel time right distance enough friend parent die would probably time end life</t>
+          <t>want die way think inevitably save everyday take much effort function mediocrely want live think change wait game depress enough want act thought scar care much people around want die take everyone suffering want everyone happy deserve wish way could sacrifice make everyone good enough suffering can not bear see feel empathy hard severe depressive episode go year ago can not bear imagine anyone experience break heart convince die never truly felt peace life exhaust attempt constantly distract depressive thought can not get rid learnt cope never cure day feel time right distance enough friend parent die would probably time end life</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -22140,7 +22132,7 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>finally decide several attempt life last one overpass busy interstate house height speed car enough take god damn alone feel guilty people care keep go dog think stop time total fuck ruin every positive thing life 17 future live way everyday three year times come afraid say goodbye anymore</t>
+          <t>finally decide several attempt life last overpass busy interstate house height speed car enough take god damn alone feel guilty people care keep go dog think stop time total fuck ruin every positive thing life future live way everyday year time come afraid say goodbye anymore</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
@@ -22191,7 +22183,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>right taxi go home drank 10 pill antidepressant want drink entire bottle pas road peacefully could get finish bottle legs go numb start lose sight eye doubt able go work tomorrow never drink much definitely try could follow somebody might think miserable well maybe right alone amaze relationship two year unemployed break work amazing position hr vice president abusive family extremely supportive would give life even still miserable feel happy vent eye completely black anyone try overdose tonight idiot like obligatory edit 21</t>
+          <t>right taxi go home drank pill antidepressant want drink entire bottle pas road peacefully could get finish bottle legs go numb start lose sight eye doubt able go work tomorrow never drink much definitely try could follow somebody might think miserable well maybe right alone amaze relationship year unemployed break work amazing position hr vice president abusive family extremely supportive would give life even still miserable feel happy vent eye completely black anyone try overdose tonight idiot like obligatory edit</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
@@ -22225,7 +22217,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>29 year shut sometimes social anxiety bad could step house go near window mental health bad could work finish school decide go back school dependent longtime make feel awful element abuse past think fully trust anyone die get high pay job without degree hurt backi terrible back neurological problem leave something like strip suicide point class get intense already behind online class post deadline prioritize class work around 30 hoursweek keep quality highi aim class supposedly grade harshlyso far 1 b something work 10 hour anyway behind online class try make time catch seem impossible person class take much time 4 hour studio homework take maybe 15 hour usually trouble manage time hardly see see stay late play game intimacy month otherwise like 12xmonth thing help chores unless ask bunch time even though make chore chart u look aton fridge give thing keep promise choresshowerbrush teeth basic thing actually say would chores go back schoollike would do worry worried left thing bit realized correct concern house start look trash talk change topic recite meme kiss maybe twice day otherwise glue phone watch youtube videos quit video game time consume switch video instead addict phone get bus last year passenger usually phone drive nothing drive anxiety work car stress right feel totally alone literally time see therapist even time see doctor checkups work schoolhomeworkand home painfully shy awkward friend join club make friend seem impossible people try befriend seem know interact amazing conversation another top performer class difficult work anticipate become friend try know reciprocate tell make thing uncomfortable react never start form friendship make sense class one kid try befriend autism come across pretty brash try remind condition take thing personally sometimes can not help feel terrible time close feel awkward think seem genuinely friendly time mind guess much stress point everything get whole class also pretty distract usually bearable stress wear 0 thing relieve yesterday get grade back quiz friendly note try speak critiquei design student art class make mental note make sure speak critique last night panic first panic want do paint beforehand plan properly always slow one everything keep mess finish time seem one 2 others finish make feel little good critique come aforementioned kid stand next always uncomfortably close front could see paintings panic increase want rude say anything planned painting critique call order panic disorder cause dissociation stress social anxiety panic mind go blank happen day ago dog unfortunately aggressive 1 dog neighborhood strong dog fortunately point bf experience lunged dog strong enough pull back panickedmind go blank stand mind thing could think like idea feeling alarm could speak move neighbor seem mind give dog treat felt terrible know fix critique mind blank know say absorbed thing others say mind flush tried speak speak thinking time difficult guess stupid usually think long time speak think write know thinkspeak quickly felt like cry could wait pack start draw assignmentuntil realize would forget important supply grow abusive parent dad pretty absent work lot home complete as would constantly provoke old brother harshly pick mom damage somehow grow think good cop taught think could wrong perfect always right upset even seemingly unreasonable mental gymnastics justify example intervene argument dad finance 6 year old understand bad person love mom mom bathroom 8th time week razor blade would psychiatrist beg come outreason eventually realize say anything eventually still realize could probably leave would come soon anyway around 6 7 guess talk respond come literally run corner yelled love eat disorder evil dirty slut even though allow house must look something do person mom say guess young child mostly raise grandparent nextdoor would sleep house often would cry sleep every night think mom mad every day would blame something even get blame dad lose 100 even know mom yell back door yard neighborhood kid outside tell would better bring 100 back right friend assume thiefbecause 9 yo can not drive never go anywhere reason money definitely get caught random money point point around 9 start self harm understand apparently do upset always apparent major mother pain person love world matter think parent destroy education ongoing argument funsies guess plan graduate 15 16 gtfo physically bully school point arm near broken every day beg homeschooled plan able focus school without bully graduate early get away family 2nd grade first year homeschooling skip grade 5 work everything math get maybe grade 3 equivalent current grade public school work parent would argue public homeschooling switch back forth least school semester would public school august month homeschooled obviously ruin extra work would do become discouraged 7th grade begin lot trouble math mom refuse help say learn disability could learn itand help lovely psychotic step sister instead would public school would often go humiliated explain could finish homework one point allow outsidemy grandparent move due stress embrace reclusive tell wanted way whenever people would think odd mom would huff back could speak say everyone friend look back remember dad tell mom coddle much kept people want time think ridiculous see right need soothe blame everything misery get old decide wanted try social would say yes every single opportunity every one terrible idea end abused predatory opportunist turn caused major anxiety ever become reclusive ever hold stable job friend since time 10 year ago abusive thing great year move year ago year thing pretty good far go obviously time feel effort person feel shitty couple year ago find terrible situation decide option prostitution strip drug suicide mass apply job would receive response never qualify anything retail bad experience pay enough stop eat become alcoholic little fund attempt suicide somewhere near 3 time week average month straight almost succeed bf unexpectedly come home early send hospital thing get well get threw away antidepressant since feeling felt inappropriate relation thought situation resume weekly attempt otherwise would lie bed try get fear killing 2017 2018 suck last year get little well end year decide go back school decide rather abruptly time seek diagnosis learn disability think obviously diagnosis anxiety disorder recurrent major depressive disorder assume would receive accommodation do instead tried plow feeling intentionally make uncomfortable joining club go campus person adjust quickly would hop real world talk social skill one care real world old already expose many job field attempt aware feel like failure overload want back know deal everything get help nothing outside school work home need good balance literally way make happen club meet week paper 1x month new club one show become club leader force social situation hope head tell try talk garbage come old everyone else awkward suppose immature stupid social standard feel like go make straight feel like deserve art never look good even spending hour work need make work know know change 29 year instant desperately want want different want anymore meantime try squeeze time get little sleep time room even interact talk anything feel really void affection social interaction right well anything fun use walk every day something lessen frequency nerve pain even time weather shit anyway find gaming fun like sit exhaust even know get anymore frustrated life everything dulli stressedlonely honestly hate everything awful really hate become really sick first week school bronchitis 34 week get well feel like happen really fuck lot since energy know manage everything socialize feel like kill know even properly way totally awful look get away pain last minute life could least peaceful would well ideal really wish assist suicide chronically suicidal people thing sometimes</t>
+          <t>year shut sometimes social anxiety bad could step house go near window mental health bad could work finish school decide go back school dependent longtime make feel awful element abuse past think fully trust anyone die get high pay job without degree hurt backi terrible back neurological problem leave something like strip suicide point class get intense already behind online class post deadline prioritize class work around hoursweek keep quality highi aim class supposedly grade harshlyso far b something work hour anyway behind online class try make time catch seem impossible person class take much time hour studio homework take maybe hour usually trouble manage time hardly see see stay late play game intimacy month otherwise like xmonth thing help chores unless ask bunch time even though make chore chart u look aton fridge give thing keep promise choresshowerbrush teeth basic thing actually say would chores go back schoollike would do worry worried left thing bit realized correct concern house start look trash talk change topic recite meme kiss maybe twice day otherwise glue phone watch youtube videos quit video game time consume switch video instead addict phone get bus last year passenger usually phone drive nothing drive anxiety work car stress right feel totally alone literally time see therapist even time see doctor checkups work schoolhomeworkand home painfully shy awkward friend join club make friend seem impossible people try befriend seem know interact amazing conversation another top performer class difficult work anticipate become friend try know reciprocate tell make thing uncomfortable react never start form friendship make sense class kid try befriend autism come across pretty brash try remind condition take thing personally sometimes can not help feel terrible time close feel awkward think seem genuinely friendly time mind guess much stress point everything get whole class also pretty distract usually bearable stress wear thing relieve yesterday get grade back quiz friendly note try speak critiquei design student art class make mental note make sure speak critique last night panic first panic want do paint beforehand plan properly always slow everything keep mess finish time seem others finish make feel little good critique come aforementioned kid stand next always uncomfortably close front could see paintings panic increase want rude say anything planned painting critique call order panic disorder cause dissociation stress social anxiety panic mind go blank happen day ago dog unfortunately aggressive dog neighborhood strong dog fortunately point bf experience lunged dog strong enough pull back panickedmind go blank stand mind thing could think like idea feeling alarm could speak move neighbor seem mind give dog treat felt terrible know fix critique mind blank know say absorbed thing others say mind flush tried speak speak thinking time difficult guess stupid usually think long time speak think write know thinkspeak quickly felt like cry could wait pack start draw assignmentuntil realize would forget important supply grow abusive parent dad pretty absent work lot home complete as would constantly provoke old brother harshly pick mom damage somehow grow think good cop taught think could wrong perfect always right upset even seemingly unreasonable mental gymnastics justify example intervene argument dad finance year old understand bad person love mom mom bathroom th time week razor blade would psychiatrist beg come outreason eventually realize say anything eventually still realize could probably leave would come soon anyway around guess talk respond come literally run corner yelled love eat disorder evil dirty slut even though allow house must look something do person mom say guess young child mostly raise grandparent nextdoor would sleep house often would cry sleep every night think mom mad every day would blame something even get blame dad lose even know mom yell back door yard neighborhood kid outside tell would better bring back right friend assume thiefbecause yo can not drive never go anywhere reason money definitely get caught random money point face_with_rolling_eyes point around start self harm understand apparently do upset always apparent major mother pain person love world matter think parent destroy education ongoing argument funsies guess plan graduate gtfo physically bully school point arm near broken every day beg homeschooled plan able focus school without bully graduate early get away family nd grade first year homeschooling skip grade work everything math get maybe grade equivalent current grade public school work parent would argue public homeschooling switch back forth least school semester would public school august month homeschooled obviously ruin extra work would do become discouraged th grade begin lot trouble math mom refuse help say learn disability could learn itand help lovely psychotic step sister instead would public school would often go humiliated explain could finish homework point allow outsidemy grandparent move due stress embrace reclusive tell wanted way whenever people would think odd mom would huff back could speak say everyone friend look back remember dad tell mom coddle much kept people want time think ridiculous see right need soothe blame everything misery get old decide wanted try social would say yes every single opportunity every terrible idea end abused predatory opportunist turn caused major anxiety ever become reclusive ever hold stable job friend since time year ago abusive thing great year move year ago year thing pretty good far go obviously time feel effort person feel shitty couple year ago find terrible situation decide option prostitution strip drug suicide mass apply job would receive response never qualify anything retail bad experience pay enough stop eat become alcoholic little fund attempt suicide somewhere near time week average month straight almost succeed bf unexpectedly come home early send hospital thing get well get threw away antidepressant since feeling felt inappropriate relation thought situation resume weekly attempt otherwise would lie bed try get fear killing suck last year get little well end year decide go back school decide rather abruptly time seek diagnosis learn disability think obviously diagnosis anxiety disorder recurrent major depressive disorder assume would receive accommodation do instead tried plow feeling intentionally make uncomfortable joining club go campus person adjust quickly would hop real world talk social skill care real world old already expose many job field attempt aware feel like failure overload want back know deal everything get help nothing outside school work home need good balance literally way make happen club meet week paper x month new club show become club leader force social situation hope head tell try talk garbage come old everyone else awkward suppose immature stupid social standard feel like go make straight feel like deserve art never look good even spending hour work need make work know know change year instant desperately want want different want anymore meantime try squeeze time get little sleep time room even interact talk anything feel really void affection social interaction right well anything fun use walk every day something lessen frequency nerve pain even time weather shit anyway find gaming fun like sit exhaust even know get anymore frustrated life everything dulli stressedlonely honestly hate everything awful really hate become really sick first week school bronchitis week get well feel like happen really fuck lot since energy know manage everything socialize feel like kill know even properly way totally awful look get away pain last minute life could least peaceful would well ideal really wish assist suicide chronically suicidal people thing sometimes</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -22276,7 +22268,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>past two year letdown little get do even bad thought turn wrong need purpouse need story life one actually read like story meaning absolutely clue live without emotional connection pride come</t>
+          <t>past year letdown little gotten do even bad thought turn wrong need purpouse need story life actually read like story meaning absolutely clue live without emotional connection pride come</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -22374,7 +22366,7 @@
       <c r="A1294" t="inlineStr"/>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>start week phaseon september 2019 slowly become permanent eye feel tired feel physically exhaust can not focus can not find enjoyment guitar video game thing use put hour day sleep sleep free period school sleep get home 230pm wake around 8pm eat go back bed dream start well life dream feel happy feel weigh feel like alone feel numb go school counselor help last week tell tell mom feeling go see doctor hard thing possibly think fault similar take sister anxiety problem can not burden know edit grammar</t>
+          <t>start week phaseon september slowly become permanent eye feel tired feel physically exhaust can not focus can not find enjoyment guitar video game thing use put hour day sleep sleep free period school sleep get home pm wake around pm eat go back bed dream start well life dream feel happy feel weigh feel like alone feel numb go school counselor help last week tell tell mom feeling go see doctor hard thing possibly think fault similar take sister anxiety problem can not burden know edit grammar</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
@@ -22386,12 +22378,12 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>turn 19 may boyfriendgirlfriend jobless income future</t>
+          <t>turn may boyfriendgirlfriend jobless income future</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>bully tell play victim card entire life nobody want live still never find boyfriend girlfriend broken useless set card keep even slightly successful american dream specifically make benefit wealthy powerful poor make country suicide rate already rise past 20 year try play game nothing entertain anymore especially everything alone visible future literally live able support either die natural cause suicide feel like nobody want support deal useless set card begin</t>
+          <t>bully tell play victim card entire life nobody want live still never find boyfriend girlfriend broken useless set card keep even slightly successful american dream specifically make benefit wealthy powerful poor make country suicide rate already rise past year try play game nothing entertain anymore especially everything alone visible future literally live able support either die natural cause suicide feel like nobody want support deal useless set card begin</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
@@ -22408,7 +22400,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>think suicide time sooooo break depressed live car even though work full time job side gig grandmother sponsor therefore financially responsible reason alive go one would pay assist live even watch love resent think suicide ever since remember even remember last time actually even semi happy stick love case actually money would go far far away somewhere like tuvalu people actually seem care life move slow everything involves much technology material thing think would one thing could help suicidal thought completely change life can not mean try move different city move different continent planning kill move somewhere else change everything nothing lose maybe maybe actually happy alive would love live vicariously</t>
+          <t>think suicide time sooooo break depressed live car even though work full time job side gig grandmother sponsor therefore financially responsible reason alive go would pay assist live even watch love resent think suicide ever since remember even remember last time actually even semi happy stick love case actually money would go far far away somewhere like tuvalu people actually seem care life move slow everything involves much technology material thing think would thing could help suicidal thought completely change life can not mean try move different city move different continent planning kill move somewhere else change everything nothing lose maybe maybe actually happy alive would love live vicariously</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
@@ -22442,7 +22434,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>perfectly fine 9pm last night randomly start cry nowhere watch perfectly normal youtube video although forgotten anything upsetting trigger go sleep 10ish assume good wake wrong woke still depress cry want get bed anything let alone go uni workstudy get get ready although felt like take eternity go uni find really overwhelming remember else happen decide go back home student flat try take mind work even though can not deadlines come pretty fast think full energy idea 2 day ago beyond since barely energy get bed morning also energy cry anymore empty want die also post really make much sense super depress empty feel like can not function anymore</t>
+          <t>perfectly fine pm last night randomly start cry nowhere watch perfectly normal youtube video although forgotten anything upsetting trigger go sleep ish assume well wake wrong woke still depress cry want get bed anything let alone go uni workstudy get get ready although felt like take eternity go uni find really overwhelming remember else happen decide go back home student flat try take mind work even though can not deadlines come pretty fast think full energy idea day ago beyond since barely energy get bed morning also energy cry anymore empty want die also post really make much sense super depress empty feel like can not function anymore</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -22459,7 +22451,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>mid20s woman rapidcycling bipolar ii post ask antidepressant control depressive episode mood control lithium zoloft zoloft 50 mg much absolutely zapped sex drive would force please partner coerce aside felt best would ever felt complaint otherwise last june go zoloft stuck lithium felt fine felt depression symptom come back couple month anxiety reactivity increase still way well med whatsoever december psychiatrist recommend ndri help prevent change libido start wellbutrin 100 mg much definitely help feel depression symptom come back spend last week think stupid pathetic useless apparent reason psychiatrist think well ssri lack libido awful something ever want experience know particular symptom varies person person want know others experience class antidepressant symptom varied drug drug even within class</t>
+          <t>mids woman rapidcycling bipolar ii post ask antidepressant control depressive episode mood control lithium zoloft zoloft mg much absolutely zapped sex drive would force please partner coerce aside felt best would ever felt complaint otherwise last june go zoloft stuck lithium felt fine felt depression symptom come back couple month anxiety reactivity increase still way well med whatsoever december psychiatrist recommend ndri help prevent change libido start wellbutrin mg much definitely help feel depression symptom come back spend last week think stupid pathetic useless apparent reason psychiatrist think well ssri lack libido awful something ever want experience know particular symptom varies person person want know others experience class antidepressant symptom varied drug drug even within class</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -22527,7 +22519,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>make post read rule delete want die can not anymore think suicide 247 friend gf lonely constantly reject every place feel existence important kill</t>
+          <t>make post read rule delete want die can not anymore think suicide friend gf lonely constantly reject every place feel existence important kill</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -22539,7 +22531,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>one could see year like sure still go live need hug</t>
+          <t>could see year like sure still go live need hug</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
@@ -22578,7 +22570,7 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>funk long time get well really struggle literally everything right family help lose one job place close burn saving cover everything last month struggle come rent money prescription month get rent cover enough money power bill car payment car insurance ad leave panic stress go get money go happen start new job three week help right depress honestly feel like kill sometimes wake dreading day hold horrible parent believe tell depress help money think learn struggle everything add state mind sorry rant get dark horrible feel like feel lose alone</t>
+          <t>funk long time get well really struggle literally everything right family help lose job place close burn saving cover everything last month struggle come rent money prescription month get rent cover enough money power bill car payment car insurance ad leave panic stress go get money go happen start new job week help right depress honestly feel like kill sometimes wake dreading day hold horrible parent believe tell depress help money think learn struggle everything add state mind sorry rant get dark horrible feel like feel lose alone</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -22595,7 +22587,7 @@
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>know people able help saw broken glass bed like 3 hour ago try sleep urge shove neck genuinely worry might carry every time whatever distraction try stop back</t>
+          <t>know people able help saw broken glass bed like hour ago try sleep urge shove neck genuinely worry might carry every time whatever distraction try stop back</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
@@ -22663,7 +22655,7 @@
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>lose everything fuck entire life terrible people like stay alive lose relationship wondeful person treat terribly home family friend job car everything everything own car get tow living car try get back foot can not afford get car back streets one even family want help anymore blame nothing complete disappointment everyone ever love show kindness hurt betray everyone life even analysis life last night realize never succeed anything fail absolutely everything life could even finish high school complete total failure thing keep end 22 feel like maybe thing could get well remember likely go fuck jail could take class court appoint take life fuck close hang jumping front fuck train</t>
+          <t>lose everything fuck entire life terrible people like stay alive lose relationship wondeful person treat terribly home family friend job car everything everything own car get tow living car try get back foot can not afford get car back streets even family want help anymore blame nothing complete disappointment everyone ever love show kindness hurt betray everyone life even analysis life last night realize never succeed anything fail absolutely everything life could even finish high school complete total failure thing keep end feel like maybe thing could get well remember likely go fuck jail could take class court appoint take life fuck close hang jumping front fuck train</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
@@ -22697,7 +22689,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>hi everyone first time ever go speak someone tomorrow suicidal ideation plague 10 year currently uni book appointment student support officer school counsellor deal academic issue big sad refer student onto mental health service absolutely shit scared never really spoken anyone feel couple time drunkenly friends never bring feel like time thing get bad recently graduate summer terrify really sure start meeting say never meet email book meet let know wrong sub basically want know start conversation much detail go feels way intense sit like hi nice meet think kill every day pile suicide note desk also want section lol</t>
+          <t>hi everyone first time ever go speak someone tomorrow suicidal ideation plague year currently uni book appointment student support officer school counsellor deal academic issue big sad refer student onto mental health service absolutely shit scared never really spoken anyone feel couple time drunkenly friends never bring feel like time thing get bad recently graduate summer terrify really sure start meeting say never meet email book meet let know wrong sub basically want know start conversation much detail go feels way intense sit like hi nice meet think kill every day pile suicide note desk also want section lol</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -22714,7 +22706,7 @@
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>know use word burden lot family member affect problem go away hurt one last time instead multiple episode nutshell people want around desirable way excite offer people like kindness love compassion outdated concept want thing can not give return belong anywhere would better go nowhere</t>
+          <t>know use word burden lot family member affect problem go away hurt last time instead multiple episode nutshell people want around desirable way excite offer people like kindness love compassion outdated concept want thing can not give return belong anywhere would better go nowhere</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
@@ -22731,7 +22723,7 @@
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>know anxeity disorder lately think reason life go short end tragic traumatic death kind scar lately also dreams car crash point scar drive farther 5 minute house may seem stupid curious anyone else experience</t>
+          <t>know anxeity disorder lately think reason life go short end tragic traumatic death kind scar lately also dreams car crash point scar drive farther minute house may seem stupid curious anyone else experience</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
@@ -22748,7 +22740,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>hi guy first time write sub also one first post honestly feel sink maybe write help way italian forgive advance english 20m suffer depression 5 year think adolescent sadness never give much weight two path psychoanalysis two different psychotherapist diagnose thing struggle every day suicidal thought situation go bad situation home terrible live grandma also suffer depression take xanax prozac every day mother strong career woman use personal therapist since remember little brother light house father work another city see much last six month father say mother love anymore another woman judge always mum emotionally destroy reach help know help time go can not talk dad normally tried escape situation october move away another city think need live alone away house depression strike hard return original home afford return therapy currently situation become uncontrollable even friend notice always good hiding problem one last evening make sort intervention drinking problem honestly reveal suicidal thought drink hate self much know city drunken adventure like thought stop drinking kill know see light bottom tunnel</t>
+          <t>hi guy first time write sub also first post honestly feel sink maybe write help way italian forgive advance english suffering depression year think adolescent sadness never give much weight path psychoanalysis different psychotherapist diagnose thing struggle every day suicidal thought situation go bad situation home terrible live grandma also suffer depression take xanax prozac every day mother strong career woman use personal therapist since remember little brother light house father work another city see much last month father say mother love anymore another woman judge always mum emotionally destroy reach help know help time go can not talk dad normally tried escape situation october move away another city think need live alone away house depression strike hard return original home afford return therapy currently situation become uncontrollable even friend notice always good hiding problem last evening make sort intervention drinking problem honestly reveal suicidal thought drink hate self much know city drunken adventure like thought stop drinking kill know see light bottom tunnel</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -22765,7 +22757,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>chronic pain tmj can not even eat eat mushy liquid food can not talk sing much anymore lay bed sleep escape pain chronic sinus infection can not breathe always feel like sneeze eye swell shut half day try kind person best never yell stranger friend boyfriend never cheat clingy support everyone everything give people hundred chance change make food people someone problem even random person nice talk try give solution try put good karma world know much long might well make positive impact try step either though chronic inflammation skin condition acne eczema every pore leg purple inflame eyelid always inflame crusty often swell completely shut family think exaggerate symptom naturally look swollen red whatever zero friend exaggerate one friend never close friend depression ever since 10 text people occasionally one close share feeling hang rap one acknowledge realize tell picky sexual partner could picky pass school even though 42 gpa 1550 sit homeschooled 1012th grade high school go liberal art college another state manicpsychotic episode go back home start community college parent pull depressive episode trust men never normal relationship besides rap men bombard videos porn star detail hot inspect flaw take advantage past trauma part kink lie marry tell reason like psycho dumb etc date bad time klonopin withdrawal period panic attack guy drive away ocd thought nonstop scar even think certain thought convince certain thought certainty thought jinx future scar sexual deviant even though libido straight vanilla female 2 sexual partner ever 3 include rape convince become hermaphrodite actually transgender weird thought eat disorder scar fat also scar skinny want look ill want look like girl men fetishize look small thin pedophile want rape look curvy objectify can not stop binge purge underweight guy check want become fat mom harass nude photo imitate take photo drive attempt suicide show dad sister everyone think slut sister tell cousin sleep many men first date blatant preferential treatment sister get laptop fix get haircut get seizure klonopin withdrawal mom shop custom coat sister hour tell mom happen say something like oh nice hundred people know diagnosis think crazy sister fundraiser mental illness help get good college make inspirational share health information many people treat weird everyone outside family like extend family family friend also super patronize treat person want cordial also get close super patronize need someone talk badly felt way long one care feel invisible swear tell aloud want kill self one would care wish someone could ask ok ask people many time ok can not remember last time ask selfish hate</t>
+          <t>chronic pain tmj can not even eat eat mushy liquid food can not talk sing much anymore lay bed sleep escape pain chronic sinus infection can not breathe always feel like sneeze eye swell shut half day try kind person best never yell stranger friend boyfriend never cheat clingy support everyone everything give people hundred chance change make food people someone problem even random person nice talk try give solution try put good karma world know much long might well make positive impact try step either though chronic inflammation skin condition acne eczema every pore leg purple inflame eyelid always inflame crusty often swell completely shut family think exaggerate symptom naturally look swollen red whatever friend exaggerate friend never close friend depression ever since text people occasionally close share feeling hang rap acknowledge realize tell picky sexual partner could picky pass school even though gpa sat homeschooled th grade high school go liberal art college another state manicpsychotic episode go back home start community college parent pull depressive episode trust men never normal relationship besides rap men bombard videos porn star detail hot inspect flaw take advantage past trauma part kink lie marry tell reason like psycho dumb etc date bad time klonopin withdrawal period panic attack guy drive away ocd thought nonstop scar even think certain thought convince certain thought certainty thought jinx future scar sexual deviant even though libido straight vanilla female sexual partner ever include rape convince become hermaphrodite actually transgender weird thought eat disorder scar fat also scar skinny want look ill want look like girl men fetishize look small thin pedophile want rape look curvy objectify can not stop binge purge underweight guy check want become fat mom harass nude photo imitate take photo drive attempt suicide show dad sister everyone think slut sister tell cousin sleep many men first date blatant preferential treatment sister get laptop fix get haircut get seizure klonopin withdrawal mom shop custom coat sister hour tell mom happen say something like oh nice hundred people know diagnosis think crazy sister fundraiser mental illness help get good college make inspirational share health information many people treat weird everyone outside family like extend family family friend also super patronize treat person want cordial also get close super patronize need someone talk badly felt way long care feel invisible swear tell aloud want kill self would care wish someone could ask ok ask people many time ok can not remember last time ask selfish hate</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
@@ -22782,7 +22774,7 @@
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>feel like wit end look job almost three month unsuccessful struggle pay car insurance regular bill school live bad environment try hard apply go interview interview nothing work want anymore want life anymore want live feel like breathe feel like point feel like drown want stop waking</t>
+          <t>feel like wit end look job almost month unsuccessful struggle pay car insurance regular bill school live bad environment try hard apply go interview interview nothing work want anymore want life anymore want live feel like breathe feel like point feel like drown want stop waking</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr">
@@ -22816,7 +22808,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>lose know anymore can not control emotion anymore piss one second cry next laughing want end 5 second later try trick help nothing depressed lately everything happen life work personal legal always feel alone seriously want end lately want go anymore damn hard sick tire living life full torture</t>
+          <t>lose know anymore can not control emotion anymore piss second cry next laughing want end second later try trick help nothing depressed lately everything happen life work personal legal always feel alone seriously want end lately want go anymore damn hard sick tire living life full torture pensive_face</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -22833,7 +22825,7 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>dark place marry one kid dog cat house clean sick right cold uc bad u last yeah hospital 5 time year one stupid uc hate hate look feel support love anyone life except little daughter reason commit suicide strength anymore plan 3 surgery near future one gastric sleeve can not get rid weight medicine use feel ugly fat miss lovely feel get first kiss love excitement happiness life dark right think suicide alot tell husband mom belive clinical depression real thing therapist hard time stubborn little satan know know get sleeping pill afraid daughter loose mother soon norway afraid tell doctor suicide thought really happy take away child family every little shit know do whole life shit pain whole body pain relief med norway give paracetamol fuckery</t>
+          <t>dark place marry kid dog cat house clean sick right cold uc bad u last yeah hospital time year stupid uc hate hate look feel support love anyone life except little daughter reason commit suicide strength anymore plan surgery near future gastric sleeve can not get rid weight medicine use feel ugly fat miss lovely feel get first kiss love excitement happiness life dark right think suicide alot tell husband mom belive clinical depression real thing therapist hard time stubborn little satan know know get sleeping pill afraid daughter loose mother soon norway afraid tell doctor suicide thought really happy take away child family every little shit know do whole life shit pain whole body pain relief med norway give paracetamol fuckery</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr">
@@ -22850,7 +22842,7 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>end march thing still well go take whole bottle acetaminophen kitchen school kill parent know suicidal dead winwin either way would stay home school feel like would arouse suspicion start feeling effect around lunch want go back school figure drive walmart park lot something sure miss graduation prom super important high school thing point care see point continue live already lose 5 student year kind feel bad go subject school grief like 10 people know well hurt much</t>
+          <t>end march thing still well go take whole bottle acetaminophen kitchen school kill parent know suicidal dead winwin either way would stay home school feel like would arouse suspicion start feeling effect around lunch want go back school figure drive walmart park lot something sure miss graduation prom super important high school thing point care see point continue live already lose student year kind feel bad go subject school grief like people know well hurt much</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr">
@@ -22884,7 +22876,7 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>really know appropriate subreddit find really funny become suicidal intent kill strong reach point create heavy feeling brain render progress mental health null quite aware progress make past month even consider depressionfree episode feeling stable three week realize depression onetime thing cure constant mean pharmacology state want kill lazy get knife downstairs would know damn well feel emptiness suicidal subside episode tip overcome recursive state mine however might break laziness phase actually</t>
+          <t>really know appropriate subreddit find really funny become suicidal intent kill strong reach point create heavy feeling brain render progress mental health null quite aware progress make past month even consider depressionfree episode feel stable week realize depression onetime thing cure constant mean pharmacology state want kill lazy get knife downstairs would know damn well feel emptiness suicidal subside episode tip overcome recursive state mine however might break laziness phase actually</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -22901,7 +22893,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>today hard bit backstory girlfriend recently break something control blame hate mean upending life move 300 mile away back parent 7 year relationship independent leave life cat behind basically hold together time lose job september really hard time find work imagine feel pretty low right main issue mother never really get along unpleasant around long period time fine small dos though basically shit everything try always something negative brings equation take wind sail go job interview last week go okay great terrible confident border get get rejection email afternoon felt like got kick stomach shire horse awful feeling knock back applied 43 job interview get feel pretty bad mum come room decide good time ask would dad feed keep pleasant topic conversation say well would homeless sleep rough would imagine mum seem satisfied response decide go tirade seek unemployment benefit would last ounce pride let also mention ask penny charity since get back anything dad pay list phone fully intend pay back work money come loan money mum since uni need help could handle argue anymore sister however currently owe mum dad thousand chase whenever need help drop help know bitter mum make statement treat time know continue twist knife could take anymore walked room say seem mind around delivery come want go see friend make lunch dinner housework feel like help around house time good enough least tried leave feel uselessness never good enough maybe sensitive much go ex break last month long ago know know sure much take</t>
+          <t>today hard bit backstory girlfriend recently break something control blame hate mean upending life move mile away back parent year relationship independent leave life cat behind basically hold together time lose job september really hard time find work imagine feel pretty low right main issue mother never really get along unpleasant around long period time fine small dos though basically shit everything try always something negative brings equation take wind sail go job interview last week go okay great terrible confident border get get rejection email afternoon felt like got kick stomach shire horse awful feeling knock back apply job interview get feel pretty bad mum come room decide good time ask would dad feed keep pleasant topic conversation say well would homeless sleep rough would imagine mum seem satisfied response decide go tirade seek unemployment benefit would last ounce pride let also mention ask penny charity since get back anything dad pay list phone fully intend pay back work money come loan money mum since uni need help could handle argue anymore sister however currently owe mum dad thousand chase whenever need help drop help know bitter mum make statement treat time know continue twist knife could take anymore walked room say seem mind around delivery come want go see friend make lunch dinner housework feel like help around house time good enough least tried leave feel uselessness never good enough maybe sensitive much go ex break last month long ago know know sure much take</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
@@ -22930,12 +22922,12 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>drogs 15</t>
+          <t>drogs</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>15 take lot different drogs smoke want know relate sorry english germany</t>
+          <t>take lot different drogs smoke want know relate sorry english germany</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
@@ -22969,7 +22961,7 @@
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>really consider suicide overdose march 30 feel pathetic like nobody care thoughts opinion etc</t>
+          <t>really consider suicide overdose march feel pathetic like nobody care thoughts opinion etc</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
@@ -23003,7 +22995,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>throwaway account obvious reason two week ago mom take med away know case recently feel well ask back can not help feel weird like trust enough next sound weird anyone else know mean guys trust</t>
+          <t>throwaway account obvious reason week ago mom take med away know case recently feel well ask back can not help feel weird like trust enough next sound weird anyone else know mean guys trust</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -23020,7 +23012,7 @@
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>look easy way coward know can not take hearthache though need quick way kill would 750800 mg doxylamine succinate trick concoction otc pill take please help desperate</t>
+          <t>look easy way coward know can not take hearthache though need quick way kill would mg doxylamine succinate trick concoction otc pill take please help desperate</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
@@ -23037,7 +23029,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>month since see sun ate food around others buy food walk around saw bird nice think could feel light heart always feel like dark heavy loom presence tense time yknw depress kid sun good least hour two hope feel lightness</t>
+          <t>month since see sun ate food around others buy food walk around saw bird nice think could feel light heart always feel like dark heavy loom presence tense time yknw depress kid sun good least hour hope feel lightness</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -23071,7 +23063,7 @@
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>always negative person life 32 decide want changei get job shelter love people hate see people live life low basically get job shelter decide would act want career anyways job awesome think homeless people would hard deal coworkers act like high school kid talk shit coworkers stay neutral people say thing people worker real mean people like ask kind work hat people fee lady get shelter late coworker get mad since late call pushover tell pushover compassion make mad say sorry first want lastword go gooff lie say threaten get sent home try positive put people shoe less bad guy probably job still one guess time end can not get ahead matter 32 thing look good family take care wife work part time amfucked drunk sorry grammar dumb person anyways kid half age well grammar</t>
+          <t>always negative person life decide wanted changei get job shelter love people hate see people live life low basically get job shelter decide would act want career anyways job awesome think homeless people would hard deal coworkers act like high school kid talk shit coworkers stay neutral people say thing people worker real mean people like ask kind work hat people fee lady get shelter late coworker get mad since late call pushover tell pushover compassion make mad say sorry first want lastword go gooff lie say threaten get sent home try positive put people shoe less bad guy probably job still guess time end can not get ahead matter thing look good family take care wife work part time amfucked drunk sorry grammar dumb person anyways kid half age well grammar</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
@@ -23088,7 +23080,7 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>serious depressive episode couple month always able say least good school need good go good university graduate shitty community college study as think actually well midterm barely scrap can not get awful feel know overreact know end world improve grade feel like fuck idiot can not anything right know professor probably laugh terrible test want cut lay bed spring break deserve anything else can not think rationally shit instead blow proportion probably autism come tell would get good plan march 20th suicide can not fuck wait</t>
+          <t>serious depressive episode couple month always able say least good school need good go good university graduate shitty community college study as think actually well midterm barely scrap can not get awful feel know overreact know end world improve grade feel like fuck idiot can not anything right know professor probably laugh terrible test want cut lay bed spring break deserve anything else can not think rationally shit instead blow proportion probably autism come tell would get good plan march th suicide can not fuck wait</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
@@ -23105,7 +23097,7 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>always ugly kid hated way look envied childhood friend prettier get well treatment develop eat disorder 1213 yo restrictbinge cycle year lately gain usually binge long period time make really depressed somehow cop realize ugly really look far used think look thought fine look weird angle way bad hate everything face body hate way skin look hate everything feel sorry body work hard someone hate can not afford plastic surgery makeup trick anymore know awful look want kill</t>
+          <t>always ugly kid hated way look envied childhood friend prettier get well treatment develop eat disorder yo restrictbinge cycle year lately gain usually binge long period time make really depressed somehow cop realize ugly really look far used think look thought fine look weird angle way bad hate everything face body hate way skin look hate everything feel sorry body work hard someone hate can not afford plastic surgery makeup trick anymore know awful look want kill</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
@@ -23130,7 +23122,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>genuinely feel good depress one year straight</t>
+          <t>genuinely feel good depressed year straight</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
@@ -23169,7 +23161,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>hello first really appreciate take time read post whether able provide advice thank feel like order give good understand situation need talk go sorry end long post kid pretty much normal group friend use shy faced lot verbal abuse time keep quite think normal ok thing affect though much however middle school experience trauma change forever left deep scar emotionally take year overcome one tried help see go speak try help year trust issue paranoid time first experience feel alone one understand slowly start drift away shut want alone start lose friend care time think right thing avoid much social interaction possible guess way try protect year try regain social life back make friend tried everything try act happy funny person one want see real depress sad self want make friend person actually work thought right thing end make depressed take lot effort person really felt like make deep connection anyone like screw mean try anything forcefully like others think since many thing probably find someone one thing friends work either kind become extra friend group existence make difference friend come friend around person hang enjoy company want sit alone mess senior year high school felt like shit spent time break toilet rather feel like shit others clear awful people say anything bad friend long whether time try funny happy person either way never felt belong anyone care felt someone know sure call friend college though struggle peak friendship make high school slowly disappear everyone move life guess mean leave unwanted relationship behind regardless think right part reach always end onesided relationship everyone apparently one reach stop one person close school year try friend rely time need depend want always never make time somehow others try put friendship test respond coldly message see ask wrong want notice problem see go care friendship end unfollowing social medium block life simply even though perfectly know well know kind behavior problem talk stranger open conversation interact anyone easily try get know people college difficult except think anyone want friend remain classmate end make one friend college lot common really believe could work take lot ignore frustrate attitude sometimes make wonder bother hold ever show frustration point go deep depression make suicidal thought future try hold hope much want act tough act like handle could really need someone talk far see one except college friend know go thought let u give try open do conversation last 2 minute crushed sure maybe perfect person open time option really need someone life talk really think go day really lose hope feel like back start point probably sound awfully pathetic person stupid every time able maintain relationship life ask wrong do wrong life realize try fix thing hard life end break damage always think right thing part reach help somehow make thing good always seem one making effort notice throughout stage life mention one try friend want always seem one want someone friend right much confuse exactly suppose understand struggle much find somewhere belong feel much reject matter make effort end alone either way everyone life seem give one bother hold know suppose give accept fact maybe thing suppose life try bore guy detail complicate stuff hope situation make clear confuse really need advice think go find good one mind one thank taking time read post</t>
+          <t>hello first really appreciate take time read post whether able provide advice thank feel like order give good understand situation need talk go sorry end long post kid pretty much normal group friend use shy faced lot verbal abuse time keep quite think normal ok thing affect though much however middle school experience trauma change forever left deep scar emotionally take year overcome tried help see go speak try help year trust issue paranoid time first experience feel alone understand slowly start drift away shut want alone start lose friend care time think right thing avoid much social interaction possible guess way try protect year try regain social life back make friend tried everything try act happy funny person want see real depress sad self want make friend person actually work thought right thing end make depressed take lot effort person really felt like make deep connection anyone like screw mean try anything forcefully like others think since many thing probably find someone thing friends work either kind become extra friend group existence make difference friend come friend around person hang enjoy company want sit alone mess senior year high school felt like shit spent time break toilet rather feel like shit others clear awful people say anything bad friend long whether time try funny happy person either way never felt belong anyone care felt someone know sure call friend college though struggle peak friendship make high school slowly disappear everyone move life guess mean leave unwanted relationship behind regardless think right part reach always end onesided relationship everyone apparently reach stop person close school year try friend rely time need depend want always never make time somehow others try put friendship test respond coldly message see ask wrong want notice problem see go care friendship end unfollowing social medium block life simply even though perfectly know well know kind behavior problem talk stranger open conversation interact anyone easily try get know people college difficult except think anyone want friend remain classmate end make friend college lot common really believe could work take lot ignore frustrate attitude sometimes make wonder bother hold ever show frustration point go deep depression make suicidal thought future try hold hope much want act tough act like handle could really need someone talk far see except college friend know go thought let u give try open do conversation last minute crush sure maybe perfect person open time option really need someone life talk really think go day really lose hope feel like back start point probably sound awfully pathetic person stupid every time able maintain relationship life ask wrong do wrong life realize try fix thing hard life end break damage always think right thing part reach help somehow make thing good always seem make effort notice throughout stage life mention tried friend want always seem want someone friend right much confuse exactly suppose understand struggle much find somewhere belong feel much reject matter make effort end alone either way everyone life seem give bother hold know suppose give accept fact maybe thing suppose life try bore guy detail complicate stuff hope situation make clear confuse really need advice think go find good mind thank take time read post</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -23215,7 +23207,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>hate one comfort people tell go ok</t>
+          <t>hate comfort people tell go ok</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
@@ -23271,7 +23263,7 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>friend family confuse increasingly poor life decision lately never good excuse suppose tell upset feel impossible prioritize even important task feel lose give fuck future consequence much pain bother tell anyone keep even want use word depression describe honestly feel like little entitled bitch try use mental health excuse lazy truthfully content anything life past 3 year feel like escape mind fantasize suicide several time day everyday last month even though plan give disturb comfort make feel justified make mess life truly consider depressed consider depress think longer root problem feel utterly break</t>
+          <t>friend family confuse increasingly poor life decision lately never good excuse suppose tell upset feel impossible prioritize even important task feel lose give fuck future consequence much pain bother tell anyone keep even want use word depression describe honestly feel like little entitled bitch try use mental health excuse lazy truthfully content anything life past year feel like escape mind fantasize suicide several time day everyday last month even though plan give disturb comfort make feel justified make mess life truly consider depressed consider depress think longer root problem feel utterly break</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr">
@@ -23322,7 +23314,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>22 dealt depression since highschool think got well fori great go college get jobbut recently anxiety gotten really bad againi date girl little year felt slip back depression long distance relationship cali back home across country anywayi start get bore guess relationship like relationship facetimewe would try meet every thenbut maybe saw 3 4 time year distance get way decide mutually sorta break would still facetime everyday would pick movie watch together like date still could tell love anymore depression start come backwell fast forward month christmas home spends whole first day family wound sleep together night next day leave job different statewe talk happen say mean anything think go get back together never happen recentlyshe start tell guy date try supportive move can not think together make happier like good enough happy another guy want unhappy keep one thought sleep together get mind think every time tell hang thought stop drink drink cut want cut anymore stop drink start scratch finger point bleeds scab get panic attack get panic attack every time think think think see together well dumb know broke still call get work answer call tell guy could talk anythingbut see hang want cut cut two week hard get everyone one let get away mine regret enough know else could do though get much vacation day sorta break timeand want something can not feel alone worthless time keep obsess two together trigger panic attack hate would actually commit suicide thought start surface againand know want die want feel way know happen time past week stop eat stop sleep trouble focus thing smoke waaay normally need help can not get obsess sorry long really anyone talk figure would vent everything front stranger</t>
+          <t>dealt depression since highschool think got well fori great go college get jobbut recently anxiety gotten really bad againi date girl little year felt slip back depression long distance relationship cali back home across country anywayi start get bore guess relationship like relationship facetimewe would try meet every thenbut maybe saw time year distance get way decide mutually sorta break would still facetime everyday would pick movie watch together like date still could tell love anymore depression start come backwell fast forward month christmas home spends whole first day family wound sleep together night next day leave job different statewe talk happen say mean anything think go get back together never happen recentlyshe start tell guy date try supportive move can not think together make happier like good enough happy another guy want unhappy keep thought sleep together get mind think every time tell hang thought stop drink drink cut want cut anymore stop drink start scratch finger point bleeds scab get panic attack get panic attack every time think think think see together well dumb know broke still call get work answer call tell guy could talk anythingbut see hang want cut cut week hard get everyone let get away mine regret enough know else could do though get much vacation day sorta break timeand want something can not feel alone worthless time keep obsess together trigger panic attack hate would actually commit suicide thought start surface againand know want die want feel way know happen time past week stop eat stop sleep trouble focus thing smoke waaay normally need help can not get obsess sorry long really anyone talk figure would vent everything front stranger</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
@@ -23356,7 +23348,7 @@
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>consider suicide method wonder electrocution good option 220 volt enough kill adult</t>
+          <t>consider suicide method wonder electrocution good option volt enough kill adult</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
@@ -23373,7 +23365,7 @@
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>constant fucking stress literally would rather die deal one day can not even afford bill go subreddit beg money luckily someone help sustainable know anymore move across country start put way behind life 5000 save move go job line get complete shit get eight hour week eight fucking hour twenty first start apply every fuck job town call back think something wrong heard people work talk problem college town every job competition like 20000 student know fuck anymore miss able go thing even handle problem come snake go vet call ask grandparent loan money depress pay rent 20 last next shift like five day time buy cat litter pay electric bill fuck sick life</t>
+          <t>constant fucking stress literally would rather die deal day can not even afford bill go subreddit beg money luckily someone help sustainable know anymore move across country start put way behind life save move go job line get complete shit get hour week fucking hour first start apply every fuck job town call back think something wrong heard people work talk problem college town every job competition like student know fuck anymore miss able go thing even handle problem come snake go vet call ask grandparent loan money depress pay rent last next shift like day time buy cat litter pay electric bill fuck sick life</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr">
@@ -23424,7 +23416,7 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>16 f diagnose depression think kill tonight try yesterday fail one reason behind burden family mental capacity think clearly ask drop year board able study near begin next session recover bit parent happen sort supernatural evil thing diagnosis take therapy ever rather take get rid evil thing go able study waste money also give dowry marriage pay education waste life money financial problem think justified commit suicide ruin mental health mom bpd schizophrenia sister 10 think ruin life close emotionally might also well without reality mess think never recover waste life live like 60 year scary mom go doctor think evil thing scar eat think enemy go kill matter much insist take doctor refuse stuck scar suffering world see street dog die road accident one even take care dead body hide road please say commit suicide moral obligation please answer family would better without take time read can not thank enough</t>
+          <t>f diagnose depression think kill tonight try yesterday fail reason behind burden family mental capacity think clearly ask drop year board able study near begin next session recover bit parent happen sort supernatural evil thing diagnosis take therapy ever rather take get rid evil thing go able study waste money also give dowry marriage pay education waste life money financial problem think justified commit suicide ruin mental health mom bpd schizophrenia sister think ruin life close emotionally might also well without reality mess think never recover waste life live like year scary mom go doctor think evil thing scar eat think enemy go kill matter much insist take doctor refuse stuck scar suffering world see street dog die road accident even take care dead body hide road please say commit suicide moral obligation please answer family would better without take time read can not thank enough</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr">
@@ -23441,7 +23433,7 @@
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>17 senior high school wake go school come home homework chore around house take care pet take care eat shower keep room clean go gym actively produce art listen music play guitar spend time mom friend unhappy life feel dull gray sad angry upset anything previous year life overcome anxiety major depression self harm even suicide attempt sad angry confuse disgust suffer ptsd since age 12 affect lot still affect especially form physical ptsd doctor describe know else call overdose 2 year try kill trauma aside feel anything negative course bad mood like anyone else really would say good mood bad mood laugh smile joke lot comedian circle tell odd live life autopilot everything positive use almost every hour day fill thought suicide fantasize slice wrist open watch blood pool tub beneath imagine drive old hanging tree side town middle night leave body dangle someone find morning walking sidewalk laugh think jump front car roll self harm cry funny game</t>
+          <t>senior high school wake go school come home homework chore around house take care pet take care eat shower keep room clean go gym actively produce art listen music play guitar spend time mom friend unhappy life feel dull gray sad angry upset anything previous year life overcome anxiety major depression self harm even suicide attempt sad angry confuse disgust suffer ptsd since age affect lot still affect especially form physical ptsd doctor describe know else call overdose year try kill trauma aside feel anything negative course bad mood like anyone else really would say good mood bad mood laugh smile joke lot comedian circle tell odd live life autopilot everything positive use almost every hour day fill thought suicide fantasize slice wrist open watch blood pool tub beneath imagine drive old hanging tree side town middle night leave body dangle someone find morning walking sidewalk laugh think jump front car roll self harm cry funny game</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
@@ -23475,7 +23467,7 @@
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>know overreact feeling contemplate suicide several time want live scar actually try kill feel like piece shit feel like mock people actually attempt suicide say want live much pussy try end know actually depress go edgy teen phase scar get diagnose afraid result might say told dad around 23 month ago felt think really care basically small chat think think overreact whole thing even know feel serious think</t>
+          <t>know overreact feeling contemplate suicide several time want live scar actually try kill feel like piece shit feel like mock people actually attempt suicide say want live much pussy try end know actually depress go edgy teen phase scar get diagnose afraid result might say told dad around month ago felt think really care basically small chat think think overreact whole thing even know feel serious think</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -23509,7 +23501,7 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>basically always little listless sad even elementary school get ok grade really excel sport start get really great grade college join magazine volunteer local democrat barista job etc still even see ok miserable lot friend kind funny nice time speak people three year post grad really suffer poor performer every job do post grad internship agency tech job right put 30 day performance review probably get fire know want know make mistake fuck entire life feel like broken ever make money really rent bill pay could get another job can not deal suck get fire next one prozac hop help feel like fired wake call ashamed let happen everyone else say get back foot really ok idea anyones life change ssris something wrong fear hope</t>
+          <t>basically always little listless sad even elementary school get ok grade really excel sport start get really great grade college join magazine volunteer local democrat barista job etc still even see ok miserable lot friend kind funny nice time speak people year post grad really suffer poor performer every job do post grad internship agency tech job right put day performance review probably get fire know want know make mistake fuck entire life feel like broken ever make money really rent bill pay could get another job can not deal suck get fire next prozac hop help feel like fired wake call ashamed let happen everyone else say get back foot really ok idea anyones life change ssris something wrong fear hope</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
@@ -23526,7 +23518,7 @@
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>diagnose anxiety depression right take prescription med last couple week really help little background get 6 year relationship due see future ex december 2019 one person think really close friend mine decide want friend anymore cut contact get emotionally attach wayyy easily lead anxiety panic attack depression eventually lead insomnia ibs migraine constant body ache start therapy feb 2020 since go therapist every week therapist suggest look option medication try since last 2 week lexapro ssri psychiatrist tell go take week see change last 34 day observe energy level increase able sleep well much good ibs decrease get migraine really really glad medication help anyone look option one fence try medication go sure work help</t>
+          <t>diagnose anxiety depression right take prescription med last couple week really help little background get year relationship due see future ex december person think really close friend mine decide want friend anymore cut contact get emotionally attach wayyy easily lead anxiety panic attack depression eventually lead insomnia ibs migraine constant body ache start therapy feb since go therapist every week therapist suggest look option medication try since last week lexapro ssri psychiatrist tell go take week see change last day observe energy level increase able sleep well much good ibs decrease get migraine really really glad medication help anyone look option fence try medication go sure work help</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr">
@@ -23543,7 +23535,7 @@
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>post make sense read need vent go fee alone useless good anything suppose graduate uni next year 21 next month never job friend one make high school incapable make friend can not conversation anyone two min interest nothing say life boring friend none ever genuinely want talk none ever texts first person talk want feel alone tire</t>
+          <t>post make sense read need vent go fee alone useless good anything suppose graduate uni next year next month never job friend one make high school incapable make friend can not conversation anyone min interest nothing say life boring friend none ever genuinely want talk none ever texts first person talk want feel alone tire</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr">
@@ -23560,7 +23552,7 @@
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>breakdown around 6 month ago yet recover although due go back uni end month little little sort life unfortunately do sweet fuck improve mood still suicidal think go back uni course require bare arm practicalsplacements people see recent self harm scar go final straw push edge think make feel physically sick honestly miracle alive easter</t>
+          <t>breakdown around month ago yet recover although due go back uni end month little little sort life unfortunately do sweet fuck improve mood still suicidal think go back uni course require bare arm practicalsplacements people see recent self harm scar go final straw push edge think make feel physically sick honestly miracle alive easter</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
@@ -23577,7 +23569,7 @@
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>depression anxiety take life sign work lay bed leave house 2 week l shut friend family hard talk feel lose best friend go thing best person talk med make feel less less like every day void inside get big big ever day speak doctor ask suicidal told ask make concrete plan respond basically say coke back week see feel like one even care concrete plan kill would go doctor would depression consume feel like enough leave fight back people say get good honesty guarantee sure want spend next 60 year life fight battle can not win sure want post want get end take life atleast family insight feeling</t>
+          <t>depression anxiety take life sign work lay bed left house week l shut friend family hard talk feel lose best friend go thing best person talk med make feel less less like every day void inside get big big ever day speak doctor ask suicidal told ask make concrete plan respond basically say coke back week see feel like even care concrete plan kill would go doctor would depression consume feel like enough leave fight back people say get good honesty guarantee sure want spend next year life fight battle can not win sure want post want get end take life atleast family insight feeling</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
@@ -23611,7 +23603,7 @@
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>sure wats wrong think feel ok lately content bad thought overwhelm feel alone one actually give shit feel end think mean commit suicide feel stupid try positive get actual 60 assignment school fuck cried bathroom stall cut like pathetic idiot tire</t>
+          <t>sure wats wrong think feel ok lately content bad thought overwhelm feel alone actually give shit feel end think mean commit suicide feel stupid try positive get actual assignment school fuck cried bathroom stall cut like pathetic idiot tire</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
@@ -23636,12 +23628,12 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>instead kill want get one way ticket unknown country start new life</t>
+          <t>instead kill want get way ticket unknown country start new life</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>instead kill want get one way ticket unknown country start new life understand illegal borderline impossible get job sure happen caught thing think kill country idea ideally one people speak english</t>
+          <t>instead kill want get way ticket unknown country start new life understand illegal borderline impossible get job sure happen caught thing think kill country idea ideally people speak english</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr">
@@ -23658,7 +23650,7 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>marry 17 year wife varying level depression right throughout think get depression fatigue make term sure probably real medical term can not deal anymore consume every piece happiness smile laughter fun get 4 kid affect can not deal complain anymore can not deal mood anymore can not deal abuse anymore can not deal use verbal emotional punching bag can not keep everything around house can not keep dread every time phone ring wonder lose shit end phone can not keep come home wonder sort mood can not dread wake morning know shit mood 13 14 day can not walk house say hibye give kiss tell fuck hate piece shit cunt wish get hit train car accident similar can not tell anything around house thing can not tell shit father thing even though every night weekend work take school make lunch dinner can not tell crap family dad die 3 year ago lazy piece shit can not fight every time mum town want see u kid especially move town week see u can not tell time yet directly control spends every minute day can not complain house anymore display home far dirty can not hear complain kid much fight think learnt behaviour can not hear finance spend much takeaway food fresh food get thrown go uneaten can not hear complain weight get op do lose heap weight gym tone can not hear complain go gym pay membership last 8 month control day spend can not hear say different towards todaytonight forget tell today piece shit wish never meet go go find someone give attention can not tell much repulse sex think someone else orgasm can not tell look kid support financially can not hear money money grateful get job nightsweekends look kid yet buy present money first 10 year hear time deserve likely edit add look response get</t>
+          <t>married year wife varying level depression right throughout think get depression fatigue make term sure probably real medical term can not deal anymore consume every piece happiness smile laughter fun get kid affect can not deal complain anymore can not deal mood anymore can not deal abuse anymore can not deal use verbal emotional punching bag can not keep everything around house can not keep dread every time phone ring wonder lose shit end phone can not keep come home wonder sort mood can not dread wake morning know shit mood day can not walk house say hibye give kiss tell fuck hate piece shit cunt wish get hit train car accident similar can not tell anything around house thing can not tell shit father thing even though every night weekend work take school make lunch dinner can not tell crap family dad die year ago lazy piece shit can not fight every time mum town want see u kid especially move town week see u can not tell time yet directly control spends every minute day can not complain house anymore display home far dirty can not hear complain kid much fight think learnt behaviour can not hear finance spend much takeaway food fresh food get thrown go uneaten can not hear complain weight get op do lose heap weight gym tone can not hear complain go gym pay membership last month control day spend can not hear say different towards todaytonight forget tell today piece shit wish never meet go go find someone give attention can not tell much repulse sex think someone else orgasm can not tell look kid support financially can not hear money money grateful get job nightsweekends look kid yet buy present money first year hear time deserve likely edit add look response get</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
@@ -23675,7 +23667,7 @@
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>dark place right 32 unemployed since last october get laid due performance whole team 15 company get let go firm idea life start interview past week mostly type work pretty niche ton job available know want rest life meantime get dicked around recruiter feel like get left pasture even though feel like good background interview well simultaneously finish parttime mba program feel like colossal waste time money energy honestly feel like good luck get response job application start program slog final semester struggle find motivation work finish 2 month time may may employ know extremely stressful need begin pay college loan within 6 month graduate know ever go save payment immensely regret go business school add fact whatever reason seem get ignore every therapist reach counsel maybe need start leave message think end feel like lose mind thing keep feel sane girlfriend without sure would unfortunately know compulsive masturbationporn addiction seem consume life moment ing mess know hard think actually kill find think often give sort dark solace knowing could end donate everything much charity remember live nobody feel like today</t>
+          <t>dark place right unemployed since last october get laid due performance whole team company get let go firm idea life start interview past week mostly type work pretty niche ton job available know want rest life meantime get dicked around recruiter feel like get left pasture even though feel like good background interview well simultaneously finish parttime mba program feel like colossal waste time money energy honestly feel like good luck get response job application start program slog final semester struggle find motivation work finish month time may may employ know extremely stressful need begin pay college loan within month graduate know ever go save payment immensely regret go business school add fact whatever reason seem get ignore every therapist reach counsel maybe need start leave message think end feel like lose mind thing keep feel sane girlfriend without sure would unfortunately know compulsive masturbationporn addiction seem consume life moment ing mess know hard think actually kill find think often give sort dark solace knowing could end donate everything much charity remember live nobody feel like today</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr">
@@ -23721,12 +23713,12 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>one play</t>
+          <t>play</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>lonely tear play realise alone play lot apex legend lately ps4 want strong rank sometimes can not everything alone one play always leave behind everyone video game hobby since can not go school anymore anxious body hurt go school hate want die life stay bedroom play day nearly break hand lose hour play due launch game lose point kill least five people stay alive long enough sometimes really bad random team mat help want vent sorryif sound childish dumb thanks maybe someone read</t>
+          <t>lonely tear play realise alone play lot apex legends lately ps want strong rank sometimes can not everything alone play always leave behind everyone video game hobby since can not go school anymore anxious body hurt go school hate want die life stay bedroom play day nearly break hand lose hour play due launch game lose point kill least people stay alive long enough sometimes really bad random team mat help want vent sorryif sound childish dumb thanks maybe someone read</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
@@ -23743,7 +23735,7 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>maintain cheery personality reality barely get along one care want attempt suicide third time first two attempt suck hate everyday even try first time lose nearly memory past retrograde amnesia could recognize people know second time hospital place suicide watch needless say parent wereare scared asf use drug cope weed adderall lean alcohol xanax ambien lsd write relief know people count existence live swear sometimes feel like time go can not control mind</t>
+          <t>maintain cheery personality reality barely get along care want attempt suicide third time first attempt suck hate everyday even try first time lose nearly memory past retrograde amnesia could recognize people know second time hospital place suicide watch needless say parent wereare scared asf use drug cope weed adderall lean alcohol xanax ambien lsd write relief know people count existence live swear sometimes feel like time go can not control mind</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
@@ -23777,7 +23769,7 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>can not forget love want much hate block year 25 never relationship feel humiliate never get proper chance can not kill</t>
+          <t>can not forget love want much hate block year never relationship feel humiliate never get proper chance can not kill</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
@@ -23794,7 +23786,7 @@
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>ok suffer seasonal depression winter significantly bad last last winter around friend family home year new city move last summer university try get away whatwho meet amazing people nobody seem time care quick rundown 2020 far get shoulder injury time gym unable compete weak girlfriend 25 year split develop drug addiction cope pain hat body ever lose appetite stop eat sex drive plummet start hook girl could maintain erection realise use hugs kiss numb feel loneliness want go doctor brain keep tell feeling sorry attention even feel like write post hate genuinely want die can not see option want someone love</t>
+          <t>ok suffer seasonal depression winter significantly bad last last winter around friend family home year new city move last summer university try get away whatwho meet amazing people nobody seem time care quick rundown far get shoulder injury time gym unable compete weak girlfriend year split develop drug addiction cope pain hat body ever lose appetite stop eat sex drive plummet start hook girl could maintain erection realise use hugs kiss numb feel loneliness want go doctor brain keep tell feeling sorry attention even feel like write post hate genuinely want die can not see option want someone love</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
@@ -23862,7 +23854,7 @@
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>paralyzed depression often can not basic task want stay bed day stay pajamas even dress hard partner help sometimes lately therapy learn depression impact brain learning impact concentration memory well experience completely yesterday yesterday take shower first shower day dread seem hard know sound stupid freak anyway go motion felt completely forgot wash hair wtf shower past 25 year forget ergg</t>
+          <t>paralyzed depression often can not basic task want stay bed day stay pajamas even dress hard partner help sometimes lately therapy learn depression impact brain learning impact concentration memory well experience completely yesterday yesterday take shower first shower day dread seem hard know sound stupid freak anyway go motion felt completely forgot wash hair wtf shower past year forget ergg</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
@@ -23879,7 +23871,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>last couple month tire want die really badly want cause people somehow still love pain need tire fuck tire tired sad mean world feel like succeed see point still happy hand get point try make family happy spend little time one love someone may say least lucky people love much true would long time ago however perhaps feeling brings within pain sorrow love reciprocate get wrong love people love spending time anyone even love spending time know want make day good thought go cycle try find little piece happy day love one rest life make want live find bad every activity see negative flaw every person time try keep face much possible think summarize feel feel guilty pain love one time fuck selfish can not take anymore feel like loose shit even know depressed crazy bipolar dont know hurt want stop want good overall know write even want help input want sadness go way can not go around another day head eye fill tear feel like bear act like want strong physically mentally order provide love one tear negativity everyone problem big mine selfish bitch much pussy deal fucking emotion people world get much shittier hand yet fuck want die make sense also really hard hide fuck sad 66 live love girlfriend try social year still hope mean still people think want friend life try reach receive excuse insult ramble try avoid matter much effort put happiness can not seem get close without cheat sure thing make happy soon mind almost try find negative situation end shit want make wish wish kid strong bull size ball help every person need false sense protection last thing need can not say stay behind wonder every left stay strong everyone ok weak already year nail coffin</t>
+          <t>last couple month tire want die really badly want cause people somehow still love pain need tire fuck tire tired sad mean world feel like succeed see point still happy hand get point try make family happy spend little time one love someone may say least lucky people love much true would long time ago however perhaps feeling brings within pain sorrow love reciprocate get wrong love people love spending time anyone even love spending time know want make day good thought go cycle try find little piece happy day love one rest life make want live find bad every activity see negative flaw every person time try keep face much possible think summarize feel feel guilty pain love one time fuck selfish can not take anymore feel like loose shit even know depressed crazy bipolar dont know hurt want stop want good overall know write even want help input want sadness go way can not go around another day head eye fill tear feel like bear act like want strong physically mentally order provide love one tear negativity everyone problem big mine selfish bitch much pussy deal fucking emotion people world get much shittier hand yet fuck want die make sense also really hard hide fuck sad live love girlfriend try social year still hope mean still people think want friend life try reach receive excuse insult ramble try avoid matter much effort put happiness can not seem get close without cheat sure thing make happy soon mind almost try find negative situation end shit want make wish wish kid strong bull size ball help every person need false sense protection last thing need can not say stay behind wonder every left stay strong everyone ok weak already year nail coffin</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -23896,7 +23888,7 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>4 stuck alone room thought know even post one turn little background information help paint picture 21 gay depress alone fill anxiety extremely suicidal really day go think kill negative thought burst tear alone room public pain feeling completely unbearable tire even live move forward life think worth whole life face pain pain pain keep try tire tired life tire pain tired come realization matter matter hard try hard try become someone else never good enough always life even know anymore look mirror recognize anymore let alone know anymore sounds weird know never happy person always fuck try people always fuck never win fuck dishearten gruesome always put back hellish place never enough uglyness try hard get fucked whole stupid as existence see future anymore want see tomorrow anymore constantly wish death hop get run car get accident od anything something take pain away feeling way year year never seem get break even single moment always bring back never know deserve love happiness even glimpse joy always others try best supportive show love care come get ready go say every day yet still know though time feel like one step closer push trigger end sorry foolishness probably delete hey ever end thought infinitely luthien</t>
+          <t>stuck alone room thought know even post turn little background information help paint picture gay depress alone fill anxiety extremely suicidal really day go think kill negative thought burst tear alone room public pain feeling completely unbearable tire even live move forward life think worth whole life face pain pain pain keep try tire tired life tire pain tired come realization matter matter hard try hard try become someone else never good enough always life even know anymore look mirror recognize anymore let alone know anymore sounds weird know never happy person always fuck try people always fuck never win fuck dishearten gruesome always put back hellish place never enough uglyness try hard get fucked whole stupid as existence see future anymore want see tomorrow anymore constantly wish death hop get run car get accident od anything something take pain away feeling way year year never seem get break even single moment always bring back never know deserve love happiness even glimpse joy always others try best supportive show love care come get ready go say every day yet still know though time feel like step closer push trigger end sorry foolishness probably delete hey ever end thought infinitely luthien</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
@@ -23913,7 +23905,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>try kill schooli realize care girlfriend would equal 100 friendsso except try get thing would likei search girlfriendi prefer online since one would interest social skill red neck</t>
+          <t>try kill schooli realize care girlfriend would equal friendsso except try get thing would likei search girlfriendi prefer online since would interested social skill red neck</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
@@ -23930,7 +23922,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>know much longer keep lie everythings go fine go 10 year tell thing nothing ever change depression eat alive good day mostly shit want cut badly maybe deep enough make feel like actually accomplish something worthwhile pretty sure thing stop boyfriend even others throats bit recently know almost feel like end life take another turn worse 100 want die peace life maybe take one shitty person world 1 good deed think</t>
+          <t>know much longer keep lie everythings go fine go year tell thing nothing ever change depression eat alive good day mostly shit want cut badly maybe deep enough make feel like actually accomplish something worthwhile pretty sure thing stop boyfriend even others throats bit recently know almost feel like end life take another turn worse want die peace life maybe take shitty person world good deed think</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
@@ -23947,7 +23939,7 @@
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>feel horrible scared open anyone worry go tell office boom run another lap system do virtually nothing first two time deal parent can not open suicide without consequence sick one feel guilty know would worry everyone course want die care want somebody kill regardless feel bad fee like regardless anyone try help even get good since last time go system suicide still feel optimal even though really want die</t>
+          <t>feel horrible scared open anyone worry go tell office boom run another lap system do virtually nothing first time deal parent can not open suicide without consequence sick one feel guilty know would worry everyone course want die care want somebody kill regardless feel bad fee like regardless anyone try help even get good since last time go system suicide still feel optimal even though really want die</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -23981,7 +23973,7 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>heart never ever get feel likecare someone care family friends acquaintance people one joy live can not feel</t>
+          <t>heart never ever get feel likecare someone care family friends acquaintance people joy live can not feel</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
@@ -24032,7 +24024,7 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>hurtsbut remember feeling last time go saw hurti cry sleep go bed hurt woke hurting leave look dumb go way see cross many busy road climb many tall mountain try please still believe truly care hard let go one person make happy ever life look back look different literally glow within give glow make shine brightyou also take away without hesitation never since sure keep around 2 year break know deep never able make shine like use toi never glow never able feel love againand simple notbecause love meyou care meit funny life work people would anything world nothing one make happy bring darkness life one day someone fight mefight keep see glowfight keep happyhopefully soonbut wait decide cross busy road climb mountainsfor stay even though hurt safer</t>
+          <t>hurtsbut remember feeling last time go saw hurti cry sleep go bed hurt woke hurting leave look dumb go way see cross many busy road climb many tall mountain try please still believe truly care hard let go person make happy ever life look back look different literally glow within give glow make shine brightyou also take away without hesitation never since sure keep around year break know deep never able make shine like use toi never glow never able feel love againand simple notbecause love meyou care meit funny life work people would anything world nothing one make happy bring darkness life day someone fight mefight keep see glowfight keep happyhopefully soonbut wait decide cross busy road climb mountainsfor stay even though hurt safer</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
@@ -24049,7 +24041,7 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>night come lay bed think stressful problem suddenly everything go dark conciseness go rest longer aware life death brain numb seize exist even moment start dream feel happy like time wer wake 7 ready repeat boring routine bothering quite choice keep go</t>
+          <t>night come lay bed think stressful problem suddenly everything go dark conciseness go rest longer aware life death brain numb seize exist even moment start dream feel happy like time wer wake ready repeat boring routine bothering quite choice keep go</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -24078,12 +24070,12 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>suffocate 247 wake constantly throughout night empty nose syndrome</t>
+          <t>suffocate wake constantly throughout night empty nose syndrome</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>open cosmetic rhinoplasty 4 month ago since experience symptom fairly debilitate week postop notice air flow different nostril slight pain leave chalked swell 4 month later pain feel like blockage leave nostril can not sense airflow either nostril keep night sleep pill barely help get hour throughout night really scar expect go scary journey want refinement would know empty nose syndrome wait longer see issue resolve naturally please help anyone go something similar know someone gotten well become go perfect breathe feel like walk around bag head day devastate real kicker even happy cosmetic result point want breathe</t>
+          <t>open cosmetic rhinoplasty month ago since experience symptom fairly debilitate week postop notice air flow different nostril slight pain leave chalked swell month later pain feel like blockage leave nostril can not sense airflow either nostril keep night sleep pill barely help get hour throughout night really scar expect go scary journey want refinement would know empty nose syndrome wait longer see issue resolve naturally please help anyone go something similar know someone gotten well become go perfect breathe feel like walk around bag head day devastate real kicker even happy cosmetic result point want breathe</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -24100,7 +24092,7 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>feel incredibly self conscious depress terrible self self sexual constantly compare sexually partner talk try hurt extremely self conscious can not even masturbate enough ruin day sometimes even bleed part life relationship feel terribly low feel love even though try hardest love want propose can not right feel want feel love bad can not seem find direction life either know idea future look like point give know even help tried medicine therapy 2 year help reason anything guy could share help</t>
+          <t>feel incredibly self conscious depress terrible self self sexual constantly compare sexually partner talk try hurt extremely self conscious can not even masturbate enough ruin day sometimes even bleed part life relationship feel terribly low feel love even though try hardest love want propose can not right feel want feel love bad can not seem find direction life either know idea future look like point give know even help tried medicine therapy year help reason anything guy could share help</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -24117,7 +24109,7 @@
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>depress least 6 year truly feel like alone always unique trait opinion people would give crap always try find balance situation matter side pick make enemy hurt mentally surprised go far life honest know much long take</t>
+          <t>depress least year truly feel like alone always unique trait opinion people would give crap always try find balance situation matter side pick make enemy hurt mentally surprised go far life honest know much long take</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
@@ -24151,7 +24143,7 @@
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>never understood distinction therapy like cbt try train think positively reduce eliminate depression sort underlie belief psychology think versus sentiment one can not think depression could someone explain two side reconcile</t>
+          <t>never understood distinction therapy like cbt try train think positively reduce eliminate depression sort underlie belief psychology think versus sentiment can not think depression could someone explain side reconcile</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
@@ -24168,7 +24160,7 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>aware hate life right scar future past warm safe blanket full photo video message remind used people used hate get old want reach old friends 10 year ago even worth move want delete memory feel like point suggestion</t>
+          <t>aware hate life right scar future past warm safe blanket full photo video message remind used people used hate get old want reach old friend year ago even worth move want delete memory feel like point suggestion</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
@@ -24202,7 +24194,7 @@
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>workplace 46th floor theory suicide easy</t>
+          <t>workplace th floor theory suicide easy</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
@@ -24219,7 +24211,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>kind vent need look mirror minute try restart downward cycle want conversation otherwise nothing see haha low past couple week felt like felt fair amount apathy read sub often scary know thing need order overcome depression tool reach exercise nutrition therapy group therapy open friend family volunteer strong social connection medical health laundry list long tough grapple couple week pure hell make realize really work one thing strongly do really move forward last year feel like really reach huge step since start therapy 2015 go four year lifechanging healthy step take last summer dental health become overwhelming something must take care go back first appointment year gradually take care pain rot mouth alleviate lose tooth process huge weight lift well need similar weight lift want able reach crave discipline dental work come result time run reactive proactive want strong enough work thru shit healthy pace leave thing go awry month end consequence happens suppose order get first admit weak need help can not like tell must would really like get exercise bike see positives cardio healthbody positivitymotivation hike moreoverall get shape someone healthy buying bike put research go store ask people advice would doable simple task like fuck hard healthy get ask sister take shop one day post good start question fail past talk doable step remind positive outcome work thru maybe need meditate breathe thru pressure chest think go bike store talk people craigslist wish could work thru thing easily like normal person guess win today admit broken depression fault maybe admit often see ok ask help beat less never really lose love know good man therapist tell purpose look two half right happy selfphilosophy depress person good time accept healthy enough good yet least degree hope future hold hard reconcile much depression hold back hope look mirror deeply next little reach help need pick ground maybe start exercise bike</t>
+          <t>kind vent need look mirror minute try restart downward cycle want conversation otherwise nothing see haha low past couple week felt like felt fair amount apathy read sub often scary know thing need order overcome depression tool reach exercise nutrition therapy group therapy open friend family volunteer strong social connection medical health laundry list long tough grapple couple week pure hell make realize really working thing strongly do really move forward last year feel like really reach huge step since start therapy go year lifechanging healthy step take last summer dental health become overwhelming something must take care go back first appointment year gradually take care pain rot mouth alleviate lose tooth process huge weight lift well need similar weight lift want able reach crave discipline dental work come result time run reactive proactive want strong enough work thru shit healthy pace leave thing go awry month end consequence happens suppose order get first admit weak need help can not like tell must would really like get exercise bike see positives cardio healthbody positivitymotivation hike moreoverall get shape someone healthy buying bike put research go store ask people advice would doable simple task like fuck hard healthy get ask sister take shopping day post good start question fail past talk doable step remind positive outcome work thru maybe need meditate breathe thru pressure chest think go bike store talk people craigslist wish could work thru thing easily like normal person guess win today admit broken depression fault maybe admit often see ok ask help beat less never really lose love know good man therapist tell purpose look half right happy selfphilosophy depress person good time accept healthy enough good yet least degree hope future hold hard reconcile much depression hold back hope look mirror deeply next little reach help need pick ground maybe start exercise bike</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -24236,7 +24228,7 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>hard life single parent mother addict drug foster care 7 year homeless 6 year finally get need get puppy love dearly emotional support animal everything life finally get place 4 year great job happy go afford pay bill habit need today get notice vacat spending month fight landlord obligation lose old job month ago emotional distress literally tell manager care someone remote work sit sincerity trouble shoot go home everyday heat dog shake uncontrollable keep smile face unable pay electric bill try evict premise break lease break faith try hard everytime get head something try break today fall back depression can not help say well give pup away someone stable kill can not keep go deal uncertainty homeless try hard everyday get push back void take lose end see darkness comfort get yet seem life want go back numb ready</t>
+          <t>hard life single parent mother addict drug foster care year homeless year finally get need get puppy love dearly emotional support animal everything life finally get place year great job happy go afford pay bill habit need today get notice vacat spending month fight landlord obligation lose old job month ago emotional distress literally tell manager care someone remote work sit sincerity trouble shoot go home everyday heat dog shake uncontrollable keep smile face unable pay electric bill try evict premise break lease break faith try hard everytime get head something try break today fall back depression can not help say well give pup away someone stable kill can not keep go deal uncertainty homeless try hard everyday get push back void take lose end see darkness comfort get yet seem life want go back numb ready</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
@@ -24253,7 +24245,7 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>chronic sufferer gad life thanks klonopin worry symptons anxiety go side effect overdose understand take 2 day maybe inept doctor up dose 05mg 1 make emotion go haywire constantly euphoric spontaneous feel deep rage impulse punch scream top tick little thing become explosive price pay feel worried time explosive behaviour id rather take recurred smoking calm right step away lose control really lose go blind beastly rage since can not see inept doctor doctor afford till last day march decide cut pill one dose day cosidering splittling dose see improvement</t>
+          <t>chronic sufferer gad life thanks klonopin worry symptons anxiety go side effect overdose understand take day maybe inept doctor up dose mg make emotion go haywire constantly euphoric spontaneous feel deep rage impulse punch scream top tick little thing become explosive price pay feel worried time explosive behaviour id rather take recurred smoking calm right step away lose control really lose go blind beastly rage since can not see inept doctor doctor afford till last day march decide cut pill dose day cosidering splittling dose see improvement</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
@@ -24270,7 +24262,7 @@
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>hi everyone first time post thread bare suffer depression year currently cycle feel kind downlow energy enough call depress anyway somehow completely forgot music listen month commute bus usually sit browse reddit bf drive radio usually get sensory overload try talk radio usually keep anyway yesterday go car bluetooth function guess bf listen music way home work automatically connect phone start play music song jonas brother embarrass like 2008 make happy start vibing hard start work seriously forget music told every time drive work play music give quick happy boost work anyone else forget something would give joy</t>
+          <t>hi everyone first time post thread bare suffer depression year currently cycle feel kind downlow energy enough call depress anyway somehow completely forgot music listen month commute bus usually sit browse reddit bf drive radio usually get sensory overload try talk radio usually keep anyway yesterday go car bluetooth function guess bf listen music way home work automatically connect phone start play music song jonas brother embarrass like make happy start vibing hard start work seriously forget music told every time drive work play music give quick happy boost work anyone else forget something would give joy</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
@@ -24287,7 +24279,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>gf upset gpa weight job prospect finance depress tell go find dead one day try talk help know think plan sure would tell can not live without please need advice</t>
+          <t>gf upset gpa weight job prospect finance depress tell go find dead day try talk help know think plan sure would tell can not live without please need advice</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
@@ -24304,7 +24296,7 @@
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>deal since day start medical school 5 month ago do best handle fuck do one around talk diagnose bell palsy 2015 recover extent go away past 5 year every stranger meet one way another make fun bad university beyond fucked single day nobody laugh fucked face use pretty attractive person can not hold tear write still remember time use pretty confident way look dream every stranger meet one way another make fun forced stay alone everyday school anxiety let move muscle whenever ever strange approach smile moment get confuse literally first thing ask fuck wrong face body want friends think fuck retard somehow make med school date whole another set nightmares get reject hardcore face completely disturbs mental health feel helpless right sometimes get bullied point feel like way avoid either commit suicide person try bully go pay life fcking idea someone please help fuck sake</t>
+          <t>deal since day start medical school month ago do best handle fuck do around talk diagnose bell palsy recover extent go away past year every stranger meet way another make fun bad university beyond fucked single day nobody laugh fucked face use pretty attractive person can not hold tear write still remember time use pretty confident way look dream every stranger meet way another make fun forced stay alone everyday school anxiety let move muscle whenever ever strange approach smile moment get confuse literally first thing ask fuck wrong face body want friends think fuck retard somehow make med school date whole another set nightmares get reject hardcore face completely disturbs mental health feel helpless right sometimes get bullied point feel like way avoid either commit suicide person try bully go pay life fcking idea someone please help fuck sake</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
@@ -24334,7 +24326,7 @@
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>therapist bail day later already fully developed plan would easy cheap could easily kill tomorrow keep tell stick around friend know drag leech support go one less task worry pain come end know seem like winwin sure would sad bit busy guy well way know haha everything feel distant detach reason</t>
+          <t>therapist bail day later already fully developed plan would easy cheap could easily kill tomorrow keep tell stick around friend know drag leech support go less task worry pain come end know seem like winwin sure would sad bit busy guy well way know haha everything feel distant detach reason</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
@@ -24351,7 +24343,7 @@
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>13m severe depression anxiety parent extremly strict lose friend self esteem zero can not handle pain anymore tried talk parent say way feel convince almost end last year friend help keep go time different one stop</t>
+          <t>severe depression anxiety parent extremly strict lose friend self esteem can not handle pain anymore tried talk parent say way feel convince almost end last year friend help keep go time different stop</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr">
@@ -24363,12 +24355,12 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>3rd time charm guess mabye ill gut end tonight</t>
+          <t>rd time charm guess mabye ill gut end tonight</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>well 3rd time day apart form every post normally id make alt post point care people see truly low long rode last 5 year life think well really sombody fight long tierd fight keep alive tierd heart heavy regret pain cause see way time count never truly nature saw cruel thing feel associate something even close pain ever choise would never feel pain never choise pain woman feel inside burden come longer know know defective see least ill sad see go wish strength stay longer complete truth never cut live take much effort even live parent least one child wasent complete fuck least old brother fail goodbye everyone thank everyone tried convince stay previous post sorry let day know appreciate effort even waste goodbye</t>
+          <t>well rd time day apart form every post normally id make alt post point care people see truly low long rode last year life think well really sombody fight long tierd fight keep alive tierd heart heavy regret pain cause see way time count never truly nature saw cruel thing feel associate something even close pain ever choise would never feel pain never choise pain woman feel inside burden come longer know know defective see least ill sad see go wish strength stay longer complete truth never cut live take much effort even live parent least child wasent complete fuck least old brother fail goodbye everyone thank everyone tried convince stay previous post sorry let day know appreciate effort even waste goodbye</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr">
@@ -24385,7 +24377,7 @@
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>doubt want keep go turn 25 girl u disabled depression bpd anxiety add bad tremor result issue parent treat like little girl work proper job much life little immature age basically feel mentally physically unwell work tremor go collapse exhaustion least twice month parent mum especially pressuring work give job know would able handle apply make happy though never hear back social worker say unwell work go worked people down syndrome severely disabled job work schizophrenic woman worse hold 9 5 job fourth think disability mum see give say accept show sign try ie small work history majority money make year music come far job mum make job house person ever clean cat litter box tremor go bad can not hold bag straight get litter cat droppings everywhere insistent stick work matter two girlfriends parent know date one one live canada want run away mum say even try visit would get canadian police come get since mentally unwell canadian girlfriend also struggle parent like say basket case date kind passport anyway girlfriend live midwest u mum say move would never contact family ever even though tell would would become ungrateful towards girlfriend get attitude parent say short temper quite mellow year verbal abuse father credit finally something gotten damage anyways like tried stab stomach stop knife take feel stick really want keep go get really difficult want break girlfriend heart know anymore know unstable parent really mistreat</t>
+          <t>doubt want keep go turn girl u disabled depression bpd anxiety add bad tremor result issue parent treat like little girl work proper job much life little immature age basically feel mentally physically unwell work tremor go collapse exhaustion least twice month parent mum especially pressuring work give job know would able handle apply make happy though never hear back social worker say unwell work go worked people down syndrome severely disabled job work schizophrenic woman worse hold job fourth think disability mum see give say accept show sign try ie small work history majority money make year music come far job mum make job house person ever clean cat litter box tremor go bad can not hold bag straight get litter cat droppings everywhere insistent stick work matter girlfriends parent know date life canada want run away mum say even try visit would get canadian police come get since mentally unwell canadian girlfriend also struggle parent like say basket case date kind passport anyway girlfriend live midwest u mum say move would never contact family ever even though tell would would become ungrateful towards girlfriend get attitude parent say short temper quite mellow year verbal abuse father credit finally something gotten damage anyways like tried stab stomach stop knife take feel stick really want keep go get really difficult want break girlfriend heart know anymore know unstable parent really mistreat</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr">
@@ -24419,7 +24411,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>low iq twice test time get iq around 8485 somehow entirely awful school able b student without much study actually start study start get grade 90 even 100 even though skim exemplary grade barely retain learn nobody around believe stupid grade go poor vocabulary overall especially spoken word can not basic mental math still count finger nineteen year old low income uneducated family innately disadvantage birth also mom smoke weed cigarette throughout pregnancy 8th month pregnancy detach placenta preform emergency csection likely brain damage oxygen deprivation feel incredibly empty every moment awake favorite time day go sleep night night always go quickly lately spend everyday sleep much joy dream want least average intelligence least unbearable aware every moment dumb ever dumb always aspire leave financial hole everyday pass remind probably never happen point feel like stuck rock hard place terrify leave behind family pet know continue live life get bad bad please anyone could give even smidgen hope greatly appreciative</t>
+          <t>low iq twice test time get iq around somehow entirely awful school able b student without much study actually start study start get grade even even though skim exemplary grade barely retain learn nobody around believe stupid grade go poor vocabulary overall especially spoken word can not basic mental math still count finger year old low income uneducated family innately disadvantage birth also mom smoke weed cigarette throughout pregnancy th month pregnancy detach placenta preform emergency csection likely brain damage oxygen deprivation feel incredibly empty every moment awake favorite time day go sleep night night always go quickly lately spend everyday sleep much joy dream want least average intelligence least unbearable aware every moment dumb ever dumb always aspire leave financial hole everyday pass remind probably never happen point feel like stuck rock hard place terrify leave behind family pet know continue live life get bad bad please anyone could give even smidgen hope greatly appreciative</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
@@ -24436,7 +24428,7 @@
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>night struggle sleep sometimes wish even wake tired feeling like even good day one thing always drag think ever come good night guess</t>
+          <t>night struggle sleep sometimes wish even wake tired feeling like even good day thing always drag think ever come good night guess</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr">
@@ -24470,7 +24462,7 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>never post feel loss can not seem find anything online similar figure would post bit backstory boyfriend 5 year call work monday say check mental health hospital know roughly would still shock day later open say make plan chose weapon decide therapy session want anymore weird spot necessarily attempt suicide damn close closer ever could imagine start new job bakery month ago happen hard time cop everything tell bos probably would back follow monday fast forward friday get call one friends help get job say work team try understanding think friend think immature irresponsible go work friend even go far enough say maybe strong enough boyfriend since could find go work guess ask advice friend say work talk cut hour since show reliable even though happen never much show late call would feel loss yes realize work know face work especially know annoy</t>
+          <t>never post feel loss can not seem find anything online similar figure would post bit backstory boyfriend year call work monday say check mental health hospital know roughly would still shock day later open say make plan chose weapon decide therapy session want anymore weird spot necessarily attempt suicide damn close closer ever could imagine start new job bakery month ago happen hard time cop everything tell bos probably would back follow monday fast forward friday get call friend help get job say work team try understanding think friend think immature irresponsible go work friend even go far enough say maybe strong enough boyfriend since could find go work guess ask advice friend say work talk cut hour since show reliable even though happen never much show late call would feel loss yes realize work know face work especially know annoy</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
@@ -24487,7 +24479,7 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>always hear woman fear love child adopt case true case seem true thank nice christmas gift give never give sense care never always get blame thing always feel like shrug never felt comfortable come advice never ask connection u nonexistent taught period give book explain puberty never teach sex never ask boyfriend never ask anything really know try talk seem annoy come guidance major judge able make mind always petty give attitude ask depress since 12 year old never notice never help school hat want license try get citizenship could care less one health insurance care want brace never help finally become old enough anyone tell secret anyone guide feel bad always alone seem like care want near get offend everytime hang dad never want anything know think good parent familiar want mother maybe care maybe seem like love wish show love</t>
+          <t>always hear woman fear love child adopt case true case seem true thank nice christmas gift give never give sense care never always get blame thing always feel like shrug never felt comfortable come advice never ask connection u nonexistent taught period give book explain puberty never teach sex never ask boyfriend never ask anything really know try talk seem annoy come guidance major judge able make mind always petty give attitude ask depress since year old never notice never help school hat want license try get citizenship could care less health insurance care want brace never help finally become old enough anyone tell secret anyone guide feel bad always alone seem like care want near get offend everytime hang dad never want anything know think good parent familiar want mother maybe care maybe seem like love wish show love</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
@@ -24516,7 +24508,7 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>tw tw tw even cut make feel good anymore give weird feel chest cop mechanism anymore healthy 9 day till commit suicide</t>
+          <t>tw tw tw even cut make feel good anymore give weird feel chest cop mechanism anymore healthy day till commit suicide</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr">
@@ -24533,7 +24525,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>today one day wish hit truck never wake</t>
+          <t>today day wish hit truck never wake</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
@@ -24572,7 +24564,7 @@
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>suffer heavy depression long time ex absolutely love max get along well gorgeous care love nice first girl actually love long long time good think knew suffer depression crazy part every day improve support use slowly walk step get well happy girl like climb depress hole long well get argument breakup think pretty distant blew tell can not handle anymore left heartbroken could handle depression anymore hurt loved whole heart look like stranger street never truly explain everything happen talk thought make u strong open help never tell much hurting depression saw improve much decide leave outta make sense well today progress lose feel worse ever life really fucking hurt know one person love could handle bad leave rot even know deadass hook girl party drink friend blackout know trust another girl emotion even trust love someone want give world ruin u piece shit know want see improve come back</t>
+          <t>suffer heavy depression long time ex absolutely love max get along well gorgeous care love nice first girl actually love long long time good think knew suffer depression crazy part every day improve support use slowly walk step get well happy girl like climb depress hole long well get argument breakup think pretty distant blew tell can not handle anymore left heartbroken could handle depression anymore hurt loved whole heart look like stranger street never truly explain everything happen talk thought make u strong open help never tell much hurting depression saw improve much decide leave outta make sense well today progress lose feel worse ever life really fucking hurt know person love could handle bad leave rot even know deadass hook girl party drink friend blackout know trust another girl emotion even trust love someone want give world ruin u piece shit know want see improve come back</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
@@ -24589,7 +24581,7 @@
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>yesterday brawl enough another reason honest main reason bad thing happen well abandon rather family like even call 1 parent hate blame everything family must admit felt good say say feel good know soon fear death pain peace come afterwards wait life honest smile moment like wait spark light shit helps explode desireless voyage voyage love song time prepare expect long time come remember every single time something miss cat cat traitorous nature unlike dog never pl ck pjp 13121987</t>
+          <t>yesterday brawl enough another reason honest main reason bad thing happen well abandon rather family like even call parent hate blame everything family must admit felt good say say feel good know soon fear death pain peace come afterwards wait life honest smile moment like wait spark light shit helps explode desireless voyage voyage love song time prepare expect long time come remember every single time something miss cat cat traitorous nature unlike dog never pl ck pjp</t>
         </is>
       </c>
       <c r="C1425" t="inlineStr">
@@ -24623,7 +24615,7 @@
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t>diphenhydramine 25mg pill</t>
+          <t>diphenhydramine mg pill</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
@@ -24635,7 +24627,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>passion anything 5 hour free time</t>
+          <t>passion anything hour free time</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
@@ -24708,7 +24700,7 @@
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>wish know one would think twice want hurt family</t>
+          <t>wish know would think twice want hurt family</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
@@ -24725,7 +24717,7 @@
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>diagnosed major depression anxiety year ago hi 41 year old male good job make good money hurt depression anxiety suicide run family commit 72 hour hold twice suicidal plan suicide self harm think suicide weekly sometimes daily want medication self medicate alcohol work obsession high risk sport embarrass can not fit life broken fix suffer silence want bother family friend girlfriend plan suicide many time even tonight yes write many suicide note well tell someone lock without shoelace need cause hide even broken fix already go cycle numb angry sad want feel numb medication purpose trust anyone talk respond way make hide truly feel want pain stop pain feeling year break besides wake know else answer understand family member commit suicide get selfish stop pain many can not understand know end hide silence keep everyone happy say something even miserable turn become numb really care know alcohol help help sleep drink wide awake try make brain quiet high risk sport secretly hop die spend last night emergency room alone contact family friend erased message girlfriend sure heart attack want die alone want bother anyone girlfriend saw erased message tell girlfriend chest pain want make sure anything never tell family friend never know need stop cycle numb angry everyone push everyone way wake tomorrow think whoever write idiot stupid numb ignorant pain feel cycle repeat help</t>
+          <t>diagnosed major depression anxiety year ago hi year old male good job make good money hurt depression anxiety suicide run family commit hour hold twice suicidal plan suicide self harm think suicide weekly sometimes daily want medication self medicate alcohol work obsession high risk sport embarrass can not fit life broken fix suffer silence want bother family friend girlfriend plan suicide many time even tonight yes write many suicide note well tell someone lock without shoelace need cause hide even broken fix already go cycle numb angry sad want feel numb medication purpose trust anyone talk respond way make hide truly feel want pain stop pain feeling year break besides wake know else answer understand family member commit suicide get selfish stop pain many can not understand know end hide silence keep everyone happy say something even miserable turn become numb really care know alcohol help help sleep drink wide awake try make brain quiet high risk sport secretly hop die spend last night emergency room alone contact family friend erased message girlfriend sure heart attack want die alone want bother anyone girlfriend saw erased message tell girlfriend chest pain want make sure anything never tell family friend never know need stop cycle numb angry everyone push everyone way wake tomorrow think whoever write idiot stupid numb ignorant pain feel cycle repeat help</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
@@ -24759,7 +24751,7 @@
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>feel like something put tell kill keep throw shit till give think finally take breather something else stress time late rent could get money together even go say thing get money get work swing bank withdraw money lay rent car would start completely alone state call someone come jump would jump spend money get tow damn mechanic shop jerk around end fighting alot use mechanic know get jerk around incompetent take 6 hour basically figure battery need replace lied told test battery first pull bay put new starter without tell fact tell engine seize due 0 oil know believe get oil change week half ago know leak either lie technician luge shop put oil back car anyway long story short force pay 600 basically battery change go back work 2 hour later sleep since last shift great 600 go rent money sure go think finally reach breaking point</t>
+          <t>feel like something put tell kill keep throw shit till give think finally take breather something else stress time late rent could get money together even go say thing get money get work swing bank withdraw money lay rent car would start completely alone state call someone come jump would jump spend money get tow damn mechanic shop jerk around end fighting alot use mechanic know get jerk around incompetent take hour basically figure battery need replace lied told test battery first pull bay put new starter without tell fact tell engine seize due oil know believe get oil change week half ago know leak either lie technician luge shop put oil back car anyway long story short force pay basically battery change go back work hour later sleep since last shift great go rent money sure go think finally reach breaking point</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
@@ -24776,7 +24768,7 @@
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>meet girl month ago feel love quick portugal slovenia think long distance feel like go work talk 2 day ago tell can not friends make suffer seem problem can not get watch somebody drift away wait hurt much thing say amazing bad want stay can not fall depression tell go stay know capable hurt 3 year think get crawls back fast ahhhhh feel like egoistical needy piece shit can not get fact fuck shit fuck life thanks listen</t>
+          <t>meet girl month ago feel love quick portugal slovenia think long distance feel like go work talk day ago tell can not friends make suffer seem problem can not get watch somebody drift away wait hurt much thing say amazing bad want stay can not fall depression tell go stay know capable hurt year think get crawls back fast ahhhhh feel like egoistical needy piece shit can not get fact fuck shit fuck life thanks listen red_heart</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
@@ -24793,7 +24785,7 @@
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>utter absence meaning day day life would love nothing feel anything artificial emotion automate action ala must take pill else crumble oh pill maybe 3 fine line authentic peace self destruction feel like life time unfortunately year life time look forward</t>
+          <t>utter absence meaning day day life would love nothing feel anything artificial emotion automate action ala must take pill else crumble oh pill maybe fine line authentic peace self destruction feel like life time unfortunately year life time look forward</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
@@ -24810,7 +24802,7 @@
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>28 still live parent trap shitty dead end job could finish college can not go back either every girl try date leave almost zero friend one push priority list never check upset parent understand anything feel tell get instead actually talk today girl see block goddamn reason every single siteapp contact know deal anymore plus worried health feel like 50 year old body time become much never felt alone life right nowhere turn anymorei guess post get feeling open somewhere hopefully others relate guess least feel judged disclose info seriousness know cuz list reason live slowly shrink</t>
+          <t>still live parent trap shitty dead end job could finish college can not go back either every girl try date leave almost friends one push priority list never check upset parent understand anything feel tell get instead actually talk today girl see block goddamn reason every single siteapp contact know deal anymore plus worried health feel like year old body time become much never felt alone life right nowhere turn anymorei guess post get feeling open somewhere hopefully others relate guess least feel judged disclose info seriousness know cuz list reason live slowly shrink</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
@@ -24827,7 +24819,7 @@
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>caucasian male age 30 get complete vivid detail numerous condition childhood exc start happen around 27 ex spend well 10 year together break due unfaithfulness exc something happen although spoken many people therapist feel like real dead walk multiple personality basket case always someone freinds motivation excitement nothing empty get back together inform pregnant fling plan please note try kid 6 year prior find infertile unless fertility med long story short abort child get pregnant give situation prior hard enough trauma pure gut wrench pain question pregnancy well family question take tole work deterriorated personal happyness destroy know feel logical thing give situation always someone multiple people make rash decision ruin life always want police officer thrown due tatoo policys people always avoid either creepy weird family abandonned legit work sit basement suicide commence july 15th 2020 plan make suddle possible maybe accident consider suicide someone individual kill thing consider multiple account deletion</t>
+          <t>caucasian male age get complete vivid detail numerous condition childhood exc start happen around ex spend well year together break due unfaithfulness exc something happen although spoken many people therapist feel like real dead walk multiple personality basket case always someone freinds motivation excitement nothing empty get back together inform pregnant fling plan please note try kid year prior find infertile unless fertility med long story short abort child get pregnant give situation prior hard enough trauma pure gut wrench pain question pregnancy well family question take tole work deterriorated personal happyness destroy know feel logical thing give situation always someone multiple people make rash decision ruin life always want police officer thrown due tatoo policys people always avoid either creepy weird family abandonned legit work sit basement suicide commence july th plan make suddle possible maybe accident consider suicide someone individual kill thing consider multiple account deletion</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
@@ -24844,7 +24836,7 @@
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>scrub wait psychiatrist able eat sleep 2 day trauma 28 year ago trigger sure psychiatrist still appetite hop get something get sleep pray</t>
+          <t>scrub wait psychiatrist able eat sleep day trauma year ago trigger sure psychiatrist still appetite hop get something get sleep pray</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
@@ -24861,7 +24853,7 @@
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>mess screw trust build boyfriend paranoia entire life afraid confronting people get parent would either get yelled ask help would help scar could confront normally anyone else would boyfriend problem carry toxic relationship felt like bring want help instead confront first confront friend tell promise make broken want help first felt necessary best friend argue argue broke lot detail add personal felt like bottom food chain destroy everything break trust build ruin friendship one one boyfriend feel like deserve exist always felt like mistake make wanted help instead bring misery sorry post dabble felt like need choke something heart hurt repeat thought head worst would better suicide attempt two year ago work guilt eat know want help know can not get therapy september feel like even nothing would change hurt everyone around</t>
+          <t>mess screw trust build boyfriend paranoia entire life afraid confronting people get parent would either get yelled ask help would help scar could confront normally anyone else would boyfriend problem carry toxic relationship felt like bring want help instead confront first confront friend tell promise make broken want help first felt necessary best friend argue argue broke lot detail add personal felt like bottom food chain destroy everything break trust build ruin friendship one boyfriend feel like deserve exist always felt like mistake make wanted help instead bring misery sorry post dabble felt like need choke something heart hurt repeat thought head worst would better suicide attempt year ago work guilt eat know want help know can not get therapy september feel like even nothing would change hurt everyone around</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
@@ -24895,7 +24887,7 @@
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>really depress lately math subject school fail keep think graduate energy go school anymore fake everything go nearby computer cafe even though enough money commute school know lifes hard something brain break crazy though uncaring notice suddenly grow interest one kitchen knives like hurt people odd interest imagine knife kill painlessly thing phobia sharp thing grow cautious sharp object include knife really bad stab motion point consider normal also keep daydream walk oddly enough daydream get car crash something similar high chance happen consider daydream another point fake laughter know keep know probably mentally ill know since psychiatrist therapists cost much country anyway ramble problem feel end soon feel</t>
+          <t>really depress lately math subject school fail keep think graduate energy go school anymore fake everything go nearby computer cafe even though enough money commute school know lifes hard something brain break crazy though uncaring notice suddenly grow interest kitchen knife like hurt people odd interest imagine knife kill painlessly thing phobia sharp thing grow cautious sharp object include knife really bad stab motion point consider normal also keep daydream walk oddly enough daydream get car crash something similar high chance happen consider daydream another point fake laughter know keep know probably mentally ill know since psychiatrist therapists cost much country anyway ramble problem feel end soon feel</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
@@ -24912,7 +24904,7 @@
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>get reject twice today low score class lose last friend could talk parent say get good enough grade kick try tinder search maybe someone go 11 like find hard way people could unlike one match never respond thing keep knife fact much pu55y</t>
+          <t>get reject twice today low score class lose last friend could talk parent say get good enough grade kick try tinder search maybe someone go like find hard way people could unlike one match never respond thing keep knife fact much puy</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
@@ -24929,7 +24921,7 @@
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>yesterday great clear head day genuinely happy good time go today wake skipped class glue bed 5 hour finally manage get make sandwich need go gym anything can not back bed particular reason anxious hell hopeless load school work need can not bring begin overwhelm lose spunk</t>
+          <t>yesterday great clear head day genuinely happy good time go today wake skipped class glue bed hour finally manage get make sandwich need go gym anything can not back bed particular reason anxious hell hopeless load school work need can not bring begin overwhelm lose spunk</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
@@ -24997,7 +24989,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>cut many different thing year first nail scissors razor blade keep go downhill think would get bad three week streak cutting right go deep every time happy see blood addict scar go friend place next weekend suppose bring bathing suit know hold even want go still one heal know visible bad cut leg specifically ankles shin wear sock every day sleep friend know want go trouble explain make thing weird stop cut tell know emotional damage even heal two week know put razor anyone know</t>
+          <t>cut many different thing year first nail scissors razor blade keep go downhill think would get bad week streak cutting right go deep every time happy see blood addict scar go friend place next weekend suppose bring bathing suit know hold even want go still one heal know visible bad cut leg specifically ankles shin wear sock every day sleep friend know want go trouble explain make thing weird stop cut tell know emotional damage even heal week know put razor anyone know</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
@@ -25031,7 +25023,7 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>need know someone time post deep depressive episode end sight miss single day sertraline feel like hit rock bottom first time forgotten pill worry missed one dose worry actually ran rock bottom know can not still nothing sound well dark part brain self harm go breakdown claw arm bad enough leave scar god need smoke please time post take current dose try relax bed tear keep come mind stop</t>
+          <t>need know someone time post deep depressive episode end sight miss single day sertraline feel like hit rock bottom first time forgotten pill worry miss dose worried actually run rock bottom know can not still nothing sound well dark part brain self harm go breakdown claw arm bad enough leave scar god need smoke please time post take current dose try relax bed tear keep come mind stop</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
@@ -25048,7 +25040,7 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>guy know two year spend time together every day week last week usually spend night house sex lot texted ask want hangout tonight tell can not go parent house tonight feel sad hurt know feel like throw friendship ring give birthday trash flush 25 29</t>
+          <t>guy know year spend time together every day week last week usually spend night house sex lot texted ask want hangout tonight tell can not go parent house tonight feel sad hurt know feel like throw friendship ring give birthday trash flushing</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
@@ -25099,7 +25091,7 @@
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>deal depression 1 give upvote maybe 2 httpsopenspotifycomplaylist2yu2ynndftds8ki6yjlmdu</t>
+          <t>deal depression give upvote maybe httpsopenspotifycomplaylistyuynndftdskiyjlmdu</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
@@ -25128,7 +25120,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>30 thing like take time energy maybe feel 5 good</t>
+          <t>thing like take time energy maybe feel good</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
@@ -25145,12 +25137,12 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>fiance pass away 27th week gotten well</t>
+          <t>fiance pass away th week gotten well</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>know say anymore meaning life felt like leave funeral today edit 1 thank encouragement expect really ever get honest feel like best mask good time</t>
+          <t>know say anymore meaning life felt like leave funeral today edit thank encouragement expect really ever get honest feel like best mask good time</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
@@ -25218,7 +25210,7 @@
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>wake thing every day lie bed hour watch series game feel like shit every time eat think thing could much good thing go differently every single day feel like shit wake go sleep interact friend painful exist can not keep go like life pointless motivation change want stop want pain stop burden friend family feel lonely house 4 lonely general miss friend scar go outside hate much</t>
+          <t>wake thing every day lie bed hour watch series game feel like shit every time eat think thing could much good thing go differently every single day feel like shit wake go sleep interact friend painful exist can not keep go like life pointless motivation change want stop want pain stop burden friend family feel lonely house lonely general miss friend scar go outside hate much</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
@@ -25235,7 +25227,7 @@
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>16 year old go private high school mean happy thing wrong life emotionally verbally abusive father however can not feel anything sadness pain medically diagnose psychopath severe depression nothing live eye self esteem redeem quality nothing good can not feel happy unless cut abuse drug never love never able love anyone worthy love never love cry help comfort know post honest want like minded people know sympathize live final day earth</t>
+          <t>year old go private high school mean happy thing wrong life emotionally verbally abusive father however can not feel anything sadness pain medically diagnose psychopath severe depression nothing live eye self esteem redeem quality nothing good can not feel happy unless cut abuse drug never love never able love anyone worthy love never love cry help comfort know post honest want like minded people know sympathize live final day earth</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
@@ -25264,12 +25256,12 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>vicious circle lonelinessdepression</t>
+          <t>vicious circle lonelinessdepression counterclockwise_arrows_button</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>alone lack self confidence able give receive love affection feeling unwantedundesired loss self confidence intensifies isolation opportunity meet new people depression feel worthless achieve anything ashamed</t>
+          <t>alone lack self confidence left_arrow_curving_right able give receive love affection left_arrow_curving_right feel unwantedundesired left_arrow_curving_right loss self confidence intensifies left_arrow_curving_right isolation opportunity meet new people left_arrow_curving_right depression left_arrow_curving_right feel worthless left_arrow_curving_right achieve anything ashamed repeat_single_button</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
@@ -25286,7 +25278,7 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>know normal anymore little thing set always hurt people feeling joke make always say sensitive know sure fault get offended hard take responsibility also feel alone mean sense friendship talk romantic relationship 4 5 concussion say know definitely diagnose use box really hard say want say fumble word lot notice recent concussion month ago example one thing say regret call girl dyke say something rude say uncalled especially since know bisexual feel like trash say thing like homophobic time persay example offensive unregulated stuff come mouth daily constantly high marijuana time keep mood want like weed make thing bad high get even irritable smoke go bad anxiety psychosis episode also feel like failure senior year high school feel hopeless grade fs know anymore plan go trade school year probably follow never follow anything want anxiety prevents lot stuff think suicide thought scare endless cycle send dark hole thought feel hopeless like nothing help anymore also want sound pathetic tell girl like like say reciprocate feeling hurt say liked 2 year prior especially hurt like back well anxiety prevents happy want happy least 4 year feel like sorry ramble end</t>
+          <t>know normal anymore little thing set always hurt people feeling joke make always say sensitive know sure fault get offended hard take responsibility also feel alone mean sense friendship talk romantic relationship concussion say know definitely diagnose use box really hard say want say fumble word lot notice recent concussion month ago example thing say regret call girl dyke say something rude say uncalled especially since know bisexual feel like trash say thing like homophobic time persay example offensive unregulated stuff come mouth daily constantly high marijuana time keep mood want like weed make thing bad high get even irritable smoke go bad anxiety psychosis episode also feel like failure senior year high school feel hopeless grade fs know anymore plan go trade school year probably follow never follow anything want anxiety prevents lot stuff think suicide thought scare endless cycle send dark hole thought feel hopeless like nothing help anymore also want sound pathetic tell girl like like say reciprocate feeling hurt say liked year prior especially hurt like back well anxiety prevents happy want happy least year feel like sorry ramble end</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
@@ -25303,7 +25295,7 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>hello everyone sorry take time need help bite back story life come notsowelloff family mom leave 9at time sister 14 timein father care left country earn could least bread table sister take frustration bullied school gor functional family father distance u life generally suck also get time undiagnosed migraine si dad keep insist lie attention even punish stop talk long 2 year mother apply divorce mainly due father threat mental abuse saw father threaten mother throw si street send money divorce messy lot shit throw eachother end si insist need stick toghether since old insist stay home country dad also spite mother hat next year rough lot scream bully hit starve list long side note end climb tree window grab aome nasty fruit class mat trade homework sandwich care millimeter away die nah highschool worse bulying mom still away someone meet guy divorce can not blame alone country people still hat tried get mom get cuatody reason still can not wrap head around fail well husband lose crap keep repeat make feel like pure shit process fail fail yes say previously still remember say say happen year later decide go well place australia 4 year struggle 3 lost case finally get get 20 yo as mother get boyfriend husband turn dickhead year long story short get kick house 1 year live end extremely severe anxiety year turn 24 still live boyfriend take problem want end much stuff go say much diagnose discover accident clinical depression age 16 never address always felt like something wrong every time try look help tell suck counselor psycologists admittedly work courage go 3 time life past 3 year felt lose depress can not seem get find joy life thing use love reason energy motivation move drive work work put fake smile drive back sleep agrue sleep repeat feel angry time end hat ever know feel partner stuck game engage think put much pressure can not see mother talk sister talk go full contact father whenever anyone ask repeat fine smile hate hate sorry put enough want smile enjoy thing can not need help know write watch reddit read cry like idiot accurate true thing say say reading topic wish people know depression sorry take time read thank thank much listening also dear moderator accordince rule please delete thank</t>
+          <t>hello everyone sorry take time need help bite back story life come notsowelloff family mom leave time sister timein father care left country earn could least bread table sister take frustration bullied school gor functional family father distance u life generally suck also get time undiagnosed migraine si dad keep insist lie attention even punish stop talk long year mother apply divorce mainly due father threat mental abuse saw father threaten mother throw si street send money divorce messy lot shit throw eachother end si insist need stick toghether since old insist stay home country dad also spite mother hat next year rough lot scream bully hit starve list long side note end climb tree window grab aome nasty fruit class mat trade homework sandwich care millimeter away die nah highschool worse bulying mom still away someone meet guy divorce can not blame alone country people still hat tried get mom get cuatody reason still can not wrap head around fail well husband lose crap keep repeat make feel like pure shit process fail fail yes say previously still remember say say happen year later decide go well place australia year struggle lose case finally get get yo as mother get boyfriend husband turn dickhead year long story short get kick house year live end extremely severe anxiety year turn still live boyfriend take problem want end much stuff go say much diagnose discover accident clinical depression age never address always felt like something wrong every time try look help tell suck counselor psycologists admittedly work courage go times life past year felt lose depress can not seem get find joy life thing use love reason energy motivation move drive work work put fake smile drive back sleep agrue sleep repeat feel angry time end hat ever know feel partner stuck game engage think put much pressure can not see mother talk sister talk go full contact father whenever anyone ask repeat fine smile hate hate sorry put enough want smile enjoy thing can not need help know write watch reddit read cry like idiot accurate true thing say say reading topic wish people know depression sorry take time read thank thank much listening also dear moderator accordince rule please delete thank</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
@@ -25320,7 +25312,7 @@
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>do comment throw spiral well mentally support system outside dad know anymore think quit school since college work 3 year nowhere close degree yet still cc</t>
+          <t>do comment throw spiral well mentally support system outside dad know anymore think quit school since college work year nowhere close degree yet still cc</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
@@ -25337,7 +25329,7 @@
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>see start thing want say think depressed many friend opinion thing make worry suicidal self harm one thing really scar desensitization 1415 felt heavy feeling good 15 year feel void fairly scar come feel take seriously truely clue</t>
+          <t>see start thing want say think depressed many friend opinion thing make worry suicidal self harm thing really scar desensitization felt heavy feeling good year feel void fairly scar come feel take seriously truely clue</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
@@ -25349,7 +25341,7 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>wish could talk someone sucide 100</t>
+          <t>wish could talk someone sucide</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
@@ -25371,7 +25363,7 @@
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>baby recently regret ever get pregnant much ptsd back give birth full force life unlivable body ruin maybe stupid know would destroy body would abort know horrible sound super vain vain care look clothes people think look need feel comfortable body like belongs result can not wear bra even home much anxiety even baby home always uncomfortable someone ring buzzer jump scream can not let partner see body thought send panic attack can not shower together sleep fully clothe go different room change close door sex ever know go hate one day leave anyway messed drive away can not live life like can not mom like wait talk therapist monday explain see help ptsd ppd even big deal ptsd depression life cope moderate depression body issue never able get wait see body settle go take 6 month 2 year can not live go kill can not live rest life like agony every day 2 month know much long wait know make 6 month</t>
+          <t>baby recently regret ever get pregnant much ptsd back give birth full force life unlivable body ruin maybe stupid know would destroy body would abort know horrible sound super vain vain care look clothes people think look need feel comfortable body like belongs result can not wear bra even home much anxiety even baby home always uncomfortable someone ring buzzer jump scream can not let partner see body thought send panic attack can not shower together sleep fully clothe go different room change close door sex ever know go hate day leave anyway messed drive away can not live life like can not mom like wait talk therapist monday explain see help ptsd ppd even big deal ptsd depression life cope moderate depression body issue never able get wait see body settle go take month year can not live go kill can not live rest life like agony every day month know much long wait know make month</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
@@ -25388,7 +25380,7 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>errand generally go work make go therapy exhaust whole time hard concentrate admit call work 7 8 time year though usually call twice year whoop generally need can not cook maintain personal hygiene though microwave leftover someone else make eat fast food shower 4 week brush teeth day even halfassed brush hair day lay around run errandsworkinggoing therapy make body sore hell get 4 hour sleep average night hung anybody month half text friend can not talk anything thanugh feel pathetic really depressed function mean really big thing need small thing</t>
+          <t>errand generally go work make go therapy exhaust whole time hard concentrate admit call work time year though usually call twice year whoop generally need can not cook maintain personal hygiene though microwave leftover someone else make eat fast food shower week brush teeth day even halfassed brush hair day lay around run errandsworkinggoing therapy make body sore hell get hour sleep average night hung anybody month half text friend can not talk anything thanugh feel pathetic really depressed function mean really big thing need small thing</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
@@ -25405,7 +25397,7 @@
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>want leave world tire tell help tire feeling guilt shame want mother brother feel overwhelming feeling sadness though know anymore one turn nothing leave miserable life</t>
+          <t>want leave world tire tell help tire feeling guilt shame want mother brother feel overwhelming feeling sadness though know anymore turn nothing leave miserable life</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
@@ -25417,12 +25409,12 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>go slit wrist</t>
+          <t>go slit wrist clown_faceclown_face</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>fuck asshole</t>
+          <t>fuck asshole clown_faceglobe_showing_EuropeAfricaglobe_showing_EuropeAfricaglobe_showing_EuropeAfricaglobe_showing_EuropeAfricamiddle_fingermiddle_fingermiddle_fingermiddle_fingermiddle_finger</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
@@ -25439,7 +25431,7 @@
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>can not keep go try try good person every time turn around world take something can not afford live anymore state world make sick family splinter lose dad mother beyond do deal mess self make chest hurt never want want make familys life well fail 38 year old man can not even support let alone help love know turn doctor push many drug feel like even think therapy want blame father want love loved hate become want normal life want support help love one rock pile shit can not hate hate remember time chest hurt tire want love someone want good go die like can not stand think legally die want stop burden people forget quickly provide nothing world never kiss woman damn loser can not even imagine child would never want pas thought make sick want love type want hold someone hate much can not stop</t>
+          <t>can not keep go try try good person every time turn around world take something can not afford live anymore state world make sick family splinter lose dad mother beyond do deal mess self make chest hurt never want want make familys life well fail year old man can not even support let alone help love know turn doctor push many drug feel like even think therapy want blame father want love loved hate become want normal life want support help love one rock pile shit can not hate hate remember time chest hurt tire want love someone want good go die like can not stand think legally die want stop burden people forget quickly provide nothing world never kiss woman damn loser can not even imagine child would never want pas thought make sick want love type want hold someone hate much can not stop</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
@@ -25456,7 +25448,7 @@
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>struggle great deal lately suffer injury surgery suffer complication continue pain everyday since injury happen work force resign position order get worker comp settlement use money pay rent bill medical expense go look work since november mean really look every single day several interview literally tell multiple time second choice completely money almost food utility far behind every day expect turn received 3 day notice rent homeless family sick log friend leave tried every agency help repeatedly turn away fund help say even next month right point</t>
+          <t>struggle great deal lately suffer injury surgery suffer complication continue pain everyday since injury happen work force resign position order get worker comp settlement use money pay rent bill medical expense go look work since november mean really look every single day several interview literally tell multiple time second choice completely money almost food utility far behind every day expect turn received day notice rent homeless family sick log friend leave tried every agency help repeatedly turn away fund help say even next month right point</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
@@ -25507,7 +25499,7 @@
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>rant post people seem even want connect people today goodness reach help one responding yet cat coddle like tomorrow sense something wrong u human being really afraid connection</t>
+          <t>rant post people seem even want connect people today goodness reach help responding yet cat coddle like tomorrow sense something wrong u human being really afraid connection</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
@@ -25553,7 +25545,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>0 interest</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -25575,7 +25567,7 @@
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>want live like type sob hit ever get good promise would hold could leave family well financially grandma pass away could save pain suffer much one fucking like say anything god hurt hurt alone hurt reject tried keep go perhaps tomorrow wake go work like nothing happen tonight want pretend die fall asleep last time see fucking planet wake remember anything free</t>
+          <t>want live like type sob hit ever get good promise would hold could leave family well financially grandma pass away could save pain suffer much fucking like say anything god hurt hurt alone hurt reject tried keep go perhaps tomorrow wake go work like nothing happen tonight want pretend die fall asleep last time see fucking planet wake remember anything free</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
@@ -25609,7 +25601,7 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>38 always felt like screw one people thing start look good always fund way mess end back square one constantly always think end life like every day hold back think leave 2 young kid also depress know much loser dad try 3 overdoses zopiclone nothing practice hang sit come close pass 3 day ago belt door fought save know mrs kid due home can not shake thought debt gamble addiction pure unhappy</t>
+          <t>always felt like screw people thing start look good always fund way mess end back square constantly always think end life like every day hold back think leave young kid also depress know much loser dad try overdoses zopiclone nothing practice hang sit come close passing day ago belt door fought save know mrs kid due home can not shake thought debt gamble addiction pure unhappy</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
@@ -25626,7 +25618,7 @@
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>keep anymore keep reach help doctor push pill five therapist try push blame dead father can not afford home can not afford bill can not afford food even subreddits claim offer help delete post lurk account hundred karma know cry constantly hate life can not sleep can not eat try open people look like monster monster lose home nothing leave sell try hang sell dad belonging make end meet leave could good fun life piece garbage can not even work part time job buy grocery state turn away income 944mo disability do can not fight alone chest hurt eye hurt head spin even know make sense can not keep fight since child 38 year old man ha offer world leech skill never good school mental illness one would diagnose hate world never</t>
+          <t>keep anymore keep reach help doctor push pill therapist try push blame dead father can not afford home can not afford bill can not afford food even subreddits claim offer help delete post lurk account hundred karma know cry constantly hate life can not sleep can not eat try open people look like monster monster lose home nothing leave sell try hang sell dad belonging make end meet leave could good fun life piece garbage can not even work part time job buy grocery state turn away income mo disability do can not fight alone chest hurt eye hurt head spin even know make sense can not keep fight since child year old man ha offer world leech skill never good school mental illness would diagnose hate world never</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
@@ -25660,7 +25652,7 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>feel really worthless thing keep alive video game come 15 day doom eternal even last long tell tell cahms anything bother anxiety tell consider jump skyscraper city finish game nothing else make happy glad something world make happy short though</t>
+          <t>feel really worthless thing keep alive video game come day doom eternal even last long tell tell cahms anything bother anxiety tell consider jump skyscraper city finish game nothing else make happy glad something world make happy short though</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
@@ -25673,7 +25665,7 @@
       <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>freak feel empty worthless depress insurance call er see much would cost tell call office 85 weekday find know want hear call helpline call several one give shit really help look get drunk enough point kill scary really fuck lose fucking do</t>
+          <t>freak feel empty worthless depress insurance call er see much would cost tell call office weekdays find know want hear call helpline call several give shit really help look get drunk enough point kill scary really fuck lose fucking do</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
@@ -25690,7 +25682,7 @@
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>think today mull shitty mood lately basically think late depressive episode lasting longer usual tire wanted take long as nap chill day want deal responsibility plate right thought great would could someone take shift life week pop head maybe happen get throw back depressive episode maybe someone feel shitty long time universe decide give break one chosen take shift bear heavy emotion etc lucky enough free time afternoon snooze watch movie someone else take shift know feel like connect big picture contribute way somehow</t>
+          <t>think today mull shitty mood lately basically think late depressive episode lasting longer usual tire wanted take long as nap chill day want deal responsibility plate right thought great would could someone take shift life week pop head maybe happen get throw back depressive episode maybe someone feel shitty long time universe decide give break chosen take shift bear heavy emotion etc lucky enough free time afternoon snooze watch movie someone else take shift know feel like connect big picture contribute way somehow</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
@@ -25707,7 +25699,7 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>nothing negative thought time remember start gotten bad tend cry sleep even sleep know talk really anyone talk want dump everything maybe get guidance something make pain go away never see parent due mom step dad busy work run business dad probably somewhere rot arizona sister deploy navy run away year ago hear old brother drug addict cut tie u long time ago want message suicide hotline fear send ambulance force hospital force bill afford one close talk situation grow parent live different bad area little money never smart talented anything besides active imagination always learn issue pay attention remember information regardless hard tried lot friend end drop high school 3 year ago go back get adult diploma hope would enough get foot almost 26 month ago saw someone mental health find add thing answer help much small amount friends become aware increase depressed emotion try help part seem pay mind work dead end job adult life recently take boot camp course information technology field intern 5 week get position work small company help desk technician 3 month perm contract tell interview never anything related contract constantly extend 3 month 9th month time work bad company never work somewhere treat specifically u employee poorly promise increase pay hire full time salary cut pay think would notice secretly start look new position start last july november last year tire way treated year without thinking leave even though monthly bill top learning problem also extreme anger problem impatient far work go applied countless position since last july professional help update resume cover letter learn try much knowledge use pretty much none last job forget almost get nothing 2 company interview reject 2nd 3rd interview countless company apply either flat reject say anything next nothing leave money find something soon lose everything imagine bad credit law suit follow job thing never real relationship never see family even though literally live mom step dad almost never see friend extreme hate people assume due everything go year every day spend hour try teach new thing apply position available could possible help situation since last interview rejection constant reply email rejection can not anymore tried hard make thing well seek medical help close support family friends power always one step forward launch back tire starting tired know rejection ignore job everything become angry hate fill can not see happiness anything use love movie video game can not find joy piece escape day day music almost think listen feel like also listen feel constant pain emotional wreck everyone say get good long keep get bad put effort like deity purposefully try prevent happy make successful past week can not stop think kill make awful pain go away feel anything anymore thing hold back think come possible non existence can not even comprehend know thing hold back even fear start go away take early exit seem like best option apologize extremely long post maybe way leave small mark existence make feel little good seem feel well even hard work eventually get anywhere family job actually pay enough live constantly worry enough food water cut make payment hard feel happy accomplish know failure loss feel like say enough anyone even read read go times keep feeling bad add thank whoever take time read</t>
+          <t>nothing negative thought time remember start gotten bad tend cry sleep even sleep know talk really anyone talk want dump everything maybe get guidance something make pain go away never see parent due mom step dad busy work run business dad probably somewhere rot arizona sister deploy navy run away year ago hear old brother drug addict cut tie u long time ago want message suicide hotline fear send ambulance force hospital force bill afford close talk situation grow parent live different bad area little money never smart talented anything besides active imagination always learn issue pay attention remember information regardless hard tried lot friend end drop high school year ago go back get adult diploma hope would enough get foot almost month ago saw someone mental health find add thing answer help much small amount friends become aware increase depressed emotion try help part seem pay mind work dead end job adult life recently take boot camp course information technology field intern week get position work small company help desk technician month perm contract tell interview never anything related contract constantly extend month th month time work bad company never work somewhere treat specifically u employee poorly promise increase pay hire full time salary cut pay think would notice secretly start look new position start last july november last year tire way treated year without thinking leave even though monthly bill top learning problem also extreme anger problem impatient far work go applied countless position since last july professional help update resume cover letter learn try much knowledge use pretty much none last job forget almost gotten nothing company interview reject nd rd interview countless company apply either flat reject say anything next nothing leave money find something soon lose everything imagine bad credit law suit follow job thing never real relationship never see family even though literally live mom step dad almost never see friend extreme hate people assume due everything go year every day spend hour try teach new thing apply position available could possible help situation since last interview rejection constant reply email rejection can not anymore tried hard make thing well seek medical help close support family friends power always step forward launch back tired starting tire know rejection ignore job everything become angry hate fill can not see happiness anything use love movie video game can not find joy piece escape day day music almost think listen feel like also listen feel constant pain emotional wreck everyone say get good long keep get bad put effort like deity purposefully try prevent happy make successful past week can not stop think kill make awful pain go away feel anything anymore thing hold back think come possible non existence can not even comprehend know thing hold back even fear start go away take early exit seem like best option apologize extremely long post maybe way leave small mark existence make feel little good seem feel well even hard work eventually get anywhere family job actually pay enough live constantly worry enough food water cut make payment hard feel happy accomplish know failure loss feel like say enough anyone even read read go times keep feeling bad add thank whoever take time read</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
@@ -25724,7 +25716,7 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>get way attach ghost wanted hate could hat one point thing hold back think living fail fast forward year attempt suicide make realize much still care feel like deserve break though cared much probably even think moment another stupid dude everything fuel self hatred</t>
+          <t>get way attach ghost wanted hate could hat point thing hold back think living fail fast forward year attempt suicide make realize much still care feel like deserve break though cared much probably even think moment another stupid dude everything fuel self hatred</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
@@ -25741,7 +25733,7 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>little insight life 3 year ago lose last vehicle would ever 3 year ago lose place live lose least 23 job 3 year span 2 year ago lose girl love 1 year ago lose career fail 6 month ago eat good shower daily get job start fix life make plan fo get another car pay debt today jobless homeless hungry shower often eat much isolate self miss life miss go able socialize miss like date stuff wear clean clothes pay bill time behind miss driver license fear everytime get behind wheel miss apartment girl come ever want miss eat good miss shop thing barely live past 3 year everytime get job try fix credit never seem keep live life zero payment buy everything cash clearly keep thing really get good time</t>
+          <t>little insight life year ago lose last vehicle would ever year ago lose place live lose least job year span year ago lose girl love year ago lose career fail month ago eat good shower daily get job start fix life make plan fo get another car pay debt today jobless homeless hungry shower often eat much isolate self miss life miss go able socialize miss like date stuff wear clean clothes pay bill time behind miss driver license fear everytime get behind wheel miss apartment girl come ever want miss eat good miss shop thing barely live past year everytime get job try fix credit never seem keep live life payment buy everything cash clearly keep thing really get good time</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
@@ -25753,12 +25745,12 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>really think one phrase could even describe destroyed</t>
+          <t>really think phrase could even describe destroyed</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>even know start always think one thing always torture brain everyone child child perfect excuse hide condition know talk people know prolong conversation know anything sociable hand really smart really qualify something special people stupid think selfcentered instead think personality maybe one thing even comprehend society well continue able whatever want something amazing felt feel get powerful superpower able think something interesting make real make like professional something can not even talk even express brain amazing idea take trash something miserable much kid teen worried thing people say worry 100 sure shine correct people ask 22 22 year find anyone like anyone talk interesting thing superficial stupid thing anyone take life like poetry right value anyone understand anyone hat school partner always think thing ruin day understand small tiny disrespectful live city can not even pronounce name reason misfortune people damn vulgar damn low can not even teach kid kind respectful anyone learn pride keep away bully even know bullied bully tend attack people body stupid condition attack know smell like dog possess maybe find reasonable reason understand bully middle thought can not friends attack can not vulgar like reason hate ethnicity stupid language call spanish talk freaking stupid people learn every single piece word say country infest thirdworldpeople way worry lgbt inclusiveness include society guy alvaro c still name disgust profane putrid revolt person ever meet compulsive masturbator obsess pornography remember check teacher computer look sexual content masturbates class could care less life except one thing let breathe one miserable day school look daily fun let u make piece st even st actual thought cry try understand get make despreciable know thing insert mind problem porn addiction 14 decide play guitar feel able put music radio effort money energy leave something actually energy nothing lay bed watch repulsive video hate can not leave behind reason thing consume brain ability smartness heart soul want leave think reason life pointless stupid think stupid talk stupid living stupid try special world world take make descend level descend hell make top maybe like default get idea still beautiful idea alone wait someone help never come suicide bore option know die one notice hate take option want give pleasure freak hypocrite criminal society cry fall relative cry emotion good people know cry instead cry may believe god make sure devil one u wait destroy everyone else every piece disguise everything know think everything normal far away comprehend life world fing hate advice understand 22 year</t>
+          <t>even know start always think thing always torture brain everyone child child perfect excuse hide condition know talk people know prolong conversation know anything sociable hand really smart really qualify something special people stupid think selfcentered instead think personality maybe thing even comprehend society well continue able whatever want something amazing felt feel get powerful superpower able think something interesting make real make like professional something can not even talk even express brain amazing idea take trash something miserable much kid teen worried thing people say worry sure shine correct people ask year find anyone like anyone talk interesting thing superficial stupid thing anyone take life like poetry right value anyone understand anyone hat school partner always think thing ruin day understand small tiny disrespectful live city can not even pronounce name reason misfortune people damn vulgar damn low can not even teach kid kind respectful anyone learn pride keep away bully even know bullied bully tend attack people body stupid condition attack know smell like dog possess maybe find reasonable reason understand bully middle thought can not friends attack can not vulgar like reason hate ethnicity stupid language call spanish talk freaking stupid people learn every single piece word say country infest thirdworldpeople way worry lgbt inclusiveness include society guy alvaro c still name disgust profane putrid revolt person ever meet compulsive masturbator obsess pornography remember check teacher computer look sexual content masturbates class could care less life except thing let breathe miserable day school look daily fun let u make piece st even st actual thought cry try understand get make despreciable know thing insert mind problem porn addiction decide play guitar feel able put music radio effort money energy leave something actually energy nothing lay bed watch repulsive video hate can not leave behind reason thing consume brain ability smartness heart soul want leave think reason life pointless stupid think stupid talk stupid living stupid try special world world take make descend level descend hell make top maybe like default get idea still beautiful idea alone wait someone help never come suicide bore option know die notice hate take option want give pleasure freak hypocrite criminal society cry fall relative cry emotion good people know cry instead cry may believe god make sure devil u wait destroy everyone else every piece disguise everything know think everything normal far away comprehend life world fing hate advice understood year</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
@@ -25821,12 +25813,12 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>go bad episode hold thread one little thing could push edge</t>
+          <t>go bad episode hold thread little thing could push edge</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>bedroom bathroom look like hurricane struck can not even eat normally barely move exaggeration simple task feel like agony selfharmed almost year yet feel like relapse want give alcohol poison jump bridge interstate feel like burden fiancé know love concerned problem add recognize anymore know fuck dread future watch boomer parent suffer addiction depression loneliness struggle afford retirement give high hope despise fuck world want part cruel selfish violent disgust place energy partake rat race survive read far thanks take time sometimes someone need vent hold back real thought feeling</t>
+          <t>bedroom bathroom look like hurricane struck can not even eat normally barely move exaggeration simple task feel like agony selfharmed almost year yet feel like relapse want give alcohol poison jump bridge interstate feel like burden fiance know love concerned problem add recognize anymore know fuck dread future watch boomer parent suffer addiction depression loneliness struggle afford retirement give high hope despise fuck world want part cruel selfish violent disgust place energy partake rat race survive read far thanks take time sometimes someone need vent hold back real thought feeling</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
@@ -25855,7 +25847,7 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>go wait turn 21 legally purchase handgun shoot</t>
+          <t>go wait turn legally purchase handgun shoot</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -25911,7 +25903,7 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>year 45 month period malaise insecurity feel selfish writing parent refuse get test depression can not say ugly one want talk cool enough see automatically labeled uncool hate everyone fuck selfish fake hurt reject potential friend potential girlfriend friend see sad motivate try force open finally force try become therapist become burden feel need check use problem make mad fuck selfish everyone lie recently one friends girl fell love backstabbed many month confess love 7 month ago friend realize felt bad leak affectionate love note personal problem friend laugh call simp stop talk affectionate people past relationship always fail strong independent man needy baby come relationship girl want needy baby let alone ugly fuck like see girls school look exactly like girl backstabbed fuck eats away inside know chance want want press escape quit scar jump building would feel comfortable gun know real angst want stop go school everyday see everyone friend girlfriends good look make experience know can not achieve like life show can not want stop eat away</t>
+          <t>year month period malaise insecurity feel selfish writing parent refuse get test depression can not say ugly want talk cool enough see automatically labeled uncool hate everyone fuck selfish fake hurt reject potential friend potential girlfriend friend see sad motivate try force open finally force try become therapist become burden feel need check use problem make mad fuck selfish everyone lie recently friend girl fell love backstabbed many month confess love month ago friend realize felt bad leaked affectionate love note personal problem friend laugh call simp stop talk affectionate people past relationship always fail strong independent man needy baby come relationship girl want needy baby let alone ugly fuck like see girls school look exactly like girl backstabbed fuck eats away inside know chance want want press escape quit scar jump building would feel comfortable gun know real angst want stop go school everyday see everyone friend girlfriends good look make experience know can not achieve like life show can not want stop eat away</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
@@ -25923,12 +25915,12 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>one talk consent decision make serious context depression</t>
+          <t>talk consent decision make serious context depression</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>recently go severe depressive episode thing would otherwise do affect mental health affect someone love would like hear severe depression talk whether feel ability consent make decision sensitive matter severe depressive episode feel like society tell everyone fault make bad decision responsible choice understand mental illness properly black white want know whether think truly capacity fault decision make something would do outside acute depressive episode four ability usually assess decision make look around study find research purpose sadden whole topic four ability understand appreciate reason ability express choice can not say know exact way interpet 4 thing right without research feel possess ability severe depressive episode possess others vary answer would severe depressive episode possess reliably every moment consistent enough able say possess time thank reading</t>
+          <t>recently go severe depressive episode thing would otherwise do affect mental health affect someone love would like hear severe depression talk whether feel ability consent make decision sensitive matter severe depressive episode feel like society tell everyone fault make bad decision responsible choice understand mental illness properly black white want know whether think truly capacity fault decision make something would do outside acute depressive episode ability usually assess decision make look around study find research purpose sadden whole topic ability understand appreciate reason ability express choice can not say know exact way interpet thing right without research feel possess ability severe depressive episode possess others vary answer would severe depressive episode possess reliably every moment consistent enough able say possess time thank reading</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
@@ -25945,7 +25937,7 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>one best friend recently lose friend suicide really affect mental health never meet friend seem like great guy think ever lose anyone suicide friend really struggle cop atm worry make easy</t>
+          <t>best friend recently lose friend suicide really affect mental health never meet friend seem like great guy think ever lose anyone suicide friend really struggle cop atm worry make easy</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
@@ -25957,12 +25949,12 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>online counsel experience questionnaire approve moderator 8 participant leave need</t>
+          <t>online counsel experience questionnaire approve moderator participant leave need</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>ever use online counsel form asynchronous response email others look insight interested contribute opinion please click follow link access questionnaire online counsel experience questionnairehttpsformsglekk12mr77lrhffpqe9 anonymous response help development application online counsel time 510 min depend detail like provide thank</t>
+          <t>ever use online counsel form asynchronous response email others look insight interested contribute opinion please click follow link access questionnaire online counsel experience questionnairehttpsformsglekkmrlrhffpqe anonymous response help development application online counsel time min depend detail like provide thank</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
@@ -25974,12 +25966,12 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>f20 can not find job</t>
+          <t>f can not find job</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>turn 20 begin college year since money count mom support way last year lot thing happen make spiral terrible depression lose job since thing progressively gotten bad can not find new job live much place work since small town yet can not seem find one place make super sad see everyone fine nothing life make feel like failure know could much well great thing know start wish mom support like kid case thing feel like everything giant speck dust good situation feel well positive</t>
+          <t>turned begin college year since money count mom support way last year lot thing happen make spiral terrible depression lose job since thing progressively gotten bad can not find new job live much place work since small town yet can not seem find place make super sad see everyone fine nothing life make feel like failure know could much well great thing know start wish mom support like kid case thing feel like everything giant speck dust good situation feel well positive</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
@@ -25989,14 +25981,10 @@
       </c>
     </row>
     <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>20200216 000000</t>
-        </is>
-      </c>
+      <c r="A1508" t="inlineStr"/>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>morning february 16 2020 take cat emergency vet check extremely skinny move eaten use bathroom 2 day barely want around anyone muscules weak could even use back legs stand would drag want go lay exhausted thought go die night miraculously survive still extremely weak exhaust look put pet cage drive emergency vet vet examine immediately become accusatory critical kitty get position ask every question sun give eat past medical history maybe 40 question even call cat train wreck horrible condition keep telling thing well would take regular vet checkup sooner could prevent give medicine hyperthyroidism manageable cat condition make feel damn guilty want take away right tell could feel liver 25 kidney work extremely dehydrate mention give medicine iv drip change diet state say would much point kidney would eventually fail suggests euthanasia heart drop like rock want want give medicine hell bent ill pay care price ill pay keep push sister sign credit plan pay simply want bank even say could give medicine change diet etc possibility still work debilitate eventually family make decision put sleep day visit previous cat pass away due kidney failure want go thing snuggle kiss pet breathe final breath table heart wrench want bring home live 80 year old grandmother prior put sleep grandmother would see drag leg see weak exhaust look would start cry say want see cat suffer like anymore want bring home want anything happen grandma everything do one day happen fast still torn feel like go back time pull away table bring present day miss much misty little baby felt like yank world soon drive crazy regular vet tookher long ago first find tell u hyperthyroidism 3 u charge make sure get medicine finish dwindle responsibility stress mindset shit job set hour take care grandmother dementiawe make sure dosent wander outside anything completely forgotten count family member give medicine home forgotten even take medicine well eat play last year go ear check reminded go downhill give medicine finish find year would put sleep never intend hurt misty never want get sick every morning cry eye wish bed lick hand even meow cute little hello meow use every day think ifs onlys can not even smell look certain thing anymore can not smile happy anymore without baby buy box cutter last week seriously contemplate end life horrible guilt feel like murder cat feel like purposefully let get sick die felt like need euthanized responsibility make sure get medicine fuck bad want live anymore feel like sorry sweet baby kitty help grandmother fail help feel like one world deal situation know want fuck die hate exist everyday wake remind cat go best friend baby dead cause want throw hate living want die feel anything sorry misty sorry</t>
+          <t>morning february take cat emergency vet check extremely skinny move eaten use bathroom day barely want around anyone muscules weak could even use back legs stand would drag want go lay exhausted thought go die night miraculously survive still extremely weak exhaust look put pet cage drive emergency vet vet examine immediately become accusatory critical kitty get position ask every question sun give eat past medical history maybe question even call cat train wreck horrible condition keep telling thing well would take regular vet checkup sooner could prevent give medicine hyperthyroidism manageable cat condition make feel damn guilty want take away right tell could feel liver kidney work extremely dehydrate mention give medicine iv drip change diet state say would much point kidney would eventually fail suggests euthanasia heart drop like rock want want give medicine hell bent ill pay care price ill pay keep push sister sign credit plan pay simply want bank even say could give medicine change diet etc possibility still work debilitate eventually family make decision put sleep day visit previous cat pass away due kidney failure want go thing snuggle kiss pet breathe final breath table heart wrench want bring home live year old grandmother prior put sleep grandmother would see drag leg see weak exhaust look would start cry say want see cat suffer like anymore want bring home want anything happen grandma everything do day happen fast still torn feel like go back time pull away table bring present day miss much misty little baby felt like yank world soon drive crazy regular vet tookher long ago first find tell u hyperthyroidism u charge make sure get medicine finish dwindle responsibility stress mindset shit job set hour take care grandmother dementiawe make sure dosent wander outside anything completely forgotten count family member give medicine home forgotten even take medicine well eat play last year go ear check reminded go downhill give medicine finish find year would put sleep never intend hurt misty never want get sick every morning cry eye wish bed lick hand even meow cute little hello meow use every day think ifs onlys can not even smell look certain thing anymore can not smile happy anymore without baby buy box cutter last week seriously contemplate end life horrible guilt feel like murder cat feel like purposefully let get sick die felt like need euthanized responsibility make sure get medicine fuck bad want live anymore feel like sorry sweet baby kitty help grandmother fail help feel like world deal situation know want fuck die hate exist everyday wake remind cat go best friend baby dead cause want throw hate living want die feel anything sorry misty sorry</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
@@ -26013,7 +26001,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>sorry error english first language anxious right long story kind confuse go depressed since ever know start started thing know depress since kid thing get bad bad big crisis last two year life expect thing complicate try tried still fuck thing cousin live another country ask could stay 3 month thing get well organize live move one month ago try build thing live maybe another country another life maybe thing get well know try asked stay home really kind supportive august2019 get last month nice wake purpose say bad thing like watch tv sleep couch couch bed insinuate find place since day arrive try help thing clean house wash clothes go supermarket buy food cook food try outside give space still act bad towards know since ask 3 month one month thing bad like thing feel lonely right try talk yesterday mean say thing like people lonely grow life hard cut depress shit others thing really mean get get really really really drunk friend get home another person fun make joke make laugh watch movie together fuck shit sleep night wake start argument dish dirty use last night drunk try talk say something like hate really confuse know asshole asshole kill want kill want end full shitty life asshole kill away family without say goodbye without people know really happen</t>
+          <t>sorry error english first language anxious right long story kind confuse go depressed since ever know start started thing know depress since kid thing get bad bad big crisis last year life expect thing complicate try tried still fuck thing cousin live another country ask could stay month thing get well organize live move month ago try build thing live maybe another country another life maybe thing get well know try asked stay home really kind supportive august get last month nice wake purpose say bad thing like watch tv sleep couch couch bed insinuate find place since day arrive try help thing clean house wash clothes go supermarket buy food cook food try outside give space still act bad towards know since ask month month thing bad like thing feel lonely right try talk yesterday mean say thing like people lonely grow life hard cut depress shit others thing really mean get get really really really drunk friend get home another person fun make joke make laugh watch movie together fuck shit sleep night wake start argument dish dirty use last night drunk try talk say something like hate really confuse know asshole asshole kill want kill want end full shitty life asshole kill away family without say goodbye without people know really happen</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
@@ -26076,7 +26064,7 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>21 year old make minimum wage friend take one class right usually low energy</t>
+          <t>year old make minimum wage friend take class right usually low energy</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
@@ -26098,7 +26086,7 @@
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>almost everyday wake hat would hate though graduated high school love healthy family hobby online friend yet find paranoid hateful deserve life have_x000d_ sometimes want scream feeling like trap another person skin feel like accomplishment fake useless slab meat eventually die real life friend post secondary job car license closest family 6 hour away barely talk want happy good thing life find hat easy hate feel selfish like selfabsorbed care want happy like people online family always see glass half full always half empty</t>
+          <t>almost everyday wake hat would hate though graduated high school love healthy family hobby online friend yet find paranoid hateful deserve life have_xd_ sometimes want scream feeling like trap another person skin feel like accomplishment fake useless slab meat eventually die real life friend post secondary job car license close family hour away barely talk want happy good thing life find hat easy hate feel selfish like selfabsorbed care want happy like people online family always see glass half full always half empty</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
@@ -26132,7 +26120,7 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>within inch lose job m25 spend last year job spiral apathy catch write reprimand lose job go lose house possibly wife wtf depression fuck life</t>
+          <t>within inch lose job spend last year job spiral apathy catch write reprimand lose job go lose house possibly wife wtf depression fuck life</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
